--- a/vrp_results_tracker.xlsx
+++ b/vrp_results_tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdrex\PycharmProjects\wilib_vrp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCDA152-A8E0-482C-937D-CBA036EFCD61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DC3E00-6740-4639-8879-01CD7B9834FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{28F97023-1D5E-44FA-A19C-A9B15763E968}"/>
   </bookViews>

--- a/vrp_results_tracker.xlsx
+++ b/vrp_results_tracker.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdrex\PycharmProjects\wilib_vrp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DC3E00-6740-4639-8879-01CD7B9834FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C36D27-DEF4-4627-BC39-E0447BA5EE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{28F97023-1D5E-44FA-A19C-A9B15763E968}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{28F97023-1D5E-44FA-A19C-A9B15763E968}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="full_model_set" sheetId="2" r:id="rId1"/>
+    <sheet name="reduced_model_set" sheetId="1" r:id="rId2"/>
+    <sheet name="no_capacity" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="99">
   <si>
     <t>id</t>
   </si>
@@ -319,6 +321,18 @@
   </si>
   <si>
     <t>101005</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>vehicle_capacity</t>
+  </si>
+  <si>
+    <t>starter_08_gmaps</t>
+  </si>
+  <si>
+    <t>none</t>
   </si>
 </sst>
 </file>
@@ -348,7 +362,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -436,11 +450,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -455,6 +493,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -768,11 +810,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE80E51-CF44-4883-A8E2-7FBF5966048F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52608AA2-C70E-466C-93EB-B7FB869EB03E}">
   <dimension ref="A1:S101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -854,7 +896,9 @@
       <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="12"/>
+      <c r="E2" s="12">
+        <v>13</v>
+      </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -883,7 +927,9 @@
       <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="12"/>
+      <c r="E3" s="12">
+        <v>13</v>
+      </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -912,7 +958,9 @@
       <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="12">
+        <v>13</v>
+      </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -941,7 +989,9 @@
       <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="12">
+        <v>13</v>
+      </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -970,7 +1020,9 @@
       <c r="D6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="12">
+        <v>13</v>
+      </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -999,7 +1051,9 @@
       <c r="D7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="12">
+        <v>11</v>
+      </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -1028,7 +1082,9 @@
       <c r="D8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="12">
+        <v>11</v>
+      </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -1057,7 +1113,9 @@
       <c r="D9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="12"/>
+      <c r="E9" s="12">
+        <v>11</v>
+      </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -1086,7 +1144,9 @@
       <c r="D10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="12"/>
+      <c r="E10" s="12">
+        <v>11</v>
+      </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -1115,7 +1175,9 @@
       <c r="D11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="12">
+        <v>11</v>
+      </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -1144,7 +1206,9 @@
       <c r="D12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="12"/>
+      <c r="E12" s="12" t="s">
+        <v>95</v>
+      </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -1173,7 +1237,9 @@
       <c r="D13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="12"/>
+      <c r="E13" s="12" t="s">
+        <v>95</v>
+      </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -1202,7 +1268,9 @@
       <c r="D14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="12"/>
+      <c r="E14" s="12" t="s">
+        <v>95</v>
+      </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -1231,7 +1299,9 @@
       <c r="D15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="12"/>
+      <c r="E15" s="12" t="s">
+        <v>95</v>
+      </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -1260,7 +1330,9 @@
       <c r="D16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="12"/>
+      <c r="E16" s="12" t="s">
+        <v>95</v>
+      </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -1289,7 +1361,9 @@
       <c r="D17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="12"/>
+      <c r="E17" s="12">
+        <v>12</v>
+      </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -1318,7 +1392,9 @@
       <c r="D18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="12"/>
+      <c r="E18" s="12">
+        <v>12</v>
+      </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -1347,7 +1423,9 @@
       <c r="D19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="12"/>
+      <c r="E19" s="12">
+        <v>12</v>
+      </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -1376,7 +1454,9 @@
       <c r="D20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="12"/>
+      <c r="E20" s="12">
+        <v>12</v>
+      </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -1405,7 +1485,9 @@
       <c r="D21" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="12"/>
+      <c r="E21" s="12">
+        <v>12</v>
+      </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -1434,7 +1516,9 @@
       <c r="D22" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="12"/>
+      <c r="E22" s="12">
+        <v>12</v>
+      </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -1463,7 +1547,9 @@
       <c r="D23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="12"/>
+      <c r="E23" s="12">
+        <v>12</v>
+      </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -1492,7 +1578,9 @@
       <c r="D24" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="12"/>
+      <c r="E24" s="12">
+        <v>12</v>
+      </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -1521,7 +1609,9 @@
       <c r="D25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="12"/>
+      <c r="E25" s="12">
+        <v>12</v>
+      </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -1550,7 +1640,9 @@
       <c r="D26" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="12"/>
+      <c r="E26" s="12">
+        <v>12</v>
+      </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -1579,7 +1671,9 @@
       <c r="D27" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="12"/>
+      <c r="E27" s="12">
+        <v>14</v>
+      </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -1608,7 +1702,9 @@
       <c r="D28" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="12"/>
+      <c r="E28" s="12">
+        <v>14</v>
+      </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -1637,7 +1733,9 @@
       <c r="D29" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="12"/>
+      <c r="E29" s="12">
+        <v>14</v>
+      </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -1666,7 +1764,9 @@
       <c r="D30" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="12"/>
+      <c r="E30" s="12">
+        <v>14</v>
+      </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -1695,7 +1795,9 @@
       <c r="D31" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="12"/>
+      <c r="E31" s="12">
+        <v>14</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -1724,7 +1826,9 @@
       <c r="D32" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="12"/>
+      <c r="E32" s="12" t="s">
+        <v>98</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -1753,7 +1857,9 @@
       <c r="D33" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="12"/>
+      <c r="E33" s="12" t="s">
+        <v>98</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -1782,7 +1888,9 @@
       <c r="D34" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="12"/>
+      <c r="E34" s="12" t="s">
+        <v>98</v>
+      </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -1811,7 +1919,9 @@
       <c r="D35" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="12"/>
+      <c r="E35" s="12" t="s">
+        <v>98</v>
+      </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
@@ -1840,7 +1950,9 @@
       <c r="D36" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="12"/>
+      <c r="E36" s="12" t="s">
+        <v>98</v>
+      </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -1869,7 +1981,9 @@
       <c r="D37" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="12"/>
+      <c r="E37" s="12" t="s">
+        <v>98</v>
+      </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -1898,7 +2012,9 @@
       <c r="D38" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="12"/>
+      <c r="E38" s="12" t="s">
+        <v>98</v>
+      </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
@@ -1927,7 +2043,9 @@
       <c r="D39" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="12"/>
+      <c r="E39" s="12" t="s">
+        <v>98</v>
+      </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
@@ -1956,7 +2074,9 @@
       <c r="D40" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="12"/>
+      <c r="E40" s="12" t="s">
+        <v>98</v>
+      </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
@@ -1985,7 +2105,9 @@
       <c r="D41" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E41" s="12"/>
+      <c r="E41" s="12" t="s">
+        <v>98</v>
+      </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
@@ -2014,7 +2136,9 @@
       <c r="D42" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="12"/>
+      <c r="E42" s="12" t="s">
+        <v>98</v>
+      </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
@@ -2043,7 +2167,9 @@
       <c r="D43" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E43" s="12"/>
+      <c r="E43" s="12" t="s">
+        <v>98</v>
+      </c>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
@@ -2072,7 +2198,9 @@
       <c r="D44" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E44" s="12"/>
+      <c r="E44" s="12" t="s">
+        <v>98</v>
+      </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
@@ -2101,7 +2229,9 @@
       <c r="D45" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="12"/>
+      <c r="E45" s="12" t="s">
+        <v>98</v>
+      </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
@@ -2130,7 +2260,9 @@
       <c r="D46" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E46" s="12"/>
+      <c r="E46" s="12" t="s">
+        <v>98</v>
+      </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
@@ -2159,7 +2291,9 @@
       <c r="D47" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="12"/>
+      <c r="E47" s="12">
+        <v>13</v>
+      </c>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -2188,7 +2322,9 @@
       <c r="D48" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="12"/>
+      <c r="E48" s="12">
+        <v>13</v>
+      </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -2217,7 +2353,9 @@
       <c r="D49" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E49" s="12"/>
+      <c r="E49" s="12">
+        <v>13</v>
+      </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
@@ -2246,7 +2384,9 @@
       <c r="D50" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="12"/>
+      <c r="E50" s="12">
+        <v>13</v>
+      </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
@@ -2275,7 +2415,9 @@
       <c r="D51" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E51" s="13"/>
+      <c r="E51" s="13">
+        <v>13</v>
+      </c>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
@@ -3742,11 +3884,2053 @@
       <c r="S101" s="10"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A2:A101" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE80E51-CF44-4883-A8E2-7FBF5966048F}">
+  <dimension ref="A1:U25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="T12" sqref="T12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.54296875" style="1" customWidth="1"/>
+    <col min="2" max="5" width="15.6328125" customWidth="1"/>
+    <col min="6" max="20" width="10.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="7">
+        <v>40</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="6">
+        <v>8</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="M2" s="6">
+        <v>6</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" s="6">
+        <v>5</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>5</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="7">
+        <v>40</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="6">
+        <v>7</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" s="6">
+        <v>5</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M3" s="6">
+        <v>6</v>
+      </c>
+      <c r="N3" s="6">
+        <v>9</v>
+      </c>
+      <c r="O3" s="6">
+        <v>5</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q3" s="14">
+        <v>5</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="7">
+        <v>40</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="6">
+        <v>9</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="6">
+        <v>6</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M4" s="6">
+        <v>6</v>
+      </c>
+      <c r="N4" s="6">
+        <v>9</v>
+      </c>
+      <c r="O4" s="6">
+        <v>5</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>5</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="10">
+        <v>40</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="U5" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>100205</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="7">
+        <v>40</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" s="6">
+        <v>5</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M6" s="6">
+        <v>4</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="O6" s="6">
+        <v>4</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>4</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="S6" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>100405</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="7">
+        <v>40</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="6">
+        <v>6</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" s="6">
+        <v>4</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" s="14">
+        <v>5</v>
+      </c>
+      <c r="N7" s="6">
+        <v>9</v>
+      </c>
+      <c r="O7" s="14">
+        <v>4</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>4</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>100505</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="7">
+        <v>40</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="14">
+        <v>8</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="14">
+        <v>6</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" s="14">
+        <v>5</v>
+      </c>
+      <c r="N8" s="14">
+        <v>9</v>
+      </c>
+      <c r="O8" s="14">
+        <v>4</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>5</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="10">
+        <v>40</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="U9" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="7">
+        <v>60</v>
+      </c>
+      <c r="F10" s="12">
+        <v>11</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="H10" s="6">
+        <v>7</v>
+      </c>
+      <c r="I10" s="14">
+        <v>5</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M10" s="6">
+        <v>6</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P10" s="14">
+        <v>7</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>4</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="S10" s="6">
+        <v>14</v>
+      </c>
+      <c r="T10" s="7">
+        <v>12</v>
+      </c>
+      <c r="U10" s="15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="7">
+        <v>60</v>
+      </c>
+      <c r="F11" s="12">
+        <v>12</v>
+      </c>
+      <c r="G11" s="6">
+        <v>8</v>
+      </c>
+      <c r="H11" s="14">
+        <v>8</v>
+      </c>
+      <c r="I11" s="14">
+        <v>6</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11" s="14">
+        <v>13</v>
+      </c>
+      <c r="L11" s="7">
+        <v>12</v>
+      </c>
+      <c r="M11" s="14">
+        <v>6</v>
+      </c>
+      <c r="N11" s="14">
+        <v>6</v>
+      </c>
+      <c r="O11" s="14">
+        <v>5</v>
+      </c>
+      <c r="P11" s="14">
+        <v>8</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>4</v>
+      </c>
+      <c r="R11" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="S11" s="14">
+        <v>15</v>
+      </c>
+      <c r="T11" s="7">
+        <v>13</v>
+      </c>
+      <c r="U11" s="15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="7">
+        <v>60</v>
+      </c>
+      <c r="F12" s="12">
+        <v>12</v>
+      </c>
+      <c r="G12" s="14">
+        <v>9</v>
+      </c>
+      <c r="H12" s="14">
+        <v>8</v>
+      </c>
+      <c r="I12" s="14">
+        <v>6</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="K12" s="14">
+        <v>13</v>
+      </c>
+      <c r="L12" s="7">
+        <v>12</v>
+      </c>
+      <c r="M12" s="14">
+        <v>6</v>
+      </c>
+      <c r="N12" s="14">
+        <v>7</v>
+      </c>
+      <c r="O12" s="14">
+        <v>5</v>
+      </c>
+      <c r="P12" s="14">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="14">
+        <v>5</v>
+      </c>
+      <c r="R12" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="S12" s="14">
+        <v>15</v>
+      </c>
+      <c r="T12" s="7">
+        <v>12</v>
+      </c>
+      <c r="U12" s="15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="10">
+        <v>60</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="10">
+        <v>12</v>
+      </c>
+      <c r="U13" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>100205</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="7">
+        <v>60</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" s="6">
+        <v>6</v>
+      </c>
+      <c r="H14" s="6">
+        <v>6</v>
+      </c>
+      <c r="I14" s="14">
+        <v>4</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M14" s="6">
+        <v>4</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="O14" s="6">
+        <v>4</v>
+      </c>
+      <c r="P14" s="6">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="14">
+        <v>3</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="T14" s="7">
+        <v>12</v>
+      </c>
+      <c r="U14" s="15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>100405</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="7">
+        <v>60</v>
+      </c>
+      <c r="F15" s="12">
+        <v>9</v>
+      </c>
+      <c r="G15" s="6">
+        <v>6</v>
+      </c>
+      <c r="H15" s="14">
+        <v>6</v>
+      </c>
+      <c r="I15" s="14">
+        <v>4</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" s="14">
+        <v>12</v>
+      </c>
+      <c r="L15" s="7">
+        <v>12</v>
+      </c>
+      <c r="M15" s="14">
+        <v>5</v>
+      </c>
+      <c r="N15" s="14">
+        <v>6</v>
+      </c>
+      <c r="O15" s="14">
+        <v>3</v>
+      </c>
+      <c r="P15" s="14">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="14">
+        <v>3</v>
+      </c>
+      <c r="R15" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="S15" s="14">
+        <v>13</v>
+      </c>
+      <c r="T15" s="7">
+        <v>13</v>
+      </c>
+      <c r="U15" s="15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>100505</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="7">
+        <v>60</v>
+      </c>
+      <c r="F16" s="12">
+        <v>10</v>
+      </c>
+      <c r="G16" s="14">
+        <v>7</v>
+      </c>
+      <c r="H16" s="14">
+        <v>7</v>
+      </c>
+      <c r="I16" s="14">
+        <v>4</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="K16" s="14">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7">
+        <v>12</v>
+      </c>
+      <c r="M16" s="14">
+        <v>6</v>
+      </c>
+      <c r="N16" s="14">
+        <v>6</v>
+      </c>
+      <c r="O16" s="14">
+        <v>4</v>
+      </c>
+      <c r="P16" s="14">
+        <v>7</v>
+      </c>
+      <c r="Q16" s="14">
+        <v>4</v>
+      </c>
+      <c r="R16" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="S16" s="14">
+        <v>13</v>
+      </c>
+      <c r="T16" s="7">
+        <v>12</v>
+      </c>
+      <c r="U16" s="15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="10">
+        <v>60</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="10">
+        <v>12</v>
+      </c>
+      <c r="U17" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="7">
+        <v>200</v>
+      </c>
+      <c r="F18" s="12">
+        <v>9</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="H18" s="6">
+        <v>5</v>
+      </c>
+      <c r="I18" s="14">
+        <v>5</v>
+      </c>
+      <c r="J18" s="14">
+        <v>6</v>
+      </c>
+      <c r="K18" s="14">
+        <v>7</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M18" s="14">
+        <v>6</v>
+      </c>
+      <c r="N18" s="14">
+        <v>5</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="P18" s="14">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="14">
+        <v>4</v>
+      </c>
+      <c r="R18" s="14">
+        <v>7</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="T18" s="7">
+        <v>5</v>
+      </c>
+      <c r="U18" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="7">
+        <v>200</v>
+      </c>
+      <c r="F19" s="12">
+        <v>10</v>
+      </c>
+      <c r="G19" s="6">
+        <v>8</v>
+      </c>
+      <c r="H19" s="14">
+        <v>7</v>
+      </c>
+      <c r="I19" s="14">
+        <v>6</v>
+      </c>
+      <c r="J19" s="14">
+        <v>6</v>
+      </c>
+      <c r="K19" s="14">
+        <v>8</v>
+      </c>
+      <c r="L19" s="7">
+        <v>5</v>
+      </c>
+      <c r="M19" s="14">
+        <v>6</v>
+      </c>
+      <c r="N19" s="14">
+        <v>5</v>
+      </c>
+      <c r="O19" s="14">
+        <v>5</v>
+      </c>
+      <c r="P19" s="14">
+        <v>7</v>
+      </c>
+      <c r="Q19" s="14">
+        <v>4</v>
+      </c>
+      <c r="R19" s="14">
+        <v>8</v>
+      </c>
+      <c r="S19" s="14">
+        <v>10</v>
+      </c>
+      <c r="T19" s="7">
+        <v>5</v>
+      </c>
+      <c r="U19" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="7">
+        <v>200</v>
+      </c>
+      <c r="F20" s="12">
+        <v>11</v>
+      </c>
+      <c r="G20" s="14">
+        <v>9</v>
+      </c>
+      <c r="H20" s="14">
+        <v>7</v>
+      </c>
+      <c r="I20" s="14">
+        <v>5</v>
+      </c>
+      <c r="J20" s="6">
+        <v>6</v>
+      </c>
+      <c r="K20" s="14">
+        <v>8</v>
+      </c>
+      <c r="L20" s="7">
+        <v>5</v>
+      </c>
+      <c r="M20" s="14">
+        <v>6</v>
+      </c>
+      <c r="N20" s="14">
+        <v>5</v>
+      </c>
+      <c r="O20" s="14">
+        <v>5</v>
+      </c>
+      <c r="P20" s="14">
+        <v>7</v>
+      </c>
+      <c r="Q20" s="14">
+        <v>4</v>
+      </c>
+      <c r="R20" s="14">
+        <v>7</v>
+      </c>
+      <c r="S20" s="14">
+        <v>11</v>
+      </c>
+      <c r="T20" s="7">
+        <v>6</v>
+      </c>
+      <c r="U20" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="7">
+        <v>200</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="10">
+        <v>6</v>
+      </c>
+      <c r="U21" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>100205</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="4">
+        <v>200</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="6">
+        <v>5</v>
+      </c>
+      <c r="H22" s="6">
+        <v>4</v>
+      </c>
+      <c r="I22" s="14">
+        <v>4</v>
+      </c>
+      <c r="J22" s="14">
+        <v>4</v>
+      </c>
+      <c r="K22" s="14">
+        <v>6</v>
+      </c>
+      <c r="L22" s="7">
+        <v>4</v>
+      </c>
+      <c r="M22" s="14">
+        <v>4</v>
+      </c>
+      <c r="N22" s="14">
+        <v>3</v>
+      </c>
+      <c r="O22" s="14">
+        <v>3</v>
+      </c>
+      <c r="P22" s="14">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="14">
+        <v>3</v>
+      </c>
+      <c r="R22" s="14">
+        <v>5</v>
+      </c>
+      <c r="S22" s="14">
+        <v>7</v>
+      </c>
+      <c r="T22" s="7">
+        <v>4</v>
+      </c>
+      <c r="U22" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
+        <v>100405</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="7">
+        <v>200</v>
+      </c>
+      <c r="F23" s="12">
+        <v>7</v>
+      </c>
+      <c r="G23" s="6">
+        <v>6</v>
+      </c>
+      <c r="H23" s="14">
+        <v>5</v>
+      </c>
+      <c r="I23" s="14">
+        <v>4</v>
+      </c>
+      <c r="J23" s="14">
+        <v>5</v>
+      </c>
+      <c r="K23" s="14">
+        <v>6</v>
+      </c>
+      <c r="L23" s="7">
+        <v>4</v>
+      </c>
+      <c r="M23" s="14">
+        <v>5</v>
+      </c>
+      <c r="N23" s="14">
+        <v>4</v>
+      </c>
+      <c r="O23" s="14">
+        <v>3</v>
+      </c>
+      <c r="P23" s="14">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="14">
+        <v>3</v>
+      </c>
+      <c r="R23" s="14">
+        <v>6</v>
+      </c>
+      <c r="S23" s="14">
+        <v>8</v>
+      </c>
+      <c r="T23" s="7">
+        <v>5</v>
+      </c>
+      <c r="U23" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
+        <v>100505</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="7">
+        <v>200</v>
+      </c>
+      <c r="F24" s="12">
+        <v>7</v>
+      </c>
+      <c r="G24" s="14">
+        <v>6</v>
+      </c>
+      <c r="H24" s="14">
+        <v>6</v>
+      </c>
+      <c r="I24" s="14">
+        <v>4</v>
+      </c>
+      <c r="J24" s="14">
+        <v>5</v>
+      </c>
+      <c r="K24" s="14">
+        <v>6</v>
+      </c>
+      <c r="L24" s="7">
+        <v>4</v>
+      </c>
+      <c r="M24" s="14">
+        <v>6</v>
+      </c>
+      <c r="N24" s="14">
+        <v>4</v>
+      </c>
+      <c r="O24" s="14">
+        <v>4</v>
+      </c>
+      <c r="P24" s="14">
+        <v>6</v>
+      </c>
+      <c r="Q24" s="14">
+        <v>3</v>
+      </c>
+      <c r="R24" s="14">
+        <v>5</v>
+      </c>
+      <c r="S24" s="14">
+        <v>8</v>
+      </c>
+      <c r="T24" s="7">
+        <v>5</v>
+      </c>
+      <c r="U24" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A25" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="10">
+        <v>200</v>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="10">
+        <v>4</v>
+      </c>
+      <c r="U25" s="16">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A2 A3:A37 A38:A51 A87:A91 A97:A101" numberStoredAsText="1"/>
+    <ignoredError sqref="A2 A5 A9 A3 A4 A10:A25" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813114BA-5A05-4982-B1CD-D343B056E596}">
+  <dimension ref="A1:S9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.54296875" style="1" customWidth="1"/>
+    <col min="2" max="4" width="15.6328125" customWidth="1"/>
+    <col min="5" max="19" width="10.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="12">
+        <v>9</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="14">
+        <v>5</v>
+      </c>
+      <c r="H2" s="14">
+        <v>5</v>
+      </c>
+      <c r="I2" s="14">
+        <v>6</v>
+      </c>
+      <c r="J2" s="14">
+        <v>7</v>
+      </c>
+      <c r="K2" s="17">
+        <v>4</v>
+      </c>
+      <c r="L2" s="14">
+        <v>6</v>
+      </c>
+      <c r="M2" s="14">
+        <v>5</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" s="14">
+        <v>5</v>
+      </c>
+      <c r="P2" s="14">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="14">
+        <v>7</v>
+      </c>
+      <c r="R2" s="14">
+        <v>9</v>
+      </c>
+      <c r="S2" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="12">
+        <v>10</v>
+      </c>
+      <c r="F3" s="6">
+        <v>8</v>
+      </c>
+      <c r="G3" s="14">
+        <v>7</v>
+      </c>
+      <c r="H3" s="14">
+        <v>6</v>
+      </c>
+      <c r="I3" s="14">
+        <v>6</v>
+      </c>
+      <c r="J3" s="14">
+        <v>7</v>
+      </c>
+      <c r="K3" s="7">
+        <v>5</v>
+      </c>
+      <c r="L3" s="14">
+        <v>6</v>
+      </c>
+      <c r="M3" s="14">
+        <v>5</v>
+      </c>
+      <c r="N3" s="14">
+        <v>5</v>
+      </c>
+      <c r="O3" s="14">
+        <v>7</v>
+      </c>
+      <c r="P3" s="14">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="14">
+        <v>8</v>
+      </c>
+      <c r="R3" s="14">
+        <v>10</v>
+      </c>
+      <c r="S3" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="12">
+        <v>11</v>
+      </c>
+      <c r="F4" s="6">
+        <v>9</v>
+      </c>
+      <c r="G4" s="14">
+        <v>7</v>
+      </c>
+      <c r="H4" s="14">
+        <v>5</v>
+      </c>
+      <c r="I4" s="14">
+        <v>6</v>
+      </c>
+      <c r="J4" s="14">
+        <v>8</v>
+      </c>
+      <c r="K4" s="7">
+        <v>5</v>
+      </c>
+      <c r="L4" s="14">
+        <v>6</v>
+      </c>
+      <c r="M4" s="14">
+        <v>5</v>
+      </c>
+      <c r="N4" s="14">
+        <v>5</v>
+      </c>
+      <c r="O4" s="14">
+        <v>7</v>
+      </c>
+      <c r="P4" s="14">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>7</v>
+      </c>
+      <c r="R4" s="14">
+        <v>11</v>
+      </c>
+      <c r="S4" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="13">
+        <v>11</v>
+      </c>
+      <c r="F5" s="9">
+        <v>8</v>
+      </c>
+      <c r="G5" s="9">
+        <v>7</v>
+      </c>
+      <c r="H5" s="9">
+        <v>5</v>
+      </c>
+      <c r="I5" s="9">
+        <v>6</v>
+      </c>
+      <c r="J5" s="9">
+        <v>7</v>
+      </c>
+      <c r="K5" s="10">
+        <v>5</v>
+      </c>
+      <c r="L5" s="9">
+        <v>6</v>
+      </c>
+      <c r="M5" s="9">
+        <v>5</v>
+      </c>
+      <c r="N5" s="9">
+        <v>5</v>
+      </c>
+      <c r="O5" s="9">
+        <v>7</v>
+      </c>
+      <c r="P5" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>8</v>
+      </c>
+      <c r="R5" s="9">
+        <v>10</v>
+      </c>
+      <c r="S5" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>100205</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="14">
+        <v>5</v>
+      </c>
+      <c r="G6" s="14">
+        <v>4</v>
+      </c>
+      <c r="H6" s="6">
+        <v>4</v>
+      </c>
+      <c r="I6" s="14">
+        <v>4</v>
+      </c>
+      <c r="J6" s="14">
+        <v>5</v>
+      </c>
+      <c r="K6" s="7">
+        <v>4</v>
+      </c>
+      <c r="L6" s="14">
+        <v>4</v>
+      </c>
+      <c r="M6" s="14">
+        <v>3</v>
+      </c>
+      <c r="N6" s="14">
+        <v>3</v>
+      </c>
+      <c r="O6" s="14">
+        <v>4</v>
+      </c>
+      <c r="P6" s="14">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>5</v>
+      </c>
+      <c r="R6" s="14">
+        <v>7</v>
+      </c>
+      <c r="S6" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>100405</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="12">
+        <v>7</v>
+      </c>
+      <c r="F7" s="6">
+        <v>6</v>
+      </c>
+      <c r="G7" s="14">
+        <v>5</v>
+      </c>
+      <c r="H7" s="14">
+        <v>4</v>
+      </c>
+      <c r="I7" s="14">
+        <v>5</v>
+      </c>
+      <c r="J7" s="14">
+        <v>6</v>
+      </c>
+      <c r="K7" s="7">
+        <v>4</v>
+      </c>
+      <c r="L7" s="14">
+        <v>5</v>
+      </c>
+      <c r="M7" s="14">
+        <v>4</v>
+      </c>
+      <c r="N7" s="14">
+        <v>3</v>
+      </c>
+      <c r="O7" s="14">
+        <v>5</v>
+      </c>
+      <c r="P7" s="14">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>6</v>
+      </c>
+      <c r="R7" s="14">
+        <v>8</v>
+      </c>
+      <c r="S7" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>100505</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="12">
+        <v>7</v>
+      </c>
+      <c r="F8" s="14">
+        <v>6</v>
+      </c>
+      <c r="G8" s="14">
+        <v>6</v>
+      </c>
+      <c r="H8" s="14">
+        <v>4</v>
+      </c>
+      <c r="I8" s="14">
+        <v>5</v>
+      </c>
+      <c r="J8" s="14">
+        <v>6</v>
+      </c>
+      <c r="K8" s="7">
+        <v>4</v>
+      </c>
+      <c r="L8" s="14">
+        <v>6</v>
+      </c>
+      <c r="M8" s="14">
+        <v>4</v>
+      </c>
+      <c r="N8" s="14">
+        <v>4</v>
+      </c>
+      <c r="O8" s="14">
+        <v>6</v>
+      </c>
+      <c r="P8" s="14">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>5</v>
+      </c>
+      <c r="R8" s="14">
+        <v>8</v>
+      </c>
+      <c r="S8" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="13">
+        <v>8</v>
+      </c>
+      <c r="F9" s="9">
+        <v>6</v>
+      </c>
+      <c r="G9" s="9">
+        <v>5</v>
+      </c>
+      <c r="H9" s="9">
+        <v>4</v>
+      </c>
+      <c r="I9" s="9">
+        <v>5</v>
+      </c>
+      <c r="J9" s="9">
+        <v>5</v>
+      </c>
+      <c r="K9" s="10">
+        <v>4</v>
+      </c>
+      <c r="L9" s="9">
+        <v>4</v>
+      </c>
+      <c r="M9" s="9">
+        <v>4</v>
+      </c>
+      <c r="N9" s="9">
+        <v>4</v>
+      </c>
+      <c r="O9" s="9">
+        <v>5</v>
+      </c>
+      <c r="P9" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>5</v>
+      </c>
+      <c r="R9" s="9">
+        <v>7</v>
+      </c>
+      <c r="S9" s="10">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A2:A9" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/vrp_results_tracker.xlsx
+++ b/vrp_results_tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdrex\PycharmProjects\wilib_vrp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C36D27-DEF4-4627-BC39-E0447BA5EE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426ABB23-171B-4578-9225-3D5DA3EC823C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{28F97023-1D5E-44FA-A19C-A9B15763E968}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{28F97023-1D5E-44FA-A19C-A9B15763E968}"/>
   </bookViews>
   <sheets>
     <sheet name="full_model_set" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="99">
   <si>
     <t>id</t>
   </si>
@@ -478,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -497,6 +497,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3897,10 +3901,10 @@
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="L14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T12" sqref="T12"/>
+      <selection pane="bottomRight" activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4186,20 +4190,48 @@
       <c r="E5" s="10">
         <v>40</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
+      <c r="F5" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="9">
+        <v>9</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" s="9">
+        <v>6</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="M5" s="9">
+        <v>6</v>
+      </c>
+      <c r="N5" s="9">
+        <v>9</v>
+      </c>
+      <c r="O5" s="9">
+        <v>5</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>5</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>98</v>
+      </c>
       <c r="T5" s="9" t="s">
         <v>98</v>
       </c>
@@ -4418,20 +4450,48 @@
       <c r="E9" s="10">
         <v>40</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
+      <c r="F9" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="9">
+        <v>7</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="9">
+        <v>5</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" s="9">
+        <v>5</v>
+      </c>
+      <c r="N9" s="9">
+        <v>9</v>
+      </c>
+      <c r="O9" s="9">
+        <v>5</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>4</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>98</v>
+      </c>
       <c r="T9" s="9" t="s">
         <v>98</v>
       </c>
@@ -4650,20 +4710,48 @@
       <c r="E13" s="10">
         <v>60</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
+      <c r="F13" s="13">
+        <v>13</v>
+      </c>
+      <c r="G13" s="9">
+        <v>8</v>
+      </c>
+      <c r="H13" s="9">
+        <v>8</v>
+      </c>
+      <c r="I13" s="9">
+        <v>6</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K13" s="9">
+        <v>13</v>
+      </c>
+      <c r="L13" s="10">
+        <v>12</v>
+      </c>
+      <c r="M13" s="9">
+        <v>6</v>
+      </c>
+      <c r="N13" s="9">
+        <v>7</v>
+      </c>
+      <c r="O13" s="9">
+        <v>5</v>
+      </c>
+      <c r="P13" s="9">
+        <v>8</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>5</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="S13" s="9">
+        <v>15</v>
+      </c>
       <c r="T13" s="10">
         <v>12</v>
       </c>
@@ -4882,20 +4970,48 @@
       <c r="E17" s="10">
         <v>60</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
+      <c r="F17" s="13">
+        <v>10</v>
+      </c>
+      <c r="G17" s="9">
+        <v>7</v>
+      </c>
+      <c r="H17" s="9">
+        <v>6</v>
+      </c>
+      <c r="I17" s="9">
+        <v>4</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="9">
+        <v>11</v>
+      </c>
+      <c r="L17" s="10">
+        <v>12</v>
+      </c>
+      <c r="M17" s="9">
+        <v>4</v>
+      </c>
+      <c r="N17" s="9">
+        <v>6</v>
+      </c>
+      <c r="O17" s="9">
+        <v>4</v>
+      </c>
+      <c r="P17" s="9">
+        <v>6</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>4</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="S17" s="9">
+        <v>13</v>
+      </c>
       <c r="T17" s="10">
         <v>12</v>
       </c>
@@ -4919,13 +5035,13 @@
       <c r="E18" s="7">
         <v>200</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="18">
         <v>9</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="14">
         <v>5</v>
       </c>
       <c r="I18" s="14">
@@ -4937,7 +5053,7 @@
       <c r="K18" s="14">
         <v>7</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="L18" s="17" t="s">
         <v>98</v>
       </c>
       <c r="M18" s="14">
@@ -4946,7 +5062,7 @@
       <c r="N18" s="14">
         <v>5</v>
       </c>
-      <c r="O18" s="6" t="s">
+      <c r="O18" s="14" t="s">
         <v>98</v>
       </c>
       <c r="P18" s="14">
@@ -4958,10 +5074,10 @@
       <c r="R18" s="14">
         <v>7</v>
       </c>
-      <c r="S18" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="T18" s="7">
+      <c r="S18" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="T18" s="17">
         <v>5</v>
       </c>
       <c r="U18" s="15">
@@ -4984,10 +5100,10 @@
       <c r="E19" s="7">
         <v>200</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="18">
         <v>10</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="14">
         <v>8</v>
       </c>
       <c r="H19" s="14">
@@ -5002,7 +5118,7 @@
       <c r="K19" s="14">
         <v>8</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="17">
         <v>5</v>
       </c>
       <c r="M19" s="14">
@@ -5026,7 +5142,7 @@
       <c r="S19" s="14">
         <v>10</v>
       </c>
-      <c r="T19" s="7">
+      <c r="T19" s="17">
         <v>5</v>
       </c>
       <c r="U19" s="15">
@@ -5049,7 +5165,7 @@
       <c r="E20" s="7">
         <v>200</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="18">
         <v>11</v>
       </c>
       <c r="G20" s="14">
@@ -5061,13 +5177,13 @@
       <c r="I20" s="14">
         <v>5</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="14">
         <v>6</v>
       </c>
       <c r="K20" s="14">
         <v>8</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="17">
         <v>5</v>
       </c>
       <c r="M20" s="14">
@@ -5091,7 +5207,7 @@
       <c r="S20" s="14">
         <v>11</v>
       </c>
-      <c r="T20" s="7">
+      <c r="T20" s="17">
         <v>6</v>
       </c>
       <c r="U20" s="15">
@@ -5114,21 +5230,49 @@
       <c r="E21" s="7">
         <v>200</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="10">
+      <c r="F21" s="19">
+        <v>11</v>
+      </c>
+      <c r="G21" s="20">
+        <v>8</v>
+      </c>
+      <c r="H21" s="20">
+        <v>7</v>
+      </c>
+      <c r="I21" s="20">
+        <v>5</v>
+      </c>
+      <c r="J21" s="20">
+        <v>6</v>
+      </c>
+      <c r="K21" s="20">
+        <v>7</v>
+      </c>
+      <c r="L21" s="21">
+        <v>5</v>
+      </c>
+      <c r="M21" s="20">
+        <v>6</v>
+      </c>
+      <c r="N21" s="20">
+        <v>5</v>
+      </c>
+      <c r="O21" s="20">
+        <v>5</v>
+      </c>
+      <c r="P21" s="20">
+        <v>7</v>
+      </c>
+      <c r="Q21" s="20">
+        <v>4</v>
+      </c>
+      <c r="R21" s="20">
+        <v>8</v>
+      </c>
+      <c r="S21" s="20">
+        <v>10</v>
+      </c>
+      <c r="T21" s="21">
         <v>6</v>
       </c>
       <c r="U21" s="16">
@@ -5151,13 +5295,13 @@
       <c r="E22" s="4">
         <v>200</v>
       </c>
-      <c r="F22" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" s="6">
-        <v>5</v>
-      </c>
-      <c r="H22" s="6">
+      <c r="F22" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="14">
+        <v>5</v>
+      </c>
+      <c r="H22" s="14">
         <v>4</v>
       </c>
       <c r="I22" s="14">
@@ -5169,7 +5313,7 @@
       <c r="K22" s="14">
         <v>6</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="17">
         <v>4</v>
       </c>
       <c r="M22" s="14">
@@ -5193,7 +5337,7 @@
       <c r="S22" s="14">
         <v>7</v>
       </c>
-      <c r="T22" s="7">
+      <c r="T22" s="17">
         <v>4</v>
       </c>
       <c r="U22" s="15">
@@ -5216,10 +5360,10 @@
       <c r="E23" s="7">
         <v>200</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="18">
         <v>7</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="14">
         <v>6</v>
       </c>
       <c r="H23" s="14">
@@ -5234,7 +5378,7 @@
       <c r="K23" s="14">
         <v>6</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="17">
         <v>4</v>
       </c>
       <c r="M23" s="14">
@@ -5258,7 +5402,7 @@
       <c r="S23" s="14">
         <v>8</v>
       </c>
-      <c r="T23" s="7">
+      <c r="T23" s="17">
         <v>5</v>
       </c>
       <c r="U23" s="15">
@@ -5281,7 +5425,7 @@
       <c r="E24" s="7">
         <v>200</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="18">
         <v>7</v>
       </c>
       <c r="G24" s="14">
@@ -5299,7 +5443,7 @@
       <c r="K24" s="14">
         <v>6</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="17">
         <v>4</v>
       </c>
       <c r="M24" s="14">
@@ -5323,7 +5467,7 @@
       <c r="S24" s="14">
         <v>8</v>
       </c>
-      <c r="T24" s="7">
+      <c r="T24" s="17">
         <v>5</v>
       </c>
       <c r="U24" s="15">
@@ -5346,21 +5490,49 @@
       <c r="E25" s="10">
         <v>200</v>
       </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="10">
+      <c r="F25" s="19">
+        <v>8</v>
+      </c>
+      <c r="G25" s="20">
+        <v>6</v>
+      </c>
+      <c r="H25" s="20">
+        <v>5</v>
+      </c>
+      <c r="I25" s="20">
+        <v>4</v>
+      </c>
+      <c r="J25" s="20">
+        <v>5</v>
+      </c>
+      <c r="K25" s="20">
+        <v>6</v>
+      </c>
+      <c r="L25" s="21">
+        <v>4</v>
+      </c>
+      <c r="M25" s="20">
+        <v>4</v>
+      </c>
+      <c r="N25" s="20">
+        <v>4</v>
+      </c>
+      <c r="O25" s="20">
+        <v>4</v>
+      </c>
+      <c r="P25" s="20">
+        <v>5</v>
+      </c>
+      <c r="Q25" s="20">
+        <v>3</v>
+      </c>
+      <c r="R25" s="20">
+        <v>5</v>
+      </c>
+      <c r="S25" s="20">
+        <v>8</v>
+      </c>
+      <c r="T25" s="21">
         <v>4</v>
       </c>
       <c r="U25" s="16">

--- a/vrp_results_tracker.xlsx
+++ b/vrp_results_tracker.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdrex\PycharmProjects\wilib_vrp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F1FF409-D31A-4094-BF5C-A1685AA4C859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05F6387-A5A7-4243-A1E8-D79A3E5DFC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_model_set" sheetId="4" r:id="rId1"/>
     <sheet name="reduced_model_set" sheetId="5" r:id="rId2"/>
-    <sheet name="reduced_model_set (2)" sheetId="6" r:id="rId3"/>
+    <sheet name="model_rerun_tracker" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="122">
   <si>
     <t>shift</t>
   </si>
@@ -390,6 +390,9 @@
   </si>
   <si>
     <t>t1005</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
 </sst>
 </file>
@@ -405,12 +408,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="11">
@@ -529,7 +538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -559,6 +568,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3774,7 +3787,7 @@
   <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J7" sqref="J7:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3866,25 +3879,25 @@
       <c r="E2" s="13">
         <v>40</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="14">
-        <v>8</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="16" t="s">
+      <c r="F2" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="28">
+        <v>8</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="29" t="s">
         <v>34</v>
       </c>
       <c r="M2" s="14">
@@ -3931,25 +3944,25 @@
       <c r="E3" s="13">
         <v>40</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="14">
-        <v>7</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="14">
-        <v>5</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="13" t="s">
+      <c r="F3" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="28">
+        <v>7</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="28">
+        <v>5</v>
+      </c>
+      <c r="J3" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="29" t="s">
         <v>34</v>
       </c>
       <c r="M3" s="14">
@@ -3996,25 +4009,25 @@
       <c r="E4" s="13">
         <v>40</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="14">
+      <c r="F4" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="28">
         <v>9</v>
       </c>
-      <c r="H4" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="14">
-        <v>6</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="13" t="s">
+      <c r="H4" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="28">
+        <v>6</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="29" t="s">
         <v>34</v>
       </c>
       <c r="M4" s="14">
@@ -4061,7 +4074,7 @@
       <c r="E5" s="17">
         <v>40</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="30" t="s">
         <v>34</v>
       </c>
       <c r="G5" s="18">
@@ -4126,25 +4139,25 @@
       <c r="E6" s="13">
         <v>40</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="14">
-        <v>5</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="13" t="s">
+      <c r="F6" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="28">
+        <v>5</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="29" t="s">
         <v>34</v>
       </c>
       <c r="M6" s="14">
@@ -4191,25 +4204,25 @@
       <c r="E7" s="13">
         <v>40</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="14">
-        <v>6</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="14">
-        <v>4</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="13" t="s">
+      <c r="F7" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="28">
+        <v>4</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="29" t="s">
         <v>34</v>
       </c>
       <c r="M7" s="15">
@@ -5920,5 +5933,8 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A2:A33" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/vrp_results_tracker.xlsx
+++ b/vrp_results_tracker.xlsx
@@ -8,26 +8,39 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdrex\PycharmProjects\wilib_vrp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05F6387-A5A7-4243-A1E8-D79A3E5DFC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897173F7-C79D-49BE-BEA5-58DA16CB527B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="test_model_set" sheetId="4" r:id="rId1"/>
-    <sheet name="reduced_model_set" sheetId="5" r:id="rId2"/>
-    <sheet name="model_rerun_tracker" sheetId="6" r:id="rId3"/>
+    <sheet name="full_model_set" sheetId="8" r:id="rId1"/>
+    <sheet name="reduced_model_set" sheetId="9" r:id="rId2"/>
+    <sheet name="no_capacity" sheetId="10" r:id="rId3"/>
+    <sheet name="test_model_set" sheetId="4" r:id="rId4"/>
+    <sheet name="reduced_model_set_copy" sheetId="5" r:id="rId5"/>
+    <sheet name="model_rerun_tracker" sheetId="6" r:id="rId6"/>
+    <sheet name="dist_duration_results" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="204">
   <si>
     <t>shift</t>
   </si>
@@ -393,6 +406,252 @@
   </si>
   <si>
     <t>7</t>
+  </si>
+  <si>
+    <t>ideal 1</t>
+  </si>
+  <si>
+    <t>starter 1</t>
+  </si>
+  <si>
+    <t>n_vehicles</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>8 hour</t>
+  </si>
+  <si>
+    <t>10 hour</t>
+  </si>
+  <si>
+    <t>ideal 2</t>
+  </si>
+  <si>
+    <t>starter 2</t>
+  </si>
+  <si>
+    <t>ideal 3</t>
+  </si>
+  <si>
+    <t>starter 3</t>
+  </si>
+  <si>
+    <t>ideal 4</t>
+  </si>
+  <si>
+    <t>starter 4</t>
+  </si>
+  <si>
+    <t>ideal 5</t>
+  </si>
+  <si>
+    <t>starter 5</t>
+  </si>
+  <si>
+    <t>ideal 6</t>
+  </si>
+  <si>
+    <t>starter 6</t>
+  </si>
+  <si>
+    <t>ideal 7</t>
+  </si>
+  <si>
+    <t>starter 7</t>
+  </si>
+  <si>
+    <t>starter 8</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>080101</t>
+  </si>
+  <si>
+    <t>080102</t>
+  </si>
+  <si>
+    <t>080103</t>
+  </si>
+  <si>
+    <t>080104</t>
+  </si>
+  <si>
+    <t>080105</t>
+  </si>
+  <si>
+    <t>080201</t>
+  </si>
+  <si>
+    <t>080202</t>
+  </si>
+  <si>
+    <t>080203</t>
+  </si>
+  <si>
+    <t>080204</t>
+  </si>
+  <si>
+    <t>080205</t>
+  </si>
+  <si>
+    <t>080301</t>
+  </si>
+  <si>
+    <t>080302</t>
+  </si>
+  <si>
+    <t>080303</t>
+  </si>
+  <si>
+    <t>080304</t>
+  </si>
+  <si>
+    <t>080305</t>
+  </si>
+  <si>
+    <t>080401</t>
+  </si>
+  <si>
+    <t>080402</t>
+  </si>
+  <si>
+    <t>080403</t>
+  </si>
+  <si>
+    <t>080404</t>
+  </si>
+  <si>
+    <t>080405</t>
+  </si>
+  <si>
+    <t>080501</t>
+  </si>
+  <si>
+    <t>080502</t>
+  </si>
+  <si>
+    <t>080503</t>
+  </si>
+  <si>
+    <t>080504</t>
+  </si>
+  <si>
+    <t>080505</t>
+  </si>
+  <si>
+    <t>080601</t>
+  </si>
+  <si>
+    <t>080602</t>
+  </si>
+  <si>
+    <t>080603</t>
+  </si>
+  <si>
+    <t>080604</t>
+  </si>
+  <si>
+    <t>080605</t>
+  </si>
+  <si>
+    <t>080701</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>080702</t>
+  </si>
+  <si>
+    <t>080703</t>
+  </si>
+  <si>
+    <t>080704</t>
+  </si>
+  <si>
+    <t>080705</t>
+  </si>
+  <si>
+    <t>080801</t>
+  </si>
+  <si>
+    <t>080802</t>
+  </si>
+  <si>
+    <t>080803</t>
+  </si>
+  <si>
+    <t>080804</t>
+  </si>
+  <si>
+    <t>080805</t>
+  </si>
+  <si>
+    <t>080901</t>
+  </si>
+  <si>
+    <t>080902</t>
+  </si>
+  <si>
+    <t>080903</t>
+  </si>
+  <si>
+    <t>080904</t>
+  </si>
+  <si>
+    <t>080905</t>
+  </si>
+  <si>
+    <t>081001</t>
+  </si>
+  <si>
+    <t>081002</t>
+  </si>
+  <si>
+    <t>081003</t>
+  </si>
+  <si>
+    <t>081004</t>
+  </si>
+  <si>
+    <t>081005</t>
+  </si>
+  <si>
+    <t>100801</t>
+  </si>
+  <si>
+    <t>100802</t>
+  </si>
+  <si>
+    <t>100803</t>
+  </si>
+  <si>
+    <t>100804</t>
+  </si>
+  <si>
+    <t>100805</t>
+  </si>
+  <si>
+    <t>101001</t>
+  </si>
+  <si>
+    <t>101002</t>
+  </si>
+  <si>
+    <t>101003</t>
+  </si>
+  <si>
+    <t>101004</t>
+  </si>
+  <si>
+    <t>101005</t>
   </si>
 </sst>
 </file>
@@ -538,7 +797,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -572,6 +831,17 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -906,6 +1176,4126 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9F43CE-29DB-4239-92CA-0F24E02D1B14}">
+  <dimension ref="A1:S101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.54296875" style="1" customWidth="1"/>
+    <col min="2" max="4" width="15.54296875" customWidth="1"/>
+    <col min="5" max="19" width="12.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="31">
+        <v>13</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="S2" s="7"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="31">
+        <v>13</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="S3" s="7"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="31">
+        <v>13</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="S4" s="7"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="31">
+        <v>13</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="S5" s="7"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="31">
+        <v>13</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="S6" s="7"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="31">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="S7" s="7"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="31">
+        <v>11</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="S8" s="7"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="31">
+        <v>11</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="S9" s="7"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="31">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="S10" s="7"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="31">
+        <v>11</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="S11" s="7"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="S12" s="7"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="S13" s="7"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="S14" s="7"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="S15" s="7"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="S16" s="7"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="31">
+        <v>12</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="S17" s="7"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="31">
+        <v>12</v>
+      </c>
+      <c r="K18" s="7"/>
+      <c r="S18" s="7"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="31">
+        <v>12</v>
+      </c>
+      <c r="K19" s="7"/>
+      <c r="S19" s="7"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="31">
+        <v>12</v>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="S20" s="7"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="31">
+        <v>12</v>
+      </c>
+      <c r="K21" s="7"/>
+      <c r="S21" s="7"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="31">
+        <v>12</v>
+      </c>
+      <c r="K22" s="7"/>
+      <c r="S22" s="7"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="31">
+        <v>12</v>
+      </c>
+      <c r="K23" s="7"/>
+      <c r="S23" s="7"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="31">
+        <v>12</v>
+      </c>
+      <c r="K24" s="7"/>
+      <c r="S24" s="7"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="31">
+        <v>12</v>
+      </c>
+      <c r="K25" s="7"/>
+      <c r="S25" s="7"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="31">
+        <v>12</v>
+      </c>
+      <c r="K26" s="7"/>
+      <c r="S26" s="7"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="31">
+        <v>14</v>
+      </c>
+      <c r="K27" s="7"/>
+      <c r="S27" s="7"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="31">
+        <v>14</v>
+      </c>
+      <c r="K28" s="7"/>
+      <c r="S28" s="7"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="31">
+        <v>14</v>
+      </c>
+      <c r="K29" s="7"/>
+      <c r="S29" s="7"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="31">
+        <v>14</v>
+      </c>
+      <c r="K30" s="7"/>
+      <c r="S30" s="7"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="31">
+        <v>14</v>
+      </c>
+      <c r="K31" s="7"/>
+      <c r="S31" s="7"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="K32" s="7"/>
+      <c r="S32" s="7"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="K33" s="7"/>
+      <c r="S33" s="7"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="K34" s="7"/>
+      <c r="S34" s="7"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="K35" s="7"/>
+      <c r="S35" s="7"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="K36" s="7"/>
+      <c r="S36" s="7"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="K37" s="7"/>
+      <c r="S37" s="7"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="K38" s="7"/>
+      <c r="S38" s="7"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A39" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="K39" s="7"/>
+      <c r="S39" s="7"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A40" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="K40" s="7"/>
+      <c r="S40" s="7"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A41" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="K41" s="7"/>
+      <c r="S41" s="7"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A42" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="K42" s="7"/>
+      <c r="S42" s="7"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A43" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="K43" s="7"/>
+      <c r="S43" s="7"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A44" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="K44" s="7"/>
+      <c r="S44" s="7"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A45" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="K45" s="7"/>
+      <c r="S45" s="7"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A46" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="K46" s="7"/>
+      <c r="S46" s="7"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A47" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="31">
+        <v>13</v>
+      </c>
+      <c r="K47" s="7"/>
+      <c r="S47" s="7"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A48" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="31">
+        <v>13</v>
+      </c>
+      <c r="K48" s="7"/>
+      <c r="S48" s="7"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A49" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="31">
+        <v>13</v>
+      </c>
+      <c r="K49" s="7"/>
+      <c r="S49" s="7"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A50" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="31">
+        <v>13</v>
+      </c>
+      <c r="K50" s="7"/>
+      <c r="S50" s="7"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A51" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" s="32">
+        <v>13</v>
+      </c>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="33"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="33"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A52" s="5">
+        <v>100101</v>
+      </c>
+      <c r="B52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="10"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="4"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A53" s="5">
+        <v>100102</v>
+      </c>
+      <c r="B53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="31"/>
+      <c r="K53" s="7"/>
+      <c r="S53" s="7"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A54" s="5">
+        <v>100103</v>
+      </c>
+      <c r="B54" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="31"/>
+      <c r="K54" s="7"/>
+      <c r="S54" s="7"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A55" s="5">
+        <v>100104</v>
+      </c>
+      <c r="B55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="31"/>
+      <c r="K55" s="7"/>
+      <c r="S55" s="7"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A56" s="5">
+        <v>100105</v>
+      </c>
+      <c r="B56" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" t="s">
+        <v>33</v>
+      </c>
+      <c r="E56" s="31"/>
+      <c r="K56" s="7"/>
+      <c r="S56" s="7"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A57" s="5">
+        <v>100201</v>
+      </c>
+      <c r="B57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="31"/>
+      <c r="K57" s="7"/>
+      <c r="S57" s="7"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A58" s="5">
+        <v>100202</v>
+      </c>
+      <c r="B58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="31"/>
+      <c r="K58" s="7"/>
+      <c r="S58" s="7"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A59" s="5">
+        <v>100203</v>
+      </c>
+      <c r="B59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="31"/>
+      <c r="K59" s="7"/>
+      <c r="S59" s="7"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A60" s="5">
+        <v>100204</v>
+      </c>
+      <c r="B60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="31"/>
+      <c r="K60" s="7"/>
+      <c r="S60" s="7"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A61" s="5">
+        <v>100205</v>
+      </c>
+      <c r="B61" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" t="s">
+        <v>33</v>
+      </c>
+      <c r="E61" s="31"/>
+      <c r="K61" s="7"/>
+      <c r="S61" s="7"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A62" s="5">
+        <v>100301</v>
+      </c>
+      <c r="B62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="31"/>
+      <c r="K62" s="7"/>
+      <c r="S62" s="7"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A63" s="5">
+        <v>100302</v>
+      </c>
+      <c r="B63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="31"/>
+      <c r="K63" s="7"/>
+      <c r="S63" s="7"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A64" s="5">
+        <v>100303</v>
+      </c>
+      <c r="B64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" s="31"/>
+      <c r="K64" s="7"/>
+      <c r="S64" s="7"/>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A65" s="5">
+        <v>100304</v>
+      </c>
+      <c r="B65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="31"/>
+      <c r="K65" s="7"/>
+      <c r="S65" s="7"/>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A66" s="5">
+        <v>100305</v>
+      </c>
+      <c r="B66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" t="s">
+        <v>33</v>
+      </c>
+      <c r="E66" s="31"/>
+      <c r="K66" s="7"/>
+      <c r="S66" s="7"/>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A67" s="5">
+        <v>100401</v>
+      </c>
+      <c r="B67" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" s="31"/>
+      <c r="K67" s="7"/>
+      <c r="S67" s="7"/>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A68" s="5">
+        <v>100402</v>
+      </c>
+      <c r="B68" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" s="31"/>
+      <c r="K68" s="7"/>
+      <c r="S68" s="7"/>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A69" s="5">
+        <v>100403</v>
+      </c>
+      <c r="B69" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" s="31"/>
+      <c r="K69" s="7"/>
+      <c r="S69" s="7"/>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A70" s="5">
+        <v>100404</v>
+      </c>
+      <c r="B70" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="31"/>
+      <c r="K70" s="7"/>
+      <c r="S70" s="7"/>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A71" s="5">
+        <v>100405</v>
+      </c>
+      <c r="B71" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" t="s">
+        <v>33</v>
+      </c>
+      <c r="E71" s="31"/>
+      <c r="K71" s="7"/>
+      <c r="S71" s="7"/>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A72" s="5">
+        <v>100501</v>
+      </c>
+      <c r="B72" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="31"/>
+      <c r="K72" s="7"/>
+      <c r="S72" s="7"/>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A73" s="5">
+        <v>100502</v>
+      </c>
+      <c r="B73" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" s="31"/>
+      <c r="K73" s="7"/>
+      <c r="S73" s="7"/>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A74" s="5">
+        <v>100503</v>
+      </c>
+      <c r="B74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" s="31"/>
+      <c r="K74" s="7"/>
+      <c r="S74" s="7"/>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A75" s="5">
+        <v>100504</v>
+      </c>
+      <c r="B75" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="31"/>
+      <c r="K75" s="7"/>
+      <c r="S75" s="7"/>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A76" s="5">
+        <v>100505</v>
+      </c>
+      <c r="B76" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s">
+        <v>33</v>
+      </c>
+      <c r="E76" s="31"/>
+      <c r="K76" s="7"/>
+      <c r="S76" s="7"/>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A77" s="5">
+        <v>100601</v>
+      </c>
+      <c r="B77" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" t="s">
+        <v>4</v>
+      </c>
+      <c r="E77" s="31"/>
+      <c r="K77" s="7"/>
+      <c r="S77" s="7"/>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A78" s="5">
+        <v>100602</v>
+      </c>
+      <c r="B78" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78" s="31"/>
+      <c r="K78" s="7"/>
+      <c r="S78" s="7"/>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A79" s="5">
+        <v>100603</v>
+      </c>
+      <c r="B79" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" s="31"/>
+      <c r="K79" s="7"/>
+      <c r="S79" s="7"/>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A80" s="5">
+        <v>100604</v>
+      </c>
+      <c r="B80" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" s="31"/>
+      <c r="K80" s="7"/>
+      <c r="S80" s="7"/>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A81" s="5">
+        <v>100605</v>
+      </c>
+      <c r="B81" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" t="s">
+        <v>33</v>
+      </c>
+      <c r="E81" s="31"/>
+      <c r="K81" s="7"/>
+      <c r="S81" s="7"/>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A82" s="5">
+        <v>100701</v>
+      </c>
+      <c r="B82" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" t="s">
+        <v>4</v>
+      </c>
+      <c r="E82" s="31"/>
+      <c r="K82" s="7"/>
+      <c r="S82" s="7"/>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A83" s="5">
+        <v>100702</v>
+      </c>
+      <c r="B83" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="31"/>
+      <c r="K83" s="7"/>
+      <c r="S83" s="7"/>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A84" s="5">
+        <v>100703</v>
+      </c>
+      <c r="B84" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" s="31"/>
+      <c r="K84" s="7"/>
+      <c r="S84" s="7"/>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A85" s="5">
+        <v>100704</v>
+      </c>
+      <c r="B85" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" s="31"/>
+      <c r="K85" s="7"/>
+      <c r="S85" s="7"/>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A86" s="5">
+        <v>100705</v>
+      </c>
+      <c r="B86" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" t="s">
+        <v>33</v>
+      </c>
+      <c r="E86" s="31"/>
+      <c r="K86" s="7"/>
+      <c r="S86" s="7"/>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A87" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B87" t="s">
+        <v>17</v>
+      </c>
+      <c r="C87" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" t="s">
+        <v>4</v>
+      </c>
+      <c r="E87" s="31"/>
+      <c r="K87" s="7"/>
+      <c r="S87" s="7"/>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A88" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B88" t="s">
+        <v>17</v>
+      </c>
+      <c r="C88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" t="s">
+        <v>5</v>
+      </c>
+      <c r="E88" s="31"/>
+      <c r="K88" s="7"/>
+      <c r="S88" s="7"/>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A89" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B89" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89" s="31"/>
+      <c r="K89" s="7"/>
+      <c r="S89" s="7"/>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A90" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" t="s">
+        <v>7</v>
+      </c>
+      <c r="E90" s="31"/>
+      <c r="K90" s="7"/>
+      <c r="S90" s="7"/>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A91" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B91" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" t="s">
+        <v>33</v>
+      </c>
+      <c r="E91" s="31"/>
+      <c r="K91" s="7"/>
+      <c r="S91" s="7"/>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A92" s="5">
+        <v>100901</v>
+      </c>
+      <c r="B92" t="s">
+        <v>17</v>
+      </c>
+      <c r="C92" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" t="s">
+        <v>4</v>
+      </c>
+      <c r="E92" s="31"/>
+      <c r="K92" s="7"/>
+      <c r="S92" s="7"/>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A93" s="5">
+        <v>100902</v>
+      </c>
+      <c r="B93" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" t="s">
+        <v>5</v>
+      </c>
+      <c r="E93" s="31"/>
+      <c r="K93" s="7"/>
+      <c r="S93" s="7"/>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A94" s="5">
+        <v>100903</v>
+      </c>
+      <c r="B94" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94" s="31"/>
+      <c r="K94" s="7"/>
+      <c r="S94" s="7"/>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A95" s="5">
+        <v>100904</v>
+      </c>
+      <c r="B95" t="s">
+        <v>17</v>
+      </c>
+      <c r="C95" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" s="31"/>
+      <c r="K95" s="7"/>
+      <c r="S95" s="7"/>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A96" s="5">
+        <v>100905</v>
+      </c>
+      <c r="B96" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" t="s">
+        <v>33</v>
+      </c>
+      <c r="E96" s="31"/>
+      <c r="K96" s="7"/>
+      <c r="S96" s="7"/>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A97" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B97" t="s">
+        <v>17</v>
+      </c>
+      <c r="C97" t="s">
+        <v>33</v>
+      </c>
+      <c r="D97" t="s">
+        <v>4</v>
+      </c>
+      <c r="E97" s="31"/>
+      <c r="K97" s="7"/>
+      <c r="S97" s="7"/>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A98" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B98" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98" t="s">
+        <v>33</v>
+      </c>
+      <c r="D98" t="s">
+        <v>5</v>
+      </c>
+      <c r="E98" s="31"/>
+      <c r="K98" s="7"/>
+      <c r="S98" s="7"/>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A99" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B99" t="s">
+        <v>17</v>
+      </c>
+      <c r="C99" t="s">
+        <v>33</v>
+      </c>
+      <c r="D99" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99" s="31"/>
+      <c r="K99" s="7"/>
+      <c r="S99" s="7"/>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A100" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B100" t="s">
+        <v>17</v>
+      </c>
+      <c r="C100" t="s">
+        <v>33</v>
+      </c>
+      <c r="D100" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" s="31"/>
+      <c r="K100" s="7"/>
+      <c r="S100" s="7"/>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A101" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E101" s="32"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="33"/>
+      <c r="L101" s="9"/>
+      <c r="M101" s="9"/>
+      <c r="N101" s="9"/>
+      <c r="O101" s="9"/>
+      <c r="P101" s="9"/>
+      <c r="Q101" s="9"/>
+      <c r="R101" s="9"/>
+      <c r="S101" s="33"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697450A6-C421-4243-A80F-168A2E990E49}">
+  <dimension ref="A1:U25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="P26" sqref="P26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.54296875" style="1" customWidth="1"/>
+    <col min="2" max="5" width="15.54296875" customWidth="1"/>
+    <col min="6" max="20" width="10.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="7">
+        <v>40</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="G2">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>174</v>
+      </c>
+      <c r="I2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J2" t="s">
+        <v>174</v>
+      </c>
+      <c r="K2" t="s">
+        <v>174</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="M2">
+        <v>6</v>
+      </c>
+      <c r="N2" t="s">
+        <v>174</v>
+      </c>
+      <c r="O2">
+        <v>5</v>
+      </c>
+      <c r="P2" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s">
+        <v>174</v>
+      </c>
+      <c r="S2" t="s">
+        <v>174</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="7">
+        <v>40</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>174</v>
+      </c>
+      <c r="K3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="M3">
+        <v>6</v>
+      </c>
+      <c r="N3">
+        <v>9</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q3">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s">
+        <v>174</v>
+      </c>
+      <c r="S3" t="s">
+        <v>174</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="7">
+        <v>40</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="G4">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>174</v>
+      </c>
+      <c r="I4">
+        <v>6</v>
+      </c>
+      <c r="J4" t="s">
+        <v>174</v>
+      </c>
+      <c r="K4" t="s">
+        <v>174</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="M4">
+        <v>6</v>
+      </c>
+      <c r="N4">
+        <v>9</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q4">
+        <v>5</v>
+      </c>
+      <c r="R4" t="s">
+        <v>174</v>
+      </c>
+      <c r="S4" t="s">
+        <v>174</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="33">
+        <v>40</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="G5" s="9">
+        <v>9</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="I5" s="9">
+        <v>6</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="M5" s="9">
+        <v>6</v>
+      </c>
+      <c r="N5" s="9">
+        <v>9</v>
+      </c>
+      <c r="O5" s="9">
+        <v>5</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>5</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="U5" s="34" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>100205</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="7">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H6" t="s">
+        <v>174</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>174</v>
+      </c>
+      <c r="K6" t="s">
+        <v>174</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>174</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+      <c r="R6" t="s">
+        <v>174</v>
+      </c>
+      <c r="S6" t="s">
+        <v>174</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>100405</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="7">
+        <v>40</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>174</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>9</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q7">
+        <v>4</v>
+      </c>
+      <c r="R7" t="s">
+        <v>174</v>
+      </c>
+      <c r="S7" t="s">
+        <v>174</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>100505</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="7">
+        <v>40</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>174</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8" t="s">
+        <v>174</v>
+      </c>
+      <c r="K8" t="s">
+        <v>174</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <v>9</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="P8" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q8">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s">
+        <v>174</v>
+      </c>
+      <c r="S8" t="s">
+        <v>174</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="33">
+        <v>40</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="G9" s="9">
+        <v>7</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="I9" s="9">
+        <v>5</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="L9" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="M9" s="9">
+        <v>5</v>
+      </c>
+      <c r="N9" s="9">
+        <v>9</v>
+      </c>
+      <c r="O9" s="9">
+        <v>5</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>4</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="U9" s="34" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="7">
+        <v>60</v>
+      </c>
+      <c r="F10" s="31">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>174</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10" t="s">
+        <v>174</v>
+      </c>
+      <c r="K10" t="s">
+        <v>174</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="M10">
+        <v>6</v>
+      </c>
+      <c r="N10" t="s">
+        <v>174</v>
+      </c>
+      <c r="O10" t="s">
+        <v>174</v>
+      </c>
+      <c r="P10">
+        <v>7</v>
+      </c>
+      <c r="Q10">
+        <v>4</v>
+      </c>
+      <c r="R10" t="s">
+        <v>174</v>
+      </c>
+      <c r="S10">
+        <v>14</v>
+      </c>
+      <c r="T10" s="7">
+        <v>12</v>
+      </c>
+      <c r="U10" s="35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="7">
+        <v>60</v>
+      </c>
+      <c r="F11" s="31">
+        <v>12</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="J11" t="s">
+        <v>174</v>
+      </c>
+      <c r="K11">
+        <v>13</v>
+      </c>
+      <c r="L11" s="7">
+        <v>12</v>
+      </c>
+      <c r="M11">
+        <v>6</v>
+      </c>
+      <c r="N11">
+        <v>6</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
+      </c>
+      <c r="P11">
+        <v>8</v>
+      </c>
+      <c r="Q11">
+        <v>4</v>
+      </c>
+      <c r="R11" t="s">
+        <v>174</v>
+      </c>
+      <c r="S11">
+        <v>15</v>
+      </c>
+      <c r="T11" s="7">
+        <v>13</v>
+      </c>
+      <c r="U11" s="35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="7">
+        <v>60</v>
+      </c>
+      <c r="F12" s="31">
+        <v>12</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="J12" t="s">
+        <v>174</v>
+      </c>
+      <c r="K12">
+        <v>13</v>
+      </c>
+      <c r="L12" s="7">
+        <v>12</v>
+      </c>
+      <c r="M12">
+        <v>6</v>
+      </c>
+      <c r="N12">
+        <v>7</v>
+      </c>
+      <c r="O12">
+        <v>5</v>
+      </c>
+      <c r="P12">
+        <v>8</v>
+      </c>
+      <c r="Q12">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s">
+        <v>174</v>
+      </c>
+      <c r="S12">
+        <v>15</v>
+      </c>
+      <c r="T12" s="7">
+        <v>12</v>
+      </c>
+      <c r="U12" s="35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="33">
+        <v>60</v>
+      </c>
+      <c r="F13" s="32">
+        <v>13</v>
+      </c>
+      <c r="G13" s="9">
+        <v>8</v>
+      </c>
+      <c r="H13" s="9">
+        <v>8</v>
+      </c>
+      <c r="I13" s="9">
+        <v>6</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="K13" s="9">
+        <v>13</v>
+      </c>
+      <c r="L13" s="33">
+        <v>12</v>
+      </c>
+      <c r="M13" s="9">
+        <v>6</v>
+      </c>
+      <c r="N13" s="9">
+        <v>7</v>
+      </c>
+      <c r="O13" s="9">
+        <v>5</v>
+      </c>
+      <c r="P13" s="9">
+        <v>8</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>5</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="S13" s="9">
+        <v>15</v>
+      </c>
+      <c r="T13" s="33">
+        <v>12</v>
+      </c>
+      <c r="U13" s="34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>100205</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="7">
+        <v>60</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14" t="s">
+        <v>174</v>
+      </c>
+      <c r="K14" t="s">
+        <v>174</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="M14">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>174</v>
+      </c>
+      <c r="O14">
+        <v>4</v>
+      </c>
+      <c r="P14">
+        <v>6</v>
+      </c>
+      <c r="Q14">
+        <v>3</v>
+      </c>
+      <c r="R14" t="s">
+        <v>174</v>
+      </c>
+      <c r="S14" t="s">
+        <v>174</v>
+      </c>
+      <c r="T14" s="7">
+        <v>12</v>
+      </c>
+      <c r="U14" s="35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>100405</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="7">
+        <v>60</v>
+      </c>
+      <c r="F15" s="31">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>6</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15" t="s">
+        <v>174</v>
+      </c>
+      <c r="K15">
+        <v>12</v>
+      </c>
+      <c r="L15" s="7">
+        <v>12</v>
+      </c>
+      <c r="M15">
+        <v>5</v>
+      </c>
+      <c r="N15">
+        <v>6</v>
+      </c>
+      <c r="O15">
+        <v>3</v>
+      </c>
+      <c r="P15">
+        <v>6</v>
+      </c>
+      <c r="Q15">
+        <v>3</v>
+      </c>
+      <c r="R15" t="s">
+        <v>174</v>
+      </c>
+      <c r="S15">
+        <v>13</v>
+      </c>
+      <c r="T15" s="7">
+        <v>13</v>
+      </c>
+      <c r="U15" s="35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>100505</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="7">
+        <v>60</v>
+      </c>
+      <c r="F16" s="31">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>7</v>
+      </c>
+      <c r="H16">
+        <v>7</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16" t="s">
+        <v>174</v>
+      </c>
+      <c r="K16">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7">
+        <v>12</v>
+      </c>
+      <c r="M16">
+        <v>6</v>
+      </c>
+      <c r="N16">
+        <v>6</v>
+      </c>
+      <c r="O16">
+        <v>4</v>
+      </c>
+      <c r="P16">
+        <v>7</v>
+      </c>
+      <c r="Q16">
+        <v>4</v>
+      </c>
+      <c r="R16" t="s">
+        <v>174</v>
+      </c>
+      <c r="S16">
+        <v>13</v>
+      </c>
+      <c r="T16" s="7">
+        <v>12</v>
+      </c>
+      <c r="U16" s="35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="33">
+        <v>60</v>
+      </c>
+      <c r="F17" s="32">
+        <v>10</v>
+      </c>
+      <c r="G17" s="9">
+        <v>7</v>
+      </c>
+      <c r="H17" s="9">
+        <v>6</v>
+      </c>
+      <c r="I17" s="9">
+        <v>4</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="K17" s="9">
+        <v>11</v>
+      </c>
+      <c r="L17" s="33">
+        <v>12</v>
+      </c>
+      <c r="M17" s="9">
+        <v>4</v>
+      </c>
+      <c r="N17" s="9">
+        <v>6</v>
+      </c>
+      <c r="O17" s="9">
+        <v>4</v>
+      </c>
+      <c r="P17" s="9">
+        <v>6</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>4</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="S17" s="9">
+        <v>13</v>
+      </c>
+      <c r="T17" s="33">
+        <v>12</v>
+      </c>
+      <c r="U17" s="34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="7">
+        <v>200</v>
+      </c>
+      <c r="F18" s="31">
+        <v>9</v>
+      </c>
+      <c r="G18" t="s">
+        <v>174</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>6</v>
+      </c>
+      <c r="K18">
+        <v>7</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="M18">
+        <v>6</v>
+      </c>
+      <c r="N18">
+        <v>5</v>
+      </c>
+      <c r="O18" t="s">
+        <v>174</v>
+      </c>
+      <c r="P18">
+        <v>5</v>
+      </c>
+      <c r="Q18">
+        <v>4</v>
+      </c>
+      <c r="R18">
+        <v>7</v>
+      </c>
+      <c r="S18" t="s">
+        <v>174</v>
+      </c>
+      <c r="T18" s="7">
+        <v>5</v>
+      </c>
+      <c r="U18" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="7">
+        <v>200</v>
+      </c>
+      <c r="F19" s="31">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>8</v>
+      </c>
+      <c r="H19">
+        <v>7</v>
+      </c>
+      <c r="I19">
+        <v>6</v>
+      </c>
+      <c r="J19">
+        <v>6</v>
+      </c>
+      <c r="K19">
+        <v>8</v>
+      </c>
+      <c r="L19" s="7">
+        <v>5</v>
+      </c>
+      <c r="M19">
+        <v>6</v>
+      </c>
+      <c r="N19">
+        <v>5</v>
+      </c>
+      <c r="O19">
+        <v>5</v>
+      </c>
+      <c r="P19">
+        <v>7</v>
+      </c>
+      <c r="Q19">
+        <v>4</v>
+      </c>
+      <c r="R19">
+        <v>8</v>
+      </c>
+      <c r="S19">
+        <v>10</v>
+      </c>
+      <c r="T19" s="7">
+        <v>5</v>
+      </c>
+      <c r="U19" s="35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="7">
+        <v>200</v>
+      </c>
+      <c r="F20" s="31">
+        <v>11</v>
+      </c>
+      <c r="G20">
+        <v>9</v>
+      </c>
+      <c r="H20">
+        <v>7</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <v>6</v>
+      </c>
+      <c r="K20">
+        <v>8</v>
+      </c>
+      <c r="L20" s="7">
+        <v>5</v>
+      </c>
+      <c r="M20">
+        <v>6</v>
+      </c>
+      <c r="N20">
+        <v>5</v>
+      </c>
+      <c r="O20">
+        <v>5</v>
+      </c>
+      <c r="P20">
+        <v>7</v>
+      </c>
+      <c r="Q20">
+        <v>4</v>
+      </c>
+      <c r="R20">
+        <v>7</v>
+      </c>
+      <c r="S20">
+        <v>11</v>
+      </c>
+      <c r="T20" s="7">
+        <v>6</v>
+      </c>
+      <c r="U20" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="7">
+        <v>200</v>
+      </c>
+      <c r="F21" s="32">
+        <v>11</v>
+      </c>
+      <c r="G21" s="9">
+        <v>8</v>
+      </c>
+      <c r="H21" s="9">
+        <v>7</v>
+      </c>
+      <c r="I21" s="9">
+        <v>5</v>
+      </c>
+      <c r="J21" s="9">
+        <v>6</v>
+      </c>
+      <c r="K21" s="9">
+        <v>7</v>
+      </c>
+      <c r="L21" s="33">
+        <v>5</v>
+      </c>
+      <c r="M21" s="9">
+        <v>6</v>
+      </c>
+      <c r="N21" s="9">
+        <v>5</v>
+      </c>
+      <c r="O21" s="9">
+        <v>5</v>
+      </c>
+      <c r="P21" s="9">
+        <v>7</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>4</v>
+      </c>
+      <c r="R21" s="9">
+        <v>8</v>
+      </c>
+      <c r="S21" s="9">
+        <v>10</v>
+      </c>
+      <c r="T21" s="33">
+        <v>6</v>
+      </c>
+      <c r="U21" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>100205</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="4">
+        <v>200</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
+      </c>
+      <c r="K22">
+        <v>6</v>
+      </c>
+      <c r="L22" s="7">
+        <v>4</v>
+      </c>
+      <c r="M22">
+        <v>4</v>
+      </c>
+      <c r="N22">
+        <v>3</v>
+      </c>
+      <c r="O22">
+        <v>3</v>
+      </c>
+      <c r="P22">
+        <v>4</v>
+      </c>
+      <c r="Q22">
+        <v>3</v>
+      </c>
+      <c r="R22">
+        <v>5</v>
+      </c>
+      <c r="S22">
+        <v>7</v>
+      </c>
+      <c r="T22" s="7">
+        <v>4</v>
+      </c>
+      <c r="U22" s="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
+        <v>100405</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="7">
+        <v>200</v>
+      </c>
+      <c r="F23" s="31">
+        <v>7</v>
+      </c>
+      <c r="G23">
+        <v>6</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
+      <c r="J23">
+        <v>5</v>
+      </c>
+      <c r="K23">
+        <v>6</v>
+      </c>
+      <c r="L23" s="7">
+        <v>4</v>
+      </c>
+      <c r="M23">
+        <v>5</v>
+      </c>
+      <c r="N23">
+        <v>4</v>
+      </c>
+      <c r="O23">
+        <v>3</v>
+      </c>
+      <c r="P23">
+        <v>5</v>
+      </c>
+      <c r="Q23">
+        <v>3</v>
+      </c>
+      <c r="R23">
+        <v>6</v>
+      </c>
+      <c r="S23">
+        <v>8</v>
+      </c>
+      <c r="T23" s="7">
+        <v>5</v>
+      </c>
+      <c r="U23" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
+        <v>100505</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="7">
+        <v>200</v>
+      </c>
+      <c r="F24" s="31">
+        <v>7</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+      <c r="H24">
+        <v>6</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
+      <c r="J24">
+        <v>5</v>
+      </c>
+      <c r="K24">
+        <v>6</v>
+      </c>
+      <c r="L24" s="7">
+        <v>4</v>
+      </c>
+      <c r="M24">
+        <v>6</v>
+      </c>
+      <c r="N24">
+        <v>4</v>
+      </c>
+      <c r="O24">
+        <v>4</v>
+      </c>
+      <c r="P24">
+        <v>6</v>
+      </c>
+      <c r="Q24">
+        <v>3</v>
+      </c>
+      <c r="R24">
+        <v>5</v>
+      </c>
+      <c r="S24">
+        <v>8</v>
+      </c>
+      <c r="T24" s="7">
+        <v>5</v>
+      </c>
+      <c r="U24" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A25" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="33">
+        <v>200</v>
+      </c>
+      <c r="F25" s="32">
+        <v>8</v>
+      </c>
+      <c r="G25" s="9">
+        <v>6</v>
+      </c>
+      <c r="H25" s="9">
+        <v>5</v>
+      </c>
+      <c r="I25" s="9">
+        <v>4</v>
+      </c>
+      <c r="J25" s="9">
+        <v>5</v>
+      </c>
+      <c r="K25" s="9">
+        <v>6</v>
+      </c>
+      <c r="L25" s="33">
+        <v>4</v>
+      </c>
+      <c r="M25" s="9">
+        <v>4</v>
+      </c>
+      <c r="N25" s="9">
+        <v>4</v>
+      </c>
+      <c r="O25" s="9">
+        <v>4</v>
+      </c>
+      <c r="P25" s="9">
+        <v>5</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>3</v>
+      </c>
+      <c r="R25" s="9">
+        <v>5</v>
+      </c>
+      <c r="S25" s="9">
+        <v>8</v>
+      </c>
+      <c r="T25" s="33">
+        <v>4</v>
+      </c>
+      <c r="U25" s="34">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D067B4CC-5589-42E2-8250-FFC90022CFEA}">
+  <dimension ref="A1:S9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.54296875" style="1" customWidth="1"/>
+    <col min="2" max="4" width="15.54296875" customWidth="1"/>
+    <col min="5" max="19" width="10.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="31">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
+      <c r="K2" s="7">
+        <v>4</v>
+      </c>
+      <c r="L2">
+        <v>6</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>174</v>
+      </c>
+      <c r="O2">
+        <v>5</v>
+      </c>
+      <c r="P2">
+        <v>4</v>
+      </c>
+      <c r="Q2">
+        <v>7</v>
+      </c>
+      <c r="R2">
+        <v>9</v>
+      </c>
+      <c r="S2" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="31">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>6</v>
+      </c>
+      <c r="J3">
+        <v>7</v>
+      </c>
+      <c r="K3" s="7">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>6</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>7</v>
+      </c>
+      <c r="P3">
+        <v>4</v>
+      </c>
+      <c r="Q3">
+        <v>8</v>
+      </c>
+      <c r="R3">
+        <v>10</v>
+      </c>
+      <c r="S3" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="31">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>6</v>
+      </c>
+      <c r="J4">
+        <v>8</v>
+      </c>
+      <c r="K4" s="7">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>6</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>7</v>
+      </c>
+      <c r="P4">
+        <v>4</v>
+      </c>
+      <c r="Q4">
+        <v>7</v>
+      </c>
+      <c r="R4">
+        <v>11</v>
+      </c>
+      <c r="S4" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="32">
+        <v>11</v>
+      </c>
+      <c r="F5" s="9">
+        <v>8</v>
+      </c>
+      <c r="G5" s="9">
+        <v>7</v>
+      </c>
+      <c r="H5" s="9">
+        <v>5</v>
+      </c>
+      <c r="I5" s="9">
+        <v>6</v>
+      </c>
+      <c r="J5" s="9">
+        <v>7</v>
+      </c>
+      <c r="K5" s="33">
+        <v>5</v>
+      </c>
+      <c r="L5" s="9">
+        <v>6</v>
+      </c>
+      <c r="M5" s="9">
+        <v>5</v>
+      </c>
+      <c r="N5" s="9">
+        <v>5</v>
+      </c>
+      <c r="O5" s="9">
+        <v>7</v>
+      </c>
+      <c r="P5" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>8</v>
+      </c>
+      <c r="R5" s="9">
+        <v>10</v>
+      </c>
+      <c r="S5" s="33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>100205</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6" s="7">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <v>7</v>
+      </c>
+      <c r="S6" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>100405</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="31">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="K7" s="7">
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>3</v>
+      </c>
+      <c r="Q7">
+        <v>6</v>
+      </c>
+      <c r="R7">
+        <v>8</v>
+      </c>
+      <c r="S7" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>100505</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="31">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8" s="7">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="O8">
+        <v>6</v>
+      </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
+      <c r="Q8">
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <v>8</v>
+      </c>
+      <c r="S8" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="32">
+        <v>8</v>
+      </c>
+      <c r="F9" s="9">
+        <v>6</v>
+      </c>
+      <c r="G9" s="9">
+        <v>5</v>
+      </c>
+      <c r="H9" s="9">
+        <v>4</v>
+      </c>
+      <c r="I9" s="9">
+        <v>5</v>
+      </c>
+      <c r="J9" s="9">
+        <v>5</v>
+      </c>
+      <c r="K9" s="33">
+        <v>4</v>
+      </c>
+      <c r="L9" s="9">
+        <v>4</v>
+      </c>
+      <c r="M9" s="9">
+        <v>4</v>
+      </c>
+      <c r="N9" s="9">
+        <v>4</v>
+      </c>
+      <c r="O9" s="9">
+        <v>5</v>
+      </c>
+      <c r="P9" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>5</v>
+      </c>
+      <c r="R9" s="9">
+        <v>7</v>
+      </c>
+      <c r="S9" s="33">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
@@ -1625,7 +6015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U33"/>
   <sheetViews>
@@ -3782,11 +8172,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F15AE43-842B-41DC-BABD-FFB291554F8C}">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7:L7"/>
     </sheetView>
   </sheetViews>
@@ -5937,4 +10327,2900 @@
     <ignoredError sqref="A2:A33" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15BC1388-CC76-498E-B2AD-AFED6AFEF2BA}">
+  <dimension ref="A1:O56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46:G49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="I1" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B2" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2" s="37"/>
+      <c r="J2" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="O2" s="37"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L3" t="s">
+        <v>127</v>
+      </c>
+      <c r="M3" t="s">
+        <v>128</v>
+      </c>
+      <c r="N3" t="s">
+        <v>127</v>
+      </c>
+      <c r="O3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4">
+        <v>2177.8000000000002</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4">
+        <f>68*60+22</f>
+        <v>4102</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>1335.41</v>
+      </c>
+      <c r="M4">
+        <v>1063.6600000000001</v>
+      </c>
+      <c r="N4">
+        <f>43*60+6</f>
+        <v>2586</v>
+      </c>
+      <c r="O4">
+        <f>35*60+35</f>
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>2211.38</v>
+      </c>
+      <c r="E5">
+        <v>1765.12</v>
+      </c>
+      <c r="F5">
+        <f>69*60+46</f>
+        <v>4186</v>
+      </c>
+      <c r="G5">
+        <f>59*60+12</f>
+        <v>3552</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>1360.19</v>
+      </c>
+      <c r="M5">
+        <v>1169.03</v>
+      </c>
+      <c r="N5">
+        <f>43*60+32</f>
+        <v>2612</v>
+      </c>
+      <c r="O5">
+        <f>38*60+4</f>
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>2197.42</v>
+      </c>
+      <c r="E6">
+        <v>1841.94</v>
+      </c>
+      <c r="F6">
+        <f>69*60+6</f>
+        <v>4146</v>
+      </c>
+      <c r="G6">
+        <f>61*60+11</f>
+        <v>3671</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6">
+        <v>6</v>
+      </c>
+      <c r="L6">
+        <v>1362.96</v>
+      </c>
+      <c r="M6">
+        <v>1327.72</v>
+      </c>
+      <c r="N6">
+        <f>43*60+33</f>
+        <v>2613</v>
+      </c>
+      <c r="O6">
+        <f>42*60+38</f>
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="9">
+        <v>11</v>
+      </c>
+      <c r="C7" s="9">
+        <v>8</v>
+      </c>
+      <c r="D7" s="9">
+        <v>2373.54</v>
+      </c>
+      <c r="E7" s="9">
+        <v>2033.75</v>
+      </c>
+      <c r="F7" s="9">
+        <f>71*60+36</f>
+        <v>4296</v>
+      </c>
+      <c r="G7" s="9">
+        <f>65*60+35</f>
+        <v>3935</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="9">
+        <v>6</v>
+      </c>
+      <c r="K7" s="9">
+        <v>4</v>
+      </c>
+      <c r="L7" s="9">
+        <v>1279.94</v>
+      </c>
+      <c r="M7" s="9">
+        <v>1143.44</v>
+      </c>
+      <c r="N7" s="9">
+        <f>41*60+18</f>
+        <v>2478</v>
+      </c>
+      <c r="O7" s="9">
+        <f>36*60+58</f>
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="I8" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B9" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="37"/>
+      <c r="J9" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="O9" s="37"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" t="s">
+        <v>127</v>
+      </c>
+      <c r="G10" t="s">
+        <v>128</v>
+      </c>
+      <c r="J10" t="s">
+        <v>127</v>
+      </c>
+      <c r="K10" t="s">
+        <v>128</v>
+      </c>
+      <c r="L10" t="s">
+        <v>127</v>
+      </c>
+      <c r="M10" t="s">
+        <v>128</v>
+      </c>
+      <c r="N10" t="s">
+        <v>127</v>
+      </c>
+      <c r="O10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11">
+        <v>1444.82</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11">
+        <f>47*60+46</f>
+        <v>2866</v>
+      </c>
+      <c r="I11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1105.77</v>
+      </c>
+      <c r="M11">
+        <v>795.08</v>
+      </c>
+      <c r="N11">
+        <f>60*35+9</f>
+        <v>2109</v>
+      </c>
+      <c r="O11">
+        <f>28*60+57</f>
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>1825.59</v>
+      </c>
+      <c r="E12">
+        <v>1485.13</v>
+      </c>
+      <c r="F12">
+        <f>58*60+18</f>
+        <v>3498</v>
+      </c>
+      <c r="G12">
+        <f>49*60+30</f>
+        <v>2970</v>
+      </c>
+      <c r="I12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <v>1024.1400000000001</v>
+      </c>
+      <c r="M12">
+        <v>980.51</v>
+      </c>
+      <c r="N12">
+        <f>34*60+20</f>
+        <v>2060</v>
+      </c>
+      <c r="O12">
+        <f>33*60+30</f>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>2003.37</v>
+      </c>
+      <c r="E13">
+        <v>1468.5</v>
+      </c>
+      <c r="F13">
+        <f>62*60+28</f>
+        <v>3748</v>
+      </c>
+      <c r="G13">
+        <f>48*60+20</f>
+        <v>2900</v>
+      </c>
+      <c r="I13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <v>1004.07</v>
+      </c>
+      <c r="M13">
+        <v>906.65</v>
+      </c>
+      <c r="N13">
+        <f>34*60+7</f>
+        <v>2047</v>
+      </c>
+      <c r="O13">
+        <f>31*60+42</f>
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="9">
+        <v>8</v>
+      </c>
+      <c r="C14" s="9">
+        <v>6</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1750.27</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1522.08</v>
+      </c>
+      <c r="F14" s="9">
+        <f>56*60+9</f>
+        <v>3369</v>
+      </c>
+      <c r="G14" s="9">
+        <f>49*60+46</f>
+        <v>2986</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="9">
+        <v>5</v>
+      </c>
+      <c r="K14" s="9">
+        <v>4</v>
+      </c>
+      <c r="L14" s="9">
+        <v>1048.51</v>
+      </c>
+      <c r="M14" s="9">
+        <v>1036.79</v>
+      </c>
+      <c r="N14" s="9">
+        <f>34*60 + 34</f>
+        <v>2074</v>
+      </c>
+      <c r="O14" s="9">
+        <f>34*60+25</f>
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="I15" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B16" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" s="37"/>
+      <c r="J16" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="O16" s="37"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" t="s">
+        <v>127</v>
+      </c>
+      <c r="G17" t="s">
+        <v>128</v>
+      </c>
+      <c r="J17" t="s">
+        <v>127</v>
+      </c>
+      <c r="K17" t="s">
+        <v>128</v>
+      </c>
+      <c r="L17" t="s">
+        <v>127</v>
+      </c>
+      <c r="M17" t="s">
+        <v>128</v>
+      </c>
+      <c r="N17" t="s">
+        <v>127</v>
+      </c>
+      <c r="O17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>1104.1500000000001</v>
+      </c>
+      <c r="E18">
+        <v>985.32</v>
+      </c>
+      <c r="F18">
+        <f>38*60+47</f>
+        <v>2327</v>
+      </c>
+      <c r="G18">
+        <f>35*60+35</f>
+        <v>2135</v>
+      </c>
+      <c r="I18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18" t="s">
+        <v>34</v>
+      </c>
+      <c r="M18">
+        <v>848.67</v>
+      </c>
+      <c r="N18" t="s">
+        <v>34</v>
+      </c>
+      <c r="O18">
+        <f>27*60+55</f>
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>1318.36</v>
+      </c>
+      <c r="E19">
+        <v>1127.8699999999999</v>
+      </c>
+      <c r="F19">
+        <f>43*60+0</f>
+        <v>2580</v>
+      </c>
+      <c r="G19">
+        <f>38*60+45</f>
+        <v>2325</v>
+      </c>
+      <c r="I19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1045.72</v>
+      </c>
+      <c r="M19">
+        <v>780.37</v>
+      </c>
+      <c r="N19">
+        <f>33*60+54</f>
+        <v>2034</v>
+      </c>
+      <c r="O19">
+        <f>26*60+7</f>
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>1304.95</v>
+      </c>
+      <c r="E20">
+        <v>1283.95</v>
+      </c>
+      <c r="F20">
+        <f>42*60+14</f>
+        <v>2534</v>
+      </c>
+      <c r="G20">
+        <f>42*60+41</f>
+        <v>2561</v>
+      </c>
+      <c r="I20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <v>1049.17</v>
+      </c>
+      <c r="M20">
+        <v>993.83</v>
+      </c>
+      <c r="N20">
+        <f>33*60+53</f>
+        <v>2033</v>
+      </c>
+      <c r="O20">
+        <f>32*60+8</f>
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="9">
+        <v>7</v>
+      </c>
+      <c r="C21" s="9">
+        <v>5</v>
+      </c>
+      <c r="D21" s="9">
+        <v>1412.54</v>
+      </c>
+      <c r="E21" s="9">
+        <v>1156.9000000000001</v>
+      </c>
+      <c r="F21" s="9">
+        <f>45*60+36</f>
+        <v>2736</v>
+      </c>
+      <c r="G21" s="9">
+        <f>39*60+49</f>
+        <v>2389</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="9">
+        <v>5</v>
+      </c>
+      <c r="K21" s="9">
+        <v>4</v>
+      </c>
+      <c r="L21" s="9">
+        <v>1018.05</v>
+      </c>
+      <c r="M21" s="9">
+        <v>906.93</v>
+      </c>
+      <c r="N21" s="9">
+        <f>32*60+28</f>
+        <v>1948</v>
+      </c>
+      <c r="O21" s="9">
+        <f>30*60+3</f>
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A22" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="I22" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B23" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="G23" s="37"/>
+      <c r="J23" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="O23" s="37"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" t="s">
+        <v>127</v>
+      </c>
+      <c r="G24" t="s">
+        <v>128</v>
+      </c>
+      <c r="J24" t="s">
+        <v>127</v>
+      </c>
+      <c r="K24" t="s">
+        <v>128</v>
+      </c>
+      <c r="L24" t="s">
+        <v>127</v>
+      </c>
+      <c r="M24" t="s">
+        <v>128</v>
+      </c>
+      <c r="N24" t="s">
+        <v>127</v>
+      </c>
+      <c r="O24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>941.06</v>
+      </c>
+      <c r="E25">
+        <v>881.17</v>
+      </c>
+      <c r="F25">
+        <f>33*60+2</f>
+        <v>1982</v>
+      </c>
+      <c r="G25">
+        <f>31*60+56</f>
+        <v>1916</v>
+      </c>
+      <c r="I25" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25">
+        <v>5</v>
+      </c>
+      <c r="K25">
+        <v>4</v>
+      </c>
+      <c r="L25">
+        <v>1104.1500000000001</v>
+      </c>
+      <c r="M25">
+        <v>985.32</v>
+      </c>
+      <c r="N25">
+        <f>38*60+47</f>
+        <v>2327</v>
+      </c>
+      <c r="O25">
+        <f>35*60+35</f>
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>999.83</v>
+      </c>
+      <c r="E26">
+        <v>882.19</v>
+      </c>
+      <c r="F26">
+        <f>32*60+22</f>
+        <v>1942</v>
+      </c>
+      <c r="G26">
+        <f>32*60+15</f>
+        <v>1935</v>
+      </c>
+      <c r="I26" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26">
+        <v>7</v>
+      </c>
+      <c r="K26">
+        <v>5</v>
+      </c>
+      <c r="L26">
+        <v>1329.89</v>
+      </c>
+      <c r="M26">
+        <v>1127.8699999999999</v>
+      </c>
+      <c r="N26">
+        <f>42*60+45</f>
+        <v>2565</v>
+      </c>
+      <c r="O26">
+        <f>38*60+45</f>
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>929.49</v>
+      </c>
+      <c r="E27">
+        <v>972.51</v>
+      </c>
+      <c r="F27">
+        <f>33*60+20</f>
+        <v>2000</v>
+      </c>
+      <c r="G27">
+        <f>33*60+15</f>
+        <v>1995</v>
+      </c>
+      <c r="I27" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27">
+        <v>7</v>
+      </c>
+      <c r="K27">
+        <v>6</v>
+      </c>
+      <c r="L27">
+        <v>1304.95</v>
+      </c>
+      <c r="M27">
+        <v>1283.95</v>
+      </c>
+      <c r="N27">
+        <f>42*60+14</f>
+        <v>2534</v>
+      </c>
+      <c r="O27">
+        <f>42*60+41</f>
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A28" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="9">
+        <v>5</v>
+      </c>
+      <c r="C28" s="9">
+        <v>4</v>
+      </c>
+      <c r="D28" s="9">
+        <v>959.92</v>
+      </c>
+      <c r="E28" s="9">
+        <v>951.6</v>
+      </c>
+      <c r="F28" s="9">
+        <f>33*60+32</f>
+        <v>2012</v>
+      </c>
+      <c r="G28" s="9">
+        <f>34*60+0</f>
+        <v>2040</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" s="9">
+        <v>7</v>
+      </c>
+      <c r="K28" s="9">
+        <v>5</v>
+      </c>
+      <c r="L28" s="9">
+        <v>1412.54</v>
+      </c>
+      <c r="M28" s="9">
+        <v>1120.31</v>
+      </c>
+      <c r="N28" s="9">
+        <f>45*60+36</f>
+        <v>2736</v>
+      </c>
+      <c r="O28" s="9">
+        <f>38*60+55</f>
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A29" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="I29" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B30" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="G30" s="37"/>
+      <c r="J30" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="O30" s="37"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" t="s">
+        <v>128</v>
+      </c>
+      <c r="F31" t="s">
+        <v>127</v>
+      </c>
+      <c r="G31" t="s">
+        <v>128</v>
+      </c>
+      <c r="J31" t="s">
+        <v>127</v>
+      </c>
+      <c r="K31" t="s">
+        <v>128</v>
+      </c>
+      <c r="L31" t="s">
+        <v>127</v>
+      </c>
+      <c r="M31" t="s">
+        <v>128</v>
+      </c>
+      <c r="N31" t="s">
+        <v>127</v>
+      </c>
+      <c r="O31" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>1114.44</v>
+      </c>
+      <c r="E32">
+        <v>1007.94</v>
+      </c>
+      <c r="F32">
+        <f>42*60+1</f>
+        <v>2521</v>
+      </c>
+      <c r="G32">
+        <f>39*60+13</f>
+        <v>2353</v>
+      </c>
+      <c r="I32" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32">
+        <v>4</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>714.67</v>
+      </c>
+      <c r="M32">
+        <v>773.89</v>
+      </c>
+      <c r="N32">
+        <f>25*60 +53</f>
+        <v>1553</v>
+      </c>
+      <c r="O32">
+        <f>26*60+47</f>
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>1113.44</v>
+      </c>
+      <c r="E33">
+        <v>1009.44</v>
+      </c>
+      <c r="F33">
+        <f>42*60+29</f>
+        <v>2549</v>
+      </c>
+      <c r="G33">
+        <f>40*60+34</f>
+        <v>2434</v>
+      </c>
+      <c r="I33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33">
+        <v>4</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>677.02</v>
+      </c>
+      <c r="M33">
+        <v>699.95</v>
+      </c>
+      <c r="N33">
+        <f>24*60+42</f>
+        <v>1482</v>
+      </c>
+      <c r="O33">
+        <f>25*60+42</f>
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>1088.67</v>
+      </c>
+      <c r="E34">
+        <v>1115.21</v>
+      </c>
+      <c r="F34">
+        <f>41*60+46</f>
+        <v>2506</v>
+      </c>
+      <c r="G34">
+        <f>41*60+31</f>
+        <v>2491</v>
+      </c>
+      <c r="I34" t="s">
+        <v>11</v>
+      </c>
+      <c r="J34">
+        <v>4</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>787.09</v>
+      </c>
+      <c r="M34">
+        <v>676.83</v>
+      </c>
+      <c r="N34">
+        <f>28*60+20</f>
+        <v>1700</v>
+      </c>
+      <c r="O34">
+        <f>25*60+27</f>
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A35" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="9">
+        <v>6</v>
+      </c>
+      <c r="C35" s="9">
+        <v>5</v>
+      </c>
+      <c r="D35" s="9">
+        <v>1130.9100000000001</v>
+      </c>
+      <c r="E35" s="9">
+        <v>1164.46</v>
+      </c>
+      <c r="F35" s="9">
+        <f>43*60+5</f>
+        <v>2585</v>
+      </c>
+      <c r="G35" s="9">
+        <f>42*60+40</f>
+        <v>2560</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J35" s="9">
+        <v>4</v>
+      </c>
+      <c r="K35" s="9">
+        <v>3</v>
+      </c>
+      <c r="L35" s="9">
+        <v>761.41</v>
+      </c>
+      <c r="M35" s="9">
+        <v>678.32</v>
+      </c>
+      <c r="N35" s="9">
+        <f>27*60+38</f>
+        <v>1658</v>
+      </c>
+      <c r="O35" s="9">
+        <f>25*60+12</f>
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A36" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="I36" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B37" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="G37" s="37"/>
+      <c r="J37" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="O37" s="37"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" t="s">
+        <v>127</v>
+      </c>
+      <c r="E38" t="s">
+        <v>128</v>
+      </c>
+      <c r="F38" t="s">
+        <v>127</v>
+      </c>
+      <c r="G38" t="s">
+        <v>128</v>
+      </c>
+      <c r="J38" t="s">
+        <v>127</v>
+      </c>
+      <c r="K38" t="s">
+        <v>128</v>
+      </c>
+      <c r="L38" t="s">
+        <v>127</v>
+      </c>
+      <c r="M38" t="s">
+        <v>128</v>
+      </c>
+      <c r="N38" t="s">
+        <v>127</v>
+      </c>
+      <c r="O38" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>1357.26</v>
+      </c>
+      <c r="E39">
+        <v>1191.69</v>
+      </c>
+      <c r="F39">
+        <f>52*60+57</f>
+        <v>3177</v>
+      </c>
+      <c r="G39">
+        <f>48*60+9</f>
+        <v>2889</v>
+      </c>
+      <c r="I39" t="s">
+        <v>8</v>
+      </c>
+      <c r="J39">
+        <v>7</v>
+      </c>
+      <c r="K39">
+        <v>5</v>
+      </c>
+      <c r="L39">
+        <v>1596.1</v>
+      </c>
+      <c r="M39">
+        <v>1199.31</v>
+      </c>
+      <c r="N39">
+        <f>53*60+9</f>
+        <v>3189</v>
+      </c>
+      <c r="O39">
+        <f>43*60+14</f>
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40">
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <v>6</v>
+      </c>
+      <c r="D40">
+        <v>1243.5999999999999</v>
+      </c>
+      <c r="E40">
+        <v>1228.94</v>
+      </c>
+      <c r="F40">
+        <f>49*60+58</f>
+        <v>2998</v>
+      </c>
+      <c r="G40">
+        <f>48*60+51</f>
+        <v>2931</v>
+      </c>
+      <c r="I40" t="s">
+        <v>10</v>
+      </c>
+      <c r="J40">
+        <v>8</v>
+      </c>
+      <c r="K40">
+        <v>6</v>
+      </c>
+      <c r="L40">
+        <v>1720.39</v>
+      </c>
+      <c r="M40">
+        <v>1528</v>
+      </c>
+      <c r="N40">
+        <f>58*60+19</f>
+        <v>3499</v>
+      </c>
+      <c r="O40">
+        <f>51*60+29</f>
+        <v>3089</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41">
+        <v>8</v>
+      </c>
+      <c r="C41">
+        <v>6</v>
+      </c>
+      <c r="D41">
+        <v>1364.4</v>
+      </c>
+      <c r="E41">
+        <v>1281.9000000000001</v>
+      </c>
+      <c r="F41">
+        <f>51*60+32</f>
+        <v>3092</v>
+      </c>
+      <c r="G41">
+        <f>50*60+16</f>
+        <v>3016</v>
+      </c>
+      <c r="I41" t="s">
+        <v>11</v>
+      </c>
+      <c r="J41">
+        <v>7</v>
+      </c>
+      <c r="K41">
+        <v>5</v>
+      </c>
+      <c r="L41">
+        <v>1507.68</v>
+      </c>
+      <c r="M41">
+        <v>1251.02</v>
+      </c>
+      <c r="N41">
+        <f>52*60+38</f>
+        <v>3158</v>
+      </c>
+      <c r="O41">
+        <f>46*60+8</f>
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A42" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="9">
+        <v>7</v>
+      </c>
+      <c r="C42" s="9">
+        <v>5</v>
+      </c>
+      <c r="D42" s="9">
+        <v>1266.69</v>
+      </c>
+      <c r="E42" s="9">
+        <v>1053.68</v>
+      </c>
+      <c r="F42" s="9">
+        <f>49*60+57</f>
+        <v>2997</v>
+      </c>
+      <c r="G42" s="9">
+        <f>45*60+25</f>
+        <v>2725</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J42" s="9">
+        <v>8</v>
+      </c>
+      <c r="K42" s="9">
+        <v>5</v>
+      </c>
+      <c r="L42" s="9">
+        <v>1643.42</v>
+      </c>
+      <c r="M42" s="9">
+        <v>1245.5</v>
+      </c>
+      <c r="N42" s="9">
+        <f>56*60+26</f>
+        <v>3386</v>
+      </c>
+      <c r="O42" s="9">
+        <f>45*60+11</f>
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A43" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="I43" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="37"/>
+      <c r="O43" s="37"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B44" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="G44" s="37"/>
+      <c r="J44" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="K44" s="37"/>
+      <c r="L44" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="M44" s="37"/>
+      <c r="N44" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="O44" s="37"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" t="s">
+        <v>128</v>
+      </c>
+      <c r="D45" t="s">
+        <v>127</v>
+      </c>
+      <c r="E45" t="s">
+        <v>128</v>
+      </c>
+      <c r="F45" t="s">
+        <v>127</v>
+      </c>
+      <c r="G45" t="s">
+        <v>128</v>
+      </c>
+      <c r="J45" t="s">
+        <v>127</v>
+      </c>
+      <c r="K45" t="s">
+        <v>128</v>
+      </c>
+      <c r="L45" t="s">
+        <v>127</v>
+      </c>
+      <c r="M45" t="s">
+        <v>128</v>
+      </c>
+      <c r="N45" t="s">
+        <v>127</v>
+      </c>
+      <c r="O45" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>626.70000000000005</v>
+      </c>
+      <c r="E46">
+        <v>625.88</v>
+      </c>
+      <c r="F46">
+        <f>31*60+24</f>
+        <v>1884</v>
+      </c>
+      <c r="G46">
+        <f>30*60+56</f>
+        <v>1856</v>
+      </c>
+      <c r="I46" t="s">
+        <v>8</v>
+      </c>
+      <c r="J46">
+        <v>9</v>
+      </c>
+      <c r="K46">
+        <v>7</v>
+      </c>
+      <c r="L46">
+        <v>2027.64</v>
+      </c>
+      <c r="M46">
+        <v>1718.52</v>
+      </c>
+      <c r="N46">
+        <f>68*60+17</f>
+        <v>4097</v>
+      </c>
+      <c r="O46">
+        <f>61*60+32</f>
+        <v>3692</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>696.83</v>
+      </c>
+      <c r="E47">
+        <v>654.55999999999995</v>
+      </c>
+      <c r="F47">
+        <f>32*60+20</f>
+        <v>1940</v>
+      </c>
+      <c r="G47">
+        <f>31*60+25</f>
+        <v>1885</v>
+      </c>
+      <c r="I47" t="s">
+        <v>10</v>
+      </c>
+      <c r="J47">
+        <v>10</v>
+      </c>
+      <c r="K47">
+        <v>8</v>
+      </c>
+      <c r="L47">
+        <v>2128.67</v>
+      </c>
+      <c r="M47">
+        <v>1970.87</v>
+      </c>
+      <c r="N47">
+        <f>69*60+9</f>
+        <v>4149</v>
+      </c>
+      <c r="O47">
+        <f>67*60+0</f>
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>726.08</v>
+      </c>
+      <c r="E48">
+        <v>588.11</v>
+      </c>
+      <c r="F48">
+        <f>33*60+9</f>
+        <v>1989</v>
+      </c>
+      <c r="G48">
+        <f>30*60+1</f>
+        <v>1801</v>
+      </c>
+      <c r="I48" t="s">
+        <v>11</v>
+      </c>
+      <c r="J48">
+        <v>11</v>
+      </c>
+      <c r="K48">
+        <v>8</v>
+      </c>
+      <c r="L48">
+        <v>2426.3000000000002</v>
+      </c>
+      <c r="M48">
+        <f>1811.32</f>
+        <v>1811.32</v>
+      </c>
+      <c r="N48">
+        <f>76*60+43</f>
+        <v>4603</v>
+      </c>
+      <c r="O48">
+        <f>63*60+34</f>
+        <v>3814</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A49" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" s="9">
+        <v>5</v>
+      </c>
+      <c r="C49" s="9">
+        <v>4</v>
+      </c>
+      <c r="D49" s="9">
+        <v>715.55</v>
+      </c>
+      <c r="E49" s="9">
+        <v>713.51</v>
+      </c>
+      <c r="F49" s="9">
+        <f>33*60+25</f>
+        <v>2005</v>
+      </c>
+      <c r="G49" s="9">
+        <f>33*60+10</f>
+        <v>1990</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J49" s="9">
+        <v>10</v>
+      </c>
+      <c r="K49" s="9">
+        <v>7</v>
+      </c>
+      <c r="L49" s="9">
+        <v>2091.7800000000002</v>
+      </c>
+      <c r="M49" s="9">
+        <v>1748.65</v>
+      </c>
+      <c r="N49" s="9">
+        <f>68*60+47</f>
+        <v>4127</v>
+      </c>
+      <c r="O49" s="9">
+        <f>61*60+15</f>
+        <v>3675</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A50" s="36"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="I50" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="J50" s="37"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="37"/>
+      <c r="M50" s="37"/>
+      <c r="N50" s="37"/>
+      <c r="O50" s="37"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B51" s="37"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="J51" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="K51" s="37"/>
+      <c r="L51" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="M51" s="37"/>
+      <c r="N51" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="O51" s="37"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J52" t="s">
+        <v>127</v>
+      </c>
+      <c r="K52" t="s">
+        <v>128</v>
+      </c>
+      <c r="L52" t="s">
+        <v>127</v>
+      </c>
+      <c r="M52" t="s">
+        <v>128</v>
+      </c>
+      <c r="N52" t="s">
+        <v>127</v>
+      </c>
+      <c r="O52" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I53" t="s">
+        <v>8</v>
+      </c>
+      <c r="J53">
+        <v>5</v>
+      </c>
+      <c r="K53">
+        <v>4</v>
+      </c>
+      <c r="L53">
+        <v>832.25</v>
+      </c>
+      <c r="M53">
+        <v>807.44</v>
+      </c>
+      <c r="N53">
+        <f>38*60+13</f>
+        <v>2293</v>
+      </c>
+      <c r="O53">
+        <f>37*60+19</f>
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I54" t="s">
+        <v>10</v>
+      </c>
+      <c r="J54">
+        <v>5</v>
+      </c>
+      <c r="K54">
+        <v>4</v>
+      </c>
+      <c r="L54">
+        <v>770.17</v>
+      </c>
+      <c r="M54">
+        <v>785.78</v>
+      </c>
+      <c r="N54">
+        <f>36*60+54</f>
+        <v>2214</v>
+      </c>
+      <c r="O54">
+        <f>36*60+35</f>
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I55" t="s">
+        <v>11</v>
+      </c>
+      <c r="J55">
+        <v>6</v>
+      </c>
+      <c r="K55">
+        <v>4</v>
+      </c>
+      <c r="L55">
+        <v>848.18</v>
+      </c>
+      <c r="M55">
+        <v>800.63</v>
+      </c>
+      <c r="N55">
+        <f>37*60+37</f>
+        <v>2257</v>
+      </c>
+      <c r="O55">
+        <f>37*60+39</f>
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="I56" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J56" s="9">
+        <v>6</v>
+      </c>
+      <c r="K56" s="9">
+        <v>4</v>
+      </c>
+      <c r="L56" s="9">
+        <v>945.66</v>
+      </c>
+      <c r="M56" s="9">
+        <v>756.84</v>
+      </c>
+      <c r="N56" s="9">
+        <f>39*60+55</f>
+        <v>2395</v>
+      </c>
+      <c r="O56" s="9">
+        <f>36*60+22</f>
+        <v>2182</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="64">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="I8:O8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="I15:O15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="I22:O22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="I29:O29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="I36:O36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="I43:O43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="I50:O50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+  </mergeCells>
+  <conditionalFormatting sqref="L32:L35">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M32:M35">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N32:N35">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O32:O35">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G7">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F7">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E7">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D7">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11:L14">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M11:M14">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N11:N14">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O11:O14">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:G21">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18:F21">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18:E21">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18:D21">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L18:L21">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:M21">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N18:N21">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18:O21">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L53:L56">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M53:M56">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N53:N56">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O53:O56">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:D28">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25:E28">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25:F28">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25:G28">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4:L7">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:M7">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4:N7">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4:O7">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L25:L28">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M25:M28">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N25:N28">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O25:O28">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L39:L42">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M39:M42">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N39:N42">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O39:O42">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L46:L49">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M46:M49">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N46:N49">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O46:O49">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:D14">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E14">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11:F14">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11:G14">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:D35">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32:E35">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:F35">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32:G35">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39:D42">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39:E42">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39:F42">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G39:G42">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46:D49">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:E49">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46:F49">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G46:G49">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/vrp_results_tracker.xlsx
+++ b/vrp_results_tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdrex\PycharmProjects\wilib_vrp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897173F7-C79D-49BE-BEA5-58DA16CB527B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052BF940-148C-4BBB-B351-4D3E800F171E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="706" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="full_model_set" sheetId="8" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="reduced_model_set_copy" sheetId="5" r:id="rId5"/>
     <sheet name="model_rerun_tracker" sheetId="6" r:id="rId6"/>
     <sheet name="dist_duration_results" sheetId="7" r:id="rId7"/>
+    <sheet name="posted_results_tracker" sheetId="11" r:id="rId8"/>
+    <sheet name="posted_map_tracker" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="236">
   <si>
     <t>shift</t>
   </si>
@@ -652,6 +654,102 @@
   </si>
   <si>
     <t>101005</t>
+  </si>
+  <si>
+    <t>08_02_05_040</t>
+  </si>
+  <si>
+    <t>08_04_05_040</t>
+  </si>
+  <si>
+    <t>08_05_05_040</t>
+  </si>
+  <si>
+    <t>08_10_05_040</t>
+  </si>
+  <si>
+    <t>10_02_05_040</t>
+  </si>
+  <si>
+    <t>10_04_05_040</t>
+  </si>
+  <si>
+    <t>10_05_05_040</t>
+  </si>
+  <si>
+    <t>10_10_05_040</t>
+  </si>
+  <si>
+    <t>08_02_05_060</t>
+  </si>
+  <si>
+    <t>08_04_05_060</t>
+  </si>
+  <si>
+    <t>08_05_05_060</t>
+  </si>
+  <si>
+    <t>08_10_05_060</t>
+  </si>
+  <si>
+    <t>10_02_05_060</t>
+  </si>
+  <si>
+    <t>10_04_05_060</t>
+  </si>
+  <si>
+    <t>10_05_05_060</t>
+  </si>
+  <si>
+    <t>10_10_05_060</t>
+  </si>
+  <si>
+    <t>08_02_05_200</t>
+  </si>
+  <si>
+    <t>08_04_05_200</t>
+  </si>
+  <si>
+    <t>08_05_05_200</t>
+  </si>
+  <si>
+    <t>08_10_05_200</t>
+  </si>
+  <si>
+    <t>10_02_05_200</t>
+  </si>
+  <si>
+    <t>10_04_05_200</t>
+  </si>
+  <si>
+    <t>10_05_05_200</t>
+  </si>
+  <si>
+    <t>10_10_05_200</t>
+  </si>
+  <si>
+    <t>08_02_05_000</t>
+  </si>
+  <si>
+    <t>08_04_05_000</t>
+  </si>
+  <si>
+    <t>08_05_05_000</t>
+  </si>
+  <si>
+    <t>08_10_05_000</t>
+  </si>
+  <si>
+    <t>10_02_05_000</t>
+  </si>
+  <si>
+    <t>10_04_05_000</t>
+  </si>
+  <si>
+    <t>10_05_05_000</t>
+  </si>
+  <si>
+    <t>10_10_05_000</t>
   </si>
 </sst>
 </file>
@@ -836,17 +934,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -6020,7 +6138,7 @@
   <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8162,7 +8280,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A33">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -10319,7 +10437,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A33">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -10333,57 +10451,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15BC1388-CC76-498E-B2AD-AFED6AFEF2BA}">
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G46" sqref="G46:G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="I1" s="37" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="J2" s="37" t="s">
+      <c r="G2" s="36"/>
+      <c r="J2" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37" t="s">
+      <c r="K2" s="36"/>
+      <c r="L2" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37" t="s">
+      <c r="M2" s="36"/>
+      <c r="N2" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="O2" s="37"/>
+      <c r="O2" s="36"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
@@ -10615,50 +10733,50 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="I8" s="37" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="I8" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37" t="s">
+      <c r="C9" s="36"/>
+      <c r="D9" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37" t="s">
+      <c r="E9" s="36"/>
+      <c r="F9" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="G9" s="37"/>
-      <c r="J9" s="37" t="s">
+      <c r="G9" s="36"/>
+      <c r="J9" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37" t="s">
+      <c r="K9" s="36"/>
+      <c r="L9" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37" t="s">
+      <c r="M9" s="36"/>
+      <c r="N9" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="O9" s="37"/>
+      <c r="O9" s="36"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
@@ -10890,50 +11008,50 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="I15" s="37" t="s">
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="I15" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37" t="s">
+      <c r="C16" s="36"/>
+      <c r="D16" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37" t="s">
+      <c r="E16" s="36"/>
+      <c r="F16" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="G16" s="37"/>
-      <c r="J16" s="37" t="s">
+      <c r="G16" s="36"/>
+      <c r="J16" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37" t="s">
+      <c r="K16" s="36"/>
+      <c r="L16" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37" t="s">
+      <c r="M16" s="36"/>
+      <c r="N16" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="O16" s="37"/>
+      <c r="O16" s="36"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
@@ -11165,50 +11283,50 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="I22" s="37" t="s">
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="I22" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37" t="s">
+      <c r="C23" s="36"/>
+      <c r="D23" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37" t="s">
+      <c r="E23" s="36"/>
+      <c r="F23" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="G23" s="37"/>
-      <c r="J23" s="37" t="s">
+      <c r="G23" s="36"/>
+      <c r="J23" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37" t="s">
+      <c r="K23" s="36"/>
+      <c r="L23" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37" t="s">
+      <c r="M23" s="36"/>
+      <c r="N23" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="O23" s="37"/>
+      <c r="O23" s="36"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
@@ -11441,50 +11559,50 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="I29" s="37" t="s">
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="I29" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37" t="s">
+      <c r="C30" s="36"/>
+      <c r="D30" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37" t="s">
+      <c r="E30" s="36"/>
+      <c r="F30" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="G30" s="37"/>
-      <c r="J30" s="37" t="s">
+      <c r="G30" s="36"/>
+      <c r="J30" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37" t="s">
+      <c r="K30" s="36"/>
+      <c r="L30" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37" t="s">
+      <c r="M30" s="36"/>
+      <c r="N30" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="O30" s="37"/>
+      <c r="O30" s="36"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
@@ -11717,50 +11835,50 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="I36" s="37" t="s">
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="I36" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37" t="s">
+      <c r="C37" s="36"/>
+      <c r="D37" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37" t="s">
+      <c r="E37" s="36"/>
+      <c r="F37" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="G37" s="37"/>
-      <c r="J37" s="37" t="s">
+      <c r="G37" s="36"/>
+      <c r="J37" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37" t="s">
+      <c r="K37" s="36"/>
+      <c r="L37" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37" t="s">
+      <c r="M37" s="36"/>
+      <c r="N37" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="O37" s="37"/>
+      <c r="O37" s="36"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
@@ -11993,50 +12111,50 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A43" s="37" t="s">
+      <c r="A43" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="I43" s="37" t="s">
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="I43" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="37"/>
-      <c r="M43" s="37"/>
-      <c r="N43" s="37"/>
-      <c r="O43" s="37"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B44" s="37" t="s">
+      <c r="B44" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37" t="s">
+      <c r="C44" s="36"/>
+      <c r="D44" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37" t="s">
+      <c r="E44" s="36"/>
+      <c r="F44" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="G44" s="37"/>
-      <c r="J44" s="37" t="s">
+      <c r="G44" s="36"/>
+      <c r="J44" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="K44" s="37"/>
-      <c r="L44" s="37" t="s">
+      <c r="K44" s="36"/>
+      <c r="L44" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="M44" s="37"/>
-      <c r="N44" s="37" t="s">
+      <c r="M44" s="36"/>
+      <c r="N44" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="O44" s="37"/>
+      <c r="O44" s="36"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
@@ -12270,41 +12388,41 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A50" s="36"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="I50" s="37" t="s">
+      <c r="A50" s="37"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="I50" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="J50" s="37"/>
-      <c r="K50" s="37"/>
-      <c r="L50" s="37"/>
-      <c r="M50" s="37"/>
-      <c r="N50" s="37"/>
-      <c r="O50" s="37"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="36"/>
+      <c r="N50" s="36"/>
+      <c r="O50" s="36"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B51" s="37"/>
-      <c r="C51" s="37"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
-      <c r="J51" s="37" t="s">
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="J51" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="K51" s="37"/>
-      <c r="L51" s="37" t="s">
+      <c r="K51" s="36"/>
+      <c r="L51" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="M51" s="37"/>
-      <c r="N51" s="37" t="s">
+      <c r="M51" s="36"/>
+      <c r="N51" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="O51" s="37"/>
+      <c r="O51" s="36"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="J52" t="s">
@@ -12435,6 +12553,62 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="I50:O50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="I43:O43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="I36:O36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="I29:O29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="I22:O22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="I15:O15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="I8:O8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="I1:O1"/>
     <mergeCell ref="B2:C2"/>
@@ -12443,62 +12617,6 @@
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="I8:O8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="I15:O15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="I22:O22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="I29:O29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="I36:O36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="I43:O43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="I50:O50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="N51:O51"/>
   </mergeCells>
   <conditionalFormatting sqref="L32:L35">
     <cfRule type="colorScale" priority="60">
@@ -13223,4 +13341,4138 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B07D07E-4BE6-49FC-B2CD-1CE2AE1A9D5D}">
+  <dimension ref="A1:T33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:T33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="13">
+        <v>40</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="14">
+        <v>8</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="14">
+        <v>6</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="14">
+        <v>5</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="14">
+        <v>5</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="13">
+        <v>40</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="14">
+        <v>7</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="14">
+        <v>5</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="14">
+        <v>6</v>
+      </c>
+      <c r="N3" s="14">
+        <v>9</v>
+      </c>
+      <c r="O3" s="14">
+        <v>5</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="15">
+        <v>5</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="13">
+        <v>40</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="14">
+        <v>9</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="14">
+        <v>6</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="14">
+        <v>6</v>
+      </c>
+      <c r="N4" s="14">
+        <v>9</v>
+      </c>
+      <c r="O4" s="14">
+        <v>5</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" s="15">
+        <v>5</v>
+      </c>
+      <c r="R4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="17">
+        <v>40</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="18">
+        <v>9</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="18">
+        <v>6</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="18">
+        <v>6</v>
+      </c>
+      <c r="N5" s="18">
+        <v>9</v>
+      </c>
+      <c r="O5" s="18">
+        <v>5</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" s="18">
+        <v>5</v>
+      </c>
+      <c r="R5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="S5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="T5" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="13">
+        <v>40</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="14">
+        <v>5</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="14">
+        <v>4</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="14">
+        <v>4</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>4</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="T6" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="13">
+        <v>40</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="14">
+        <v>6</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="14">
+        <v>4</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="15">
+        <v>5</v>
+      </c>
+      <c r="N7" s="14">
+        <v>9</v>
+      </c>
+      <c r="O7" s="15">
+        <v>4</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" s="15">
+        <v>4</v>
+      </c>
+      <c r="R7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="S7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="T7" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="13">
+        <v>40</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="15">
+        <v>8</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="15">
+        <v>6</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="15">
+        <v>5</v>
+      </c>
+      <c r="N8" s="15">
+        <v>9</v>
+      </c>
+      <c r="O8" s="15">
+        <v>4</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q8" s="15">
+        <v>5</v>
+      </c>
+      <c r="R8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="S8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="T8" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="17">
+        <v>40</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="18">
+        <v>7</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="18">
+        <v>5</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="18">
+        <v>5</v>
+      </c>
+      <c r="N9" s="18">
+        <v>9</v>
+      </c>
+      <c r="O9" s="18">
+        <v>5</v>
+      </c>
+      <c r="P9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>4</v>
+      </c>
+      <c r="R9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="S9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="T9" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="13">
+        <v>60</v>
+      </c>
+      <c r="F10" s="5">
+        <v>11</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="14">
+        <v>7</v>
+      </c>
+      <c r="I10" s="15">
+        <v>5</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="14">
+        <v>6</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" s="15">
+        <v>7</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>4</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="S10" s="14">
+        <v>14</v>
+      </c>
+      <c r="T10" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="13">
+        <v>60</v>
+      </c>
+      <c r="F11" s="5">
+        <v>12</v>
+      </c>
+      <c r="G11" s="14">
+        <v>8</v>
+      </c>
+      <c r="H11" s="15">
+        <v>8</v>
+      </c>
+      <c r="I11" s="15">
+        <v>6</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="15">
+        <v>13</v>
+      </c>
+      <c r="L11" s="13">
+        <v>12</v>
+      </c>
+      <c r="M11" s="15">
+        <v>6</v>
+      </c>
+      <c r="N11" s="15">
+        <v>6</v>
+      </c>
+      <c r="O11" s="15">
+        <v>5</v>
+      </c>
+      <c r="P11" s="15">
+        <v>8</v>
+      </c>
+      <c r="Q11" s="15">
+        <v>4</v>
+      </c>
+      <c r="R11" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="S11" s="15">
+        <v>15</v>
+      </c>
+      <c r="T11" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="13">
+        <v>60</v>
+      </c>
+      <c r="F12" s="5">
+        <v>12</v>
+      </c>
+      <c r="G12" s="15">
+        <v>9</v>
+      </c>
+      <c r="H12" s="15">
+        <v>8</v>
+      </c>
+      <c r="I12" s="15">
+        <v>6</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="15">
+        <v>13</v>
+      </c>
+      <c r="L12" s="13">
+        <v>12</v>
+      </c>
+      <c r="M12" s="15">
+        <v>6</v>
+      </c>
+      <c r="N12" s="15">
+        <v>7</v>
+      </c>
+      <c r="O12" s="15">
+        <v>5</v>
+      </c>
+      <c r="P12" s="15">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="15">
+        <v>5</v>
+      </c>
+      <c r="R12" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="S12" s="15">
+        <v>15</v>
+      </c>
+      <c r="T12" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="17">
+        <v>60</v>
+      </c>
+      <c r="F13" s="8">
+        <v>13</v>
+      </c>
+      <c r="G13" s="18">
+        <v>8</v>
+      </c>
+      <c r="H13" s="18">
+        <v>8</v>
+      </c>
+      <c r="I13" s="18">
+        <v>6</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="18">
+        <v>13</v>
+      </c>
+      <c r="L13" s="17">
+        <v>12</v>
+      </c>
+      <c r="M13" s="18">
+        <v>6</v>
+      </c>
+      <c r="N13" s="18">
+        <v>7</v>
+      </c>
+      <c r="O13" s="18">
+        <v>5</v>
+      </c>
+      <c r="P13" s="18">
+        <v>8</v>
+      </c>
+      <c r="Q13" s="18">
+        <v>5</v>
+      </c>
+      <c r="R13" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="S13" s="18">
+        <v>15</v>
+      </c>
+      <c r="T13" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="13">
+        <v>60</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="14">
+        <v>6</v>
+      </c>
+      <c r="H14" s="14">
+        <v>6</v>
+      </c>
+      <c r="I14" s="15">
+        <v>4</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" s="14">
+        <v>4</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O14" s="14">
+        <v>4</v>
+      </c>
+      <c r="P14" s="14">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="15">
+        <v>3</v>
+      </c>
+      <c r="R14" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="S14" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="T14" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="13">
+        <v>60</v>
+      </c>
+      <c r="F15" s="5">
+        <v>9</v>
+      </c>
+      <c r="G15" s="14">
+        <v>6</v>
+      </c>
+      <c r="H15" s="15">
+        <v>6</v>
+      </c>
+      <c r="I15" s="15">
+        <v>4</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="15">
+        <v>12</v>
+      </c>
+      <c r="L15" s="13">
+        <v>12</v>
+      </c>
+      <c r="M15" s="15">
+        <v>5</v>
+      </c>
+      <c r="N15" s="15">
+        <v>6</v>
+      </c>
+      <c r="O15" s="15">
+        <v>3</v>
+      </c>
+      <c r="P15" s="15">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="15">
+        <v>3</v>
+      </c>
+      <c r="R15" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="S15" s="15">
+        <v>13</v>
+      </c>
+      <c r="T15" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="13">
+        <v>60</v>
+      </c>
+      <c r="F16" s="5">
+        <v>10</v>
+      </c>
+      <c r="G16" s="15">
+        <v>7</v>
+      </c>
+      <c r="H16" s="15">
+        <v>7</v>
+      </c>
+      <c r="I16" s="15">
+        <v>4</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="15">
+        <v>12</v>
+      </c>
+      <c r="L16" s="13">
+        <v>12</v>
+      </c>
+      <c r="M16" s="15">
+        <v>6</v>
+      </c>
+      <c r="N16" s="15">
+        <v>6</v>
+      </c>
+      <c r="O16" s="15">
+        <v>4</v>
+      </c>
+      <c r="P16" s="15">
+        <v>7</v>
+      </c>
+      <c r="Q16" s="15">
+        <v>4</v>
+      </c>
+      <c r="R16" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="S16" s="15">
+        <v>13</v>
+      </c>
+      <c r="T16" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="17">
+        <v>60</v>
+      </c>
+      <c r="F17" s="8">
+        <v>10</v>
+      </c>
+      <c r="G17" s="18">
+        <v>7</v>
+      </c>
+      <c r="H17" s="18">
+        <v>6</v>
+      </c>
+      <c r="I17" s="18">
+        <v>4</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="18">
+        <v>11</v>
+      </c>
+      <c r="L17" s="17">
+        <v>12</v>
+      </c>
+      <c r="M17" s="18">
+        <v>4</v>
+      </c>
+      <c r="N17" s="18">
+        <v>6</v>
+      </c>
+      <c r="O17" s="18">
+        <v>4</v>
+      </c>
+      <c r="P17" s="18">
+        <v>6</v>
+      </c>
+      <c r="Q17" s="18">
+        <v>4</v>
+      </c>
+      <c r="R17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="S17" s="18">
+        <v>13</v>
+      </c>
+      <c r="T17" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="13">
+        <v>200</v>
+      </c>
+      <c r="F18" s="21">
+        <v>9</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="15">
+        <v>5</v>
+      </c>
+      <c r="I18" s="15">
+        <v>5</v>
+      </c>
+      <c r="J18" s="15">
+        <v>6</v>
+      </c>
+      <c r="K18" s="15">
+        <v>7</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M18" s="15">
+        <v>6</v>
+      </c>
+      <c r="N18" s="15">
+        <v>5</v>
+      </c>
+      <c r="O18" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" s="15">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="15">
+        <v>4</v>
+      </c>
+      <c r="R18" s="15">
+        <v>7</v>
+      </c>
+      <c r="S18" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="T18" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="13">
+        <v>200</v>
+      </c>
+      <c r="F19" s="21">
+        <v>10</v>
+      </c>
+      <c r="G19" s="15">
+        <v>8</v>
+      </c>
+      <c r="H19" s="15">
+        <v>7</v>
+      </c>
+      <c r="I19" s="15">
+        <v>6</v>
+      </c>
+      <c r="J19" s="15">
+        <v>6</v>
+      </c>
+      <c r="K19" s="15">
+        <v>8</v>
+      </c>
+      <c r="L19" s="16">
+        <v>5</v>
+      </c>
+      <c r="M19" s="15">
+        <v>6</v>
+      </c>
+      <c r="N19" s="15">
+        <v>5</v>
+      </c>
+      <c r="O19" s="15">
+        <v>5</v>
+      </c>
+      <c r="P19" s="15">
+        <v>7</v>
+      </c>
+      <c r="Q19" s="15">
+        <v>4</v>
+      </c>
+      <c r="R19" s="15">
+        <v>8</v>
+      </c>
+      <c r="S19" s="15">
+        <v>10</v>
+      </c>
+      <c r="T19" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="13">
+        <v>200</v>
+      </c>
+      <c r="F20" s="21">
+        <v>11</v>
+      </c>
+      <c r="G20" s="15">
+        <v>9</v>
+      </c>
+      <c r="H20" s="15">
+        <v>7</v>
+      </c>
+      <c r="I20" s="15">
+        <v>5</v>
+      </c>
+      <c r="J20" s="15">
+        <v>6</v>
+      </c>
+      <c r="K20" s="15">
+        <v>8</v>
+      </c>
+      <c r="L20" s="16">
+        <v>5</v>
+      </c>
+      <c r="M20" s="15">
+        <v>6</v>
+      </c>
+      <c r="N20" s="15">
+        <v>5</v>
+      </c>
+      <c r="O20" s="15">
+        <v>5</v>
+      </c>
+      <c r="P20" s="15">
+        <v>7</v>
+      </c>
+      <c r="Q20" s="15">
+        <v>4</v>
+      </c>
+      <c r="R20" s="15">
+        <v>7</v>
+      </c>
+      <c r="S20" s="15">
+        <v>11</v>
+      </c>
+      <c r="T20" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="13">
+        <v>200</v>
+      </c>
+      <c r="F21" s="22">
+        <v>11</v>
+      </c>
+      <c r="G21" s="23">
+        <v>8</v>
+      </c>
+      <c r="H21" s="23">
+        <v>7</v>
+      </c>
+      <c r="I21" s="23">
+        <v>5</v>
+      </c>
+      <c r="J21" s="23">
+        <v>6</v>
+      </c>
+      <c r="K21" s="23">
+        <v>7</v>
+      </c>
+      <c r="L21" s="24">
+        <v>5</v>
+      </c>
+      <c r="M21" s="23">
+        <v>6</v>
+      </c>
+      <c r="N21" s="23">
+        <v>5</v>
+      </c>
+      <c r="O21" s="23">
+        <v>5</v>
+      </c>
+      <c r="P21" s="23">
+        <v>7</v>
+      </c>
+      <c r="Q21" s="23">
+        <v>4</v>
+      </c>
+      <c r="R21" s="23">
+        <v>8</v>
+      </c>
+      <c r="S21" s="23">
+        <v>10</v>
+      </c>
+      <c r="T21" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="25">
+        <v>200</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="15">
+        <v>5</v>
+      </c>
+      <c r="H22" s="15">
+        <v>4</v>
+      </c>
+      <c r="I22" s="15">
+        <v>4</v>
+      </c>
+      <c r="J22" s="15">
+        <v>4</v>
+      </c>
+      <c r="K22" s="15">
+        <v>6</v>
+      </c>
+      <c r="L22" s="16">
+        <v>4</v>
+      </c>
+      <c r="M22" s="15">
+        <v>4</v>
+      </c>
+      <c r="N22" s="15">
+        <v>3</v>
+      </c>
+      <c r="O22" s="15">
+        <v>3</v>
+      </c>
+      <c r="P22" s="15">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="15">
+        <v>3</v>
+      </c>
+      <c r="R22" s="15">
+        <v>5</v>
+      </c>
+      <c r="S22" s="15">
+        <v>7</v>
+      </c>
+      <c r="T22" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="13">
+        <v>200</v>
+      </c>
+      <c r="F23" s="21">
+        <v>7</v>
+      </c>
+      <c r="G23" s="15">
+        <v>6</v>
+      </c>
+      <c r="H23" s="15">
+        <v>5</v>
+      </c>
+      <c r="I23" s="15">
+        <v>4</v>
+      </c>
+      <c r="J23" s="15">
+        <v>5</v>
+      </c>
+      <c r="K23" s="15">
+        <v>6</v>
+      </c>
+      <c r="L23" s="16">
+        <v>4</v>
+      </c>
+      <c r="M23" s="15">
+        <v>5</v>
+      </c>
+      <c r="N23" s="15">
+        <v>4</v>
+      </c>
+      <c r="O23" s="15">
+        <v>3</v>
+      </c>
+      <c r="P23" s="15">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="15">
+        <v>3</v>
+      </c>
+      <c r="R23" s="15">
+        <v>6</v>
+      </c>
+      <c r="S23" s="15">
+        <v>8</v>
+      </c>
+      <c r="T23" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="13">
+        <v>200</v>
+      </c>
+      <c r="F24" s="21">
+        <v>7</v>
+      </c>
+      <c r="G24" s="15">
+        <v>6</v>
+      </c>
+      <c r="H24" s="15">
+        <v>6</v>
+      </c>
+      <c r="I24" s="15">
+        <v>4</v>
+      </c>
+      <c r="J24" s="15">
+        <v>5</v>
+      </c>
+      <c r="K24" s="15">
+        <v>6</v>
+      </c>
+      <c r="L24" s="16">
+        <v>4</v>
+      </c>
+      <c r="M24" s="15">
+        <v>6</v>
+      </c>
+      <c r="N24" s="15">
+        <v>4</v>
+      </c>
+      <c r="O24" s="15">
+        <v>4</v>
+      </c>
+      <c r="P24" s="15">
+        <v>6</v>
+      </c>
+      <c r="Q24" s="15">
+        <v>3</v>
+      </c>
+      <c r="R24" s="15">
+        <v>5</v>
+      </c>
+      <c r="S24" s="15">
+        <v>8</v>
+      </c>
+      <c r="T24" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A25" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="17">
+        <v>200</v>
+      </c>
+      <c r="F25" s="22">
+        <v>8</v>
+      </c>
+      <c r="G25" s="23">
+        <v>6</v>
+      </c>
+      <c r="H25" s="23">
+        <v>5</v>
+      </c>
+      <c r="I25" s="23">
+        <v>4</v>
+      </c>
+      <c r="J25" s="23">
+        <v>5</v>
+      </c>
+      <c r="K25" s="23">
+        <v>6</v>
+      </c>
+      <c r="L25" s="24">
+        <v>4</v>
+      </c>
+      <c r="M25" s="23">
+        <v>4</v>
+      </c>
+      <c r="N25" s="23">
+        <v>4</v>
+      </c>
+      <c r="O25" s="23">
+        <v>4</v>
+      </c>
+      <c r="P25" s="23">
+        <v>5</v>
+      </c>
+      <c r="Q25" s="23">
+        <v>3</v>
+      </c>
+      <c r="R25" s="23">
+        <v>5</v>
+      </c>
+      <c r="S25" s="23">
+        <v>8</v>
+      </c>
+      <c r="T25" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="26">
+        <v>0</v>
+      </c>
+      <c r="F26" s="5">
+        <v>9</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="15">
+        <v>5</v>
+      </c>
+      <c r="I26" s="15">
+        <v>5</v>
+      </c>
+      <c r="J26" s="15">
+        <v>6</v>
+      </c>
+      <c r="K26" s="15">
+        <v>7</v>
+      </c>
+      <c r="L26" s="16">
+        <v>4</v>
+      </c>
+      <c r="M26" s="15">
+        <v>6</v>
+      </c>
+      <c r="N26" s="15">
+        <v>5</v>
+      </c>
+      <c r="O26" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="P26" s="15">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="15">
+        <v>4</v>
+      </c>
+      <c r="R26" s="15">
+        <v>7</v>
+      </c>
+      <c r="S26" s="15">
+        <v>9</v>
+      </c>
+      <c r="T26" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="16">
+        <v>0</v>
+      </c>
+      <c r="F27" s="5">
+        <v>10</v>
+      </c>
+      <c r="G27" s="14">
+        <v>8</v>
+      </c>
+      <c r="H27" s="15">
+        <v>7</v>
+      </c>
+      <c r="I27" s="15">
+        <v>6</v>
+      </c>
+      <c r="J27" s="15">
+        <v>6</v>
+      </c>
+      <c r="K27" s="15">
+        <v>7</v>
+      </c>
+      <c r="L27" s="13">
+        <v>5</v>
+      </c>
+      <c r="M27" s="15">
+        <v>6</v>
+      </c>
+      <c r="N27" s="15">
+        <v>5</v>
+      </c>
+      <c r="O27" s="15">
+        <v>5</v>
+      </c>
+      <c r="P27" s="15">
+        <v>7</v>
+      </c>
+      <c r="Q27" s="15">
+        <v>4</v>
+      </c>
+      <c r="R27" s="15">
+        <v>8</v>
+      </c>
+      <c r="S27" s="15">
+        <v>10</v>
+      </c>
+      <c r="T27" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="16">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
+        <v>11</v>
+      </c>
+      <c r="G28" s="14">
+        <v>9</v>
+      </c>
+      <c r="H28" s="15">
+        <v>7</v>
+      </c>
+      <c r="I28" s="15">
+        <v>5</v>
+      </c>
+      <c r="J28" s="15">
+        <v>6</v>
+      </c>
+      <c r="K28" s="15">
+        <v>8</v>
+      </c>
+      <c r="L28" s="13">
+        <v>5</v>
+      </c>
+      <c r="M28" s="15">
+        <v>6</v>
+      </c>
+      <c r="N28" s="15">
+        <v>5</v>
+      </c>
+      <c r="O28" s="15">
+        <v>5</v>
+      </c>
+      <c r="P28" s="15">
+        <v>7</v>
+      </c>
+      <c r="Q28" s="15">
+        <v>4</v>
+      </c>
+      <c r="R28" s="15">
+        <v>7</v>
+      </c>
+      <c r="S28" s="15">
+        <v>11</v>
+      </c>
+      <c r="T28" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="24">
+        <v>0</v>
+      </c>
+      <c r="F29" s="8">
+        <v>11</v>
+      </c>
+      <c r="G29" s="18">
+        <v>8</v>
+      </c>
+      <c r="H29" s="18">
+        <v>7</v>
+      </c>
+      <c r="I29" s="18">
+        <v>5</v>
+      </c>
+      <c r="J29" s="18">
+        <v>6</v>
+      </c>
+      <c r="K29" s="18">
+        <v>7</v>
+      </c>
+      <c r="L29" s="17">
+        <v>5</v>
+      </c>
+      <c r="M29" s="18">
+        <v>6</v>
+      </c>
+      <c r="N29" s="18">
+        <v>5</v>
+      </c>
+      <c r="O29" s="18">
+        <v>5</v>
+      </c>
+      <c r="P29" s="18">
+        <v>7</v>
+      </c>
+      <c r="Q29" s="18">
+        <v>4</v>
+      </c>
+      <c r="R29" s="18">
+        <v>8</v>
+      </c>
+      <c r="S29" s="18">
+        <v>10</v>
+      </c>
+      <c r="T29" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="26">
+        <v>0</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="15">
+        <v>5</v>
+      </c>
+      <c r="H30" s="15">
+        <v>4</v>
+      </c>
+      <c r="I30" s="14">
+        <v>4</v>
+      </c>
+      <c r="J30" s="15">
+        <v>4</v>
+      </c>
+      <c r="K30" s="15">
+        <v>5</v>
+      </c>
+      <c r="L30" s="13">
+        <v>4</v>
+      </c>
+      <c r="M30" s="15">
+        <v>4</v>
+      </c>
+      <c r="N30" s="15">
+        <v>3</v>
+      </c>
+      <c r="O30" s="15">
+        <v>3</v>
+      </c>
+      <c r="P30" s="15">
+        <v>4</v>
+      </c>
+      <c r="Q30" s="15">
+        <v>3</v>
+      </c>
+      <c r="R30" s="15">
+        <v>5</v>
+      </c>
+      <c r="S30" s="15">
+        <v>7</v>
+      </c>
+      <c r="T30" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="16">
+        <v>0</v>
+      </c>
+      <c r="F31" s="5">
+        <v>7</v>
+      </c>
+      <c r="G31" s="14">
+        <v>6</v>
+      </c>
+      <c r="H31" s="15">
+        <v>5</v>
+      </c>
+      <c r="I31" s="15">
+        <v>4</v>
+      </c>
+      <c r="J31" s="15">
+        <v>5</v>
+      </c>
+      <c r="K31" s="15">
+        <v>6</v>
+      </c>
+      <c r="L31" s="13">
+        <v>4</v>
+      </c>
+      <c r="M31" s="15">
+        <v>5</v>
+      </c>
+      <c r="N31" s="15">
+        <v>4</v>
+      </c>
+      <c r="O31" s="15">
+        <v>3</v>
+      </c>
+      <c r="P31" s="15">
+        <v>5</v>
+      </c>
+      <c r="Q31" s="15">
+        <v>3</v>
+      </c>
+      <c r="R31" s="15">
+        <v>6</v>
+      </c>
+      <c r="S31" s="15">
+        <v>8</v>
+      </c>
+      <c r="T31" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="16">
+        <v>0</v>
+      </c>
+      <c r="F32" s="5">
+        <v>7</v>
+      </c>
+      <c r="G32" s="15">
+        <v>6</v>
+      </c>
+      <c r="H32" s="15">
+        <v>6</v>
+      </c>
+      <c r="I32" s="15">
+        <v>4</v>
+      </c>
+      <c r="J32" s="15">
+        <v>5</v>
+      </c>
+      <c r="K32" s="15">
+        <v>6</v>
+      </c>
+      <c r="L32" s="13">
+        <v>4</v>
+      </c>
+      <c r="M32" s="15">
+        <v>6</v>
+      </c>
+      <c r="N32" s="15">
+        <v>4</v>
+      </c>
+      <c r="O32" s="15">
+        <v>4</v>
+      </c>
+      <c r="P32" s="15">
+        <v>6</v>
+      </c>
+      <c r="Q32" s="15">
+        <v>3</v>
+      </c>
+      <c r="R32" s="15">
+        <v>5</v>
+      </c>
+      <c r="S32" s="15">
+        <v>8</v>
+      </c>
+      <c r="T32" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A33" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="24">
+        <v>0</v>
+      </c>
+      <c r="F33" s="8">
+        <v>8</v>
+      </c>
+      <c r="G33" s="18">
+        <v>6</v>
+      </c>
+      <c r="H33" s="18">
+        <v>5</v>
+      </c>
+      <c r="I33" s="18">
+        <v>4</v>
+      </c>
+      <c r="J33" s="18">
+        <v>5</v>
+      </c>
+      <c r="K33" s="18">
+        <v>5</v>
+      </c>
+      <c r="L33" s="17">
+        <v>4</v>
+      </c>
+      <c r="M33" s="18">
+        <v>4</v>
+      </c>
+      <c r="N33" s="18">
+        <v>4</v>
+      </c>
+      <c r="O33" s="18">
+        <v>4</v>
+      </c>
+      <c r="P33" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="18">
+        <v>3</v>
+      </c>
+      <c r="R33" s="18">
+        <v>5</v>
+      </c>
+      <c r="S33" s="18">
+        <v>7</v>
+      </c>
+      <c r="T33" s="17">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:A33">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B574B14-7454-41BF-A265-B3685099023C}">
+  <dimension ref="A1:T33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:T33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="13">
+        <v>40</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="14">
+        <v>8</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="14">
+        <v>6</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="14">
+        <v>5</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="14">
+        <v>5</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="13">
+        <v>40</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="14">
+        <v>7</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="14">
+        <v>5</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="14">
+        <v>6</v>
+      </c>
+      <c r="N3" s="14">
+        <v>9</v>
+      </c>
+      <c r="O3" s="14">
+        <v>5</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="15">
+        <v>5</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="13">
+        <v>40</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="14">
+        <v>9</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="14">
+        <v>6</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="14">
+        <v>6</v>
+      </c>
+      <c r="N4" s="14">
+        <v>9</v>
+      </c>
+      <c r="O4" s="14">
+        <v>5</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" s="15">
+        <v>5</v>
+      </c>
+      <c r="R4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="17">
+        <v>40</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="18">
+        <v>9</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="18">
+        <v>6</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="18">
+        <v>6</v>
+      </c>
+      <c r="N5" s="18">
+        <v>9</v>
+      </c>
+      <c r="O5" s="18">
+        <v>5</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" s="18">
+        <v>5</v>
+      </c>
+      <c r="R5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="S5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="T5" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="13">
+        <v>40</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="14">
+        <v>5</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="14">
+        <v>4</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="14">
+        <v>4</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>4</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="T6" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="13">
+        <v>40</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="14">
+        <v>6</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="14">
+        <v>4</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="15">
+        <v>5</v>
+      </c>
+      <c r="N7" s="14">
+        <v>9</v>
+      </c>
+      <c r="O7" s="15">
+        <v>4</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" s="15">
+        <v>4</v>
+      </c>
+      <c r="R7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="S7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="T7" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="13">
+        <v>40</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="15">
+        <v>8</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="15">
+        <v>6</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="15">
+        <v>5</v>
+      </c>
+      <c r="N8" s="15">
+        <v>9</v>
+      </c>
+      <c r="O8" s="15">
+        <v>4</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q8" s="15">
+        <v>5</v>
+      </c>
+      <c r="R8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="S8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="T8" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="17">
+        <v>40</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="18">
+        <v>7</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="18">
+        <v>5</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="18">
+        <v>5</v>
+      </c>
+      <c r="N9" s="18">
+        <v>9</v>
+      </c>
+      <c r="O9" s="18">
+        <v>5</v>
+      </c>
+      <c r="P9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>4</v>
+      </c>
+      <c r="R9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="S9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="T9" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="13">
+        <v>60</v>
+      </c>
+      <c r="F10" s="5">
+        <v>11</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="14">
+        <v>7</v>
+      </c>
+      <c r="I10" s="15">
+        <v>5</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="14">
+        <v>6</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" s="15">
+        <v>7</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>4</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="S10" s="14">
+        <v>14</v>
+      </c>
+      <c r="T10" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="13">
+        <v>60</v>
+      </c>
+      <c r="F11" s="5">
+        <v>12</v>
+      </c>
+      <c r="G11" s="14">
+        <v>8</v>
+      </c>
+      <c r="H11" s="15">
+        <v>8</v>
+      </c>
+      <c r="I11" s="15">
+        <v>6</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="15">
+        <v>13</v>
+      </c>
+      <c r="L11" s="13">
+        <v>12</v>
+      </c>
+      <c r="M11" s="15">
+        <v>6</v>
+      </c>
+      <c r="N11" s="15">
+        <v>6</v>
+      </c>
+      <c r="O11" s="15">
+        <v>5</v>
+      </c>
+      <c r="P11" s="15">
+        <v>8</v>
+      </c>
+      <c r="Q11" s="15">
+        <v>4</v>
+      </c>
+      <c r="R11" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="S11" s="15">
+        <v>15</v>
+      </c>
+      <c r="T11" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="13">
+        <v>60</v>
+      </c>
+      <c r="F12" s="5">
+        <v>12</v>
+      </c>
+      <c r="G12" s="15">
+        <v>9</v>
+      </c>
+      <c r="H12" s="15">
+        <v>8</v>
+      </c>
+      <c r="I12" s="15">
+        <v>6</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="15">
+        <v>13</v>
+      </c>
+      <c r="L12" s="13">
+        <v>12</v>
+      </c>
+      <c r="M12" s="15">
+        <v>6</v>
+      </c>
+      <c r="N12" s="15">
+        <v>7</v>
+      </c>
+      <c r="O12" s="15">
+        <v>5</v>
+      </c>
+      <c r="P12" s="15">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="15">
+        <v>5</v>
+      </c>
+      <c r="R12" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="S12" s="15">
+        <v>15</v>
+      </c>
+      <c r="T12" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="17">
+        <v>60</v>
+      </c>
+      <c r="F13" s="8">
+        <v>13</v>
+      </c>
+      <c r="G13" s="18">
+        <v>8</v>
+      </c>
+      <c r="H13" s="18">
+        <v>8</v>
+      </c>
+      <c r="I13" s="18">
+        <v>6</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="18">
+        <v>13</v>
+      </c>
+      <c r="L13" s="17">
+        <v>12</v>
+      </c>
+      <c r="M13" s="18">
+        <v>6</v>
+      </c>
+      <c r="N13" s="18">
+        <v>7</v>
+      </c>
+      <c r="O13" s="18">
+        <v>5</v>
+      </c>
+      <c r="P13" s="18">
+        <v>8</v>
+      </c>
+      <c r="Q13" s="18">
+        <v>5</v>
+      </c>
+      <c r="R13" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="S13" s="18">
+        <v>15</v>
+      </c>
+      <c r="T13" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="13">
+        <v>60</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="14">
+        <v>6</v>
+      </c>
+      <c r="H14" s="14">
+        <v>6</v>
+      </c>
+      <c r="I14" s="15">
+        <v>4</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" s="14">
+        <v>4</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O14" s="14">
+        <v>4</v>
+      </c>
+      <c r="P14" s="14">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="15">
+        <v>3</v>
+      </c>
+      <c r="R14" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="S14" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="T14" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="13">
+        <v>60</v>
+      </c>
+      <c r="F15" s="5">
+        <v>9</v>
+      </c>
+      <c r="G15" s="14">
+        <v>6</v>
+      </c>
+      <c r="H15" s="15">
+        <v>6</v>
+      </c>
+      <c r="I15" s="15">
+        <v>4</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="15">
+        <v>12</v>
+      </c>
+      <c r="L15" s="13">
+        <v>12</v>
+      </c>
+      <c r="M15" s="15">
+        <v>5</v>
+      </c>
+      <c r="N15" s="15">
+        <v>6</v>
+      </c>
+      <c r="O15" s="15">
+        <v>3</v>
+      </c>
+      <c r="P15" s="15">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="15">
+        <v>3</v>
+      </c>
+      <c r="R15" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="S15" s="15">
+        <v>13</v>
+      </c>
+      <c r="T15" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="13">
+        <v>60</v>
+      </c>
+      <c r="F16" s="5">
+        <v>10</v>
+      </c>
+      <c r="G16" s="15">
+        <v>7</v>
+      </c>
+      <c r="H16" s="15">
+        <v>7</v>
+      </c>
+      <c r="I16" s="15">
+        <v>4</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="15">
+        <v>12</v>
+      </c>
+      <c r="L16" s="13">
+        <v>12</v>
+      </c>
+      <c r="M16" s="15">
+        <v>6</v>
+      </c>
+      <c r="N16" s="15">
+        <v>6</v>
+      </c>
+      <c r="O16" s="15">
+        <v>4</v>
+      </c>
+      <c r="P16" s="15">
+        <v>7</v>
+      </c>
+      <c r="Q16" s="15">
+        <v>4</v>
+      </c>
+      <c r="R16" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="S16" s="15">
+        <v>13</v>
+      </c>
+      <c r="T16" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="17">
+        <v>60</v>
+      </c>
+      <c r="F17" s="8">
+        <v>10</v>
+      </c>
+      <c r="G17" s="18">
+        <v>7</v>
+      </c>
+      <c r="H17" s="18">
+        <v>6</v>
+      </c>
+      <c r="I17" s="18">
+        <v>4</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="18">
+        <v>11</v>
+      </c>
+      <c r="L17" s="17">
+        <v>12</v>
+      </c>
+      <c r="M17" s="18">
+        <v>4</v>
+      </c>
+      <c r="N17" s="18">
+        <v>6</v>
+      </c>
+      <c r="O17" s="18">
+        <v>4</v>
+      </c>
+      <c r="P17" s="18">
+        <v>6</v>
+      </c>
+      <c r="Q17" s="18">
+        <v>4</v>
+      </c>
+      <c r="R17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="S17" s="18">
+        <v>13</v>
+      </c>
+      <c r="T17" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="13">
+        <v>200</v>
+      </c>
+      <c r="F18" s="21">
+        <v>9</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="15">
+        <v>5</v>
+      </c>
+      <c r="I18" s="15">
+        <v>5</v>
+      </c>
+      <c r="J18" s="15">
+        <v>6</v>
+      </c>
+      <c r="K18" s="15">
+        <v>7</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M18" s="15">
+        <v>6</v>
+      </c>
+      <c r="N18" s="15">
+        <v>5</v>
+      </c>
+      <c r="O18" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" s="15">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="15">
+        <v>4</v>
+      </c>
+      <c r="R18" s="15">
+        <v>7</v>
+      </c>
+      <c r="S18" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="T18" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="13">
+        <v>200</v>
+      </c>
+      <c r="F19" s="21">
+        <v>10</v>
+      </c>
+      <c r="G19" s="15">
+        <v>8</v>
+      </c>
+      <c r="H19" s="15">
+        <v>7</v>
+      </c>
+      <c r="I19" s="15">
+        <v>6</v>
+      </c>
+      <c r="J19" s="15">
+        <v>6</v>
+      </c>
+      <c r="K19" s="15">
+        <v>8</v>
+      </c>
+      <c r="L19" s="16">
+        <v>5</v>
+      </c>
+      <c r="M19" s="15">
+        <v>6</v>
+      </c>
+      <c r="N19" s="15">
+        <v>5</v>
+      </c>
+      <c r="O19" s="15">
+        <v>5</v>
+      </c>
+      <c r="P19" s="15">
+        <v>7</v>
+      </c>
+      <c r="Q19" s="15">
+        <v>4</v>
+      </c>
+      <c r="R19" s="15">
+        <v>8</v>
+      </c>
+      <c r="S19" s="15">
+        <v>10</v>
+      </c>
+      <c r="T19" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="13">
+        <v>200</v>
+      </c>
+      <c r="F20" s="21">
+        <v>11</v>
+      </c>
+      <c r="G20" s="15">
+        <v>9</v>
+      </c>
+      <c r="H20" s="15">
+        <v>7</v>
+      </c>
+      <c r="I20" s="15">
+        <v>5</v>
+      </c>
+      <c r="J20" s="15">
+        <v>6</v>
+      </c>
+      <c r="K20" s="15">
+        <v>8</v>
+      </c>
+      <c r="L20" s="16">
+        <v>5</v>
+      </c>
+      <c r="M20" s="15">
+        <v>6</v>
+      </c>
+      <c r="N20" s="15">
+        <v>5</v>
+      </c>
+      <c r="O20" s="15">
+        <v>5</v>
+      </c>
+      <c r="P20" s="15">
+        <v>7</v>
+      </c>
+      <c r="Q20" s="15">
+        <v>4</v>
+      </c>
+      <c r="R20" s="15">
+        <v>7</v>
+      </c>
+      <c r="S20" s="15">
+        <v>11</v>
+      </c>
+      <c r="T20" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="13">
+        <v>200</v>
+      </c>
+      <c r="F21" s="22">
+        <v>11</v>
+      </c>
+      <c r="G21" s="23">
+        <v>8</v>
+      </c>
+      <c r="H21" s="23">
+        <v>7</v>
+      </c>
+      <c r="I21" s="23">
+        <v>5</v>
+      </c>
+      <c r="J21" s="23">
+        <v>6</v>
+      </c>
+      <c r="K21" s="23">
+        <v>7</v>
+      </c>
+      <c r="L21" s="24">
+        <v>5</v>
+      </c>
+      <c r="M21" s="23">
+        <v>6</v>
+      </c>
+      <c r="N21" s="23">
+        <v>5</v>
+      </c>
+      <c r="O21" s="23">
+        <v>5</v>
+      </c>
+      <c r="P21" s="23">
+        <v>7</v>
+      </c>
+      <c r="Q21" s="23">
+        <v>4</v>
+      </c>
+      <c r="R21" s="23">
+        <v>8</v>
+      </c>
+      <c r="S21" s="23">
+        <v>10</v>
+      </c>
+      <c r="T21" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="25">
+        <v>200</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="15">
+        <v>5</v>
+      </c>
+      <c r="H22" s="15">
+        <v>4</v>
+      </c>
+      <c r="I22" s="15">
+        <v>4</v>
+      </c>
+      <c r="J22" s="15">
+        <v>4</v>
+      </c>
+      <c r="K22" s="15">
+        <v>6</v>
+      </c>
+      <c r="L22" s="16">
+        <v>4</v>
+      </c>
+      <c r="M22" s="15">
+        <v>4</v>
+      </c>
+      <c r="N22" s="15">
+        <v>3</v>
+      </c>
+      <c r="O22" s="15">
+        <v>3</v>
+      </c>
+      <c r="P22" s="15">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="15">
+        <v>3</v>
+      </c>
+      <c r="R22" s="15">
+        <v>5</v>
+      </c>
+      <c r="S22" s="15">
+        <v>7</v>
+      </c>
+      <c r="T22" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="13">
+        <v>200</v>
+      </c>
+      <c r="F23" s="21">
+        <v>7</v>
+      </c>
+      <c r="G23" s="15">
+        <v>6</v>
+      </c>
+      <c r="H23" s="15">
+        <v>5</v>
+      </c>
+      <c r="I23" s="15">
+        <v>4</v>
+      </c>
+      <c r="J23" s="15">
+        <v>5</v>
+      </c>
+      <c r="K23" s="15">
+        <v>6</v>
+      </c>
+      <c r="L23" s="16">
+        <v>4</v>
+      </c>
+      <c r="M23" s="15">
+        <v>5</v>
+      </c>
+      <c r="N23" s="15">
+        <v>4</v>
+      </c>
+      <c r="O23" s="15">
+        <v>3</v>
+      </c>
+      <c r="P23" s="15">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="15">
+        <v>3</v>
+      </c>
+      <c r="R23" s="15">
+        <v>6</v>
+      </c>
+      <c r="S23" s="15">
+        <v>8</v>
+      </c>
+      <c r="T23" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="13">
+        <v>200</v>
+      </c>
+      <c r="F24" s="21">
+        <v>7</v>
+      </c>
+      <c r="G24" s="15">
+        <v>6</v>
+      </c>
+      <c r="H24" s="15">
+        <v>6</v>
+      </c>
+      <c r="I24" s="15">
+        <v>4</v>
+      </c>
+      <c r="J24" s="15">
+        <v>5</v>
+      </c>
+      <c r="K24" s="15">
+        <v>6</v>
+      </c>
+      <c r="L24" s="16">
+        <v>4</v>
+      </c>
+      <c r="M24" s="15">
+        <v>6</v>
+      </c>
+      <c r="N24" s="15">
+        <v>4</v>
+      </c>
+      <c r="O24" s="15">
+        <v>4</v>
+      </c>
+      <c r="P24" s="15">
+        <v>6</v>
+      </c>
+      <c r="Q24" s="15">
+        <v>3</v>
+      </c>
+      <c r="R24" s="15">
+        <v>5</v>
+      </c>
+      <c r="S24" s="15">
+        <v>8</v>
+      </c>
+      <c r="T24" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A25" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="17">
+        <v>200</v>
+      </c>
+      <c r="F25" s="22">
+        <v>8</v>
+      </c>
+      <c r="G25" s="23">
+        <v>6</v>
+      </c>
+      <c r="H25" s="23">
+        <v>5</v>
+      </c>
+      <c r="I25" s="23">
+        <v>4</v>
+      </c>
+      <c r="J25" s="23">
+        <v>5</v>
+      </c>
+      <c r="K25" s="23">
+        <v>6</v>
+      </c>
+      <c r="L25" s="24">
+        <v>4</v>
+      </c>
+      <c r="M25" s="23">
+        <v>4</v>
+      </c>
+      <c r="N25" s="23">
+        <v>4</v>
+      </c>
+      <c r="O25" s="23">
+        <v>4</v>
+      </c>
+      <c r="P25" s="23">
+        <v>5</v>
+      </c>
+      <c r="Q25" s="23">
+        <v>3</v>
+      </c>
+      <c r="R25" s="23">
+        <v>5</v>
+      </c>
+      <c r="S25" s="23">
+        <v>8</v>
+      </c>
+      <c r="T25" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="26">
+        <v>0</v>
+      </c>
+      <c r="F26" s="5">
+        <v>9</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="15">
+        <v>5</v>
+      </c>
+      <c r="I26" s="15">
+        <v>5</v>
+      </c>
+      <c r="J26" s="15">
+        <v>6</v>
+      </c>
+      <c r="K26" s="15">
+        <v>7</v>
+      </c>
+      <c r="L26" s="16">
+        <v>4</v>
+      </c>
+      <c r="M26" s="15">
+        <v>6</v>
+      </c>
+      <c r="N26" s="15">
+        <v>5</v>
+      </c>
+      <c r="O26" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="P26" s="15">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="15">
+        <v>4</v>
+      </c>
+      <c r="R26" s="15">
+        <v>7</v>
+      </c>
+      <c r="S26" s="15">
+        <v>9</v>
+      </c>
+      <c r="T26" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="16">
+        <v>0</v>
+      </c>
+      <c r="F27" s="5">
+        <v>10</v>
+      </c>
+      <c r="G27" s="14">
+        <v>8</v>
+      </c>
+      <c r="H27" s="15">
+        <v>7</v>
+      </c>
+      <c r="I27" s="15">
+        <v>6</v>
+      </c>
+      <c r="J27" s="15">
+        <v>6</v>
+      </c>
+      <c r="K27" s="15">
+        <v>7</v>
+      </c>
+      <c r="L27" s="13">
+        <v>5</v>
+      </c>
+      <c r="M27" s="15">
+        <v>6</v>
+      </c>
+      <c r="N27" s="15">
+        <v>5</v>
+      </c>
+      <c r="O27" s="15">
+        <v>5</v>
+      </c>
+      <c r="P27" s="15">
+        <v>7</v>
+      </c>
+      <c r="Q27" s="15">
+        <v>4</v>
+      </c>
+      <c r="R27" s="15">
+        <v>8</v>
+      </c>
+      <c r="S27" s="15">
+        <v>10</v>
+      </c>
+      <c r="T27" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="16">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
+        <v>11</v>
+      </c>
+      <c r="G28" s="14">
+        <v>9</v>
+      </c>
+      <c r="H28" s="15">
+        <v>7</v>
+      </c>
+      <c r="I28" s="15">
+        <v>5</v>
+      </c>
+      <c r="J28" s="15">
+        <v>6</v>
+      </c>
+      <c r="K28" s="15">
+        <v>8</v>
+      </c>
+      <c r="L28" s="13">
+        <v>5</v>
+      </c>
+      <c r="M28" s="15">
+        <v>6</v>
+      </c>
+      <c r="N28" s="15">
+        <v>5</v>
+      </c>
+      <c r="O28" s="15">
+        <v>5</v>
+      </c>
+      <c r="P28" s="15">
+        <v>7</v>
+      </c>
+      <c r="Q28" s="15">
+        <v>4</v>
+      </c>
+      <c r="R28" s="15">
+        <v>7</v>
+      </c>
+      <c r="S28" s="15">
+        <v>11</v>
+      </c>
+      <c r="T28" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="24">
+        <v>0</v>
+      </c>
+      <c r="F29" s="8">
+        <v>11</v>
+      </c>
+      <c r="G29" s="18">
+        <v>8</v>
+      </c>
+      <c r="H29" s="18">
+        <v>7</v>
+      </c>
+      <c r="I29" s="18">
+        <v>5</v>
+      </c>
+      <c r="J29" s="18">
+        <v>6</v>
+      </c>
+      <c r="K29" s="18">
+        <v>7</v>
+      </c>
+      <c r="L29" s="17">
+        <v>5</v>
+      </c>
+      <c r="M29" s="18">
+        <v>6</v>
+      </c>
+      <c r="N29" s="18">
+        <v>5</v>
+      </c>
+      <c r="O29" s="18">
+        <v>5</v>
+      </c>
+      <c r="P29" s="18">
+        <v>7</v>
+      </c>
+      <c r="Q29" s="18">
+        <v>4</v>
+      </c>
+      <c r="R29" s="18">
+        <v>8</v>
+      </c>
+      <c r="S29" s="18">
+        <v>10</v>
+      </c>
+      <c r="T29" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="26">
+        <v>0</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="15">
+        <v>5</v>
+      </c>
+      <c r="H30" s="15">
+        <v>4</v>
+      </c>
+      <c r="I30" s="14">
+        <v>4</v>
+      </c>
+      <c r="J30" s="15">
+        <v>4</v>
+      </c>
+      <c r="K30" s="15">
+        <v>5</v>
+      </c>
+      <c r="L30" s="13">
+        <v>4</v>
+      </c>
+      <c r="M30" s="15">
+        <v>4</v>
+      </c>
+      <c r="N30" s="15">
+        <v>3</v>
+      </c>
+      <c r="O30" s="15">
+        <v>3</v>
+      </c>
+      <c r="P30" s="15">
+        <v>4</v>
+      </c>
+      <c r="Q30" s="15">
+        <v>3</v>
+      </c>
+      <c r="R30" s="15">
+        <v>5</v>
+      </c>
+      <c r="S30" s="15">
+        <v>7</v>
+      </c>
+      <c r="T30" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="16">
+        <v>0</v>
+      </c>
+      <c r="F31" s="5">
+        <v>7</v>
+      </c>
+      <c r="G31" s="14">
+        <v>6</v>
+      </c>
+      <c r="H31" s="15">
+        <v>5</v>
+      </c>
+      <c r="I31" s="15">
+        <v>4</v>
+      </c>
+      <c r="J31" s="15">
+        <v>5</v>
+      </c>
+      <c r="K31" s="15">
+        <v>6</v>
+      </c>
+      <c r="L31" s="13">
+        <v>4</v>
+      </c>
+      <c r="M31" s="15">
+        <v>5</v>
+      </c>
+      <c r="N31" s="15">
+        <v>4</v>
+      </c>
+      <c r="O31" s="15">
+        <v>3</v>
+      </c>
+      <c r="P31" s="15">
+        <v>5</v>
+      </c>
+      <c r="Q31" s="15">
+        <v>3</v>
+      </c>
+      <c r="R31" s="15">
+        <v>6</v>
+      </c>
+      <c r="S31" s="15">
+        <v>8</v>
+      </c>
+      <c r="T31" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="16">
+        <v>0</v>
+      </c>
+      <c r="F32" s="5">
+        <v>7</v>
+      </c>
+      <c r="G32" s="15">
+        <v>6</v>
+      </c>
+      <c r="H32" s="15">
+        <v>6</v>
+      </c>
+      <c r="I32" s="15">
+        <v>4</v>
+      </c>
+      <c r="J32" s="15">
+        <v>5</v>
+      </c>
+      <c r="K32" s="15">
+        <v>6</v>
+      </c>
+      <c r="L32" s="13">
+        <v>4</v>
+      </c>
+      <c r="M32" s="15">
+        <v>6</v>
+      </c>
+      <c r="N32" s="15">
+        <v>4</v>
+      </c>
+      <c r="O32" s="15">
+        <v>4</v>
+      </c>
+      <c r="P32" s="15">
+        <v>6</v>
+      </c>
+      <c r="Q32" s="15">
+        <v>3</v>
+      </c>
+      <c r="R32" s="15">
+        <v>5</v>
+      </c>
+      <c r="S32" s="15">
+        <v>8</v>
+      </c>
+      <c r="T32" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A33" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="24">
+        <v>0</v>
+      </c>
+      <c r="F33" s="8">
+        <v>8</v>
+      </c>
+      <c r="G33" s="18">
+        <v>6</v>
+      </c>
+      <c r="H33" s="18">
+        <v>5</v>
+      </c>
+      <c r="I33" s="18">
+        <v>4</v>
+      </c>
+      <c r="J33" s="18">
+        <v>5</v>
+      </c>
+      <c r="K33" s="18">
+        <v>5</v>
+      </c>
+      <c r="L33" s="17">
+        <v>4</v>
+      </c>
+      <c r="M33" s="18">
+        <v>4</v>
+      </c>
+      <c r="N33" s="18">
+        <v>4</v>
+      </c>
+      <c r="O33" s="18">
+        <v>4</v>
+      </c>
+      <c r="P33" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="18">
+        <v>3</v>
+      </c>
+      <c r="R33" s="18">
+        <v>5</v>
+      </c>
+      <c r="S33" s="18">
+        <v>7</v>
+      </c>
+      <c r="T33" s="17">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:A33">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/vrp_results_tracker.xlsx
+++ b/vrp_results_tracker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="791" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="870" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="full_model_set" sheetId="8" r:id="rId1"/>
@@ -17,10 +17,10 @@
     <sheet name="no_capacity_results" sheetId="10" r:id="rId3"/>
     <sheet name="dist_duration_results" sheetId="7" r:id="rId4"/>
     <sheet name="test_model_set" sheetId="4" r:id="rId5"/>
-    <sheet name="model_rerun_results_tracker" sheetId="13" r:id="rId6"/>
-    <sheet name="solution_file_tracker" sheetId="11" r:id="rId7"/>
-    <sheet name="map_file_tracker" sheetId="12" r:id="rId8"/>
-    <sheet name="model_rerun_results_tracker (2" sheetId="14" r:id="rId9"/>
+    <sheet name="model_rerun_results_tracker (2" sheetId="14" r:id="rId6"/>
+    <sheet name="model_rerun_results_tracker" sheetId="13" r:id="rId7"/>
+    <sheet name="solution_file_tracker" sheetId="11" r:id="rId8"/>
+    <sheet name="map_file_tracker" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4397" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4441" uniqueCount="689">
   <si>
     <t>shift</t>
   </si>
@@ -2075,6 +2075,39 @@
   </si>
   <si>
     <t>map_file</t>
+  </si>
+  <si>
+    <t>idl1_10_10_05_000</t>
+  </si>
+  <si>
+    <t>idl7_08_02_05_040</t>
+  </si>
+  <si>
+    <t>idl7_08_04_05_040</t>
+  </si>
+  <si>
+    <t>idl7_08_05_05_040</t>
+  </si>
+  <si>
+    <t>idl7_08_10_05_040</t>
+  </si>
+  <si>
+    <t>str8_08_02_05_040</t>
+  </si>
+  <si>
+    <t>str8_08_04_05_040</t>
+  </si>
+  <si>
+    <t>str8_08_05_05_040</t>
+  </si>
+  <si>
+    <t>str8_08_10_05_040</t>
+  </si>
+  <si>
+    <t>str8_10_02_05_040</t>
+  </si>
+  <si>
+    <t>str8_10_04_05_040</t>
   </si>
 </sst>
 </file>
@@ -4675,7 +4708,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P26" sqref="P26"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6324,7 +6357,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:D9"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10489,3333 +10522,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="12">
-        <v>40</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="12"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="12">
-        <v>40</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="12"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="12">
-        <v>40</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="12"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="16">
-        <v>40</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="16"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="12">
-        <v>40</v>
-      </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="12"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="12">
-        <v>40</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="12"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="12">
-        <v>40</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="12"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="16">
-        <v>40</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="16"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="12">
-        <v>60</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="12"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="12">
-        <v>60</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="12"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="12">
-        <v>60</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="12"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="16">
-        <v>60</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="16"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="12">
-        <v>60</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="12"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="12">
-        <v>60</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="12"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="12">
-        <v>60</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="12"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="16">
-        <v>60</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="16"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="12">
-        <v>200</v>
-      </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="15"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="12">
-        <v>200</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="15"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="12">
-        <v>200</v>
-      </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="15"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="12">
-        <v>200</v>
-      </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="21"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="22">
-        <v>200</v>
-      </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="15"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="12">
-        <v>200</v>
-      </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="15"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="12">
-        <v>200</v>
-      </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="15"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="16">
-        <v>200</v>
-      </c>
-      <c r="F25" s="19"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="21"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="23">
-        <v>0</v>
-      </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="12"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="15">
-        <v>0</v>
-      </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="12"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="15">
-        <v>0</v>
-      </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="12"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="21">
-        <v>0</v>
-      </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="16"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" s="23">
-        <v>0</v>
-      </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="12"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" s="15">
-        <v>0</v>
-      </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="12"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" s="15">
-        <v>0</v>
-      </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="12"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" s="21">
-        <v>0</v>
-      </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="16"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A2:A33">
-    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="12">
-        <v>40</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="12"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="12">
-        <v>40</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="12"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="12">
-        <v>40</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="12"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="16">
-        <v>40</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="16"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="12">
-        <v>40</v>
-      </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="12"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="12">
-        <v>40</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="12"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="12">
-        <v>40</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="12"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="16">
-        <v>40</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="16"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="12">
-        <v>60</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="12"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="12">
-        <v>60</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="12"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="12">
-        <v>60</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="12"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="16">
-        <v>60</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="16"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="12">
-        <v>60</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="12"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="12">
-        <v>60</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="12"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="12">
-        <v>60</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="12"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="16">
-        <v>60</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="16"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="12">
-        <v>200</v>
-      </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="15"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="12">
-        <v>200</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="15"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="12">
-        <v>200</v>
-      </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="15"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="12">
-        <v>200</v>
-      </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="21"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="22">
-        <v>200</v>
-      </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="15"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="12">
-        <v>200</v>
-      </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="15"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="12">
-        <v>200</v>
-      </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="15"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="16">
-        <v>200</v>
-      </c>
-      <c r="F25" s="19"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="21"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="23">
-        <v>0</v>
-      </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="12"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="15">
-        <v>0</v>
-      </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="12"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="15">
-        <v>0</v>
-      </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="12"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="21">
-        <v>0</v>
-      </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="16"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" s="23">
-        <v>0</v>
-      </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="12"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" s="15">
-        <v>0</v>
-      </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="12"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" s="15">
-        <v>0</v>
-      </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="12"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" s="21">
-        <v>0</v>
-      </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="16"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A2:A33">
-    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="12">
-        <v>40</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="12"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="12">
-        <v>40</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="12"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="12">
-        <v>40</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="12"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="16">
-        <v>40</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="16"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="12">
-        <v>40</v>
-      </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="12"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="12">
-        <v>40</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="12"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="12">
-        <v>40</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="12"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="16">
-        <v>40</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="16"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="12">
-        <v>60</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="12"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="12">
-        <v>60</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="12"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="12">
-        <v>60</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="12"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="16">
-        <v>60</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="16"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="12">
-        <v>60</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="12"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="12">
-        <v>60</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="12"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="12">
-        <v>60</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="12"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="16">
-        <v>60</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="16"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="12">
-        <v>200</v>
-      </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="15"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="12">
-        <v>200</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="15"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="12">
-        <v>200</v>
-      </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="15"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="12">
-        <v>200</v>
-      </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="21"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="22">
-        <v>200</v>
-      </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="15"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="12">
-        <v>200</v>
-      </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="15"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="12">
-        <v>200</v>
-      </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="15"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="16">
-        <v>200</v>
-      </c>
-      <c r="F25" s="19"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="21"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="23">
-        <v>0</v>
-      </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="12"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="15">
-        <v>0</v>
-      </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="12"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="15">
-        <v>0</v>
-      </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="12"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="21">
-        <v>0</v>
-      </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="16"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" s="23">
-        <v>0</v>
-      </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="12"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" s="15">
-        <v>0</v>
-      </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="12"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" s="15">
-        <v>0</v>
-      </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="12"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" s="21">
-        <v>0</v>
-      </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="16"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A2:A33">
-    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13903,11 +10613,19 @@
       <c r="G2" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="H2" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>34</v>
+      </c>
       <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
+      <c r="L2" s="34" t="s">
+        <v>34</v>
+      </c>
       <c r="M2" s="33"/>
       <c r="N2" s="34"/>
       <c r="O2" s="33"/>
@@ -13939,11 +10657,19 @@
       <c r="G3" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
+      <c r="H3" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>34</v>
+      </c>
       <c r="K3" s="34"/>
-      <c r="L3" s="33"/>
+      <c r="L3" s="34" t="s">
+        <v>34</v>
+      </c>
       <c r="M3" s="33"/>
       <c r="N3" s="33"/>
       <c r="O3" s="33"/>
@@ -13975,11 +10701,19 @@
       <c r="G4" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="H4" s="34"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="34"/>
+      <c r="H4" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>34</v>
+      </c>
       <c r="K4" s="34"/>
-      <c r="L4" s="33"/>
+      <c r="L4" s="34" t="s">
+        <v>34</v>
+      </c>
       <c r="M4" s="33"/>
       <c r="N4" s="33"/>
       <c r="O4" s="33"/>
@@ -14011,11 +10745,19 @@
       <c r="G5" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
+      <c r="H5" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34" t="s">
+        <v>34</v>
+      </c>
       <c r="M5" s="33"/>
       <c r="N5" s="33"/>
       <c r="O5" s="33"/>
@@ -14047,11 +10789,19 @@
       <c r="G6" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="34"/>
+      <c r="H6" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>34</v>
+      </c>
       <c r="K6" s="34"/>
-      <c r="L6" s="33"/>
+      <c r="L6" s="34" t="s">
+        <v>34</v>
+      </c>
       <c r="M6" s="33"/>
       <c r="N6" s="34"/>
       <c r="O6" s="33"/>
@@ -14083,11 +10833,19 @@
       <c r="G7" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="34"/>
+      <c r="H7" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="34" t="s">
+        <v>34</v>
+      </c>
       <c r="K7" s="34"/>
-      <c r="L7" s="33"/>
+      <c r="L7" s="34" t="s">
+        <v>34</v>
+      </c>
       <c r="M7" s="34"/>
       <c r="N7" s="33"/>
       <c r="O7" s="34"/>
@@ -14119,11 +10877,19 @@
       <c r="G8" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
+      <c r="H8" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>34</v>
+      </c>
       <c r="K8" s="34"/>
-      <c r="L8" s="33"/>
+      <c r="L8" s="34" t="s">
+        <v>34</v>
+      </c>
       <c r="M8" s="34"/>
       <c r="N8" s="34"/>
       <c r="O8" s="34"/>
@@ -14155,11 +10921,19 @@
       <c r="G9" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
+      <c r="H9" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34" t="s">
+        <v>34</v>
+      </c>
       <c r="M9" s="33"/>
       <c r="N9" s="33"/>
       <c r="O9" s="33"/>
@@ -14191,9 +10965,15 @@
       <c r="G10" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="33"/>
+      <c r="H10" s="33">
+        <v>11</v>
+      </c>
+      <c r="I10" s="34">
+        <v>4580</v>
+      </c>
+      <c r="J10" s="34">
+        <v>2506.64</v>
+      </c>
       <c r="K10" s="33"/>
       <c r="L10" s="33"/>
       <c r="M10" s="33"/>
@@ -14227,9 +11007,15 @@
       <c r="G11" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
+      <c r="H11" s="34">
+        <v>12</v>
+      </c>
+      <c r="I11" s="34">
+        <v>4535</v>
+      </c>
+      <c r="J11" s="34">
+        <v>2561.44</v>
+      </c>
       <c r="K11" s="34"/>
       <c r="L11" s="33"/>
       <c r="M11" s="34"/>
@@ -14263,9 +11049,15 @@
       <c r="G12" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
+      <c r="H12" s="34">
+        <v>12</v>
+      </c>
+      <c r="I12" s="34">
+        <v>4432</v>
+      </c>
+      <c r="J12" s="34">
+        <v>2456.67</v>
+      </c>
       <c r="K12" s="34"/>
       <c r="L12" s="33"/>
       <c r="M12" s="34"/>
@@ -14299,9 +11091,15 @@
       <c r="G13" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
+      <c r="H13" s="34">
+        <v>13</v>
+      </c>
+      <c r="I13" s="34">
+        <v>4629</v>
+      </c>
+      <c r="J13" s="34">
+        <v>2601.96</v>
+      </c>
       <c r="K13" s="33"/>
       <c r="L13" s="33"/>
       <c r="M13" s="33"/>
@@ -14335,11 +11133,19 @@
       <c r="G14" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="H14" s="33"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
+      <c r="H14" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34" t="s">
+        <v>34</v>
+      </c>
       <c r="M14" s="33"/>
       <c r="N14" s="34"/>
       <c r="O14" s="33"/>
@@ -14371,9 +11177,15 @@
       <c r="G15" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
+      <c r="H15" s="34">
+        <v>9</v>
+      </c>
+      <c r="I15" s="34">
+        <v>3952</v>
+      </c>
+      <c r="J15" s="34">
+        <v>2105.7199999999998</v>
+      </c>
       <c r="K15" s="34"/>
       <c r="L15" s="33"/>
       <c r="M15" s="34"/>
@@ -14407,9 +11219,15 @@
       <c r="G16" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
+      <c r="H16" s="34">
+        <v>10</v>
+      </c>
+      <c r="I16" s="34">
+        <v>4320</v>
+      </c>
+      <c r="J16" s="34">
+        <v>2317.77</v>
+      </c>
       <c r="K16" s="34"/>
       <c r="L16" s="33"/>
       <c r="M16" s="34"/>
@@ -14443,9 +11261,15 @@
       <c r="G17" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
+      <c r="H17" s="34">
+        <v>10</v>
+      </c>
+      <c r="I17" s="34">
+        <v>4183</v>
+      </c>
+      <c r="J17" s="34">
+        <v>2247.3200000000002</v>
+      </c>
       <c r="K17" s="33"/>
       <c r="L17" s="33"/>
       <c r="M17" s="33"/>
@@ -14479,9 +11303,15 @@
       <c r="G18" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
+      <c r="H18" s="34">
+        <v>9</v>
+      </c>
+      <c r="I18" s="34">
+        <v>4102</v>
+      </c>
+      <c r="J18" s="34">
+        <v>2177.8000000000002</v>
+      </c>
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
       <c r="M18" s="34"/>
@@ -14515,9 +11345,15 @@
       <c r="G19" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
+      <c r="H19" s="34">
+        <v>10</v>
+      </c>
+      <c r="I19" s="34">
+        <v>4117</v>
+      </c>
+      <c r="J19" s="34">
+        <v>2203.42</v>
+      </c>
       <c r="K19" s="34"/>
       <c r="L19" s="34"/>
       <c r="M19" s="34"/>
@@ -14551,9 +11387,15 @@
       <c r="G20" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
+      <c r="H20" s="34">
+        <v>11</v>
+      </c>
+      <c r="I20" s="34">
+        <v>4146</v>
+      </c>
+      <c r="J20" s="34">
+        <v>2197.42</v>
+      </c>
       <c r="K20" s="34"/>
       <c r="L20" s="34"/>
       <c r="M20" s="34"/>
@@ -14587,9 +11429,15 @@
       <c r="G21" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
+      <c r="H21" s="34">
+        <v>11</v>
+      </c>
+      <c r="I21" s="34">
+        <v>4345</v>
+      </c>
+      <c r="J21" s="34">
+        <v>2378.52</v>
+      </c>
       <c r="K21" s="34"/>
       <c r="L21" s="34"/>
       <c r="M21" s="34"/>
@@ -14623,11 +11471,19 @@
       <c r="G22" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
+      <c r="H22" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" s="34" t="s">
+        <v>34</v>
+      </c>
       <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
+      <c r="L22" s="34" t="s">
+        <v>34</v>
+      </c>
       <c r="M22" s="34"/>
       <c r="N22" s="34"/>
       <c r="O22" s="34"/>
@@ -14659,9 +11515,15 @@
       <c r="G23" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
+      <c r="H23" s="34">
+        <v>7</v>
+      </c>
+      <c r="I23" s="34">
+        <v>3546</v>
+      </c>
+      <c r="J23" s="34">
+        <v>1767.57</v>
+      </c>
       <c r="K23" s="34"/>
       <c r="L23" s="34"/>
       <c r="M23" s="34"/>
@@ -14695,9 +11557,15 @@
       <c r="G24" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
+      <c r="H24" s="34">
+        <v>7</v>
+      </c>
+      <c r="I24" s="34">
+        <v>3699</v>
+      </c>
+      <c r="J24" s="34">
+        <v>1832.26</v>
+      </c>
       <c r="K24" s="34"/>
       <c r="L24" s="34"/>
       <c r="M24" s="34"/>
@@ -14731,9 +11599,15 @@
       <c r="G25" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
+      <c r="H25" s="34">
+        <v>8</v>
+      </c>
+      <c r="I25" s="34">
+        <v>3945</v>
+      </c>
+      <c r="J25" s="34">
+        <v>2058.4299999999998</v>
+      </c>
       <c r="K25" s="34"/>
       <c r="L25" s="34"/>
       <c r="M25" s="34"/>
@@ -14767,9 +11641,15 @@
       <c r="G26" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
+      <c r="H26" s="34">
+        <v>9</v>
+      </c>
+      <c r="I26" s="34">
+        <v>4102</v>
+      </c>
+      <c r="J26" s="34">
+        <v>2177.8000000000002</v>
+      </c>
       <c r="K26" s="34"/>
       <c r="L26" s="34"/>
       <c r="M26" s="34"/>
@@ -14803,9 +11683,15 @@
       <c r="G27" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
+      <c r="H27" s="34">
+        <v>10</v>
+      </c>
+      <c r="I27" s="34">
+        <v>4117</v>
+      </c>
+      <c r="J27" s="34">
+        <v>2203.42</v>
+      </c>
       <c r="K27" s="34"/>
       <c r="L27" s="33"/>
       <c r="M27" s="34"/>
@@ -14839,9 +11725,15 @@
       <c r="G28" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
+      <c r="H28" s="34">
+        <v>11</v>
+      </c>
+      <c r="I28" s="34">
+        <v>4177</v>
+      </c>
+      <c r="J28" s="34">
+        <v>2204.84</v>
+      </c>
       <c r="K28" s="34"/>
       <c r="L28" s="33"/>
       <c r="M28" s="34"/>
@@ -14875,9 +11767,15 @@
       <c r="G29" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
+      <c r="H29" s="34">
+        <v>11</v>
+      </c>
+      <c r="I29" s="34">
+        <v>4345</v>
+      </c>
+      <c r="J29" s="34">
+        <v>2378.52</v>
+      </c>
       <c r="K29" s="33"/>
       <c r="L29" s="33"/>
       <c r="M29" s="33"/>
@@ -14911,11 +11809,19 @@
       <c r="G30" s="34" t="s">
         <v>232</v>
       </c>
-      <c r="H30" s="34"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="34"/>
+      <c r="H30" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="I30" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="J30" s="34" t="s">
+        <v>34</v>
+      </c>
       <c r="K30" s="34"/>
-      <c r="L30" s="33"/>
+      <c r="L30" s="34" t="s">
+        <v>34</v>
+      </c>
       <c r="M30" s="34"/>
       <c r="N30" s="34"/>
       <c r="O30" s="34"/>
@@ -14947,9 +11853,15 @@
       <c r="G31" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
+      <c r="H31" s="34">
+        <v>7</v>
+      </c>
+      <c r="I31" s="34">
+        <v>3609</v>
+      </c>
+      <c r="J31" s="34">
+        <v>1813.64</v>
+      </c>
       <c r="K31" s="34"/>
       <c r="L31" s="33"/>
       <c r="M31" s="34"/>
@@ -14983,9 +11895,15 @@
       <c r="G32" s="34" t="s">
         <v>234</v>
       </c>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
+      <c r="H32" s="34">
+        <v>7</v>
+      </c>
+      <c r="I32" s="34">
+        <v>3660</v>
+      </c>
+      <c r="J32" s="34">
+        <v>1832.91</v>
+      </c>
       <c r="K32" s="34"/>
       <c r="L32" s="33"/>
       <c r="M32" s="34"/>
@@ -15017,11 +11935,17 @@
         <v>0</v>
       </c>
       <c r="G33" s="33" t="s">
-        <v>235</v>
-      </c>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
+        <v>678</v>
+      </c>
+      <c r="H33" s="34">
+        <v>8</v>
+      </c>
+      <c r="I33" s="34">
+        <v>3974</v>
+      </c>
+      <c r="J33" s="34">
+        <v>2061.06</v>
+      </c>
       <c r="K33" s="33"/>
       <c r="L33" s="33"/>
       <c r="M33" s="33"/>
@@ -16525,7 +13449,7 @@
         <v>40</v>
       </c>
       <c r="G98" s="32" t="s">
-        <v>267</v>
+        <v>330</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -17261,7 +14185,7 @@
         <v>40</v>
       </c>
       <c r="G130" s="32" t="s">
-        <v>330</v>
+        <v>361</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -17284,7 +14208,7 @@
         <v>40</v>
       </c>
       <c r="G131" s="32" t="s">
-        <v>299</v>
+        <v>362</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -17997,7 +14921,7 @@
         <v>40</v>
       </c>
       <c r="G162" s="32" t="s">
-        <v>361</v>
+        <v>392</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -18020,7 +14944,7 @@
         <v>40</v>
       </c>
       <c r="G163" s="32" t="s">
-        <v>362</v>
+        <v>393</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -18043,7 +14967,7 @@
         <v>40</v>
       </c>
       <c r="G164" s="32" t="s">
-        <v>331</v>
+        <v>394</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -18733,7 +15657,7 @@
         <v>40</v>
       </c>
       <c r="G194" s="32" t="s">
-        <v>392</v>
+        <v>679</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -18756,7 +15680,7 @@
         <v>40</v>
       </c>
       <c r="G195" s="32" t="s">
-        <v>393</v>
+        <v>680</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -18779,7 +15703,7 @@
         <v>40</v>
       </c>
       <c r="G196" s="32" t="s">
-        <v>394</v>
+        <v>681</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -18802,7 +15726,7 @@
         <v>40</v>
       </c>
       <c r="G197" s="32" t="s">
-        <v>363</v>
+        <v>682</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -20941,7 +17865,7 @@
         <v>40</v>
       </c>
       <c r="G290" s="32" t="s">
-        <v>455</v>
+        <v>518</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
@@ -21677,7 +18601,7 @@
         <v>40</v>
       </c>
       <c r="G322" s="32" t="s">
-        <v>518</v>
+        <v>549</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
@@ -21700,7 +18624,7 @@
         <v>40</v>
       </c>
       <c r="G323" s="32" t="s">
-        <v>487</v>
+        <v>550</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
@@ -22413,7 +19337,7 @@
         <v>40</v>
       </c>
       <c r="G354" s="32" t="s">
-        <v>549</v>
+        <v>580</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
@@ -22436,7 +19360,7 @@
         <v>40</v>
       </c>
       <c r="G355" s="32" t="s">
-        <v>550</v>
+        <v>581</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
@@ -22459,7 +19383,7 @@
         <v>40</v>
       </c>
       <c r="G356" s="32" t="s">
-        <v>519</v>
+        <v>582</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
@@ -23149,7 +20073,7 @@
         <v>40</v>
       </c>
       <c r="G386" s="32" t="s">
-        <v>580</v>
+        <v>611</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
@@ -23172,7 +20096,7 @@
         <v>40</v>
       </c>
       <c r="G387" s="32" t="s">
-        <v>581</v>
+        <v>612</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
@@ -23195,7 +20119,7 @@
         <v>40</v>
       </c>
       <c r="G388" s="32" t="s">
-        <v>582</v>
+        <v>613</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
@@ -23218,7 +20142,7 @@
         <v>40</v>
       </c>
       <c r="G389" s="32" t="s">
-        <v>551</v>
+        <v>614</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
@@ -23885,7 +20809,7 @@
         <v>40</v>
       </c>
       <c r="G418" s="32" t="s">
-        <v>611</v>
+        <v>642</v>
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
@@ -23908,7 +20832,7 @@
         <v>40</v>
       </c>
       <c r="G419" s="32" t="s">
-        <v>612</v>
+        <v>643</v>
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
@@ -23931,7 +20855,7 @@
         <v>40</v>
       </c>
       <c r="G420" s="32" t="s">
-        <v>613</v>
+        <v>644</v>
       </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
@@ -23954,7 +20878,7 @@
         <v>40</v>
       </c>
       <c r="G421" s="32" t="s">
-        <v>614</v>
+        <v>645</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
@@ -23977,7 +20901,7 @@
         <v>40</v>
       </c>
       <c r="G422" s="32" t="s">
-        <v>583</v>
+        <v>646</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
@@ -24621,7 +21545,7 @@
         <v>40</v>
       </c>
       <c r="G450" s="32" t="s">
-        <v>642</v>
+        <v>683</v>
       </c>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.25">
@@ -24644,7 +21568,7 @@
         <v>40</v>
       </c>
       <c r="G451" s="32" t="s">
-        <v>643</v>
+        <v>684</v>
       </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
@@ -24667,7 +21591,7 @@
         <v>40</v>
       </c>
       <c r="G452" s="32" t="s">
-        <v>644</v>
+        <v>685</v>
       </c>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.25">
@@ -24690,7 +21614,7 @@
         <v>40</v>
       </c>
       <c r="G453" s="32" t="s">
-        <v>645</v>
+        <v>686</v>
       </c>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
@@ -24713,7 +21637,7 @@
         <v>40</v>
       </c>
       <c r="G454" s="32" t="s">
-        <v>646</v>
+        <v>687</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
@@ -24736,7 +21660,7 @@
         <v>40</v>
       </c>
       <c r="G455" s="32" t="s">
-        <v>615</v>
+        <v>688</v>
       </c>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
@@ -25386,4 +22310,3327 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="12">
+        <v>40</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="12"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="12">
+        <v>40</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="12"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="12">
+        <v>40</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="12"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="16">
+        <v>40</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="16"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="12">
+        <v>40</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="12"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="12">
+        <v>40</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="12"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="12">
+        <v>40</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="12"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="16">
+        <v>40</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="16"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="12">
+        <v>60</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="12"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="12">
+        <v>60</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="12"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="12">
+        <v>60</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="12"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="16">
+        <v>60</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="16"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="12">
+        <v>60</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="12"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="12">
+        <v>60</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="12"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="12">
+        <v>60</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="12"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="16">
+        <v>60</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="16"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="12">
+        <v>200</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="15"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="12">
+        <v>200</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="15"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="12">
+        <v>200</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="15"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="12">
+        <v>200</v>
+      </c>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="21"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="22">
+        <v>200</v>
+      </c>
+      <c r="F22" s="18"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="15"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="12">
+        <v>200</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="15"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="12">
+        <v>200</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="15"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="16">
+        <v>200</v>
+      </c>
+      <c r="F25" s="19"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="21"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="23">
+        <v>0</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="12"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="15">
+        <v>0</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="12"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="15">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="12"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="21">
+        <v>0</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="16"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="23">
+        <v>0</v>
+      </c>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="12"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="15">
+        <v>0</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="12"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="15">
+        <v>0</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="12"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="21">
+        <v>0</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="16"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:A33">
+    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="12">
+        <v>40</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="12"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="12">
+        <v>40</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="12"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="12">
+        <v>40</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="12"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="16">
+        <v>40</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="16"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="12">
+        <v>40</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="12"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="12">
+        <v>40</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="12"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="12">
+        <v>40</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="12"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="16">
+        <v>40</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="16"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="12">
+        <v>60</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="12"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="12">
+        <v>60</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="12"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="12">
+        <v>60</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="12"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="16">
+        <v>60</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="16"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="12">
+        <v>60</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="12"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="12">
+        <v>60</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="12"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="12">
+        <v>60</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="12"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="16">
+        <v>60</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="16"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="12">
+        <v>200</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="15"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="12">
+        <v>200</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="15"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="12">
+        <v>200</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="15"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="12">
+        <v>200</v>
+      </c>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="21"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="22">
+        <v>200</v>
+      </c>
+      <c r="F22" s="18"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="15"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="12">
+        <v>200</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="15"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="12">
+        <v>200</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="15"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="16">
+        <v>200</v>
+      </c>
+      <c r="F25" s="19"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="21"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="23">
+        <v>0</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="12"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="15">
+        <v>0</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="12"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="15">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="12"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="21">
+        <v>0</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="16"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="23">
+        <v>0</v>
+      </c>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="12"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="15">
+        <v>0</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="12"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="15">
+        <v>0</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="12"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="21">
+        <v>0</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="16"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:A33">
+    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="12">
+        <v>40</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="12"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="12">
+        <v>40</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="12"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="12">
+        <v>40</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="12"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="16">
+        <v>40</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="16"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="12">
+        <v>40</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="12"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="12">
+        <v>40</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="12"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="12">
+        <v>40</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="12"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="16">
+        <v>40</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="16"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="12">
+        <v>60</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="12"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="12">
+        <v>60</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="12"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="12">
+        <v>60</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="12"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="16">
+        <v>60</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="16"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="12">
+        <v>60</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="12"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="12">
+        <v>60</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="12"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="12">
+        <v>60</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="12"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="16">
+        <v>60</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="16"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="12">
+        <v>200</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="15"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="12">
+        <v>200</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="15"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="12">
+        <v>200</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="15"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="12">
+        <v>200</v>
+      </c>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="21"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="22">
+        <v>200</v>
+      </c>
+      <c r="F22" s="18"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="15"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="12">
+        <v>200</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="15"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="12">
+        <v>200</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="15"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="16">
+        <v>200</v>
+      </c>
+      <c r="F25" s="19"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="21"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="23">
+        <v>0</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="12"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="15">
+        <v>0</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="12"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="15">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="12"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="21">
+        <v>0</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="16"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="23">
+        <v>0</v>
+      </c>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="12"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="15">
+        <v>0</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="12"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="15">
+        <v>0</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="12"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="21">
+        <v>0</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="16"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:A33">
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/vrp_results_tracker.xlsx
+++ b/vrp_results_tracker.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4441" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4473" uniqueCount="690">
   <si>
     <t>shift</t>
   </si>
@@ -2108,6 +2108,9 @@
   </si>
   <si>
     <t>str8_10_04_05_040</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
 </sst>
 </file>
@@ -2279,18 +2282,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6915,50 +6918,50 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="I1" s="29" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="J2" s="29" t="s">
+      <c r="G2" s="36"/>
+      <c r="J2" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29" t="s">
+      <c r="K2" s="36"/>
+      <c r="L2" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29" t="s">
+      <c r="M2" s="36"/>
+      <c r="N2" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="O2" s="29"/>
+      <c r="O2" s="36"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -7190,50 +7193,50 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="I8" s="29" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="I8" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29" t="s">
+      <c r="C9" s="36"/>
+      <c r="D9" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29" t="s">
+      <c r="E9" s="36"/>
+      <c r="F9" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="29"/>
-      <c r="J9" s="29" t="s">
+      <c r="G9" s="36"/>
+      <c r="J9" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29" t="s">
+      <c r="K9" s="36"/>
+      <c r="L9" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29" t="s">
+      <c r="M9" s="36"/>
+      <c r="N9" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="O9" s="29"/>
+      <c r="O9" s="36"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -7465,50 +7468,50 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="I15" s="29" t="s">
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="I15" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29" t="s">
+      <c r="C16" s="36"/>
+      <c r="D16" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29" t="s">
+      <c r="E16" s="36"/>
+      <c r="F16" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="G16" s="29"/>
-      <c r="J16" s="29" t="s">
+      <c r="G16" s="36"/>
+      <c r="J16" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29" t="s">
+      <c r="K16" s="36"/>
+      <c r="L16" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29" t="s">
+      <c r="M16" s="36"/>
+      <c r="N16" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="O16" s="29"/>
+      <c r="O16" s="36"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
@@ -7740,50 +7743,50 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="I22" s="29" t="s">
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="I22" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29" t="s">
+      <c r="C23" s="36"/>
+      <c r="D23" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29" t="s">
+      <c r="E23" s="36"/>
+      <c r="F23" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="G23" s="29"/>
-      <c r="J23" s="29" t="s">
+      <c r="G23" s="36"/>
+      <c r="J23" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29" t="s">
+      <c r="K23" s="36"/>
+      <c r="L23" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29" t="s">
+      <c r="M23" s="36"/>
+      <c r="N23" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="O23" s="29"/>
+      <c r="O23" s="36"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
@@ -8016,50 +8019,50 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="I29" s="29" t="s">
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="I29" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29" t="s">
+      <c r="C30" s="36"/>
+      <c r="D30" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29" t="s">
+      <c r="E30" s="36"/>
+      <c r="F30" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="G30" s="29"/>
-      <c r="J30" s="29" t="s">
+      <c r="G30" s="36"/>
+      <c r="J30" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29" t="s">
+      <c r="K30" s="36"/>
+      <c r="L30" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29" t="s">
+      <c r="M30" s="36"/>
+      <c r="N30" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="O30" s="29"/>
+      <c r="O30" s="36"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
@@ -8292,50 +8295,50 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="I36" s="29" t="s">
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="I36" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29" t="s">
+      <c r="C37" s="36"/>
+      <c r="D37" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29" t="s">
+      <c r="E37" s="36"/>
+      <c r="F37" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="G37" s="29"/>
-      <c r="J37" s="29" t="s">
+      <c r="G37" s="36"/>
+      <c r="J37" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29" t="s">
+      <c r="K37" s="36"/>
+      <c r="L37" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29" t="s">
+      <c r="M37" s="36"/>
+      <c r="N37" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="O37" s="29"/>
+      <c r="O37" s="36"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
@@ -8568,50 +8571,50 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="I43" s="29" t="s">
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="I43" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="29"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29" t="s">
+      <c r="C44" s="36"/>
+      <c r="D44" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29" t="s">
+      <c r="E44" s="36"/>
+      <c r="F44" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="G44" s="29"/>
-      <c r="J44" s="29" t="s">
+      <c r="G44" s="36"/>
+      <c r="J44" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29" t="s">
+      <c r="K44" s="36"/>
+      <c r="L44" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="M44" s="29"/>
-      <c r="N44" s="29" t="s">
+      <c r="M44" s="36"/>
+      <c r="N44" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="O44" s="29"/>
+      <c r="O44" s="36"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
@@ -8845,41 +8848,41 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="30"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="I50" s="29" t="s">
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="I50" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="J50" s="29"/>
-      <c r="K50" s="29"/>
-      <c r="L50" s="29"/>
-      <c r="M50" s="29"/>
-      <c r="N50" s="29"/>
-      <c r="O50" s="29"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="36"/>
+      <c r="N50" s="36"/>
+      <c r="O50" s="36"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="J51" s="29" t="s">
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="J51" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="K51" s="29"/>
-      <c r="L51" s="29" t="s">
+      <c r="K51" s="36"/>
+      <c r="L51" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="M51" s="29"/>
-      <c r="N51" s="29" t="s">
+      <c r="M51" s="36"/>
+      <c r="N51" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="O51" s="29"/>
+      <c r="O51" s="36"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J52" t="s">
@@ -9010,6 +9013,62 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="I8:O8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="I15:O15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="I22:O22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="I29:O29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="I36:O36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="I43:O43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
     <mergeCell ref="A50:F50"/>
     <mergeCell ref="I50:O50"/>
     <mergeCell ref="B51:C51"/>
@@ -9018,62 +9077,6 @@
     <mergeCell ref="J51:K51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="I43:O43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="I36:O36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="I29:O29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="I22:O22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="I15:O15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="I8:O8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="L32:L35">
     <cfRule type="colorScale" priority="60">
@@ -10525,7 +10528,7 @@
   <dimension ref="A1:T481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10536,60 +10539,60 @@
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" style="32" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="32" customWidth="1"/>
-    <col min="9" max="9" width="11" style="32" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="32" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" style="32" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" style="32" customWidth="1"/>
-    <col min="13" max="20" width="9.140625" style="32"/>
+    <col min="7" max="7" width="17.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="30" customWidth="1"/>
+    <col min="9" max="9" width="11" style="30" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="30" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" style="30" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" style="30" customWidth="1"/>
+    <col min="13" max="20" width="9.140625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:20" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="33" t="s">
         <v>673</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="34" t="s">
         <v>674</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="34" t="s">
         <v>675</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="34" t="s">
         <v>676</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="34" t="s">
         <v>677</v>
       </c>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -10610,30 +10613,32 @@
       <c r="F2" s="13">
         <v>40</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34" t="s">
+      <c r="K2" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L2" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="33"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="33"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="31"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -10654,30 +10659,32 @@
       <c r="F3" s="13">
         <v>40</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34" t="s">
+      <c r="K3" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L3" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -10698,30 +10705,32 @@
       <c r="F4" s="13">
         <v>40</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34" t="s">
+      <c r="K4" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L4" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="33"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="31"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -10742,30 +10751,32 @@
       <c r="F5" s="13">
         <v>40</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="34" t="s">
+      <c r="J5" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34" t="s">
+      <c r="K5" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L5" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -10786,30 +10797,32 @@
       <c r="F6" s="13">
         <v>40</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="H6" s="34" t="s">
+      <c r="H6" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="34" t="s">
+      <c r="J6" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34" t="s">
+      <c r="K6" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L6" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="33"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="33"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="31"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -10830,30 +10843,32 @@
       <c r="F7" s="13">
         <v>40</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="H7" s="34" t="s">
+      <c r="H7" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="34" t="s">
+      <c r="J7" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34" t="s">
+      <c r="K7" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L7" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="M7" s="34"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="33"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="31"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -10874,30 +10889,32 @@
       <c r="F8" s="13">
         <v>40</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="34" t="s">
+      <c r="J8" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34" t="s">
+      <c r="K8" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L8" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="33"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="31"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -10918,30 +10935,32 @@
       <c r="F9" s="13">
         <v>40</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="H9" s="34" t="s">
+      <c r="H9" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="I9" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="34" t="s">
+      <c r="J9" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34" t="s">
+      <c r="K9" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L9" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -10962,28 +10981,30 @@
       <c r="F10" s="13">
         <v>60</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="31">
         <v>11</v>
       </c>
-      <c r="I10" s="34">
+      <c r="I10" s="32">
         <v>4580</v>
       </c>
-      <c r="J10" s="34">
+      <c r="J10" s="32">
         <v>2506.64</v>
       </c>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
+      <c r="K10" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
@@ -11004,28 +11025,30 @@
       <c r="F11" s="13">
         <v>60</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="H11" s="34">
+      <c r="H11" s="32">
         <v>12</v>
       </c>
-      <c r="I11" s="34">
+      <c r="I11" s="32">
         <v>4535</v>
       </c>
-      <c r="J11" s="34">
+      <c r="J11" s="32">
         <v>2561.44</v>
       </c>
-      <c r="K11" s="34"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="33"/>
+      <c r="K11" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L11" s="31"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="31"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
@@ -11046,28 +11069,30 @@
       <c r="F12" s="13">
         <v>60</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="32">
         <v>12</v>
       </c>
-      <c r="I12" s="34">
+      <c r="I12" s="32">
         <v>4432</v>
       </c>
-      <c r="J12" s="34">
+      <c r="J12" s="32">
         <v>2456.67</v>
       </c>
-      <c r="K12" s="34"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="33"/>
+      <c r="K12" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L12" s="31"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="31"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
@@ -11088,28 +11113,30 @@
       <c r="F13" s="13">
         <v>60</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="H13" s="34">
+      <c r="H13" s="32">
         <v>13</v>
       </c>
-      <c r="I13" s="34">
+      <c r="I13" s="32">
         <v>4629</v>
       </c>
-      <c r="J13" s="34">
+      <c r="J13" s="32">
         <v>2601.96</v>
       </c>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
+      <c r="K13" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
@@ -11130,30 +11157,32 @@
       <c r="F14" s="13">
         <v>60</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="G14" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="H14" s="34" t="s">
+      <c r="H14" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="34" t="s">
+      <c r="J14" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34" t="s">
+      <c r="K14" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L14" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="M14" s="33"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
@@ -11174,28 +11203,30 @@
       <c r="F15" s="13">
         <v>60</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="31" t="s">
         <v>217</v>
       </c>
-      <c r="H15" s="34">
+      <c r="H15" s="32">
         <v>9</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15" s="32">
         <v>3952</v>
       </c>
-      <c r="J15" s="34">
+      <c r="J15" s="32">
         <v>2105.7199999999998</v>
       </c>
-      <c r="K15" s="34"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="33"/>
+      <c r="K15" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L15" s="31"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="31"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
@@ -11216,28 +11247,30 @@
       <c r="F16" s="13">
         <v>60</v>
       </c>
-      <c r="G16" s="34" t="s">
+      <c r="G16" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="H16" s="34">
+      <c r="H16" s="32">
         <v>10</v>
       </c>
-      <c r="I16" s="34">
+      <c r="I16" s="32">
         <v>4320</v>
       </c>
-      <c r="J16" s="34">
+      <c r="J16" s="32">
         <v>2317.77</v>
       </c>
-      <c r="K16" s="34"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="33"/>
+      <c r="K16" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L16" s="31"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="31"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
@@ -11258,28 +11291,30 @@
       <c r="F17" s="13">
         <v>60</v>
       </c>
-      <c r="G17" s="33" t="s">
+      <c r="G17" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="H17" s="34">
+      <c r="H17" s="32">
         <v>10</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I17" s="32">
         <v>4183</v>
       </c>
-      <c r="J17" s="34">
+      <c r="J17" s="32">
         <v>2247.3200000000002</v>
       </c>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="33"/>
+      <c r="K17" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
@@ -11300,28 +11335,30 @@
       <c r="F18" s="13">
         <v>200</v>
       </c>
-      <c r="G18" s="34" t="s">
+      <c r="G18" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="H18" s="34">
+      <c r="H18" s="32">
         <v>9</v>
       </c>
-      <c r="I18" s="34">
+      <c r="I18" s="32">
         <v>4102</v>
       </c>
-      <c r="J18" s="34">
+      <c r="J18" s="32">
         <v>2177.8000000000002</v>
       </c>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
+      <c r="K18" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
@@ -11342,28 +11379,30 @@
       <c r="F19" s="13">
         <v>200</v>
       </c>
-      <c r="G19" s="34" t="s">
+      <c r="G19" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="H19" s="34">
+      <c r="H19" s="32">
         <v>10</v>
       </c>
-      <c r="I19" s="34">
+      <c r="I19" s="32">
         <v>4117</v>
       </c>
-      <c r="J19" s="34">
+      <c r="J19" s="32">
         <v>2203.42</v>
       </c>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
+      <c r="K19" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
@@ -11384,28 +11423,30 @@
       <c r="F20" s="13">
         <v>200</v>
       </c>
-      <c r="G20" s="34" t="s">
+      <c r="G20" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="H20" s="34">
+      <c r="H20" s="32">
         <v>11</v>
       </c>
-      <c r="I20" s="34">
+      <c r="I20" s="32">
         <v>4146</v>
       </c>
-      <c r="J20" s="34">
+      <c r="J20" s="32">
         <v>2197.42</v>
       </c>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
+      <c r="K20" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
@@ -11426,28 +11467,30 @@
       <c r="F21" s="13">
         <v>200</v>
       </c>
-      <c r="G21" s="34" t="s">
+      <c r="G21" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="H21" s="34">
+      <c r="H21" s="32">
         <v>11</v>
       </c>
-      <c r="I21" s="34">
+      <c r="I21" s="32">
         <v>4345</v>
       </c>
-      <c r="J21" s="34">
+      <c r="J21" s="32">
         <v>2378.52</v>
       </c>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="34"/>
+      <c r="K21" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
@@ -11468,30 +11511,32 @@
       <c r="F22" s="13">
         <v>200</v>
       </c>
-      <c r="G22" s="34" t="s">
+      <c r="G22" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="H22" s="34" t="s">
+      <c r="H22" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="I22" s="34" t="s">
+      <c r="I22" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="J22" s="34" t="s">
+      <c r="J22" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34" t="s">
+      <c r="K22" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L22" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="34"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
@@ -11512,28 +11557,30 @@
       <c r="F23" s="13">
         <v>200</v>
       </c>
-      <c r="G23" s="34" t="s">
+      <c r="G23" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="H23" s="34">
+      <c r="H23" s="32">
         <v>7</v>
       </c>
-      <c r="I23" s="34">
+      <c r="I23" s="32">
         <v>3546</v>
       </c>
-      <c r="J23" s="34">
+      <c r="J23" s="32">
         <v>1767.57</v>
       </c>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="34"/>
+      <c r="K23" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
@@ -11554,28 +11601,30 @@
       <c r="F24" s="13">
         <v>200</v>
       </c>
-      <c r="G24" s="34" t="s">
+      <c r="G24" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="H24" s="34">
+      <c r="H24" s="32">
         <v>7</v>
       </c>
-      <c r="I24" s="34">
+      <c r="I24" s="32">
         <v>3699</v>
       </c>
-      <c r="J24" s="34">
+      <c r="J24" s="32">
         <v>1832.26</v>
       </c>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="34"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="34"/>
+      <c r="K24" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -11596,28 +11645,30 @@
       <c r="F25" s="13">
         <v>200</v>
       </c>
-      <c r="G25" s="34" t="s">
+      <c r="G25" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="H25" s="34">
+      <c r="H25" s="32">
         <v>8</v>
       </c>
-      <c r="I25" s="34">
+      <c r="I25" s="32">
         <v>3945</v>
       </c>
-      <c r="J25" s="34">
+      <c r="J25" s="32">
         <v>2058.4299999999998</v>
       </c>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="34"/>
-      <c r="T25" s="34"/>
+      <c r="K25" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
@@ -11638,28 +11689,30 @@
       <c r="F26" s="14">
         <v>0</v>
       </c>
-      <c r="G26" s="34" t="s">
+      <c r="G26" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="H26" s="34">
+      <c r="H26" s="32">
         <v>9</v>
       </c>
-      <c r="I26" s="34">
+      <c r="I26" s="32">
         <v>4102</v>
       </c>
-      <c r="J26" s="34">
+      <c r="J26" s="32">
         <v>2177.8000000000002</v>
       </c>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="34"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="33"/>
+      <c r="K26" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="31"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
@@ -11680,28 +11733,30 @@
       <c r="F27" s="14">
         <v>0</v>
       </c>
-      <c r="G27" s="33" t="s">
+      <c r="G27" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="H27" s="34">
+      <c r="H27" s="32">
         <v>10</v>
       </c>
-      <c r="I27" s="34">
+      <c r="I27" s="32">
         <v>4117</v>
       </c>
-      <c r="J27" s="34">
+      <c r="J27" s="32">
         <v>2203.42</v>
       </c>
-      <c r="K27" s="34"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="34"/>
-      <c r="S27" s="34"/>
-      <c r="T27" s="33"/>
+      <c r="K27" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L27" s="31"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="31"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
@@ -11722,28 +11777,30 @@
       <c r="F28" s="14">
         <v>0</v>
       </c>
-      <c r="G28" s="33" t="s">
+      <c r="G28" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="H28" s="34">
+      <c r="H28" s="32">
         <v>11</v>
       </c>
-      <c r="I28" s="34">
+      <c r="I28" s="32">
         <v>4177</v>
       </c>
-      <c r="J28" s="34">
+      <c r="J28" s="32">
         <v>2204.84</v>
       </c>
-      <c r="K28" s="34"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="34"/>
-      <c r="S28" s="34"/>
-      <c r="T28" s="33"/>
+      <c r="K28" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L28" s="31"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="31"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
@@ -11764,28 +11821,30 @@
       <c r="F29" s="14">
         <v>0</v>
       </c>
-      <c r="G29" s="33" t="s">
+      <c r="G29" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="H29" s="34">
+      <c r="H29" s="32">
         <v>11</v>
       </c>
-      <c r="I29" s="34">
+      <c r="I29" s="32">
         <v>4345</v>
       </c>
-      <c r="J29" s="34">
+      <c r="J29" s="32">
         <v>2378.52</v>
       </c>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
+      <c r="K29" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
@@ -11806,30 +11865,32 @@
       <c r="F30" s="14">
         <v>0</v>
       </c>
-      <c r="G30" s="34" t="s">
+      <c r="G30" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="H30" s="34" t="s">
+      <c r="H30" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="I30" s="34" t="s">
+      <c r="I30" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="J30" s="34" t="s">
+      <c r="J30" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34" t="s">
+      <c r="K30" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L30" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="34"/>
-      <c r="R30" s="34"/>
-      <c r="S30" s="34"/>
-      <c r="T30" s="33"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="31"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
@@ -11850,28 +11911,30 @@
       <c r="F31" s="14">
         <v>0</v>
       </c>
-      <c r="G31" s="33" t="s">
+      <c r="G31" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="H31" s="34">
+      <c r="H31" s="32">
         <v>7</v>
       </c>
-      <c r="I31" s="34">
+      <c r="I31" s="32">
         <v>3609</v>
       </c>
-      <c r="J31" s="34">
+      <c r="J31" s="32">
         <v>1813.64</v>
       </c>
-      <c r="K31" s="34"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="34"/>
-      <c r="S31" s="34"/>
-      <c r="T31" s="33"/>
+      <c r="K31" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L31" s="31"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="31"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
@@ -11892,28 +11955,30 @@
       <c r="F32" s="14">
         <v>0</v>
       </c>
-      <c r="G32" s="34" t="s">
+      <c r="G32" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="H32" s="34">
+      <c r="H32" s="32">
         <v>7</v>
       </c>
-      <c r="I32" s="34">
+      <c r="I32" s="32">
         <v>3660</v>
       </c>
-      <c r="J32" s="34">
+      <c r="J32" s="32">
         <v>1832.91</v>
       </c>
-      <c r="K32" s="34"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="34"/>
-      <c r="S32" s="34"/>
-      <c r="T32" s="33"/>
+      <c r="K32" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L32" s="31"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="32"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="31"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
@@ -11934,31 +11999,33 @@
       <c r="F33" s="14">
         <v>0</v>
       </c>
-      <c r="G33" s="33" t="s">
+      <c r="G33" s="31" t="s">
         <v>678</v>
       </c>
-      <c r="H33" s="34">
+      <c r="H33" s="32">
         <v>8</v>
       </c>
-      <c r="I33" s="34">
+      <c r="I33" s="32">
         <v>3974</v>
       </c>
-      <c r="J33" s="34">
+      <c r="J33" s="32">
         <v>2061.06</v>
       </c>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="33"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="33"/>
+      <c r="K33" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="31"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B34" s="13" t="s">
@@ -11976,12 +12043,12 @@
       <c r="F34" s="13">
         <v>40</v>
       </c>
-      <c r="G34" s="32" t="s">
+      <c r="G34" s="30" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B35" s="13" t="s">
@@ -11999,12 +12066,12 @@
       <c r="F35" s="13">
         <v>40</v>
       </c>
-      <c r="G35" s="32" t="s">
+      <c r="G35" s="30" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B36" s="13" t="s">
@@ -12022,12 +12089,12 @@
       <c r="F36" s="13">
         <v>40</v>
       </c>
-      <c r="G36" s="32" t="s">
+      <c r="G36" s="30" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B37" s="13" t="s">
@@ -12045,12 +12112,12 @@
       <c r="F37" s="13">
         <v>40</v>
       </c>
-      <c r="G37" s="32" t="s">
+      <c r="G37" s="30" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B38" s="13" t="s">
@@ -12068,12 +12135,12 @@
       <c r="F38" s="13">
         <v>40</v>
       </c>
-      <c r="G38" s="32" t="s">
+      <c r="G38" s="30" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B39" s="13" t="s">
@@ -12091,12 +12158,12 @@
       <c r="F39" s="13">
         <v>40</v>
       </c>
-      <c r="G39" s="32" t="s">
+      <c r="G39" s="30" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B40" s="13" t="s">
@@ -12114,12 +12181,12 @@
       <c r="F40" s="13">
         <v>40</v>
       </c>
-      <c r="G40" s="32" t="s">
+      <c r="G40" s="30" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B41" s="13" t="s">
@@ -12137,12 +12204,12 @@
       <c r="F41" s="13">
         <v>40</v>
       </c>
-      <c r="G41" s="32" t="s">
+      <c r="G41" s="30" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B42" s="13" t="s">
@@ -12160,12 +12227,12 @@
       <c r="F42" s="13">
         <v>60</v>
       </c>
-      <c r="G42" s="32" t="s">
+      <c r="G42" s="30" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B43" s="13" t="s">
@@ -12183,12 +12250,12 @@
       <c r="F43" s="13">
         <v>60</v>
       </c>
-      <c r="G43" s="32" t="s">
+      <c r="G43" s="30" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B44" s="13" t="s">
@@ -12206,12 +12273,12 @@
       <c r="F44" s="13">
         <v>60</v>
       </c>
-      <c r="G44" s="32" t="s">
+      <c r="G44" s="30" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B45" s="13" t="s">
@@ -12229,12 +12296,12 @@
       <c r="F45" s="13">
         <v>60</v>
       </c>
-      <c r="G45" s="32" t="s">
+      <c r="G45" s="30" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B46" s="13" t="s">
@@ -12252,12 +12319,12 @@
       <c r="F46" s="13">
         <v>60</v>
       </c>
-      <c r="G46" s="32" t="s">
+      <c r="G46" s="30" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="31" t="s">
+      <c r="A47" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B47" s="13" t="s">
@@ -12275,12 +12342,12 @@
       <c r="F47" s="13">
         <v>60</v>
       </c>
-      <c r="G47" s="32" t="s">
+      <c r="G47" s="30" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="31" t="s">
+      <c r="A48" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B48" s="13" t="s">
@@ -12298,12 +12365,12 @@
       <c r="F48" s="13">
         <v>60</v>
       </c>
-      <c r="G48" s="32" t="s">
+      <c r="G48" s="30" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="31" t="s">
+      <c r="A49" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B49" s="13" t="s">
@@ -12321,12 +12388,12 @@
       <c r="F49" s="13">
         <v>60</v>
       </c>
-      <c r="G49" s="32" t="s">
+      <c r="G49" s="30" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="31" t="s">
+      <c r="A50" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B50" s="13" t="s">
@@ -12344,12 +12411,12 @@
       <c r="F50" s="13">
         <v>200</v>
       </c>
-      <c r="G50" s="32" t="s">
+      <c r="G50" s="30" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="31" t="s">
+      <c r="A51" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B51" s="13" t="s">
@@ -12367,12 +12434,12 @@
       <c r="F51" s="13">
         <v>200</v>
       </c>
-      <c r="G51" s="32" t="s">
+      <c r="G51" s="30" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="31" t="s">
+      <c r="A52" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B52" s="13" t="s">
@@ -12390,12 +12457,12 @@
       <c r="F52" s="13">
         <v>200</v>
       </c>
-      <c r="G52" s="32" t="s">
+      <c r="G52" s="30" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="31" t="s">
+      <c r="A53" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B53" s="13" t="s">
@@ -12413,12 +12480,12 @@
       <c r="F53" s="13">
         <v>200</v>
       </c>
-      <c r="G53" s="32" t="s">
+      <c r="G53" s="30" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="31" t="s">
+      <c r="A54" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B54" s="13" t="s">
@@ -12436,12 +12503,12 @@
       <c r="F54" s="13">
         <v>200</v>
       </c>
-      <c r="G54" s="32" t="s">
+      <c r="G54" s="30" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="31" t="s">
+      <c r="A55" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B55" s="13" t="s">
@@ -12459,12 +12526,12 @@
       <c r="F55" s="13">
         <v>200</v>
       </c>
-      <c r="G55" s="32" t="s">
+      <c r="G55" s="30" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="31" t="s">
+      <c r="A56" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B56" s="13" t="s">
@@ -12482,12 +12549,12 @@
       <c r="F56" s="13">
         <v>200</v>
       </c>
-      <c r="G56" s="32" t="s">
+      <c r="G56" s="30" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="31" t="s">
+      <c r="A57" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B57" s="13" t="s">
@@ -12505,12 +12572,12 @@
       <c r="F57" s="13">
         <v>200</v>
       </c>
-      <c r="G57" s="32" t="s">
+      <c r="G57" s="30" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="31" t="s">
+      <c r="A58" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B58" s="13" t="s">
@@ -12528,12 +12595,12 @@
       <c r="F58" s="14">
         <v>0</v>
       </c>
-      <c r="G58" s="32" t="s">
+      <c r="G58" s="30" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="31" t="s">
+      <c r="A59" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B59" s="13" t="s">
@@ -12551,12 +12618,12 @@
       <c r="F59" s="14">
         <v>0</v>
       </c>
-      <c r="G59" s="32" t="s">
+      <c r="G59" s="30" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="31" t="s">
+      <c r="A60" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B60" s="13" t="s">
@@ -12574,12 +12641,12 @@
       <c r="F60" s="14">
         <v>0</v>
       </c>
-      <c r="G60" s="32" t="s">
+      <c r="G60" s="30" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="31" t="s">
+      <c r="A61" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B61" s="13" t="s">
@@ -12597,12 +12664,12 @@
       <c r="F61" s="14">
         <v>0</v>
       </c>
-      <c r="G61" s="32" t="s">
+      <c r="G61" s="30" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="31" t="s">
+      <c r="A62" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B62" s="13" t="s">
@@ -12620,12 +12687,12 @@
       <c r="F62" s="14">
         <v>0</v>
       </c>
-      <c r="G62" s="32" t="s">
+      <c r="G62" s="30" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="31" t="s">
+      <c r="A63" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B63" s="13" t="s">
@@ -12643,12 +12710,12 @@
       <c r="F63" s="14">
         <v>0</v>
       </c>
-      <c r="G63" s="32" t="s">
+      <c r="G63" s="30" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="31" t="s">
+      <c r="A64" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B64" s="13" t="s">
@@ -12666,12 +12733,12 @@
       <c r="F64" s="14">
         <v>0</v>
       </c>
-      <c r="G64" s="32" t="s">
+      <c r="G64" s="30" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="31" t="s">
+      <c r="A65" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B65" s="13" t="s">
@@ -12689,12 +12756,12 @@
       <c r="F65" s="14">
         <v>0</v>
       </c>
-      <c r="G65" s="32" t="s">
+      <c r="G65" s="30" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="31" t="s">
+      <c r="A66" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B66" s="13" t="s">
@@ -12712,12 +12779,12 @@
       <c r="F66" s="13">
         <v>40</v>
       </c>
-      <c r="G66" s="32" t="s">
+      <c r="G66" s="30" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="31" t="s">
+      <c r="A67" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B67" s="13" t="s">
@@ -12735,12 +12802,12 @@
       <c r="F67" s="13">
         <v>40</v>
       </c>
-      <c r="G67" s="32" t="s">
+      <c r="G67" s="30" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="31" t="s">
+      <c r="A68" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B68" s="13" t="s">
@@ -12758,12 +12825,12 @@
       <c r="F68" s="13">
         <v>40</v>
       </c>
-      <c r="G68" s="32" t="s">
+      <c r="G68" s="30" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="31" t="s">
+      <c r="A69" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B69" s="13" t="s">
@@ -12781,12 +12848,12 @@
       <c r="F69" s="13">
         <v>40</v>
       </c>
-      <c r="G69" s="32" t="s">
+      <c r="G69" s="30" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="31" t="s">
+      <c r="A70" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B70" s="13" t="s">
@@ -12804,12 +12871,12 @@
       <c r="F70" s="13">
         <v>40</v>
       </c>
-      <c r="G70" s="32" t="s">
+      <c r="G70" s="30" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="31" t="s">
+      <c r="A71" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B71" s="13" t="s">
@@ -12827,12 +12894,12 @@
       <c r="F71" s="13">
         <v>40</v>
       </c>
-      <c r="G71" s="32" t="s">
+      <c r="G71" s="30" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="31" t="s">
+      <c r="A72" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B72" s="13" t="s">
@@ -12850,12 +12917,12 @@
       <c r="F72" s="13">
         <v>40</v>
       </c>
-      <c r="G72" s="32" t="s">
+      <c r="G72" s="30" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="31" t="s">
+      <c r="A73" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B73" s="13" t="s">
@@ -12873,12 +12940,12 @@
       <c r="F73" s="13">
         <v>40</v>
       </c>
-      <c r="G73" s="32" t="s">
+      <c r="G73" s="30" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="31" t="s">
+      <c r="A74" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B74" s="13" t="s">
@@ -12896,12 +12963,12 @@
       <c r="F74" s="13">
         <v>60</v>
       </c>
-      <c r="G74" s="32" t="s">
+      <c r="G74" s="30" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="31" t="s">
+      <c r="A75" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B75" s="13" t="s">
@@ -12919,12 +12986,12 @@
       <c r="F75" s="13">
         <v>60</v>
       </c>
-      <c r="G75" s="32" t="s">
+      <c r="G75" s="30" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="31" t="s">
+      <c r="A76" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B76" s="13" t="s">
@@ -12942,12 +13009,12 @@
       <c r="F76" s="13">
         <v>60</v>
       </c>
-      <c r="G76" s="32" t="s">
+      <c r="G76" s="30" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="31" t="s">
+      <c r="A77" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B77" s="13" t="s">
@@ -12965,12 +13032,12 @@
       <c r="F77" s="13">
         <v>60</v>
       </c>
-      <c r="G77" s="32" t="s">
+      <c r="G77" s="30" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="31" t="s">
+      <c r="A78" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B78" s="13" t="s">
@@ -12988,12 +13055,12 @@
       <c r="F78" s="13">
         <v>60</v>
       </c>
-      <c r="G78" s="32" t="s">
+      <c r="G78" s="30" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="31" t="s">
+      <c r="A79" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B79" s="13" t="s">
@@ -13011,12 +13078,12 @@
       <c r="F79" s="13">
         <v>60</v>
       </c>
-      <c r="G79" s="32" t="s">
+      <c r="G79" s="30" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="31" t="s">
+      <c r="A80" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B80" s="13" t="s">
@@ -13034,12 +13101,12 @@
       <c r="F80" s="13">
         <v>60</v>
       </c>
-      <c r="G80" s="32" t="s">
+      <c r="G80" s="30" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="31" t="s">
+      <c r="A81" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B81" s="13" t="s">
@@ -13057,12 +13124,12 @@
       <c r="F81" s="13">
         <v>60</v>
       </c>
-      <c r="G81" s="32" t="s">
+      <c r="G81" s="30" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="31" t="s">
+      <c r="A82" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B82" s="13" t="s">
@@ -13080,12 +13147,12 @@
       <c r="F82" s="13">
         <v>200</v>
       </c>
-      <c r="G82" s="32" t="s">
+      <c r="G82" s="30" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="31" t="s">
+      <c r="A83" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B83" s="13" t="s">
@@ -13103,12 +13170,12 @@
       <c r="F83" s="13">
         <v>200</v>
       </c>
-      <c r="G83" s="32" t="s">
+      <c r="G83" s="30" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="31" t="s">
+      <c r="A84" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B84" s="13" t="s">
@@ -13126,12 +13193,12 @@
       <c r="F84" s="13">
         <v>200</v>
       </c>
-      <c r="G84" s="32" t="s">
+      <c r="G84" s="30" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="31" t="s">
+      <c r="A85" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B85" s="13" t="s">
@@ -13149,12 +13216,12 @@
       <c r="F85" s="13">
         <v>200</v>
       </c>
-      <c r="G85" s="32" t="s">
+      <c r="G85" s="30" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="31" t="s">
+      <c r="A86" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B86" s="13" t="s">
@@ -13172,12 +13239,12 @@
       <c r="F86" s="13">
         <v>200</v>
       </c>
-      <c r="G86" s="32" t="s">
+      <c r="G86" s="30" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="31" t="s">
+      <c r="A87" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B87" s="13" t="s">
@@ -13195,12 +13262,12 @@
       <c r="F87" s="13">
         <v>200</v>
       </c>
-      <c r="G87" s="32" t="s">
+      <c r="G87" s="30" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="31" t="s">
+      <c r="A88" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B88" s="13" t="s">
@@ -13218,12 +13285,12 @@
       <c r="F88" s="13">
         <v>200</v>
       </c>
-      <c r="G88" s="32" t="s">
+      <c r="G88" s="30" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="31" t="s">
+      <c r="A89" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B89" s="13" t="s">
@@ -13241,12 +13308,12 @@
       <c r="F89" s="13">
         <v>200</v>
       </c>
-      <c r="G89" s="32" t="s">
+      <c r="G89" s="30" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="31" t="s">
+      <c r="A90" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B90" s="13" t="s">
@@ -13264,12 +13331,12 @@
       <c r="F90" s="14">
         <v>0</v>
       </c>
-      <c r="G90" s="32" t="s">
+      <c r="G90" s="30" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="31" t="s">
+      <c r="A91" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B91" s="13" t="s">
@@ -13287,12 +13354,12 @@
       <c r="F91" s="14">
         <v>0</v>
       </c>
-      <c r="G91" s="32" t="s">
+      <c r="G91" s="30" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="31" t="s">
+      <c r="A92" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B92" s="13" t="s">
@@ -13310,12 +13377,12 @@
       <c r="F92" s="14">
         <v>0</v>
       </c>
-      <c r="G92" s="32" t="s">
+      <c r="G92" s="30" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="31" t="s">
+      <c r="A93" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B93" s="13" t="s">
@@ -13333,12 +13400,12 @@
       <c r="F93" s="14">
         <v>0</v>
       </c>
-      <c r="G93" s="32" t="s">
+      <c r="G93" s="30" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="31" t="s">
+      <c r="A94" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B94" s="13" t="s">
@@ -13356,12 +13423,12 @@
       <c r="F94" s="14">
         <v>0</v>
       </c>
-      <c r="G94" s="32" t="s">
+      <c r="G94" s="30" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="31" t="s">
+      <c r="A95" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B95" s="13" t="s">
@@ -13379,12 +13446,12 @@
       <c r="F95" s="14">
         <v>0</v>
       </c>
-      <c r="G95" s="32" t="s">
+      <c r="G95" s="30" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="31" t="s">
+      <c r="A96" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B96" s="13" t="s">
@@ -13402,12 +13469,12 @@
       <c r="F96" s="14">
         <v>0</v>
       </c>
-      <c r="G96" s="32" t="s">
+      <c r="G96" s="30" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="31" t="s">
+      <c r="A97" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B97" s="13" t="s">
@@ -13425,12 +13492,12 @@
       <c r="F97" s="14">
         <v>0</v>
       </c>
-      <c r="G97" s="32" t="s">
+      <c r="G97" s="30" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="31" t="s">
+      <c r="A98" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B98" s="13" t="s">
@@ -13448,12 +13515,12 @@
       <c r="F98" s="13">
         <v>40</v>
       </c>
-      <c r="G98" s="32" t="s">
+      <c r="G98" s="30" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="31" t="s">
+      <c r="A99" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B99" s="13" t="s">
@@ -13471,12 +13538,12 @@
       <c r="F99" s="13">
         <v>40</v>
       </c>
-      <c r="G99" s="32" t="s">
+      <c r="G99" s="30" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="31" t="s">
+      <c r="A100" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B100" s="13" t="s">
@@ -13494,12 +13561,12 @@
       <c r="F100" s="13">
         <v>40</v>
       </c>
-      <c r="G100" s="32" t="s">
+      <c r="G100" s="30" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="31" t="s">
+      <c r="A101" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B101" s="13" t="s">
@@ -13517,12 +13584,12 @@
       <c r="F101" s="13">
         <v>40</v>
       </c>
-      <c r="G101" s="32" t="s">
+      <c r="G101" s="30" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="31" t="s">
+      <c r="A102" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B102" s="13" t="s">
@@ -13540,12 +13607,12 @@
       <c r="F102" s="13">
         <v>40</v>
       </c>
-      <c r="G102" s="32" t="s">
+      <c r="G102" s="30" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="31" t="s">
+      <c r="A103" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B103" s="13" t="s">
@@ -13563,12 +13630,12 @@
       <c r="F103" s="13">
         <v>40</v>
       </c>
-      <c r="G103" s="32" t="s">
+      <c r="G103" s="30" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="31" t="s">
+      <c r="A104" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B104" s="13" t="s">
@@ -13586,12 +13653,12 @@
       <c r="F104" s="13">
         <v>40</v>
       </c>
-      <c r="G104" s="32" t="s">
+      <c r="G104" s="30" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="31" t="s">
+      <c r="A105" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B105" s="13" t="s">
@@ -13609,12 +13676,12 @@
       <c r="F105" s="13">
         <v>40</v>
       </c>
-      <c r="G105" s="32" t="s">
+      <c r="G105" s="30" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="31" t="s">
+      <c r="A106" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B106" s="13" t="s">
@@ -13632,12 +13699,12 @@
       <c r="F106" s="13">
         <v>60</v>
       </c>
-      <c r="G106" s="32" t="s">
+      <c r="G106" s="30" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="31" t="s">
+      <c r="A107" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B107" s="13" t="s">
@@ -13655,12 +13722,12 @@
       <c r="F107" s="13">
         <v>60</v>
       </c>
-      <c r="G107" s="32" t="s">
+      <c r="G107" s="30" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="31" t="s">
+      <c r="A108" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B108" s="13" t="s">
@@ -13678,12 +13745,12 @@
       <c r="F108" s="13">
         <v>60</v>
       </c>
-      <c r="G108" s="32" t="s">
+      <c r="G108" s="30" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="31" t="s">
+      <c r="A109" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B109" s="13" t="s">
@@ -13701,12 +13768,12 @@
       <c r="F109" s="13">
         <v>60</v>
       </c>
-      <c r="G109" s="32" t="s">
+      <c r="G109" s="30" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="31" t="s">
+      <c r="A110" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B110" s="13" t="s">
@@ -13724,12 +13791,12 @@
       <c r="F110" s="13">
         <v>60</v>
       </c>
-      <c r="G110" s="32" t="s">
+      <c r="G110" s="30" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="31" t="s">
+      <c r="A111" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B111" s="13" t="s">
@@ -13747,12 +13814,12 @@
       <c r="F111" s="13">
         <v>60</v>
       </c>
-      <c r="G111" s="32" t="s">
+      <c r="G111" s="30" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="31" t="s">
+      <c r="A112" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B112" s="13" t="s">
@@ -13770,12 +13837,12 @@
       <c r="F112" s="13">
         <v>60</v>
       </c>
-      <c r="G112" s="32" t="s">
+      <c r="G112" s="30" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="31" t="s">
+      <c r="A113" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B113" s="13" t="s">
@@ -13793,12 +13860,12 @@
       <c r="F113" s="13">
         <v>60</v>
       </c>
-      <c r="G113" s="32" t="s">
+      <c r="G113" s="30" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="31" t="s">
+      <c r="A114" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B114" s="13" t="s">
@@ -13816,12 +13883,12 @@
       <c r="F114" s="13">
         <v>200</v>
       </c>
-      <c r="G114" s="32" t="s">
+      <c r="G114" s="30" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="31" t="s">
+      <c r="A115" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B115" s="13" t="s">
@@ -13839,12 +13906,12 @@
       <c r="F115" s="13">
         <v>200</v>
       </c>
-      <c r="G115" s="32" t="s">
+      <c r="G115" s="30" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="31" t="s">
+      <c r="A116" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B116" s="13" t="s">
@@ -13862,12 +13929,12 @@
       <c r="F116" s="13">
         <v>200</v>
       </c>
-      <c r="G116" s="32" t="s">
+      <c r="G116" s="30" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="31" t="s">
+      <c r="A117" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B117" s="13" t="s">
@@ -13885,12 +13952,12 @@
       <c r="F117" s="13">
         <v>200</v>
       </c>
-      <c r="G117" s="32" t="s">
+      <c r="G117" s="30" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="31" t="s">
+      <c r="A118" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B118" s="13" t="s">
@@ -13908,12 +13975,12 @@
       <c r="F118" s="13">
         <v>200</v>
       </c>
-      <c r="G118" s="32" t="s">
+      <c r="G118" s="30" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="31" t="s">
+      <c r="A119" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B119" s="13" t="s">
@@ -13931,12 +13998,12 @@
       <c r="F119" s="13">
         <v>200</v>
       </c>
-      <c r="G119" s="32" t="s">
+      <c r="G119" s="30" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="31" t="s">
+      <c r="A120" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B120" s="13" t="s">
@@ -13954,12 +14021,12 @@
       <c r="F120" s="13">
         <v>200</v>
       </c>
-      <c r="G120" s="32" t="s">
+      <c r="G120" s="30" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="31" t="s">
+      <c r="A121" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B121" s="13" t="s">
@@ -13977,12 +14044,12 @@
       <c r="F121" s="13">
         <v>200</v>
       </c>
-      <c r="G121" s="32" t="s">
+      <c r="G121" s="30" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="31" t="s">
+      <c r="A122" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B122" s="13" t="s">
@@ -14000,12 +14067,12 @@
       <c r="F122" s="14">
         <v>0</v>
       </c>
-      <c r="G122" s="32" t="s">
+      <c r="G122" s="30" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="31" t="s">
+      <c r="A123" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B123" s="13" t="s">
@@ -14023,12 +14090,12 @@
       <c r="F123" s="14">
         <v>0</v>
       </c>
-      <c r="G123" s="32" t="s">
+      <c r="G123" s="30" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="31" t="s">
+      <c r="A124" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B124" s="13" t="s">
@@ -14046,12 +14113,12 @@
       <c r="F124" s="14">
         <v>0</v>
       </c>
-      <c r="G124" s="32" t="s">
+      <c r="G124" s="30" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="31" t="s">
+      <c r="A125" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B125" s="13" t="s">
@@ -14069,12 +14136,12 @@
       <c r="F125" s="14">
         <v>0</v>
       </c>
-      <c r="G125" s="32" t="s">
+      <c r="G125" s="30" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="31" t="s">
+      <c r="A126" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B126" s="13" t="s">
@@ -14092,12 +14159,12 @@
       <c r="F126" s="14">
         <v>0</v>
       </c>
-      <c r="G126" s="32" t="s">
+      <c r="G126" s="30" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="31" t="s">
+      <c r="A127" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B127" s="13" t="s">
@@ -14115,12 +14182,12 @@
       <c r="F127" s="14">
         <v>0</v>
       </c>
-      <c r="G127" s="32" t="s">
+      <c r="G127" s="30" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="31" t="s">
+      <c r="A128" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B128" s="13" t="s">
@@ -14138,12 +14205,12 @@
       <c r="F128" s="14">
         <v>0</v>
       </c>
-      <c r="G128" s="32" t="s">
+      <c r="G128" s="30" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="31" t="s">
+      <c r="A129" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B129" s="13" t="s">
@@ -14161,12 +14228,12 @@
       <c r="F129" s="14">
         <v>0</v>
       </c>
-      <c r="G129" s="32" t="s">
+      <c r="G129" s="30" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="31" t="s">
+      <c r="A130" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B130" s="13" t="s">
@@ -14184,12 +14251,12 @@
       <c r="F130" s="13">
         <v>40</v>
       </c>
-      <c r="G130" s="32" t="s">
+      <c r="G130" s="30" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="31" t="s">
+      <c r="A131" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B131" s="13" t="s">
@@ -14207,12 +14274,12 @@
       <c r="F131" s="13">
         <v>40</v>
       </c>
-      <c r="G131" s="32" t="s">
+      <c r="G131" s="30" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="31" t="s">
+      <c r="A132" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B132" s="13" t="s">
@@ -14230,12 +14297,12 @@
       <c r="F132" s="13">
         <v>40</v>
       </c>
-      <c r="G132" s="32" t="s">
+      <c r="G132" s="30" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="31" t="s">
+      <c r="A133" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B133" s="13" t="s">
@@ -14253,12 +14320,12 @@
       <c r="F133" s="13">
         <v>40</v>
       </c>
-      <c r="G133" s="32" t="s">
+      <c r="G133" s="30" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="31" t="s">
+      <c r="A134" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B134" s="13" t="s">
@@ -14276,12 +14343,12 @@
       <c r="F134" s="13">
         <v>40</v>
       </c>
-      <c r="G134" s="32" t="s">
+      <c r="G134" s="30" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="31" t="s">
+      <c r="A135" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B135" s="13" t="s">
@@ -14299,12 +14366,12 @@
       <c r="F135" s="13">
         <v>40</v>
       </c>
-      <c r="G135" s="32" t="s">
+      <c r="G135" s="30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="31" t="s">
+      <c r="A136" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B136" s="13" t="s">
@@ -14322,12 +14389,12 @@
       <c r="F136" s="13">
         <v>40</v>
       </c>
-      <c r="G136" s="32" t="s">
+      <c r="G136" s="30" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="31" t="s">
+      <c r="A137" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B137" s="13" t="s">
@@ -14345,12 +14412,12 @@
       <c r="F137" s="13">
         <v>40</v>
       </c>
-      <c r="G137" s="32" t="s">
+      <c r="G137" s="30" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="31" t="s">
+      <c r="A138" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B138" s="13" t="s">
@@ -14368,12 +14435,12 @@
       <c r="F138" s="13">
         <v>60</v>
       </c>
-      <c r="G138" s="32" t="s">
+      <c r="G138" s="30" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="31" t="s">
+      <c r="A139" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B139" s="13" t="s">
@@ -14391,12 +14458,12 @@
       <c r="F139" s="13">
         <v>60</v>
       </c>
-      <c r="G139" s="32" t="s">
+      <c r="G139" s="30" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="31" t="s">
+      <c r="A140" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B140" s="13" t="s">
@@ -14414,12 +14481,12 @@
       <c r="F140" s="13">
         <v>60</v>
       </c>
-      <c r="G140" s="32" t="s">
+      <c r="G140" s="30" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="31" t="s">
+      <c r="A141" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B141" s="13" t="s">
@@ -14437,12 +14504,12 @@
       <c r="F141" s="13">
         <v>60</v>
       </c>
-      <c r="G141" s="32" t="s">
+      <c r="G141" s="30" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="31" t="s">
+      <c r="A142" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B142" s="13" t="s">
@@ -14460,12 +14527,12 @@
       <c r="F142" s="13">
         <v>60</v>
       </c>
-      <c r="G142" s="32" t="s">
+      <c r="G142" s="30" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="31" t="s">
+      <c r="A143" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B143" s="13" t="s">
@@ -14483,12 +14550,12 @@
       <c r="F143" s="13">
         <v>60</v>
       </c>
-      <c r="G143" s="32" t="s">
+      <c r="G143" s="30" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="31" t="s">
+      <c r="A144" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B144" s="13" t="s">
@@ -14506,12 +14573,12 @@
       <c r="F144" s="13">
         <v>60</v>
       </c>
-      <c r="G144" s="32" t="s">
+      <c r="G144" s="30" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="31" t="s">
+      <c r="A145" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B145" s="13" t="s">
@@ -14529,12 +14596,12 @@
       <c r="F145" s="13">
         <v>60</v>
       </c>
-      <c r="G145" s="32" t="s">
+      <c r="G145" s="30" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="31" t="s">
+      <c r="A146" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B146" s="13" t="s">
@@ -14552,12 +14619,12 @@
       <c r="F146" s="13">
         <v>200</v>
       </c>
-      <c r="G146" s="32" t="s">
+      <c r="G146" s="30" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="31" t="s">
+      <c r="A147" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B147" s="13" t="s">
@@ -14575,12 +14642,12 @@
       <c r="F147" s="13">
         <v>200</v>
       </c>
-      <c r="G147" s="32" t="s">
+      <c r="G147" s="30" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="31" t="s">
+      <c r="A148" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B148" s="13" t="s">
@@ -14598,12 +14665,12 @@
       <c r="F148" s="13">
         <v>200</v>
       </c>
-      <c r="G148" s="32" t="s">
+      <c r="G148" s="30" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="31" t="s">
+      <c r="A149" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B149" s="13" t="s">
@@ -14621,12 +14688,12 @@
       <c r="F149" s="13">
         <v>200</v>
       </c>
-      <c r="G149" s="32" t="s">
+      <c r="G149" s="30" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="31" t="s">
+      <c r="A150" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B150" s="13" t="s">
@@ -14644,12 +14711,12 @@
       <c r="F150" s="13">
         <v>200</v>
       </c>
-      <c r="G150" s="32" t="s">
+      <c r="G150" s="30" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="31" t="s">
+      <c r="A151" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B151" s="13" t="s">
@@ -14667,12 +14734,12 @@
       <c r="F151" s="13">
         <v>200</v>
       </c>
-      <c r="G151" s="32" t="s">
+      <c r="G151" s="30" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="31" t="s">
+      <c r="A152" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B152" s="13" t="s">
@@ -14690,12 +14757,12 @@
       <c r="F152" s="13">
         <v>200</v>
       </c>
-      <c r="G152" s="32" t="s">
+      <c r="G152" s="30" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="31" t="s">
+      <c r="A153" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B153" s="13" t="s">
@@ -14713,12 +14780,12 @@
       <c r="F153" s="13">
         <v>200</v>
       </c>
-      <c r="G153" s="32" t="s">
+      <c r="G153" s="30" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="31" t="s">
+      <c r="A154" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B154" s="13" t="s">
@@ -14736,12 +14803,12 @@
       <c r="F154" s="14">
         <v>0</v>
       </c>
-      <c r="G154" s="32" t="s">
+      <c r="G154" s="30" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="31" t="s">
+      <c r="A155" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B155" s="13" t="s">
@@ -14759,12 +14826,12 @@
       <c r="F155" s="14">
         <v>0</v>
       </c>
-      <c r="G155" s="32" t="s">
+      <c r="G155" s="30" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="31" t="s">
+      <c r="A156" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B156" s="13" t="s">
@@ -14782,12 +14849,12 @@
       <c r="F156" s="14">
         <v>0</v>
       </c>
-      <c r="G156" s="32" t="s">
+      <c r="G156" s="30" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="31" t="s">
+      <c r="A157" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B157" s="13" t="s">
@@ -14805,12 +14872,12 @@
       <c r="F157" s="14">
         <v>0</v>
       </c>
-      <c r="G157" s="32" t="s">
+      <c r="G157" s="30" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="31" t="s">
+      <c r="A158" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B158" s="13" t="s">
@@ -14828,12 +14895,12 @@
       <c r="F158" s="14">
         <v>0</v>
       </c>
-      <c r="G158" s="32" t="s">
+      <c r="G158" s="30" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="31" t="s">
+      <c r="A159" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B159" s="13" t="s">
@@ -14851,12 +14918,12 @@
       <c r="F159" s="14">
         <v>0</v>
       </c>
-      <c r="G159" s="32" t="s">
+      <c r="G159" s="30" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="31" t="s">
+      <c r="A160" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B160" s="13" t="s">
@@ -14874,12 +14941,12 @@
       <c r="F160" s="14">
         <v>0</v>
       </c>
-      <c r="G160" s="32" t="s">
+      <c r="G160" s="30" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="31" t="s">
+      <c r="A161" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B161" s="13" t="s">
@@ -14897,12 +14964,12 @@
       <c r="F161" s="14">
         <v>0</v>
       </c>
-      <c r="G161" s="32" t="s">
+      <c r="G161" s="30" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="31" t="s">
+      <c r="A162" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B162" s="13" t="s">
@@ -14920,12 +14987,12 @@
       <c r="F162" s="13">
         <v>40</v>
       </c>
-      <c r="G162" s="32" t="s">
+      <c r="G162" s="30" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="31" t="s">
+      <c r="A163" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B163" s="13" t="s">
@@ -14943,12 +15010,12 @@
       <c r="F163" s="13">
         <v>40</v>
       </c>
-      <c r="G163" s="32" t="s">
+      <c r="G163" s="30" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="31" t="s">
+      <c r="A164" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B164" s="13" t="s">
@@ -14966,12 +15033,12 @@
       <c r="F164" s="13">
         <v>40</v>
       </c>
-      <c r="G164" s="32" t="s">
+      <c r="G164" s="30" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="31" t="s">
+      <c r="A165" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B165" s="13" t="s">
@@ -14989,12 +15056,12 @@
       <c r="F165" s="13">
         <v>40</v>
       </c>
-      <c r="G165" s="32" t="s">
+      <c r="G165" s="30" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="31" t="s">
+      <c r="A166" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B166" s="13" t="s">
@@ -15012,12 +15079,12 @@
       <c r="F166" s="13">
         <v>40</v>
       </c>
-      <c r="G166" s="32" t="s">
+      <c r="G166" s="30" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="31" t="s">
+      <c r="A167" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B167" s="13" t="s">
@@ -15035,12 +15102,12 @@
       <c r="F167" s="13">
         <v>40</v>
       </c>
-      <c r="G167" s="32" t="s">
+      <c r="G167" s="30" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="31" t="s">
+      <c r="A168" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B168" s="13" t="s">
@@ -15058,12 +15125,12 @@
       <c r="F168" s="13">
         <v>40</v>
       </c>
-      <c r="G168" s="32" t="s">
+      <c r="G168" s="30" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="31" t="s">
+      <c r="A169" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B169" s="13" t="s">
@@ -15081,12 +15148,12 @@
       <c r="F169" s="13">
         <v>40</v>
       </c>
-      <c r="G169" s="32" t="s">
+      <c r="G169" s="30" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="31" t="s">
+      <c r="A170" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B170" s="13" t="s">
@@ -15104,12 +15171,12 @@
       <c r="F170" s="13">
         <v>60</v>
       </c>
-      <c r="G170" s="32" t="s">
+      <c r="G170" s="30" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="31" t="s">
+      <c r="A171" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B171" s="13" t="s">
@@ -15127,12 +15194,12 @@
       <c r="F171" s="13">
         <v>60</v>
       </c>
-      <c r="G171" s="32" t="s">
+      <c r="G171" s="30" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="31" t="s">
+      <c r="A172" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B172" s="13" t="s">
@@ -15150,12 +15217,12 @@
       <c r="F172" s="13">
         <v>60</v>
       </c>
-      <c r="G172" s="32" t="s">
+      <c r="G172" s="30" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="31" t="s">
+      <c r="A173" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B173" s="13" t="s">
@@ -15173,12 +15240,12 @@
       <c r="F173" s="13">
         <v>60</v>
       </c>
-      <c r="G173" s="32" t="s">
+      <c r="G173" s="30" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="31" t="s">
+      <c r="A174" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B174" s="13" t="s">
@@ -15196,12 +15263,12 @@
       <c r="F174" s="13">
         <v>60</v>
       </c>
-      <c r="G174" s="32" t="s">
+      <c r="G174" s="30" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="31" t="s">
+      <c r="A175" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B175" s="13" t="s">
@@ -15219,12 +15286,12 @@
       <c r="F175" s="13">
         <v>60</v>
       </c>
-      <c r="G175" s="32" t="s">
+      <c r="G175" s="30" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="31" t="s">
+      <c r="A176" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B176" s="13" t="s">
@@ -15242,12 +15309,12 @@
       <c r="F176" s="13">
         <v>60</v>
       </c>
-      <c r="G176" s="32" t="s">
+      <c r="G176" s="30" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="31" t="s">
+      <c r="A177" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B177" s="13" t="s">
@@ -15265,12 +15332,12 @@
       <c r="F177" s="13">
         <v>60</v>
       </c>
-      <c r="G177" s="32" t="s">
+      <c r="G177" s="30" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="31" t="s">
+      <c r="A178" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B178" s="13" t="s">
@@ -15288,12 +15355,12 @@
       <c r="F178" s="13">
         <v>200</v>
       </c>
-      <c r="G178" s="32" t="s">
+      <c r="G178" s="30" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="31" t="s">
+      <c r="A179" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B179" s="13" t="s">
@@ -15311,12 +15378,12 @@
       <c r="F179" s="13">
         <v>200</v>
       </c>
-      <c r="G179" s="32" t="s">
+      <c r="G179" s="30" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="31" t="s">
+      <c r="A180" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B180" s="13" t="s">
@@ -15334,12 +15401,12 @@
       <c r="F180" s="13">
         <v>200</v>
       </c>
-      <c r="G180" s="32" t="s">
+      <c r="G180" s="30" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="31" t="s">
+      <c r="A181" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B181" s="13" t="s">
@@ -15357,12 +15424,12 @@
       <c r="F181" s="13">
         <v>200</v>
       </c>
-      <c r="G181" s="32" t="s">
+      <c r="G181" s="30" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="31" t="s">
+      <c r="A182" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B182" s="13" t="s">
@@ -15380,12 +15447,12 @@
       <c r="F182" s="13">
         <v>200</v>
       </c>
-      <c r="G182" s="32" t="s">
+      <c r="G182" s="30" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" s="31" t="s">
+      <c r="A183" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B183" s="13" t="s">
@@ -15403,12 +15470,12 @@
       <c r="F183" s="13">
         <v>200</v>
       </c>
-      <c r="G183" s="32" t="s">
+      <c r="G183" s="30" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="31" t="s">
+      <c r="A184" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B184" s="13" t="s">
@@ -15426,12 +15493,12 @@
       <c r="F184" s="13">
         <v>200</v>
       </c>
-      <c r="G184" s="32" t="s">
+      <c r="G184" s="30" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="31" t="s">
+      <c r="A185" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B185" s="13" t="s">
@@ -15449,12 +15516,12 @@
       <c r="F185" s="13">
         <v>200</v>
       </c>
-      <c r="G185" s="32" t="s">
+      <c r="G185" s="30" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="31" t="s">
+      <c r="A186" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B186" s="13" t="s">
@@ -15472,12 +15539,12 @@
       <c r="F186" s="14">
         <v>0</v>
       </c>
-      <c r="G186" s="32" t="s">
+      <c r="G186" s="30" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="31" t="s">
+      <c r="A187" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B187" s="13" t="s">
@@ -15495,12 +15562,12 @@
       <c r="F187" s="14">
         <v>0</v>
       </c>
-      <c r="G187" s="32" t="s">
+      <c r="G187" s="30" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="31" t="s">
+      <c r="A188" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B188" s="13" t="s">
@@ -15518,12 +15585,12 @@
       <c r="F188" s="14">
         <v>0</v>
       </c>
-      <c r="G188" s="32" t="s">
+      <c r="G188" s="30" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="31" t="s">
+      <c r="A189" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B189" s="13" t="s">
@@ -15541,12 +15608,12 @@
       <c r="F189" s="14">
         <v>0</v>
       </c>
-      <c r="G189" s="32" t="s">
+      <c r="G189" s="30" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="31" t="s">
+      <c r="A190" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B190" s="13" t="s">
@@ -15564,12 +15631,12 @@
       <c r="F190" s="14">
         <v>0</v>
       </c>
-      <c r="G190" s="32" t="s">
+      <c r="G190" s="30" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="31" t="s">
+      <c r="A191" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B191" s="13" t="s">
@@ -15587,12 +15654,12 @@
       <c r="F191" s="14">
         <v>0</v>
       </c>
-      <c r="G191" s="32" t="s">
+      <c r="G191" s="30" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="31" t="s">
+      <c r="A192" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B192" s="13" t="s">
@@ -15610,12 +15677,12 @@
       <c r="F192" s="14">
         <v>0</v>
       </c>
-      <c r="G192" s="32" t="s">
+      <c r="G192" s="30" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="31" t="s">
+      <c r="A193" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B193" s="13" t="s">
@@ -15633,12 +15700,12 @@
       <c r="F193" s="14">
         <v>0</v>
       </c>
-      <c r="G193" s="32" t="s">
+      <c r="G193" s="30" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="31" t="s">
+      <c r="A194" s="29" t="s">
         <v>24</v>
       </c>
       <c r="B194" s="13" t="s">
@@ -15656,12 +15723,12 @@
       <c r="F194" s="13">
         <v>40</v>
       </c>
-      <c r="G194" s="32" t="s">
+      <c r="G194" s="30" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="31" t="s">
+      <c r="A195" s="29" t="s">
         <v>24</v>
       </c>
       <c r="B195" s="13" t="s">
@@ -15679,12 +15746,12 @@
       <c r="F195" s="13">
         <v>40</v>
       </c>
-      <c r="G195" s="32" t="s">
+      <c r="G195" s="30" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="31" t="s">
+      <c r="A196" s="29" t="s">
         <v>24</v>
       </c>
       <c r="B196" s="13" t="s">
@@ -15702,12 +15769,12 @@
       <c r="F196" s="13">
         <v>40</v>
       </c>
-      <c r="G196" s="32" t="s">
+      <c r="G196" s="30" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" s="31" t="s">
+      <c r="A197" s="29" t="s">
         <v>24</v>
       </c>
       <c r="B197" s="13" t="s">
@@ -15725,12 +15792,12 @@
       <c r="F197" s="13">
         <v>40</v>
       </c>
-      <c r="G197" s="32" t="s">
+      <c r="G197" s="30" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="31" t="s">
+      <c r="A198" s="29" t="s">
         <v>24</v>
       </c>
       <c r="B198" s="13" t="s">
@@ -15748,12 +15815,12 @@
       <c r="F198" s="13">
         <v>40</v>
       </c>
-      <c r="G198" s="32" t="s">
+      <c r="G198" s="30" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="31" t="s">
+      <c r="A199" s="29" t="s">
         <v>24</v>
       </c>
       <c r="B199" s="13" t="s">
@@ -15771,12 +15838,12 @@
       <c r="F199" s="13">
         <v>40</v>
       </c>
-      <c r="G199" s="32" t="s">
+      <c r="G199" s="30" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="31" t="s">
+      <c r="A200" s="29" t="s">
         <v>24</v>
       </c>
       <c r="B200" s="13" t="s">
@@ -15794,12 +15861,12 @@
       <c r="F200" s="13">
         <v>40</v>
       </c>
-      <c r="G200" s="32" t="s">
+      <c r="G200" s="30" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="31" t="s">
+      <c r="A201" s="29" t="s">
         <v>24</v>
       </c>
       <c r="B201" s="13" t="s">
@@ -15817,12 +15884,12 @@
       <c r="F201" s="13">
         <v>40</v>
       </c>
-      <c r="G201" s="32" t="s">
+      <c r="G201" s="30" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="31" t="s">
+      <c r="A202" s="29" t="s">
         <v>24</v>
       </c>
       <c r="B202" s="13" t="s">
@@ -15840,12 +15907,12 @@
       <c r="F202" s="13">
         <v>60</v>
       </c>
-      <c r="G202" s="32" t="s">
+      <c r="G202" s="30" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="31" t="s">
+      <c r="A203" s="29" t="s">
         <v>24</v>
       </c>
       <c r="B203" s="13" t="s">
@@ -15863,12 +15930,12 @@
       <c r="F203" s="13">
         <v>60</v>
       </c>
-      <c r="G203" s="32" t="s">
+      <c r="G203" s="30" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" s="31" t="s">
+      <c r="A204" s="29" t="s">
         <v>24</v>
       </c>
       <c r="B204" s="13" t="s">
@@ -15886,12 +15953,12 @@
       <c r="F204" s="13">
         <v>60</v>
       </c>
-      <c r="G204" s="32" t="s">
+      <c r="G204" s="30" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="31" t="s">
+      <c r="A205" s="29" t="s">
         <v>24</v>
       </c>
       <c r="B205" s="13" t="s">
@@ -15909,12 +15976,12 @@
       <c r="F205" s="13">
         <v>60</v>
       </c>
-      <c r="G205" s="32" t="s">
+      <c r="G205" s="30" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" s="31" t="s">
+      <c r="A206" s="29" t="s">
         <v>24</v>
       </c>
       <c r="B206" s="13" t="s">
@@ -15932,12 +15999,12 @@
       <c r="F206" s="13">
         <v>60</v>
       </c>
-      <c r="G206" s="32" t="s">
+      <c r="G206" s="30" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" s="31" t="s">
+      <c r="A207" s="29" t="s">
         <v>24</v>
       </c>
       <c r="B207" s="13" t="s">
@@ -15955,12 +16022,12 @@
       <c r="F207" s="13">
         <v>60</v>
       </c>
-      <c r="G207" s="32" t="s">
+      <c r="G207" s="30" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" s="31" t="s">
+      <c r="A208" s="29" t="s">
         <v>24</v>
       </c>
       <c r="B208" s="13" t="s">
@@ -15978,12 +16045,12 @@
       <c r="F208" s="13">
         <v>60</v>
       </c>
-      <c r="G208" s="32" t="s">
+      <c r="G208" s="30" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" s="31" t="s">
+      <c r="A209" s="29" t="s">
         <v>24</v>
       </c>
       <c r="B209" s="13" t="s">
@@ -16001,12 +16068,12 @@
       <c r="F209" s="13">
         <v>60</v>
       </c>
-      <c r="G209" s="32" t="s">
+      <c r="G209" s="30" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" s="31" t="s">
+      <c r="A210" s="29" t="s">
         <v>24</v>
       </c>
       <c r="B210" s="13" t="s">
@@ -16024,12 +16091,12 @@
       <c r="F210" s="13">
         <v>200</v>
       </c>
-      <c r="G210" s="32" t="s">
+      <c r="G210" s="30" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" s="31" t="s">
+      <c r="A211" s="29" t="s">
         <v>24</v>
       </c>
       <c r="B211" s="13" t="s">
@@ -16047,12 +16114,12 @@
       <c r="F211" s="13">
         <v>200</v>
       </c>
-      <c r="G211" s="32" t="s">
+      <c r="G211" s="30" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" s="31" t="s">
+      <c r="A212" s="29" t="s">
         <v>24</v>
       </c>
       <c r="B212" s="13" t="s">
@@ -16070,12 +16137,12 @@
       <c r="F212" s="13">
         <v>200</v>
       </c>
-      <c r="G212" s="32" t="s">
+      <c r="G212" s="30" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213" s="31" t="s">
+      <c r="A213" s="29" t="s">
         <v>24</v>
       </c>
       <c r="B213" s="13" t="s">
@@ -16093,12 +16160,12 @@
       <c r="F213" s="13">
         <v>200</v>
       </c>
-      <c r="G213" s="32" t="s">
+      <c r="G213" s="30" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214" s="31" t="s">
+      <c r="A214" s="29" t="s">
         <v>24</v>
       </c>
       <c r="B214" s="13" t="s">
@@ -16116,12 +16183,12 @@
       <c r="F214" s="13">
         <v>200</v>
       </c>
-      <c r="G214" s="32" t="s">
+      <c r="G214" s="30" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A215" s="31" t="s">
+      <c r="A215" s="29" t="s">
         <v>24</v>
       </c>
       <c r="B215" s="13" t="s">
@@ -16139,12 +16206,12 @@
       <c r="F215" s="13">
         <v>200</v>
       </c>
-      <c r="G215" s="32" t="s">
+      <c r="G215" s="30" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A216" s="31" t="s">
+      <c r="A216" s="29" t="s">
         <v>24</v>
       </c>
       <c r="B216" s="13" t="s">
@@ -16162,12 +16229,12 @@
       <c r="F216" s="13">
         <v>200</v>
       </c>
-      <c r="G216" s="32" t="s">
+      <c r="G216" s="30" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" s="31" t="s">
+      <c r="A217" s="29" t="s">
         <v>24</v>
       </c>
       <c r="B217" s="13" t="s">
@@ -16185,12 +16252,12 @@
       <c r="F217" s="13">
         <v>200</v>
       </c>
-      <c r="G217" s="32" t="s">
+      <c r="G217" s="30" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A218" s="31" t="s">
+      <c r="A218" s="29" t="s">
         <v>24</v>
       </c>
       <c r="B218" s="13" t="s">
@@ -16208,12 +16275,12 @@
       <c r="F218" s="14">
         <v>0</v>
       </c>
-      <c r="G218" s="32" t="s">
+      <c r="G218" s="30" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A219" s="31" t="s">
+      <c r="A219" s="29" t="s">
         <v>24</v>
       </c>
       <c r="B219" s="13" t="s">
@@ -16231,12 +16298,12 @@
       <c r="F219" s="14">
         <v>0</v>
       </c>
-      <c r="G219" s="32" t="s">
+      <c r="G219" s="30" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A220" s="31" t="s">
+      <c r="A220" s="29" t="s">
         <v>24</v>
       </c>
       <c r="B220" s="13" t="s">
@@ -16254,12 +16321,12 @@
       <c r="F220" s="14">
         <v>0</v>
       </c>
-      <c r="G220" s="32" t="s">
+      <c r="G220" s="30" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A221" s="31" t="s">
+      <c r="A221" s="29" t="s">
         <v>24</v>
       </c>
       <c r="B221" s="13" t="s">
@@ -16277,12 +16344,12 @@
       <c r="F221" s="14">
         <v>0</v>
       </c>
-      <c r="G221" s="32" t="s">
+      <c r="G221" s="30" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222" s="31" t="s">
+      <c r="A222" s="29" t="s">
         <v>24</v>
       </c>
       <c r="B222" s="13" t="s">
@@ -16300,12 +16367,12 @@
       <c r="F222" s="14">
         <v>0</v>
       </c>
-      <c r="G222" s="32" t="s">
+      <c r="G222" s="30" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A223" s="31" t="s">
+      <c r="A223" s="29" t="s">
         <v>24</v>
       </c>
       <c r="B223" s="13" t="s">
@@ -16323,12 +16390,12 @@
       <c r="F223" s="14">
         <v>0</v>
       </c>
-      <c r="G223" s="32" t="s">
+      <c r="G223" s="30" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224" s="31" t="s">
+      <c r="A224" s="29" t="s">
         <v>24</v>
       </c>
       <c r="B224" s="13" t="s">
@@ -16346,12 +16413,12 @@
       <c r="F224" s="14">
         <v>0</v>
       </c>
-      <c r="G224" s="32" t="s">
+      <c r="G224" s="30" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A225" s="31" t="s">
+      <c r="A225" s="29" t="s">
         <v>24</v>
       </c>
       <c r="B225" s="13" t="s">
@@ -16369,12 +16436,12 @@
       <c r="F225" s="14">
         <v>0</v>
       </c>
-      <c r="G225" s="32" t="s">
+      <c r="G225" s="30" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226" s="31" t="s">
+      <c r="A226" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B226" s="13" t="s">
@@ -16392,12 +16459,12 @@
       <c r="F226" s="13">
         <v>40</v>
       </c>
-      <c r="G226" s="32" t="s">
+      <c r="G226" s="30" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A227" s="31" t="s">
+      <c r="A227" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B227" s="13" t="s">
@@ -16415,12 +16482,12 @@
       <c r="F227" s="13">
         <v>40</v>
       </c>
-      <c r="G227" s="32" t="s">
+      <c r="G227" s="30" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228" s="31" t="s">
+      <c r="A228" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B228" s="13" t="s">
@@ -16438,12 +16505,12 @@
       <c r="F228" s="13">
         <v>40</v>
       </c>
-      <c r="G228" s="32" t="s">
+      <c r="G228" s="30" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A229" s="31" t="s">
+      <c r="A229" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B229" s="13" t="s">
@@ -16461,12 +16528,12 @@
       <c r="F229" s="13">
         <v>40</v>
       </c>
-      <c r="G229" s="32" t="s">
+      <c r="G229" s="30" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A230" s="31" t="s">
+      <c r="A230" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B230" s="13" t="s">
@@ -16484,12 +16551,12 @@
       <c r="F230" s="13">
         <v>40</v>
       </c>
-      <c r="G230" s="32" t="s">
+      <c r="G230" s="30" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231" s="31" t="s">
+      <c r="A231" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B231" s="13" t="s">
@@ -16507,12 +16574,12 @@
       <c r="F231" s="13">
         <v>40</v>
       </c>
-      <c r="G231" s="32" t="s">
+      <c r="G231" s="30" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A232" s="31" t="s">
+      <c r="A232" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B232" s="13" t="s">
@@ -16530,12 +16597,12 @@
       <c r="F232" s="13">
         <v>40</v>
       </c>
-      <c r="G232" s="32" t="s">
+      <c r="G232" s="30" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A233" s="31" t="s">
+      <c r="A233" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B233" s="13" t="s">
@@ -16553,12 +16620,12 @@
       <c r="F233" s="13">
         <v>40</v>
       </c>
-      <c r="G233" s="32" t="s">
+      <c r="G233" s="30" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A234" s="31" t="s">
+      <c r="A234" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B234" s="13" t="s">
@@ -16576,12 +16643,12 @@
       <c r="F234" s="13">
         <v>60</v>
       </c>
-      <c r="G234" s="32" t="s">
+      <c r="G234" s="30" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A235" s="31" t="s">
+      <c r="A235" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B235" s="13" t="s">
@@ -16599,12 +16666,12 @@
       <c r="F235" s="13">
         <v>60</v>
       </c>
-      <c r="G235" s="32" t="s">
+      <c r="G235" s="30" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A236" s="31" t="s">
+      <c r="A236" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B236" s="13" t="s">
@@ -16622,12 +16689,12 @@
       <c r="F236" s="13">
         <v>60</v>
       </c>
-      <c r="G236" s="32" t="s">
+      <c r="G236" s="30" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A237" s="31" t="s">
+      <c r="A237" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B237" s="13" t="s">
@@ -16645,12 +16712,12 @@
       <c r="F237" s="13">
         <v>60</v>
       </c>
-      <c r="G237" s="32" t="s">
+      <c r="G237" s="30" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A238" s="31" t="s">
+      <c r="A238" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B238" s="13" t="s">
@@ -16668,12 +16735,12 @@
       <c r="F238" s="13">
         <v>60</v>
       </c>
-      <c r="G238" s="32" t="s">
+      <c r="G238" s="30" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A239" s="31" t="s">
+      <c r="A239" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B239" s="13" t="s">
@@ -16691,12 +16758,12 @@
       <c r="F239" s="13">
         <v>60</v>
       </c>
-      <c r="G239" s="32" t="s">
+      <c r="G239" s="30" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A240" s="31" t="s">
+      <c r="A240" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B240" s="13" t="s">
@@ -16714,12 +16781,12 @@
       <c r="F240" s="13">
         <v>60</v>
       </c>
-      <c r="G240" s="32" t="s">
+      <c r="G240" s="30" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A241" s="31" t="s">
+      <c r="A241" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B241" s="13" t="s">
@@ -16737,12 +16804,12 @@
       <c r="F241" s="13">
         <v>60</v>
       </c>
-      <c r="G241" s="32" t="s">
+      <c r="G241" s="30" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A242" s="31" t="s">
+      <c r="A242" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B242" s="13" t="s">
@@ -16760,12 +16827,12 @@
       <c r="F242" s="13">
         <v>200</v>
       </c>
-      <c r="G242" s="32" t="s">
+      <c r="G242" s="30" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A243" s="31" t="s">
+      <c r="A243" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B243" s="13" t="s">
@@ -16783,12 +16850,12 @@
       <c r="F243" s="13">
         <v>200</v>
       </c>
-      <c r="G243" s="32" t="s">
+      <c r="G243" s="30" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A244" s="31" t="s">
+      <c r="A244" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B244" s="13" t="s">
@@ -16806,12 +16873,12 @@
       <c r="F244" s="13">
         <v>200</v>
       </c>
-      <c r="G244" s="32" t="s">
+      <c r="G244" s="30" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A245" s="31" t="s">
+      <c r="A245" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B245" s="13" t="s">
@@ -16829,12 +16896,12 @@
       <c r="F245" s="13">
         <v>200</v>
       </c>
-      <c r="G245" s="32" t="s">
+      <c r="G245" s="30" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A246" s="31" t="s">
+      <c r="A246" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B246" s="13" t="s">
@@ -16852,12 +16919,12 @@
       <c r="F246" s="13">
         <v>200</v>
       </c>
-      <c r="G246" s="32" t="s">
+      <c r="G246" s="30" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A247" s="31" t="s">
+      <c r="A247" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B247" s="13" t="s">
@@ -16875,12 +16942,12 @@
       <c r="F247" s="13">
         <v>200</v>
       </c>
-      <c r="G247" s="32" t="s">
+      <c r="G247" s="30" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A248" s="31" t="s">
+      <c r="A248" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B248" s="13" t="s">
@@ -16898,12 +16965,12 @@
       <c r="F248" s="13">
         <v>200</v>
       </c>
-      <c r="G248" s="32" t="s">
+      <c r="G248" s="30" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A249" s="31" t="s">
+      <c r="A249" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B249" s="13" t="s">
@@ -16921,12 +16988,12 @@
       <c r="F249" s="13">
         <v>200</v>
       </c>
-      <c r="G249" s="32" t="s">
+      <c r="G249" s="30" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A250" s="31" t="s">
+      <c r="A250" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B250" s="13" t="s">
@@ -16944,12 +17011,12 @@
       <c r="F250" s="14">
         <v>0</v>
       </c>
-      <c r="G250" s="32" t="s">
+      <c r="G250" s="30" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A251" s="31" t="s">
+      <c r="A251" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B251" s="13" t="s">
@@ -16967,12 +17034,12 @@
       <c r="F251" s="14">
         <v>0</v>
       </c>
-      <c r="G251" s="32" t="s">
+      <c r="G251" s="30" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A252" s="31" t="s">
+      <c r="A252" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B252" s="13" t="s">
@@ -16990,12 +17057,12 @@
       <c r="F252" s="14">
         <v>0</v>
       </c>
-      <c r="G252" s="32" t="s">
+      <c r="G252" s="30" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A253" s="31" t="s">
+      <c r="A253" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B253" s="13" t="s">
@@ -17013,12 +17080,12 @@
       <c r="F253" s="14">
         <v>0</v>
       </c>
-      <c r="G253" s="32" t="s">
+      <c r="G253" s="30" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A254" s="31" t="s">
+      <c r="A254" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B254" s="13" t="s">
@@ -17036,12 +17103,12 @@
       <c r="F254" s="14">
         <v>0</v>
       </c>
-      <c r="G254" s="32" t="s">
+      <c r="G254" s="30" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A255" s="31" t="s">
+      <c r="A255" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B255" s="13" t="s">
@@ -17059,12 +17126,12 @@
       <c r="F255" s="14">
         <v>0</v>
       </c>
-      <c r="G255" s="32" t="s">
+      <c r="G255" s="30" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A256" s="31" t="s">
+      <c r="A256" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B256" s="13" t="s">
@@ -17082,12 +17149,12 @@
       <c r="F256" s="14">
         <v>0</v>
       </c>
-      <c r="G256" s="32" t="s">
+      <c r="G256" s="30" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A257" s="31" t="s">
+      <c r="A257" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B257" s="13" t="s">
@@ -17105,12 +17172,12 @@
       <c r="F257" s="14">
         <v>0</v>
       </c>
-      <c r="G257" s="32" t="s">
+      <c r="G257" s="30" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A258" s="31" t="s">
+      <c r="A258" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B258" s="13" t="s">
@@ -17128,12 +17195,12 @@
       <c r="F258" s="13">
         <v>40</v>
       </c>
-      <c r="G258" s="32" t="s">
+      <c r="G258" s="30" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A259" s="31" t="s">
+      <c r="A259" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B259" s="13" t="s">
@@ -17151,12 +17218,12 @@
       <c r="F259" s="13">
         <v>40</v>
       </c>
-      <c r="G259" s="32" t="s">
+      <c r="G259" s="30" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A260" s="31" t="s">
+      <c r="A260" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B260" s="13" t="s">
@@ -17174,12 +17241,12 @@
       <c r="F260" s="13">
         <v>40</v>
       </c>
-      <c r="G260" s="32" t="s">
+      <c r="G260" s="30" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A261" s="31" t="s">
+      <c r="A261" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B261" s="13" t="s">
@@ -17197,12 +17264,12 @@
       <c r="F261" s="13">
         <v>40</v>
       </c>
-      <c r="G261" s="32" t="s">
+      <c r="G261" s="30" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A262" s="31" t="s">
+      <c r="A262" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B262" s="13" t="s">
@@ -17220,12 +17287,12 @@
       <c r="F262" s="13">
         <v>40</v>
       </c>
-      <c r="G262" s="32" t="s">
+      <c r="G262" s="30" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A263" s="31" t="s">
+      <c r="A263" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B263" s="13" t="s">
@@ -17243,12 +17310,12 @@
       <c r="F263" s="13">
         <v>40</v>
       </c>
-      <c r="G263" s="32" t="s">
+      <c r="G263" s="30" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A264" s="31" t="s">
+      <c r="A264" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B264" s="13" t="s">
@@ -17266,12 +17333,12 @@
       <c r="F264" s="13">
         <v>40</v>
       </c>
-      <c r="G264" s="32" t="s">
+      <c r="G264" s="30" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A265" s="31" t="s">
+      <c r="A265" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B265" s="13" t="s">
@@ -17289,12 +17356,12 @@
       <c r="F265" s="13">
         <v>40</v>
       </c>
-      <c r="G265" s="32" t="s">
+      <c r="G265" s="30" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A266" s="31" t="s">
+      <c r="A266" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B266" s="13" t="s">
@@ -17312,12 +17379,12 @@
       <c r="F266" s="13">
         <v>60</v>
       </c>
-      <c r="G266" s="32" t="s">
+      <c r="G266" s="30" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A267" s="31" t="s">
+      <c r="A267" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B267" s="13" t="s">
@@ -17335,12 +17402,12 @@
       <c r="F267" s="13">
         <v>60</v>
       </c>
-      <c r="G267" s="32" t="s">
+      <c r="G267" s="30" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A268" s="31" t="s">
+      <c r="A268" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B268" s="13" t="s">
@@ -17358,12 +17425,12 @@
       <c r="F268" s="13">
         <v>60</v>
       </c>
-      <c r="G268" s="32" t="s">
+      <c r="G268" s="30" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A269" s="31" t="s">
+      <c r="A269" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B269" s="13" t="s">
@@ -17381,12 +17448,12 @@
       <c r="F269" s="13">
         <v>60</v>
       </c>
-      <c r="G269" s="32" t="s">
+      <c r="G269" s="30" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A270" s="31" t="s">
+      <c r="A270" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B270" s="13" t="s">
@@ -17404,12 +17471,12 @@
       <c r="F270" s="13">
         <v>60</v>
       </c>
-      <c r="G270" s="32" t="s">
+      <c r="G270" s="30" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A271" s="31" t="s">
+      <c r="A271" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B271" s="13" t="s">
@@ -17427,12 +17494,12 @@
       <c r="F271" s="13">
         <v>60</v>
       </c>
-      <c r="G271" s="32" t="s">
+      <c r="G271" s="30" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A272" s="31" t="s">
+      <c r="A272" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B272" s="13" t="s">
@@ -17450,12 +17517,12 @@
       <c r="F272" s="13">
         <v>60</v>
       </c>
-      <c r="G272" s="32" t="s">
+      <c r="G272" s="30" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A273" s="31" t="s">
+      <c r="A273" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B273" s="13" t="s">
@@ -17473,12 +17540,12 @@
       <c r="F273" s="13">
         <v>60</v>
       </c>
-      <c r="G273" s="32" t="s">
+      <c r="G273" s="30" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A274" s="31" t="s">
+      <c r="A274" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B274" s="13" t="s">
@@ -17496,12 +17563,12 @@
       <c r="F274" s="13">
         <v>200</v>
       </c>
-      <c r="G274" s="32" t="s">
+      <c r="G274" s="30" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A275" s="31" t="s">
+      <c r="A275" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B275" s="13" t="s">
@@ -17519,12 +17586,12 @@
       <c r="F275" s="13">
         <v>200</v>
       </c>
-      <c r="G275" s="32" t="s">
+      <c r="G275" s="30" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A276" s="31" t="s">
+      <c r="A276" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B276" s="13" t="s">
@@ -17542,12 +17609,12 @@
       <c r="F276" s="13">
         <v>200</v>
       </c>
-      <c r="G276" s="32" t="s">
+      <c r="G276" s="30" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A277" s="31" t="s">
+      <c r="A277" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B277" s="13" t="s">
@@ -17565,12 +17632,12 @@
       <c r="F277" s="13">
         <v>200</v>
       </c>
-      <c r="G277" s="32" t="s">
+      <c r="G277" s="30" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A278" s="31" t="s">
+      <c r="A278" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B278" s="13" t="s">
@@ -17588,12 +17655,12 @@
       <c r="F278" s="13">
         <v>200</v>
       </c>
-      <c r="G278" s="32" t="s">
+      <c r="G278" s="30" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A279" s="31" t="s">
+      <c r="A279" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B279" s="13" t="s">
@@ -17611,12 +17678,12 @@
       <c r="F279" s="13">
         <v>200</v>
       </c>
-      <c r="G279" s="32" t="s">
+      <c r="G279" s="30" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A280" s="31" t="s">
+      <c r="A280" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B280" s="13" t="s">
@@ -17634,12 +17701,12 @@
       <c r="F280" s="13">
         <v>200</v>
       </c>
-      <c r="G280" s="32" t="s">
+      <c r="G280" s="30" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A281" s="31" t="s">
+      <c r="A281" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B281" s="13" t="s">
@@ -17657,12 +17724,12 @@
       <c r="F281" s="13">
         <v>200</v>
       </c>
-      <c r="G281" s="32" t="s">
+      <c r="G281" s="30" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A282" s="31" t="s">
+      <c r="A282" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B282" s="13" t="s">
@@ -17680,12 +17747,12 @@
       <c r="F282" s="14">
         <v>0</v>
       </c>
-      <c r="G282" s="32" t="s">
+      <c r="G282" s="30" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A283" s="31" t="s">
+      <c r="A283" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B283" s="13" t="s">
@@ -17703,12 +17770,12 @@
       <c r="F283" s="14">
         <v>0</v>
       </c>
-      <c r="G283" s="32" t="s">
+      <c r="G283" s="30" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A284" s="31" t="s">
+      <c r="A284" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B284" s="13" t="s">
@@ -17726,12 +17793,12 @@
       <c r="F284" s="14">
         <v>0</v>
       </c>
-      <c r="G284" s="32" t="s">
+      <c r="G284" s="30" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A285" s="31" t="s">
+      <c r="A285" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B285" s="13" t="s">
@@ -17749,12 +17816,12 @@
       <c r="F285" s="14">
         <v>0</v>
       </c>
-      <c r="G285" s="32" t="s">
+      <c r="G285" s="30" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A286" s="31" t="s">
+      <c r="A286" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B286" s="13" t="s">
@@ -17772,12 +17839,12 @@
       <c r="F286" s="14">
         <v>0</v>
       </c>
-      <c r="G286" s="32" t="s">
+      <c r="G286" s="30" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A287" s="31" t="s">
+      <c r="A287" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B287" s="13" t="s">
@@ -17795,12 +17862,12 @@
       <c r="F287" s="14">
         <v>0</v>
       </c>
-      <c r="G287" s="32" t="s">
+      <c r="G287" s="30" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A288" s="31" t="s">
+      <c r="A288" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B288" s="13" t="s">
@@ -17818,12 +17885,12 @@
       <c r="F288" s="14">
         <v>0</v>
       </c>
-      <c r="G288" s="32" t="s">
+      <c r="G288" s="30" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A289" s="31" t="s">
+      <c r="A289" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B289" s="13" t="s">
@@ -17841,12 +17908,12 @@
       <c r="F289" s="14">
         <v>0</v>
       </c>
-      <c r="G289" s="32" t="s">
+      <c r="G289" s="30" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A290" s="31" t="s">
+      <c r="A290" s="29" t="s">
         <v>27</v>
       </c>
       <c r="B290" s="13" t="s">
@@ -17864,12 +17931,12 @@
       <c r="F290" s="13">
         <v>40</v>
       </c>
-      <c r="G290" s="32" t="s">
+      <c r="G290" s="30" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A291" s="31" t="s">
+      <c r="A291" s="29" t="s">
         <v>27</v>
       </c>
       <c r="B291" s="13" t="s">
@@ -17887,12 +17954,12 @@
       <c r="F291" s="13">
         <v>40</v>
       </c>
-      <c r="G291" s="32" t="s">
+      <c r="G291" s="30" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A292" s="31" t="s">
+      <c r="A292" s="29" t="s">
         <v>27</v>
       </c>
       <c r="B292" s="13" t="s">
@@ -17910,12 +17977,12 @@
       <c r="F292" s="13">
         <v>40</v>
       </c>
-      <c r="G292" s="32" t="s">
+      <c r="G292" s="30" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A293" s="31" t="s">
+      <c r="A293" s="29" t="s">
         <v>27</v>
       </c>
       <c r="B293" s="13" t="s">
@@ -17933,12 +18000,12 @@
       <c r="F293" s="13">
         <v>40</v>
       </c>
-      <c r="G293" s="32" t="s">
+      <c r="G293" s="30" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A294" s="31" t="s">
+      <c r="A294" s="29" t="s">
         <v>27</v>
       </c>
       <c r="B294" s="13" t="s">
@@ -17956,12 +18023,12 @@
       <c r="F294" s="13">
         <v>40</v>
       </c>
-      <c r="G294" s="32" t="s">
+      <c r="G294" s="30" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A295" s="31" t="s">
+      <c r="A295" s="29" t="s">
         <v>27</v>
       </c>
       <c r="B295" s="13" t="s">
@@ -17979,12 +18046,12 @@
       <c r="F295" s="13">
         <v>40</v>
       </c>
-      <c r="G295" s="32" t="s">
+      <c r="G295" s="30" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A296" s="31" t="s">
+      <c r="A296" s="29" t="s">
         <v>27</v>
       </c>
       <c r="B296" s="13" t="s">
@@ -18002,12 +18069,12 @@
       <c r="F296" s="13">
         <v>40</v>
       </c>
-      <c r="G296" s="32" t="s">
+      <c r="G296" s="30" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A297" s="31" t="s">
+      <c r="A297" s="29" t="s">
         <v>27</v>
       </c>
       <c r="B297" s="13" t="s">
@@ -18025,12 +18092,12 @@
       <c r="F297" s="13">
         <v>40</v>
       </c>
-      <c r="G297" s="32" t="s">
+      <c r="G297" s="30" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A298" s="31" t="s">
+      <c r="A298" s="29" t="s">
         <v>27</v>
       </c>
       <c r="B298" s="13" t="s">
@@ -18048,12 +18115,12 @@
       <c r="F298" s="13">
         <v>60</v>
       </c>
-      <c r="G298" s="32" t="s">
+      <c r="G298" s="30" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A299" s="31" t="s">
+      <c r="A299" s="29" t="s">
         <v>27</v>
       </c>
       <c r="B299" s="13" t="s">
@@ -18071,12 +18138,12 @@
       <c r="F299" s="13">
         <v>60</v>
       </c>
-      <c r="G299" s="32" t="s">
+      <c r="G299" s="30" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A300" s="31" t="s">
+      <c r="A300" s="29" t="s">
         <v>27</v>
       </c>
       <c r="B300" s="13" t="s">
@@ -18094,12 +18161,12 @@
       <c r="F300" s="13">
         <v>60</v>
       </c>
-      <c r="G300" s="32" t="s">
+      <c r="G300" s="30" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A301" s="31" t="s">
+      <c r="A301" s="29" t="s">
         <v>27</v>
       </c>
       <c r="B301" s="13" t="s">
@@ -18117,12 +18184,12 @@
       <c r="F301" s="13">
         <v>60</v>
       </c>
-      <c r="G301" s="32" t="s">
+      <c r="G301" s="30" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A302" s="31" t="s">
+      <c r="A302" s="29" t="s">
         <v>27</v>
       </c>
       <c r="B302" s="13" t="s">
@@ -18140,12 +18207,12 @@
       <c r="F302" s="13">
         <v>60</v>
       </c>
-      <c r="G302" s="32" t="s">
+      <c r="G302" s="30" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A303" s="31" t="s">
+      <c r="A303" s="29" t="s">
         <v>27</v>
       </c>
       <c r="B303" s="13" t="s">
@@ -18163,12 +18230,12 @@
       <c r="F303" s="13">
         <v>60</v>
       </c>
-      <c r="G303" s="32" t="s">
+      <c r="G303" s="30" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A304" s="31" t="s">
+      <c r="A304" s="29" t="s">
         <v>27</v>
       </c>
       <c r="B304" s="13" t="s">
@@ -18186,12 +18253,12 @@
       <c r="F304" s="13">
         <v>60</v>
       </c>
-      <c r="G304" s="32" t="s">
+      <c r="G304" s="30" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A305" s="31" t="s">
+      <c r="A305" s="29" t="s">
         <v>27</v>
       </c>
       <c r="B305" s="13" t="s">
@@ -18209,12 +18276,12 @@
       <c r="F305" s="13">
         <v>60</v>
       </c>
-      <c r="G305" s="32" t="s">
+      <c r="G305" s="30" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A306" s="31" t="s">
+      <c r="A306" s="29" t="s">
         <v>27</v>
       </c>
       <c r="B306" s="13" t="s">
@@ -18232,12 +18299,12 @@
       <c r="F306" s="13">
         <v>200</v>
       </c>
-      <c r="G306" s="32" t="s">
+      <c r="G306" s="30" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A307" s="31" t="s">
+      <c r="A307" s="29" t="s">
         <v>27</v>
       </c>
       <c r="B307" s="13" t="s">
@@ -18255,12 +18322,12 @@
       <c r="F307" s="13">
         <v>200</v>
       </c>
-      <c r="G307" s="32" t="s">
+      <c r="G307" s="30" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A308" s="31" t="s">
+      <c r="A308" s="29" t="s">
         <v>27</v>
       </c>
       <c r="B308" s="13" t="s">
@@ -18278,12 +18345,12 @@
       <c r="F308" s="13">
         <v>200</v>
       </c>
-      <c r="G308" s="32" t="s">
+      <c r="G308" s="30" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A309" s="31" t="s">
+      <c r="A309" s="29" t="s">
         <v>27</v>
       </c>
       <c r="B309" s="13" t="s">
@@ -18301,12 +18368,12 @@
       <c r="F309" s="13">
         <v>200</v>
       </c>
-      <c r="G309" s="32" t="s">
+      <c r="G309" s="30" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A310" s="31" t="s">
+      <c r="A310" s="29" t="s">
         <v>27</v>
       </c>
       <c r="B310" s="13" t="s">
@@ -18324,12 +18391,12 @@
       <c r="F310" s="13">
         <v>200</v>
       </c>
-      <c r="G310" s="32" t="s">
+      <c r="G310" s="30" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A311" s="31" t="s">
+      <c r="A311" s="29" t="s">
         <v>27</v>
       </c>
       <c r="B311" s="13" t="s">
@@ -18347,12 +18414,12 @@
       <c r="F311" s="13">
         <v>200</v>
       </c>
-      <c r="G311" s="32" t="s">
+      <c r="G311" s="30" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A312" s="31" t="s">
+      <c r="A312" s="29" t="s">
         <v>27</v>
       </c>
       <c r="B312" s="13" t="s">
@@ -18370,12 +18437,12 @@
       <c r="F312" s="13">
         <v>200</v>
       </c>
-      <c r="G312" s="32" t="s">
+      <c r="G312" s="30" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A313" s="31" t="s">
+      <c r="A313" s="29" t="s">
         <v>27</v>
       </c>
       <c r="B313" s="13" t="s">
@@ -18393,12 +18460,12 @@
       <c r="F313" s="13">
         <v>200</v>
       </c>
-      <c r="G313" s="32" t="s">
+      <c r="G313" s="30" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A314" s="31" t="s">
+      <c r="A314" s="29" t="s">
         <v>27</v>
       </c>
       <c r="B314" s="13" t="s">
@@ -18416,12 +18483,12 @@
       <c r="F314" s="14">
         <v>0</v>
       </c>
-      <c r="G314" s="32" t="s">
+      <c r="G314" s="30" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A315" s="31" t="s">
+      <c r="A315" s="29" t="s">
         <v>27</v>
       </c>
       <c r="B315" s="13" t="s">
@@ -18439,12 +18506,12 @@
       <c r="F315" s="14">
         <v>0</v>
       </c>
-      <c r="G315" s="32" t="s">
+      <c r="G315" s="30" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A316" s="31" t="s">
+      <c r="A316" s="29" t="s">
         <v>27</v>
       </c>
       <c r="B316" s="13" t="s">
@@ -18462,12 +18529,12 @@
       <c r="F316" s="14">
         <v>0</v>
       </c>
-      <c r="G316" s="32" t="s">
+      <c r="G316" s="30" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A317" s="31" t="s">
+      <c r="A317" s="29" t="s">
         <v>27</v>
       </c>
       <c r="B317" s="13" t="s">
@@ -18485,12 +18552,12 @@
       <c r="F317" s="14">
         <v>0</v>
       </c>
-      <c r="G317" s="32" t="s">
+      <c r="G317" s="30" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A318" s="31" t="s">
+      <c r="A318" s="29" t="s">
         <v>27</v>
       </c>
       <c r="B318" s="13" t="s">
@@ -18508,12 +18575,12 @@
       <c r="F318" s="14">
         <v>0</v>
       </c>
-      <c r="G318" s="32" t="s">
+      <c r="G318" s="30" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A319" s="31" t="s">
+      <c r="A319" s="29" t="s">
         <v>27</v>
       </c>
       <c r="B319" s="13" t="s">
@@ -18531,12 +18598,12 @@
       <c r="F319" s="14">
         <v>0</v>
       </c>
-      <c r="G319" s="32" t="s">
+      <c r="G319" s="30" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A320" s="31" t="s">
+      <c r="A320" s="29" t="s">
         <v>27</v>
       </c>
       <c r="B320" s="13" t="s">
@@ -18554,12 +18621,12 @@
       <c r="F320" s="14">
         <v>0</v>
       </c>
-      <c r="G320" s="32" t="s">
+      <c r="G320" s="30" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A321" s="31" t="s">
+      <c r="A321" s="29" t="s">
         <v>27</v>
       </c>
       <c r="B321" s="13" t="s">
@@ -18577,12 +18644,12 @@
       <c r="F321" s="14">
         <v>0</v>
       </c>
-      <c r="G321" s="32" t="s">
+      <c r="G321" s="30" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A322" s="31" t="s">
+      <c r="A322" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B322" s="13" t="s">
@@ -18600,12 +18667,12 @@
       <c r="F322" s="13">
         <v>40</v>
       </c>
-      <c r="G322" s="32" t="s">
+      <c r="G322" s="30" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A323" s="31" t="s">
+      <c r="A323" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B323" s="13" t="s">
@@ -18623,12 +18690,12 @@
       <c r="F323" s="13">
         <v>40</v>
       </c>
-      <c r="G323" s="32" t="s">
+      <c r="G323" s="30" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A324" s="31" t="s">
+      <c r="A324" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B324" s="13" t="s">
@@ -18646,12 +18713,12 @@
       <c r="F324" s="13">
         <v>40</v>
       </c>
-      <c r="G324" s="32" t="s">
+      <c r="G324" s="30" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A325" s="31" t="s">
+      <c r="A325" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B325" s="13" t="s">
@@ -18669,12 +18736,12 @@
       <c r="F325" s="13">
         <v>40</v>
       </c>
-      <c r="G325" s="32" t="s">
+      <c r="G325" s="30" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A326" s="31" t="s">
+      <c r="A326" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B326" s="13" t="s">
@@ -18692,12 +18759,12 @@
       <c r="F326" s="13">
         <v>40</v>
       </c>
-      <c r="G326" s="32" t="s">
+      <c r="G326" s="30" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A327" s="31" t="s">
+      <c r="A327" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B327" s="13" t="s">
@@ -18715,12 +18782,12 @@
       <c r="F327" s="13">
         <v>40</v>
       </c>
-      <c r="G327" s="32" t="s">
+      <c r="G327" s="30" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A328" s="31" t="s">
+      <c r="A328" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B328" s="13" t="s">
@@ -18738,12 +18805,12 @@
       <c r="F328" s="13">
         <v>40</v>
       </c>
-      <c r="G328" s="32" t="s">
+      <c r="G328" s="30" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A329" s="31" t="s">
+      <c r="A329" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B329" s="13" t="s">
@@ -18761,12 +18828,12 @@
       <c r="F329" s="13">
         <v>40</v>
       </c>
-      <c r="G329" s="32" t="s">
+      <c r="G329" s="30" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A330" s="31" t="s">
+      <c r="A330" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B330" s="13" t="s">
@@ -18784,12 +18851,12 @@
       <c r="F330" s="13">
         <v>60</v>
       </c>
-      <c r="G330" s="32" t="s">
+      <c r="G330" s="30" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A331" s="31" t="s">
+      <c r="A331" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B331" s="13" t="s">
@@ -18807,12 +18874,12 @@
       <c r="F331" s="13">
         <v>60</v>
       </c>
-      <c r="G331" s="32" t="s">
+      <c r="G331" s="30" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A332" s="31" t="s">
+      <c r="A332" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B332" s="13" t="s">
@@ -18830,12 +18897,12 @@
       <c r="F332" s="13">
         <v>60</v>
       </c>
-      <c r="G332" s="32" t="s">
+      <c r="G332" s="30" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A333" s="31" t="s">
+      <c r="A333" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B333" s="13" t="s">
@@ -18853,12 +18920,12 @@
       <c r="F333" s="13">
         <v>60</v>
       </c>
-      <c r="G333" s="32" t="s">
+      <c r="G333" s="30" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A334" s="31" t="s">
+      <c r="A334" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B334" s="13" t="s">
@@ -18876,12 +18943,12 @@
       <c r="F334" s="13">
         <v>60</v>
       </c>
-      <c r="G334" s="32" t="s">
+      <c r="G334" s="30" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A335" s="31" t="s">
+      <c r="A335" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B335" s="13" t="s">
@@ -18899,12 +18966,12 @@
       <c r="F335" s="13">
         <v>60</v>
       </c>
-      <c r="G335" s="32" t="s">
+      <c r="G335" s="30" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A336" s="31" t="s">
+      <c r="A336" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B336" s="13" t="s">
@@ -18922,12 +18989,12 @@
       <c r="F336" s="13">
         <v>60</v>
       </c>
-      <c r="G336" s="32" t="s">
+      <c r="G336" s="30" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A337" s="31" t="s">
+      <c r="A337" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B337" s="13" t="s">
@@ -18945,12 +19012,12 @@
       <c r="F337" s="13">
         <v>60</v>
       </c>
-      <c r="G337" s="32" t="s">
+      <c r="G337" s="30" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A338" s="31" t="s">
+      <c r="A338" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B338" s="13" t="s">
@@ -18968,12 +19035,12 @@
       <c r="F338" s="13">
         <v>200</v>
       </c>
-      <c r="G338" s="32" t="s">
+      <c r="G338" s="30" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A339" s="31" t="s">
+      <c r="A339" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B339" s="13" t="s">
@@ -18991,12 +19058,12 @@
       <c r="F339" s="13">
         <v>200</v>
       </c>
-      <c r="G339" s="32" t="s">
+      <c r="G339" s="30" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A340" s="31" t="s">
+      <c r="A340" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B340" s="13" t="s">
@@ -19014,12 +19081,12 @@
       <c r="F340" s="13">
         <v>200</v>
       </c>
-      <c r="G340" s="32" t="s">
+      <c r="G340" s="30" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A341" s="31" t="s">
+      <c r="A341" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B341" s="13" t="s">
@@ -19037,12 +19104,12 @@
       <c r="F341" s="13">
         <v>200</v>
       </c>
-      <c r="G341" s="32" t="s">
+      <c r="G341" s="30" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A342" s="31" t="s">
+      <c r="A342" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B342" s="13" t="s">
@@ -19060,12 +19127,12 @@
       <c r="F342" s="13">
         <v>200</v>
       </c>
-      <c r="G342" s="32" t="s">
+      <c r="G342" s="30" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A343" s="31" t="s">
+      <c r="A343" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B343" s="13" t="s">
@@ -19083,12 +19150,12 @@
       <c r="F343" s="13">
         <v>200</v>
       </c>
-      <c r="G343" s="32" t="s">
+      <c r="G343" s="30" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A344" s="31" t="s">
+      <c r="A344" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B344" s="13" t="s">
@@ -19106,12 +19173,12 @@
       <c r="F344" s="13">
         <v>200</v>
       </c>
-      <c r="G344" s="32" t="s">
+      <c r="G344" s="30" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A345" s="31" t="s">
+      <c r="A345" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B345" s="13" t="s">
@@ -19129,12 +19196,12 @@
       <c r="F345" s="13">
         <v>200</v>
       </c>
-      <c r="G345" s="32" t="s">
+      <c r="G345" s="30" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A346" s="31" t="s">
+      <c r="A346" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B346" s="13" t="s">
@@ -19152,12 +19219,12 @@
       <c r="F346" s="14">
         <v>0</v>
       </c>
-      <c r="G346" s="32" t="s">
+      <c r="G346" s="30" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A347" s="31" t="s">
+      <c r="A347" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B347" s="13" t="s">
@@ -19175,12 +19242,12 @@
       <c r="F347" s="14">
         <v>0</v>
       </c>
-      <c r="G347" s="32" t="s">
+      <c r="G347" s="30" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A348" s="31" t="s">
+      <c r="A348" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B348" s="13" t="s">
@@ -19198,12 +19265,12 @@
       <c r="F348" s="14">
         <v>0</v>
       </c>
-      <c r="G348" s="32" t="s">
+      <c r="G348" s="30" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A349" s="31" t="s">
+      <c r="A349" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B349" s="13" t="s">
@@ -19221,12 +19288,12 @@
       <c r="F349" s="14">
         <v>0</v>
       </c>
-      <c r="G349" s="32" t="s">
+      <c r="G349" s="30" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A350" s="31" t="s">
+      <c r="A350" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B350" s="13" t="s">
@@ -19244,12 +19311,12 @@
       <c r="F350" s="14">
         <v>0</v>
       </c>
-      <c r="G350" s="32" t="s">
+      <c r="G350" s="30" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A351" s="31" t="s">
+      <c r="A351" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B351" s="13" t="s">
@@ -19267,12 +19334,12 @@
       <c r="F351" s="14">
         <v>0</v>
       </c>
-      <c r="G351" s="32" t="s">
+      <c r="G351" s="30" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A352" s="31" t="s">
+      <c r="A352" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B352" s="13" t="s">
@@ -19290,12 +19357,12 @@
       <c r="F352" s="14">
         <v>0</v>
       </c>
-      <c r="G352" s="32" t="s">
+      <c r="G352" s="30" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A353" s="31" t="s">
+      <c r="A353" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B353" s="13" t="s">
@@ -19313,12 +19380,12 @@
       <c r="F353" s="14">
         <v>0</v>
       </c>
-      <c r="G353" s="32" t="s">
+      <c r="G353" s="30" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A354" s="31" t="s">
+      <c r="A354" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B354" s="13" t="s">
@@ -19336,12 +19403,12 @@
       <c r="F354" s="13">
         <v>40</v>
       </c>
-      <c r="G354" s="32" t="s">
+      <c r="G354" s="30" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A355" s="31" t="s">
+      <c r="A355" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B355" s="13" t="s">
@@ -19359,12 +19426,12 @@
       <c r="F355" s="13">
         <v>40</v>
       </c>
-      <c r="G355" s="32" t="s">
+      <c r="G355" s="30" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A356" s="31" t="s">
+      <c r="A356" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B356" s="13" t="s">
@@ -19382,12 +19449,12 @@
       <c r="F356" s="13">
         <v>40</v>
       </c>
-      <c r="G356" s="32" t="s">
+      <c r="G356" s="30" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A357" s="31" t="s">
+      <c r="A357" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B357" s="13" t="s">
@@ -19405,12 +19472,12 @@
       <c r="F357" s="13">
         <v>40</v>
       </c>
-      <c r="G357" s="32" t="s">
+      <c r="G357" s="30" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A358" s="31" t="s">
+      <c r="A358" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B358" s="13" t="s">
@@ -19428,12 +19495,12 @@
       <c r="F358" s="13">
         <v>40</v>
       </c>
-      <c r="G358" s="32" t="s">
+      <c r="G358" s="30" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A359" s="31" t="s">
+      <c r="A359" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B359" s="13" t="s">
@@ -19451,12 +19518,12 @@
       <c r="F359" s="13">
         <v>40</v>
       </c>
-      <c r="G359" s="32" t="s">
+      <c r="G359" s="30" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A360" s="31" t="s">
+      <c r="A360" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B360" s="13" t="s">
@@ -19474,12 +19541,12 @@
       <c r="F360" s="13">
         <v>40</v>
       </c>
-      <c r="G360" s="32" t="s">
+      <c r="G360" s="30" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A361" s="31" t="s">
+      <c r="A361" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B361" s="13" t="s">
@@ -19497,12 +19564,12 @@
       <c r="F361" s="13">
         <v>40</v>
       </c>
-      <c r="G361" s="32" t="s">
+      <c r="G361" s="30" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A362" s="31" t="s">
+      <c r="A362" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B362" s="13" t="s">
@@ -19520,12 +19587,12 @@
       <c r="F362" s="13">
         <v>60</v>
       </c>
-      <c r="G362" s="32" t="s">
+      <c r="G362" s="30" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A363" s="31" t="s">
+      <c r="A363" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B363" s="13" t="s">
@@ -19543,12 +19610,12 @@
       <c r="F363" s="13">
         <v>60</v>
       </c>
-      <c r="G363" s="32" t="s">
+      <c r="G363" s="30" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A364" s="31" t="s">
+      <c r="A364" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B364" s="13" t="s">
@@ -19566,12 +19633,12 @@
       <c r="F364" s="13">
         <v>60</v>
       </c>
-      <c r="G364" s="32" t="s">
+      <c r="G364" s="30" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A365" s="31" t="s">
+      <c r="A365" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B365" s="13" t="s">
@@ -19589,12 +19656,12 @@
       <c r="F365" s="13">
         <v>60</v>
       </c>
-      <c r="G365" s="32" t="s">
+      <c r="G365" s="30" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A366" s="31" t="s">
+      <c r="A366" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B366" s="13" t="s">
@@ -19612,12 +19679,12 @@
       <c r="F366" s="13">
         <v>60</v>
       </c>
-      <c r="G366" s="32" t="s">
+      <c r="G366" s="30" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A367" s="31" t="s">
+      <c r="A367" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B367" s="13" t="s">
@@ -19635,12 +19702,12 @@
       <c r="F367" s="13">
         <v>60</v>
       </c>
-      <c r="G367" s="32" t="s">
+      <c r="G367" s="30" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A368" s="31" t="s">
+      <c r="A368" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B368" s="13" t="s">
@@ -19658,12 +19725,12 @@
       <c r="F368" s="13">
         <v>60</v>
       </c>
-      <c r="G368" s="32" t="s">
+      <c r="G368" s="30" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A369" s="31" t="s">
+      <c r="A369" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B369" s="13" t="s">
@@ -19681,12 +19748,12 @@
       <c r="F369" s="13">
         <v>60</v>
       </c>
-      <c r="G369" s="32" t="s">
+      <c r="G369" s="30" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A370" s="31" t="s">
+      <c r="A370" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B370" s="13" t="s">
@@ -19704,12 +19771,12 @@
       <c r="F370" s="13">
         <v>200</v>
       </c>
-      <c r="G370" s="32" t="s">
+      <c r="G370" s="30" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A371" s="31" t="s">
+      <c r="A371" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B371" s="13" t="s">
@@ -19727,12 +19794,12 @@
       <c r="F371" s="13">
         <v>200</v>
       </c>
-      <c r="G371" s="32" t="s">
+      <c r="G371" s="30" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A372" s="31" t="s">
+      <c r="A372" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B372" s="13" t="s">
@@ -19750,12 +19817,12 @@
       <c r="F372" s="13">
         <v>200</v>
       </c>
-      <c r="G372" s="32" t="s">
+      <c r="G372" s="30" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A373" s="31" t="s">
+      <c r="A373" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B373" s="13" t="s">
@@ -19773,12 +19840,12 @@
       <c r="F373" s="13">
         <v>200</v>
       </c>
-      <c r="G373" s="32" t="s">
+      <c r="G373" s="30" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A374" s="31" t="s">
+      <c r="A374" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B374" s="13" t="s">
@@ -19796,12 +19863,12 @@
       <c r="F374" s="13">
         <v>200</v>
       </c>
-      <c r="G374" s="32" t="s">
+      <c r="G374" s="30" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A375" s="31" t="s">
+      <c r="A375" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B375" s="13" t="s">
@@ -19819,12 +19886,12 @@
       <c r="F375" s="13">
         <v>200</v>
       </c>
-      <c r="G375" s="32" t="s">
+      <c r="G375" s="30" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A376" s="31" t="s">
+      <c r="A376" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B376" s="13" t="s">
@@ -19842,12 +19909,12 @@
       <c r="F376" s="13">
         <v>200</v>
       </c>
-      <c r="G376" s="32" t="s">
+      <c r="G376" s="30" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A377" s="31" t="s">
+      <c r="A377" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B377" s="13" t="s">
@@ -19865,12 +19932,12 @@
       <c r="F377" s="13">
         <v>200</v>
       </c>
-      <c r="G377" s="32" t="s">
+      <c r="G377" s="30" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A378" s="31" t="s">
+      <c r="A378" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B378" s="13" t="s">
@@ -19888,12 +19955,12 @@
       <c r="F378" s="14">
         <v>0</v>
       </c>
-      <c r="G378" s="32" t="s">
+      <c r="G378" s="30" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A379" s="31" t="s">
+      <c r="A379" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B379" s="13" t="s">
@@ -19911,12 +19978,12 @@
       <c r="F379" s="14">
         <v>0</v>
       </c>
-      <c r="G379" s="32" t="s">
+      <c r="G379" s="30" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A380" s="31" t="s">
+      <c r="A380" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B380" s="13" t="s">
@@ -19934,12 +20001,12 @@
       <c r="F380" s="14">
         <v>0</v>
       </c>
-      <c r="G380" s="32" t="s">
+      <c r="G380" s="30" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A381" s="31" t="s">
+      <c r="A381" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B381" s="13" t="s">
@@ -19957,12 +20024,12 @@
       <c r="F381" s="14">
         <v>0</v>
       </c>
-      <c r="G381" s="32" t="s">
+      <c r="G381" s="30" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A382" s="31" t="s">
+      <c r="A382" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B382" s="13" t="s">
@@ -19980,12 +20047,12 @@
       <c r="F382" s="14">
         <v>0</v>
       </c>
-      <c r="G382" s="32" t="s">
+      <c r="G382" s="30" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A383" s="31" t="s">
+      <c r="A383" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B383" s="13" t="s">
@@ -20003,12 +20070,12 @@
       <c r="F383" s="14">
         <v>0</v>
       </c>
-      <c r="G383" s="32" t="s">
+      <c r="G383" s="30" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A384" s="31" t="s">
+      <c r="A384" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B384" s="13" t="s">
@@ -20026,12 +20093,12 @@
       <c r="F384" s="14">
         <v>0</v>
       </c>
-      <c r="G384" s="32" t="s">
+      <c r="G384" s="30" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A385" s="31" t="s">
+      <c r="A385" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B385" s="13" t="s">
@@ -20049,12 +20116,12 @@
       <c r="F385" s="14">
         <v>0</v>
       </c>
-      <c r="G385" s="32" t="s">
+      <c r="G385" s="30" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A386" s="31" t="s">
+      <c r="A386" s="29" t="s">
         <v>30</v>
       </c>
       <c r="B386" s="13" t="s">
@@ -20072,12 +20139,12 @@
       <c r="F386" s="13">
         <v>40</v>
       </c>
-      <c r="G386" s="32" t="s">
+      <c r="G386" s="30" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A387" s="31" t="s">
+      <c r="A387" s="29" t="s">
         <v>30</v>
       </c>
       <c r="B387" s="13" t="s">
@@ -20095,12 +20162,12 @@
       <c r="F387" s="13">
         <v>40</v>
       </c>
-      <c r="G387" s="32" t="s">
+      <c r="G387" s="30" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A388" s="31" t="s">
+      <c r="A388" s="29" t="s">
         <v>30</v>
       </c>
       <c r="B388" s="13" t="s">
@@ -20118,12 +20185,12 @@
       <c r="F388" s="13">
         <v>40</v>
       </c>
-      <c r="G388" s="32" t="s">
+      <c r="G388" s="30" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A389" s="31" t="s">
+      <c r="A389" s="29" t="s">
         <v>30</v>
       </c>
       <c r="B389" s="13" t="s">
@@ -20141,12 +20208,12 @@
       <c r="F389" s="13">
         <v>40</v>
       </c>
-      <c r="G389" s="32" t="s">
+      <c r="G389" s="30" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A390" s="31" t="s">
+      <c r="A390" s="29" t="s">
         <v>30</v>
       </c>
       <c r="B390" s="13" t="s">
@@ -20164,12 +20231,12 @@
       <c r="F390" s="13">
         <v>40</v>
       </c>
-      <c r="G390" s="32" t="s">
+      <c r="G390" s="30" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A391" s="31" t="s">
+      <c r="A391" s="29" t="s">
         <v>30</v>
       </c>
       <c r="B391" s="13" t="s">
@@ -20187,12 +20254,12 @@
       <c r="F391" s="13">
         <v>40</v>
       </c>
-      <c r="G391" s="32" t="s">
+      <c r="G391" s="30" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A392" s="31" t="s">
+      <c r="A392" s="29" t="s">
         <v>30</v>
       </c>
       <c r="B392" s="13" t="s">
@@ -20210,12 +20277,12 @@
       <c r="F392" s="13">
         <v>40</v>
       </c>
-      <c r="G392" s="32" t="s">
+      <c r="G392" s="30" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A393" s="31" t="s">
+      <c r="A393" s="29" t="s">
         <v>30</v>
       </c>
       <c r="B393" s="13" t="s">
@@ -20233,12 +20300,12 @@
       <c r="F393" s="13">
         <v>40</v>
       </c>
-      <c r="G393" s="32" t="s">
+      <c r="G393" s="30" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A394" s="31" t="s">
+      <c r="A394" s="29" t="s">
         <v>30</v>
       </c>
       <c r="B394" s="13" t="s">
@@ -20256,12 +20323,12 @@
       <c r="F394" s="13">
         <v>60</v>
       </c>
-      <c r="G394" s="32" t="s">
+      <c r="G394" s="30" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A395" s="31" t="s">
+      <c r="A395" s="29" t="s">
         <v>30</v>
       </c>
       <c r="B395" s="13" t="s">
@@ -20279,12 +20346,12 @@
       <c r="F395" s="13">
         <v>60</v>
       </c>
-      <c r="G395" s="32" t="s">
+      <c r="G395" s="30" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A396" s="31" t="s">
+      <c r="A396" s="29" t="s">
         <v>30</v>
       </c>
       <c r="B396" s="13" t="s">
@@ -20302,12 +20369,12 @@
       <c r="F396" s="13">
         <v>60</v>
       </c>
-      <c r="G396" s="32" t="s">
+      <c r="G396" s="30" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A397" s="31" t="s">
+      <c r="A397" s="29" t="s">
         <v>30</v>
       </c>
       <c r="B397" s="13" t="s">
@@ -20325,12 +20392,12 @@
       <c r="F397" s="13">
         <v>60</v>
       </c>
-      <c r="G397" s="32" t="s">
+      <c r="G397" s="30" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A398" s="31" t="s">
+      <c r="A398" s="29" t="s">
         <v>30</v>
       </c>
       <c r="B398" s="13" t="s">
@@ -20348,12 +20415,12 @@
       <c r="F398" s="13">
         <v>60</v>
       </c>
-      <c r="G398" s="32" t="s">
+      <c r="G398" s="30" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A399" s="31" t="s">
+      <c r="A399" s="29" t="s">
         <v>30</v>
       </c>
       <c r="B399" s="13" t="s">
@@ -20371,12 +20438,12 @@
       <c r="F399" s="13">
         <v>60</v>
       </c>
-      <c r="G399" s="32" t="s">
+      <c r="G399" s="30" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A400" s="31" t="s">
+      <c r="A400" s="29" t="s">
         <v>30</v>
       </c>
       <c r="B400" s="13" t="s">
@@ -20394,12 +20461,12 @@
       <c r="F400" s="13">
         <v>60</v>
       </c>
-      <c r="G400" s="32" t="s">
+      <c r="G400" s="30" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A401" s="31" t="s">
+      <c r="A401" s="29" t="s">
         <v>30</v>
       </c>
       <c r="B401" s="13" t="s">
@@ -20417,12 +20484,12 @@
       <c r="F401" s="13">
         <v>60</v>
       </c>
-      <c r="G401" s="32" t="s">
+      <c r="G401" s="30" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A402" s="31" t="s">
+      <c r="A402" s="29" t="s">
         <v>30</v>
       </c>
       <c r="B402" s="13" t="s">
@@ -20440,12 +20507,12 @@
       <c r="F402" s="13">
         <v>200</v>
       </c>
-      <c r="G402" s="32" t="s">
+      <c r="G402" s="30" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A403" s="31" t="s">
+      <c r="A403" s="29" t="s">
         <v>30</v>
       </c>
       <c r="B403" s="13" t="s">
@@ -20463,12 +20530,12 @@
       <c r="F403" s="13">
         <v>200</v>
       </c>
-      <c r="G403" s="32" t="s">
+      <c r="G403" s="30" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A404" s="31" t="s">
+      <c r="A404" s="29" t="s">
         <v>30</v>
       </c>
       <c r="B404" s="13" t="s">
@@ -20486,12 +20553,12 @@
       <c r="F404" s="13">
         <v>200</v>
       </c>
-      <c r="G404" s="32" t="s">
+      <c r="G404" s="30" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A405" s="31" t="s">
+      <c r="A405" s="29" t="s">
         <v>30</v>
       </c>
       <c r="B405" s="13" t="s">
@@ -20509,12 +20576,12 @@
       <c r="F405" s="13">
         <v>200</v>
       </c>
-      <c r="G405" s="32" t="s">
+      <c r="G405" s="30" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A406" s="31" t="s">
+      <c r="A406" s="29" t="s">
         <v>30</v>
       </c>
       <c r="B406" s="13" t="s">
@@ -20532,12 +20599,12 @@
       <c r="F406" s="13">
         <v>200</v>
       </c>
-      <c r="G406" s="32" t="s">
+      <c r="G406" s="30" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A407" s="31" t="s">
+      <c r="A407" s="29" t="s">
         <v>30</v>
       </c>
       <c r="B407" s="13" t="s">
@@ -20555,12 +20622,12 @@
       <c r="F407" s="13">
         <v>200</v>
       </c>
-      <c r="G407" s="32" t="s">
+      <c r="G407" s="30" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A408" s="31" t="s">
+      <c r="A408" s="29" t="s">
         <v>30</v>
       </c>
       <c r="B408" s="13" t="s">
@@ -20578,12 +20645,12 @@
       <c r="F408" s="13">
         <v>200</v>
       </c>
-      <c r="G408" s="32" t="s">
+      <c r="G408" s="30" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A409" s="31" t="s">
+      <c r="A409" s="29" t="s">
         <v>30</v>
       </c>
       <c r="B409" s="13" t="s">
@@ -20601,12 +20668,12 @@
       <c r="F409" s="13">
         <v>200</v>
       </c>
-      <c r="G409" s="32" t="s">
+      <c r="G409" s="30" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A410" s="31" t="s">
+      <c r="A410" s="29" t="s">
         <v>30</v>
       </c>
       <c r="B410" s="13" t="s">
@@ -20624,12 +20691,12 @@
       <c r="F410" s="14">
         <v>0</v>
       </c>
-      <c r="G410" s="32" t="s">
+      <c r="G410" s="30" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A411" s="31" t="s">
+      <c r="A411" s="29" t="s">
         <v>30</v>
       </c>
       <c r="B411" s="13" t="s">
@@ -20647,12 +20714,12 @@
       <c r="F411" s="14">
         <v>0</v>
       </c>
-      <c r="G411" s="32" t="s">
+      <c r="G411" s="30" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A412" s="31" t="s">
+      <c r="A412" s="29" t="s">
         <v>30</v>
       </c>
       <c r="B412" s="13" t="s">
@@ -20670,12 +20737,12 @@
       <c r="F412" s="14">
         <v>0</v>
       </c>
-      <c r="G412" s="32" t="s">
+      <c r="G412" s="30" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A413" s="31" t="s">
+      <c r="A413" s="29" t="s">
         <v>30</v>
       </c>
       <c r="B413" s="13" t="s">
@@ -20693,12 +20760,12 @@
       <c r="F413" s="14">
         <v>0</v>
       </c>
-      <c r="G413" s="32" t="s">
+      <c r="G413" s="30" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A414" s="31" t="s">
+      <c r="A414" s="29" t="s">
         <v>30</v>
       </c>
       <c r="B414" s="13" t="s">
@@ -20716,12 +20783,12 @@
       <c r="F414" s="14">
         <v>0</v>
       </c>
-      <c r="G414" s="32" t="s">
+      <c r="G414" s="30" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A415" s="31" t="s">
+      <c r="A415" s="29" t="s">
         <v>30</v>
       </c>
       <c r="B415" s="13" t="s">
@@ -20739,12 +20806,12 @@
       <c r="F415" s="14">
         <v>0</v>
       </c>
-      <c r="G415" s="32" t="s">
+      <c r="G415" s="30" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A416" s="31" t="s">
+      <c r="A416" s="29" t="s">
         <v>30</v>
       </c>
       <c r="B416" s="13" t="s">
@@ -20762,12 +20829,12 @@
       <c r="F416" s="14">
         <v>0</v>
       </c>
-      <c r="G416" s="32" t="s">
+      <c r="G416" s="30" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A417" s="31" t="s">
+      <c r="A417" s="29" t="s">
         <v>30</v>
       </c>
       <c r="B417" s="13" t="s">
@@ -20785,12 +20852,12 @@
       <c r="F417" s="14">
         <v>0</v>
       </c>
-      <c r="G417" s="32" t="s">
+      <c r="G417" s="30" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A418" s="31" t="s">
+      <c r="A418" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B418" s="13" t="s">
@@ -20808,12 +20875,12 @@
       <c r="F418" s="13">
         <v>40</v>
       </c>
-      <c r="G418" s="32" t="s">
+      <c r="G418" s="30" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A419" s="31" t="s">
+      <c r="A419" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B419" s="13" t="s">
@@ -20831,12 +20898,12 @@
       <c r="F419" s="13">
         <v>40</v>
       </c>
-      <c r="G419" s="32" t="s">
+      <c r="G419" s="30" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A420" s="31" t="s">
+      <c r="A420" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B420" s="13" t="s">
@@ -20854,12 +20921,12 @@
       <c r="F420" s="13">
         <v>40</v>
       </c>
-      <c r="G420" s="32" t="s">
+      <c r="G420" s="30" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A421" s="31" t="s">
+      <c r="A421" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B421" s="13" t="s">
@@ -20877,12 +20944,12 @@
       <c r="F421" s="13">
         <v>40</v>
       </c>
-      <c r="G421" s="32" t="s">
+      <c r="G421" s="30" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A422" s="31" t="s">
+      <c r="A422" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B422" s="13" t="s">
@@ -20900,12 +20967,12 @@
       <c r="F422" s="13">
         <v>40</v>
       </c>
-      <c r="G422" s="32" t="s">
+      <c r="G422" s="30" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A423" s="31" t="s">
+      <c r="A423" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B423" s="13" t="s">
@@ -20923,12 +20990,12 @@
       <c r="F423" s="13">
         <v>40</v>
       </c>
-      <c r="G423" s="32" t="s">
+      <c r="G423" s="30" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A424" s="31" t="s">
+      <c r="A424" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B424" s="13" t="s">
@@ -20946,12 +21013,12 @@
       <c r="F424" s="13">
         <v>40</v>
       </c>
-      <c r="G424" s="32" t="s">
+      <c r="G424" s="30" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A425" s="31" t="s">
+      <c r="A425" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B425" s="13" t="s">
@@ -20969,12 +21036,12 @@
       <c r="F425" s="13">
         <v>40</v>
       </c>
-      <c r="G425" s="32" t="s">
+      <c r="G425" s="30" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A426" s="31" t="s">
+      <c r="A426" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B426" s="13" t="s">
@@ -20992,12 +21059,12 @@
       <c r="F426" s="13">
         <v>60</v>
       </c>
-      <c r="G426" s="32" t="s">
+      <c r="G426" s="30" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A427" s="31" t="s">
+      <c r="A427" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B427" s="13" t="s">
@@ -21015,12 +21082,12 @@
       <c r="F427" s="13">
         <v>60</v>
       </c>
-      <c r="G427" s="32" t="s">
+      <c r="G427" s="30" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A428" s="31" t="s">
+      <c r="A428" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B428" s="13" t="s">
@@ -21038,12 +21105,12 @@
       <c r="F428" s="13">
         <v>60</v>
       </c>
-      <c r="G428" s="32" t="s">
+      <c r="G428" s="30" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A429" s="31" t="s">
+      <c r="A429" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B429" s="13" t="s">
@@ -21061,12 +21128,12 @@
       <c r="F429" s="13">
         <v>60</v>
       </c>
-      <c r="G429" s="32" t="s">
+      <c r="G429" s="30" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A430" s="31" t="s">
+      <c r="A430" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B430" s="13" t="s">
@@ -21084,12 +21151,12 @@
       <c r="F430" s="13">
         <v>60</v>
       </c>
-      <c r="G430" s="32" t="s">
+      <c r="G430" s="30" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A431" s="31" t="s">
+      <c r="A431" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B431" s="13" t="s">
@@ -21107,12 +21174,12 @@
       <c r="F431" s="13">
         <v>60</v>
       </c>
-      <c r="G431" s="32" t="s">
+      <c r="G431" s="30" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A432" s="31" t="s">
+      <c r="A432" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B432" s="13" t="s">
@@ -21130,12 +21197,12 @@
       <c r="F432" s="13">
         <v>60</v>
       </c>
-      <c r="G432" s="32" t="s">
+      <c r="G432" s="30" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A433" s="31" t="s">
+      <c r="A433" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B433" s="13" t="s">
@@ -21153,12 +21220,12 @@
       <c r="F433" s="13">
         <v>60</v>
       </c>
-      <c r="G433" s="32" t="s">
+      <c r="G433" s="30" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A434" s="31" t="s">
+      <c r="A434" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B434" s="13" t="s">
@@ -21176,12 +21243,12 @@
       <c r="F434" s="13">
         <v>200</v>
       </c>
-      <c r="G434" s="32" t="s">
+      <c r="G434" s="30" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A435" s="31" t="s">
+      <c r="A435" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B435" s="13" t="s">
@@ -21199,12 +21266,12 @@
       <c r="F435" s="13">
         <v>200</v>
       </c>
-      <c r="G435" s="32" t="s">
+      <c r="G435" s="30" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A436" s="31" t="s">
+      <c r="A436" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B436" s="13" t="s">
@@ -21222,12 +21289,12 @@
       <c r="F436" s="13">
         <v>200</v>
       </c>
-      <c r="G436" s="32" t="s">
+      <c r="G436" s="30" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A437" s="31" t="s">
+      <c r="A437" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B437" s="13" t="s">
@@ -21245,12 +21312,12 @@
       <c r="F437" s="13">
         <v>200</v>
       </c>
-      <c r="G437" s="32" t="s">
+      <c r="G437" s="30" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A438" s="31" t="s">
+      <c r="A438" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B438" s="13" t="s">
@@ -21268,12 +21335,12 @@
       <c r="F438" s="13">
         <v>200</v>
       </c>
-      <c r="G438" s="32" t="s">
+      <c r="G438" s="30" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A439" s="31" t="s">
+      <c r="A439" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B439" s="13" t="s">
@@ -21291,12 +21358,12 @@
       <c r="F439" s="13">
         <v>200</v>
       </c>
-      <c r="G439" s="32" t="s">
+      <c r="G439" s="30" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A440" s="31" t="s">
+      <c r="A440" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B440" s="13" t="s">
@@ -21314,12 +21381,12 @@
       <c r="F440" s="13">
         <v>200</v>
       </c>
-      <c r="G440" s="32" t="s">
+      <c r="G440" s="30" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A441" s="31" t="s">
+      <c r="A441" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B441" s="13" t="s">
@@ -21337,12 +21404,12 @@
       <c r="F441" s="13">
         <v>200</v>
       </c>
-      <c r="G441" s="32" t="s">
+      <c r="G441" s="30" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A442" s="31" t="s">
+      <c r="A442" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B442" s="13" t="s">
@@ -21360,12 +21427,12 @@
       <c r="F442" s="14">
         <v>0</v>
       </c>
-      <c r="G442" s="32" t="s">
+      <c r="G442" s="30" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A443" s="31" t="s">
+      <c r="A443" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B443" s="13" t="s">
@@ -21383,12 +21450,12 @@
       <c r="F443" s="14">
         <v>0</v>
       </c>
-      <c r="G443" s="32" t="s">
+      <c r="G443" s="30" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A444" s="31" t="s">
+      <c r="A444" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B444" s="13" t="s">
@@ -21406,12 +21473,12 @@
       <c r="F444" s="14">
         <v>0</v>
       </c>
-      <c r="G444" s="32" t="s">
+      <c r="G444" s="30" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A445" s="31" t="s">
+      <c r="A445" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B445" s="13" t="s">
@@ -21429,12 +21496,12 @@
       <c r="F445" s="14">
         <v>0</v>
       </c>
-      <c r="G445" s="32" t="s">
+      <c r="G445" s="30" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A446" s="31" t="s">
+      <c r="A446" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B446" s="13" t="s">
@@ -21452,12 +21519,12 @@
       <c r="F446" s="14">
         <v>0</v>
       </c>
-      <c r="G446" s="32" t="s">
+      <c r="G446" s="30" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A447" s="31" t="s">
+      <c r="A447" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B447" s="13" t="s">
@@ -21475,12 +21542,12 @@
       <c r="F447" s="14">
         <v>0</v>
       </c>
-      <c r="G447" s="32" t="s">
+      <c r="G447" s="30" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A448" s="31" t="s">
+      <c r="A448" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B448" s="13" t="s">
@@ -21498,12 +21565,12 @@
       <c r="F448" s="14">
         <v>0</v>
       </c>
-      <c r="G448" s="32" t="s">
+      <c r="G448" s="30" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A449" s="31" t="s">
+      <c r="A449" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B449" s="13" t="s">
@@ -21521,12 +21588,12 @@
       <c r="F449" s="14">
         <v>0</v>
       </c>
-      <c r="G449" s="32" t="s">
+      <c r="G449" s="30" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A450" s="31" t="s">
+      <c r="A450" s="29" t="s">
         <v>32</v>
       </c>
       <c r="B450" s="13" t="s">
@@ -21544,12 +21611,12 @@
       <c r="F450" s="13">
         <v>40</v>
       </c>
-      <c r="G450" s="32" t="s">
+      <c r="G450" s="30" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A451" s="31" t="s">
+      <c r="A451" s="29" t="s">
         <v>32</v>
       </c>
       <c r="B451" s="13" t="s">
@@ -21567,12 +21634,12 @@
       <c r="F451" s="13">
         <v>40</v>
       </c>
-      <c r="G451" s="32" t="s">
+      <c r="G451" s="30" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A452" s="31" t="s">
+      <c r="A452" s="29" t="s">
         <v>32</v>
       </c>
       <c r="B452" s="13" t="s">
@@ -21590,12 +21657,12 @@
       <c r="F452" s="13">
         <v>40</v>
       </c>
-      <c r="G452" s="32" t="s">
+      <c r="G452" s="30" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A453" s="31" t="s">
+      <c r="A453" s="29" t="s">
         <v>32</v>
       </c>
       <c r="B453" s="13" t="s">
@@ -21613,12 +21680,12 @@
       <c r="F453" s="13">
         <v>40</v>
       </c>
-      <c r="G453" s="32" t="s">
+      <c r="G453" s="30" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A454" s="31" t="s">
+      <c r="A454" s="29" t="s">
         <v>32</v>
       </c>
       <c r="B454" s="13" t="s">
@@ -21636,12 +21703,12 @@
       <c r="F454" s="13">
         <v>40</v>
       </c>
-      <c r="G454" s="32" t="s">
+      <c r="G454" s="30" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A455" s="31" t="s">
+      <c r="A455" s="29" t="s">
         <v>32</v>
       </c>
       <c r="B455" s="13" t="s">
@@ -21659,12 +21726,12 @@
       <c r="F455" s="13">
         <v>40</v>
       </c>
-      <c r="G455" s="32" t="s">
+      <c r="G455" s="30" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A456" s="31" t="s">
+      <c r="A456" s="29" t="s">
         <v>32</v>
       </c>
       <c r="B456" s="13" t="s">
@@ -21682,12 +21749,12 @@
       <c r="F456" s="13">
         <v>40</v>
       </c>
-      <c r="G456" s="32" t="s">
+      <c r="G456" s="30" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A457" s="31" t="s">
+      <c r="A457" s="29" t="s">
         <v>32</v>
       </c>
       <c r="B457" s="13" t="s">
@@ -21705,12 +21772,12 @@
       <c r="F457" s="13">
         <v>40</v>
       </c>
-      <c r="G457" s="32" t="s">
+      <c r="G457" s="30" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A458" s="31" t="s">
+      <c r="A458" s="29" t="s">
         <v>32</v>
       </c>
       <c r="B458" s="13" t="s">
@@ -21728,12 +21795,12 @@
       <c r="F458" s="13">
         <v>60</v>
       </c>
-      <c r="G458" s="32" t="s">
+      <c r="G458" s="30" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A459" s="31" t="s">
+      <c r="A459" s="29" t="s">
         <v>32</v>
       </c>
       <c r="B459" s="13" t="s">
@@ -21751,12 +21818,12 @@
       <c r="F459" s="13">
         <v>60</v>
       </c>
-      <c r="G459" s="32" t="s">
+      <c r="G459" s="30" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A460" s="31" t="s">
+      <c r="A460" s="29" t="s">
         <v>32</v>
       </c>
       <c r="B460" s="13" t="s">
@@ -21774,12 +21841,12 @@
       <c r="F460" s="13">
         <v>60</v>
       </c>
-      <c r="G460" s="32" t="s">
+      <c r="G460" s="30" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A461" s="31" t="s">
+      <c r="A461" s="29" t="s">
         <v>32</v>
       </c>
       <c r="B461" s="13" t="s">
@@ -21797,12 +21864,12 @@
       <c r="F461" s="13">
         <v>60</v>
       </c>
-      <c r="G461" s="32" t="s">
+      <c r="G461" s="30" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A462" s="31" t="s">
+      <c r="A462" s="29" t="s">
         <v>32</v>
       </c>
       <c r="B462" s="13" t="s">
@@ -21820,12 +21887,12 @@
       <c r="F462" s="13">
         <v>60</v>
       </c>
-      <c r="G462" s="32" t="s">
+      <c r="G462" s="30" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A463" s="31" t="s">
+      <c r="A463" s="29" t="s">
         <v>32</v>
       </c>
       <c r="B463" s="13" t="s">
@@ -21843,12 +21910,12 @@
       <c r="F463" s="13">
         <v>60</v>
       </c>
-      <c r="G463" s="32" t="s">
+      <c r="G463" s="30" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A464" s="31" t="s">
+      <c r="A464" s="29" t="s">
         <v>32</v>
       </c>
       <c r="B464" s="13" t="s">
@@ -21866,12 +21933,12 @@
       <c r="F464" s="13">
         <v>60</v>
       </c>
-      <c r="G464" s="32" t="s">
+      <c r="G464" s="30" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A465" s="31" t="s">
+      <c r="A465" s="29" t="s">
         <v>32</v>
       </c>
       <c r="B465" s="13" t="s">
@@ -21889,12 +21956,12 @@
       <c r="F465" s="13">
         <v>60</v>
       </c>
-      <c r="G465" s="32" t="s">
+      <c r="G465" s="30" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A466" s="31" t="s">
+      <c r="A466" s="29" t="s">
         <v>32</v>
       </c>
       <c r="B466" s="13" t="s">
@@ -21912,12 +21979,12 @@
       <c r="F466" s="13">
         <v>200</v>
       </c>
-      <c r="G466" s="32" t="s">
+      <c r="G466" s="30" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A467" s="31" t="s">
+      <c r="A467" s="29" t="s">
         <v>32</v>
       </c>
       <c r="B467" s="13" t="s">
@@ -21935,12 +22002,12 @@
       <c r="F467" s="13">
         <v>200</v>
       </c>
-      <c r="G467" s="32" t="s">
+      <c r="G467" s="30" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A468" s="31" t="s">
+      <c r="A468" s="29" t="s">
         <v>32</v>
       </c>
       <c r="B468" s="13" t="s">
@@ -21958,12 +22025,12 @@
       <c r="F468" s="13">
         <v>200</v>
       </c>
-      <c r="G468" s="32" t="s">
+      <c r="G468" s="30" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A469" s="31" t="s">
+      <c r="A469" s="29" t="s">
         <v>32</v>
       </c>
       <c r="B469" s="13" t="s">
@@ -21981,12 +22048,12 @@
       <c r="F469" s="13">
         <v>200</v>
       </c>
-      <c r="G469" s="32" t="s">
+      <c r="G469" s="30" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A470" s="31" t="s">
+      <c r="A470" s="29" t="s">
         <v>32</v>
       </c>
       <c r="B470" s="13" t="s">
@@ -22004,12 +22071,12 @@
       <c r="F470" s="13">
         <v>200</v>
       </c>
-      <c r="G470" s="32" t="s">
+      <c r="G470" s="30" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A471" s="31" t="s">
+      <c r="A471" s="29" t="s">
         <v>32</v>
       </c>
       <c r="B471" s="13" t="s">
@@ -22027,12 +22094,12 @@
       <c r="F471" s="13">
         <v>200</v>
       </c>
-      <c r="G471" s="32" t="s">
+      <c r="G471" s="30" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A472" s="31" t="s">
+      <c r="A472" s="29" t="s">
         <v>32</v>
       </c>
       <c r="B472" s="13" t="s">
@@ -22050,12 +22117,12 @@
       <c r="F472" s="13">
         <v>200</v>
       </c>
-      <c r="G472" s="32" t="s">
+      <c r="G472" s="30" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A473" s="31" t="s">
+      <c r="A473" s="29" t="s">
         <v>32</v>
       </c>
       <c r="B473" s="13" t="s">
@@ -22073,12 +22140,12 @@
       <c r="F473" s="13">
         <v>200</v>
       </c>
-      <c r="G473" s="32" t="s">
+      <c r="G473" s="30" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A474" s="31" t="s">
+      <c r="A474" s="29" t="s">
         <v>32</v>
       </c>
       <c r="B474" s="13" t="s">
@@ -22096,12 +22163,12 @@
       <c r="F474" s="14">
         <v>0</v>
       </c>
-      <c r="G474" s="32" t="s">
+      <c r="G474" s="30" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A475" s="31" t="s">
+      <c r="A475" s="29" t="s">
         <v>32</v>
       </c>
       <c r="B475" s="13" t="s">
@@ -22119,12 +22186,12 @@
       <c r="F475" s="14">
         <v>0</v>
       </c>
-      <c r="G475" s="32" t="s">
+      <c r="G475" s="30" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A476" s="31" t="s">
+      <c r="A476" s="29" t="s">
         <v>32</v>
       </c>
       <c r="B476" s="13" t="s">
@@ -22142,12 +22209,12 @@
       <c r="F476" s="14">
         <v>0</v>
       </c>
-      <c r="G476" s="32" t="s">
+      <c r="G476" s="30" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A477" s="31" t="s">
+      <c r="A477" s="29" t="s">
         <v>32</v>
       </c>
       <c r="B477" s="13" t="s">
@@ -22165,12 +22232,12 @@
       <c r="F477" s="14">
         <v>0</v>
       </c>
-      <c r="G477" s="32" t="s">
+      <c r="G477" s="30" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A478" s="31" t="s">
+      <c r="A478" s="29" t="s">
         <v>32</v>
       </c>
       <c r="B478" s="13" t="s">
@@ -22188,12 +22255,12 @@
       <c r="F478" s="14">
         <v>0</v>
       </c>
-      <c r="G478" s="32" t="s">
+      <c r="G478" s="30" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A479" s="31" t="s">
+      <c r="A479" s="29" t="s">
         <v>32</v>
       </c>
       <c r="B479" s="13" t="s">
@@ -22211,12 +22278,12 @@
       <c r="F479" s="14">
         <v>0</v>
       </c>
-      <c r="G479" s="32" t="s">
+      <c r="G479" s="30" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A480" s="31" t="s">
+      <c r="A480" s="29" t="s">
         <v>32</v>
       </c>
       <c r="B480" s="13" t="s">
@@ -22234,12 +22301,12 @@
       <c r="F480" s="14">
         <v>0</v>
       </c>
-      <c r="G480" s="32" t="s">
+      <c r="G480" s="30" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A481" s="31" t="s">
+      <c r="A481" s="29" t="s">
         <v>32</v>
       </c>
       <c r="B481" s="13" t="s">
@@ -22257,55 +22324,55 @@
       <c r="F481" s="14">
         <v>0</v>
       </c>
-      <c r="G481" s="32" t="s">
+      <c r="G481" s="30" t="s">
         <v>672</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B33">
-    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:B65">
-    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66:B97">
-    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B98:B129">
-    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130:B161">
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162:B193">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B194:B225">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B226:B257">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B258:B289">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B290:B321">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B322:B353">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B354:B385">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B386:B417">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B418:B449">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B450:B481">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -23413,7 +23480,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A33">
-    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -24521,7 +24588,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A33">
-    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -25629,7 +25696,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A33">
-    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/vrp_results_tracker.xlsx
+++ b/vrp_results_tracker.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzzlib\PycharmProjects\wilib_vrp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdrex\PycharmProjects\wilib_vrp\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86CD803-F9B3-4A78-882B-D51742679FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="870" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="870" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="full_model_set" sheetId="8" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="solution_file_tracker" sheetId="11" r:id="rId8"/>
     <sheet name="map_file_tracker" sheetId="12" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4473" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4477" uniqueCount="690">
   <si>
     <t>shift</t>
   </si>
@@ -2116,7 +2117,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2288,10 +2289,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2788,21 +2789,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="1" customWidth="1"/>
-    <col min="2" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="19" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.54296875" style="1" customWidth="1"/>
+    <col min="2" max="4" width="15.54296875" customWidth="1"/>
+    <col min="5" max="19" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>109</v>
       </c>
@@ -2861,7 +2862,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>110</v>
       </c>
@@ -2880,7 +2881,7 @@
       <c r="K2" s="7"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>111</v>
       </c>
@@ -2899,7 +2900,7 @@
       <c r="K3" s="7"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>112</v>
       </c>
@@ -2918,7 +2919,7 @@
       <c r="K4" s="7"/>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>113</v>
       </c>
@@ -2937,7 +2938,7 @@
       <c r="K5" s="7"/>
       <c r="S5" s="7"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>114</v>
       </c>
@@ -2956,7 +2957,7 @@
       <c r="K6" s="7"/>
       <c r="S6" s="7"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>115</v>
       </c>
@@ -2975,7 +2976,7 @@
       <c r="K7" s="7"/>
       <c r="S7" s="7"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>116</v>
       </c>
@@ -2994,7 +2995,7 @@
       <c r="K8" s="7"/>
       <c r="S8" s="7"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>117</v>
       </c>
@@ -3013,7 +3014,7 @@
       <c r="K9" s="7"/>
       <c r="S9" s="7"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>118</v>
       </c>
@@ -3032,7 +3033,7 @@
       <c r="K10" s="7"/>
       <c r="S10" s="7"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>119</v>
       </c>
@@ -3051,7 +3052,7 @@
       <c r="K11" s="7"/>
       <c r="S11" s="7"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>120</v>
       </c>
@@ -3070,7 +3071,7 @@
       <c r="K12" s="7"/>
       <c r="S12" s="7"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>121</v>
       </c>
@@ -3089,7 +3090,7 @@
       <c r="K13" s="7"/>
       <c r="S13" s="7"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>122</v>
       </c>
@@ -3108,7 +3109,7 @@
       <c r="K14" s="7"/>
       <c r="S14" s="7"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>123</v>
       </c>
@@ -3127,7 +3128,7 @@
       <c r="K15" s="7"/>
       <c r="S15" s="7"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>124</v>
       </c>
@@ -3146,7 +3147,7 @@
       <c r="K16" s="7"/>
       <c r="S16" s="7"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>125</v>
       </c>
@@ -3165,7 +3166,7 @@
       <c r="K17" s="7"/>
       <c r="S17" s="7"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>126</v>
       </c>
@@ -3184,7 +3185,7 @@
       <c r="K18" s="7"/>
       <c r="S18" s="7"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>127</v>
       </c>
@@ -3203,7 +3204,7 @@
       <c r="K19" s="7"/>
       <c r="S19" s="7"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>128</v>
       </c>
@@ -3222,7 +3223,7 @@
       <c r="K20" s="7"/>
       <c r="S20" s="7"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>129</v>
       </c>
@@ -3241,7 +3242,7 @@
       <c r="K21" s="7"/>
       <c r="S21" s="7"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>130</v>
       </c>
@@ -3260,7 +3261,7 @@
       <c r="K22" s="7"/>
       <c r="S22" s="7"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>131</v>
       </c>
@@ -3279,7 +3280,7 @@
       <c r="K23" s="7"/>
       <c r="S23" s="7"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>132</v>
       </c>
@@ -3298,7 +3299,7 @@
       <c r="K24" s="7"/>
       <c r="S24" s="7"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>133</v>
       </c>
@@ -3317,7 +3318,7 @@
       <c r="K25" s="7"/>
       <c r="S25" s="7"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>134</v>
       </c>
@@ -3336,7 +3337,7 @@
       <c r="K26" s="7"/>
       <c r="S26" s="7"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>135</v>
       </c>
@@ -3355,7 +3356,7 @@
       <c r="K27" s="7"/>
       <c r="S27" s="7"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>136</v>
       </c>
@@ -3374,7 +3375,7 @@
       <c r="K28" s="7"/>
       <c r="S28" s="7"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>137</v>
       </c>
@@ -3393,7 +3394,7 @@
       <c r="K29" s="7"/>
       <c r="S29" s="7"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>138</v>
       </c>
@@ -3412,7 +3413,7 @@
       <c r="K30" s="7"/>
       <c r="S30" s="7"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>139</v>
       </c>
@@ -3431,7 +3432,7 @@
       <c r="K31" s="7"/>
       <c r="S31" s="7"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>140</v>
       </c>
@@ -3450,7 +3451,7 @@
       <c r="K32" s="7"/>
       <c r="S32" s="7"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>142</v>
       </c>
@@ -3469,7 +3470,7 @@
       <c r="K33" s="7"/>
       <c r="S33" s="7"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>143</v>
       </c>
@@ -3488,7 +3489,7 @@
       <c r="K34" s="7"/>
       <c r="S34" s="7"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>144</v>
       </c>
@@ -3507,7 +3508,7 @@
       <c r="K35" s="7"/>
       <c r="S35" s="7"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>145</v>
       </c>
@@ -3526,7 +3527,7 @@
       <c r="K36" s="7"/>
       <c r="S36" s="7"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>146</v>
       </c>
@@ -3545,7 +3546,7 @@
       <c r="K37" s="7"/>
       <c r="S37" s="7"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>147</v>
       </c>
@@ -3564,7 +3565,7 @@
       <c r="K38" s="7"/>
       <c r="S38" s="7"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>148</v>
       </c>
@@ -3583,7 +3584,7 @@
       <c r="K39" s="7"/>
       <c r="S39" s="7"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>149</v>
       </c>
@@ -3602,7 +3603,7 @@
       <c r="K40" s="7"/>
       <c r="S40" s="7"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>150</v>
       </c>
@@ -3621,7 +3622,7 @@
       <c r="K41" s="7"/>
       <c r="S41" s="7"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>151</v>
       </c>
@@ -3640,7 +3641,7 @@
       <c r="K42" s="7"/>
       <c r="S42" s="7"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>152</v>
       </c>
@@ -3659,7 +3660,7 @@
       <c r="K43" s="7"/>
       <c r="S43" s="7"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>153</v>
       </c>
@@ -3678,7 +3679,7 @@
       <c r="K44" s="7"/>
       <c r="S44" s="7"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>154</v>
       </c>
@@ -3697,7 +3698,7 @@
       <c r="K45" s="7"/>
       <c r="S45" s="7"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>155</v>
       </c>
@@ -3716,7 +3717,7 @@
       <c r="K46" s="7"/>
       <c r="S46" s="7"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>156</v>
       </c>
@@ -3735,7 +3736,7 @@
       <c r="K47" s="7"/>
       <c r="S47" s="7"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>157</v>
       </c>
@@ -3754,7 +3755,7 @@
       <c r="K48" s="7"/>
       <c r="S48" s="7"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>158</v>
       </c>
@@ -3773,7 +3774,7 @@
       <c r="K49" s="7"/>
       <c r="S49" s="7"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>159</v>
       </c>
@@ -3792,7 +3793,7 @@
       <c r="K50" s="7"/>
       <c r="S50" s="7"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>160</v>
       </c>
@@ -3823,7 +3824,7 @@
       <c r="R51" s="9"/>
       <c r="S51" s="26"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>100101</v>
       </c>
@@ -3852,7 +3853,7 @@
       <c r="R52" s="3"/>
       <c r="S52" s="4"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <v>100102</v>
       </c>
@@ -3869,7 +3870,7 @@
       <c r="K53" s="7"/>
       <c r="S53" s="7"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>100103</v>
       </c>
@@ -3886,7 +3887,7 @@
       <c r="K54" s="7"/>
       <c r="S54" s="7"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>100104</v>
       </c>
@@ -3903,7 +3904,7 @@
       <c r="K55" s="7"/>
       <c r="S55" s="7"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <v>100105</v>
       </c>
@@ -3920,7 +3921,7 @@
       <c r="K56" s="7"/>
       <c r="S56" s="7"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>100201</v>
       </c>
@@ -3937,7 +3938,7 @@
       <c r="K57" s="7"/>
       <c r="S57" s="7"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <v>100202</v>
       </c>
@@ -3954,7 +3955,7 @@
       <c r="K58" s="7"/>
       <c r="S58" s="7"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
         <v>100203</v>
       </c>
@@ -3971,7 +3972,7 @@
       <c r="K59" s="7"/>
       <c r="S59" s="7"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
         <v>100204</v>
       </c>
@@ -3988,7 +3989,7 @@
       <c r="K60" s="7"/>
       <c r="S60" s="7"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
         <v>100205</v>
       </c>
@@ -4005,7 +4006,7 @@
       <c r="K61" s="7"/>
       <c r="S61" s="7"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
         <v>100301</v>
       </c>
@@ -4022,7 +4023,7 @@
       <c r="K62" s="7"/>
       <c r="S62" s="7"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
         <v>100302</v>
       </c>
@@ -4039,7 +4040,7 @@
       <c r="K63" s="7"/>
       <c r="S63" s="7"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
         <v>100303</v>
       </c>
@@ -4056,7 +4057,7 @@
       <c r="K64" s="7"/>
       <c r="S64" s="7"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <v>100304</v>
       </c>
@@ -4073,7 +4074,7 @@
       <c r="K65" s="7"/>
       <c r="S65" s="7"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
         <v>100305</v>
       </c>
@@ -4090,7 +4091,7 @@
       <c r="K66" s="7"/>
       <c r="S66" s="7"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
         <v>100401</v>
       </c>
@@ -4107,7 +4108,7 @@
       <c r="K67" s="7"/>
       <c r="S67" s="7"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
         <v>100402</v>
       </c>
@@ -4124,7 +4125,7 @@
       <c r="K68" s="7"/>
       <c r="S68" s="7"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
         <v>100403</v>
       </c>
@@ -4141,7 +4142,7 @@
       <c r="K69" s="7"/>
       <c r="S69" s="7"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
         <v>100404</v>
       </c>
@@ -4158,7 +4159,7 @@
       <c r="K70" s="7"/>
       <c r="S70" s="7"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>100405</v>
       </c>
@@ -4175,7 +4176,7 @@
       <c r="K71" s="7"/>
       <c r="S71" s="7"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
         <v>100501</v>
       </c>
@@ -4192,7 +4193,7 @@
       <c r="K72" s="7"/>
       <c r="S72" s="7"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
         <v>100502</v>
       </c>
@@ -4209,7 +4210,7 @@
       <c r="K73" s="7"/>
       <c r="S73" s="7"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A74" s="5">
         <v>100503</v>
       </c>
@@ -4226,7 +4227,7 @@
       <c r="K74" s="7"/>
       <c r="S74" s="7"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A75" s="5">
         <v>100504</v>
       </c>
@@ -4243,7 +4244,7 @@
       <c r="K75" s="7"/>
       <c r="S75" s="7"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
         <v>100505</v>
       </c>
@@ -4260,7 +4261,7 @@
       <c r="K76" s="7"/>
       <c r="S76" s="7"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A77" s="5">
         <v>100601</v>
       </c>
@@ -4277,7 +4278,7 @@
       <c r="K77" s="7"/>
       <c r="S77" s="7"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A78" s="5">
         <v>100602</v>
       </c>
@@ -4294,7 +4295,7 @@
       <c r="K78" s="7"/>
       <c r="S78" s="7"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A79" s="5">
         <v>100603</v>
       </c>
@@ -4311,7 +4312,7 @@
       <c r="K79" s="7"/>
       <c r="S79" s="7"/>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A80" s="5">
         <v>100604</v>
       </c>
@@ -4328,7 +4329,7 @@
       <c r="K80" s="7"/>
       <c r="S80" s="7"/>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
         <v>100605</v>
       </c>
@@ -4345,7 +4346,7 @@
       <c r="K81" s="7"/>
       <c r="S81" s="7"/>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A82" s="5">
         <v>100701</v>
       </c>
@@ -4362,7 +4363,7 @@
       <c r="K82" s="7"/>
       <c r="S82" s="7"/>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A83" s="5">
         <v>100702</v>
       </c>
@@ -4379,7 +4380,7 @@
       <c r="K83" s="7"/>
       <c r="S83" s="7"/>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A84" s="5">
         <v>100703</v>
       </c>
@@ -4396,7 +4397,7 @@
       <c r="K84" s="7"/>
       <c r="S84" s="7"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A85" s="5">
         <v>100704</v>
       </c>
@@ -4413,7 +4414,7 @@
       <c r="K85" s="7"/>
       <c r="S85" s="7"/>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A86" s="5">
         <v>100705</v>
       </c>
@@ -4430,7 +4431,7 @@
       <c r="K86" s="7"/>
       <c r="S86" s="7"/>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>161</v>
       </c>
@@ -4447,7 +4448,7 @@
       <c r="K87" s="7"/>
       <c r="S87" s="7"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>162</v>
       </c>
@@ -4464,7 +4465,7 @@
       <c r="K88" s="7"/>
       <c r="S88" s="7"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>163</v>
       </c>
@@ -4481,7 +4482,7 @@
       <c r="K89" s="7"/>
       <c r="S89" s="7"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
         <v>164</v>
       </c>
@@ -4498,7 +4499,7 @@
       <c r="K90" s="7"/>
       <c r="S90" s="7"/>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
         <v>165</v>
       </c>
@@ -4515,7 +4516,7 @@
       <c r="K91" s="7"/>
       <c r="S91" s="7"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A92" s="5">
         <v>100901</v>
       </c>
@@ -4532,7 +4533,7 @@
       <c r="K92" s="7"/>
       <c r="S92" s="7"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A93" s="5">
         <v>100902</v>
       </c>
@@ -4549,7 +4550,7 @@
       <c r="K93" s="7"/>
       <c r="S93" s="7"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A94" s="5">
         <v>100903</v>
       </c>
@@ -4566,7 +4567,7 @@
       <c r="K94" s="7"/>
       <c r="S94" s="7"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A95" s="5">
         <v>100904</v>
       </c>
@@ -4583,7 +4584,7 @@
       <c r="K95" s="7"/>
       <c r="S95" s="7"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A96" s="5">
         <v>100905</v>
       </c>
@@ -4600,7 +4601,7 @@
       <c r="K96" s="7"/>
       <c r="S96" s="7"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
         <v>166</v>
       </c>
@@ -4617,7 +4618,7 @@
       <c r="K97" s="7"/>
       <c r="S97" s="7"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
         <v>167</v>
       </c>
@@ -4634,7 +4635,7 @@
       <c r="K98" s="7"/>
       <c r="S98" s="7"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
         <v>168</v>
       </c>
@@ -4651,7 +4652,7 @@
       <c r="K99" s="7"/>
       <c r="S99" s="7"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
         <v>169</v>
       </c>
@@ -4668,7 +4669,7 @@
       <c r="K100" s="7"/>
       <c r="S100" s="7"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A101" s="8" t="s">
         <v>170</v>
       </c>
@@ -4704,24 +4705,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="1" customWidth="1"/>
-    <col min="2" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="20" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.54296875" style="1" customWidth="1"/>
+    <col min="2" max="5" width="15.54296875" customWidth="1"/>
+    <col min="6" max="20" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>109</v>
       </c>
@@ -4786,7 +4787,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>119</v>
       </c>
@@ -4851,7 +4852,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>129</v>
       </c>
@@ -4916,7 +4917,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>134</v>
       </c>
@@ -4981,7 +4982,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>160</v>
       </c>
@@ -5046,7 +5047,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>100205</v>
       </c>
@@ -5111,7 +5112,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>100405</v>
       </c>
@@ -5176,7 +5177,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>100505</v>
       </c>
@@ -5241,7 +5242,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>170</v>
       </c>
@@ -5306,7 +5307,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>119</v>
       </c>
@@ -5371,7 +5372,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>129</v>
       </c>
@@ -5436,7 +5437,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>134</v>
       </c>
@@ -5501,7 +5502,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>160</v>
       </c>
@@ -5566,7 +5567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>100205</v>
       </c>
@@ -5631,7 +5632,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>100405</v>
       </c>
@@ -5696,7 +5697,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>100505</v>
       </c>
@@ -5761,7 +5762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>170</v>
       </c>
@@ -5826,7 +5827,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>119</v>
       </c>
@@ -5891,7 +5892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>129</v>
       </c>
@@ -5956,7 +5957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>134</v>
       </c>
@@ -6021,7 +6022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>160</v>
       </c>
@@ -6086,7 +6087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>100205</v>
       </c>
@@ -6151,7 +6152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>100405</v>
       </c>
@@ -6216,7 +6217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>100505</v>
       </c>
@@ -6281,7 +6282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>170</v>
       </c>
@@ -6353,24 +6354,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="1" customWidth="1"/>
-    <col min="2" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="19" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.54296875" style="1" customWidth="1"/>
+    <col min="2" max="4" width="15.54296875" customWidth="1"/>
+    <col min="5" max="19" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>109</v>
       </c>
@@ -6429,7 +6430,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>119</v>
       </c>
@@ -6488,7 +6489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>129</v>
       </c>
@@ -6547,7 +6548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>134</v>
       </c>
@@ -6606,7 +6607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>160</v>
       </c>
@@ -6665,7 +6666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>100205</v>
       </c>
@@ -6724,7 +6725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>100405</v>
       </c>
@@ -6783,7 +6784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>100505</v>
       </c>
@@ -6842,7 +6843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>170</v>
       </c>
@@ -6908,62 +6909,62 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G46" sqref="G46:G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="I1" s="36" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="I1" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B2" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36" t="s">
+      <c r="E2" s="35"/>
+      <c r="F2" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="J2" s="36" t="s">
+      <c r="G2" s="35"/>
+      <c r="J2" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36" t="s">
+      <c r="K2" s="35"/>
+      <c r="L2" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36" t="s">
+      <c r="M2" s="35"/>
+      <c r="N2" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="O2" s="36"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O2" s="35"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>94</v>
       </c>
@@ -7001,7 +7002,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -7048,7 +7049,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -7096,7 +7097,7 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -7144,7 +7145,7 @@
         <v>2558</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>33</v>
       </c>
@@ -7192,53 +7193,53 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="I8" s="36" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="I8" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="36" t="s">
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B9" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36" t="s">
+      <c r="C9" s="35"/>
+      <c r="D9" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36" t="s">
+      <c r="E9" s="35"/>
+      <c r="F9" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="36"/>
-      <c r="J9" s="36" t="s">
+      <c r="G9" s="35"/>
+      <c r="J9" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36" t="s">
+      <c r="K9" s="35"/>
+      <c r="L9" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36" t="s">
+      <c r="M9" s="35"/>
+      <c r="N9" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="O9" s="36"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O9" s="35"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>94</v>
       </c>
@@ -7276,7 +7277,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -7323,7 +7324,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -7371,7 +7372,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -7419,7 +7420,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>33</v>
       </c>
@@ -7467,53 +7468,53 @@
         <v>2065</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="I15" s="36" t="s">
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="I15" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="36" t="s">
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B16" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36" t="s">
+      <c r="C16" s="35"/>
+      <c r="D16" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36" t="s">
+      <c r="E16" s="35"/>
+      <c r="F16" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="G16" s="36"/>
-      <c r="J16" s="36" t="s">
+      <c r="G16" s="35"/>
+      <c r="J16" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36" t="s">
+      <c r="K16" s="35"/>
+      <c r="L16" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36" t="s">
+      <c r="M16" s="35"/>
+      <c r="N16" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="O16" s="36"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O16" s="35"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>94</v>
       </c>
@@ -7551,7 +7552,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -7598,7 +7599,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -7646,7 +7647,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -7694,7 +7695,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>33</v>
       </c>
@@ -7742,53 +7743,53 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A22" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="I22" s="36" t="s">
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="I22" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="36" t="s">
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B23" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36" t="s">
+      <c r="C23" s="35"/>
+      <c r="D23" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36" t="s">
+      <c r="E23" s="35"/>
+      <c r="F23" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="G23" s="36"/>
-      <c r="J23" s="36" t="s">
+      <c r="G23" s="35"/>
+      <c r="J23" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36" t="s">
+      <c r="K23" s="35"/>
+      <c r="L23" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36" t="s">
+      <c r="M23" s="35"/>
+      <c r="N23" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="O23" s="36"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O23" s="35"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>94</v>
       </c>
@@ -7826,7 +7827,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -7874,7 +7875,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -7922,7 +7923,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -7970,7 +7971,7 @@
         <v>2561</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>33</v>
       </c>
@@ -8018,53 +8019,53 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A29" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="I29" s="36" t="s">
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="I29" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="36" t="s">
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B30" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36" t="s">
+      <c r="C30" s="35"/>
+      <c r="D30" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36" t="s">
+      <c r="E30" s="35"/>
+      <c r="F30" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="G30" s="36"/>
-      <c r="J30" s="36" t="s">
+      <c r="G30" s="35"/>
+      <c r="J30" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36" t="s">
+      <c r="K30" s="35"/>
+      <c r="L30" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36" t="s">
+      <c r="M30" s="35"/>
+      <c r="N30" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="O30" s="36"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O30" s="35"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>94</v>
       </c>
@@ -8102,7 +8103,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -8150,7 +8151,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -8198,7 +8199,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -8246,7 +8247,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>33</v>
       </c>
@@ -8294,53 +8295,53 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="36" t="s">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A36" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="I36" s="36" t="s">
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="I36" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="36"/>
-      <c r="O36" s="36"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="36" t="s">
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B37" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36" t="s">
+      <c r="C37" s="35"/>
+      <c r="D37" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36" t="s">
+      <c r="E37" s="35"/>
+      <c r="F37" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="G37" s="36"/>
-      <c r="J37" s="36" t="s">
+      <c r="G37" s="35"/>
+      <c r="J37" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36" t="s">
+      <c r="K37" s="35"/>
+      <c r="L37" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36" t="s">
+      <c r="M37" s="35"/>
+      <c r="N37" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="O37" s="36"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O37" s="35"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>94</v>
       </c>
@@ -8378,7 +8379,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -8426,7 +8427,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -8474,7 +8475,7 @@
         <v>3089</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -8522,7 +8523,7 @@
         <v>2768</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>33</v>
       </c>
@@ -8570,53 +8571,53 @@
         <v>2711</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="36" t="s">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A43" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="I43" s="36" t="s">
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="I43" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="J43" s="36"/>
-      <c r="K43" s="36"/>
-      <c r="L43" s="36"/>
-      <c r="M43" s="36"/>
-      <c r="N43" s="36"/>
-      <c r="O43" s="36"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="36" t="s">
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="35"/>
+      <c r="N43" s="35"/>
+      <c r="O43" s="35"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B44" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36" t="s">
+      <c r="C44" s="35"/>
+      <c r="D44" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36" t="s">
+      <c r="E44" s="35"/>
+      <c r="F44" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="G44" s="36"/>
-      <c r="J44" s="36" t="s">
+      <c r="G44" s="35"/>
+      <c r="J44" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="K44" s="36"/>
-      <c r="L44" s="36" t="s">
+      <c r="K44" s="35"/>
+      <c r="L44" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="M44" s="36"/>
-      <c r="N44" s="36" t="s">
+      <c r="M44" s="35"/>
+      <c r="N44" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="O44" s="36"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O44" s="35"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>94</v>
       </c>
@@ -8654,7 +8655,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -8702,7 +8703,7 @@
         <v>3692</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -8750,7 +8751,7 @@
         <v>4020</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -8799,7 +8800,7 @@
         <v>3814</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
         <v>33</v>
       </c>
@@ -8847,44 +8848,44 @@
         <v>3675</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="35"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="I50" s="36" t="s">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A50" s="36"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="I50" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="J50" s="36"/>
-      <c r="K50" s="36"/>
-      <c r="L50" s="36"/>
-      <c r="M50" s="36"/>
-      <c r="N50" s="36"/>
-      <c r="O50" s="36"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B51" s="36"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
-      <c r="J51" s="36" t="s">
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="35"/>
+      <c r="N50" s="35"/>
+      <c r="O50" s="35"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="J51" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="K51" s="36"/>
-      <c r="L51" s="36" t="s">
+      <c r="K51" s="35"/>
+      <c r="L51" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="M51" s="36"/>
-      <c r="N51" s="36" t="s">
+      <c r="M51" s="35"/>
+      <c r="N51" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="O51" s="36"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O51" s="35"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="J52" t="s">
         <v>94</v>
       </c>
@@ -8904,7 +8905,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="I53" t="s">
         <v>8</v>
       </c>
@@ -8929,7 +8930,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="I54" t="s">
         <v>10</v>
       </c>
@@ -8954,7 +8955,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="I55" t="s">
         <v>11</v>
       </c>
@@ -8979,7 +8980,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -9013,6 +9014,62 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="I50:O50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="I43:O43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="I36:O36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="I29:O29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="I22:O22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="I15:O15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="I8:O8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="I1:O1"/>
     <mergeCell ref="B2:C2"/>
@@ -9021,62 +9078,6 @@
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="I8:O8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="I15:O15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="I22:O22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="I29:O29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="I36:O36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="I43:O43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="I50:O50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="N51:O51"/>
   </mergeCells>
   <conditionalFormatting sqref="L32:L35">
     <cfRule type="colorScale" priority="60">
@@ -9804,21 +9805,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="3" width="15.54296875" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -9832,7 +9833,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>39</v>
       </c>
@@ -9846,7 +9847,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>40</v>
       </c>
@@ -9860,7 +9861,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>41</v>
       </c>
@@ -9874,7 +9875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>42</v>
       </c>
@@ -9888,7 +9889,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>43</v>
       </c>
@@ -9902,7 +9903,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>44</v>
       </c>
@@ -9916,7 +9917,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>45</v>
       </c>
@@ -9930,7 +9931,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>46</v>
       </c>
@@ -9944,7 +9945,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>47</v>
       </c>
@@ -9958,7 +9959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>48</v>
       </c>
@@ -9972,7 +9973,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>49</v>
       </c>
@@ -9983,7 +9984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>50</v>
       </c>
@@ -9994,7 +9995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>51</v>
       </c>
@@ -10005,7 +10006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>52</v>
       </c>
@@ -10016,7 +10017,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>53</v>
       </c>
@@ -10027,7 +10028,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>54</v>
       </c>
@@ -10041,7 +10042,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>55</v>
       </c>
@@ -10055,7 +10056,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>56</v>
       </c>
@@ -10069,7 +10070,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>57</v>
       </c>
@@ -10083,7 +10084,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>58</v>
       </c>
@@ -10097,7 +10098,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>59</v>
       </c>
@@ -10111,7 +10112,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>60</v>
       </c>
@@ -10125,7 +10126,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>61</v>
       </c>
@@ -10139,7 +10140,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>62</v>
       </c>
@@ -10153,7 +10154,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>63</v>
       </c>
@@ -10167,7 +10168,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>64</v>
       </c>
@@ -10181,7 +10182,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>65</v>
       </c>
@@ -10195,7 +10196,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>66</v>
       </c>
@@ -10209,7 +10210,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>67</v>
       </c>
@@ -10223,7 +10224,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>68</v>
       </c>
@@ -10237,7 +10238,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>69</v>
       </c>
@@ -10251,7 +10252,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>70</v>
       </c>
@@ -10265,7 +10266,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>71</v>
       </c>
@@ -10279,7 +10280,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>72</v>
       </c>
@@ -10293,7 +10294,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>73</v>
       </c>
@@ -10307,7 +10308,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>74</v>
       </c>
@@ -10321,7 +10322,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>75</v>
       </c>
@@ -10335,7 +10336,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>76</v>
       </c>
@@ -10349,7 +10350,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>77</v>
       </c>
@@ -10363,7 +10364,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>78</v>
       </c>
@@ -10377,7 +10378,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>79</v>
       </c>
@@ -10391,7 +10392,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>80</v>
       </c>
@@ -10405,7 +10406,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>81</v>
       </c>
@@ -10419,7 +10420,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>82</v>
       </c>
@@ -10433,7 +10434,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>83</v>
       </c>
@@ -10447,7 +10448,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>84</v>
       </c>
@@ -10461,7 +10462,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>85</v>
       </c>
@@ -10475,7 +10476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>86</v>
       </c>
@@ -10489,7 +10490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>87</v>
       </c>
@@ -10503,7 +10504,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>88</v>
       </c>
@@ -10524,31 +10525,31 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:T481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" style="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="30" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" customWidth="1"/>
+    <col min="5" max="5" width="19.7265625" customWidth="1"/>
+    <col min="6" max="6" width="17.1796875" customWidth="1"/>
+    <col min="7" max="7" width="17.54296875" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" style="30" customWidth="1"/>
     <col min="9" max="9" width="11" style="30" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="30" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" style="30" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" style="30" customWidth="1"/>
-    <col min="13" max="20" width="9.140625" style="30"/>
+    <col min="10" max="10" width="11.7265625" style="30" customWidth="1"/>
+    <col min="11" max="11" width="12.26953125" style="30" customWidth="1"/>
+    <col min="12" max="12" width="11.1796875" style="30" customWidth="1"/>
+    <col min="13" max="20" width="9.1796875" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
         <v>203</v>
       </c>
@@ -10594,7 +10595,7 @@
       <c r="S1" s="34"/>
       <c r="T1" s="34"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>18</v>
       </c>
@@ -10640,7 +10641,7 @@
       <c r="S2" s="32"/>
       <c r="T2" s="31"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -10686,7 +10687,7 @@
       <c r="S3" s="31"/>
       <c r="T3" s="31"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
@@ -10732,7 +10733,7 @@
       <c r="S4" s="32"/>
       <c r="T4" s="31"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
@@ -10778,7 +10779,7 @@
       <c r="S5" s="31"/>
       <c r="T5" s="31"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>18</v>
       </c>
@@ -10824,7 +10825,7 @@
       <c r="S6" s="32"/>
       <c r="T6" s="31"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
@@ -10870,7 +10871,7 @@
       <c r="S7" s="32"/>
       <c r="T7" s="31"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
@@ -10916,7 +10917,7 @@
       <c r="S8" s="32"/>
       <c r="T8" s="31"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
@@ -10962,7 +10963,7 @@
       <c r="S9" s="31"/>
       <c r="T9" s="31"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
@@ -11006,7 +11007,7 @@
       <c r="S10" s="31"/>
       <c r="T10" s="31"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
@@ -11050,7 +11051,7 @@
       <c r="S11" s="32"/>
       <c r="T11" s="31"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>18</v>
       </c>
@@ -11094,7 +11095,7 @@
       <c r="S12" s="32"/>
       <c r="T12" s="31"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
@@ -11138,7 +11139,7 @@
       <c r="S13" s="31"/>
       <c r="T13" s="31"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>18</v>
       </c>
@@ -11184,7 +11185,7 @@
       <c r="S14" s="31"/>
       <c r="T14" s="31"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>18</v>
       </c>
@@ -11228,7 +11229,7 @@
       <c r="S15" s="32"/>
       <c r="T15" s="31"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
@@ -11272,7 +11273,7 @@
       <c r="S16" s="32"/>
       <c r="T16" s="31"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>18</v>
       </c>
@@ -11316,7 +11317,7 @@
       <c r="S17" s="31"/>
       <c r="T17" s="31"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
@@ -11360,7 +11361,7 @@
       <c r="S18" s="32"/>
       <c r="T18" s="32"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
@@ -11404,7 +11405,7 @@
       <c r="S19" s="32"/>
       <c r="T19" s="32"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
@@ -11448,7 +11449,7 @@
       <c r="S20" s="32"/>
       <c r="T20" s="32"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>18</v>
       </c>
@@ -11492,7 +11493,7 @@
       <c r="S21" s="32"/>
       <c r="T21" s="32"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>18</v>
       </c>
@@ -11538,7 +11539,7 @@
       <c r="S22" s="32"/>
       <c r="T22" s="32"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>18</v>
       </c>
@@ -11582,7 +11583,7 @@
       <c r="S23" s="32"/>
       <c r="T23" s="32"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>18</v>
       </c>
@@ -11626,7 +11627,7 @@
       <c r="S24" s="32"/>
       <c r="T24" s="32"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>18</v>
       </c>
@@ -11670,7 +11671,7 @@
       <c r="S25" s="32"/>
       <c r="T25" s="32"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>18</v>
       </c>
@@ -11714,7 +11715,7 @@
       <c r="S26" s="32"/>
       <c r="T26" s="31"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>18</v>
       </c>
@@ -11758,7 +11759,7 @@
       <c r="S27" s="32"/>
       <c r="T27" s="31"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>18</v>
       </c>
@@ -11802,7 +11803,7 @@
       <c r="S28" s="32"/>
       <c r="T28" s="31"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>18</v>
       </c>
@@ -11846,7 +11847,7 @@
       <c r="S29" s="31"/>
       <c r="T29" s="31"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>18</v>
       </c>
@@ -11892,7 +11893,7 @@
       <c r="S30" s="32"/>
       <c r="T30" s="31"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>18</v>
       </c>
@@ -11936,7 +11937,7 @@
       <c r="S31" s="32"/>
       <c r="T31" s="31"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>18</v>
       </c>
@@ -11980,7 +11981,7 @@
       <c r="S32" s="32"/>
       <c r="T32" s="31"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>18</v>
       </c>
@@ -12024,7 +12025,7 @@
       <c r="S33" s="31"/>
       <c r="T33" s="31"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34" s="29" t="s">
         <v>19</v>
       </c>
@@ -12046,8 +12047,17 @@
       <c r="G34" s="30" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H34" s="32">
+        <v>10</v>
+      </c>
+      <c r="I34" s="32">
+        <v>3604</v>
+      </c>
+      <c r="J34" s="32">
+        <v>2084.15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35" s="29" t="s">
         <v>19</v>
       </c>
@@ -12069,8 +12079,17 @@
       <c r="G35" s="30" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H35" s="32">
+        <v>10</v>
+      </c>
+      <c r="I35" s="32">
+        <v>3493</v>
+      </c>
+      <c r="J35" s="32">
+        <v>1955.08</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36" s="29" t="s">
         <v>19</v>
       </c>
@@ -12092,8 +12111,17 @@
       <c r="G36" s="30" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H36" s="32">
+        <v>11</v>
+      </c>
+      <c r="I36" s="32">
+        <v>3581</v>
+      </c>
+      <c r="J36" s="32">
+        <v>2106.13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37" s="29" t="s">
         <v>19</v>
       </c>
@@ -12115,8 +12143,17 @@
       <c r="G37" s="30" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H37" s="32">
+        <v>11</v>
+      </c>
+      <c r="I37" s="32">
+        <v>3429</v>
+      </c>
+      <c r="J37" s="32">
+        <v>2083.9699999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38" s="29" t="s">
         <v>19</v>
       </c>
@@ -12138,8 +12175,20 @@
       <c r="G38" s="30" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H38" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="I38" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="J38" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="L38" s="30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39" s="29" t="s">
         <v>19</v>
       </c>
@@ -12161,8 +12210,17 @@
       <c r="G39" s="30" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H39" s="30">
+        <v>10</v>
+      </c>
+      <c r="I39" s="30">
+        <v>3564</v>
+      </c>
+      <c r="J39" s="30">
+        <v>2023.52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40" s="29" t="s">
         <v>19</v>
       </c>
@@ -12184,8 +12242,17 @@
       <c r="G40" s="30" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H40" s="30">
+        <v>10</v>
+      </c>
+      <c r="I40" s="30">
+        <v>3247</v>
+      </c>
+      <c r="J40" s="30">
+        <v>1842.37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41" s="29" t="s">
         <v>19</v>
       </c>
@@ -12207,8 +12274,17 @@
       <c r="G41" s="30" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H41" s="30">
+        <v>10</v>
+      </c>
+      <c r="I41" s="30">
+        <v>3549</v>
+      </c>
+      <c r="J41" s="30">
+        <v>2032.15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42" s="29" t="s">
         <v>19</v>
       </c>
@@ -12230,8 +12306,17 @@
       <c r="G42" s="30" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H42" s="30">
+        <v>7</v>
+      </c>
+      <c r="I42" s="30">
+        <v>2904</v>
+      </c>
+      <c r="J42" s="30">
+        <v>1525.86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43" s="29" t="s">
         <v>19</v>
       </c>
@@ -12253,8 +12338,17 @@
       <c r="G43" s="30" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H43" s="30">
+        <v>8</v>
+      </c>
+      <c r="I43" s="30">
+        <v>3210</v>
+      </c>
+      <c r="J43" s="30">
+        <v>1752.01</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44" s="29" t="s">
         <v>19</v>
       </c>
@@ -12276,8 +12370,17 @@
       <c r="G44" s="30" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H44" s="30">
+        <v>9</v>
+      </c>
+      <c r="I44" s="30">
+        <v>3173</v>
+      </c>
+      <c r="J44" s="30">
+        <v>1690.28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A45" s="29" t="s">
         <v>19</v>
       </c>
@@ -12299,8 +12402,17 @@
       <c r="G45" s="30" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H45" s="30">
+        <v>8</v>
+      </c>
+      <c r="I45" s="30">
+        <v>3154</v>
+      </c>
+      <c r="J45" s="30">
+        <v>1683.56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46" s="29" t="s">
         <v>19</v>
       </c>
@@ -12322,8 +12434,17 @@
       <c r="G46" s="30" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H46" s="30">
+        <v>6</v>
+      </c>
+      <c r="I46" s="30">
+        <v>2977</v>
+      </c>
+      <c r="J46" s="30">
+        <v>1569.43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A47" s="29" t="s">
         <v>19</v>
       </c>
@@ -12345,8 +12466,17 @@
       <c r="G47" s="30" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H47" s="30">
+        <v>6</v>
+      </c>
+      <c r="I47" s="30">
+        <v>2890</v>
+      </c>
+      <c r="J47" s="30">
+        <v>1501.44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A48" s="29" t="s">
         <v>19</v>
       </c>
@@ -12368,8 +12498,17 @@
       <c r="G48" s="30" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" s="30">
+        <v>7</v>
+      </c>
+      <c r="I48" s="30">
+        <v>3017</v>
+      </c>
+      <c r="J48" s="30">
+        <v>1594.69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="29" t="s">
         <v>19</v>
       </c>
@@ -12391,8 +12530,17 @@
       <c r="G49" s="30" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" s="30">
+        <v>6</v>
+      </c>
+      <c r="I49" s="30">
+        <v>2846</v>
+      </c>
+      <c r="J49" s="30">
+        <v>1493.35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="29" t="s">
         <v>19</v>
       </c>
@@ -12414,8 +12562,17 @@
       <c r="G50" s="30" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" s="30">
+        <v>7</v>
+      </c>
+      <c r="I50" s="30">
+        <v>2809</v>
+      </c>
+      <c r="J50" s="30">
+        <v>1479.11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="29" t="s">
         <v>19</v>
       </c>
@@ -12437,8 +12594,17 @@
       <c r="G51" s="30" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" s="30">
+        <v>7</v>
+      </c>
+      <c r="I51" s="30">
+        <v>2987</v>
+      </c>
+      <c r="J51" s="30">
+        <v>1552.52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="29" t="s">
         <v>19</v>
       </c>
@@ -12460,8 +12626,17 @@
       <c r="G52" s="30" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" s="30">
+        <v>8</v>
+      </c>
+      <c r="I52" s="30">
+        <v>3365</v>
+      </c>
+      <c r="J52" s="30">
+        <v>1835.07</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="29" t="s">
         <v>19</v>
       </c>
@@ -12483,8 +12658,17 @@
       <c r="G53" s="30" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" s="30">
+        <v>8</v>
+      </c>
+      <c r="I53" s="30">
+        <v>3195</v>
+      </c>
+      <c r="J53" s="30">
+        <v>1717.42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="29" t="s">
         <v>19</v>
       </c>
@@ -12506,8 +12690,17 @@
       <c r="G54" s="30" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" s="30">
+        <v>5</v>
+      </c>
+      <c r="I54" s="30">
+        <v>2749</v>
+      </c>
+      <c r="J54" s="30">
+        <v>1410.65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="29" t="s">
         <v>19</v>
       </c>
@@ -12529,8 +12722,17 @@
       <c r="G55" s="30" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55" s="30">
+        <v>6</v>
+      </c>
+      <c r="I55" s="30">
+        <v>2875</v>
+      </c>
+      <c r="J55" s="30">
+        <v>1522.64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="29" t="s">
         <v>19</v>
       </c>
@@ -12552,8 +12754,17 @@
       <c r="G56" s="30" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56" s="30">
+        <v>6</v>
+      </c>
+      <c r="I56" s="30">
+        <v>2952</v>
+      </c>
+      <c r="J56" s="30">
+        <v>1558.32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="29" t="s">
         <v>19</v>
       </c>
@@ -12575,8 +12786,17 @@
       <c r="G57" s="30" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57" s="30">
+        <v>6</v>
+      </c>
+      <c r="I57" s="30">
+        <v>2871</v>
+      </c>
+      <c r="J57" s="30">
+        <v>1496.98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="29" t="s">
         <v>19</v>
       </c>
@@ -12598,8 +12818,17 @@
       <c r="G58" s="30" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58" s="30">
+        <v>7</v>
+      </c>
+      <c r="I58" s="30">
+        <v>2809</v>
+      </c>
+      <c r="J58" s="30">
+        <v>1479.11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="29" t="s">
         <v>19</v>
       </c>
@@ -12621,8 +12850,17 @@
       <c r="G59" s="30" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59" s="30">
+        <v>7</v>
+      </c>
+      <c r="I59" s="30">
+        <v>2987</v>
+      </c>
+      <c r="J59" s="30">
+        <v>1552.52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="29" t="s">
         <v>19</v>
       </c>
@@ -12644,8 +12882,17 @@
       <c r="G60" s="30" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60" s="30">
+        <v>8</v>
+      </c>
+      <c r="I60" s="30">
+        <v>3365</v>
+      </c>
+      <c r="J60" s="30">
+        <v>1835.07</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="29" t="s">
         <v>19</v>
       </c>
@@ -12667,8 +12914,17 @@
       <c r="G61" s="30" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61" s="30">
+        <v>8</v>
+      </c>
+      <c r="I61" s="30">
+        <v>3195</v>
+      </c>
+      <c r="J61" s="30">
+        <v>1717.42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="29" t="s">
         <v>19</v>
       </c>
@@ -12690,8 +12946,17 @@
       <c r="G62" s="30" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62" s="30">
+        <v>5</v>
+      </c>
+      <c r="I62" s="30">
+        <v>2749</v>
+      </c>
+      <c r="J62" s="30">
+        <v>1410.65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="29" t="s">
         <v>19</v>
       </c>
@@ -12713,8 +12978,17 @@
       <c r="G63" s="30" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63" s="30">
+        <v>6</v>
+      </c>
+      <c r="I63" s="30">
+        <v>2875</v>
+      </c>
+      <c r="J63" s="30">
+        <v>1522.64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="29" t="s">
         <v>19</v>
       </c>
@@ -12736,8 +13010,17 @@
       <c r="G64" s="30" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" s="30">
+        <v>6</v>
+      </c>
+      <c r="I64" s="30">
+        <v>2952</v>
+      </c>
+      <c r="J64" s="30">
+        <v>1558.32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="29" t="s">
         <v>19</v>
       </c>
@@ -12759,8 +13042,17 @@
       <c r="G65" s="30" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65" s="30">
+        <v>6</v>
+      </c>
+      <c r="I65" s="30">
+        <v>2871</v>
+      </c>
+      <c r="J65" s="30">
+        <v>1496.98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="29" t="s">
         <v>20</v>
       </c>
@@ -12783,7 +13075,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="29" t="s">
         <v>20</v>
       </c>
@@ -12806,7 +13098,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="29" t="s">
         <v>20</v>
       </c>
@@ -12829,7 +13121,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="29" t="s">
         <v>20</v>
       </c>
@@ -12852,7 +13144,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="29" t="s">
         <v>20</v>
       </c>
@@ -12875,7 +13167,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="29" t="s">
         <v>20</v>
       </c>
@@ -12898,7 +13190,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="29" t="s">
         <v>20</v>
       </c>
@@ -12921,7 +13213,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="29" t="s">
         <v>20</v>
       </c>
@@ -12944,7 +13236,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="29" t="s">
         <v>20</v>
       </c>
@@ -12967,7 +13259,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="29" t="s">
         <v>20</v>
       </c>
@@ -12990,7 +13282,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="29" t="s">
         <v>20</v>
       </c>
@@ -13013,7 +13305,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="29" t="s">
         <v>20</v>
       </c>
@@ -13036,7 +13328,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="29" t="s">
         <v>20</v>
       </c>
@@ -13059,7 +13351,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="29" t="s">
         <v>20</v>
       </c>
@@ -13082,7 +13374,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="29" t="s">
         <v>20</v>
       </c>
@@ -13105,7 +13397,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="29" t="s">
         <v>20</v>
       </c>
@@ -13128,7 +13420,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="29" t="s">
         <v>20</v>
       </c>
@@ -13151,7 +13443,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="29" t="s">
         <v>20</v>
       </c>
@@ -13174,7 +13466,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="29" t="s">
         <v>20</v>
       </c>
@@ -13197,7 +13489,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="29" t="s">
         <v>20</v>
       </c>
@@ -13220,7 +13512,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="29" t="s">
         <v>20</v>
       </c>
@@ -13243,7 +13535,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="29" t="s">
         <v>20</v>
       </c>
@@ -13266,7 +13558,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="29" t="s">
         <v>20</v>
       </c>
@@ -13289,7 +13581,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="29" t="s">
         <v>20</v>
       </c>
@@ -13312,7 +13604,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="29" t="s">
         <v>20</v>
       </c>
@@ -13335,7 +13627,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="29" t="s">
         <v>20</v>
       </c>
@@ -13358,7 +13650,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="29" t="s">
         <v>20</v>
       </c>
@@ -13381,7 +13673,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="29" t="s">
         <v>20</v>
       </c>
@@ -13404,7 +13696,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="29" t="s">
         <v>20</v>
       </c>
@@ -13427,7 +13719,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="29" t="s">
         <v>20</v>
       </c>
@@ -13450,7 +13742,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="29" t="s">
         <v>20</v>
       </c>
@@ -13473,7 +13765,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="29" t="s">
         <v>20</v>
       </c>
@@ -13496,7 +13788,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="29" t="s">
         <v>21</v>
       </c>
@@ -13519,7 +13811,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="29" t="s">
         <v>21</v>
       </c>
@@ -13542,7 +13834,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="29" t="s">
         <v>21</v>
       </c>
@@ -13565,7 +13857,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="29" t="s">
         <v>21</v>
       </c>
@@ -13588,7 +13880,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="29" t="s">
         <v>21</v>
       </c>
@@ -13611,7 +13903,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="29" t="s">
         <v>21</v>
       </c>
@@ -13634,7 +13926,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="29" t="s">
         <v>21</v>
       </c>
@@ -13657,7 +13949,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="29" t="s">
         <v>21</v>
       </c>
@@ -13680,7 +13972,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="29" t="s">
         <v>21</v>
       </c>
@@ -13703,7 +13995,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="29" t="s">
         <v>21</v>
       </c>
@@ -13726,7 +14018,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="29" t="s">
         <v>21</v>
       </c>
@@ -13749,7 +14041,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="29" t="s">
         <v>21</v>
       </c>
@@ -13772,7 +14064,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="29" t="s">
         <v>21</v>
       </c>
@@ -13795,7 +14087,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="29" t="s">
         <v>21</v>
       </c>
@@ -13818,7 +14110,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="29" t="s">
         <v>21</v>
       </c>
@@ -13841,7 +14133,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="29" t="s">
         <v>21</v>
       </c>
@@ -13864,7 +14156,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="29" t="s">
         <v>21</v>
       </c>
@@ -13887,7 +14179,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="29" t="s">
         <v>21</v>
       </c>
@@ -13910,7 +14202,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="29" t="s">
         <v>21</v>
       </c>
@@ -13933,7 +14225,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="29" t="s">
         <v>21</v>
       </c>
@@ -13956,7 +14248,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="29" t="s">
         <v>21</v>
       </c>
@@ -13979,7 +14271,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="29" t="s">
         <v>21</v>
       </c>
@@ -14002,7 +14294,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="29" t="s">
         <v>21</v>
       </c>
@@ -14025,7 +14317,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="29" t="s">
         <v>21</v>
       </c>
@@ -14048,7 +14340,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="29" t="s">
         <v>21</v>
       </c>
@@ -14071,7 +14363,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="29" t="s">
         <v>21</v>
       </c>
@@ -14094,7 +14386,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="29" t="s">
         <v>21</v>
       </c>
@@ -14117,7 +14409,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="29" t="s">
         <v>21</v>
       </c>
@@ -14140,7 +14432,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="29" t="s">
         <v>21</v>
       </c>
@@ -14163,7 +14455,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="29" t="s">
         <v>21</v>
       </c>
@@ -14186,7 +14478,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="29" t="s">
         <v>21</v>
       </c>
@@ -14209,7 +14501,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" s="29" t="s">
         <v>21</v>
       </c>
@@ -14232,7 +14524,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" s="29" t="s">
         <v>22</v>
       </c>
@@ -14255,7 +14547,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" s="29" t="s">
         <v>22</v>
       </c>
@@ -14278,7 +14570,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" s="29" t="s">
         <v>22</v>
       </c>
@@ -14301,7 +14593,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" s="29" t="s">
         <v>22</v>
       </c>
@@ -14324,7 +14616,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" s="29" t="s">
         <v>22</v>
       </c>
@@ -14347,7 +14639,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" s="29" t="s">
         <v>22</v>
       </c>
@@ -14370,7 +14662,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" s="29" t="s">
         <v>22</v>
       </c>
@@ -14393,7 +14685,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" s="29" t="s">
         <v>22</v>
       </c>
@@ -14416,7 +14708,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" s="29" t="s">
         <v>22</v>
       </c>
@@ -14439,7 +14731,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" s="29" t="s">
         <v>22</v>
       </c>
@@ -14462,7 +14754,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" s="29" t="s">
         <v>22</v>
       </c>
@@ -14485,7 +14777,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" s="29" t="s">
         <v>22</v>
       </c>
@@ -14508,7 +14800,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" s="29" t="s">
         <v>22</v>
       </c>
@@ -14531,7 +14823,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" s="29" t="s">
         <v>22</v>
       </c>
@@ -14554,7 +14846,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" s="29" t="s">
         <v>22</v>
       </c>
@@ -14577,7 +14869,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" s="29" t="s">
         <v>22</v>
       </c>
@@ -14600,7 +14892,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" s="29" t="s">
         <v>22</v>
       </c>
@@ -14623,7 +14915,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" s="29" t="s">
         <v>22</v>
       </c>
@@ -14646,7 +14938,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" s="29" t="s">
         <v>22</v>
       </c>
@@ -14669,7 +14961,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" s="29" t="s">
         <v>22</v>
       </c>
@@ -14692,7 +14984,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" s="29" t="s">
         <v>22</v>
       </c>
@@ -14715,7 +15007,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" s="29" t="s">
         <v>22</v>
       </c>
@@ -14738,7 +15030,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" s="29" t="s">
         <v>22</v>
       </c>
@@ -14761,7 +15053,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" s="29" t="s">
         <v>22</v>
       </c>
@@ -14784,7 +15076,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" s="29" t="s">
         <v>22</v>
       </c>
@@ -14807,7 +15099,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" s="29" t="s">
         <v>22</v>
       </c>
@@ -14830,7 +15122,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" s="29" t="s">
         <v>22</v>
       </c>
@@ -14853,7 +15145,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" s="29" t="s">
         <v>22</v>
       </c>
@@ -14876,7 +15168,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" s="29" t="s">
         <v>22</v>
       </c>
@@ -14899,7 +15191,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" s="29" t="s">
         <v>22</v>
       </c>
@@ -14922,7 +15214,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" s="29" t="s">
         <v>22</v>
       </c>
@@ -14945,7 +15237,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" s="29" t="s">
         <v>22</v>
       </c>
@@ -14968,7 +15260,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" s="29" t="s">
         <v>23</v>
       </c>
@@ -14991,7 +15283,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" s="29" t="s">
         <v>23</v>
       </c>
@@ -15014,7 +15306,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" s="29" t="s">
         <v>23</v>
       </c>
@@ -15037,7 +15329,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" s="29" t="s">
         <v>23</v>
       </c>
@@ -15060,7 +15352,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" s="29" t="s">
         <v>23</v>
       </c>
@@ -15083,7 +15375,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" s="29" t="s">
         <v>23</v>
       </c>
@@ -15106,7 +15398,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" s="29" t="s">
         <v>23</v>
       </c>
@@ -15129,7 +15421,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" s="29" t="s">
         <v>23</v>
       </c>
@@ -15152,7 +15444,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" s="29" t="s">
         <v>23</v>
       </c>
@@ -15175,7 +15467,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" s="29" t="s">
         <v>23</v>
       </c>
@@ -15198,7 +15490,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" s="29" t="s">
         <v>23</v>
       </c>
@@ -15221,7 +15513,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" s="29" t="s">
         <v>23</v>
       </c>
@@ -15244,7 +15536,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" s="29" t="s">
         <v>23</v>
       </c>
@@ -15267,7 +15559,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" s="29" t="s">
         <v>23</v>
       </c>
@@ -15290,7 +15582,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" s="29" t="s">
         <v>23</v>
       </c>
@@ -15313,7 +15605,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" s="29" t="s">
         <v>23</v>
       </c>
@@ -15336,7 +15628,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" s="29" t="s">
         <v>23</v>
       </c>
@@ -15359,7 +15651,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" s="29" t="s">
         <v>23</v>
       </c>
@@ -15382,7 +15674,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" s="29" t="s">
         <v>23</v>
       </c>
@@ -15405,7 +15697,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" s="29" t="s">
         <v>23</v>
       </c>
@@ -15428,7 +15720,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" s="29" t="s">
         <v>23</v>
       </c>
@@ -15451,7 +15743,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" s="29" t="s">
         <v>23</v>
       </c>
@@ -15474,7 +15766,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" s="29" t="s">
         <v>23</v>
       </c>
@@ -15497,7 +15789,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" s="29" t="s">
         <v>23</v>
       </c>
@@ -15520,7 +15812,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" s="29" t="s">
         <v>23</v>
       </c>
@@ -15543,7 +15835,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" s="29" t="s">
         <v>23</v>
       </c>
@@ -15566,7 +15858,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" s="29" t="s">
         <v>23</v>
       </c>
@@ -15589,7 +15881,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" s="29" t="s">
         <v>23</v>
       </c>
@@ -15612,7 +15904,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" s="29" t="s">
         <v>23</v>
       </c>
@@ -15635,7 +15927,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" s="29" t="s">
         <v>23</v>
       </c>
@@ -15658,7 +15950,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" s="29" t="s">
         <v>23</v>
       </c>
@@ -15681,7 +15973,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" s="29" t="s">
         <v>23</v>
       </c>
@@ -15704,7 +15996,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" s="29" t="s">
         <v>24</v>
       </c>
@@ -15727,7 +16019,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" s="29" t="s">
         <v>24</v>
       </c>
@@ -15750,7 +16042,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" s="29" t="s">
         <v>24</v>
       </c>
@@ -15773,7 +16065,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" s="29" t="s">
         <v>24</v>
       </c>
@@ -15796,7 +16088,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" s="29" t="s">
         <v>24</v>
       </c>
@@ -15819,7 +16111,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" s="29" t="s">
         <v>24</v>
       </c>
@@ -15842,7 +16134,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" s="29" t="s">
         <v>24</v>
       </c>
@@ -15865,7 +16157,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" s="29" t="s">
         <v>24</v>
       </c>
@@ -15888,7 +16180,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" s="29" t="s">
         <v>24</v>
       </c>
@@ -15911,7 +16203,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" s="29" t="s">
         <v>24</v>
       </c>
@@ -15934,7 +16226,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" s="29" t="s">
         <v>24</v>
       </c>
@@ -15957,7 +16249,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" s="29" t="s">
         <v>24</v>
       </c>
@@ -15980,7 +16272,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" s="29" t="s">
         <v>24</v>
       </c>
@@ -16003,7 +16295,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" s="29" t="s">
         <v>24</v>
       </c>
@@ -16026,7 +16318,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" s="29" t="s">
         <v>24</v>
       </c>
@@ -16049,7 +16341,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" s="29" t="s">
         <v>24</v>
       </c>
@@ -16072,7 +16364,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" s="29" t="s">
         <v>24</v>
       </c>
@@ -16095,7 +16387,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" s="29" t="s">
         <v>24</v>
       </c>
@@ -16118,7 +16410,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" s="29" t="s">
         <v>24</v>
       </c>
@@ -16141,7 +16433,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" s="29" t="s">
         <v>24</v>
       </c>
@@ -16164,7 +16456,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214" s="29" t="s">
         <v>24</v>
       </c>
@@ -16187,7 +16479,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" s="29" t="s">
         <v>24</v>
       </c>
@@ -16210,7 +16502,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216" s="29" t="s">
         <v>24</v>
       </c>
@@ -16233,7 +16525,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" s="29" t="s">
         <v>24</v>
       </c>
@@ -16256,7 +16548,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218" s="29" t="s">
         <v>24</v>
       </c>
@@ -16279,7 +16571,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219" s="29" t="s">
         <v>24</v>
       </c>
@@ -16302,7 +16594,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" s="29" t="s">
         <v>24</v>
       </c>
@@ -16325,7 +16617,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" s="29" t="s">
         <v>24</v>
       </c>
@@ -16348,7 +16640,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222" s="29" t="s">
         <v>24</v>
       </c>
@@ -16371,7 +16663,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223" s="29" t="s">
         <v>24</v>
       </c>
@@ -16394,7 +16686,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224" s="29" t="s">
         <v>24</v>
       </c>
@@ -16417,7 +16709,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225" s="29" t="s">
         <v>24</v>
       </c>
@@ -16440,7 +16732,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226" s="29" t="s">
         <v>25</v>
       </c>
@@ -16463,7 +16755,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227" s="29" t="s">
         <v>25</v>
       </c>
@@ -16486,7 +16778,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228" s="29" t="s">
         <v>25</v>
       </c>
@@ -16509,7 +16801,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229" s="29" t="s">
         <v>25</v>
       </c>
@@ -16532,7 +16824,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230" s="29" t="s">
         <v>25</v>
       </c>
@@ -16555,7 +16847,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231" s="29" t="s">
         <v>25</v>
       </c>
@@ -16578,7 +16870,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232" s="29" t="s">
         <v>25</v>
       </c>
@@ -16601,7 +16893,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233" s="29" t="s">
         <v>25</v>
       </c>
@@ -16624,7 +16916,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A234" s="29" t="s">
         <v>25</v>
       </c>
@@ -16647,7 +16939,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A235" s="29" t="s">
         <v>25</v>
       </c>
@@ -16670,7 +16962,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236" s="29" t="s">
         <v>25</v>
       </c>
@@ -16693,7 +16985,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237" s="29" t="s">
         <v>25</v>
       </c>
@@ -16716,7 +17008,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A238" s="29" t="s">
         <v>25</v>
       </c>
@@ -16739,7 +17031,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239" s="29" t="s">
         <v>25</v>
       </c>
@@ -16762,7 +17054,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240" s="29" t="s">
         <v>25</v>
       </c>
@@ -16785,7 +17077,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241" s="29" t="s">
         <v>25</v>
       </c>
@@ -16808,7 +17100,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" s="29" t="s">
         <v>25</v>
       </c>
@@ -16831,7 +17123,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" s="29" t="s">
         <v>25</v>
       </c>
@@ -16854,7 +17146,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" s="29" t="s">
         <v>25</v>
       </c>
@@ -16877,7 +17169,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" s="29" t="s">
         <v>25</v>
       </c>
@@ -16900,7 +17192,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" s="29" t="s">
         <v>25</v>
       </c>
@@ -16923,7 +17215,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" s="29" t="s">
         <v>25</v>
       </c>
@@ -16946,7 +17238,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" s="29" t="s">
         <v>25</v>
       </c>
@@ -16969,7 +17261,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" s="29" t="s">
         <v>25</v>
       </c>
@@ -16992,7 +17284,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" s="29" t="s">
         <v>25</v>
       </c>
@@ -17015,7 +17307,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" s="29" t="s">
         <v>25</v>
       </c>
@@ -17038,7 +17330,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252" s="29" t="s">
         <v>25</v>
       </c>
@@ -17061,7 +17353,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" s="29" t="s">
         <v>25</v>
       </c>
@@ -17084,7 +17376,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" s="29" t="s">
         <v>25</v>
       </c>
@@ -17107,7 +17399,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255" s="29" t="s">
         <v>25</v>
       </c>
@@ -17130,7 +17422,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" s="29" t="s">
         <v>25</v>
       </c>
@@ -17153,7 +17445,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257" s="29" t="s">
         <v>25</v>
       </c>
@@ -17176,7 +17468,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258" s="29" t="s">
         <v>26</v>
       </c>
@@ -17199,7 +17491,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259" s="29" t="s">
         <v>26</v>
       </c>
@@ -17222,7 +17514,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260" s="29" t="s">
         <v>26</v>
       </c>
@@ -17245,7 +17537,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261" s="29" t="s">
         <v>26</v>
       </c>
@@ -17268,7 +17560,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262" s="29" t="s">
         <v>26</v>
       </c>
@@ -17291,7 +17583,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263" s="29" t="s">
         <v>26</v>
       </c>
@@ -17314,7 +17606,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264" s="29" t="s">
         <v>26</v>
       </c>
@@ -17337,7 +17629,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265" s="29" t="s">
         <v>26</v>
       </c>
@@ -17360,7 +17652,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266" s="29" t="s">
         <v>26</v>
       </c>
@@ -17383,7 +17675,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A267" s="29" t="s">
         <v>26</v>
       </c>
@@ -17406,7 +17698,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A268" s="29" t="s">
         <v>26</v>
       </c>
@@ -17429,7 +17721,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269" s="29" t="s">
         <v>26</v>
       </c>
@@ -17452,7 +17744,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A270" s="29" t="s">
         <v>26</v>
       </c>
@@ -17475,7 +17767,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A271" s="29" t="s">
         <v>26</v>
       </c>
@@ -17498,7 +17790,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A272" s="29" t="s">
         <v>26</v>
       </c>
@@ -17521,7 +17813,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A273" s="29" t="s">
         <v>26</v>
       </c>
@@ -17544,7 +17836,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A274" s="29" t="s">
         <v>26</v>
       </c>
@@ -17567,7 +17859,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A275" s="29" t="s">
         <v>26</v>
       </c>
@@ -17590,7 +17882,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A276" s="29" t="s">
         <v>26</v>
       </c>
@@ -17613,7 +17905,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A277" s="29" t="s">
         <v>26</v>
       </c>
@@ -17636,7 +17928,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A278" s="29" t="s">
         <v>26</v>
       </c>
@@ -17659,7 +17951,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A279" s="29" t="s">
         <v>26</v>
       </c>
@@ -17682,7 +17974,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A280" s="29" t="s">
         <v>26</v>
       </c>
@@ -17705,7 +17997,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A281" s="29" t="s">
         <v>26</v>
       </c>
@@ -17728,7 +18020,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A282" s="29" t="s">
         <v>26</v>
       </c>
@@ -17751,7 +18043,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A283" s="29" t="s">
         <v>26</v>
       </c>
@@ -17774,7 +18066,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A284" s="29" t="s">
         <v>26</v>
       </c>
@@ -17797,7 +18089,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A285" s="29" t="s">
         <v>26</v>
       </c>
@@ -17820,7 +18112,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A286" s="29" t="s">
         <v>26</v>
       </c>
@@ -17843,7 +18135,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A287" s="29" t="s">
         <v>26</v>
       </c>
@@ -17866,7 +18158,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A288" s="29" t="s">
         <v>26</v>
       </c>
@@ -17889,7 +18181,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A289" s="29" t="s">
         <v>26</v>
       </c>
@@ -17912,7 +18204,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A290" s="29" t="s">
         <v>27</v>
       </c>
@@ -17935,7 +18227,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A291" s="29" t="s">
         <v>27</v>
       </c>
@@ -17958,7 +18250,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A292" s="29" t="s">
         <v>27</v>
       </c>
@@ -17981,7 +18273,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A293" s="29" t="s">
         <v>27</v>
       </c>
@@ -18004,7 +18296,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A294" s="29" t="s">
         <v>27</v>
       </c>
@@ -18027,7 +18319,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A295" s="29" t="s">
         <v>27</v>
       </c>
@@ -18050,7 +18342,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A296" s="29" t="s">
         <v>27</v>
       </c>
@@ -18073,7 +18365,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A297" s="29" t="s">
         <v>27</v>
       </c>
@@ -18096,7 +18388,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A298" s="29" t="s">
         <v>27</v>
       </c>
@@ -18119,7 +18411,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A299" s="29" t="s">
         <v>27</v>
       </c>
@@ -18142,7 +18434,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A300" s="29" t="s">
         <v>27</v>
       </c>
@@ -18165,7 +18457,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A301" s="29" t="s">
         <v>27</v>
       </c>
@@ -18188,7 +18480,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A302" s="29" t="s">
         <v>27</v>
       </c>
@@ -18211,7 +18503,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A303" s="29" t="s">
         <v>27</v>
       </c>
@@ -18234,7 +18526,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A304" s="29" t="s">
         <v>27</v>
       </c>
@@ -18257,7 +18549,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A305" s="29" t="s">
         <v>27</v>
       </c>
@@ -18280,7 +18572,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A306" s="29" t="s">
         <v>27</v>
       </c>
@@ -18303,7 +18595,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A307" s="29" t="s">
         <v>27</v>
       </c>
@@ -18326,7 +18618,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A308" s="29" t="s">
         <v>27</v>
       </c>
@@ -18349,7 +18641,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A309" s="29" t="s">
         <v>27</v>
       </c>
@@ -18372,7 +18664,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A310" s="29" t="s">
         <v>27</v>
       </c>
@@ -18395,7 +18687,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A311" s="29" t="s">
         <v>27</v>
       </c>
@@ -18418,7 +18710,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A312" s="29" t="s">
         <v>27</v>
       </c>
@@ -18441,7 +18733,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A313" s="29" t="s">
         <v>27</v>
       </c>
@@ -18464,7 +18756,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A314" s="29" t="s">
         <v>27</v>
       </c>
@@ -18487,7 +18779,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A315" s="29" t="s">
         <v>27</v>
       </c>
@@ -18510,7 +18802,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A316" s="29" t="s">
         <v>27</v>
       </c>
@@ -18533,7 +18825,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A317" s="29" t="s">
         <v>27</v>
       </c>
@@ -18556,7 +18848,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A318" s="29" t="s">
         <v>27</v>
       </c>
@@ -18579,7 +18871,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A319" s="29" t="s">
         <v>27</v>
       </c>
@@ -18602,7 +18894,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A320" s="29" t="s">
         <v>27</v>
       </c>
@@ -18625,7 +18917,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A321" s="29" t="s">
         <v>27</v>
       </c>
@@ -18648,7 +18940,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A322" s="29" t="s">
         <v>28</v>
       </c>
@@ -18671,7 +18963,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A323" s="29" t="s">
         <v>28</v>
       </c>
@@ -18694,7 +18986,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A324" s="29" t="s">
         <v>28</v>
       </c>
@@ -18717,7 +19009,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A325" s="29" t="s">
         <v>28</v>
       </c>
@@ -18740,7 +19032,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A326" s="29" t="s">
         <v>28</v>
       </c>
@@ -18763,7 +19055,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A327" s="29" t="s">
         <v>28</v>
       </c>
@@ -18786,7 +19078,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A328" s="29" t="s">
         <v>28</v>
       </c>
@@ -18809,7 +19101,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A329" s="29" t="s">
         <v>28</v>
       </c>
@@ -18832,7 +19124,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A330" s="29" t="s">
         <v>28</v>
       </c>
@@ -18855,7 +19147,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A331" s="29" t="s">
         <v>28</v>
       </c>
@@ -18878,7 +19170,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A332" s="29" t="s">
         <v>28</v>
       </c>
@@ -18901,7 +19193,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A333" s="29" t="s">
         <v>28</v>
       </c>
@@ -18924,7 +19216,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A334" s="29" t="s">
         <v>28</v>
       </c>
@@ -18947,7 +19239,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A335" s="29" t="s">
         <v>28</v>
       </c>
@@ -18970,7 +19262,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A336" s="29" t="s">
         <v>28</v>
       </c>
@@ -18993,7 +19285,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A337" s="29" t="s">
         <v>28</v>
       </c>
@@ -19016,7 +19308,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A338" s="29" t="s">
         <v>28</v>
       </c>
@@ -19039,7 +19331,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A339" s="29" t="s">
         <v>28</v>
       </c>
@@ -19062,7 +19354,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A340" s="29" t="s">
         <v>28</v>
       </c>
@@ -19085,7 +19377,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A341" s="29" t="s">
         <v>28</v>
       </c>
@@ -19108,7 +19400,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A342" s="29" t="s">
         <v>28</v>
       </c>
@@ -19131,7 +19423,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A343" s="29" t="s">
         <v>28</v>
       </c>
@@ -19154,7 +19446,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A344" s="29" t="s">
         <v>28</v>
       </c>
@@ -19177,7 +19469,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A345" s="29" t="s">
         <v>28</v>
       </c>
@@ -19200,7 +19492,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A346" s="29" t="s">
         <v>28</v>
       </c>
@@ -19223,7 +19515,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A347" s="29" t="s">
         <v>28</v>
       </c>
@@ -19246,7 +19538,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A348" s="29" t="s">
         <v>28</v>
       </c>
@@ -19269,7 +19561,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A349" s="29" t="s">
         <v>28</v>
       </c>
@@ -19292,7 +19584,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A350" s="29" t="s">
         <v>28</v>
       </c>
@@ -19315,7 +19607,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A351" s="29" t="s">
         <v>28</v>
       </c>
@@ -19338,7 +19630,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A352" s="29" t="s">
         <v>28</v>
       </c>
@@ -19361,7 +19653,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A353" s="29" t="s">
         <v>28</v>
       </c>
@@ -19384,7 +19676,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A354" s="29" t="s">
         <v>29</v>
       </c>
@@ -19407,7 +19699,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A355" s="29" t="s">
         <v>29</v>
       </c>
@@ -19430,7 +19722,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A356" s="29" t="s">
         <v>29</v>
       </c>
@@ -19453,7 +19745,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A357" s="29" t="s">
         <v>29</v>
       </c>
@@ -19476,7 +19768,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A358" s="29" t="s">
         <v>29</v>
       </c>
@@ -19499,7 +19791,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A359" s="29" t="s">
         <v>29</v>
       </c>
@@ -19522,7 +19814,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A360" s="29" t="s">
         <v>29</v>
       </c>
@@ -19545,7 +19837,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A361" s="29" t="s">
         <v>29</v>
       </c>
@@ -19568,7 +19860,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A362" s="29" t="s">
         <v>29</v>
       </c>
@@ -19591,7 +19883,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A363" s="29" t="s">
         <v>29</v>
       </c>
@@ -19614,7 +19906,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A364" s="29" t="s">
         <v>29</v>
       </c>
@@ -19637,7 +19929,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A365" s="29" t="s">
         <v>29</v>
       </c>
@@ -19660,7 +19952,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A366" s="29" t="s">
         <v>29</v>
       </c>
@@ -19683,7 +19975,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A367" s="29" t="s">
         <v>29</v>
       </c>
@@ -19706,7 +19998,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A368" s="29" t="s">
         <v>29</v>
       </c>
@@ -19729,7 +20021,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A369" s="29" t="s">
         <v>29</v>
       </c>
@@ -19752,7 +20044,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A370" s="29" t="s">
         <v>29</v>
       </c>
@@ -19775,7 +20067,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A371" s="29" t="s">
         <v>29</v>
       </c>
@@ -19798,7 +20090,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A372" s="29" t="s">
         <v>29</v>
       </c>
@@ -19821,7 +20113,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A373" s="29" t="s">
         <v>29</v>
       </c>
@@ -19844,7 +20136,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A374" s="29" t="s">
         <v>29</v>
       </c>
@@ -19867,7 +20159,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A375" s="29" t="s">
         <v>29</v>
       </c>
@@ -19890,7 +20182,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A376" s="29" t="s">
         <v>29</v>
       </c>
@@ -19913,7 +20205,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A377" s="29" t="s">
         <v>29</v>
       </c>
@@ -19936,7 +20228,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A378" s="29" t="s">
         <v>29</v>
       </c>
@@ -19959,7 +20251,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A379" s="29" t="s">
         <v>29</v>
       </c>
@@ -19982,7 +20274,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A380" s="29" t="s">
         <v>29</v>
       </c>
@@ -20005,7 +20297,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A381" s="29" t="s">
         <v>29</v>
       </c>
@@ -20028,7 +20320,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A382" s="29" t="s">
         <v>29</v>
       </c>
@@ -20051,7 +20343,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A383" s="29" t="s">
         <v>29</v>
       </c>
@@ -20074,7 +20366,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A384" s="29" t="s">
         <v>29</v>
       </c>
@@ -20097,7 +20389,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A385" s="29" t="s">
         <v>29</v>
       </c>
@@ -20120,7 +20412,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A386" s="29" t="s">
         <v>30</v>
       </c>
@@ -20143,7 +20435,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A387" s="29" t="s">
         <v>30</v>
       </c>
@@ -20166,7 +20458,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A388" s="29" t="s">
         <v>30</v>
       </c>
@@ -20189,7 +20481,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A389" s="29" t="s">
         <v>30</v>
       </c>
@@ -20212,7 +20504,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A390" s="29" t="s">
         <v>30</v>
       </c>
@@ -20235,7 +20527,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A391" s="29" t="s">
         <v>30</v>
       </c>
@@ -20258,7 +20550,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A392" s="29" t="s">
         <v>30</v>
       </c>
@@ -20281,7 +20573,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A393" s="29" t="s">
         <v>30</v>
       </c>
@@ -20304,7 +20596,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A394" s="29" t="s">
         <v>30</v>
       </c>
@@ -20327,7 +20619,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A395" s="29" t="s">
         <v>30</v>
       </c>
@@ -20350,7 +20642,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A396" s="29" t="s">
         <v>30</v>
       </c>
@@ -20373,7 +20665,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A397" s="29" t="s">
         <v>30</v>
       </c>
@@ -20396,7 +20688,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A398" s="29" t="s">
         <v>30</v>
       </c>
@@ -20419,7 +20711,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A399" s="29" t="s">
         <v>30</v>
       </c>
@@ -20442,7 +20734,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A400" s="29" t="s">
         <v>30</v>
       </c>
@@ -20465,7 +20757,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A401" s="29" t="s">
         <v>30</v>
       </c>
@@ -20488,7 +20780,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A402" s="29" t="s">
         <v>30</v>
       </c>
@@ -20511,7 +20803,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A403" s="29" t="s">
         <v>30</v>
       </c>
@@ -20534,7 +20826,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A404" s="29" t="s">
         <v>30</v>
       </c>
@@ -20557,7 +20849,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A405" s="29" t="s">
         <v>30</v>
       </c>
@@ -20580,7 +20872,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A406" s="29" t="s">
         <v>30</v>
       </c>
@@ -20603,7 +20895,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A407" s="29" t="s">
         <v>30</v>
       </c>
@@ -20626,7 +20918,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A408" s="29" t="s">
         <v>30</v>
       </c>
@@ -20649,7 +20941,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A409" s="29" t="s">
         <v>30</v>
       </c>
@@ -20672,7 +20964,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A410" s="29" t="s">
         <v>30</v>
       </c>
@@ -20695,7 +20987,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A411" s="29" t="s">
         <v>30</v>
       </c>
@@ -20718,7 +21010,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A412" s="29" t="s">
         <v>30</v>
       </c>
@@ -20741,7 +21033,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A413" s="29" t="s">
         <v>30</v>
       </c>
@@ -20764,7 +21056,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A414" s="29" t="s">
         <v>30</v>
       </c>
@@ -20787,7 +21079,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A415" s="29" t="s">
         <v>30</v>
       </c>
@@ -20810,7 +21102,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A416" s="29" t="s">
         <v>30</v>
       </c>
@@ -20833,7 +21125,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A417" s="29" t="s">
         <v>30</v>
       </c>
@@ -20856,7 +21148,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A418" s="29" t="s">
         <v>31</v>
       </c>
@@ -20879,7 +21171,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A419" s="29" t="s">
         <v>31</v>
       </c>
@@ -20902,7 +21194,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A420" s="29" t="s">
         <v>31</v>
       </c>
@@ -20925,7 +21217,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A421" s="29" t="s">
         <v>31</v>
       </c>
@@ -20948,7 +21240,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A422" s="29" t="s">
         <v>31</v>
       </c>
@@ -20971,7 +21263,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A423" s="29" t="s">
         <v>31</v>
       </c>
@@ -20994,7 +21286,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A424" s="29" t="s">
         <v>31</v>
       </c>
@@ -21017,7 +21309,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A425" s="29" t="s">
         <v>31</v>
       </c>
@@ -21040,7 +21332,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A426" s="29" t="s">
         <v>31</v>
       </c>
@@ -21063,7 +21355,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A427" s="29" t="s">
         <v>31</v>
       </c>
@@ -21086,7 +21378,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A428" s="29" t="s">
         <v>31</v>
       </c>
@@ -21109,7 +21401,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A429" s="29" t="s">
         <v>31</v>
       </c>
@@ -21132,7 +21424,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A430" s="29" t="s">
         <v>31</v>
       </c>
@@ -21155,7 +21447,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A431" s="29" t="s">
         <v>31</v>
       </c>
@@ -21178,7 +21470,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A432" s="29" t="s">
         <v>31</v>
       </c>
@@ -21201,7 +21493,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A433" s="29" t="s">
         <v>31</v>
       </c>
@@ -21224,7 +21516,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A434" s="29" t="s">
         <v>31</v>
       </c>
@@ -21247,7 +21539,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A435" s="29" t="s">
         <v>31</v>
       </c>
@@ -21270,7 +21562,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A436" s="29" t="s">
         <v>31</v>
       </c>
@@ -21293,7 +21585,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A437" s="29" t="s">
         <v>31</v>
       </c>
@@ -21316,7 +21608,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A438" s="29" t="s">
         <v>31</v>
       </c>
@@ -21339,7 +21631,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A439" s="29" t="s">
         <v>31</v>
       </c>
@@ -21362,7 +21654,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A440" s="29" t="s">
         <v>31</v>
       </c>
@@ -21385,7 +21677,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A441" s="29" t="s">
         <v>31</v>
       </c>
@@ -21408,7 +21700,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A442" s="29" t="s">
         <v>31</v>
       </c>
@@ -21431,7 +21723,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A443" s="29" t="s">
         <v>31</v>
       </c>
@@ -21454,7 +21746,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A444" s="29" t="s">
         <v>31</v>
       </c>
@@ -21477,7 +21769,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A445" s="29" t="s">
         <v>31</v>
       </c>
@@ -21500,7 +21792,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A446" s="29" t="s">
         <v>31</v>
       </c>
@@ -21523,7 +21815,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A447" s="29" t="s">
         <v>31</v>
       </c>
@@ -21546,7 +21838,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A448" s="29" t="s">
         <v>31</v>
       </c>
@@ -21569,7 +21861,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A449" s="29" t="s">
         <v>31</v>
       </c>
@@ -21592,7 +21884,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A450" s="29" t="s">
         <v>32</v>
       </c>
@@ -21615,7 +21907,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A451" s="29" t="s">
         <v>32</v>
       </c>
@@ -21638,7 +21930,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A452" s="29" t="s">
         <v>32</v>
       </c>
@@ -21661,7 +21953,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A453" s="29" t="s">
         <v>32</v>
       </c>
@@ -21684,7 +21976,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A454" s="29" t="s">
         <v>32</v>
       </c>
@@ -21707,7 +21999,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A455" s="29" t="s">
         <v>32</v>
       </c>
@@ -21730,7 +22022,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A456" s="29" t="s">
         <v>32</v>
       </c>
@@ -21753,7 +22045,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A457" s="29" t="s">
         <v>32</v>
       </c>
@@ -21776,7 +22068,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A458" s="29" t="s">
         <v>32</v>
       </c>
@@ -21799,7 +22091,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A459" s="29" t="s">
         <v>32</v>
       </c>
@@ -21822,7 +22114,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A460" s="29" t="s">
         <v>32</v>
       </c>
@@ -21845,7 +22137,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A461" s="29" t="s">
         <v>32</v>
       </c>
@@ -21868,7 +22160,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A462" s="29" t="s">
         <v>32</v>
       </c>
@@ -21891,7 +22183,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A463" s="29" t="s">
         <v>32</v>
       </c>
@@ -21914,7 +22206,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A464" s="29" t="s">
         <v>32</v>
       </c>
@@ -21937,7 +22229,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A465" s="29" t="s">
         <v>32</v>
       </c>
@@ -21960,7 +22252,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A466" s="29" t="s">
         <v>32</v>
       </c>
@@ -21983,7 +22275,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A467" s="29" t="s">
         <v>32</v>
       </c>
@@ -22006,7 +22298,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A468" s="29" t="s">
         <v>32</v>
       </c>
@@ -22029,7 +22321,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A469" s="29" t="s">
         <v>32</v>
       </c>
@@ -22052,7 +22344,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A470" s="29" t="s">
         <v>32</v>
       </c>
@@ -22075,7 +22367,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A471" s="29" t="s">
         <v>32</v>
       </c>
@@ -22098,7 +22390,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A472" s="29" t="s">
         <v>32</v>
       </c>
@@ -22121,7 +22413,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A473" s="29" t="s">
         <v>32</v>
       </c>
@@ -22144,7 +22436,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A474" s="29" t="s">
         <v>32</v>
       </c>
@@ -22167,7 +22459,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A475" s="29" t="s">
         <v>32</v>
       </c>
@@ -22190,7 +22482,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A476" s="29" t="s">
         <v>32</v>
       </c>
@@ -22213,7 +22505,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A477" s="29" t="s">
         <v>32</v>
       </c>
@@ -22236,7 +22528,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A478" s="29" t="s">
         <v>32</v>
       </c>
@@ -22259,7 +22551,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A479" s="29" t="s">
         <v>32</v>
       </c>
@@ -22282,7 +22574,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A480" s="29" t="s">
         <v>32</v>
       </c>
@@ -22305,7 +22597,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A481" s="29" t="s">
         <v>32</v>
       </c>
@@ -22380,19 +22672,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
@@ -22454,7 +22746,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>171</v>
       </c>
@@ -22486,7 +22778,7 @@
       <c r="S2" s="14"/>
       <c r="T2" s="12"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>172</v>
       </c>
@@ -22518,7 +22810,7 @@
       <c r="S3" s="13"/>
       <c r="T3" s="12"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>173</v>
       </c>
@@ -22550,7 +22842,7 @@
       <c r="S4" s="14"/>
       <c r="T4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>174</v>
       </c>
@@ -22582,7 +22874,7 @@
       <c r="S5" s="17"/>
       <c r="T5" s="16"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>175</v>
       </c>
@@ -22614,7 +22906,7 @@
       <c r="S6" s="14"/>
       <c r="T6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>176</v>
       </c>
@@ -22646,7 +22938,7 @@
       <c r="S7" s="14"/>
       <c r="T7" s="12"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>177</v>
       </c>
@@ -22678,7 +22970,7 @@
       <c r="S8" s="14"/>
       <c r="T8" s="12"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>178</v>
       </c>
@@ -22710,7 +23002,7 @@
       <c r="S9" s="17"/>
       <c r="T9" s="16"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>179</v>
       </c>
@@ -22742,7 +23034,7 @@
       <c r="S10" s="13"/>
       <c r="T10" s="12"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>180</v>
       </c>
@@ -22774,7 +23066,7 @@
       <c r="S11" s="14"/>
       <c r="T11" s="12"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>181</v>
       </c>
@@ -22806,7 +23098,7 @@
       <c r="S12" s="14"/>
       <c r="T12" s="12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>182</v>
       </c>
@@ -22838,7 +23130,7 @@
       <c r="S13" s="17"/>
       <c r="T13" s="16"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>183</v>
       </c>
@@ -22870,7 +23162,7 @@
       <c r="S14" s="13"/>
       <c r="T14" s="12"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>184</v>
       </c>
@@ -22902,7 +23194,7 @@
       <c r="S15" s="14"/>
       <c r="T15" s="12"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>185</v>
       </c>
@@ -22934,7 +23226,7 @@
       <c r="S16" s="14"/>
       <c r="T16" s="12"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>186</v>
       </c>
@@ -22966,7 +23258,7 @@
       <c r="S17" s="17"/>
       <c r="T17" s="16"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>187</v>
       </c>
@@ -22998,7 +23290,7 @@
       <c r="S18" s="14"/>
       <c r="T18" s="15"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>188</v>
       </c>
@@ -23030,7 +23322,7 @@
       <c r="S19" s="14"/>
       <c r="T19" s="15"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>189</v>
       </c>
@@ -23062,7 +23354,7 @@
       <c r="S20" s="14"/>
       <c r="T20" s="15"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>190</v>
       </c>
@@ -23094,7 +23386,7 @@
       <c r="S21" s="20"/>
       <c r="T21" s="21"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>191</v>
       </c>
@@ -23126,7 +23418,7 @@
       <c r="S22" s="14"/>
       <c r="T22" s="15"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>192</v>
       </c>
@@ -23158,7 +23450,7 @@
       <c r="S23" s="14"/>
       <c r="T23" s="15"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>193</v>
       </c>
@@ -23190,7 +23482,7 @@
       <c r="S24" s="14"/>
       <c r="T24" s="15"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>194</v>
       </c>
@@ -23222,7 +23514,7 @@
       <c r="S25" s="20"/>
       <c r="T25" s="21"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>195</v>
       </c>
@@ -23254,7 +23546,7 @@
       <c r="S26" s="14"/>
       <c r="T26" s="12"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>196</v>
       </c>
@@ -23286,7 +23578,7 @@
       <c r="S27" s="14"/>
       <c r="T27" s="12"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>197</v>
       </c>
@@ -23318,7 +23610,7 @@
       <c r="S28" s="14"/>
       <c r="T28" s="12"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>198</v>
       </c>
@@ -23350,7 +23642,7 @@
       <c r="S29" s="17"/>
       <c r="T29" s="16"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>199</v>
       </c>
@@ -23382,7 +23674,7 @@
       <c r="S30" s="14"/>
       <c r="T30" s="12"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>200</v>
       </c>
@@ -23414,7 +23706,7 @@
       <c r="S31" s="14"/>
       <c r="T31" s="12"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>201</v>
       </c>
@@ -23446,7 +23738,7 @@
       <c r="S32" s="14"/>
       <c r="T32" s="12"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
         <v>202</v>
       </c>
@@ -23488,19 +23780,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
@@ -23562,7 +23854,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>171</v>
       </c>
@@ -23594,7 +23886,7 @@
       <c r="S2" s="14"/>
       <c r="T2" s="12"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>172</v>
       </c>
@@ -23626,7 +23918,7 @@
       <c r="S3" s="13"/>
       <c r="T3" s="12"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>173</v>
       </c>
@@ -23658,7 +23950,7 @@
       <c r="S4" s="14"/>
       <c r="T4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>174</v>
       </c>
@@ -23690,7 +23982,7 @@
       <c r="S5" s="17"/>
       <c r="T5" s="16"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>175</v>
       </c>
@@ -23722,7 +24014,7 @@
       <c r="S6" s="14"/>
       <c r="T6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>176</v>
       </c>
@@ -23754,7 +24046,7 @@
       <c r="S7" s="14"/>
       <c r="T7" s="12"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>177</v>
       </c>
@@ -23786,7 +24078,7 @@
       <c r="S8" s="14"/>
       <c r="T8" s="12"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>178</v>
       </c>
@@ -23818,7 +24110,7 @@
       <c r="S9" s="17"/>
       <c r="T9" s="16"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>179</v>
       </c>
@@ -23850,7 +24142,7 @@
       <c r="S10" s="13"/>
       <c r="T10" s="12"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>180</v>
       </c>
@@ -23882,7 +24174,7 @@
       <c r="S11" s="14"/>
       <c r="T11" s="12"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>181</v>
       </c>
@@ -23914,7 +24206,7 @@
       <c r="S12" s="14"/>
       <c r="T12" s="12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>182</v>
       </c>
@@ -23946,7 +24238,7 @@
       <c r="S13" s="17"/>
       <c r="T13" s="16"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>183</v>
       </c>
@@ -23978,7 +24270,7 @@
       <c r="S14" s="13"/>
       <c r="T14" s="12"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>184</v>
       </c>
@@ -24010,7 +24302,7 @@
       <c r="S15" s="14"/>
       <c r="T15" s="12"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>185</v>
       </c>
@@ -24042,7 +24334,7 @@
       <c r="S16" s="14"/>
       <c r="T16" s="12"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>186</v>
       </c>
@@ -24074,7 +24366,7 @@
       <c r="S17" s="17"/>
       <c r="T17" s="16"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>187</v>
       </c>
@@ -24106,7 +24398,7 @@
       <c r="S18" s="14"/>
       <c r="T18" s="15"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>188</v>
       </c>
@@ -24138,7 +24430,7 @@
       <c r="S19" s="14"/>
       <c r="T19" s="15"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>189</v>
       </c>
@@ -24170,7 +24462,7 @@
       <c r="S20" s="14"/>
       <c r="T20" s="15"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>190</v>
       </c>
@@ -24202,7 +24494,7 @@
       <c r="S21" s="20"/>
       <c r="T21" s="21"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>191</v>
       </c>
@@ -24234,7 +24526,7 @@
       <c r="S22" s="14"/>
       <c r="T22" s="15"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>192</v>
       </c>
@@ -24266,7 +24558,7 @@
       <c r="S23" s="14"/>
       <c r="T23" s="15"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>193</v>
       </c>
@@ -24298,7 +24590,7 @@
       <c r="S24" s="14"/>
       <c r="T24" s="15"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>194</v>
       </c>
@@ -24330,7 +24622,7 @@
       <c r="S25" s="20"/>
       <c r="T25" s="21"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>195</v>
       </c>
@@ -24362,7 +24654,7 @@
       <c r="S26" s="14"/>
       <c r="T26" s="12"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>196</v>
       </c>
@@ -24394,7 +24686,7 @@
       <c r="S27" s="14"/>
       <c r="T27" s="12"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>197</v>
       </c>
@@ -24426,7 +24718,7 @@
       <c r="S28" s="14"/>
       <c r="T28" s="12"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>198</v>
       </c>
@@ -24458,7 +24750,7 @@
       <c r="S29" s="17"/>
       <c r="T29" s="16"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>199</v>
       </c>
@@ -24490,7 +24782,7 @@
       <c r="S30" s="14"/>
       <c r="T30" s="12"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>200</v>
       </c>
@@ -24522,7 +24814,7 @@
       <c r="S31" s="14"/>
       <c r="T31" s="12"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>201</v>
       </c>
@@ -24554,7 +24846,7 @@
       <c r="S32" s="14"/>
       <c r="T32" s="12"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
         <v>202</v>
       </c>
@@ -24596,19 +24888,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
@@ -24670,7 +24962,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>171</v>
       </c>
@@ -24702,7 +24994,7 @@
       <c r="S2" s="14"/>
       <c r="T2" s="12"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>172</v>
       </c>
@@ -24734,7 +25026,7 @@
       <c r="S3" s="13"/>
       <c r="T3" s="12"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>173</v>
       </c>
@@ -24766,7 +25058,7 @@
       <c r="S4" s="14"/>
       <c r="T4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>174</v>
       </c>
@@ -24798,7 +25090,7 @@
       <c r="S5" s="17"/>
       <c r="T5" s="16"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>175</v>
       </c>
@@ -24830,7 +25122,7 @@
       <c r="S6" s="14"/>
       <c r="T6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>176</v>
       </c>
@@ -24862,7 +25154,7 @@
       <c r="S7" s="14"/>
       <c r="T7" s="12"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>177</v>
       </c>
@@ -24894,7 +25186,7 @@
       <c r="S8" s="14"/>
       <c r="T8" s="12"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>178</v>
       </c>
@@ -24926,7 +25218,7 @@
       <c r="S9" s="17"/>
       <c r="T9" s="16"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>179</v>
       </c>
@@ -24958,7 +25250,7 @@
       <c r="S10" s="13"/>
       <c r="T10" s="12"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>180</v>
       </c>
@@ -24990,7 +25282,7 @@
       <c r="S11" s="14"/>
       <c r="T11" s="12"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>181</v>
       </c>
@@ -25022,7 +25314,7 @@
       <c r="S12" s="14"/>
       <c r="T12" s="12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>182</v>
       </c>
@@ -25054,7 +25346,7 @@
       <c r="S13" s="17"/>
       <c r="T13" s="16"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>183</v>
       </c>
@@ -25086,7 +25378,7 @@
       <c r="S14" s="13"/>
       <c r="T14" s="12"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>184</v>
       </c>
@@ -25118,7 +25410,7 @@
       <c r="S15" s="14"/>
       <c r="T15" s="12"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>185</v>
       </c>
@@ -25150,7 +25442,7 @@
       <c r="S16" s="14"/>
       <c r="T16" s="12"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>186</v>
       </c>
@@ -25182,7 +25474,7 @@
       <c r="S17" s="17"/>
       <c r="T17" s="16"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>187</v>
       </c>
@@ -25214,7 +25506,7 @@
       <c r="S18" s="14"/>
       <c r="T18" s="15"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>188</v>
       </c>
@@ -25246,7 +25538,7 @@
       <c r="S19" s="14"/>
       <c r="T19" s="15"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>189</v>
       </c>
@@ -25278,7 +25570,7 @@
       <c r="S20" s="14"/>
       <c r="T20" s="15"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>190</v>
       </c>
@@ -25310,7 +25602,7 @@
       <c r="S21" s="20"/>
       <c r="T21" s="21"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>191</v>
       </c>
@@ -25342,7 +25634,7 @@
       <c r="S22" s="14"/>
       <c r="T22" s="15"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>192</v>
       </c>
@@ -25374,7 +25666,7 @@
       <c r="S23" s="14"/>
       <c r="T23" s="15"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>193</v>
       </c>
@@ -25406,7 +25698,7 @@
       <c r="S24" s="14"/>
       <c r="T24" s="15"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>194</v>
       </c>
@@ -25438,7 +25730,7 @@
       <c r="S25" s="20"/>
       <c r="T25" s="21"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>195</v>
       </c>
@@ -25470,7 +25762,7 @@
       <c r="S26" s="14"/>
       <c r="T26" s="12"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>196</v>
       </c>
@@ -25502,7 +25794,7 @@
       <c r="S27" s="14"/>
       <c r="T27" s="12"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>197</v>
       </c>
@@ -25534,7 +25826,7 @@
       <c r="S28" s="14"/>
       <c r="T28" s="12"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>198</v>
       </c>
@@ -25566,7 +25858,7 @@
       <c r="S29" s="17"/>
       <c r="T29" s="16"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>199</v>
       </c>
@@ -25598,7 +25890,7 @@
       <c r="S30" s="14"/>
       <c r="T30" s="12"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>200</v>
       </c>
@@ -25630,7 +25922,7 @@
       <c r="S31" s="14"/>
       <c r="T31" s="12"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>201</v>
       </c>
@@ -25662,7 +25954,7 @@
       <c r="S32" s="14"/>
       <c r="T32" s="12"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
         <v>202</v>
       </c>

--- a/vrp_results_tracker.xlsx
+++ b/vrp_results_tracker.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdrex\PycharmProjects\wilib_vrp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzzlib\PycharmProjects\wilib_vrp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86CD803-F9B3-4A78-882B-D51742679FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="870" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="870" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="full_model_set" sheetId="8" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <sheet name="solution_file_tracker" sheetId="11" r:id="rId8"/>
     <sheet name="map_file_tracker" sheetId="12" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4477" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4513" uniqueCount="690">
   <si>
     <t>shift</t>
   </si>
@@ -2117,7 +2116,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2289,10 +2288,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2789,21 +2788,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.54296875" style="1" customWidth="1"/>
-    <col min="2" max="4" width="15.54296875" customWidth="1"/>
-    <col min="5" max="19" width="12.54296875" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" style="1" customWidth="1"/>
+    <col min="2" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="19" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>109</v>
       </c>
@@ -2862,7 +2861,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>110</v>
       </c>
@@ -2881,7 +2880,7 @@
       <c r="K2" s="7"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>111</v>
       </c>
@@ -2900,7 +2899,7 @@
       <c r="K3" s="7"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>112</v>
       </c>
@@ -2919,7 +2918,7 @@
       <c r="K4" s="7"/>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>113</v>
       </c>
@@ -2938,7 +2937,7 @@
       <c r="K5" s="7"/>
       <c r="S5" s="7"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>114</v>
       </c>
@@ -2957,7 +2956,7 @@
       <c r="K6" s="7"/>
       <c r="S6" s="7"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>115</v>
       </c>
@@ -2976,7 +2975,7 @@
       <c r="K7" s="7"/>
       <c r="S7" s="7"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>116</v>
       </c>
@@ -2995,7 +2994,7 @@
       <c r="K8" s="7"/>
       <c r="S8" s="7"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>117</v>
       </c>
@@ -3014,7 +3013,7 @@
       <c r="K9" s="7"/>
       <c r="S9" s="7"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>118</v>
       </c>
@@ -3033,7 +3032,7 @@
       <c r="K10" s="7"/>
       <c r="S10" s="7"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>119</v>
       </c>
@@ -3052,7 +3051,7 @@
       <c r="K11" s="7"/>
       <c r="S11" s="7"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>120</v>
       </c>
@@ -3071,7 +3070,7 @@
       <c r="K12" s="7"/>
       <c r="S12" s="7"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>121</v>
       </c>
@@ -3090,7 +3089,7 @@
       <c r="K13" s="7"/>
       <c r="S13" s="7"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>122</v>
       </c>
@@ -3109,7 +3108,7 @@
       <c r="K14" s="7"/>
       <c r="S14" s="7"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>123</v>
       </c>
@@ -3128,7 +3127,7 @@
       <c r="K15" s="7"/>
       <c r="S15" s="7"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>124</v>
       </c>
@@ -3147,7 +3146,7 @@
       <c r="K16" s="7"/>
       <c r="S16" s="7"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>125</v>
       </c>
@@ -3166,7 +3165,7 @@
       <c r="K17" s="7"/>
       <c r="S17" s="7"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>126</v>
       </c>
@@ -3185,7 +3184,7 @@
       <c r="K18" s="7"/>
       <c r="S18" s="7"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>127</v>
       </c>
@@ -3204,7 +3203,7 @@
       <c r="K19" s="7"/>
       <c r="S19" s="7"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>128</v>
       </c>
@@ -3223,7 +3222,7 @@
       <c r="K20" s="7"/>
       <c r="S20" s="7"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>129</v>
       </c>
@@ -3242,7 +3241,7 @@
       <c r="K21" s="7"/>
       <c r="S21" s="7"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>130</v>
       </c>
@@ -3261,7 +3260,7 @@
       <c r="K22" s="7"/>
       <c r="S22" s="7"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>131</v>
       </c>
@@ -3280,7 +3279,7 @@
       <c r="K23" s="7"/>
       <c r="S23" s="7"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>132</v>
       </c>
@@ -3299,7 +3298,7 @@
       <c r="K24" s="7"/>
       <c r="S24" s="7"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>133</v>
       </c>
@@ -3318,7 +3317,7 @@
       <c r="K25" s="7"/>
       <c r="S25" s="7"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>134</v>
       </c>
@@ -3337,7 +3336,7 @@
       <c r="K26" s="7"/>
       <c r="S26" s="7"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>135</v>
       </c>
@@ -3356,7 +3355,7 @@
       <c r="K27" s="7"/>
       <c r="S27" s="7"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>136</v>
       </c>
@@ -3375,7 +3374,7 @@
       <c r="K28" s="7"/>
       <c r="S28" s="7"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>137</v>
       </c>
@@ -3394,7 +3393,7 @@
       <c r="K29" s="7"/>
       <c r="S29" s="7"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>138</v>
       </c>
@@ -3413,7 +3412,7 @@
       <c r="K30" s="7"/>
       <c r="S30" s="7"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>139</v>
       </c>
@@ -3432,7 +3431,7 @@
       <c r="K31" s="7"/>
       <c r="S31" s="7"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>140</v>
       </c>
@@ -3451,7 +3450,7 @@
       <c r="K32" s="7"/>
       <c r="S32" s="7"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>142</v>
       </c>
@@ -3470,7 +3469,7 @@
       <c r="K33" s="7"/>
       <c r="S33" s="7"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>143</v>
       </c>
@@ -3489,7 +3488,7 @@
       <c r="K34" s="7"/>
       <c r="S34" s="7"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>144</v>
       </c>
@@ -3508,7 +3507,7 @@
       <c r="K35" s="7"/>
       <c r="S35" s="7"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>145</v>
       </c>
@@ -3527,7 +3526,7 @@
       <c r="K36" s="7"/>
       <c r="S36" s="7"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>146</v>
       </c>
@@ -3546,7 +3545,7 @@
       <c r="K37" s="7"/>
       <c r="S37" s="7"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>147</v>
       </c>
@@ -3565,7 +3564,7 @@
       <c r="K38" s="7"/>
       <c r="S38" s="7"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>148</v>
       </c>
@@ -3584,7 +3583,7 @@
       <c r="K39" s="7"/>
       <c r="S39" s="7"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>149</v>
       </c>
@@ -3603,7 +3602,7 @@
       <c r="K40" s="7"/>
       <c r="S40" s="7"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>150</v>
       </c>
@@ -3622,7 +3621,7 @@
       <c r="K41" s="7"/>
       <c r="S41" s="7"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>151</v>
       </c>
@@ -3641,7 +3640,7 @@
       <c r="K42" s="7"/>
       <c r="S42" s="7"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>152</v>
       </c>
@@ -3660,7 +3659,7 @@
       <c r="K43" s="7"/>
       <c r="S43" s="7"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>153</v>
       </c>
@@ -3679,7 +3678,7 @@
       <c r="K44" s="7"/>
       <c r="S44" s="7"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>154</v>
       </c>
@@ -3698,7 +3697,7 @@
       <c r="K45" s="7"/>
       <c r="S45" s="7"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>155</v>
       </c>
@@ -3717,7 +3716,7 @@
       <c r="K46" s="7"/>
       <c r="S46" s="7"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>156</v>
       </c>
@@ -3736,7 +3735,7 @@
       <c r="K47" s="7"/>
       <c r="S47" s="7"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>157</v>
       </c>
@@ -3755,7 +3754,7 @@
       <c r="K48" s="7"/>
       <c r="S48" s="7"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>158</v>
       </c>
@@ -3774,7 +3773,7 @@
       <c r="K49" s="7"/>
       <c r="S49" s="7"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>159</v>
       </c>
@@ -3793,7 +3792,7 @@
       <c r="K50" s="7"/>
       <c r="S50" s="7"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>160</v>
       </c>
@@ -3824,7 +3823,7 @@
       <c r="R51" s="9"/>
       <c r="S51" s="26"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>100101</v>
       </c>
@@ -3853,7 +3852,7 @@
       <c r="R52" s="3"/>
       <c r="S52" s="4"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>100102</v>
       </c>
@@ -3870,7 +3869,7 @@
       <c r="K53" s="7"/>
       <c r="S53" s="7"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>100103</v>
       </c>
@@ -3887,7 +3886,7 @@
       <c r="K54" s="7"/>
       <c r="S54" s="7"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>100104</v>
       </c>
@@ -3904,7 +3903,7 @@
       <c r="K55" s="7"/>
       <c r="S55" s="7"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>100105</v>
       </c>
@@ -3921,7 +3920,7 @@
       <c r="K56" s="7"/>
       <c r="S56" s="7"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>100201</v>
       </c>
@@ -3938,7 +3937,7 @@
       <c r="K57" s="7"/>
       <c r="S57" s="7"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>100202</v>
       </c>
@@ -3955,7 +3954,7 @@
       <c r="K58" s="7"/>
       <c r="S58" s="7"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>100203</v>
       </c>
@@ -3972,7 +3971,7 @@
       <c r="K59" s="7"/>
       <c r="S59" s="7"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>100204</v>
       </c>
@@ -3989,7 +3988,7 @@
       <c r="K60" s="7"/>
       <c r="S60" s="7"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>100205</v>
       </c>
@@ -4006,7 +4005,7 @@
       <c r="K61" s="7"/>
       <c r="S61" s="7"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>100301</v>
       </c>
@@ -4023,7 +4022,7 @@
       <c r="K62" s="7"/>
       <c r="S62" s="7"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>100302</v>
       </c>
@@ -4040,7 +4039,7 @@
       <c r="K63" s="7"/>
       <c r="S63" s="7"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>100303</v>
       </c>
@@ -4057,7 +4056,7 @@
       <c r="K64" s="7"/>
       <c r="S64" s="7"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>100304</v>
       </c>
@@ -4074,7 +4073,7 @@
       <c r="K65" s="7"/>
       <c r="S65" s="7"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>100305</v>
       </c>
@@ -4091,7 +4090,7 @@
       <c r="K66" s="7"/>
       <c r="S66" s="7"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>100401</v>
       </c>
@@ -4108,7 +4107,7 @@
       <c r="K67" s="7"/>
       <c r="S67" s="7"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>100402</v>
       </c>
@@ -4125,7 +4124,7 @@
       <c r="K68" s="7"/>
       <c r="S68" s="7"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>100403</v>
       </c>
@@ -4142,7 +4141,7 @@
       <c r="K69" s="7"/>
       <c r="S69" s="7"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>100404</v>
       </c>
@@ -4159,7 +4158,7 @@
       <c r="K70" s="7"/>
       <c r="S70" s="7"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>100405</v>
       </c>
@@ -4176,7 +4175,7 @@
       <c r="K71" s="7"/>
       <c r="S71" s="7"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>100501</v>
       </c>
@@ -4193,7 +4192,7 @@
       <c r="K72" s="7"/>
       <c r="S72" s="7"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>100502</v>
       </c>
@@ -4210,7 +4209,7 @@
       <c r="K73" s="7"/>
       <c r="S73" s="7"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>100503</v>
       </c>
@@ -4227,7 +4226,7 @@
       <c r="K74" s="7"/>
       <c r="S74" s="7"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>100504</v>
       </c>
@@ -4244,7 +4243,7 @@
       <c r="K75" s="7"/>
       <c r="S75" s="7"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>100505</v>
       </c>
@@ -4261,7 +4260,7 @@
       <c r="K76" s="7"/>
       <c r="S76" s="7"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>100601</v>
       </c>
@@ -4278,7 +4277,7 @@
       <c r="K77" s="7"/>
       <c r="S77" s="7"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>100602</v>
       </c>
@@ -4295,7 +4294,7 @@
       <c r="K78" s="7"/>
       <c r="S78" s="7"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>100603</v>
       </c>
@@ -4312,7 +4311,7 @@
       <c r="K79" s="7"/>
       <c r="S79" s="7"/>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>100604</v>
       </c>
@@ -4329,7 +4328,7 @@
       <c r="K80" s="7"/>
       <c r="S80" s="7"/>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>100605</v>
       </c>
@@ -4346,7 +4345,7 @@
       <c r="K81" s="7"/>
       <c r="S81" s="7"/>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>100701</v>
       </c>
@@ -4363,7 +4362,7 @@
       <c r="K82" s="7"/>
       <c r="S82" s="7"/>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>100702</v>
       </c>
@@ -4380,7 +4379,7 @@
       <c r="K83" s="7"/>
       <c r="S83" s="7"/>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>100703</v>
       </c>
@@ -4397,7 +4396,7 @@
       <c r="K84" s="7"/>
       <c r="S84" s="7"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>100704</v>
       </c>
@@ -4414,7 +4413,7 @@
       <c r="K85" s="7"/>
       <c r="S85" s="7"/>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>100705</v>
       </c>
@@ -4431,7 +4430,7 @@
       <c r="K86" s="7"/>
       <c r="S86" s="7"/>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>161</v>
       </c>
@@ -4448,7 +4447,7 @@
       <c r="K87" s="7"/>
       <c r="S87" s="7"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>162</v>
       </c>
@@ -4465,7 +4464,7 @@
       <c r="K88" s="7"/>
       <c r="S88" s="7"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>163</v>
       </c>
@@ -4482,7 +4481,7 @@
       <c r="K89" s="7"/>
       <c r="S89" s="7"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>164</v>
       </c>
@@ -4499,7 +4498,7 @@
       <c r="K90" s="7"/>
       <c r="S90" s="7"/>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>165</v>
       </c>
@@ -4516,7 +4515,7 @@
       <c r="K91" s="7"/>
       <c r="S91" s="7"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>100901</v>
       </c>
@@ -4533,7 +4532,7 @@
       <c r="K92" s="7"/>
       <c r="S92" s="7"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>100902</v>
       </c>
@@ -4550,7 +4549,7 @@
       <c r="K93" s="7"/>
       <c r="S93" s="7"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>100903</v>
       </c>
@@ -4567,7 +4566,7 @@
       <c r="K94" s="7"/>
       <c r="S94" s="7"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>100904</v>
       </c>
@@ -4584,7 +4583,7 @@
       <c r="K95" s="7"/>
       <c r="S95" s="7"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>100905</v>
       </c>
@@ -4601,7 +4600,7 @@
       <c r="K96" s="7"/>
       <c r="S96" s="7"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>166</v>
       </c>
@@ -4618,7 +4617,7 @@
       <c r="K97" s="7"/>
       <c r="S97" s="7"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>167</v>
       </c>
@@ -4635,7 +4634,7 @@
       <c r="K98" s="7"/>
       <c r="S98" s="7"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>168</v>
       </c>
@@ -4652,7 +4651,7 @@
       <c r="K99" s="7"/>
       <c r="S99" s="7"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>169</v>
       </c>
@@ -4669,7 +4668,7 @@
       <c r="K100" s="7"/>
       <c r="S100" s="7"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
         <v>170</v>
       </c>
@@ -4705,24 +4704,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.54296875" style="1" customWidth="1"/>
-    <col min="2" max="5" width="15.54296875" customWidth="1"/>
-    <col min="6" max="20" width="10.54296875" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" style="1" customWidth="1"/>
+    <col min="2" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="20" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>109</v>
       </c>
@@ -4787,7 +4786,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>119</v>
       </c>
@@ -4852,7 +4851,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>129</v>
       </c>
@@ -4917,7 +4916,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>134</v>
       </c>
@@ -4982,7 +4981,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>160</v>
       </c>
@@ -5047,7 +5046,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>100205</v>
       </c>
@@ -5112,7 +5111,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>100405</v>
       </c>
@@ -5177,7 +5176,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>100505</v>
       </c>
@@ -5242,7 +5241,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>170</v>
       </c>
@@ -5307,7 +5306,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>119</v>
       </c>
@@ -5372,7 +5371,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>129</v>
       </c>
@@ -5437,7 +5436,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>134</v>
       </c>
@@ -5502,7 +5501,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>160</v>
       </c>
@@ -5567,7 +5566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>100205</v>
       </c>
@@ -5632,7 +5631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>100405</v>
       </c>
@@ -5697,7 +5696,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>100505</v>
       </c>
@@ -5762,7 +5761,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>170</v>
       </c>
@@ -5827,7 +5826,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>119</v>
       </c>
@@ -5892,7 +5891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>129</v>
       </c>
@@ -5957,7 +5956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>134</v>
       </c>
@@ -6022,7 +6021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>160</v>
       </c>
@@ -6087,7 +6086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>100205</v>
       </c>
@@ -6152,7 +6151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>100405</v>
       </c>
@@ -6217,7 +6216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>100505</v>
       </c>
@@ -6282,7 +6281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>170</v>
       </c>
@@ -6354,7 +6353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6364,14 +6363,14 @@
       <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.54296875" style="1" customWidth="1"/>
-    <col min="2" max="4" width="15.54296875" customWidth="1"/>
-    <col min="5" max="19" width="10.54296875" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" style="1" customWidth="1"/>
+    <col min="2" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="19" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>109</v>
       </c>
@@ -6430,7 +6429,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>119</v>
       </c>
@@ -6489,7 +6488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>129</v>
       </c>
@@ -6548,7 +6547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>134</v>
       </c>
@@ -6607,7 +6606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>160</v>
       </c>
@@ -6666,7 +6665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>100205</v>
       </c>
@@ -6725,7 +6724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>100405</v>
       </c>
@@ -6784,7 +6783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>100505</v>
       </c>
@@ -6843,7 +6842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>170</v>
       </c>
@@ -6909,62 +6908,62 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G46" sqref="G46:G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="I1" s="35" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B2" s="35" t="s">
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="J2" s="35" t="s">
+      <c r="G2" s="36"/>
+      <c r="J2" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35" t="s">
+      <c r="K2" s="36"/>
+      <c r="L2" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35" t="s">
+      <c r="M2" s="36"/>
+      <c r="N2" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="O2" s="35"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O2" s="36"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>94</v>
       </c>
@@ -7002,7 +7001,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -7049,7 +7048,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -7097,7 +7096,7 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -7145,7 +7144,7 @@
         <v>2558</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>33</v>
       </c>
@@ -7193,53 +7192,53 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" s="35" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="I8" s="35" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="I8" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B9" s="35" t="s">
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35" t="s">
+      <c r="C9" s="36"/>
+      <c r="D9" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35" t="s">
+      <c r="E9" s="36"/>
+      <c r="F9" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="J9" s="35" t="s">
+      <c r="G9" s="36"/>
+      <c r="J9" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35" t="s">
+      <c r="K9" s="36"/>
+      <c r="L9" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35" t="s">
+      <c r="M9" s="36"/>
+      <c r="N9" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="O9" s="35"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O9" s="36"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>94</v>
       </c>
@@ -7277,7 +7276,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -7324,7 +7323,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -7372,7 +7371,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -7420,7 +7419,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>33</v>
       </c>
@@ -7468,53 +7467,53 @@
         <v>2065</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" s="35" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="I15" s="35" t="s">
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="I15" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B16" s="35" t="s">
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35" t="s">
+      <c r="C16" s="36"/>
+      <c r="D16" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35" t="s">
+      <c r="E16" s="36"/>
+      <c r="F16" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="G16" s="35"/>
-      <c r="J16" s="35" t="s">
+      <c r="G16" s="36"/>
+      <c r="J16" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35" t="s">
+      <c r="K16" s="36"/>
+      <c r="L16" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35" t="s">
+      <c r="M16" s="36"/>
+      <c r="N16" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="O16" s="35"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O16" s="36"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>94</v>
       </c>
@@ -7552,7 +7551,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -7599,7 +7598,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -7647,7 +7646,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -7695,7 +7694,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>33</v>
       </c>
@@ -7743,53 +7742,53 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A22" s="35" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="I22" s="35" t="s">
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="I22" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B23" s="35" t="s">
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35" t="s">
+      <c r="C23" s="36"/>
+      <c r="D23" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35" t="s">
+      <c r="E23" s="36"/>
+      <c r="F23" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="G23" s="35"/>
-      <c r="J23" s="35" t="s">
+      <c r="G23" s="36"/>
+      <c r="J23" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35" t="s">
+      <c r="K23" s="36"/>
+      <c r="L23" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35" t="s">
+      <c r="M23" s="36"/>
+      <c r="N23" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="O23" s="35"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O23" s="36"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>94</v>
       </c>
@@ -7827,7 +7826,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -7875,7 +7874,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -7923,7 +7922,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -7971,7 +7970,7 @@
         <v>2561</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>33</v>
       </c>
@@ -8019,53 +8018,53 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A29" s="35" t="s">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="I29" s="35" t="s">
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="I29" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B30" s="35" t="s">
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35" t="s">
+      <c r="C30" s="36"/>
+      <c r="D30" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35" t="s">
+      <c r="E30" s="36"/>
+      <c r="F30" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="G30" s="35"/>
-      <c r="J30" s="35" t="s">
+      <c r="G30" s="36"/>
+      <c r="J30" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35" t="s">
+      <c r="K30" s="36"/>
+      <c r="L30" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35" t="s">
+      <c r="M30" s="36"/>
+      <c r="N30" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="O30" s="35"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O30" s="36"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>94</v>
       </c>
@@ -8103,7 +8102,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -8151,7 +8150,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -8199,7 +8198,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -8247,7 +8246,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>33</v>
       </c>
@@ -8295,53 +8294,53 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A36" s="35" t="s">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="I36" s="35" t="s">
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="I36" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="35"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B37" s="35" t="s">
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B37" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35" t="s">
+      <c r="C37" s="36"/>
+      <c r="D37" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35" t="s">
+      <c r="E37" s="36"/>
+      <c r="F37" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="G37" s="35"/>
-      <c r="J37" s="35" t="s">
+      <c r="G37" s="36"/>
+      <c r="J37" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35" t="s">
+      <c r="K37" s="36"/>
+      <c r="L37" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35" t="s">
+      <c r="M37" s="36"/>
+      <c r="N37" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="O37" s="35"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O37" s="36"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>94</v>
       </c>
@@ -8379,7 +8378,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -8427,7 +8426,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -8475,7 +8474,7 @@
         <v>3089</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -8523,7 +8522,7 @@
         <v>2768</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>33</v>
       </c>
@@ -8571,53 +8570,53 @@
         <v>2711</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A43" s="35" t="s">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="I43" s="35" t="s">
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="I43" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="35"/>
-      <c r="N43" s="35"/>
-      <c r="O43" s="35"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B44" s="35" t="s">
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B44" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35" t="s">
+      <c r="C44" s="36"/>
+      <c r="D44" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35" t="s">
+      <c r="E44" s="36"/>
+      <c r="F44" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="G44" s="35"/>
-      <c r="J44" s="35" t="s">
+      <c r="G44" s="36"/>
+      <c r="J44" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="K44" s="35"/>
-      <c r="L44" s="35" t="s">
+      <c r="K44" s="36"/>
+      <c r="L44" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="M44" s="35"/>
-      <c r="N44" s="35" t="s">
+      <c r="M44" s="36"/>
+      <c r="N44" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="O44" s="35"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O44" s="36"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>94</v>
       </c>
@@ -8655,7 +8654,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -8703,7 +8702,7 @@
         <v>3692</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -8751,7 +8750,7 @@
         <v>4020</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -8800,7 +8799,7 @@
         <v>3814</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>33</v>
       </c>
@@ -8848,44 +8847,44 @@
         <v>3675</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A50" s="36"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="I50" s="35" t="s">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="I50" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="J50" s="35"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="35"/>
-      <c r="N50" s="35"/>
-      <c r="O50" s="35"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="J51" s="35" t="s">
+      <c r="J50" s="36"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="36"/>
+      <c r="N50" s="36"/>
+      <c r="O50" s="36"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="J51" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35" t="s">
+      <c r="K51" s="36"/>
+      <c r="L51" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="M51" s="35"/>
-      <c r="N51" s="35" t="s">
+      <c r="M51" s="36"/>
+      <c r="N51" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="O51" s="35"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O51" s="36"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J52" t="s">
         <v>94</v>
       </c>
@@ -8905,7 +8904,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I53" t="s">
         <v>8</v>
       </c>
@@ -8930,7 +8929,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I54" t="s">
         <v>10</v>
       </c>
@@ -8955,7 +8954,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I55" t="s">
         <v>11</v>
       </c>
@@ -8980,7 +8979,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -9014,6 +9013,62 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="I8:O8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="I15:O15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="I22:O22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="I29:O29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="I36:O36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="I43:O43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
     <mergeCell ref="A50:F50"/>
     <mergeCell ref="I50:O50"/>
     <mergeCell ref="B51:C51"/>
@@ -9022,62 +9077,6 @@
     <mergeCell ref="J51:K51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="I43:O43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="I36:O36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="I29:O29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="I22:O22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="I15:O15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="I8:O8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="L32:L35">
     <cfRule type="colorScale" priority="60">
@@ -9805,21 +9804,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="3" width="15.54296875" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -9833,7 +9832,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>39</v>
       </c>
@@ -9847,7 +9846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>40</v>
       </c>
@@ -9861,7 +9860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>41</v>
       </c>
@@ -9875,7 +9874,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>42</v>
       </c>
@@ -9889,7 +9888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>43</v>
       </c>
@@ -9903,7 +9902,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>44</v>
       </c>
@@ -9917,7 +9916,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>45</v>
       </c>
@@ -9931,7 +9930,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>46</v>
       </c>
@@ -9945,7 +9944,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>47</v>
       </c>
@@ -9959,7 +9958,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>48</v>
       </c>
@@ -9973,7 +9972,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>49</v>
       </c>
@@ -9984,7 +9983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>50</v>
       </c>
@@ -9995,7 +9994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>51</v>
       </c>
@@ -10006,7 +10005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>52</v>
       </c>
@@ -10017,7 +10016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>53</v>
       </c>
@@ -10028,7 +10027,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>54</v>
       </c>
@@ -10042,7 +10041,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>55</v>
       </c>
@@ -10056,7 +10055,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>56</v>
       </c>
@@ -10070,7 +10069,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>57</v>
       </c>
@@ -10084,7 +10083,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>58</v>
       </c>
@@ -10098,7 +10097,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>59</v>
       </c>
@@ -10112,7 +10111,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>60</v>
       </c>
@@ -10126,7 +10125,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>61</v>
       </c>
@@ -10140,7 +10139,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>62</v>
       </c>
@@ -10154,7 +10153,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>63</v>
       </c>
@@ -10168,7 +10167,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>64</v>
       </c>
@@ -10182,7 +10181,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>65</v>
       </c>
@@ -10196,7 +10195,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>66</v>
       </c>
@@ -10210,7 +10209,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>67</v>
       </c>
@@ -10224,7 +10223,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>68</v>
       </c>
@@ -10238,7 +10237,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>69</v>
       </c>
@@ -10252,7 +10251,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>70</v>
       </c>
@@ -10266,7 +10265,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>71</v>
       </c>
@@ -10280,7 +10279,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>72</v>
       </c>
@@ -10294,7 +10293,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>73</v>
       </c>
@@ -10308,7 +10307,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>74</v>
       </c>
@@ -10322,7 +10321,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>75</v>
       </c>
@@ -10336,7 +10335,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>76</v>
       </c>
@@ -10350,7 +10349,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>77</v>
       </c>
@@ -10364,7 +10363,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>78</v>
       </c>
@@ -10378,7 +10377,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>79</v>
       </c>
@@ -10392,7 +10391,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>80</v>
       </c>
@@ -10406,7 +10405,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>81</v>
       </c>
@@ -10420,7 +10419,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>82</v>
       </c>
@@ -10434,7 +10433,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>83</v>
       </c>
@@ -10448,7 +10447,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>84</v>
       </c>
@@ -10462,7 +10461,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>85</v>
       </c>
@@ -10476,7 +10475,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>86</v>
       </c>
@@ -10490,7 +10489,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>87</v>
       </c>
@@ -10504,7 +10503,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>88</v>
       </c>
@@ -10525,31 +10524,31 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" customWidth="1"/>
-    <col min="5" max="5" width="19.7265625" customWidth="1"/>
-    <col min="6" max="6" width="17.1796875" customWidth="1"/>
-    <col min="7" max="7" width="17.54296875" style="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.453125" style="30" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="30" customWidth="1"/>
     <col min="9" max="9" width="11" style="30" customWidth="1"/>
-    <col min="10" max="10" width="11.7265625" style="30" customWidth="1"/>
-    <col min="11" max="11" width="12.26953125" style="30" customWidth="1"/>
-    <col min="12" max="12" width="11.1796875" style="30" customWidth="1"/>
-    <col min="13" max="20" width="9.1796875" style="30"/>
+    <col min="10" max="10" width="11.7109375" style="30" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" style="30" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" style="30" customWidth="1"/>
+    <col min="13" max="20" width="9.140625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>203</v>
       </c>
@@ -10595,7 +10594,7 @@
       <c r="S1" s="34"/>
       <c r="T1" s="34"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>18</v>
       </c>
@@ -10641,7 +10640,7 @@
       <c r="S2" s="32"/>
       <c r="T2" s="31"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -10687,7 +10686,7 @@
       <c r="S3" s="31"/>
       <c r="T3" s="31"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
@@ -10733,7 +10732,7 @@
       <c r="S4" s="32"/>
       <c r="T4" s="31"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
@@ -10779,7 +10778,7 @@
       <c r="S5" s="31"/>
       <c r="T5" s="31"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>18</v>
       </c>
@@ -10825,7 +10824,7 @@
       <c r="S6" s="32"/>
       <c r="T6" s="31"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
@@ -10871,7 +10870,7 @@
       <c r="S7" s="32"/>
       <c r="T7" s="31"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
@@ -10917,7 +10916,7 @@
       <c r="S8" s="32"/>
       <c r="T8" s="31"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
@@ -10963,7 +10962,7 @@
       <c r="S9" s="31"/>
       <c r="T9" s="31"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
@@ -11007,7 +11006,7 @@
       <c r="S10" s="31"/>
       <c r="T10" s="31"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
@@ -11051,7 +11050,7 @@
       <c r="S11" s="32"/>
       <c r="T11" s="31"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>18</v>
       </c>
@@ -11095,7 +11094,7 @@
       <c r="S12" s="32"/>
       <c r="T12" s="31"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
@@ -11139,7 +11138,7 @@
       <c r="S13" s="31"/>
       <c r="T13" s="31"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>18</v>
       </c>
@@ -11185,7 +11184,7 @@
       <c r="S14" s="31"/>
       <c r="T14" s="31"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>18</v>
       </c>
@@ -11229,7 +11228,7 @@
       <c r="S15" s="32"/>
       <c r="T15" s="31"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
@@ -11273,7 +11272,7 @@
       <c r="S16" s="32"/>
       <c r="T16" s="31"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>18</v>
       </c>
@@ -11317,7 +11316,7 @@
       <c r="S17" s="31"/>
       <c r="T17" s="31"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
@@ -11361,7 +11360,7 @@
       <c r="S18" s="32"/>
       <c r="T18" s="32"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
@@ -11405,7 +11404,7 @@
       <c r="S19" s="32"/>
       <c r="T19" s="32"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
@@ -11449,7 +11448,7 @@
       <c r="S20" s="32"/>
       <c r="T20" s="32"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>18</v>
       </c>
@@ -11493,7 +11492,7 @@
       <c r="S21" s="32"/>
       <c r="T21" s="32"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>18</v>
       </c>
@@ -11539,7 +11538,7 @@
       <c r="S22" s="32"/>
       <c r="T22" s="32"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>18</v>
       </c>
@@ -11583,7 +11582,7 @@
       <c r="S23" s="32"/>
       <c r="T23" s="32"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>18</v>
       </c>
@@ -11627,7 +11626,7 @@
       <c r="S24" s="32"/>
       <c r="T24" s="32"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>18</v>
       </c>
@@ -11671,7 +11670,7 @@
       <c r="S25" s="32"/>
       <c r="T25" s="32"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>18</v>
       </c>
@@ -11715,7 +11714,7 @@
       <c r="S26" s="32"/>
       <c r="T26" s="31"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>18</v>
       </c>
@@ -11759,7 +11758,7 @@
       <c r="S27" s="32"/>
       <c r="T27" s="31"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>18</v>
       </c>
@@ -11803,7 +11802,7 @@
       <c r="S28" s="32"/>
       <c r="T28" s="31"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>18</v>
       </c>
@@ -11847,7 +11846,7 @@
       <c r="S29" s="31"/>
       <c r="T29" s="31"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>18</v>
       </c>
@@ -11893,7 +11892,7 @@
       <c r="S30" s="32"/>
       <c r="T30" s="31"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>18</v>
       </c>
@@ -11937,7 +11936,7 @@
       <c r="S31" s="32"/>
       <c r="T31" s="31"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>18</v>
       </c>
@@ -11981,7 +11980,7 @@
       <c r="S32" s="32"/>
       <c r="T32" s="31"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>18</v>
       </c>
@@ -12025,7 +12024,7 @@
       <c r="S33" s="31"/>
       <c r="T33" s="31"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
         <v>19</v>
       </c>
@@ -12056,8 +12055,11 @@
       <c r="J34" s="32">
         <v>2084.15</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="K34" s="32" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
         <v>19</v>
       </c>
@@ -12088,8 +12090,11 @@
       <c r="J35" s="32">
         <v>1955.08</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="K35" s="32" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
         <v>19</v>
       </c>
@@ -12120,8 +12125,11 @@
       <c r="J36" s="32">
         <v>2106.13</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="K36" s="32" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
         <v>19</v>
       </c>
@@ -12152,8 +12160,11 @@
       <c r="J37" s="32">
         <v>2083.9699999999998</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="K37" s="32" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
         <v>19</v>
       </c>
@@ -12184,11 +12195,14 @@
       <c r="J38" s="30" t="s">
         <v>34</v>
       </c>
+      <c r="K38" s="32" t="s">
+        <v>689</v>
+      </c>
       <c r="L38" s="30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
         <v>19</v>
       </c>
@@ -12219,8 +12233,11 @@
       <c r="J39" s="30">
         <v>2023.52</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="K39" s="32" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
         <v>19</v>
       </c>
@@ -12251,8 +12268,11 @@
       <c r="J40" s="30">
         <v>1842.37</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="K40" s="32" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
         <v>19</v>
       </c>
@@ -12283,8 +12303,11 @@
       <c r="J41" s="30">
         <v>2032.15</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="K41" s="32" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
         <v>19</v>
       </c>
@@ -12315,8 +12338,11 @@
       <c r="J42" s="30">
         <v>1525.86</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="K42" s="32" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
         <v>19</v>
       </c>
@@ -12347,8 +12373,11 @@
       <c r="J43" s="30">
         <v>1752.01</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="K43" s="32" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
         <v>19</v>
       </c>
@@ -12379,8 +12408,11 @@
       <c r="J44" s="30">
         <v>1690.28</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="K44" s="32" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
         <v>19</v>
       </c>
@@ -12411,8 +12443,11 @@
       <c r="J45" s="30">
         <v>1683.56</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="K45" s="32" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
         <v>19</v>
       </c>
@@ -12443,8 +12478,11 @@
       <c r="J46" s="30">
         <v>1569.43</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="K46" s="32" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
         <v>19</v>
       </c>
@@ -12475,8 +12513,11 @@
       <c r="J47" s="30">
         <v>1501.44</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="K47" s="32" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
         <v>19</v>
       </c>
@@ -12507,8 +12548,11 @@
       <c r="J48" s="30">
         <v>1594.69</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K48" s="32" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
         <v>19</v>
       </c>
@@ -12539,8 +12583,11 @@
       <c r="J49" s="30">
         <v>1493.35</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K49" s="32" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
         <v>19</v>
       </c>
@@ -12571,8 +12618,11 @@
       <c r="J50" s="30">
         <v>1479.11</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K50" s="32" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="29" t="s">
         <v>19</v>
       </c>
@@ -12603,8 +12653,11 @@
       <c r="J51" s="30">
         <v>1552.52</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K51" s="32" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
         <v>19</v>
       </c>
@@ -12635,8 +12688,11 @@
       <c r="J52" s="30">
         <v>1835.07</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K52" s="32" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="29" t="s">
         <v>19</v>
       </c>
@@ -12667,8 +12723,11 @@
       <c r="J53" s="30">
         <v>1717.42</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K53" s="32" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="29" t="s">
         <v>19</v>
       </c>
@@ -12699,8 +12758,11 @@
       <c r="J54" s="30">
         <v>1410.65</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K54" s="32" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="29" t="s">
         <v>19</v>
       </c>
@@ -12731,8 +12793,11 @@
       <c r="J55" s="30">
         <v>1522.64</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K55" s="32" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="29" t="s">
         <v>19</v>
       </c>
@@ -12763,8 +12828,11 @@
       <c r="J56" s="30">
         <v>1558.32</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K56" s="32" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="29" t="s">
         <v>19</v>
       </c>
@@ -12795,8 +12863,11 @@
       <c r="J57" s="30">
         <v>1496.98</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K57" s="32" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="29" t="s">
         <v>19</v>
       </c>
@@ -12827,8 +12898,11 @@
       <c r="J58" s="30">
         <v>1479.11</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K58" s="32" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="29" t="s">
         <v>19</v>
       </c>
@@ -12859,8 +12933,11 @@
       <c r="J59" s="30">
         <v>1552.52</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K59" s="30" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="29" t="s">
         <v>19</v>
       </c>
@@ -12891,8 +12968,11 @@
       <c r="J60" s="30">
         <v>1835.07</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K60" s="30" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="29" t="s">
         <v>19</v>
       </c>
@@ -12923,8 +13003,11 @@
       <c r="J61" s="30">
         <v>1717.42</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K61" s="30" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="29" t="s">
         <v>19</v>
       </c>
@@ -12955,8 +13038,11 @@
       <c r="J62" s="30">
         <v>1410.65</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K62" s="30" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="29" t="s">
         <v>19</v>
       </c>
@@ -12987,8 +13073,11 @@
       <c r="J63" s="30">
         <v>1522.64</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K63" s="30" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="29" t="s">
         <v>19</v>
       </c>
@@ -13019,8 +13108,11 @@
       <c r="J64" s="30">
         <v>1558.32</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K64" s="30" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="29" t="s">
         <v>19</v>
       </c>
@@ -13051,8 +13143,11 @@
       <c r="J65" s="30">
         <v>1496.98</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K65" s="30" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="29" t="s">
         <v>20</v>
       </c>
@@ -13074,8 +13169,21 @@
       <c r="G66" s="30" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H66" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="I66" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="J66" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="K66" s="32"/>
+      <c r="L66" s="30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="29" t="s">
         <v>20</v>
       </c>
@@ -13098,7 +13206,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="29" t="s">
         <v>20</v>
       </c>
@@ -13121,7 +13229,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="29" t="s">
         <v>20</v>
       </c>
@@ -13144,7 +13252,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="29" t="s">
         <v>20</v>
       </c>
@@ -13167,7 +13275,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="29" t="s">
         <v>20</v>
       </c>
@@ -13190,7 +13298,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="29" t="s">
         <v>20</v>
       </c>
@@ -13213,7 +13321,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="29" t="s">
         <v>20</v>
       </c>
@@ -13236,7 +13344,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="29" t="s">
         <v>20</v>
       </c>
@@ -13259,7 +13367,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="29" t="s">
         <v>20</v>
       </c>
@@ -13282,7 +13390,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="29" t="s">
         <v>20</v>
       </c>
@@ -13305,7 +13413,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="29" t="s">
         <v>20</v>
       </c>
@@ -13328,7 +13436,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="29" t="s">
         <v>20</v>
       </c>
@@ -13351,7 +13459,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="29" t="s">
         <v>20</v>
       </c>
@@ -13374,7 +13482,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="29" t="s">
         <v>20</v>
       </c>
@@ -13397,7 +13505,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="29" t="s">
         <v>20</v>
       </c>
@@ -13420,7 +13528,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="29" t="s">
         <v>20</v>
       </c>
@@ -13443,7 +13551,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="29" t="s">
         <v>20</v>
       </c>
@@ -13466,7 +13574,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="29" t="s">
         <v>20</v>
       </c>
@@ -13489,7 +13597,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="29" t="s">
         <v>20</v>
       </c>
@@ -13512,7 +13620,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="29" t="s">
         <v>20</v>
       </c>
@@ -13535,7 +13643,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="29" t="s">
         <v>20</v>
       </c>
@@ -13558,7 +13666,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="29" t="s">
         <v>20</v>
       </c>
@@ -13581,7 +13689,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="29" t="s">
         <v>20</v>
       </c>
@@ -13604,7 +13712,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="29" t="s">
         <v>20</v>
       </c>
@@ -13627,7 +13735,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="29" t="s">
         <v>20</v>
       </c>
@@ -13650,7 +13758,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="29" t="s">
         <v>20</v>
       </c>
@@ -13673,7 +13781,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="29" t="s">
         <v>20</v>
       </c>
@@ -13696,7 +13804,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="29" t="s">
         <v>20</v>
       </c>
@@ -13719,7 +13827,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="29" t="s">
         <v>20</v>
       </c>
@@ -13742,7 +13850,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="29" t="s">
         <v>20</v>
       </c>
@@ -13765,7 +13873,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="29" t="s">
         <v>20</v>
       </c>
@@ -13788,7 +13896,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="29" t="s">
         <v>21</v>
       </c>
@@ -13811,7 +13919,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="29" t="s">
         <v>21</v>
       </c>
@@ -13834,7 +13942,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="29" t="s">
         <v>21</v>
       </c>
@@ -13857,7 +13965,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="29" t="s">
         <v>21</v>
       </c>
@@ -13880,7 +13988,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="29" t="s">
         <v>21</v>
       </c>
@@ -13903,7 +14011,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="29" t="s">
         <v>21</v>
       </c>
@@ -13926,7 +14034,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="29" t="s">
         <v>21</v>
       </c>
@@ -13949,7 +14057,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="29" t="s">
         <v>21</v>
       </c>
@@ -13972,7 +14080,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="29" t="s">
         <v>21</v>
       </c>
@@ -13995,7 +14103,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="29" t="s">
         <v>21</v>
       </c>
@@ -14018,7 +14126,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="29" t="s">
         <v>21</v>
       </c>
@@ -14041,7 +14149,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="29" t="s">
         <v>21</v>
       </c>
@@ -14064,7 +14172,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="29" t="s">
         <v>21</v>
       </c>
@@ -14087,7 +14195,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="29" t="s">
         <v>21</v>
       </c>
@@ -14110,7 +14218,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="29" t="s">
         <v>21</v>
       </c>
@@ -14133,7 +14241,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="29" t="s">
         <v>21</v>
       </c>
@@ -14156,7 +14264,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="29" t="s">
         <v>21</v>
       </c>
@@ -14179,7 +14287,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="29" t="s">
         <v>21</v>
       </c>
@@ -14202,7 +14310,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="29" t="s">
         <v>21</v>
       </c>
@@ -14225,7 +14333,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="29" t="s">
         <v>21</v>
       </c>
@@ -14248,7 +14356,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="29" t="s">
         <v>21</v>
       </c>
@@ -14271,7 +14379,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="29" t="s">
         <v>21</v>
       </c>
@@ -14294,7 +14402,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="29" t="s">
         <v>21</v>
       </c>
@@ -14317,7 +14425,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="29" t="s">
         <v>21</v>
       </c>
@@ -14340,7 +14448,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="29" t="s">
         <v>21</v>
       </c>
@@ -14363,7 +14471,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="29" t="s">
         <v>21</v>
       </c>
@@ -14386,7 +14494,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="29" t="s">
         <v>21</v>
       </c>
@@ -14409,7 +14517,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="29" t="s">
         <v>21</v>
       </c>
@@ -14432,7 +14540,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="29" t="s">
         <v>21</v>
       </c>
@@ -14455,7 +14563,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="29" t="s">
         <v>21</v>
       </c>
@@ -14478,7 +14586,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="29" t="s">
         <v>21</v>
       </c>
@@ -14501,7 +14609,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="29" t="s">
         <v>21</v>
       </c>
@@ -14524,7 +14632,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="29" t="s">
         <v>22</v>
       </c>
@@ -14547,7 +14655,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="29" t="s">
         <v>22</v>
       </c>
@@ -14570,7 +14678,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="29" t="s">
         <v>22</v>
       </c>
@@ -14593,7 +14701,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="29" t="s">
         <v>22</v>
       </c>
@@ -14616,7 +14724,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="29" t="s">
         <v>22</v>
       </c>
@@ -14639,7 +14747,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="29" t="s">
         <v>22</v>
       </c>
@@ -14662,7 +14770,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="29" t="s">
         <v>22</v>
       </c>
@@ -14685,7 +14793,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="29" t="s">
         <v>22</v>
       </c>
@@ -14708,7 +14816,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="29" t="s">
         <v>22</v>
       </c>
@@ -14731,7 +14839,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="29" t="s">
         <v>22</v>
       </c>
@@ -14754,7 +14862,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="29" t="s">
         <v>22</v>
       </c>
@@ -14777,7 +14885,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="29" t="s">
         <v>22</v>
       </c>
@@ -14800,7 +14908,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="29" t="s">
         <v>22</v>
       </c>
@@ -14823,7 +14931,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="29" t="s">
         <v>22</v>
       </c>
@@ -14846,7 +14954,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="29" t="s">
         <v>22</v>
       </c>
@@ -14869,7 +14977,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="29" t="s">
         <v>22</v>
       </c>
@@ -14892,7 +15000,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="29" t="s">
         <v>22</v>
       </c>
@@ -14915,7 +15023,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="29" t="s">
         <v>22</v>
       </c>
@@ -14938,7 +15046,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="29" t="s">
         <v>22</v>
       </c>
@@ -14961,7 +15069,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="29" t="s">
         <v>22</v>
       </c>
@@ -14984,7 +15092,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="29" t="s">
         <v>22</v>
       </c>
@@ -15007,7 +15115,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="29" t="s">
         <v>22</v>
       </c>
@@ -15030,7 +15138,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="29" t="s">
         <v>22</v>
       </c>
@@ -15053,7 +15161,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="29" t="s">
         <v>22</v>
       </c>
@@ -15076,7 +15184,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="29" t="s">
         <v>22</v>
       </c>
@@ -15099,7 +15207,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="29" t="s">
         <v>22</v>
       </c>
@@ -15122,7 +15230,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="29" t="s">
         <v>22</v>
       </c>
@@ -15145,7 +15253,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="29" t="s">
         <v>22</v>
       </c>
@@ -15168,7 +15276,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="29" t="s">
         <v>22</v>
       </c>
@@ -15191,7 +15299,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="29" t="s">
         <v>22</v>
       </c>
@@ -15214,7 +15322,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="29" t="s">
         <v>22</v>
       </c>
@@ -15237,7 +15345,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="29" t="s">
         <v>22</v>
       </c>
@@ -15260,7 +15368,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="29" t="s">
         <v>23</v>
       </c>
@@ -15283,7 +15391,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="29" t="s">
         <v>23</v>
       </c>
@@ -15306,7 +15414,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="29" t="s">
         <v>23</v>
       </c>
@@ -15329,7 +15437,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="29" t="s">
         <v>23</v>
       </c>
@@ -15352,7 +15460,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="29" t="s">
         <v>23</v>
       </c>
@@ -15375,7 +15483,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="29" t="s">
         <v>23</v>
       </c>
@@ -15398,7 +15506,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="29" t="s">
         <v>23</v>
       </c>
@@ -15421,7 +15529,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="29" t="s">
         <v>23</v>
       </c>
@@ -15444,7 +15552,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="29" t="s">
         <v>23</v>
       </c>
@@ -15467,7 +15575,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="29" t="s">
         <v>23</v>
       </c>
@@ -15490,7 +15598,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="29" t="s">
         <v>23</v>
       </c>
@@ -15513,7 +15621,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="29" t="s">
         <v>23</v>
       </c>
@@ -15536,7 +15644,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="29" t="s">
         <v>23</v>
       </c>
@@ -15559,7 +15667,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="29" t="s">
         <v>23</v>
       </c>
@@ -15582,7 +15690,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="29" t="s">
         <v>23</v>
       </c>
@@ -15605,7 +15713,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="29" t="s">
         <v>23</v>
       </c>
@@ -15628,7 +15736,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="29" t="s">
         <v>23</v>
       </c>
@@ -15651,7 +15759,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="29" t="s">
         <v>23</v>
       </c>
@@ -15674,7 +15782,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="29" t="s">
         <v>23</v>
       </c>
@@ -15697,7 +15805,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="29" t="s">
         <v>23</v>
       </c>
@@ -15720,7 +15828,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="29" t="s">
         <v>23</v>
       </c>
@@ -15743,7 +15851,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="29" t="s">
         <v>23</v>
       </c>
@@ -15766,7 +15874,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="29" t="s">
         <v>23</v>
       </c>
@@ -15789,7 +15897,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="29" t="s">
         <v>23</v>
       </c>
@@ -15812,7 +15920,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="29" t="s">
         <v>23</v>
       </c>
@@ -15835,7 +15943,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="29" t="s">
         <v>23</v>
       </c>
@@ -15858,7 +15966,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="29" t="s">
         <v>23</v>
       </c>
@@ -15881,7 +15989,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="29" t="s">
         <v>23</v>
       </c>
@@ -15904,7 +16012,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="29" t="s">
         <v>23</v>
       </c>
@@ -15927,7 +16035,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="29" t="s">
         <v>23</v>
       </c>
@@ -15950,7 +16058,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="29" t="s">
         <v>23</v>
       </c>
@@ -15973,7 +16081,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="29" t="s">
         <v>23</v>
       </c>
@@ -15996,7 +16104,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="29" t="s">
         <v>24</v>
       </c>
@@ -16019,7 +16127,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="29" t="s">
         <v>24</v>
       </c>
@@ -16042,7 +16150,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="29" t="s">
         <v>24</v>
       </c>
@@ -16065,7 +16173,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="29" t="s">
         <v>24</v>
       </c>
@@ -16088,7 +16196,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="29" t="s">
         <v>24</v>
       </c>
@@ -16111,7 +16219,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="29" t="s">
         <v>24</v>
       </c>
@@ -16134,7 +16242,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="29" t="s">
         <v>24</v>
       </c>
@@ -16157,7 +16265,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="29" t="s">
         <v>24</v>
       </c>
@@ -16180,7 +16288,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="29" t="s">
         <v>24</v>
       </c>
@@ -16203,7 +16311,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="29" t="s">
         <v>24</v>
       </c>
@@ -16226,7 +16334,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="29" t="s">
         <v>24</v>
       </c>
@@ -16249,7 +16357,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="29" t="s">
         <v>24</v>
       </c>
@@ -16272,7 +16380,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="29" t="s">
         <v>24</v>
       </c>
@@ -16295,7 +16403,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="29" t="s">
         <v>24</v>
       </c>
@@ -16318,7 +16426,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="29" t="s">
         <v>24</v>
       </c>
@@ -16341,7 +16449,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="29" t="s">
         <v>24</v>
       </c>
@@ -16364,7 +16472,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="29" t="s">
         <v>24</v>
       </c>
@@ -16387,7 +16495,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="29" t="s">
         <v>24</v>
       </c>
@@ -16410,7 +16518,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="29" t="s">
         <v>24</v>
       </c>
@@ -16433,7 +16541,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="29" t="s">
         <v>24</v>
       </c>
@@ -16456,7 +16564,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="29" t="s">
         <v>24</v>
       </c>
@@ -16479,7 +16587,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="29" t="s">
         <v>24</v>
       </c>
@@ -16502,7 +16610,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="29" t="s">
         <v>24</v>
       </c>
@@ -16525,7 +16633,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="29" t="s">
         <v>24</v>
       </c>
@@ -16548,7 +16656,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="29" t="s">
         <v>24</v>
       </c>
@@ -16571,7 +16679,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="29" t="s">
         <v>24</v>
       </c>
@@ -16594,7 +16702,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="29" t="s">
         <v>24</v>
       </c>
@@ -16617,7 +16725,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="29" t="s">
         <v>24</v>
       </c>
@@ -16640,7 +16748,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="29" t="s">
         <v>24</v>
       </c>
@@ -16663,7 +16771,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="29" t="s">
         <v>24</v>
       </c>
@@ -16686,7 +16794,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="29" t="s">
         <v>24</v>
       </c>
@@ -16709,7 +16817,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="29" t="s">
         <v>24</v>
       </c>
@@ -16732,7 +16840,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="29" t="s">
         <v>25</v>
       </c>
@@ -16755,7 +16863,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="29" t="s">
         <v>25</v>
       </c>
@@ -16778,7 +16886,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="29" t="s">
         <v>25</v>
       </c>
@@ -16801,7 +16909,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="29" t="s">
         <v>25</v>
       </c>
@@ -16824,7 +16932,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="29" t="s">
         <v>25</v>
       </c>
@@ -16847,7 +16955,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="29" t="s">
         <v>25</v>
       </c>
@@ -16870,7 +16978,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="29" t="s">
         <v>25</v>
       </c>
@@ -16893,7 +17001,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="29" t="s">
         <v>25</v>
       </c>
@@ -16916,7 +17024,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="29" t="s">
         <v>25</v>
       </c>
@@ -16939,7 +17047,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="29" t="s">
         <v>25</v>
       </c>
@@ -16962,7 +17070,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="29" t="s">
         <v>25</v>
       </c>
@@ -16985,7 +17093,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="29" t="s">
         <v>25</v>
       </c>
@@ -17008,7 +17116,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="29" t="s">
         <v>25</v>
       </c>
@@ -17031,7 +17139,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="29" t="s">
         <v>25</v>
       </c>
@@ -17054,7 +17162,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="29" t="s">
         <v>25</v>
       </c>
@@ -17077,7 +17185,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="29" t="s">
         <v>25</v>
       </c>
@@ -17100,7 +17208,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="29" t="s">
         <v>25</v>
       </c>
@@ -17123,7 +17231,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="29" t="s">
         <v>25</v>
       </c>
@@ -17146,7 +17254,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="29" t="s">
         <v>25</v>
       </c>
@@ -17169,7 +17277,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="29" t="s">
         <v>25</v>
       </c>
@@ -17192,7 +17300,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="29" t="s">
         <v>25</v>
       </c>
@@ -17215,7 +17323,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="29" t="s">
         <v>25</v>
       </c>
@@ -17238,7 +17346,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="29" t="s">
         <v>25</v>
       </c>
@@ -17261,7 +17369,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="29" t="s">
         <v>25</v>
       </c>
@@ -17284,7 +17392,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="29" t="s">
         <v>25</v>
       </c>
@@ -17307,7 +17415,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="29" t="s">
         <v>25</v>
       </c>
@@ -17330,7 +17438,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="29" t="s">
         <v>25</v>
       </c>
@@ -17353,7 +17461,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="29" t="s">
         <v>25</v>
       </c>
@@ -17376,7 +17484,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="29" t="s">
         <v>25</v>
       </c>
@@ -17399,7 +17507,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="29" t="s">
         <v>25</v>
       </c>
@@ -17422,7 +17530,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="29" t="s">
         <v>25</v>
       </c>
@@ -17445,7 +17553,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="29" t="s">
         <v>25</v>
       </c>
@@ -17468,7 +17576,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="29" t="s">
         <v>26</v>
       </c>
@@ -17491,7 +17599,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="29" t="s">
         <v>26</v>
       </c>
@@ -17514,7 +17622,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="29" t="s">
         <v>26</v>
       </c>
@@ -17537,7 +17645,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="29" t="s">
         <v>26</v>
       </c>
@@ -17560,7 +17668,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="29" t="s">
         <v>26</v>
       </c>
@@ -17583,7 +17691,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="29" t="s">
         <v>26</v>
       </c>
@@ -17606,7 +17714,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="29" t="s">
         <v>26</v>
       </c>
@@ -17629,7 +17737,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="29" t="s">
         <v>26</v>
       </c>
@@ -17652,7 +17760,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="29" t="s">
         <v>26</v>
       </c>
@@ -17675,7 +17783,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="29" t="s">
         <v>26</v>
       </c>
@@ -17698,7 +17806,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="29" t="s">
         <v>26</v>
       </c>
@@ -17721,7 +17829,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="29" t="s">
         <v>26</v>
       </c>
@@ -17744,7 +17852,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="29" t="s">
         <v>26</v>
       </c>
@@ -17767,7 +17875,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="29" t="s">
         <v>26</v>
       </c>
@@ -17790,7 +17898,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="29" t="s">
         <v>26</v>
       </c>
@@ -17813,7 +17921,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="29" t="s">
         <v>26</v>
       </c>
@@ -17836,7 +17944,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="29" t="s">
         <v>26</v>
       </c>
@@ -17859,7 +17967,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="29" t="s">
         <v>26</v>
       </c>
@@ -17882,7 +17990,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="29" t="s">
         <v>26</v>
       </c>
@@ -17905,7 +18013,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="29" t="s">
         <v>26</v>
       </c>
@@ -17928,7 +18036,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="29" t="s">
         <v>26</v>
       </c>
@@ -17951,7 +18059,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="29" t="s">
         <v>26</v>
       </c>
@@ -17974,7 +18082,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="29" t="s">
         <v>26</v>
       </c>
@@ -17997,7 +18105,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="29" t="s">
         <v>26</v>
       </c>
@@ -18020,7 +18128,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="29" t="s">
         <v>26</v>
       </c>
@@ -18043,7 +18151,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="29" t="s">
         <v>26</v>
       </c>
@@ -18066,7 +18174,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="29" t="s">
         <v>26</v>
       </c>
@@ -18089,7 +18197,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="29" t="s">
         <v>26</v>
       </c>
@@ -18112,7 +18220,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="29" t="s">
         <v>26</v>
       </c>
@@ -18135,7 +18243,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="29" t="s">
         <v>26</v>
       </c>
@@ -18158,7 +18266,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="29" t="s">
         <v>26</v>
       </c>
@@ -18181,7 +18289,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="29" t="s">
         <v>26</v>
       </c>
@@ -18204,7 +18312,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="29" t="s">
         <v>27</v>
       </c>
@@ -18227,7 +18335,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="29" t="s">
         <v>27</v>
       </c>
@@ -18250,7 +18358,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="29" t="s">
         <v>27</v>
       </c>
@@ -18273,7 +18381,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="29" t="s">
         <v>27</v>
       </c>
@@ -18296,7 +18404,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="29" t="s">
         <v>27</v>
       </c>
@@ -18319,7 +18427,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="29" t="s">
         <v>27</v>
       </c>
@@ -18342,7 +18450,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="29" t="s">
         <v>27</v>
       </c>
@@ -18365,7 +18473,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="29" t="s">
         <v>27</v>
       </c>
@@ -18388,7 +18496,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="29" t="s">
         <v>27</v>
       </c>
@@ -18411,7 +18519,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="29" t="s">
         <v>27</v>
       </c>
@@ -18434,7 +18542,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="29" t="s">
         <v>27</v>
       </c>
@@ -18457,7 +18565,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="29" t="s">
         <v>27</v>
       </c>
@@ -18480,7 +18588,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="29" t="s">
         <v>27</v>
       </c>
@@ -18503,7 +18611,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="29" t="s">
         <v>27</v>
       </c>
@@ -18526,7 +18634,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="29" t="s">
         <v>27</v>
       </c>
@@ -18549,7 +18657,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="29" t="s">
         <v>27</v>
       </c>
@@ -18572,7 +18680,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="29" t="s">
         <v>27</v>
       </c>
@@ -18595,7 +18703,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="29" t="s">
         <v>27</v>
       </c>
@@ -18618,7 +18726,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="29" t="s">
         <v>27</v>
       </c>
@@ -18641,7 +18749,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="29" t="s">
         <v>27</v>
       </c>
@@ -18664,7 +18772,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="29" t="s">
         <v>27</v>
       </c>
@@ -18687,7 +18795,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="29" t="s">
         <v>27</v>
       </c>
@@ -18710,7 +18818,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="29" t="s">
         <v>27</v>
       </c>
@@ -18733,7 +18841,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="29" t="s">
         <v>27</v>
       </c>
@@ -18756,7 +18864,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="29" t="s">
         <v>27</v>
       </c>
@@ -18779,7 +18887,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="29" t="s">
         <v>27</v>
       </c>
@@ -18802,7 +18910,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="29" t="s">
         <v>27</v>
       </c>
@@ -18825,7 +18933,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="29" t="s">
         <v>27</v>
       </c>
@@ -18848,7 +18956,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="29" t="s">
         <v>27</v>
       </c>
@@ -18871,7 +18979,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="29" t="s">
         <v>27</v>
       </c>
@@ -18894,7 +19002,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="29" t="s">
         <v>27</v>
       </c>
@@ -18917,7 +19025,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="29" t="s">
         <v>27</v>
       </c>
@@ -18940,7 +19048,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="29" t="s">
         <v>28</v>
       </c>
@@ -18963,7 +19071,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="29" t="s">
         <v>28</v>
       </c>
@@ -18986,7 +19094,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="29" t="s">
         <v>28</v>
       </c>
@@ -19009,7 +19117,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="29" t="s">
         <v>28</v>
       </c>
@@ -19032,7 +19140,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="29" t="s">
         <v>28</v>
       </c>
@@ -19055,7 +19163,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="29" t="s">
         <v>28</v>
       </c>
@@ -19078,7 +19186,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="29" t="s">
         <v>28</v>
       </c>
@@ -19101,7 +19209,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="29" t="s">
         <v>28</v>
       </c>
@@ -19124,7 +19232,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="29" t="s">
         <v>28</v>
       </c>
@@ -19147,7 +19255,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="29" t="s">
         <v>28</v>
       </c>
@@ -19170,7 +19278,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="29" t="s">
         <v>28</v>
       </c>
@@ -19193,7 +19301,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="29" t="s">
         <v>28</v>
       </c>
@@ -19216,7 +19324,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="29" t="s">
         <v>28</v>
       </c>
@@ -19239,7 +19347,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="29" t="s">
         <v>28</v>
       </c>
@@ -19262,7 +19370,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="29" t="s">
         <v>28</v>
       </c>
@@ -19285,7 +19393,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="29" t="s">
         <v>28</v>
       </c>
@@ -19308,7 +19416,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="29" t="s">
         <v>28</v>
       </c>
@@ -19331,7 +19439,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="29" t="s">
         <v>28</v>
       </c>
@@ -19354,7 +19462,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="29" t="s">
         <v>28</v>
       </c>
@@ -19377,7 +19485,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="29" t="s">
         <v>28</v>
       </c>
@@ -19400,7 +19508,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="29" t="s">
         <v>28</v>
       </c>
@@ -19423,7 +19531,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="29" t="s">
         <v>28</v>
       </c>
@@ -19446,7 +19554,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="29" t="s">
         <v>28</v>
       </c>
@@ -19469,7 +19577,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="29" t="s">
         <v>28</v>
       </c>
@@ -19492,7 +19600,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="29" t="s">
         <v>28</v>
       </c>
@@ -19515,7 +19623,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="29" t="s">
         <v>28</v>
       </c>
@@ -19538,7 +19646,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="29" t="s">
         <v>28</v>
       </c>
@@ -19561,7 +19669,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="29" t="s">
         <v>28</v>
       </c>
@@ -19584,7 +19692,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="29" t="s">
         <v>28</v>
       </c>
@@ -19607,7 +19715,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="29" t="s">
         <v>28</v>
       </c>
@@ -19630,7 +19738,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="29" t="s">
         <v>28</v>
       </c>
@@ -19653,7 +19761,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="29" t="s">
         <v>28</v>
       </c>
@@ -19676,7 +19784,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="29" t="s">
         <v>29</v>
       </c>
@@ -19699,7 +19807,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="29" t="s">
         <v>29</v>
       </c>
@@ -19722,7 +19830,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="29" t="s">
         <v>29</v>
       </c>
@@ -19745,7 +19853,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="29" t="s">
         <v>29</v>
       </c>
@@ -19768,7 +19876,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="29" t="s">
         <v>29</v>
       </c>
@@ -19791,7 +19899,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="29" t="s">
         <v>29</v>
       </c>
@@ -19814,7 +19922,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="29" t="s">
         <v>29</v>
       </c>
@@ -19837,7 +19945,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="29" t="s">
         <v>29</v>
       </c>
@@ -19860,7 +19968,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="29" t="s">
         <v>29</v>
       </c>
@@ -19883,7 +19991,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="29" t="s">
         <v>29</v>
       </c>
@@ -19906,7 +20014,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="29" t="s">
         <v>29</v>
       </c>
@@ -19929,7 +20037,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="29" t="s">
         <v>29</v>
       </c>
@@ -19952,7 +20060,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="29" t="s">
         <v>29</v>
       </c>
@@ -19975,7 +20083,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="29" t="s">
         <v>29</v>
       </c>
@@ -19998,7 +20106,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="29" t="s">
         <v>29</v>
       </c>
@@ -20021,7 +20129,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="29" t="s">
         <v>29</v>
       </c>
@@ -20044,7 +20152,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="29" t="s">
         <v>29</v>
       </c>
@@ -20067,7 +20175,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="29" t="s">
         <v>29</v>
       </c>
@@ -20090,7 +20198,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="29" t="s">
         <v>29</v>
       </c>
@@ -20113,7 +20221,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="29" t="s">
         <v>29</v>
       </c>
@@ -20136,7 +20244,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="29" t="s">
         <v>29</v>
       </c>
@@ -20159,7 +20267,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="29" t="s">
         <v>29</v>
       </c>
@@ -20182,7 +20290,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="29" t="s">
         <v>29</v>
       </c>
@@ -20205,7 +20313,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="29" t="s">
         <v>29</v>
       </c>
@@ -20228,7 +20336,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="29" t="s">
         <v>29</v>
       </c>
@@ -20251,7 +20359,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="29" t="s">
         <v>29</v>
       </c>
@@ -20274,7 +20382,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="29" t="s">
         <v>29</v>
       </c>
@@ -20297,7 +20405,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="29" t="s">
         <v>29</v>
       </c>
@@ -20320,7 +20428,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="29" t="s">
         <v>29</v>
       </c>
@@ -20343,7 +20451,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="29" t="s">
         <v>29</v>
       </c>
@@ -20366,7 +20474,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="29" t="s">
         <v>29</v>
       </c>
@@ -20389,7 +20497,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="29" t="s">
         <v>29</v>
       </c>
@@ -20412,7 +20520,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="29" t="s">
         <v>30</v>
       </c>
@@ -20435,7 +20543,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="29" t="s">
         <v>30</v>
       </c>
@@ -20458,7 +20566,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="29" t="s">
         <v>30</v>
       </c>
@@ -20481,7 +20589,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="29" t="s">
         <v>30</v>
       </c>
@@ -20504,7 +20612,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="29" t="s">
         <v>30</v>
       </c>
@@ -20527,7 +20635,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="29" t="s">
         <v>30</v>
       </c>
@@ -20550,7 +20658,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="29" t="s">
         <v>30</v>
       </c>
@@ -20573,7 +20681,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="29" t="s">
         <v>30</v>
       </c>
@@ -20596,7 +20704,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="29" t="s">
         <v>30</v>
       </c>
@@ -20619,7 +20727,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="29" t="s">
         <v>30</v>
       </c>
@@ -20642,7 +20750,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="29" t="s">
         <v>30</v>
       </c>
@@ -20665,7 +20773,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="29" t="s">
         <v>30</v>
       </c>
@@ -20688,7 +20796,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="29" t="s">
         <v>30</v>
       </c>
@@ -20711,7 +20819,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="29" t="s">
         <v>30</v>
       </c>
@@ -20734,7 +20842,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="29" t="s">
         <v>30</v>
       </c>
@@ -20757,7 +20865,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="29" t="s">
         <v>30</v>
       </c>
@@ -20780,7 +20888,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="29" t="s">
         <v>30</v>
       </c>
@@ -20803,7 +20911,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="29" t="s">
         <v>30</v>
       </c>
@@ -20826,7 +20934,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="29" t="s">
         <v>30</v>
       </c>
@@ -20849,7 +20957,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="29" t="s">
         <v>30</v>
       </c>
@@ -20872,7 +20980,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="29" t="s">
         <v>30</v>
       </c>
@@ -20895,7 +21003,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="29" t="s">
         <v>30</v>
       </c>
@@ -20918,7 +21026,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="29" t="s">
         <v>30</v>
       </c>
@@ -20941,7 +21049,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="29" t="s">
         <v>30</v>
       </c>
@@ -20964,7 +21072,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="29" t="s">
         <v>30</v>
       </c>
@@ -20987,7 +21095,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="29" t="s">
         <v>30</v>
       </c>
@@ -21010,7 +21118,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="29" t="s">
         <v>30</v>
       </c>
@@ -21033,7 +21141,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="29" t="s">
         <v>30</v>
       </c>
@@ -21056,7 +21164,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="29" t="s">
         <v>30</v>
       </c>
@@ -21079,7 +21187,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="29" t="s">
         <v>30</v>
       </c>
@@ -21102,7 +21210,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="29" t="s">
         <v>30</v>
       </c>
@@ -21125,7 +21233,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="29" t="s">
         <v>30</v>
       </c>
@@ -21148,7 +21256,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="29" t="s">
         <v>31</v>
       </c>
@@ -21171,7 +21279,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="29" t="s">
         <v>31</v>
       </c>
@@ -21194,7 +21302,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="29" t="s">
         <v>31</v>
       </c>
@@ -21217,7 +21325,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="29" t="s">
         <v>31</v>
       </c>
@@ -21240,7 +21348,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="29" t="s">
         <v>31</v>
       </c>
@@ -21263,7 +21371,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="29" t="s">
         <v>31</v>
       </c>
@@ -21286,7 +21394,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="29" t="s">
         <v>31</v>
       </c>
@@ -21309,7 +21417,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="29" t="s">
         <v>31</v>
       </c>
@@ -21332,7 +21440,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="29" t="s">
         <v>31</v>
       </c>
@@ -21355,7 +21463,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="29" t="s">
         <v>31</v>
       </c>
@@ -21378,7 +21486,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="29" t="s">
         <v>31</v>
       </c>
@@ -21401,7 +21509,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="29" t="s">
         <v>31</v>
       </c>
@@ -21424,7 +21532,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="29" t="s">
         <v>31</v>
       </c>
@@ -21447,7 +21555,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="29" t="s">
         <v>31</v>
       </c>
@@ -21470,7 +21578,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="29" t="s">
         <v>31</v>
       </c>
@@ -21493,7 +21601,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="29" t="s">
         <v>31</v>
       </c>
@@ -21516,7 +21624,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="29" t="s">
         <v>31</v>
       </c>
@@ -21539,7 +21647,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="29" t="s">
         <v>31</v>
       </c>
@@ -21562,7 +21670,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="29" t="s">
         <v>31</v>
       </c>
@@ -21585,7 +21693,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="29" t="s">
         <v>31</v>
       </c>
@@ -21608,7 +21716,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="29" t="s">
         <v>31</v>
       </c>
@@ -21631,7 +21739,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="29" t="s">
         <v>31</v>
       </c>
@@ -21654,7 +21762,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="29" t="s">
         <v>31</v>
       </c>
@@ -21677,7 +21785,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="29" t="s">
         <v>31</v>
       </c>
@@ -21700,7 +21808,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="29" t="s">
         <v>31</v>
       </c>
@@ -21723,7 +21831,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="29" t="s">
         <v>31</v>
       </c>
@@ -21746,7 +21854,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="29" t="s">
         <v>31</v>
       </c>
@@ -21769,7 +21877,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="29" t="s">
         <v>31</v>
       </c>
@@ -21792,7 +21900,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="29" t="s">
         <v>31</v>
       </c>
@@ -21815,7 +21923,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="29" t="s">
         <v>31</v>
       </c>
@@ -21838,7 +21946,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="29" t="s">
         <v>31</v>
       </c>
@@ -21861,7 +21969,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="29" t="s">
         <v>31</v>
       </c>
@@ -21884,7 +21992,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="29" t="s">
         <v>32</v>
       </c>
@@ -21907,7 +22015,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="29" t="s">
         <v>32</v>
       </c>
@@ -21930,7 +22038,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="29" t="s">
         <v>32</v>
       </c>
@@ -21953,7 +22061,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="29" t="s">
         <v>32</v>
       </c>
@@ -21976,7 +22084,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="29" t="s">
         <v>32</v>
       </c>
@@ -21999,7 +22107,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="29" t="s">
         <v>32</v>
       </c>
@@ -22022,7 +22130,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="29" t="s">
         <v>32</v>
       </c>
@@ -22045,7 +22153,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="29" t="s">
         <v>32</v>
       </c>
@@ -22068,7 +22176,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="29" t="s">
         <v>32</v>
       </c>
@@ -22091,7 +22199,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="29" t="s">
         <v>32</v>
       </c>
@@ -22114,7 +22222,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="29" t="s">
         <v>32</v>
       </c>
@@ -22137,7 +22245,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="29" t="s">
         <v>32</v>
       </c>
@@ -22160,7 +22268,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="29" t="s">
         <v>32</v>
       </c>
@@ -22183,7 +22291,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="29" t="s">
         <v>32</v>
       </c>
@@ -22206,7 +22314,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" s="29" t="s">
         <v>32</v>
       </c>
@@ -22229,7 +22337,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="29" t="s">
         <v>32</v>
       </c>
@@ -22252,7 +22360,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="29" t="s">
         <v>32</v>
       </c>
@@ -22275,7 +22383,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="29" t="s">
         <v>32</v>
       </c>
@@ -22298,7 +22406,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="29" t="s">
         <v>32</v>
       </c>
@@ -22321,7 +22429,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" s="29" t="s">
         <v>32</v>
       </c>
@@ -22344,7 +22452,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" s="29" t="s">
         <v>32</v>
       </c>
@@ -22367,7 +22475,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" s="29" t="s">
         <v>32</v>
       </c>
@@ -22390,7 +22498,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" s="29" t="s">
         <v>32</v>
       </c>
@@ -22413,7 +22521,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="29" t="s">
         <v>32</v>
       </c>
@@ -22436,7 +22544,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="29" t="s">
         <v>32</v>
       </c>
@@ -22459,7 +22567,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="29" t="s">
         <v>32</v>
       </c>
@@ -22482,7 +22590,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="29" t="s">
         <v>32</v>
       </c>
@@ -22505,7 +22613,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="29" t="s">
         <v>32</v>
       </c>
@@ -22528,7 +22636,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="29" t="s">
         <v>32</v>
       </c>
@@ -22551,7 +22659,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="29" t="s">
         <v>32</v>
       </c>
@@ -22574,7 +22682,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="29" t="s">
         <v>32</v>
       </c>
@@ -22597,7 +22705,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="29" t="s">
         <v>32</v>
       </c>
@@ -22672,19 +22780,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.26953125" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
@@ -22746,7 +22854,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>171</v>
       </c>
@@ -22778,7 +22886,7 @@
       <c r="S2" s="14"/>
       <c r="T2" s="12"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>172</v>
       </c>
@@ -22810,7 +22918,7 @@
       <c r="S3" s="13"/>
       <c r="T3" s="12"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>173</v>
       </c>
@@ -22842,7 +22950,7 @@
       <c r="S4" s="14"/>
       <c r="T4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>174</v>
       </c>
@@ -22874,7 +22982,7 @@
       <c r="S5" s="17"/>
       <c r="T5" s="16"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>175</v>
       </c>
@@ -22906,7 +23014,7 @@
       <c r="S6" s="14"/>
       <c r="T6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>176</v>
       </c>
@@ -22938,7 +23046,7 @@
       <c r="S7" s="14"/>
       <c r="T7" s="12"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>177</v>
       </c>
@@ -22970,7 +23078,7 @@
       <c r="S8" s="14"/>
       <c r="T8" s="12"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>178</v>
       </c>
@@ -23002,7 +23110,7 @@
       <c r="S9" s="17"/>
       <c r="T9" s="16"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>179</v>
       </c>
@@ -23034,7 +23142,7 @@
       <c r="S10" s="13"/>
       <c r="T10" s="12"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>180</v>
       </c>
@@ -23066,7 +23174,7 @@
       <c r="S11" s="14"/>
       <c r="T11" s="12"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>181</v>
       </c>
@@ -23098,7 +23206,7 @@
       <c r="S12" s="14"/>
       <c r="T12" s="12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>182</v>
       </c>
@@ -23130,7 +23238,7 @@
       <c r="S13" s="17"/>
       <c r="T13" s="16"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>183</v>
       </c>
@@ -23162,7 +23270,7 @@
       <c r="S14" s="13"/>
       <c r="T14" s="12"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>184</v>
       </c>
@@ -23194,7 +23302,7 @@
       <c r="S15" s="14"/>
       <c r="T15" s="12"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>185</v>
       </c>
@@ -23226,7 +23334,7 @@
       <c r="S16" s="14"/>
       <c r="T16" s="12"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>186</v>
       </c>
@@ -23258,7 +23366,7 @@
       <c r="S17" s="17"/>
       <c r="T17" s="16"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>187</v>
       </c>
@@ -23290,7 +23398,7 @@
       <c r="S18" s="14"/>
       <c r="T18" s="15"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>188</v>
       </c>
@@ -23322,7 +23430,7 @@
       <c r="S19" s="14"/>
       <c r="T19" s="15"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>189</v>
       </c>
@@ -23354,7 +23462,7 @@
       <c r="S20" s="14"/>
       <c r="T20" s="15"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>190</v>
       </c>
@@ -23386,7 +23494,7 @@
       <c r="S21" s="20"/>
       <c r="T21" s="21"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>191</v>
       </c>
@@ -23418,7 +23526,7 @@
       <c r="S22" s="14"/>
       <c r="T22" s="15"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>192</v>
       </c>
@@ -23450,7 +23558,7 @@
       <c r="S23" s="14"/>
       <c r="T23" s="15"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>193</v>
       </c>
@@ -23482,7 +23590,7 @@
       <c r="S24" s="14"/>
       <c r="T24" s="15"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>194</v>
       </c>
@@ -23514,7 +23622,7 @@
       <c r="S25" s="20"/>
       <c r="T25" s="21"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>195</v>
       </c>
@@ -23546,7 +23654,7 @@
       <c r="S26" s="14"/>
       <c r="T26" s="12"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>196</v>
       </c>
@@ -23578,7 +23686,7 @@
       <c r="S27" s="14"/>
       <c r="T27" s="12"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>197</v>
       </c>
@@ -23610,7 +23718,7 @@
       <c r="S28" s="14"/>
       <c r="T28" s="12"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>198</v>
       </c>
@@ -23642,7 +23750,7 @@
       <c r="S29" s="17"/>
       <c r="T29" s="16"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>199</v>
       </c>
@@ -23674,7 +23782,7 @@
       <c r="S30" s="14"/>
       <c r="T30" s="12"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>200</v>
       </c>
@@ -23706,7 +23814,7 @@
       <c r="S31" s="14"/>
       <c r="T31" s="12"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>201</v>
       </c>
@@ -23738,7 +23846,7 @@
       <c r="S32" s="14"/>
       <c r="T32" s="12"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>202</v>
       </c>
@@ -23780,19 +23888,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.26953125" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
@@ -23854,7 +23962,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>171</v>
       </c>
@@ -23886,7 +23994,7 @@
       <c r="S2" s="14"/>
       <c r="T2" s="12"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>172</v>
       </c>
@@ -23918,7 +24026,7 @@
       <c r="S3" s="13"/>
       <c r="T3" s="12"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>173</v>
       </c>
@@ -23950,7 +24058,7 @@
       <c r="S4" s="14"/>
       <c r="T4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>174</v>
       </c>
@@ -23982,7 +24090,7 @@
       <c r="S5" s="17"/>
       <c r="T5" s="16"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>175</v>
       </c>
@@ -24014,7 +24122,7 @@
       <c r="S6" s="14"/>
       <c r="T6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>176</v>
       </c>
@@ -24046,7 +24154,7 @@
       <c r="S7" s="14"/>
       <c r="T7" s="12"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>177</v>
       </c>
@@ -24078,7 +24186,7 @@
       <c r="S8" s="14"/>
       <c r="T8" s="12"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>178</v>
       </c>
@@ -24110,7 +24218,7 @@
       <c r="S9" s="17"/>
       <c r="T9" s="16"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>179</v>
       </c>
@@ -24142,7 +24250,7 @@
       <c r="S10" s="13"/>
       <c r="T10" s="12"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>180</v>
       </c>
@@ -24174,7 +24282,7 @@
       <c r="S11" s="14"/>
       <c r="T11" s="12"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>181</v>
       </c>
@@ -24206,7 +24314,7 @@
       <c r="S12" s="14"/>
       <c r="T12" s="12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>182</v>
       </c>
@@ -24238,7 +24346,7 @@
       <c r="S13" s="17"/>
       <c r="T13" s="16"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>183</v>
       </c>
@@ -24270,7 +24378,7 @@
       <c r="S14" s="13"/>
       <c r="T14" s="12"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>184</v>
       </c>
@@ -24302,7 +24410,7 @@
       <c r="S15" s="14"/>
       <c r="T15" s="12"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>185</v>
       </c>
@@ -24334,7 +24442,7 @@
       <c r="S16" s="14"/>
       <c r="T16" s="12"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>186</v>
       </c>
@@ -24366,7 +24474,7 @@
       <c r="S17" s="17"/>
       <c r="T17" s="16"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>187</v>
       </c>
@@ -24398,7 +24506,7 @@
       <c r="S18" s="14"/>
       <c r="T18" s="15"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>188</v>
       </c>
@@ -24430,7 +24538,7 @@
       <c r="S19" s="14"/>
       <c r="T19" s="15"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>189</v>
       </c>
@@ -24462,7 +24570,7 @@
       <c r="S20" s="14"/>
       <c r="T20" s="15"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>190</v>
       </c>
@@ -24494,7 +24602,7 @@
       <c r="S21" s="20"/>
       <c r="T21" s="21"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>191</v>
       </c>
@@ -24526,7 +24634,7 @@
       <c r="S22" s="14"/>
       <c r="T22" s="15"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>192</v>
       </c>
@@ -24558,7 +24666,7 @@
       <c r="S23" s="14"/>
       <c r="T23" s="15"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>193</v>
       </c>
@@ -24590,7 +24698,7 @@
       <c r="S24" s="14"/>
       <c r="T24" s="15"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>194</v>
       </c>
@@ -24622,7 +24730,7 @@
       <c r="S25" s="20"/>
       <c r="T25" s="21"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>195</v>
       </c>
@@ -24654,7 +24762,7 @@
       <c r="S26" s="14"/>
       <c r="T26" s="12"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>196</v>
       </c>
@@ -24686,7 +24794,7 @@
       <c r="S27" s="14"/>
       <c r="T27" s="12"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>197</v>
       </c>
@@ -24718,7 +24826,7 @@
       <c r="S28" s="14"/>
       <c r="T28" s="12"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>198</v>
       </c>
@@ -24750,7 +24858,7 @@
       <c r="S29" s="17"/>
       <c r="T29" s="16"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>199</v>
       </c>
@@ -24782,7 +24890,7 @@
       <c r="S30" s="14"/>
       <c r="T30" s="12"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>200</v>
       </c>
@@ -24814,7 +24922,7 @@
       <c r="S31" s="14"/>
       <c r="T31" s="12"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>201</v>
       </c>
@@ -24846,7 +24954,7 @@
       <c r="S32" s="14"/>
       <c r="T32" s="12"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>202</v>
       </c>
@@ -24888,19 +24996,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.26953125" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
@@ -24962,7 +25070,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>171</v>
       </c>
@@ -24994,7 +25102,7 @@
       <c r="S2" s="14"/>
       <c r="T2" s="12"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>172</v>
       </c>
@@ -25026,7 +25134,7 @@
       <c r="S3" s="13"/>
       <c r="T3" s="12"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>173</v>
       </c>
@@ -25058,7 +25166,7 @@
       <c r="S4" s="14"/>
       <c r="T4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>174</v>
       </c>
@@ -25090,7 +25198,7 @@
       <c r="S5" s="17"/>
       <c r="T5" s="16"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>175</v>
       </c>
@@ -25122,7 +25230,7 @@
       <c r="S6" s="14"/>
       <c r="T6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>176</v>
       </c>
@@ -25154,7 +25262,7 @@
       <c r="S7" s="14"/>
       <c r="T7" s="12"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>177</v>
       </c>
@@ -25186,7 +25294,7 @@
       <c r="S8" s="14"/>
       <c r="T8" s="12"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>178</v>
       </c>
@@ -25218,7 +25326,7 @@
       <c r="S9" s="17"/>
       <c r="T9" s="16"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>179</v>
       </c>
@@ -25250,7 +25358,7 @@
       <c r="S10" s="13"/>
       <c r="T10" s="12"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>180</v>
       </c>
@@ -25282,7 +25390,7 @@
       <c r="S11" s="14"/>
       <c r="T11" s="12"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>181</v>
       </c>
@@ -25314,7 +25422,7 @@
       <c r="S12" s="14"/>
       <c r="T12" s="12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>182</v>
       </c>
@@ -25346,7 +25454,7 @@
       <c r="S13" s="17"/>
       <c r="T13" s="16"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>183</v>
       </c>
@@ -25378,7 +25486,7 @@
       <c r="S14" s="13"/>
       <c r="T14" s="12"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>184</v>
       </c>
@@ -25410,7 +25518,7 @@
       <c r="S15" s="14"/>
       <c r="T15" s="12"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>185</v>
       </c>
@@ -25442,7 +25550,7 @@
       <c r="S16" s="14"/>
       <c r="T16" s="12"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>186</v>
       </c>
@@ -25474,7 +25582,7 @@
       <c r="S17" s="17"/>
       <c r="T17" s="16"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>187</v>
       </c>
@@ -25506,7 +25614,7 @@
       <c r="S18" s="14"/>
       <c r="T18" s="15"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>188</v>
       </c>
@@ -25538,7 +25646,7 @@
       <c r="S19" s="14"/>
       <c r="T19" s="15"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>189</v>
       </c>
@@ -25570,7 +25678,7 @@
       <c r="S20" s="14"/>
       <c r="T20" s="15"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>190</v>
       </c>
@@ -25602,7 +25710,7 @@
       <c r="S21" s="20"/>
       <c r="T21" s="21"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>191</v>
       </c>
@@ -25634,7 +25742,7 @@
       <c r="S22" s="14"/>
       <c r="T22" s="15"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>192</v>
       </c>
@@ -25666,7 +25774,7 @@
       <c r="S23" s="14"/>
       <c r="T23" s="15"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>193</v>
       </c>
@@ -25698,7 +25806,7 @@
       <c r="S24" s="14"/>
       <c r="T24" s="15"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>194</v>
       </c>
@@ -25730,7 +25838,7 @@
       <c r="S25" s="20"/>
       <c r="T25" s="21"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>195</v>
       </c>
@@ -25762,7 +25870,7 @@
       <c r="S26" s="14"/>
       <c r="T26" s="12"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>196</v>
       </c>
@@ -25794,7 +25902,7 @@
       <c r="S27" s="14"/>
       <c r="T27" s="12"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>197</v>
       </c>
@@ -25826,7 +25934,7 @@
       <c r="S28" s="14"/>
       <c r="T28" s="12"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>198</v>
       </c>
@@ -25858,7 +25966,7 @@
       <c r="S29" s="17"/>
       <c r="T29" s="16"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>199</v>
       </c>
@@ -25890,7 +25998,7 @@
       <c r="S30" s="14"/>
       <c r="T30" s="12"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>200</v>
       </c>
@@ -25922,7 +26030,7 @@
       <c r="S31" s="14"/>
       <c r="T31" s="12"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>201</v>
       </c>
@@ -25954,7 +26062,7 @@
       <c r="S32" s="14"/>
       <c r="T32" s="12"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>202</v>
       </c>

--- a/vrp_results_tracker.xlsx
+++ b/vrp_results_tracker.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4513" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4522" uniqueCount="690">
   <si>
     <t>shift</t>
   </si>
@@ -10528,7 +10528,7 @@
   <dimension ref="A1:T481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10996,7 +10996,9 @@
       <c r="K10" s="32" t="s">
         <v>689</v>
       </c>
-      <c r="L10" s="31"/>
+      <c r="L10" s="32" t="s">
+        <v>689</v>
+      </c>
       <c r="M10" s="31"/>
       <c r="N10" s="31"/>
       <c r="O10" s="32"/>
@@ -11350,7 +11352,9 @@
       <c r="K18" s="32" t="s">
         <v>689</v>
       </c>
-      <c r="L18" s="32"/>
+      <c r="L18" s="32" t="s">
+        <v>689</v>
+      </c>
       <c r="M18" s="32"/>
       <c r="N18" s="32"/>
       <c r="O18" s="32"/>
@@ -11704,7 +11708,9 @@
       <c r="K26" s="32" t="s">
         <v>689</v>
       </c>
-      <c r="L26" s="32"/>
+      <c r="L26" s="32" t="s">
+        <v>689</v>
+      </c>
       <c r="M26" s="32"/>
       <c r="N26" s="32"/>
       <c r="O26" s="31"/>
@@ -13178,7 +13184,9 @@
       <c r="J66" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="K66" s="32"/>
+      <c r="K66" s="32" t="s">
+        <v>689</v>
+      </c>
       <c r="L66" s="30" t="s">
         <v>34</v>
       </c>
@@ -13273,6 +13281,21 @@
       </c>
       <c r="G70" s="30" t="s">
         <v>271</v>
+      </c>
+      <c r="H70" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="I70" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="J70" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="K70" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L70" s="30" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">

--- a/vrp_results_tracker.xlsx
+++ b/vrp_results_tracker.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4522" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4544" uniqueCount="690">
   <si>
     <t>shift</t>
   </si>
@@ -2126,12 +2126,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="11">
@@ -2250,7 +2256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2288,6 +2294,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6918,50 +6935,50 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="I1" s="36" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="I1" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36" t="s">
+      <c r="C2" s="47"/>
+      <c r="D2" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="J2" s="36" t="s">
+      <c r="G2" s="47"/>
+      <c r="J2" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36" t="s">
+      <c r="M2" s="47"/>
+      <c r="N2" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="O2" s="36"/>
+      <c r="O2" s="47"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -7193,50 +7210,50 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="I8" s="36" t="s">
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="I8" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36" t="s">
+      <c r="C9" s="47"/>
+      <c r="D9" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36" t="s">
+      <c r="E9" s="47"/>
+      <c r="F9" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="36"/>
-      <c r="J9" s="36" t="s">
+      <c r="G9" s="47"/>
+      <c r="J9" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36" t="s">
+      <c r="K9" s="47"/>
+      <c r="L9" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36" t="s">
+      <c r="M9" s="47"/>
+      <c r="N9" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="O9" s="36"/>
+      <c r="O9" s="47"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -7468,50 +7485,50 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="I15" s="36" t="s">
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="I15" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36" t="s">
+      <c r="C16" s="47"/>
+      <c r="D16" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36" t="s">
+      <c r="E16" s="47"/>
+      <c r="F16" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="G16" s="36"/>
-      <c r="J16" s="36" t="s">
+      <c r="G16" s="47"/>
+      <c r="J16" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36" t="s">
+      <c r="K16" s="47"/>
+      <c r="L16" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36" t="s">
+      <c r="M16" s="47"/>
+      <c r="N16" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="O16" s="36"/>
+      <c r="O16" s="47"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
@@ -7743,50 +7760,50 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="I22" s="36" t="s">
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="I22" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36" t="s">
+      <c r="C23" s="47"/>
+      <c r="D23" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36" t="s">
+      <c r="E23" s="47"/>
+      <c r="F23" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="G23" s="36"/>
-      <c r="J23" s="36" t="s">
+      <c r="G23" s="47"/>
+      <c r="J23" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36" t="s">
+      <c r="K23" s="47"/>
+      <c r="L23" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36" t="s">
+      <c r="M23" s="47"/>
+      <c r="N23" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="O23" s="36"/>
+      <c r="O23" s="47"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
@@ -8019,50 +8036,50 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="I29" s="36" t="s">
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="I29" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36" t="s">
+      <c r="C30" s="47"/>
+      <c r="D30" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36" t="s">
+      <c r="E30" s="47"/>
+      <c r="F30" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="G30" s="36"/>
-      <c r="J30" s="36" t="s">
+      <c r="G30" s="47"/>
+      <c r="J30" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36" t="s">
+      <c r="K30" s="47"/>
+      <c r="L30" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36" t="s">
+      <c r="M30" s="47"/>
+      <c r="N30" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="O30" s="36"/>
+      <c r="O30" s="47"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
@@ -8295,50 +8312,50 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="I36" s="36" t="s">
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="I36" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="36"/>
-      <c r="O36" s="36"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="47"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36" t="s">
+      <c r="C37" s="47"/>
+      <c r="D37" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36" t="s">
+      <c r="E37" s="47"/>
+      <c r="F37" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="G37" s="36"/>
-      <c r="J37" s="36" t="s">
+      <c r="G37" s="47"/>
+      <c r="J37" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36" t="s">
+      <c r="K37" s="47"/>
+      <c r="L37" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36" t="s">
+      <c r="M37" s="47"/>
+      <c r="N37" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="O37" s="36"/>
+      <c r="O37" s="47"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
@@ -8571,50 +8588,50 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="36" t="s">
+      <c r="A43" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="I43" s="36" t="s">
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="I43" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="J43" s="36"/>
-      <c r="K43" s="36"/>
-      <c r="L43" s="36"/>
-      <c r="M43" s="36"/>
-      <c r="N43" s="36"/>
-      <c r="O43" s="36"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="47"/>
+      <c r="M43" s="47"/>
+      <c r="N43" s="47"/>
+      <c r="O43" s="47"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36" t="s">
+      <c r="C44" s="47"/>
+      <c r="D44" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36" t="s">
+      <c r="E44" s="47"/>
+      <c r="F44" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="G44" s="36"/>
-      <c r="J44" s="36" t="s">
+      <c r="G44" s="47"/>
+      <c r="J44" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="K44" s="36"/>
-      <c r="L44" s="36" t="s">
+      <c r="K44" s="47"/>
+      <c r="L44" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="M44" s="36"/>
-      <c r="N44" s="36" t="s">
+      <c r="M44" s="47"/>
+      <c r="N44" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="O44" s="36"/>
+      <c r="O44" s="47"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
@@ -8848,41 +8865,41 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="35"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="I50" s="36" t="s">
+      <c r="A50" s="46"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="I50" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="J50" s="36"/>
-      <c r="K50" s="36"/>
-      <c r="L50" s="36"/>
-      <c r="M50" s="36"/>
-      <c r="N50" s="36"/>
-      <c r="O50" s="36"/>
+      <c r="J50" s="47"/>
+      <c r="K50" s="47"/>
+      <c r="L50" s="47"/>
+      <c r="M50" s="47"/>
+      <c r="N50" s="47"/>
+      <c r="O50" s="47"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B51" s="36"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
-      <c r="J51" s="36" t="s">
+      <c r="B51" s="47"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+      <c r="J51" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="K51" s="36"/>
-      <c r="L51" s="36" t="s">
+      <c r="K51" s="47"/>
+      <c r="L51" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="M51" s="36"/>
-      <c r="N51" s="36" t="s">
+      <c r="M51" s="47"/>
+      <c r="N51" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="O51" s="36"/>
+      <c r="O51" s="47"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J52" t="s">
@@ -10527,8 +10544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10595,40 +10612,40 @@
       <c r="T1" s="34"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="13">
+      <c r="E2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="39">
         <v>40</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="40" t="s">
         <v>204</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="41" t="s">
         <v>689</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="41" t="s">
         <v>34</v>
       </c>
       <c r="M2" s="31"/>
@@ -10659,7 +10676,7 @@
       <c r="F3" s="13">
         <v>40</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="35" t="s">
         <v>205</v>
       </c>
       <c r="H3" s="32" t="s">
@@ -10705,7 +10722,7 @@
       <c r="F4" s="13">
         <v>40</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="35" t="s">
         <v>206</v>
       </c>
       <c r="H4" s="32" t="s">
@@ -10733,40 +10750,40 @@
       <c r="T4" s="31"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="13">
+      <c r="C5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="17">
         <v>40</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="K5" s="37" t="s">
         <v>689</v>
       </c>
-      <c r="L5" s="32" t="s">
+      <c r="L5" s="37" t="s">
         <v>34</v>
       </c>
       <c r="M5" s="31"/>
@@ -10779,40 +10796,40 @@
       <c r="T5" s="31"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="13">
+      <c r="E6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="39">
         <v>40</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="40" t="s">
         <v>208</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="32" t="s">
+      <c r="K6" s="41" t="s">
         <v>689</v>
       </c>
-      <c r="L6" s="32" t="s">
+      <c r="L6" s="41" t="s">
         <v>34</v>
       </c>
       <c r="M6" s="31"/>
@@ -10843,7 +10860,7 @@
       <c r="F7" s="13">
         <v>40</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="35" t="s">
         <v>209</v>
       </c>
       <c r="H7" s="32" t="s">
@@ -10889,7 +10906,7 @@
       <c r="F8" s="13">
         <v>40</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="35" t="s">
         <v>210</v>
       </c>
       <c r="H8" s="32" t="s">
@@ -10917,40 +10934,40 @@
       <c r="T8" s="31"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="13">
+      <c r="C9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="17">
         <v>40</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="45" t="s">
         <v>211</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="32" t="s">
+      <c r="I9" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="32" t="s">
+      <c r="J9" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="32" t="s">
+      <c r="K9" s="37" t="s">
         <v>689</v>
       </c>
-      <c r="L9" s="32" t="s">
+      <c r="L9" s="37" t="s">
         <v>34</v>
       </c>
       <c r="M9" s="31"/>
@@ -10963,40 +10980,40 @@
       <c r="T9" s="31"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="13">
+      <c r="E10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="39">
         <v>60</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="42">
         <v>11</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I10" s="41">
         <v>4580</v>
       </c>
-      <c r="J10" s="32">
-        <v>2506.64</v>
-      </c>
-      <c r="K10" s="32" t="s">
+      <c r="J10" s="41">
+        <v>2506.06</v>
+      </c>
+      <c r="K10" s="41" t="s">
         <v>689</v>
       </c>
-      <c r="L10" s="32" t="s">
+      <c r="L10" s="41" t="s">
         <v>689</v>
       </c>
       <c r="M10" s="31"/>
@@ -11027,22 +11044,24 @@
       <c r="F11" s="13">
         <v>60</v>
       </c>
-      <c r="G11" s="31" t="s">
+      <c r="G11" s="35" t="s">
         <v>213</v>
       </c>
       <c r="H11" s="32">
         <v>12</v>
       </c>
       <c r="I11" s="32">
-        <v>4535</v>
+        <v>4553</v>
       </c>
       <c r="J11" s="32">
-        <v>2561.44</v>
+        <v>2588.81</v>
       </c>
       <c r="K11" s="32" t="s">
         <v>689</v>
       </c>
-      <c r="L11" s="31"/>
+      <c r="L11" s="32" t="s">
+        <v>689</v>
+      </c>
       <c r="M11" s="32"/>
       <c r="N11" s="32"/>
       <c r="O11" s="32"/>
@@ -11071,7 +11090,7 @@
       <c r="F12" s="13">
         <v>60</v>
       </c>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="35" t="s">
         <v>214</v>
       </c>
       <c r="H12" s="32">
@@ -11086,7 +11105,9 @@
       <c r="K12" s="32" t="s">
         <v>689</v>
       </c>
-      <c r="L12" s="31"/>
+      <c r="L12" s="32" t="s">
+        <v>689</v>
+      </c>
       <c r="M12" s="32"/>
       <c r="N12" s="32"/>
       <c r="O12" s="32"/>
@@ -11097,40 +11118,42 @@
       <c r="T12" s="31"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="13">
+      <c r="C13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="17">
         <v>60</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="45" t="s">
         <v>215</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="37">
         <v>13</v>
       </c>
-      <c r="I13" s="32">
-        <v>4629</v>
-      </c>
-      <c r="J13" s="32">
-        <v>2601.96</v>
-      </c>
-      <c r="K13" s="32" t="s">
+      <c r="I13" s="37">
+        <v>4407</v>
+      </c>
+      <c r="J13" s="37">
+        <v>2430.5700000000002</v>
+      </c>
+      <c r="K13" s="37" t="s">
         <v>689</v>
       </c>
-      <c r="L13" s="31"/>
+      <c r="L13" s="36" t="s">
+        <v>689</v>
+      </c>
       <c r="M13" s="31"/>
       <c r="N13" s="31"/>
       <c r="O13" s="31"/>
@@ -11141,40 +11164,40 @@
       <c r="T13" s="31"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="C14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="13">
+      <c r="E14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="39">
         <v>60</v>
       </c>
-      <c r="G14" s="31" t="s">
+      <c r="G14" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="H14" s="32" t="s">
+      <c r="H14" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="32" t="s">
+      <c r="I14" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="32" t="s">
+      <c r="J14" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="K14" s="32" t="s">
+      <c r="K14" s="41" t="s">
         <v>689</v>
       </c>
-      <c r="L14" s="32" t="s">
+      <c r="L14" s="41" t="s">
         <v>34</v>
       </c>
       <c r="M14" s="31"/>
@@ -11205,22 +11228,24 @@
       <c r="F15" s="13">
         <v>60</v>
       </c>
-      <c r="G15" s="31" t="s">
+      <c r="G15" s="35" t="s">
         <v>217</v>
       </c>
       <c r="H15" s="32">
         <v>9</v>
       </c>
       <c r="I15" s="32">
-        <v>3952</v>
+        <v>3968</v>
       </c>
       <c r="J15" s="32">
-        <v>2105.7199999999998</v>
+        <v>2120.6799999999998</v>
       </c>
       <c r="K15" s="32" t="s">
         <v>689</v>
       </c>
-      <c r="L15" s="31"/>
+      <c r="L15" s="32" t="s">
+        <v>689</v>
+      </c>
       <c r="M15" s="32"/>
       <c r="N15" s="32"/>
       <c r="O15" s="32"/>
@@ -11249,7 +11274,7 @@
       <c r="F16" s="13">
         <v>60</v>
       </c>
-      <c r="G16" s="32" t="s">
+      <c r="G16" s="35" t="s">
         <v>218</v>
       </c>
       <c r="H16" s="32">
@@ -11264,7 +11289,9 @@
       <c r="K16" s="32" t="s">
         <v>689</v>
       </c>
-      <c r="L16" s="31"/>
+      <c r="L16" s="32" t="s">
+        <v>689</v>
+      </c>
       <c r="M16" s="32"/>
       <c r="N16" s="32"/>
       <c r="O16" s="32"/>
@@ -11275,40 +11302,42 @@
       <c r="T16" s="31"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="13">
+      <c r="C17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="17">
         <v>60</v>
       </c>
-      <c r="G17" s="31" t="s">
+      <c r="G17" s="45" t="s">
         <v>219</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="37">
         <v>10</v>
       </c>
-      <c r="I17" s="32">
-        <v>4183</v>
-      </c>
-      <c r="J17" s="32">
-        <v>2247.3200000000002</v>
-      </c>
-      <c r="K17" s="32" t="s">
+      <c r="I17" s="37">
+        <v>4254</v>
+      </c>
+      <c r="J17" s="37">
+        <v>2321.21</v>
+      </c>
+      <c r="K17" s="37" t="s">
         <v>689</v>
       </c>
-      <c r="L17" s="31"/>
+      <c r="L17" s="36" t="s">
+        <v>689</v>
+      </c>
       <c r="M17" s="31"/>
       <c r="N17" s="31"/>
       <c r="O17" s="31"/>
@@ -11319,40 +11348,40 @@
       <c r="T17" s="31"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="6" t="s">
+      <c r="C18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="13">
+      <c r="E18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="39">
         <v>200</v>
       </c>
-      <c r="G18" s="32" t="s">
+      <c r="G18" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="41">
         <v>9</v>
       </c>
-      <c r="I18" s="32">
+      <c r="I18" s="41">
         <v>4102</v>
       </c>
-      <c r="J18" s="32">
+      <c r="J18" s="41">
         <v>2177.8000000000002</v>
       </c>
-      <c r="K18" s="32" t="s">
+      <c r="K18" s="41" t="s">
         <v>689</v>
       </c>
-      <c r="L18" s="32" t="s">
+      <c r="L18" s="41" t="s">
         <v>689</v>
       </c>
       <c r="M18" s="32"/>
@@ -11383,22 +11412,24 @@
       <c r="F19" s="13">
         <v>200</v>
       </c>
-      <c r="G19" s="32" t="s">
+      <c r="G19" s="35" t="s">
         <v>221</v>
       </c>
       <c r="H19" s="32">
         <v>10</v>
       </c>
       <c r="I19" s="32">
-        <v>4117</v>
+        <v>4349</v>
       </c>
       <c r="J19" s="32">
-        <v>2203.42</v>
+        <v>2289.35</v>
       </c>
       <c r="K19" s="32" t="s">
         <v>689</v>
       </c>
-      <c r="L19" s="32"/>
+      <c r="L19" s="32" t="s">
+        <v>689</v>
+      </c>
       <c r="M19" s="32"/>
       <c r="N19" s="32"/>
       <c r="O19" s="32"/>
@@ -11427,22 +11458,24 @@
       <c r="F20" s="13">
         <v>200</v>
       </c>
-      <c r="G20" s="32" t="s">
+      <c r="G20" s="35" t="s">
         <v>222</v>
       </c>
       <c r="H20" s="32">
         <v>11</v>
       </c>
       <c r="I20" s="32">
-        <v>4146</v>
+        <v>4137</v>
       </c>
       <c r="J20" s="32">
-        <v>2197.42</v>
+        <v>2197.91</v>
       </c>
       <c r="K20" s="32" t="s">
         <v>689</v>
       </c>
-      <c r="L20" s="32"/>
+      <c r="L20" s="32" t="s">
+        <v>689</v>
+      </c>
       <c r="M20" s="32"/>
       <c r="N20" s="32"/>
       <c r="O20" s="32"/>
@@ -11453,40 +11486,42 @@
       <c r="T20" s="32"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="13">
+      <c r="C21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="17">
         <v>200</v>
       </c>
-      <c r="G21" s="32" t="s">
+      <c r="G21" s="45" t="s">
         <v>223</v>
       </c>
-      <c r="H21" s="32">
+      <c r="H21" s="37">
         <v>11</v>
       </c>
-      <c r="I21" s="32">
-        <v>4345</v>
-      </c>
-      <c r="J21" s="32">
-        <v>2378.52</v>
-      </c>
-      <c r="K21" s="32" t="s">
+      <c r="I21" s="37">
+        <v>4296</v>
+      </c>
+      <c r="J21" s="37">
+        <v>2373.54</v>
+      </c>
+      <c r="K21" s="37" t="s">
         <v>689</v>
       </c>
-      <c r="L21" s="32"/>
+      <c r="L21" s="37" t="s">
+        <v>689</v>
+      </c>
       <c r="M21" s="32"/>
       <c r="N21" s="32"/>
       <c r="O21" s="32"/>
@@ -11497,40 +11532,40 @@
       <c r="T21" s="32"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="6" t="s">
+      <c r="C22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="13">
+      <c r="E22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="39">
         <v>200</v>
       </c>
-      <c r="G22" s="32" t="s">
+      <c r="G22" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="H22" s="32" t="s">
+      <c r="H22" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="I22" s="32" t="s">
+      <c r="I22" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="J22" s="32" t="s">
+      <c r="J22" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="K22" s="32" t="s">
+      <c r="K22" s="41" t="s">
         <v>689</v>
       </c>
-      <c r="L22" s="32" t="s">
+      <c r="L22" s="41" t="s">
         <v>34</v>
       </c>
       <c r="M22" s="32"/>
@@ -11561,22 +11596,24 @@
       <c r="F23" s="13">
         <v>200</v>
       </c>
-      <c r="G23" s="32" t="s">
+      <c r="G23" s="35" t="s">
         <v>225</v>
       </c>
       <c r="H23" s="32">
         <v>7</v>
       </c>
       <c r="I23" s="32">
-        <v>3546</v>
+        <v>3619</v>
       </c>
       <c r="J23" s="32">
-        <v>1767.57</v>
+        <v>1798.09</v>
       </c>
       <c r="K23" s="32" t="s">
         <v>689</v>
       </c>
-      <c r="L23" s="32"/>
+      <c r="L23" s="32" t="s">
+        <v>689</v>
+      </c>
       <c r="M23" s="32"/>
       <c r="N23" s="32"/>
       <c r="O23" s="32"/>
@@ -11605,22 +11642,24 @@
       <c r="F24" s="13">
         <v>200</v>
       </c>
-      <c r="G24" s="32" t="s">
+      <c r="G24" s="35" t="s">
         <v>226</v>
       </c>
       <c r="H24" s="32">
         <v>7</v>
       </c>
       <c r="I24" s="32">
-        <v>3699</v>
+        <v>3660</v>
       </c>
       <c r="J24" s="32">
-        <v>1832.26</v>
+        <v>1832.91</v>
       </c>
       <c r="K24" s="32" t="s">
         <v>689</v>
       </c>
-      <c r="L24" s="32"/>
+      <c r="L24" s="32" t="s">
+        <v>689</v>
+      </c>
       <c r="M24" s="32"/>
       <c r="N24" s="32"/>
       <c r="O24" s="32"/>
@@ -11631,40 +11670,42 @@
       <c r="T24" s="32"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="13">
+      <c r="C25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="17">
         <v>200</v>
       </c>
-      <c r="G25" s="32" t="s">
+      <c r="G25" s="45" t="s">
         <v>227</v>
       </c>
-      <c r="H25" s="32">
+      <c r="H25" s="37">
         <v>8</v>
       </c>
-      <c r="I25" s="32">
-        <v>3945</v>
-      </c>
-      <c r="J25" s="32">
-        <v>2058.4299999999998</v>
-      </c>
-      <c r="K25" s="32" t="s">
+      <c r="I25" s="37">
+        <v>3948</v>
+      </c>
+      <c r="J25" s="37">
+        <v>2037.85</v>
+      </c>
+      <c r="K25" s="37" t="s">
         <v>689</v>
       </c>
-      <c r="L25" s="32"/>
+      <c r="L25" s="37" t="s">
+        <v>689</v>
+      </c>
       <c r="M25" s="32"/>
       <c r="N25" s="32"/>
       <c r="O25" s="32"/>
@@ -11675,40 +11716,40 @@
       <c r="T25" s="32"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="6" t="s">
+      <c r="C26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="14">
+      <c r="E26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="43">
         <v>0</v>
       </c>
-      <c r="G26" s="32" t="s">
+      <c r="G26" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="H26" s="32">
+      <c r="H26" s="41">
         <v>9</v>
       </c>
-      <c r="I26" s="32">
+      <c r="I26" s="41">
         <v>4102</v>
       </c>
-      <c r="J26" s="32">
+      <c r="J26" s="41">
         <v>2177.8000000000002</v>
       </c>
-      <c r="K26" s="32" t="s">
+      <c r="K26" s="41" t="s">
         <v>689</v>
       </c>
-      <c r="L26" s="32" t="s">
+      <c r="L26" s="41" t="s">
         <v>689</v>
       </c>
       <c r="M26" s="32"/>
@@ -11739,22 +11780,24 @@
       <c r="F27" s="14">
         <v>0</v>
       </c>
-      <c r="G27" s="31" t="s">
+      <c r="G27" s="35" t="s">
         <v>229</v>
       </c>
       <c r="H27" s="32">
         <v>10</v>
       </c>
       <c r="I27" s="32">
-        <v>4117</v>
+        <v>4282</v>
       </c>
       <c r="J27" s="32">
-        <v>2203.42</v>
+        <v>2260.87</v>
       </c>
       <c r="K27" s="32" t="s">
         <v>689</v>
       </c>
-      <c r="L27" s="31"/>
+      <c r="L27" s="32" t="s">
+        <v>689</v>
+      </c>
       <c r="M27" s="32"/>
       <c r="N27" s="32"/>
       <c r="O27" s="32"/>
@@ -11783,7 +11826,7 @@
       <c r="F28" s="14">
         <v>0</v>
       </c>
-      <c r="G28" s="31" t="s">
+      <c r="G28" s="35" t="s">
         <v>230</v>
       </c>
       <c r="H28" s="32">
@@ -11798,7 +11841,9 @@
       <c r="K28" s="32" t="s">
         <v>689</v>
       </c>
-      <c r="L28" s="31"/>
+      <c r="L28" s="32" t="s">
+        <v>689</v>
+      </c>
       <c r="M28" s="32"/>
       <c r="N28" s="32"/>
       <c r="O28" s="32"/>
@@ -11809,40 +11854,42 @@
       <c r="T28" s="31"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F29" s="14">
+      <c r="C29" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="20">
         <v>0</v>
       </c>
-      <c r="G29" s="31" t="s">
+      <c r="G29" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="H29" s="32">
+      <c r="H29" s="37">
         <v>11</v>
       </c>
-      <c r="I29" s="32">
-        <v>4345</v>
-      </c>
-      <c r="J29" s="32">
-        <v>2378.52</v>
-      </c>
-      <c r="K29" s="32" t="s">
+      <c r="I29" s="37">
+        <v>4323</v>
+      </c>
+      <c r="J29" s="37">
+        <v>2367.27</v>
+      </c>
+      <c r="K29" s="37" t="s">
         <v>689</v>
       </c>
-      <c r="L29" s="31"/>
+      <c r="L29" s="36" t="s">
+        <v>689</v>
+      </c>
       <c r="M29" s="31"/>
       <c r="N29" s="31"/>
       <c r="O29" s="31"/>
@@ -11853,40 +11900,40 @@
       <c r="T29" s="31"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="6" t="s">
+      <c r="C30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F30" s="14">
+      <c r="E30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="43">
         <v>0</v>
       </c>
-      <c r="G30" s="32" t="s">
+      <c r="G30" s="40" t="s">
         <v>232</v>
       </c>
-      <c r="H30" s="32" t="s">
+      <c r="H30" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="I30" s="32" t="s">
+      <c r="I30" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="J30" s="32" t="s">
+      <c r="J30" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="K30" s="32" t="s">
+      <c r="K30" s="41" t="s">
         <v>689</v>
       </c>
-      <c r="L30" s="32" t="s">
+      <c r="L30" s="41" t="s">
         <v>34</v>
       </c>
       <c r="M30" s="32"/>
@@ -11917,7 +11964,7 @@
       <c r="F31" s="14">
         <v>0</v>
       </c>
-      <c r="G31" s="31" t="s">
+      <c r="G31" s="35" t="s">
         <v>233</v>
       </c>
       <c r="H31" s="32">
@@ -11932,7 +11979,9 @@
       <c r="K31" s="32" t="s">
         <v>689</v>
       </c>
-      <c r="L31" s="31"/>
+      <c r="L31" s="32" t="s">
+        <v>689</v>
+      </c>
       <c r="M31" s="32"/>
       <c r="N31" s="32"/>
       <c r="O31" s="32"/>
@@ -11961,22 +12010,24 @@
       <c r="F32" s="14">
         <v>0</v>
       </c>
-      <c r="G32" s="32" t="s">
+      <c r="G32" s="35" t="s">
         <v>234</v>
       </c>
       <c r="H32" s="32">
         <v>7</v>
       </c>
       <c r="I32" s="32">
-        <v>3660</v>
+        <v>3688</v>
       </c>
       <c r="J32" s="32">
-        <v>1832.91</v>
+        <v>1832.05</v>
       </c>
       <c r="K32" s="32" t="s">
         <v>689</v>
       </c>
-      <c r="L32" s="31"/>
+      <c r="L32" s="32" t="s">
+        <v>689</v>
+      </c>
       <c r="M32" s="32"/>
       <c r="N32" s="32"/>
       <c r="O32" s="32"/>
@@ -11987,40 +12038,42 @@
       <c r="T32" s="31"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F33" s="14">
+      <c r="C33" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" s="20">
         <v>0</v>
       </c>
-      <c r="G33" s="31" t="s">
+      <c r="G33" s="45" t="s">
         <v>678</v>
       </c>
-      <c r="H33" s="32">
+      <c r="H33" s="37">
         <v>8</v>
       </c>
-      <c r="I33" s="32">
-        <v>3974</v>
-      </c>
-      <c r="J33" s="32">
-        <v>2061.06</v>
-      </c>
-      <c r="K33" s="32" t="s">
+      <c r="I33" s="37">
+        <v>3930</v>
+      </c>
+      <c r="J33" s="37">
+        <v>2026.88</v>
+      </c>
+      <c r="K33" s="37" t="s">
         <v>689</v>
       </c>
-      <c r="L33" s="31"/>
+      <c r="L33" s="36" t="s">
+        <v>689</v>
+      </c>
       <c r="M33" s="31"/>
       <c r="N33" s="31"/>
       <c r="O33" s="31"/>
@@ -12031,37 +12084,40 @@
       <c r="T33" s="31"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="6" t="s">
+      <c r="C34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F34" s="13">
+      <c r="E34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="39">
         <v>40</v>
       </c>
-      <c r="G34" s="30" t="s">
+      <c r="G34" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="H34" s="32">
+      <c r="H34" s="41">
         <v>10</v>
       </c>
-      <c r="I34" s="32">
+      <c r="I34" s="41">
         <v>3604</v>
       </c>
-      <c r="J34" s="32">
+      <c r="J34" s="41">
         <v>2084.15</v>
       </c>
-      <c r="K34" s="32" t="s">
+      <c r="K34" s="41" t="s">
+        <v>689</v>
+      </c>
+      <c r="L34" s="42" t="s">
         <v>689</v>
       </c>
     </row>
@@ -12084,7 +12140,7 @@
       <c r="F35" s="13">
         <v>40</v>
       </c>
-      <c r="G35" s="30" t="s">
+      <c r="G35" s="35" t="s">
         <v>237</v>
       </c>
       <c r="H35" s="32">
@@ -12097,6 +12153,9 @@
         <v>1955.08</v>
       </c>
       <c r="K35" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L35" s="32" t="s">
         <v>689</v>
       </c>
     </row>
@@ -12119,7 +12178,7 @@
       <c r="F36" s="13">
         <v>40</v>
       </c>
-      <c r="G36" s="30" t="s">
+      <c r="G36" s="35" t="s">
         <v>238</v>
       </c>
       <c r="H36" s="32">
@@ -12134,77 +12193,83 @@
       <c r="K36" s="32" t="s">
         <v>689</v>
       </c>
+      <c r="L36" s="32" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F37" s="13">
+      <c r="C37" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" s="17">
         <v>40</v>
       </c>
-      <c r="G37" s="30" t="s">
+      <c r="G37" s="45" t="s">
         <v>239</v>
       </c>
-      <c r="H37" s="32">
+      <c r="H37" s="37">
         <v>11</v>
       </c>
-      <c r="I37" s="32">
+      <c r="I37" s="37">
         <v>3429</v>
       </c>
-      <c r="J37" s="32">
+      <c r="J37" s="37">
         <v>2083.9699999999998</v>
       </c>
-      <c r="K37" s="32" t="s">
+      <c r="K37" s="37" t="s">
         <v>689</v>
       </c>
+      <c r="L37" s="36" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="6" t="s">
+      <c r="C38" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F38" s="13">
+      <c r="E38" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="39">
         <v>40</v>
       </c>
-      <c r="G38" s="30" t="s">
+      <c r="G38" s="42" t="s">
         <v>240</v>
       </c>
-      <c r="H38" s="30" t="s">
+      <c r="H38" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="I38" s="30" t="s">
+      <c r="I38" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="J38" s="30" t="s">
+      <c r="J38" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="K38" s="32" t="s">
+      <c r="K38" s="41" t="s">
         <v>689</v>
       </c>
-      <c r="L38" s="30" t="s">
+      <c r="L38" s="42" t="s">
         <v>34</v>
       </c>
     </row>
@@ -12227,21 +12292,22 @@
       <c r="F39" s="13">
         <v>40</v>
       </c>
-      <c r="G39" s="30" t="s">
+      <c r="G39" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="H39" s="30">
+      <c r="H39" s="31">
         <v>10</v>
       </c>
-      <c r="I39" s="30">
+      <c r="I39" s="31">
         <v>3564</v>
       </c>
-      <c r="J39" s="30">
+      <c r="J39" s="31">
         <v>2023.52</v>
       </c>
       <c r="K39" s="32" t="s">
         <v>689</v>
       </c>
+      <c r="L39" s="31"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
@@ -12262,91 +12328,94 @@
       <c r="F40" s="13">
         <v>40</v>
       </c>
-      <c r="G40" s="30" t="s">
+      <c r="G40" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="H40" s="30">
+      <c r="H40" s="31">
         <v>10</v>
       </c>
-      <c r="I40" s="30">
+      <c r="I40" s="31">
         <v>3247</v>
       </c>
-      <c r="J40" s="30">
+      <c r="J40" s="31">
         <v>1842.37</v>
       </c>
       <c r="K40" s="32" t="s">
         <v>689</v>
       </c>
+      <c r="L40" s="31"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F41" s="13">
+      <c r="C41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" s="17">
         <v>40</v>
       </c>
-      <c r="G41" s="30" t="s">
+      <c r="G41" s="36" t="s">
         <v>243</v>
       </c>
-      <c r="H41" s="30">
+      <c r="H41" s="36">
         <v>10</v>
       </c>
-      <c r="I41" s="30">
+      <c r="I41" s="36">
         <v>3549</v>
       </c>
-      <c r="J41" s="30">
+      <c r="J41" s="36">
         <v>2032.15</v>
       </c>
-      <c r="K41" s="32" t="s">
+      <c r="K41" s="37" t="s">
         <v>689</v>
       </c>
+      <c r="L41" s="36"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" s="6" t="s">
+      <c r="C42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F42" s="13">
+      <c r="E42" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" s="39">
         <v>60</v>
       </c>
-      <c r="G42" s="30" t="s">
+      <c r="G42" s="42" t="s">
         <v>244</v>
       </c>
-      <c r="H42" s="30">
+      <c r="H42" s="42">
         <v>7</v>
       </c>
-      <c r="I42" s="30">
+      <c r="I42" s="42">
         <v>2904</v>
       </c>
-      <c r="J42" s="30">
+      <c r="J42" s="42">
         <v>1525.86</v>
       </c>
-      <c r="K42" s="32" t="s">
+      <c r="K42" s="41" t="s">
         <v>689</v>
       </c>
+      <c r="L42" s="42"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
@@ -12367,21 +12436,22 @@
       <c r="F43" s="13">
         <v>60</v>
       </c>
-      <c r="G43" s="30" t="s">
+      <c r="G43" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="H43" s="30">
+      <c r="H43" s="31">
         <v>8</v>
       </c>
-      <c r="I43" s="30">
+      <c r="I43" s="31">
         <v>3210</v>
       </c>
-      <c r="J43" s="30">
+      <c r="J43" s="31">
         <v>1752.01</v>
       </c>
       <c r="K43" s="32" t="s">
         <v>689</v>
       </c>
+      <c r="L43" s="31"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
@@ -12402,91 +12472,94 @@
       <c r="F44" s="13">
         <v>60</v>
       </c>
-      <c r="G44" s="30" t="s">
+      <c r="G44" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="H44" s="30">
+      <c r="H44" s="31">
         <v>9</v>
       </c>
-      <c r="I44" s="30">
+      <c r="I44" s="31">
         <v>3173</v>
       </c>
-      <c r="J44" s="30">
+      <c r="J44" s="31">
         <v>1690.28</v>
       </c>
       <c r="K44" s="32" t="s">
         <v>689</v>
       </c>
+      <c r="L44" s="31"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F45" s="13">
+      <c r="C45" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F45" s="17">
         <v>60</v>
       </c>
-      <c r="G45" s="30" t="s">
+      <c r="G45" s="36" t="s">
         <v>247</v>
       </c>
-      <c r="H45" s="30">
+      <c r="H45" s="36">
         <v>8</v>
       </c>
-      <c r="I45" s="30">
+      <c r="I45" s="36">
         <v>3154</v>
       </c>
-      <c r="J45" s="30">
+      <c r="J45" s="36">
         <v>1683.56</v>
       </c>
-      <c r="K45" s="32" t="s">
+      <c r="K45" s="37" t="s">
         <v>689</v>
       </c>
+      <c r="L45" s="36"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="6" t="s">
+      <c r="C46" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F46" s="13">
+      <c r="E46" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F46" s="39">
         <v>60</v>
       </c>
-      <c r="G46" s="30" t="s">
+      <c r="G46" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="H46" s="30">
+      <c r="H46" s="42">
         <v>6</v>
       </c>
-      <c r="I46" s="30">
+      <c r="I46" s="42">
         <v>2977</v>
       </c>
-      <c r="J46" s="30">
+      <c r="J46" s="42">
         <v>1569.43</v>
       </c>
-      <c r="K46" s="32" t="s">
+      <c r="K46" s="41" t="s">
         <v>689</v>
       </c>
+      <c r="L46" s="42"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
@@ -12507,21 +12580,22 @@
       <c r="F47" s="13">
         <v>60</v>
       </c>
-      <c r="G47" s="30" t="s">
+      <c r="G47" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="H47" s="30">
+      <c r="H47" s="31">
         <v>6</v>
       </c>
-      <c r="I47" s="30">
+      <c r="I47" s="31">
         <v>2890</v>
       </c>
-      <c r="J47" s="30">
+      <c r="J47" s="31">
         <v>1501.44</v>
       </c>
       <c r="K47" s="32" t="s">
         <v>689</v>
       </c>
+      <c r="L47" s="31"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
@@ -12542,93 +12616,96 @@
       <c r="F48" s="13">
         <v>60</v>
       </c>
-      <c r="G48" s="30" t="s">
+      <c r="G48" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="H48" s="30">
+      <c r="H48" s="31">
         <v>7</v>
       </c>
-      <c r="I48" s="30">
+      <c r="I48" s="31">
         <v>3017</v>
       </c>
-      <c r="J48" s="30">
+      <c r="J48" s="31">
         <v>1594.69</v>
       </c>
       <c r="K48" s="32" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="29" t="s">
+      <c r="L48" s="31"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F49" s="13">
+      <c r="C49" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49" s="17">
         <v>60</v>
       </c>
-      <c r="G49" s="30" t="s">
+      <c r="G49" s="36" t="s">
         <v>251</v>
       </c>
-      <c r="H49" s="30">
+      <c r="H49" s="36">
         <v>6</v>
       </c>
-      <c r="I49" s="30">
+      <c r="I49" s="36">
         <v>2846</v>
       </c>
-      <c r="J49" s="30">
+      <c r="J49" s="36">
         <v>1493.35</v>
       </c>
-      <c r="K49" s="32" t="s">
+      <c r="K49" s="37" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="29" t="s">
+      <c r="L49" s="36"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" s="6" t="s">
+      <c r="C50" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F50" s="13">
+      <c r="E50" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F50" s="39">
         <v>200</v>
       </c>
-      <c r="G50" s="30" t="s">
+      <c r="G50" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="H50" s="30">
+      <c r="H50" s="42">
         <v>7</v>
       </c>
-      <c r="I50" s="30">
+      <c r="I50" s="42">
         <v>2809</v>
       </c>
-      <c r="J50" s="30">
+      <c r="J50" s="42">
         <v>1479.11</v>
       </c>
-      <c r="K50" s="32" t="s">
+      <c r="K50" s="41" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50" s="42"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="29" t="s">
         <v>19</v>
       </c>
@@ -12647,23 +12724,24 @@
       <c r="F51" s="13">
         <v>200</v>
       </c>
-      <c r="G51" s="30" t="s">
+      <c r="G51" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="H51" s="30">
+      <c r="H51" s="31">
         <v>7</v>
       </c>
-      <c r="I51" s="30">
+      <c r="I51" s="31">
         <v>2987</v>
       </c>
-      <c r="J51" s="30">
+      <c r="J51" s="31">
         <v>1552.52</v>
       </c>
       <c r="K51" s="32" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L51" s="31"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
         <v>19</v>
       </c>
@@ -12682,93 +12760,96 @@
       <c r="F52" s="13">
         <v>200</v>
       </c>
-      <c r="G52" s="30" t="s">
+      <c r="G52" s="31" t="s">
         <v>254</v>
       </c>
-      <c r="H52" s="30">
+      <c r="H52" s="31">
         <v>8</v>
       </c>
-      <c r="I52" s="30">
+      <c r="I52" s="31">
         <v>3365</v>
       </c>
-      <c r="J52" s="30">
+      <c r="J52" s="31">
         <v>1835.07</v>
       </c>
       <c r="K52" s="32" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="29" t="s">
+      <c r="L52" s="31"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F53" s="13">
+      <c r="C53" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F53" s="17">
         <v>200</v>
       </c>
-      <c r="G53" s="30" t="s">
+      <c r="G53" s="36" t="s">
         <v>255</v>
       </c>
-      <c r="H53" s="30">
+      <c r="H53" s="36">
         <v>8</v>
       </c>
-      <c r="I53" s="30">
+      <c r="I53" s="36">
         <v>3195</v>
       </c>
-      <c r="J53" s="30">
+      <c r="J53" s="36">
         <v>1717.42</v>
       </c>
-      <c r="K53" s="32" t="s">
+      <c r="K53" s="37" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="29" t="s">
+      <c r="L53" s="36"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" s="6" t="s">
+      <c r="C54" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E54" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F54" s="13">
+      <c r="E54" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F54" s="39">
         <v>200</v>
       </c>
-      <c r="G54" s="30" t="s">
+      <c r="G54" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="H54" s="30">
+      <c r="H54" s="42">
         <v>5</v>
       </c>
-      <c r="I54" s="30">
+      <c r="I54" s="42">
         <v>2749</v>
       </c>
-      <c r="J54" s="30">
+      <c r="J54" s="42">
         <v>1410.65</v>
       </c>
-      <c r="K54" s="32" t="s">
+      <c r="K54" s="41" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L54" s="42"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="29" t="s">
         <v>19</v>
       </c>
@@ -12787,23 +12868,24 @@
       <c r="F55" s="13">
         <v>200</v>
       </c>
-      <c r="G55" s="30" t="s">
+      <c r="G55" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="H55" s="30">
+      <c r="H55" s="31">
         <v>6</v>
       </c>
-      <c r="I55" s="30">
+      <c r="I55" s="31">
         <v>2875</v>
       </c>
-      <c r="J55" s="30">
+      <c r="J55" s="31">
         <v>1522.64</v>
       </c>
       <c r="K55" s="32" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L55" s="31"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="29" t="s">
         <v>19</v>
       </c>
@@ -12822,93 +12904,96 @@
       <c r="F56" s="13">
         <v>200</v>
       </c>
-      <c r="G56" s="30" t="s">
+      <c r="G56" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="H56" s="30">
+      <c r="H56" s="31">
         <v>6</v>
       </c>
-      <c r="I56" s="30">
+      <c r="I56" s="31">
         <v>2952</v>
       </c>
-      <c r="J56" s="30">
+      <c r="J56" s="31">
         <v>1558.32</v>
       </c>
       <c r="K56" s="32" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="29" t="s">
+      <c r="L56" s="31"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="C57" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F57" s="13">
+      <c r="C57" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F57" s="17">
         <v>200</v>
       </c>
-      <c r="G57" s="30" t="s">
+      <c r="G57" s="36" t="s">
         <v>259</v>
       </c>
-      <c r="H57" s="30">
+      <c r="H57" s="36">
         <v>6</v>
       </c>
-      <c r="I57" s="30">
+      <c r="I57" s="36">
         <v>2871</v>
       </c>
-      <c r="J57" s="30">
+      <c r="J57" s="36">
         <v>1496.98</v>
       </c>
-      <c r="K57" s="32" t="s">
+      <c r="K57" s="37" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="29" t="s">
+      <c r="L57" s="36"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D58" s="6" t="s">
+      <c r="C58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F58" s="14">
+      <c r="E58" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F58" s="43">
         <v>0</v>
       </c>
-      <c r="G58" s="30" t="s">
+      <c r="G58" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="H58" s="30">
+      <c r="H58" s="42">
         <v>7</v>
       </c>
-      <c r="I58" s="30">
+      <c r="I58" s="42">
         <v>2809</v>
       </c>
-      <c r="J58" s="30">
+      <c r="J58" s="42">
         <v>1479.11</v>
       </c>
-      <c r="K58" s="32" t="s">
+      <c r="K58" s="41" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L58" s="42"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="29" t="s">
         <v>19</v>
       </c>
@@ -12927,23 +13012,24 @@
       <c r="F59" s="14">
         <v>0</v>
       </c>
-      <c r="G59" s="30" t="s">
+      <c r="G59" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="H59" s="30">
+      <c r="H59" s="31">
         <v>7</v>
       </c>
-      <c r="I59" s="30">
+      <c r="I59" s="31">
         <v>2987</v>
       </c>
-      <c r="J59" s="30">
+      <c r="J59" s="31">
         <v>1552.52</v>
       </c>
-      <c r="K59" s="30" t="s">
+      <c r="K59" s="31" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L59" s="31"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="29" t="s">
         <v>19</v>
       </c>
@@ -12962,93 +13048,96 @@
       <c r="F60" s="14">
         <v>0</v>
       </c>
-      <c r="G60" s="30" t="s">
+      <c r="G60" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="H60" s="30">
+      <c r="H60" s="31">
         <v>8</v>
       </c>
-      <c r="I60" s="30">
+      <c r="I60" s="31">
         <v>3365</v>
       </c>
-      <c r="J60" s="30">
+      <c r="J60" s="31">
         <v>1835.07</v>
       </c>
-      <c r="K60" s="30" t="s">
+      <c r="K60" s="31" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="29" t="s">
+      <c r="L60" s="31"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="B61" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="C61" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F61" s="14">
+      <c r="C61" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F61" s="20">
         <v>0</v>
       </c>
-      <c r="G61" s="30" t="s">
+      <c r="G61" s="36" t="s">
         <v>263</v>
       </c>
-      <c r="H61" s="30">
+      <c r="H61" s="36">
         <v>8</v>
       </c>
-      <c r="I61" s="30">
+      <c r="I61" s="36">
         <v>3195</v>
       </c>
-      <c r="J61" s="30">
+      <c r="J61" s="36">
         <v>1717.42</v>
       </c>
-      <c r="K61" s="30" t="s">
+      <c r="K61" s="36" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="29" t="s">
+      <c r="L61" s="36"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="C62" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D62" s="6" t="s">
+      <c r="C62" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F62" s="14">
+      <c r="E62" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F62" s="43">
         <v>0</v>
       </c>
-      <c r="G62" s="30" t="s">
+      <c r="G62" s="42" t="s">
         <v>264</v>
       </c>
-      <c r="H62" s="30">
+      <c r="H62" s="42">
         <v>5</v>
       </c>
-      <c r="I62" s="30">
+      <c r="I62" s="42">
         <v>2749</v>
       </c>
-      <c r="J62" s="30">
+      <c r="J62" s="42">
         <v>1410.65</v>
       </c>
-      <c r="K62" s="30" t="s">
+      <c r="K62" s="42" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L62" s="42"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="29" t="s">
         <v>19</v>
       </c>
@@ -13067,23 +13156,24 @@
       <c r="F63" s="14">
         <v>0</v>
       </c>
-      <c r="G63" s="30" t="s">
+      <c r="G63" s="31" t="s">
         <v>265</v>
       </c>
-      <c r="H63" s="30">
+      <c r="H63" s="31">
         <v>6</v>
       </c>
-      <c r="I63" s="30">
+      <c r="I63" s="31">
         <v>2875</v>
       </c>
-      <c r="J63" s="30">
+      <c r="J63" s="31">
         <v>1522.64</v>
       </c>
-      <c r="K63" s="30" t="s">
+      <c r="K63" s="31" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L63" s="31"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="29" t="s">
         <v>19</v>
       </c>
@@ -13102,56 +13192,58 @@
       <c r="F64" s="14">
         <v>0</v>
       </c>
-      <c r="G64" s="30" t="s">
+      <c r="G64" s="31" t="s">
         <v>266</v>
       </c>
-      <c r="H64" s="30">
+      <c r="H64" s="31">
         <v>6</v>
       </c>
-      <c r="I64" s="30">
+      <c r="I64" s="31">
         <v>2952</v>
       </c>
-      <c r="J64" s="30">
+      <c r="J64" s="31">
         <v>1558.32</v>
       </c>
-      <c r="K64" s="30" t="s">
+      <c r="K64" s="31" t="s">
         <v>689</v>
       </c>
+      <c r="L64" s="31"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="29" t="s">
+      <c r="A65" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B65" s="13" t="s">
+      <c r="B65" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="C65" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F65" s="14">
+      <c r="C65" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F65" s="20">
         <v>0</v>
       </c>
-      <c r="G65" s="30" t="s">
+      <c r="G65" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="H65" s="30">
+      <c r="H65" s="36">
         <v>6</v>
       </c>
-      <c r="I65" s="30">
+      <c r="I65" s="36">
         <v>2871</v>
       </c>
-      <c r="J65" s="30">
+      <c r="J65" s="36">
         <v>1496.98</v>
       </c>
-      <c r="K65" s="30" t="s">
+      <c r="K65" s="36" t="s">
         <v>689</v>
       </c>
+      <c r="L65" s="36"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="29" t="s">

--- a/vrp_results_tracker.xlsx
+++ b/vrp_results_tracker.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4126" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4205" uniqueCount="690">
   <si>
     <t>shift</t>
   </si>
@@ -2123,18 +2123,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="11">
@@ -2253,7 +2247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2283,17 +2277,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6894,50 +6885,50 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="I1" s="39" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="J2" s="39" t="s">
+      <c r="G2" s="36"/>
+      <c r="J2" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39" t="s">
+      <c r="K2" s="36"/>
+      <c r="L2" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39" t="s">
+      <c r="M2" s="36"/>
+      <c r="N2" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="O2" s="39"/>
+      <c r="O2" s="36"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -7169,50 +7160,50 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="I8" s="39" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="I8" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39" t="s">
+      <c r="C9" s="36"/>
+      <c r="D9" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39" t="s">
+      <c r="E9" s="36"/>
+      <c r="F9" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="39"/>
-      <c r="J9" s="39" t="s">
+      <c r="G9" s="36"/>
+      <c r="J9" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39" t="s">
+      <c r="K9" s="36"/>
+      <c r="L9" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39" t="s">
+      <c r="M9" s="36"/>
+      <c r="N9" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="O9" s="39"/>
+      <c r="O9" s="36"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -7444,50 +7435,50 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="I15" s="39" t="s">
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="I15" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39" t="s">
+      <c r="C16" s="36"/>
+      <c r="D16" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39" t="s">
+      <c r="E16" s="36"/>
+      <c r="F16" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="G16" s="39"/>
-      <c r="J16" s="39" t="s">
+      <c r="G16" s="36"/>
+      <c r="J16" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39" t="s">
+      <c r="K16" s="36"/>
+      <c r="L16" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39" t="s">
+      <c r="M16" s="36"/>
+      <c r="N16" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="O16" s="39"/>
+      <c r="O16" s="36"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
@@ -7719,50 +7710,50 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="I22" s="39" t="s">
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="I22" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39" t="s">
+      <c r="C23" s="36"/>
+      <c r="D23" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39" t="s">
+      <c r="E23" s="36"/>
+      <c r="F23" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="G23" s="39"/>
-      <c r="J23" s="39" t="s">
+      <c r="G23" s="36"/>
+      <c r="J23" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39" t="s">
+      <c r="K23" s="36"/>
+      <c r="L23" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39" t="s">
+      <c r="M23" s="36"/>
+      <c r="N23" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="O23" s="39"/>
+      <c r="O23" s="36"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
@@ -7995,50 +7986,50 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="I29" s="39" t="s">
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="I29" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="39"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39" t="s">
+      <c r="C30" s="36"/>
+      <c r="D30" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39" t="s">
+      <c r="E30" s="36"/>
+      <c r="F30" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="G30" s="39"/>
-      <c r="J30" s="39" t="s">
+      <c r="G30" s="36"/>
+      <c r="J30" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39" t="s">
+      <c r="K30" s="36"/>
+      <c r="L30" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="M30" s="39"/>
-      <c r="N30" s="39" t="s">
+      <c r="M30" s="36"/>
+      <c r="N30" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="O30" s="39"/>
+      <c r="O30" s="36"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
@@ -8271,50 +8262,50 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="I36" s="39" t="s">
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="I36" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="J36" s="39"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="39"/>
-      <c r="O36" s="39"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39" t="s">
+      <c r="C37" s="36"/>
+      <c r="D37" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39" t="s">
+      <c r="E37" s="36"/>
+      <c r="F37" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="G37" s="39"/>
-      <c r="J37" s="39" t="s">
+      <c r="G37" s="36"/>
+      <c r="J37" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39" t="s">
+      <c r="K37" s="36"/>
+      <c r="L37" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="M37" s="39"/>
-      <c r="N37" s="39" t="s">
+      <c r="M37" s="36"/>
+      <c r="N37" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="O37" s="39"/>
+      <c r="O37" s="36"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
@@ -8547,50 +8538,50 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="39" t="s">
+      <c r="A43" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-      <c r="I43" s="39" t="s">
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="I43" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="J43" s="39"/>
-      <c r="K43" s="39"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="39"/>
-      <c r="O43" s="39"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="39" t="s">
+      <c r="B44" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39" t="s">
+      <c r="C44" s="36"/>
+      <c r="D44" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39" t="s">
+      <c r="E44" s="36"/>
+      <c r="F44" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="G44" s="39"/>
-      <c r="J44" s="39" t="s">
+      <c r="G44" s="36"/>
+      <c r="J44" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="K44" s="39"/>
-      <c r="L44" s="39" t="s">
+      <c r="K44" s="36"/>
+      <c r="L44" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="M44" s="39"/>
-      <c r="N44" s="39" t="s">
+      <c r="M44" s="36"/>
+      <c r="N44" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="O44" s="39"/>
+      <c r="O44" s="36"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
@@ -8824,41 +8815,41 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="38"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="I50" s="39" t="s">
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="I50" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="J50" s="39"/>
-      <c r="K50" s="39"/>
-      <c r="L50" s="39"/>
-      <c r="M50" s="39"/>
-      <c r="N50" s="39"/>
-      <c r="O50" s="39"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="36"/>
+      <c r="N50" s="36"/>
+      <c r="O50" s="36"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-      <c r="J51" s="39" t="s">
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="J51" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="K51" s="39"/>
-      <c r="L51" s="39" t="s">
+      <c r="K51" s="36"/>
+      <c r="L51" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="M51" s="39"/>
-      <c r="N51" s="39" t="s">
+      <c r="M51" s="36"/>
+      <c r="N51" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="O51" s="39"/>
+      <c r="O51" s="36"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J52" t="s">
@@ -10503,8 +10494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H159" sqref="H159"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10574,7 +10565,7 @@
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>171</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -10586,25 +10577,25 @@
       <c r="E2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="31">
+      <c r="F2" s="30">
         <v>40</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="31" t="s">
         <v>689</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="31" t="s">
         <v>34</v>
       </c>
       <c r="M2" s="23"/>
@@ -10635,7 +10626,7 @@
       <c r="F3" s="12">
         <v>40</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="24" t="s">
         <v>205</v>
       </c>
       <c r="H3" s="24" t="s">
@@ -10681,7 +10672,7 @@
       <c r="F4" s="12">
         <v>40</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="24" t="s">
         <v>206</v>
       </c>
       <c r="H4" s="24" t="s">
@@ -10727,22 +10718,22 @@
       <c r="F5" s="14">
         <v>40</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="J5" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="29" t="s">
+      <c r="K5" s="28" t="s">
         <v>689</v>
       </c>
-      <c r="L5" s="29" t="s">
+      <c r="L5" s="28" t="s">
         <v>34</v>
       </c>
       <c r="M5" s="23"/>
@@ -10758,7 +10749,7 @@
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="30" t="s">
         <v>175</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -10770,25 +10761,25 @@
       <c r="E6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="30">
         <v>40</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="H6" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="33" t="s">
+      <c r="J6" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="33" t="s">
+      <c r="K6" s="31" t="s">
         <v>689</v>
       </c>
-      <c r="L6" s="33" t="s">
+      <c r="L6" s="31" t="s">
         <v>34</v>
       </c>
       <c r="M6" s="23"/>
@@ -10819,7 +10810,7 @@
       <c r="F7" s="12">
         <v>40</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="24" t="s">
         <v>209</v>
       </c>
       <c r="H7" s="24" t="s">
@@ -10865,7 +10856,7 @@
       <c r="F8" s="12">
         <v>40</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="24" t="s">
         <v>210</v>
       </c>
       <c r="H8" s="24" t="s">
@@ -10911,22 +10902,22 @@
       <c r="F9" s="14">
         <v>40</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="29" t="s">
+      <c r="I9" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="29" t="s">
+      <c r="J9" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="29" t="s">
+      <c r="K9" s="28" t="s">
         <v>689</v>
       </c>
-      <c r="L9" s="29" t="s">
+      <c r="L9" s="28" t="s">
         <v>34</v>
       </c>
       <c r="M9" s="23"/>
@@ -10942,7 +10933,7 @@
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="30" t="s">
         <v>179</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -10954,25 +10945,25 @@
       <c r="E10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="30">
         <v>60</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="32">
         <v>11</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10" s="31">
         <v>4580</v>
       </c>
-      <c r="J10" s="33">
+      <c r="J10" s="31">
         <v>2506.06</v>
       </c>
-      <c r="K10" s="33" t="s">
+      <c r="K10" s="31" t="s">
         <v>689</v>
       </c>
-      <c r="L10" s="33" t="s">
+      <c r="L10" s="31" t="s">
         <v>689</v>
       </c>
       <c r="M10" s="23"/>
@@ -11003,7 +10994,7 @@
       <c r="F11" s="12">
         <v>60</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="24" t="s">
         <v>213</v>
       </c>
       <c r="H11" s="24">
@@ -11049,7 +11040,7 @@
       <c r="F12" s="12">
         <v>60</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="24" t="s">
         <v>214</v>
       </c>
       <c r="H12" s="24">
@@ -11095,22 +11086,22 @@
       <c r="F13" s="14">
         <v>60</v>
       </c>
-      <c r="G13" s="37" t="s">
+      <c r="G13" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H13" s="28">
         <v>13</v>
       </c>
-      <c r="I13" s="29">
+      <c r="I13" s="28">
         <v>4407</v>
       </c>
-      <c r="J13" s="29">
+      <c r="J13" s="28">
         <v>2430.5700000000002</v>
       </c>
-      <c r="K13" s="29" t="s">
+      <c r="K13" s="28" t="s">
         <v>689</v>
       </c>
-      <c r="L13" s="28" t="s">
+      <c r="L13" s="27" t="s">
         <v>689</v>
       </c>
       <c r="M13" s="23"/>
@@ -11126,7 +11117,7 @@
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="30" t="s">
         <v>183</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -11138,25 +11129,25 @@
       <c r="E14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="30">
         <v>60</v>
       </c>
-      <c r="G14" s="32" t="s">
+      <c r="G14" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="H14" s="33" t="s">
+      <c r="H14" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="33" t="s">
+      <c r="I14" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="33" t="s">
+      <c r="J14" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="K14" s="33" t="s">
+      <c r="K14" s="31" t="s">
         <v>689</v>
       </c>
-      <c r="L14" s="33" t="s">
+      <c r="L14" s="31" t="s">
         <v>34</v>
       </c>
       <c r="M14" s="23"/>
@@ -11187,7 +11178,7 @@
       <c r="F15" s="12">
         <v>60</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="G15" s="24" t="s">
         <v>217</v>
       </c>
       <c r="H15" s="24">
@@ -11233,7 +11224,7 @@
       <c r="F16" s="12">
         <v>60</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="24" t="s">
         <v>218</v>
       </c>
       <c r="H16" s="24">
@@ -11279,22 +11270,22 @@
       <c r="F17" s="14">
         <v>60</v>
       </c>
-      <c r="G17" s="37" t="s">
+      <c r="G17" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="28">
         <v>10</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="28">
         <v>4254</v>
       </c>
-      <c r="J17" s="29">
+      <c r="J17" s="28">
         <v>2321.21</v>
       </c>
-      <c r="K17" s="29" t="s">
+      <c r="K17" s="28" t="s">
         <v>689</v>
       </c>
-      <c r="L17" s="28" t="s">
+      <c r="L17" s="27" t="s">
         <v>689</v>
       </c>
       <c r="M17" s="23"/>
@@ -11310,7 +11301,7 @@
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="30" t="s">
         <v>187</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -11322,25 +11313,25 @@
       <c r="E18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="30">
         <v>200</v>
       </c>
-      <c r="G18" s="32" t="s">
+      <c r="G18" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="H18" s="33">
+      <c r="H18" s="31">
         <v>9</v>
       </c>
-      <c r="I18" s="33">
+      <c r="I18" s="31">
         <v>4102</v>
       </c>
-      <c r="J18" s="33">
+      <c r="J18" s="31">
         <v>2177.8000000000002</v>
       </c>
-      <c r="K18" s="33" t="s">
+      <c r="K18" s="31" t="s">
         <v>689</v>
       </c>
-      <c r="L18" s="33" t="s">
+      <c r="L18" s="31" t="s">
         <v>689</v>
       </c>
       <c r="M18" s="24"/>
@@ -11371,7 +11362,7 @@
       <c r="F19" s="12">
         <v>200</v>
       </c>
-      <c r="G19" s="27" t="s">
+      <c r="G19" s="24" t="s">
         <v>221</v>
       </c>
       <c r="H19" s="24">
@@ -11417,7 +11408,7 @@
       <c r="F20" s="12">
         <v>200</v>
       </c>
-      <c r="G20" s="27" t="s">
+      <c r="G20" s="24" t="s">
         <v>222</v>
       </c>
       <c r="H20" s="24">
@@ -11463,22 +11454,22 @@
       <c r="F21" s="14">
         <v>200</v>
       </c>
-      <c r="G21" s="37" t="s">
+      <c r="G21" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="H21" s="29">
+      <c r="H21" s="28">
         <v>11</v>
       </c>
-      <c r="I21" s="29">
+      <c r="I21" s="28">
         <v>4296</v>
       </c>
-      <c r="J21" s="29">
+      <c r="J21" s="28">
         <v>2373.54</v>
       </c>
-      <c r="K21" s="29" t="s">
+      <c r="K21" s="28" t="s">
         <v>689</v>
       </c>
-      <c r="L21" s="29" t="s">
+      <c r="L21" s="28" t="s">
         <v>689</v>
       </c>
       <c r="M21" s="24"/>
@@ -11494,7 +11485,7 @@
       <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="30" t="s">
         <v>191</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -11506,25 +11497,25 @@
       <c r="E22" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="31">
+      <c r="F22" s="30">
         <v>200</v>
       </c>
-      <c r="G22" s="32" t="s">
+      <c r="G22" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="H22" s="33" t="s">
+      <c r="H22" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="I22" s="33" t="s">
+      <c r="I22" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="J22" s="33" t="s">
+      <c r="J22" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="K22" s="33" t="s">
+      <c r="K22" s="31" t="s">
         <v>689</v>
       </c>
-      <c r="L22" s="33" t="s">
+      <c r="L22" s="31" t="s">
         <v>34</v>
       </c>
       <c r="M22" s="24"/>
@@ -11555,7 +11546,7 @@
       <c r="F23" s="12">
         <v>200</v>
       </c>
-      <c r="G23" s="27" t="s">
+      <c r="G23" s="24" t="s">
         <v>225</v>
       </c>
       <c r="H23" s="24">
@@ -11601,7 +11592,7 @@
       <c r="F24" s="12">
         <v>200</v>
       </c>
-      <c r="G24" s="27" t="s">
+      <c r="G24" s="24" t="s">
         <v>226</v>
       </c>
       <c r="H24" s="24">
@@ -11647,22 +11638,22 @@
       <c r="F25" s="14">
         <v>200</v>
       </c>
-      <c r="G25" s="37" t="s">
+      <c r="G25" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="H25" s="29">
+      <c r="H25" s="28">
         <v>8</v>
       </c>
-      <c r="I25" s="29">
+      <c r="I25" s="28">
         <v>3948</v>
       </c>
-      <c r="J25" s="29">
+      <c r="J25" s="28">
         <v>2037.85</v>
       </c>
-      <c r="K25" s="29" t="s">
+      <c r="K25" s="28" t="s">
         <v>689</v>
       </c>
-      <c r="L25" s="29" t="s">
+      <c r="L25" s="28" t="s">
         <v>689</v>
       </c>
       <c r="M25" s="24"/>
@@ -11678,7 +11669,7 @@
       <c r="A26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="30" t="s">
         <v>195</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -11690,25 +11681,25 @@
       <c r="E26" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F26" s="35">
+      <c r="F26" s="33">
         <v>0</v>
       </c>
-      <c r="G26" s="32" t="s">
+      <c r="G26" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="H26" s="33">
+      <c r="H26" s="31">
         <v>9</v>
       </c>
-      <c r="I26" s="33">
+      <c r="I26" s="31">
         <v>4102</v>
       </c>
-      <c r="J26" s="33">
+      <c r="J26" s="31">
         <v>2177.8000000000002</v>
       </c>
-      <c r="K26" s="33" t="s">
+      <c r="K26" s="31" t="s">
         <v>689</v>
       </c>
-      <c r="L26" s="33" t="s">
+      <c r="L26" s="31" t="s">
         <v>689</v>
       </c>
       <c r="M26" s="24"/>
@@ -11739,7 +11730,7 @@
       <c r="F27" s="13">
         <v>0</v>
       </c>
-      <c r="G27" s="27" t="s">
+      <c r="G27" s="24" t="s">
         <v>229</v>
       </c>
       <c r="H27" s="24">
@@ -11785,7 +11776,7 @@
       <c r="F28" s="13">
         <v>0</v>
       </c>
-      <c r="G28" s="27" t="s">
+      <c r="G28" s="24" t="s">
         <v>230</v>
       </c>
       <c r="H28" s="24">
@@ -11831,22 +11822,22 @@
       <c r="F29" s="15">
         <v>0</v>
       </c>
-      <c r="G29" s="37" t="s">
+      <c r="G29" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="H29" s="29">
+      <c r="H29" s="28">
         <v>11</v>
       </c>
-      <c r="I29" s="29">
+      <c r="I29" s="28">
         <v>4323</v>
       </c>
-      <c r="J29" s="29">
+      <c r="J29" s="28">
         <v>2367.27</v>
       </c>
-      <c r="K29" s="29" t="s">
+      <c r="K29" s="28" t="s">
         <v>689</v>
       </c>
-      <c r="L29" s="28" t="s">
+      <c r="L29" s="27" t="s">
         <v>689</v>
       </c>
       <c r="M29" s="23"/>
@@ -11862,7 +11853,7 @@
       <c r="A30" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="30" t="s">
         <v>199</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -11874,25 +11865,25 @@
       <c r="E30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="35">
+      <c r="F30" s="33">
         <v>0</v>
       </c>
-      <c r="G30" s="32" t="s">
+      <c r="G30" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="H30" s="33" t="s">
+      <c r="H30" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="I30" s="33" t="s">
+      <c r="I30" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="J30" s="33" t="s">
+      <c r="J30" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="K30" s="33" t="s">
+      <c r="K30" s="31" t="s">
         <v>689</v>
       </c>
-      <c r="L30" s="33" t="s">
+      <c r="L30" s="31" t="s">
         <v>34</v>
       </c>
       <c r="M30" s="24"/>
@@ -11923,7 +11914,7 @@
       <c r="F31" s="13">
         <v>0</v>
       </c>
-      <c r="G31" s="27" t="s">
+      <c r="G31" s="24" t="s">
         <v>233</v>
       </c>
       <c r="H31" s="24">
@@ -11969,7 +11960,7 @@
       <c r="F32" s="13">
         <v>0</v>
       </c>
-      <c r="G32" s="27" t="s">
+      <c r="G32" s="24" t="s">
         <v>234</v>
       </c>
       <c r="H32" s="24">
@@ -12015,22 +12006,22 @@
       <c r="F33" s="15">
         <v>0</v>
       </c>
-      <c r="G33" s="37" t="s">
+      <c r="G33" s="28" t="s">
         <v>678</v>
       </c>
-      <c r="H33" s="29">
+      <c r="H33" s="28">
         <v>8</v>
       </c>
-      <c r="I33" s="29">
+      <c r="I33" s="28">
         <v>3930</v>
       </c>
-      <c r="J33" s="29">
+      <c r="J33" s="28">
         <v>2026.88</v>
       </c>
-      <c r="K33" s="29" t="s">
+      <c r="K33" s="28" t="s">
         <v>689</v>
       </c>
-      <c r="L33" s="28" t="s">
+      <c r="L33" s="27" t="s">
         <v>689</v>
       </c>
       <c r="M33" s="23"/>
@@ -12043,10 +12034,10 @@
       <c r="T33" s="23"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="30" t="s">
         <v>171</v>
       </c>
       <c r="C34" s="3" t="s">
@@ -12058,25 +12049,25 @@
       <c r="E34" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="31">
+      <c r="F34" s="30">
         <v>40</v>
       </c>
-      <c r="G34" s="32" t="s">
+      <c r="G34" s="31" t="s">
         <v>236</v>
       </c>
-      <c r="H34" s="33">
+      <c r="H34" s="31">
         <v>10</v>
       </c>
-      <c r="I34" s="33">
+      <c r="I34" s="31">
         <v>3604</v>
       </c>
-      <c r="J34" s="33">
+      <c r="J34" s="31">
         <v>2084.15</v>
       </c>
-      <c r="K34" s="33" t="s">
+      <c r="K34" s="31" t="s">
         <v>689</v>
       </c>
-      <c r="L34" s="34" t="s">
+      <c r="L34" s="32" t="s">
         <v>689</v>
       </c>
     </row>
@@ -12099,7 +12090,7 @@
       <c r="F35" s="12">
         <v>40</v>
       </c>
-      <c r="G35" s="27" t="s">
+      <c r="G35" s="24" t="s">
         <v>237</v>
       </c>
       <c r="H35" s="24">
@@ -12137,7 +12128,7 @@
       <c r="F36" s="12">
         <v>40</v>
       </c>
-      <c r="G36" s="27" t="s">
+      <c r="G36" s="24" t="s">
         <v>238</v>
       </c>
       <c r="H36" s="24">
@@ -12157,7 +12148,7 @@
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B37" s="14" t="s">
@@ -12175,30 +12166,30 @@
       <c r="F37" s="14">
         <v>40</v>
       </c>
-      <c r="G37" s="37" t="s">
+      <c r="G37" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="H37" s="29">
+      <c r="H37" s="28">
         <v>11</v>
       </c>
-      <c r="I37" s="29">
+      <c r="I37" s="28">
         <v>3429</v>
       </c>
-      <c r="J37" s="29">
+      <c r="J37" s="28">
         <v>2083.9699999999998</v>
       </c>
-      <c r="K37" s="29" t="s">
+      <c r="K37" s="28" t="s">
         <v>689</v>
       </c>
-      <c r="L37" s="28" t="s">
+      <c r="L37" s="27" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="30" t="s">
         <v>175</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -12210,25 +12201,25 @@
       <c r="E38" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="31">
+      <c r="F38" s="30">
         <v>40</v>
       </c>
-      <c r="G38" s="32" t="s">
+      <c r="G38" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="H38" s="34" t="s">
+      <c r="H38" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="I38" s="34" t="s">
+      <c r="I38" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="J38" s="34" t="s">
+      <c r="J38" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="K38" s="33" t="s">
+      <c r="K38" s="31" t="s">
         <v>689</v>
       </c>
-      <c r="L38" s="34" t="s">
+      <c r="L38" s="32" t="s">
         <v>34</v>
       </c>
     </row>
@@ -12251,7 +12242,7 @@
       <c r="F39" s="12">
         <v>40</v>
       </c>
-      <c r="G39" s="27" t="s">
+      <c r="G39" s="24" t="s">
         <v>241</v>
       </c>
       <c r="H39" s="23">
@@ -12289,7 +12280,7 @@
       <c r="F40" s="12">
         <v>40</v>
       </c>
-      <c r="G40" s="27" t="s">
+      <c r="G40" s="24" t="s">
         <v>242</v>
       </c>
       <c r="H40" s="23">
@@ -12309,7 +12300,7 @@
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -12327,30 +12318,30 @@
       <c r="F41" s="14">
         <v>40</v>
       </c>
-      <c r="G41" s="37" t="s">
+      <c r="G41" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="H41" s="28">
+      <c r="H41" s="27">
         <v>10</v>
       </c>
-      <c r="I41" s="28">
+      <c r="I41" s="27">
         <v>3549</v>
       </c>
-      <c r="J41" s="28">
+      <c r="J41" s="27">
         <v>2032.15</v>
       </c>
-      <c r="K41" s="29" t="s">
+      <c r="K41" s="28" t="s">
         <v>689</v>
       </c>
-      <c r="L41" s="28" t="s">
+      <c r="L41" s="27" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="36" t="s">
+      <c r="A42" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="30" t="s">
         <v>179</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -12362,25 +12353,25 @@
       <c r="E42" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F42" s="31">
+      <c r="F42" s="30">
         <v>60</v>
       </c>
-      <c r="G42" s="32" t="s">
+      <c r="G42" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="H42" s="34">
+      <c r="H42" s="32">
         <v>7</v>
       </c>
-      <c r="I42" s="34">
+      <c r="I42" s="32">
         <v>2904</v>
       </c>
-      <c r="J42" s="34">
+      <c r="J42" s="32">
         <v>1525.86</v>
       </c>
-      <c r="K42" s="33" t="s">
+      <c r="K42" s="31" t="s">
         <v>689</v>
       </c>
-      <c r="L42" s="34" t="s">
+      <c r="L42" s="32" t="s">
         <v>689</v>
       </c>
     </row>
@@ -12403,7 +12394,7 @@
       <c r="F43" s="12">
         <v>60</v>
       </c>
-      <c r="G43" s="27" t="s">
+      <c r="G43" s="24" t="s">
         <v>245</v>
       </c>
       <c r="H43" s="23">
@@ -12441,7 +12432,7 @@
       <c r="F44" s="12">
         <v>60</v>
       </c>
-      <c r="G44" s="27" t="s">
+      <c r="G44" s="24" t="s">
         <v>246</v>
       </c>
       <c r="H44" s="23">
@@ -12461,7 +12452,7 @@
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" s="30" t="s">
+      <c r="A45" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B45" s="14" t="s">
@@ -12479,30 +12470,30 @@
       <c r="F45" s="14">
         <v>60</v>
       </c>
-      <c r="G45" s="37" t="s">
+      <c r="G45" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="H45" s="28">
+      <c r="H45" s="27">
         <v>8</v>
       </c>
-      <c r="I45" s="28">
+      <c r="I45" s="27">
         <v>3154</v>
       </c>
-      <c r="J45" s="28">
+      <c r="J45" s="27">
         <v>1683.56</v>
       </c>
-      <c r="K45" s="29" t="s">
+      <c r="K45" s="28" t="s">
         <v>689</v>
       </c>
-      <c r="L45" s="28" t="s">
+      <c r="L45" s="27" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="36" t="s">
+      <c r="A46" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="31" t="s">
+      <c r="B46" s="30" t="s">
         <v>183</v>
       </c>
       <c r="C46" s="3" t="s">
@@ -12514,25 +12505,25 @@
       <c r="E46" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F46" s="31">
+      <c r="F46" s="30">
         <v>60</v>
       </c>
-      <c r="G46" s="32" t="s">
+      <c r="G46" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="H46" s="34">
+      <c r="H46" s="32">
         <v>6</v>
       </c>
-      <c r="I46" s="34">
+      <c r="I46" s="32">
         <v>2977</v>
       </c>
-      <c r="J46" s="34">
+      <c r="J46" s="32">
         <v>1569.43</v>
       </c>
-      <c r="K46" s="33" t="s">
+      <c r="K46" s="31" t="s">
         <v>689</v>
       </c>
-      <c r="L46" s="34" t="s">
+      <c r="L46" s="32" t="s">
         <v>689</v>
       </c>
     </row>
@@ -12555,7 +12546,7 @@
       <c r="F47" s="12">
         <v>60</v>
       </c>
-      <c r="G47" s="27" t="s">
+      <c r="G47" s="24" t="s">
         <v>249</v>
       </c>
       <c r="H47" s="23">
@@ -12593,7 +12584,7 @@
       <c r="F48" s="12">
         <v>60</v>
       </c>
-      <c r="G48" s="27" t="s">
+      <c r="G48" s="24" t="s">
         <v>250</v>
       </c>
       <c r="H48" s="23">
@@ -12613,7 +12604,7 @@
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="30" t="s">
+      <c r="A49" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B49" s="14" t="s">
@@ -12631,30 +12622,30 @@
       <c r="F49" s="14">
         <v>60</v>
       </c>
-      <c r="G49" s="37" t="s">
+      <c r="G49" s="28" t="s">
         <v>251</v>
       </c>
-      <c r="H49" s="28">
+      <c r="H49" s="27">
         <v>6</v>
       </c>
-      <c r="I49" s="28">
+      <c r="I49" s="27">
         <v>2846</v>
       </c>
-      <c r="J49" s="28">
+      <c r="J49" s="27">
         <v>1493.35</v>
       </c>
-      <c r="K49" s="29" t="s">
+      <c r="K49" s="28" t="s">
         <v>689</v>
       </c>
-      <c r="L49" s="28" t="s">
+      <c r="L49" s="27" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="36" t="s">
+      <c r="A50" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B50" s="31" t="s">
+      <c r="B50" s="30" t="s">
         <v>187</v>
       </c>
       <c r="C50" s="3" t="s">
@@ -12666,25 +12657,25 @@
       <c r="E50" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F50" s="31">
+      <c r="F50" s="30">
         <v>200</v>
       </c>
-      <c r="G50" s="32" t="s">
+      <c r="G50" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="H50" s="34">
+      <c r="H50" s="32">
         <v>7</v>
       </c>
-      <c r="I50" s="34">
+      <c r="I50" s="32">
         <v>2809</v>
       </c>
-      <c r="J50" s="34">
+      <c r="J50" s="32">
         <v>1479.11</v>
       </c>
-      <c r="K50" s="33" t="s">
+      <c r="K50" s="31" t="s">
         <v>689</v>
       </c>
-      <c r="L50" s="34" t="s">
+      <c r="L50" s="32" t="s">
         <v>689</v>
       </c>
     </row>
@@ -12707,7 +12698,7 @@
       <c r="F51" s="12">
         <v>200</v>
       </c>
-      <c r="G51" s="27" t="s">
+      <c r="G51" s="24" t="s">
         <v>253</v>
       </c>
       <c r="H51" s="23">
@@ -12745,7 +12736,7 @@
       <c r="F52" s="12">
         <v>200</v>
       </c>
-      <c r="G52" s="27" t="s">
+      <c r="G52" s="24" t="s">
         <v>254</v>
       </c>
       <c r="H52" s="23">
@@ -12765,7 +12756,7 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="30" t="s">
+      <c r="A53" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B53" s="14" t="s">
@@ -12783,30 +12774,30 @@
       <c r="F53" s="14">
         <v>200</v>
       </c>
-      <c r="G53" s="37" t="s">
+      <c r="G53" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="H53" s="28">
+      <c r="H53" s="27">
         <v>8</v>
       </c>
-      <c r="I53" s="28">
+      <c r="I53" s="27">
         <v>3195</v>
       </c>
-      <c r="J53" s="28">
+      <c r="J53" s="27">
         <v>1717.42</v>
       </c>
-      <c r="K53" s="29" t="s">
+      <c r="K53" s="28" t="s">
         <v>689</v>
       </c>
-      <c r="L53" s="28" t="s">
+      <c r="L53" s="27" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="36" t="s">
+      <c r="A54" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B54" s="31" t="s">
+      <c r="B54" s="30" t="s">
         <v>191</v>
       </c>
       <c r="C54" s="3" t="s">
@@ -12818,25 +12809,25 @@
       <c r="E54" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F54" s="31">
+      <c r="F54" s="30">
         <v>200</v>
       </c>
-      <c r="G54" s="32" t="s">
+      <c r="G54" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="H54" s="34">
+      <c r="H54" s="32">
         <v>5</v>
       </c>
-      <c r="I54" s="34">
+      <c r="I54" s="32">
         <v>2749</v>
       </c>
-      <c r="J54" s="34">
+      <c r="J54" s="32">
         <v>1410.65</v>
       </c>
-      <c r="K54" s="33" t="s">
+      <c r="K54" s="31" t="s">
         <v>689</v>
       </c>
-      <c r="L54" s="34" t="s">
+      <c r="L54" s="32" t="s">
         <v>689</v>
       </c>
     </row>
@@ -12859,7 +12850,7 @@
       <c r="F55" s="12">
         <v>200</v>
       </c>
-      <c r="G55" s="27" t="s">
+      <c r="G55" s="24" t="s">
         <v>257</v>
       </c>
       <c r="H55" s="23">
@@ -12897,7 +12888,7 @@
       <c r="F56" s="12">
         <v>200</v>
       </c>
-      <c r="G56" s="27" t="s">
+      <c r="G56" s="24" t="s">
         <v>258</v>
       </c>
       <c r="H56" s="23">
@@ -12917,7 +12908,7 @@
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="30" t="s">
+      <c r="A57" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B57" s="14" t="s">
@@ -12935,30 +12926,30 @@
       <c r="F57" s="14">
         <v>200</v>
       </c>
-      <c r="G57" s="37" t="s">
+      <c r="G57" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="H57" s="28">
+      <c r="H57" s="27">
         <v>6</v>
       </c>
-      <c r="I57" s="28">
+      <c r="I57" s="27">
         <v>2871</v>
       </c>
-      <c r="J57" s="28">
+      <c r="J57" s="27">
         <v>1496.98</v>
       </c>
-      <c r="K57" s="29" t="s">
+      <c r="K57" s="28" t="s">
         <v>689</v>
       </c>
-      <c r="L57" s="28" t="s">
+      <c r="L57" s="27" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="36" t="s">
+      <c r="A58" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B58" s="31" t="s">
+      <c r="B58" s="30" t="s">
         <v>195</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -12970,25 +12961,25 @@
       <c r="E58" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F58" s="35">
+      <c r="F58" s="33">
         <v>0</v>
       </c>
-      <c r="G58" s="32" t="s">
+      <c r="G58" s="31" t="s">
         <v>260</v>
       </c>
-      <c r="H58" s="34">
+      <c r="H58" s="32">
         <v>7</v>
       </c>
-      <c r="I58" s="34">
+      <c r="I58" s="32">
         <v>2809</v>
       </c>
-      <c r="J58" s="34">
+      <c r="J58" s="32">
         <v>1479.11</v>
       </c>
-      <c r="K58" s="33" t="s">
+      <c r="K58" s="31" t="s">
         <v>689</v>
       </c>
-      <c r="L58" s="34" t="s">
+      <c r="L58" s="32" t="s">
         <v>689</v>
       </c>
     </row>
@@ -13011,7 +13002,7 @@
       <c r="F59" s="13">
         <v>0</v>
       </c>
-      <c r="G59" s="27" t="s">
+      <c r="G59" s="24" t="s">
         <v>261</v>
       </c>
       <c r="H59" s="23">
@@ -13049,7 +13040,7 @@
       <c r="F60" s="13">
         <v>0</v>
       </c>
-      <c r="G60" s="27" t="s">
+      <c r="G60" s="24" t="s">
         <v>262</v>
       </c>
       <c r="H60" s="23">
@@ -13069,7 +13060,7 @@
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="30" t="s">
+      <c r="A61" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B61" s="14" t="s">
@@ -13087,30 +13078,30 @@
       <c r="F61" s="15">
         <v>0</v>
       </c>
-      <c r="G61" s="37" t="s">
+      <c r="G61" s="28" t="s">
         <v>263</v>
       </c>
-      <c r="H61" s="28">
+      <c r="H61" s="27">
         <v>8</v>
       </c>
-      <c r="I61" s="28">
+      <c r="I61" s="27">
         <v>3195</v>
       </c>
-      <c r="J61" s="28">
+      <c r="J61" s="27">
         <v>1717.42</v>
       </c>
-      <c r="K61" s="28" t="s">
+      <c r="K61" s="27" t="s">
         <v>689</v>
       </c>
-      <c r="L61" s="28" t="s">
+      <c r="L61" s="27" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="36" t="s">
+      <c r="A62" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B62" s="31" t="s">
+      <c r="B62" s="30" t="s">
         <v>199</v>
       </c>
       <c r="C62" s="3" t="s">
@@ -13122,25 +13113,25 @@
       <c r="E62" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F62" s="35">
+      <c r="F62" s="33">
         <v>0</v>
       </c>
-      <c r="G62" s="32" t="s">
+      <c r="G62" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="H62" s="34">
+      <c r="H62" s="32">
         <v>5</v>
       </c>
-      <c r="I62" s="34">
+      <c r="I62" s="32">
         <v>2749</v>
       </c>
-      <c r="J62" s="34">
+      <c r="J62" s="32">
         <v>1410.65</v>
       </c>
-      <c r="K62" s="34" t="s">
+      <c r="K62" s="32" t="s">
         <v>689</v>
       </c>
-      <c r="L62" s="34" t="s">
+      <c r="L62" s="32" t="s">
         <v>689</v>
       </c>
     </row>
@@ -13163,7 +13154,7 @@
       <c r="F63" s="13">
         <v>0</v>
       </c>
-      <c r="G63" s="27" t="s">
+      <c r="G63" s="24" t="s">
         <v>265</v>
       </c>
       <c r="H63" s="23">
@@ -13201,7 +13192,7 @@
       <c r="F64" s="13">
         <v>0</v>
       </c>
-      <c r="G64" s="27" t="s">
+      <c r="G64" s="24" t="s">
         <v>266</v>
       </c>
       <c r="H64" s="23">
@@ -13221,7 +13212,7 @@
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="30" t="s">
+      <c r="A65" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B65" s="14" t="s">
@@ -13242,25 +13233,27 @@
       <c r="G65" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="H65" s="28">
+      <c r="H65" s="27">
         <v>6</v>
       </c>
-      <c r="I65" s="28">
+      <c r="I65" s="27">
         <v>2871</v>
       </c>
-      <c r="J65" s="28">
+      <c r="J65" s="27">
         <v>1496.98</v>
       </c>
-      <c r="K65" s="28" t="s">
+      <c r="K65" s="27" t="s">
         <v>689</v>
       </c>
-      <c r="L65" s="28"/>
+      <c r="L65" s="27" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="36" t="s">
+      <c r="A66" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B66" s="31" t="s">
+      <c r="B66" s="30" t="s">
         <v>171</v>
       </c>
       <c r="C66" s="3" t="s">
@@ -13272,25 +13265,25 @@
       <c r="E66" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F66" s="31">
+      <c r="F66" s="30">
         <v>40</v>
       </c>
-      <c r="G66" s="34" t="s">
+      <c r="G66" s="31" t="s">
         <v>267</v>
       </c>
-      <c r="H66" s="34" t="s">
+      <c r="H66" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="I66" s="34" t="s">
+      <c r="I66" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="J66" s="34" t="s">
+      <c r="J66" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="K66" s="33" t="s">
+      <c r="K66" s="31" t="s">
         <v>689</v>
       </c>
-      <c r="L66" s="34" t="s">
+      <c r="L66" s="32" t="s">
         <v>34</v>
       </c>
     </row>
@@ -13316,11 +13309,21 @@
       <c r="G67" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="H67" s="23"/>
-      <c r="I67" s="23"/>
-      <c r="J67" s="23"/>
-      <c r="K67" s="23"/>
-      <c r="L67" s="23"/>
+      <c r="H67" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I67" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J67" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K67" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L67" s="24" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="21" t="s">
@@ -13344,14 +13347,24 @@
       <c r="G68" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="H68" s="23"/>
-      <c r="I68" s="23"/>
-      <c r="J68" s="23"/>
-      <c r="K68" s="23"/>
-      <c r="L68" s="23"/>
+      <c r="H68" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I68" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J68" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K68" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L68" s="24" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="30" t="s">
+      <c r="A69" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B69" s="14" t="s">
@@ -13369,20 +13382,30 @@
       <c r="F69" s="14">
         <v>40</v>
       </c>
-      <c r="G69" s="28" t="s">
+      <c r="G69" s="27" t="s">
         <v>270</v>
       </c>
-      <c r="H69" s="28"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="28"/>
-      <c r="K69" s="28"/>
-      <c r="L69" s="28"/>
+      <c r="H69" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I69" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J69" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K69" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L69" s="24" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="36" t="s">
+      <c r="A70" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B70" s="31" t="s">
+      <c r="B70" s="30" t="s">
         <v>175</v>
       </c>
       <c r="C70" s="3" t="s">
@@ -13394,25 +13417,25 @@
       <c r="E70" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F70" s="31">
+      <c r="F70" s="30">
         <v>40</v>
       </c>
-      <c r="G70" s="34" t="s">
+      <c r="G70" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="H70" s="34" t="s">
+      <c r="H70" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="I70" s="34" t="s">
+      <c r="I70" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="J70" s="34" t="s">
+      <c r="J70" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="K70" s="33" t="s">
+      <c r="K70" s="31" t="s">
         <v>689</v>
       </c>
-      <c r="L70" s="34" t="s">
+      <c r="L70" s="32" t="s">
         <v>34</v>
       </c>
     </row>
@@ -13438,11 +13461,21 @@
       <c r="G71" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="H71" s="23"/>
-      <c r="I71" s="23"/>
-      <c r="J71" s="23"/>
-      <c r="K71" s="23"/>
-      <c r="L71" s="23"/>
+      <c r="H71" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I71" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J71" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K71" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L71" s="24" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="s">
@@ -13466,14 +13499,24 @@
       <c r="G72" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="H72" s="23"/>
-      <c r="I72" s="23"/>
-      <c r="J72" s="23"/>
-      <c r="K72" s="23"/>
-      <c r="L72" s="23"/>
+      <c r="H72" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I72" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J72" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K72" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L72" s="24" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="30" t="s">
+      <c r="A73" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B73" s="14" t="s">
@@ -13491,20 +13534,30 @@
       <c r="F73" s="14">
         <v>40</v>
       </c>
-      <c r="G73" s="28" t="s">
+      <c r="G73" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="H73" s="28"/>
-      <c r="I73" s="28"/>
-      <c r="J73" s="28"/>
-      <c r="K73" s="28"/>
-      <c r="L73" s="28"/>
+      <c r="H73" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I73" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J73" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K73" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L73" s="24" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="36" t="s">
+      <c r="A74" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B74" s="31" t="s">
+      <c r="B74" s="30" t="s">
         <v>179</v>
       </c>
       <c r="C74" s="3" t="s">
@@ -13516,17 +13569,27 @@
       <c r="E74" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F74" s="31">
+      <c r="F74" s="30">
         <v>60</v>
       </c>
-      <c r="G74" s="34" t="s">
+      <c r="G74" s="32" t="s">
         <v>275</v>
       </c>
-      <c r="H74" s="34"/>
-      <c r="I74" s="34"/>
-      <c r="J74" s="34"/>
-      <c r="K74" s="34"/>
-      <c r="L74" s="34"/>
+      <c r="H74" s="32">
+        <v>7</v>
+      </c>
+      <c r="I74" s="32">
+        <v>2329</v>
+      </c>
+      <c r="J74" s="32">
+        <v>1126.8599999999999</v>
+      </c>
+      <c r="K74" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L74" s="32" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="21" t="s">
@@ -13550,11 +13613,21 @@
       <c r="G75" s="23" t="s">
         <v>276</v>
       </c>
-      <c r="H75" s="23"/>
-      <c r="I75" s="23"/>
-      <c r="J75" s="23"/>
-      <c r="K75" s="23"/>
-      <c r="L75" s="23"/>
+      <c r="H75" s="23">
+        <v>8</v>
+      </c>
+      <c r="I75" s="23">
+        <v>2695</v>
+      </c>
+      <c r="J75" s="24">
+        <v>1519.24</v>
+      </c>
+      <c r="K75" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L75" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="21" t="s">
@@ -13578,14 +13651,24 @@
       <c r="G76" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="H76" s="23"/>
-      <c r="I76" s="23"/>
-      <c r="J76" s="23"/>
-      <c r="K76" s="23"/>
-      <c r="L76" s="23"/>
+      <c r="H76" s="23">
+        <v>8</v>
+      </c>
+      <c r="I76" s="23">
+        <v>2912</v>
+      </c>
+      <c r="J76" s="24">
+        <v>1558.6</v>
+      </c>
+      <c r="K76" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L76" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="30" t="s">
+      <c r="A77" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B77" s="14" t="s">
@@ -13603,20 +13686,30 @@
       <c r="F77" s="14">
         <v>60</v>
       </c>
-      <c r="G77" s="28" t="s">
+      <c r="G77" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="28"/>
-      <c r="K77" s="28"/>
-      <c r="L77" s="28"/>
+      <c r="H77" s="27">
+        <v>8</v>
+      </c>
+      <c r="I77" s="27">
+        <v>2658</v>
+      </c>
+      <c r="J77" s="27">
+        <v>1465.3</v>
+      </c>
+      <c r="K77" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="L77" s="27" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="36" t="s">
+      <c r="A78" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B78" s="31" t="s">
+      <c r="B78" s="30" t="s">
         <v>183</v>
       </c>
       <c r="C78" s="3" t="s">
@@ -13628,17 +13721,27 @@
       <c r="E78" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F78" s="31">
+      <c r="F78" s="30">
         <v>60</v>
       </c>
-      <c r="G78" s="34" t="s">
+      <c r="G78" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="H78" s="34"/>
-      <c r="I78" s="34"/>
-      <c r="J78" s="34"/>
-      <c r="K78" s="34"/>
-      <c r="L78" s="34"/>
+      <c r="H78" s="32">
+        <v>6</v>
+      </c>
+      <c r="I78" s="32">
+        <v>2537</v>
+      </c>
+      <c r="J78" s="32">
+        <v>1305.26</v>
+      </c>
+      <c r="K78" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L78" s="32" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="21" t="s">
@@ -13662,11 +13765,21 @@
       <c r="G79" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="H79" s="23"/>
-      <c r="I79" s="23"/>
-      <c r="J79" s="23"/>
-      <c r="K79" s="23"/>
-      <c r="L79" s="23"/>
+      <c r="H79" s="24">
+        <v>6</v>
+      </c>
+      <c r="I79" s="24">
+        <v>2674</v>
+      </c>
+      <c r="J79" s="24">
+        <v>1343.06</v>
+      </c>
+      <c r="K79" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L79" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="21" t="s">
@@ -13690,14 +13803,24 @@
       <c r="G80" s="23" t="s">
         <v>281</v>
       </c>
-      <c r="H80" s="23"/>
-      <c r="I80" s="23"/>
-      <c r="J80" s="23"/>
-      <c r="K80" s="23"/>
-      <c r="L80" s="23"/>
+      <c r="H80" s="24">
+        <v>7</v>
+      </c>
+      <c r="I80" s="24">
+        <v>2631</v>
+      </c>
+      <c r="J80" s="24">
+        <v>1367.83</v>
+      </c>
+      <c r="K80" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L80" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="30" t="s">
+      <c r="A81" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B81" s="14" t="s">
@@ -13715,20 +13838,30 @@
       <c r="F81" s="14">
         <v>60</v>
       </c>
-      <c r="G81" s="28" t="s">
+      <c r="G81" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="H81" s="28"/>
-      <c r="I81" s="28"/>
-      <c r="J81" s="28"/>
-      <c r="K81" s="28"/>
-      <c r="L81" s="28"/>
+      <c r="H81" s="27">
+        <v>6</v>
+      </c>
+      <c r="I81" s="27">
+        <v>2726</v>
+      </c>
+      <c r="J81" s="27">
+        <v>1396.91</v>
+      </c>
+      <c r="K81" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="L81" s="27" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="36" t="s">
+      <c r="A82" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B82" s="31" t="s">
+      <c r="B82" s="30" t="s">
         <v>187</v>
       </c>
       <c r="C82" s="3" t="s">
@@ -13740,17 +13873,27 @@
       <c r="E82" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F82" s="31">
+      <c r="F82" s="30">
         <v>200</v>
       </c>
-      <c r="G82" s="34" t="s">
+      <c r="G82" s="32" t="s">
         <v>283</v>
       </c>
-      <c r="H82" s="34"/>
-      <c r="I82" s="34"/>
-      <c r="J82" s="34"/>
-      <c r="K82" s="34"/>
-      <c r="L82" s="34"/>
+      <c r="H82" s="32">
+        <v>5</v>
+      </c>
+      <c r="I82" s="32">
+        <v>2327</v>
+      </c>
+      <c r="J82" s="32">
+        <v>1104.1500000000001</v>
+      </c>
+      <c r="K82" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L82" s="32" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="21" t="s">
@@ -13774,11 +13917,21 @@
       <c r="G83" s="23" t="s">
         <v>284</v>
       </c>
-      <c r="H83" s="23"/>
-      <c r="I83" s="23"/>
-      <c r="J83" s="23"/>
-      <c r="K83" s="23"/>
-      <c r="L83" s="23"/>
+      <c r="H83" s="24">
+        <v>7</v>
+      </c>
+      <c r="I83" s="24">
+        <v>2605</v>
+      </c>
+      <c r="J83" s="24">
+        <v>1350.11</v>
+      </c>
+      <c r="K83" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L83" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="21" t="s">
@@ -13802,14 +13955,24 @@
       <c r="G84" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="H84" s="23"/>
-      <c r="I84" s="23"/>
-      <c r="J84" s="23"/>
-      <c r="K84" s="23"/>
-      <c r="L84" s="23"/>
+      <c r="H84" s="24">
+        <v>7</v>
+      </c>
+      <c r="I84" s="24">
+        <v>2534</v>
+      </c>
+      <c r="J84" s="24">
+        <v>1304.95</v>
+      </c>
+      <c r="K84" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L84" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="30" t="s">
+      <c r="A85" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B85" s="14" t="s">
@@ -13827,20 +13990,30 @@
       <c r="F85" s="14">
         <v>200</v>
       </c>
-      <c r="G85" s="28" t="s">
+      <c r="G85" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="H85" s="28"/>
-      <c r="I85" s="28"/>
-      <c r="J85" s="28"/>
-      <c r="K85" s="28"/>
-      <c r="L85" s="28"/>
+      <c r="H85" s="27">
+        <v>7</v>
+      </c>
+      <c r="I85" s="27">
+        <v>2736</v>
+      </c>
+      <c r="J85" s="27">
+        <v>1412.54</v>
+      </c>
+      <c r="K85" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="L85" s="27" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="36" t="s">
+      <c r="A86" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B86" s="31" t="s">
+      <c r="B86" s="30" t="s">
         <v>191</v>
       </c>
       <c r="C86" s="3" t="s">
@@ -13852,17 +14025,27 @@
       <c r="E86" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F86" s="31">
+      <c r="F86" s="30">
         <v>200</v>
       </c>
-      <c r="G86" s="34" t="s">
+      <c r="G86" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="H86" s="34"/>
-      <c r="I86" s="34"/>
-      <c r="J86" s="34"/>
-      <c r="K86" s="34"/>
-      <c r="L86" s="34"/>
+      <c r="H86" s="32">
+        <v>4</v>
+      </c>
+      <c r="I86" s="32">
+        <v>2135</v>
+      </c>
+      <c r="J86" s="32">
+        <v>985.32</v>
+      </c>
+      <c r="K86" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L86" s="32" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="21" t="s">
@@ -13886,11 +14069,21 @@
       <c r="G87" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="H87" s="23"/>
-      <c r="I87" s="23"/>
-      <c r="J87" s="23"/>
-      <c r="K87" s="23"/>
-      <c r="L87" s="23"/>
+      <c r="H87" s="24">
+        <v>5</v>
+      </c>
+      <c r="I87" s="24">
+        <v>2325</v>
+      </c>
+      <c r="J87" s="24">
+        <v>1127.8699999999999</v>
+      </c>
+      <c r="K87" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L87" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="21" t="s">
@@ -13914,14 +14107,24 @@
       <c r="G88" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="H88" s="23"/>
-      <c r="I88" s="23"/>
-      <c r="J88" s="23"/>
-      <c r="K88" s="23"/>
-      <c r="L88" s="23"/>
+      <c r="H88" s="24">
+        <v>6</v>
+      </c>
+      <c r="I88" s="24">
+        <v>2561</v>
+      </c>
+      <c r="J88" s="24">
+        <v>1283.95</v>
+      </c>
+      <c r="K88" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L88" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="30" t="s">
+      <c r="A89" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B89" s="14" t="s">
@@ -13939,20 +14142,30 @@
       <c r="F89" s="14">
         <v>200</v>
       </c>
-      <c r="G89" s="28" t="s">
+      <c r="G89" s="27" t="s">
         <v>290</v>
       </c>
-      <c r="H89" s="28"/>
-      <c r="I89" s="28"/>
-      <c r="J89" s="28"/>
-      <c r="K89" s="28"/>
-      <c r="L89" s="28"/>
+      <c r="H89" s="27">
+        <v>5</v>
+      </c>
+      <c r="I89" s="27">
+        <v>2360</v>
+      </c>
+      <c r="J89" s="27">
+        <v>1138.05</v>
+      </c>
+      <c r="K89" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="L89" s="27" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="36" t="s">
+      <c r="A90" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B90" s="31" t="s">
+      <c r="B90" s="30" t="s">
         <v>195</v>
       </c>
       <c r="C90" s="3" t="s">
@@ -13964,17 +14177,27 @@
       <c r="E90" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F90" s="35">
+      <c r="F90" s="33">
         <v>0</v>
       </c>
-      <c r="G90" s="34" t="s">
+      <c r="G90" s="32" t="s">
         <v>291</v>
       </c>
-      <c r="H90" s="34"/>
-      <c r="I90" s="34"/>
-      <c r="J90" s="34"/>
-      <c r="K90" s="34"/>
-      <c r="L90" s="34"/>
+      <c r="H90" s="32">
+        <v>5</v>
+      </c>
+      <c r="I90" s="32">
+        <v>2327</v>
+      </c>
+      <c r="J90" s="32">
+        <v>1104.1500000000001</v>
+      </c>
+      <c r="K90" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L90" s="32" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="21" t="s">
@@ -13998,11 +14221,21 @@
       <c r="G91" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="H91" s="23"/>
-      <c r="I91" s="23"/>
-      <c r="J91" s="23"/>
-      <c r="K91" s="23"/>
-      <c r="L91" s="23"/>
+      <c r="H91" s="24">
+        <v>7</v>
+      </c>
+      <c r="I91" s="24">
+        <v>2582</v>
+      </c>
+      <c r="J91" s="24">
+        <v>1341.12</v>
+      </c>
+      <c r="K91" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L91" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="21" t="s">
@@ -14026,14 +14259,24 @@
       <c r="G92" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="H92" s="23"/>
-      <c r="I92" s="23"/>
-      <c r="J92" s="23"/>
-      <c r="K92" s="23"/>
-      <c r="L92" s="23"/>
+      <c r="H92" s="24">
+        <v>7</v>
+      </c>
+      <c r="I92" s="24">
+        <v>2534</v>
+      </c>
+      <c r="J92" s="24">
+        <v>1304.95</v>
+      </c>
+      <c r="K92" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L92" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="30" t="s">
+      <c r="A93" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B93" s="14" t="s">
@@ -14051,20 +14294,30 @@
       <c r="F93" s="15">
         <v>0</v>
       </c>
-      <c r="G93" s="28" t="s">
+      <c r="G93" s="27" t="s">
         <v>294</v>
       </c>
-      <c r="H93" s="28"/>
-      <c r="I93" s="28"/>
-      <c r="J93" s="28"/>
-      <c r="K93" s="28"/>
-      <c r="L93" s="28"/>
+      <c r="H93" s="27">
+        <v>7</v>
+      </c>
+      <c r="I93" s="27">
+        <v>2736</v>
+      </c>
+      <c r="J93" s="27">
+        <v>1412.54</v>
+      </c>
+      <c r="K93" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="L93" s="27" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="36" t="s">
+      <c r="A94" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B94" s="31" t="s">
+      <c r="B94" s="30" t="s">
         <v>199</v>
       </c>
       <c r="C94" s="3" t="s">
@@ -14076,17 +14329,27 @@
       <c r="E94" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F94" s="35">
+      <c r="F94" s="33">
         <v>0</v>
       </c>
-      <c r="G94" s="34" t="s">
+      <c r="G94" s="32" t="s">
         <v>295</v>
       </c>
-      <c r="H94" s="34"/>
-      <c r="I94" s="34"/>
-      <c r="J94" s="34"/>
-      <c r="K94" s="34"/>
-      <c r="L94" s="34"/>
+      <c r="H94" s="32">
+        <v>4</v>
+      </c>
+      <c r="I94" s="32">
+        <v>2135</v>
+      </c>
+      <c r="J94" s="32">
+        <v>985.32</v>
+      </c>
+      <c r="K94" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L94" s="32" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="21" t="s">
@@ -14110,11 +14373,21 @@
       <c r="G95" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="H95" s="23"/>
-      <c r="I95" s="23"/>
-      <c r="J95" s="23"/>
-      <c r="K95" s="23"/>
-      <c r="L95" s="23"/>
+      <c r="H95" s="24">
+        <v>5</v>
+      </c>
+      <c r="I95" s="24">
+        <v>2325</v>
+      </c>
+      <c r="J95" s="24">
+        <v>1127.8699999999999</v>
+      </c>
+      <c r="K95" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L95" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="21" t="s">
@@ -14138,14 +14411,24 @@
       <c r="G96" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="H96" s="23"/>
-      <c r="I96" s="23"/>
-      <c r="J96" s="23"/>
-      <c r="K96" s="23"/>
-      <c r="L96" s="23"/>
+      <c r="H96" s="24">
+        <v>6</v>
+      </c>
+      <c r="I96" s="24">
+        <v>2561</v>
+      </c>
+      <c r="J96" s="24">
+        <v>1283.95</v>
+      </c>
+      <c r="K96" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L96" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="30" t="s">
+      <c r="A97" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B97" s="14" t="s">
@@ -14163,20 +14446,30 @@
       <c r="F97" s="15">
         <v>0</v>
       </c>
-      <c r="G97" s="28" t="s">
+      <c r="G97" s="27" t="s">
         <v>298</v>
       </c>
-      <c r="H97" s="28"/>
-      <c r="I97" s="28"/>
-      <c r="J97" s="28"/>
-      <c r="K97" s="28"/>
-      <c r="L97" s="28"/>
+      <c r="H97" s="27">
+        <v>5</v>
+      </c>
+      <c r="I97" s="27">
+        <v>2288</v>
+      </c>
+      <c r="J97" s="27">
+        <v>1089.8399999999999</v>
+      </c>
+      <c r="K97" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="L97" s="27" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="36" t="s">
+      <c r="A98" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B98" s="31" t="s">
+      <c r="B98" s="30" t="s">
         <v>171</v>
       </c>
       <c r="C98" s="3" t="s">
@@ -14188,17 +14481,17 @@
       <c r="E98" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F98" s="31">
+      <c r="F98" s="30">
         <v>40</v>
       </c>
-      <c r="G98" s="34" t="s">
+      <c r="G98" s="32" t="s">
         <v>330</v>
       </c>
-      <c r="H98" s="34"/>
-      <c r="I98" s="34"/>
-      <c r="J98" s="34"/>
-      <c r="K98" s="34"/>
-      <c r="L98" s="34"/>
+      <c r="H98" s="32"/>
+      <c r="I98" s="32"/>
+      <c r="J98" s="32"/>
+      <c r="K98" s="32"/>
+      <c r="L98" s="32"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="21" t="s">
@@ -14257,7 +14550,7 @@
       <c r="L100" s="23"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="30" t="s">
+      <c r="A101" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B101" s="14" t="s">
@@ -14275,20 +14568,20 @@
       <c r="F101" s="14">
         <v>40</v>
       </c>
-      <c r="G101" s="28" t="s">
+      <c r="G101" s="27" t="s">
         <v>301</v>
       </c>
-      <c r="H101" s="28"/>
-      <c r="I101" s="28"/>
-      <c r="J101" s="28"/>
-      <c r="K101" s="28"/>
-      <c r="L101" s="28"/>
+      <c r="H101" s="27"/>
+      <c r="I101" s="27"/>
+      <c r="J101" s="27"/>
+      <c r="K101" s="27"/>
+      <c r="L101" s="27"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="36" t="s">
+      <c r="A102" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B102" s="31" t="s">
+      <c r="B102" s="30" t="s">
         <v>175</v>
       </c>
       <c r="C102" s="3" t="s">
@@ -14300,17 +14593,17 @@
       <c r="E102" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F102" s="31">
+      <c r="F102" s="30">
         <v>40</v>
       </c>
-      <c r="G102" s="34" t="s">
+      <c r="G102" s="32" t="s">
         <v>302</v>
       </c>
-      <c r="H102" s="34"/>
-      <c r="I102" s="34"/>
-      <c r="J102" s="34"/>
-      <c r="K102" s="34"/>
-      <c r="L102" s="34"/>
+      <c r="H102" s="32"/>
+      <c r="I102" s="32"/>
+      <c r="J102" s="32"/>
+      <c r="K102" s="32"/>
+      <c r="L102" s="32"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="21" t="s">
@@ -14369,7 +14662,7 @@
       <c r="L104" s="23"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="30" t="s">
+      <c r="A105" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B105" s="14" t="s">
@@ -14387,20 +14680,20 @@
       <c r="F105" s="14">
         <v>40</v>
       </c>
-      <c r="G105" s="28" t="s">
+      <c r="G105" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="H105" s="28"/>
-      <c r="I105" s="28"/>
-      <c r="J105" s="28"/>
-      <c r="K105" s="28"/>
-      <c r="L105" s="28"/>
+      <c r="H105" s="27"/>
+      <c r="I105" s="27"/>
+      <c r="J105" s="27"/>
+      <c r="K105" s="27"/>
+      <c r="L105" s="27"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="36" t="s">
+      <c r="A106" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B106" s="31" t="s">
+      <c r="B106" s="30" t="s">
         <v>179</v>
       </c>
       <c r="C106" s="3" t="s">
@@ -14412,17 +14705,17 @@
       <c r="E106" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F106" s="31">
+      <c r="F106" s="30">
         <v>60</v>
       </c>
-      <c r="G106" s="34" t="s">
+      <c r="G106" s="32" t="s">
         <v>306</v>
       </c>
-      <c r="H106" s="34"/>
-      <c r="I106" s="34"/>
-      <c r="J106" s="34"/>
-      <c r="K106" s="34"/>
-      <c r="L106" s="34"/>
+      <c r="H106" s="32"/>
+      <c r="I106" s="32"/>
+      <c r="J106" s="32"/>
+      <c r="K106" s="32"/>
+      <c r="L106" s="32"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="21" t="s">
@@ -14481,7 +14774,7 @@
       <c r="L108" s="23"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="30" t="s">
+      <c r="A109" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B109" s="14" t="s">
@@ -14499,20 +14792,20 @@
       <c r="F109" s="14">
         <v>60</v>
       </c>
-      <c r="G109" s="28" t="s">
+      <c r="G109" s="27" t="s">
         <v>309</v>
       </c>
-      <c r="H109" s="28"/>
-      <c r="I109" s="28"/>
-      <c r="J109" s="28"/>
-      <c r="K109" s="28"/>
-      <c r="L109" s="28"/>
+      <c r="H109" s="27"/>
+      <c r="I109" s="27"/>
+      <c r="J109" s="27"/>
+      <c r="K109" s="27"/>
+      <c r="L109" s="27"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="36" t="s">
+      <c r="A110" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B110" s="31" t="s">
+      <c r="B110" s="30" t="s">
         <v>183</v>
       </c>
       <c r="C110" s="3" t="s">
@@ -14524,17 +14817,17 @@
       <c r="E110" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F110" s="31">
+      <c r="F110" s="30">
         <v>60</v>
       </c>
-      <c r="G110" s="34" t="s">
+      <c r="G110" s="32" t="s">
         <v>310</v>
       </c>
-      <c r="H110" s="34"/>
-      <c r="I110" s="34"/>
-      <c r="J110" s="34"/>
-      <c r="K110" s="34"/>
-      <c r="L110" s="34"/>
+      <c r="H110" s="32"/>
+      <c r="I110" s="32"/>
+      <c r="J110" s="32"/>
+      <c r="K110" s="32"/>
+      <c r="L110" s="32"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="21" t="s">
@@ -14593,7 +14886,7 @@
       <c r="L112" s="23"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="30" t="s">
+      <c r="A113" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B113" s="14" t="s">
@@ -14611,20 +14904,20 @@
       <c r="F113" s="14">
         <v>60</v>
       </c>
-      <c r="G113" s="28" t="s">
+      <c r="G113" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="H113" s="28"/>
-      <c r="I113" s="28"/>
-      <c r="J113" s="28"/>
-      <c r="K113" s="28"/>
-      <c r="L113" s="28"/>
+      <c r="H113" s="27"/>
+      <c r="I113" s="27"/>
+      <c r="J113" s="27"/>
+      <c r="K113" s="27"/>
+      <c r="L113" s="27"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="36" t="s">
+      <c r="A114" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B114" s="31" t="s">
+      <c r="B114" s="30" t="s">
         <v>187</v>
       </c>
       <c r="C114" s="3" t="s">
@@ -14636,17 +14929,17 @@
       <c r="E114" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F114" s="31">
+      <c r="F114" s="30">
         <v>200</v>
       </c>
-      <c r="G114" s="34" t="s">
+      <c r="G114" s="32" t="s">
         <v>314</v>
       </c>
-      <c r="H114" s="34"/>
-      <c r="I114" s="34"/>
-      <c r="J114" s="34"/>
-      <c r="K114" s="34"/>
-      <c r="L114" s="34"/>
+      <c r="H114" s="32"/>
+      <c r="I114" s="32"/>
+      <c r="J114" s="32"/>
+      <c r="K114" s="32"/>
+      <c r="L114" s="32"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="21" t="s">
@@ -14705,7 +14998,7 @@
       <c r="L116" s="23"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="30" t="s">
+      <c r="A117" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B117" s="14" t="s">
@@ -14723,20 +15016,20 @@
       <c r="F117" s="14">
         <v>200</v>
       </c>
-      <c r="G117" s="28" t="s">
+      <c r="G117" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="H117" s="28"/>
-      <c r="I117" s="28"/>
-      <c r="J117" s="28"/>
-      <c r="K117" s="28"/>
-      <c r="L117" s="28"/>
+      <c r="H117" s="27"/>
+      <c r="I117" s="27"/>
+      <c r="J117" s="27"/>
+      <c r="K117" s="27"/>
+      <c r="L117" s="27"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="36" t="s">
+      <c r="A118" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B118" s="31" t="s">
+      <c r="B118" s="30" t="s">
         <v>191</v>
       </c>
       <c r="C118" s="3" t="s">
@@ -14748,17 +15041,17 @@
       <c r="E118" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F118" s="31">
+      <c r="F118" s="30">
         <v>200</v>
       </c>
-      <c r="G118" s="34" t="s">
+      <c r="G118" s="32" t="s">
         <v>318</v>
       </c>
-      <c r="H118" s="34"/>
-      <c r="I118" s="34"/>
-      <c r="J118" s="34"/>
-      <c r="K118" s="34"/>
-      <c r="L118" s="34"/>
+      <c r="H118" s="32"/>
+      <c r="I118" s="32"/>
+      <c r="J118" s="32"/>
+      <c r="K118" s="32"/>
+      <c r="L118" s="32"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="21" t="s">
@@ -14817,7 +15110,7 @@
       <c r="L120" s="23"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="30" t="s">
+      <c r="A121" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B121" s="14" t="s">
@@ -14835,20 +15128,20 @@
       <c r="F121" s="14">
         <v>200</v>
       </c>
-      <c r="G121" s="28" t="s">
+      <c r="G121" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="H121" s="28"/>
-      <c r="I121" s="28"/>
-      <c r="J121" s="28"/>
-      <c r="K121" s="28"/>
-      <c r="L121" s="28"/>
+      <c r="H121" s="27"/>
+      <c r="I121" s="27"/>
+      <c r="J121" s="27"/>
+      <c r="K121" s="27"/>
+      <c r="L121" s="27"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="36" t="s">
+      <c r="A122" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B122" s="31" t="s">
+      <c r="B122" s="30" t="s">
         <v>195</v>
       </c>
       <c r="C122" s="3" t="s">
@@ -14860,17 +15153,17 @@
       <c r="E122" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F122" s="35">
+      <c r="F122" s="33">
         <v>0</v>
       </c>
-      <c r="G122" s="34" t="s">
+      <c r="G122" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="H122" s="34"/>
-      <c r="I122" s="34"/>
-      <c r="J122" s="34"/>
-      <c r="K122" s="34"/>
-      <c r="L122" s="34"/>
+      <c r="H122" s="32"/>
+      <c r="I122" s="32"/>
+      <c r="J122" s="32"/>
+      <c r="K122" s="32"/>
+      <c r="L122" s="32"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="21" t="s">
@@ -14929,7 +15222,7 @@
       <c r="L124" s="23"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="30" t="s">
+      <c r="A125" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B125" s="14" t="s">
@@ -14947,20 +15240,20 @@
       <c r="F125" s="15">
         <v>0</v>
       </c>
-      <c r="G125" s="28" t="s">
+      <c r="G125" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="H125" s="28"/>
-      <c r="I125" s="28"/>
-      <c r="J125" s="28"/>
-      <c r="K125" s="28"/>
-      <c r="L125" s="28"/>
+      <c r="H125" s="27"/>
+      <c r="I125" s="27"/>
+      <c r="J125" s="27"/>
+      <c r="K125" s="27"/>
+      <c r="L125" s="27"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="36" t="s">
+      <c r="A126" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B126" s="31" t="s">
+      <c r="B126" s="30" t="s">
         <v>199</v>
       </c>
       <c r="C126" s="3" t="s">
@@ -14972,17 +15265,17 @@
       <c r="E126" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F126" s="35">
+      <c r="F126" s="33">
         <v>0</v>
       </c>
-      <c r="G126" s="34" t="s">
+      <c r="G126" s="32" t="s">
         <v>326</v>
       </c>
-      <c r="H126" s="34"/>
-      <c r="I126" s="34"/>
-      <c r="J126" s="34"/>
-      <c r="K126" s="34"/>
-      <c r="L126" s="34"/>
+      <c r="H126" s="32"/>
+      <c r="I126" s="32"/>
+      <c r="J126" s="32"/>
+      <c r="K126" s="32"/>
+      <c r="L126" s="32"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="21" t="s">
@@ -15041,7 +15334,7 @@
       <c r="L128" s="23"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="30" t="s">
+      <c r="A129" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B129" s="14" t="s">
@@ -15059,20 +15352,20 @@
       <c r="F129" s="15">
         <v>0</v>
       </c>
-      <c r="G129" s="28" t="s">
+      <c r="G129" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="H129" s="28"/>
-      <c r="I129" s="28"/>
-      <c r="J129" s="28"/>
-      <c r="K129" s="28"/>
-      <c r="L129" s="28"/>
+      <c r="H129" s="27"/>
+      <c r="I129" s="27"/>
+      <c r="J129" s="27"/>
+      <c r="K129" s="27"/>
+      <c r="L129" s="27"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="36" t="s">
+      <c r="A130" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B130" s="31" t="s">
+      <c r="B130" s="30" t="s">
         <v>171</v>
       </c>
       <c r="C130" s="3" t="s">
@@ -15084,17 +15377,17 @@
       <c r="E130" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F130" s="31">
+      <c r="F130" s="30">
         <v>40</v>
       </c>
-      <c r="G130" s="34" t="s">
+      <c r="G130" s="32" t="s">
         <v>361</v>
       </c>
-      <c r="H130" s="34"/>
-      <c r="I130" s="34"/>
-      <c r="J130" s="34"/>
-      <c r="K130" s="34"/>
-      <c r="L130" s="34"/>
+      <c r="H130" s="32"/>
+      <c r="I130" s="32"/>
+      <c r="J130" s="32"/>
+      <c r="K130" s="32"/>
+      <c r="L130" s="32"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="21" t="s">
@@ -15153,7 +15446,7 @@
       <c r="L132" s="23"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="30" t="s">
+      <c r="A133" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B133" s="14" t="s">
@@ -15171,20 +15464,20 @@
       <c r="F133" s="14">
         <v>40</v>
       </c>
-      <c r="G133" s="28" t="s">
+      <c r="G133" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="H133" s="28"/>
-      <c r="I133" s="28"/>
-      <c r="J133" s="28"/>
-      <c r="K133" s="28"/>
-      <c r="L133" s="28"/>
+      <c r="H133" s="27"/>
+      <c r="I133" s="27"/>
+      <c r="J133" s="27"/>
+      <c r="K133" s="27"/>
+      <c r="L133" s="27"/>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="36" t="s">
+      <c r="A134" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B134" s="31" t="s">
+      <c r="B134" s="30" t="s">
         <v>175</v>
       </c>
       <c r="C134" s="3" t="s">
@@ -15196,17 +15489,17 @@
       <c r="E134" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F134" s="31">
+      <c r="F134" s="30">
         <v>40</v>
       </c>
-      <c r="G134" s="34" t="s">
+      <c r="G134" s="32" t="s">
         <v>333</v>
       </c>
-      <c r="H134" s="34"/>
-      <c r="I134" s="34"/>
-      <c r="J134" s="34"/>
-      <c r="K134" s="34"/>
-      <c r="L134" s="34"/>
+      <c r="H134" s="32"/>
+      <c r="I134" s="32"/>
+      <c r="J134" s="32"/>
+      <c r="K134" s="32"/>
+      <c r="L134" s="32"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="21" t="s">
@@ -15265,7 +15558,7 @@
       <c r="L136" s="23"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="30" t="s">
+      <c r="A137" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B137" s="14" t="s">
@@ -15283,20 +15576,20 @@
       <c r="F137" s="14">
         <v>40</v>
       </c>
-      <c r="G137" s="28" t="s">
+      <c r="G137" s="27" t="s">
         <v>336</v>
       </c>
-      <c r="H137" s="28"/>
-      <c r="I137" s="28"/>
-      <c r="J137" s="28"/>
-      <c r="K137" s="28"/>
-      <c r="L137" s="28"/>
+      <c r="H137" s="27"/>
+      <c r="I137" s="27"/>
+      <c r="J137" s="27"/>
+      <c r="K137" s="27"/>
+      <c r="L137" s="27"/>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A138" s="36" t="s">
+      <c r="A138" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B138" s="31" t="s">
+      <c r="B138" s="30" t="s">
         <v>179</v>
       </c>
       <c r="C138" s="3" t="s">
@@ -15308,17 +15601,17 @@
       <c r="E138" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F138" s="31">
+      <c r="F138" s="30">
         <v>60</v>
       </c>
-      <c r="G138" s="34" t="s">
+      <c r="G138" s="32" t="s">
         <v>337</v>
       </c>
-      <c r="H138" s="34"/>
-      <c r="I138" s="34"/>
-      <c r="J138" s="34"/>
-      <c r="K138" s="34"/>
-      <c r="L138" s="34"/>
+      <c r="H138" s="32"/>
+      <c r="I138" s="32"/>
+      <c r="J138" s="32"/>
+      <c r="K138" s="32"/>
+      <c r="L138" s="32"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="21" t="s">
@@ -15377,7 +15670,7 @@
       <c r="L140" s="23"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A141" s="30" t="s">
+      <c r="A141" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B141" s="14" t="s">
@@ -15395,20 +15688,20 @@
       <c r="F141" s="14">
         <v>60</v>
       </c>
-      <c r="G141" s="28" t="s">
+      <c r="G141" s="27" t="s">
         <v>340</v>
       </c>
-      <c r="H141" s="28"/>
-      <c r="I141" s="28"/>
-      <c r="J141" s="28"/>
-      <c r="K141" s="28"/>
-      <c r="L141" s="28"/>
+      <c r="H141" s="27"/>
+      <c r="I141" s="27"/>
+      <c r="J141" s="27"/>
+      <c r="K141" s="27"/>
+      <c r="L141" s="27"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A142" s="36" t="s">
+      <c r="A142" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B142" s="31" t="s">
+      <c r="B142" s="30" t="s">
         <v>183</v>
       </c>
       <c r="C142" s="3" t="s">
@@ -15420,17 +15713,17 @@
       <c r="E142" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F142" s="31">
+      <c r="F142" s="30">
         <v>60</v>
       </c>
-      <c r="G142" s="34" t="s">
+      <c r="G142" s="32" t="s">
         <v>341</v>
       </c>
-      <c r="H142" s="34"/>
-      <c r="I142" s="34"/>
-      <c r="J142" s="34"/>
-      <c r="K142" s="34"/>
-      <c r="L142" s="34"/>
+      <c r="H142" s="32"/>
+      <c r="I142" s="32"/>
+      <c r="J142" s="32"/>
+      <c r="K142" s="32"/>
+      <c r="L142" s="32"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="21" t="s">
@@ -15489,7 +15782,7 @@
       <c r="L144" s="23"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A145" s="30" t="s">
+      <c r="A145" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B145" s="14" t="s">
@@ -15507,20 +15800,20 @@
       <c r="F145" s="14">
         <v>60</v>
       </c>
-      <c r="G145" s="28" t="s">
+      <c r="G145" s="27" t="s">
         <v>344</v>
       </c>
-      <c r="H145" s="28"/>
-      <c r="I145" s="28"/>
-      <c r="J145" s="28"/>
-      <c r="K145" s="28"/>
-      <c r="L145" s="28"/>
+      <c r="H145" s="27"/>
+      <c r="I145" s="27"/>
+      <c r="J145" s="27"/>
+      <c r="K145" s="27"/>
+      <c r="L145" s="27"/>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A146" s="36" t="s">
+      <c r="A146" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B146" s="31" t="s">
+      <c r="B146" s="30" t="s">
         <v>187</v>
       </c>
       <c r="C146" s="3" t="s">
@@ -15532,17 +15825,17 @@
       <c r="E146" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F146" s="31">
+      <c r="F146" s="30">
         <v>200</v>
       </c>
-      <c r="G146" s="34" t="s">
+      <c r="G146" s="32" t="s">
         <v>345</v>
       </c>
-      <c r="H146" s="34"/>
-      <c r="I146" s="34"/>
-      <c r="J146" s="34"/>
-      <c r="K146" s="34"/>
-      <c r="L146" s="34"/>
+      <c r="H146" s="32"/>
+      <c r="I146" s="32"/>
+      <c r="J146" s="32"/>
+      <c r="K146" s="32"/>
+      <c r="L146" s="32"/>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="21" t="s">
@@ -15601,7 +15894,7 @@
       <c r="L148" s="23"/>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A149" s="30" t="s">
+      <c r="A149" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B149" s="14" t="s">
@@ -15619,20 +15912,20 @@
       <c r="F149" s="14">
         <v>200</v>
       </c>
-      <c r="G149" s="28" t="s">
+      <c r="G149" s="27" t="s">
         <v>348</v>
       </c>
-      <c r="H149" s="28"/>
-      <c r="I149" s="28"/>
-      <c r="J149" s="28"/>
-      <c r="K149" s="28"/>
-      <c r="L149" s="28"/>
+      <c r="H149" s="27"/>
+      <c r="I149" s="27"/>
+      <c r="J149" s="27"/>
+      <c r="K149" s="27"/>
+      <c r="L149" s="27"/>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A150" s="36" t="s">
+      <c r="A150" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B150" s="31" t="s">
+      <c r="B150" s="30" t="s">
         <v>191</v>
       </c>
       <c r="C150" s="3" t="s">
@@ -15644,17 +15937,17 @@
       <c r="E150" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F150" s="31">
+      <c r="F150" s="30">
         <v>200</v>
       </c>
-      <c r="G150" s="34" t="s">
+      <c r="G150" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="H150" s="34"/>
-      <c r="I150" s="34"/>
-      <c r="J150" s="34"/>
-      <c r="K150" s="34"/>
-      <c r="L150" s="34"/>
+      <c r="H150" s="32"/>
+      <c r="I150" s="32"/>
+      <c r="J150" s="32"/>
+      <c r="K150" s="32"/>
+      <c r="L150" s="32"/>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="21" t="s">
@@ -15713,7 +16006,7 @@
       <c r="L152" s="23"/>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A153" s="30" t="s">
+      <c r="A153" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B153" s="14" t="s">
@@ -15731,20 +16024,20 @@
       <c r="F153" s="14">
         <v>200</v>
       </c>
-      <c r="G153" s="28" t="s">
+      <c r="G153" s="27" t="s">
         <v>352</v>
       </c>
-      <c r="H153" s="28"/>
-      <c r="I153" s="28"/>
-      <c r="J153" s="28"/>
-      <c r="K153" s="28"/>
-      <c r="L153" s="28"/>
+      <c r="H153" s="27"/>
+      <c r="I153" s="27"/>
+      <c r="J153" s="27"/>
+      <c r="K153" s="27"/>
+      <c r="L153" s="27"/>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A154" s="36" t="s">
+      <c r="A154" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B154" s="31" t="s">
+      <c r="B154" s="30" t="s">
         <v>195</v>
       </c>
       <c r="C154" s="3" t="s">
@@ -15756,17 +16049,17 @@
       <c r="E154" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F154" s="35">
+      <c r="F154" s="33">
         <v>0</v>
       </c>
-      <c r="G154" s="34" t="s">
+      <c r="G154" s="32" t="s">
         <v>353</v>
       </c>
-      <c r="H154" s="34"/>
-      <c r="I154" s="34"/>
-      <c r="J154" s="34"/>
-      <c r="K154" s="34"/>
-      <c r="L154" s="34"/>
+      <c r="H154" s="32"/>
+      <c r="I154" s="32"/>
+      <c r="J154" s="32"/>
+      <c r="K154" s="32"/>
+      <c r="L154" s="32"/>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="21" t="s">
@@ -15825,7 +16118,7 @@
       <c r="L156" s="23"/>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A157" s="30" t="s">
+      <c r="A157" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B157" s="14" t="s">
@@ -15843,20 +16136,20 @@
       <c r="F157" s="15">
         <v>0</v>
       </c>
-      <c r="G157" s="28" t="s">
+      <c r="G157" s="27" t="s">
         <v>356</v>
       </c>
-      <c r="H157" s="28"/>
-      <c r="I157" s="28"/>
-      <c r="J157" s="28"/>
-      <c r="K157" s="28"/>
-      <c r="L157" s="28"/>
+      <c r="H157" s="27"/>
+      <c r="I157" s="27"/>
+      <c r="J157" s="27"/>
+      <c r="K157" s="27"/>
+      <c r="L157" s="27"/>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A158" s="36" t="s">
+      <c r="A158" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B158" s="31" t="s">
+      <c r="B158" s="30" t="s">
         <v>199</v>
       </c>
       <c r="C158" s="3" t="s">
@@ -15868,17 +16161,17 @@
       <c r="E158" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F158" s="35">
+      <c r="F158" s="33">
         <v>0</v>
       </c>
-      <c r="G158" s="34" t="s">
+      <c r="G158" s="32" t="s">
         <v>357</v>
       </c>
-      <c r="H158" s="34"/>
-      <c r="I158" s="34"/>
-      <c r="J158" s="34"/>
-      <c r="K158" s="34"/>
-      <c r="L158" s="34"/>
+      <c r="H158" s="32"/>
+      <c r="I158" s="32"/>
+      <c r="J158" s="32"/>
+      <c r="K158" s="32"/>
+      <c r="L158" s="32"/>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="21" t="s">
@@ -15937,7 +16230,7 @@
       <c r="L160" s="23"/>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A161" s="30" t="s">
+      <c r="A161" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B161" s="14" t="s">
@@ -15955,14 +16248,14 @@
       <c r="F161" s="15">
         <v>0</v>
       </c>
-      <c r="G161" s="28" t="s">
+      <c r="G161" s="27" t="s">
         <v>360</v>
       </c>
-      <c r="H161" s="28"/>
-      <c r="I161" s="28"/>
-      <c r="J161" s="28"/>
-      <c r="K161" s="28"/>
-      <c r="L161" s="28"/>
+      <c r="H161" s="27"/>
+      <c r="I161" s="27"/>
+      <c r="J161" s="27"/>
+      <c r="K161" s="27"/>
+      <c r="L161" s="27"/>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="21" t="s">

--- a/vrp_results_tracker.xlsx
+++ b/vrp_results_tracker.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzzlib\PycharmProjects\wilib_vrp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdrex\PycharmProjects\wilib_vrp\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A091B007-5D4D-48C9-85A5-7CEE10C4B652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="870" activeTab="5"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="870" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="full_model_set" sheetId="8" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <sheet name="test_model_set" sheetId="4" r:id="rId5"/>
     <sheet name="model_rerun_results_tracker" sheetId="14" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2113,7 +2114,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2285,10 +2286,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2755,21 +2756,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="1" customWidth="1"/>
-    <col min="2" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="19" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.54296875" style="1" customWidth="1"/>
+    <col min="2" max="4" width="15.54296875" customWidth="1"/>
+    <col min="5" max="19" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>109</v>
       </c>
@@ -2828,7 +2829,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>110</v>
       </c>
@@ -2847,7 +2848,7 @@
       <c r="K2" s="7"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>111</v>
       </c>
@@ -2866,7 +2867,7 @@
       <c r="K3" s="7"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>112</v>
       </c>
@@ -2885,7 +2886,7 @@
       <c r="K4" s="7"/>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>113</v>
       </c>
@@ -2904,7 +2905,7 @@
       <c r="K5" s="7"/>
       <c r="S5" s="7"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>114</v>
       </c>
@@ -2923,7 +2924,7 @@
       <c r="K6" s="7"/>
       <c r="S6" s="7"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>115</v>
       </c>
@@ -2942,7 +2943,7 @@
       <c r="K7" s="7"/>
       <c r="S7" s="7"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>116</v>
       </c>
@@ -2961,7 +2962,7 @@
       <c r="K8" s="7"/>
       <c r="S8" s="7"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>117</v>
       </c>
@@ -2980,7 +2981,7 @@
       <c r="K9" s="7"/>
       <c r="S9" s="7"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>118</v>
       </c>
@@ -2999,7 +3000,7 @@
       <c r="K10" s="7"/>
       <c r="S10" s="7"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>119</v>
       </c>
@@ -3018,7 +3019,7 @@
       <c r="K11" s="7"/>
       <c r="S11" s="7"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>120</v>
       </c>
@@ -3037,7 +3038,7 @@
       <c r="K12" s="7"/>
       <c r="S12" s="7"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>121</v>
       </c>
@@ -3056,7 +3057,7 @@
       <c r="K13" s="7"/>
       <c r="S13" s="7"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>122</v>
       </c>
@@ -3075,7 +3076,7 @@
       <c r="K14" s="7"/>
       <c r="S14" s="7"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>123</v>
       </c>
@@ -3094,7 +3095,7 @@
       <c r="K15" s="7"/>
       <c r="S15" s="7"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>124</v>
       </c>
@@ -3113,7 +3114,7 @@
       <c r="K16" s="7"/>
       <c r="S16" s="7"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>125</v>
       </c>
@@ -3132,7 +3133,7 @@
       <c r="K17" s="7"/>
       <c r="S17" s="7"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>126</v>
       </c>
@@ -3151,7 +3152,7 @@
       <c r="K18" s="7"/>
       <c r="S18" s="7"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>127</v>
       </c>
@@ -3170,7 +3171,7 @@
       <c r="K19" s="7"/>
       <c r="S19" s="7"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>128</v>
       </c>
@@ -3189,7 +3190,7 @@
       <c r="K20" s="7"/>
       <c r="S20" s="7"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>129</v>
       </c>
@@ -3208,7 +3209,7 @@
       <c r="K21" s="7"/>
       <c r="S21" s="7"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>130</v>
       </c>
@@ -3227,7 +3228,7 @@
       <c r="K22" s="7"/>
       <c r="S22" s="7"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>131</v>
       </c>
@@ -3246,7 +3247,7 @@
       <c r="K23" s="7"/>
       <c r="S23" s="7"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>132</v>
       </c>
@@ -3265,7 +3266,7 @@
       <c r="K24" s="7"/>
       <c r="S24" s="7"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>133</v>
       </c>
@@ -3284,7 +3285,7 @@
       <c r="K25" s="7"/>
       <c r="S25" s="7"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>134</v>
       </c>
@@ -3303,7 +3304,7 @@
       <c r="K26" s="7"/>
       <c r="S26" s="7"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>135</v>
       </c>
@@ -3322,7 +3323,7 @@
       <c r="K27" s="7"/>
       <c r="S27" s="7"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>136</v>
       </c>
@@ -3341,7 +3342,7 @@
       <c r="K28" s="7"/>
       <c r="S28" s="7"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>137</v>
       </c>
@@ -3360,7 +3361,7 @@
       <c r="K29" s="7"/>
       <c r="S29" s="7"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>138</v>
       </c>
@@ -3379,7 +3380,7 @@
       <c r="K30" s="7"/>
       <c r="S30" s="7"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>139</v>
       </c>
@@ -3398,7 +3399,7 @@
       <c r="K31" s="7"/>
       <c r="S31" s="7"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>140</v>
       </c>
@@ -3417,7 +3418,7 @@
       <c r="K32" s="7"/>
       <c r="S32" s="7"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>142</v>
       </c>
@@ -3436,7 +3437,7 @@
       <c r="K33" s="7"/>
       <c r="S33" s="7"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>143</v>
       </c>
@@ -3455,7 +3456,7 @@
       <c r="K34" s="7"/>
       <c r="S34" s="7"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>144</v>
       </c>
@@ -3474,7 +3475,7 @@
       <c r="K35" s="7"/>
       <c r="S35" s="7"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>145</v>
       </c>
@@ -3493,7 +3494,7 @@
       <c r="K36" s="7"/>
       <c r="S36" s="7"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>146</v>
       </c>
@@ -3512,7 +3513,7 @@
       <c r="K37" s="7"/>
       <c r="S37" s="7"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>147</v>
       </c>
@@ -3531,7 +3532,7 @@
       <c r="K38" s="7"/>
       <c r="S38" s="7"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>148</v>
       </c>
@@ -3550,7 +3551,7 @@
       <c r="K39" s="7"/>
       <c r="S39" s="7"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>149</v>
       </c>
@@ -3569,7 +3570,7 @@
       <c r="K40" s="7"/>
       <c r="S40" s="7"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>150</v>
       </c>
@@ -3588,7 +3589,7 @@
       <c r="K41" s="7"/>
       <c r="S41" s="7"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>151</v>
       </c>
@@ -3607,7 +3608,7 @@
       <c r="K42" s="7"/>
       <c r="S42" s="7"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>152</v>
       </c>
@@ -3626,7 +3627,7 @@
       <c r="K43" s="7"/>
       <c r="S43" s="7"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>153</v>
       </c>
@@ -3645,7 +3646,7 @@
       <c r="K44" s="7"/>
       <c r="S44" s="7"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>154</v>
       </c>
@@ -3664,7 +3665,7 @@
       <c r="K45" s="7"/>
       <c r="S45" s="7"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>155</v>
       </c>
@@ -3683,7 +3684,7 @@
       <c r="K46" s="7"/>
       <c r="S46" s="7"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>156</v>
       </c>
@@ -3702,7 +3703,7 @@
       <c r="K47" s="7"/>
       <c r="S47" s="7"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>157</v>
       </c>
@@ -3721,7 +3722,7 @@
       <c r="K48" s="7"/>
       <c r="S48" s="7"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>158</v>
       </c>
@@ -3740,7 +3741,7 @@
       <c r="K49" s="7"/>
       <c r="S49" s="7"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>159</v>
       </c>
@@ -3759,7 +3760,7 @@
       <c r="K50" s="7"/>
       <c r="S50" s="7"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>160</v>
       </c>
@@ -3790,7 +3791,7 @@
       <c r="R51" s="9"/>
       <c r="S51" s="18"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>100101</v>
       </c>
@@ -3819,7 +3820,7 @@
       <c r="R52" s="3"/>
       <c r="S52" s="4"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <v>100102</v>
       </c>
@@ -3836,7 +3837,7 @@
       <c r="K53" s="7"/>
       <c r="S53" s="7"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>100103</v>
       </c>
@@ -3853,7 +3854,7 @@
       <c r="K54" s="7"/>
       <c r="S54" s="7"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>100104</v>
       </c>
@@ -3870,7 +3871,7 @@
       <c r="K55" s="7"/>
       <c r="S55" s="7"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <v>100105</v>
       </c>
@@ -3887,7 +3888,7 @@
       <c r="K56" s="7"/>
       <c r="S56" s="7"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>100201</v>
       </c>
@@ -3904,7 +3905,7 @@
       <c r="K57" s="7"/>
       <c r="S57" s="7"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <v>100202</v>
       </c>
@@ -3921,7 +3922,7 @@
       <c r="K58" s="7"/>
       <c r="S58" s="7"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
         <v>100203</v>
       </c>
@@ -3938,7 +3939,7 @@
       <c r="K59" s="7"/>
       <c r="S59" s="7"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
         <v>100204</v>
       </c>
@@ -3955,7 +3956,7 @@
       <c r="K60" s="7"/>
       <c r="S60" s="7"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
         <v>100205</v>
       </c>
@@ -3972,7 +3973,7 @@
       <c r="K61" s="7"/>
       <c r="S61" s="7"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
         <v>100301</v>
       </c>
@@ -3989,7 +3990,7 @@
       <c r="K62" s="7"/>
       <c r="S62" s="7"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
         <v>100302</v>
       </c>
@@ -4006,7 +4007,7 @@
       <c r="K63" s="7"/>
       <c r="S63" s="7"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
         <v>100303</v>
       </c>
@@ -4023,7 +4024,7 @@
       <c r="K64" s="7"/>
       <c r="S64" s="7"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <v>100304</v>
       </c>
@@ -4040,7 +4041,7 @@
       <c r="K65" s="7"/>
       <c r="S65" s="7"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
         <v>100305</v>
       </c>
@@ -4057,7 +4058,7 @@
       <c r="K66" s="7"/>
       <c r="S66" s="7"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
         <v>100401</v>
       </c>
@@ -4074,7 +4075,7 @@
       <c r="K67" s="7"/>
       <c r="S67" s="7"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
         <v>100402</v>
       </c>
@@ -4091,7 +4092,7 @@
       <c r="K68" s="7"/>
       <c r="S68" s="7"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
         <v>100403</v>
       </c>
@@ -4108,7 +4109,7 @@
       <c r="K69" s="7"/>
       <c r="S69" s="7"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
         <v>100404</v>
       </c>
@@ -4125,7 +4126,7 @@
       <c r="K70" s="7"/>
       <c r="S70" s="7"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>100405</v>
       </c>
@@ -4142,7 +4143,7 @@
       <c r="K71" s="7"/>
       <c r="S71" s="7"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
         <v>100501</v>
       </c>
@@ -4159,7 +4160,7 @@
       <c r="K72" s="7"/>
       <c r="S72" s="7"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
         <v>100502</v>
       </c>
@@ -4176,7 +4177,7 @@
       <c r="K73" s="7"/>
       <c r="S73" s="7"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A74" s="5">
         <v>100503</v>
       </c>
@@ -4193,7 +4194,7 @@
       <c r="K74" s="7"/>
       <c r="S74" s="7"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A75" s="5">
         <v>100504</v>
       </c>
@@ -4210,7 +4211,7 @@
       <c r="K75" s="7"/>
       <c r="S75" s="7"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
         <v>100505</v>
       </c>
@@ -4227,7 +4228,7 @@
       <c r="K76" s="7"/>
       <c r="S76" s="7"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A77" s="5">
         <v>100601</v>
       </c>
@@ -4244,7 +4245,7 @@
       <c r="K77" s="7"/>
       <c r="S77" s="7"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A78" s="5">
         <v>100602</v>
       </c>
@@ -4261,7 +4262,7 @@
       <c r="K78" s="7"/>
       <c r="S78" s="7"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A79" s="5">
         <v>100603</v>
       </c>
@@ -4278,7 +4279,7 @@
       <c r="K79" s="7"/>
       <c r="S79" s="7"/>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A80" s="5">
         <v>100604</v>
       </c>
@@ -4295,7 +4296,7 @@
       <c r="K80" s="7"/>
       <c r="S80" s="7"/>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
         <v>100605</v>
       </c>
@@ -4312,7 +4313,7 @@
       <c r="K81" s="7"/>
       <c r="S81" s="7"/>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A82" s="5">
         <v>100701</v>
       </c>
@@ -4329,7 +4330,7 @@
       <c r="K82" s="7"/>
       <c r="S82" s="7"/>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A83" s="5">
         <v>100702</v>
       </c>
@@ -4346,7 +4347,7 @@
       <c r="K83" s="7"/>
       <c r="S83" s="7"/>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A84" s="5">
         <v>100703</v>
       </c>
@@ -4363,7 +4364,7 @@
       <c r="K84" s="7"/>
       <c r="S84" s="7"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A85" s="5">
         <v>100704</v>
       </c>
@@ -4380,7 +4381,7 @@
       <c r="K85" s="7"/>
       <c r="S85" s="7"/>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A86" s="5">
         <v>100705</v>
       </c>
@@ -4397,7 +4398,7 @@
       <c r="K86" s="7"/>
       <c r="S86" s="7"/>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>161</v>
       </c>
@@ -4414,7 +4415,7 @@
       <c r="K87" s="7"/>
       <c r="S87" s="7"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>162</v>
       </c>
@@ -4431,7 +4432,7 @@
       <c r="K88" s="7"/>
       <c r="S88" s="7"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>163</v>
       </c>
@@ -4448,7 +4449,7 @@
       <c r="K89" s="7"/>
       <c r="S89" s="7"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
         <v>164</v>
       </c>
@@ -4465,7 +4466,7 @@
       <c r="K90" s="7"/>
       <c r="S90" s="7"/>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
         <v>165</v>
       </c>
@@ -4482,7 +4483,7 @@
       <c r="K91" s="7"/>
       <c r="S91" s="7"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A92" s="5">
         <v>100901</v>
       </c>
@@ -4499,7 +4500,7 @@
       <c r="K92" s="7"/>
       <c r="S92" s="7"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A93" s="5">
         <v>100902</v>
       </c>
@@ -4516,7 +4517,7 @@
       <c r="K93" s="7"/>
       <c r="S93" s="7"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A94" s="5">
         <v>100903</v>
       </c>
@@ -4533,7 +4534,7 @@
       <c r="K94" s="7"/>
       <c r="S94" s="7"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A95" s="5">
         <v>100904</v>
       </c>
@@ -4550,7 +4551,7 @@
       <c r="K95" s="7"/>
       <c r="S95" s="7"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A96" s="5">
         <v>100905</v>
       </c>
@@ -4567,7 +4568,7 @@
       <c r="K96" s="7"/>
       <c r="S96" s="7"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
         <v>166</v>
       </c>
@@ -4584,7 +4585,7 @@
       <c r="K97" s="7"/>
       <c r="S97" s="7"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
         <v>167</v>
       </c>
@@ -4601,7 +4602,7 @@
       <c r="K98" s="7"/>
       <c r="S98" s="7"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
         <v>168</v>
       </c>
@@ -4618,7 +4619,7 @@
       <c r="K99" s="7"/>
       <c r="S99" s="7"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
         <v>169</v>
       </c>
@@ -4635,7 +4636,7 @@
       <c r="K100" s="7"/>
       <c r="S100" s="7"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A101" s="8" t="s">
         <v>170</v>
       </c>
@@ -4671,24 +4672,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="1" customWidth="1"/>
-    <col min="2" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="20" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.54296875" style="1" customWidth="1"/>
+    <col min="2" max="5" width="15.54296875" customWidth="1"/>
+    <col min="6" max="20" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>109</v>
       </c>
@@ -4753,7 +4754,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>119</v>
       </c>
@@ -4818,7 +4819,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>129</v>
       </c>
@@ -4883,7 +4884,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>134</v>
       </c>
@@ -4948,7 +4949,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>160</v>
       </c>
@@ -5013,7 +5014,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>100205</v>
       </c>
@@ -5078,7 +5079,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>100405</v>
       </c>
@@ -5143,7 +5144,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>100505</v>
       </c>
@@ -5208,7 +5209,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>170</v>
       </c>
@@ -5273,7 +5274,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>119</v>
       </c>
@@ -5338,7 +5339,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>129</v>
       </c>
@@ -5403,7 +5404,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>134</v>
       </c>
@@ -5468,7 +5469,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>160</v>
       </c>
@@ -5533,7 +5534,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>100205</v>
       </c>
@@ -5598,7 +5599,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>100405</v>
       </c>
@@ -5663,7 +5664,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>100505</v>
       </c>
@@ -5728,7 +5729,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>170</v>
       </c>
@@ -5793,7 +5794,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>119</v>
       </c>
@@ -5858,7 +5859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>129</v>
       </c>
@@ -5923,7 +5924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>134</v>
       </c>
@@ -5988,7 +5989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>160</v>
       </c>
@@ -6053,7 +6054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>100205</v>
       </c>
@@ -6118,7 +6119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>100405</v>
       </c>
@@ -6183,7 +6184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>100505</v>
       </c>
@@ -6248,7 +6249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>170</v>
       </c>
@@ -6320,24 +6321,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="1" customWidth="1"/>
-    <col min="2" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="19" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.54296875" style="1" customWidth="1"/>
+    <col min="2" max="4" width="15.54296875" customWidth="1"/>
+    <col min="5" max="19" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>109</v>
       </c>
@@ -6396,7 +6397,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>119</v>
       </c>
@@ -6455,7 +6456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>129</v>
       </c>
@@ -6514,7 +6515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>134</v>
       </c>
@@ -6573,7 +6574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>160</v>
       </c>
@@ -6632,7 +6633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>100205</v>
       </c>
@@ -6691,7 +6692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>100405</v>
       </c>
@@ -6750,7 +6751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>100505</v>
       </c>
@@ -6809,7 +6810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>170</v>
       </c>
@@ -6875,62 +6876,62 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G46" sqref="G46:G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="I1" s="36" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="I1" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B2" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36" t="s">
+      <c r="E2" s="35"/>
+      <c r="F2" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="J2" s="36" t="s">
+      <c r="G2" s="35"/>
+      <c r="J2" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36" t="s">
+      <c r="K2" s="35"/>
+      <c r="L2" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36" t="s">
+      <c r="M2" s="35"/>
+      <c r="N2" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="O2" s="36"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O2" s="35"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>94</v>
       </c>
@@ -6968,7 +6969,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -7015,7 +7016,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -7063,7 +7064,7 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -7111,7 +7112,7 @@
         <v>2558</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>33</v>
       </c>
@@ -7159,53 +7160,53 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="I8" s="36" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="I8" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="36" t="s">
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B9" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36" t="s">
+      <c r="C9" s="35"/>
+      <c r="D9" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36" t="s">
+      <c r="E9" s="35"/>
+      <c r="F9" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="36"/>
-      <c r="J9" s="36" t="s">
+      <c r="G9" s="35"/>
+      <c r="J9" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36" t="s">
+      <c r="K9" s="35"/>
+      <c r="L9" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36" t="s">
+      <c r="M9" s="35"/>
+      <c r="N9" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="O9" s="36"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O9" s="35"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>94</v>
       </c>
@@ -7243,7 +7244,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -7290,7 +7291,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -7338,7 +7339,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -7386,7 +7387,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>33</v>
       </c>
@@ -7434,53 +7435,53 @@
         <v>2065</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="I15" s="36" t="s">
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="I15" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="36" t="s">
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B16" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36" t="s">
+      <c r="C16" s="35"/>
+      <c r="D16" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36" t="s">
+      <c r="E16" s="35"/>
+      <c r="F16" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="G16" s="36"/>
-      <c r="J16" s="36" t="s">
+      <c r="G16" s="35"/>
+      <c r="J16" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36" t="s">
+      <c r="K16" s="35"/>
+      <c r="L16" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36" t="s">
+      <c r="M16" s="35"/>
+      <c r="N16" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="O16" s="36"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O16" s="35"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>94</v>
       </c>
@@ -7518,7 +7519,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -7565,7 +7566,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -7613,7 +7614,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -7661,7 +7662,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>33</v>
       </c>
@@ -7709,53 +7710,53 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A22" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="I22" s="36" t="s">
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="I22" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="36" t="s">
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B23" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36" t="s">
+      <c r="C23" s="35"/>
+      <c r="D23" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36" t="s">
+      <c r="E23" s="35"/>
+      <c r="F23" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="G23" s="36"/>
-      <c r="J23" s="36" t="s">
+      <c r="G23" s="35"/>
+      <c r="J23" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36" t="s">
+      <c r="K23" s="35"/>
+      <c r="L23" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36" t="s">
+      <c r="M23" s="35"/>
+      <c r="N23" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="O23" s="36"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O23" s="35"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>94</v>
       </c>
@@ -7793,7 +7794,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -7841,7 +7842,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -7889,7 +7890,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -7937,7 +7938,7 @@
         <v>2561</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>33</v>
       </c>
@@ -7985,53 +7986,53 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A29" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="I29" s="36" t="s">
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="I29" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="36" t="s">
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B30" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36" t="s">
+      <c r="C30" s="35"/>
+      <c r="D30" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36" t="s">
+      <c r="E30" s="35"/>
+      <c r="F30" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="G30" s="36"/>
-      <c r="J30" s="36" t="s">
+      <c r="G30" s="35"/>
+      <c r="J30" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36" t="s">
+      <c r="K30" s="35"/>
+      <c r="L30" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36" t="s">
+      <c r="M30" s="35"/>
+      <c r="N30" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="O30" s="36"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O30" s="35"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>94</v>
       </c>
@@ -8069,7 +8070,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -8117,7 +8118,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -8165,7 +8166,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -8213,7 +8214,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>33</v>
       </c>
@@ -8261,53 +8262,53 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="36" t="s">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A36" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="I36" s="36" t="s">
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="I36" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="36"/>
-      <c r="O36" s="36"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="36" t="s">
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B37" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36" t="s">
+      <c r="C37" s="35"/>
+      <c r="D37" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36" t="s">
+      <c r="E37" s="35"/>
+      <c r="F37" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="G37" s="36"/>
-      <c r="J37" s="36" t="s">
+      <c r="G37" s="35"/>
+      <c r="J37" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36" t="s">
+      <c r="K37" s="35"/>
+      <c r="L37" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36" t="s">
+      <c r="M37" s="35"/>
+      <c r="N37" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="O37" s="36"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O37" s="35"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>94</v>
       </c>
@@ -8345,7 +8346,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -8393,7 +8394,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -8441,7 +8442,7 @@
         <v>3089</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -8489,7 +8490,7 @@
         <v>2768</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>33</v>
       </c>
@@ -8537,53 +8538,53 @@
         <v>2711</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="36" t="s">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A43" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="I43" s="36" t="s">
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="I43" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="J43" s="36"/>
-      <c r="K43" s="36"/>
-      <c r="L43" s="36"/>
-      <c r="M43" s="36"/>
-      <c r="N43" s="36"/>
-      <c r="O43" s="36"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="36" t="s">
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="35"/>
+      <c r="N43" s="35"/>
+      <c r="O43" s="35"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B44" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36" t="s">
+      <c r="C44" s="35"/>
+      <c r="D44" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36" t="s">
+      <c r="E44" s="35"/>
+      <c r="F44" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="G44" s="36"/>
-      <c r="J44" s="36" t="s">
+      <c r="G44" s="35"/>
+      <c r="J44" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="K44" s="36"/>
-      <c r="L44" s="36" t="s">
+      <c r="K44" s="35"/>
+      <c r="L44" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="M44" s="36"/>
-      <c r="N44" s="36" t="s">
+      <c r="M44" s="35"/>
+      <c r="N44" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="O44" s="36"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O44" s="35"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>94</v>
       </c>
@@ -8621,7 +8622,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -8669,7 +8670,7 @@
         <v>3692</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -8717,7 +8718,7 @@
         <v>4020</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -8766,7 +8767,7 @@
         <v>3814</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
         <v>33</v>
       </c>
@@ -8814,44 +8815,44 @@
         <v>3675</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="35"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="I50" s="36" t="s">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A50" s="36"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="I50" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="J50" s="36"/>
-      <c r="K50" s="36"/>
-      <c r="L50" s="36"/>
-      <c r="M50" s="36"/>
-      <c r="N50" s="36"/>
-      <c r="O50" s="36"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B51" s="36"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
-      <c r="J51" s="36" t="s">
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="35"/>
+      <c r="N50" s="35"/>
+      <c r="O50" s="35"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="J51" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="K51" s="36"/>
-      <c r="L51" s="36" t="s">
+      <c r="K51" s="35"/>
+      <c r="L51" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="M51" s="36"/>
-      <c r="N51" s="36" t="s">
+      <c r="M51" s="35"/>
+      <c r="N51" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="O51" s="36"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O51" s="35"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="J52" t="s">
         <v>94</v>
       </c>
@@ -8871,7 +8872,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="I53" t="s">
         <v>8</v>
       </c>
@@ -8896,7 +8897,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="I54" t="s">
         <v>10</v>
       </c>
@@ -8921,7 +8922,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="I55" t="s">
         <v>11</v>
       </c>
@@ -8946,7 +8947,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -8980,6 +8981,62 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="I50:O50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="I43:O43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="I36:O36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="I29:O29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="I22:O22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="I15:O15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="I8:O8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="I1:O1"/>
     <mergeCell ref="B2:C2"/>
@@ -8988,62 +9045,6 @@
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="I8:O8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="I15:O15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="I22:O22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="I29:O29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="I36:O36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="I43:O43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="I50:O50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="N51:O51"/>
   </mergeCells>
   <conditionalFormatting sqref="L32:L35">
     <cfRule type="colorScale" priority="60">
@@ -9771,21 +9772,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="3" width="15.54296875" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -9799,7 +9800,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>39</v>
       </c>
@@ -9813,7 +9814,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>40</v>
       </c>
@@ -9827,7 +9828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>41</v>
       </c>
@@ -9841,7 +9842,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>42</v>
       </c>
@@ -9855,7 +9856,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>43</v>
       </c>
@@ -9869,7 +9870,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>44</v>
       </c>
@@ -9883,7 +9884,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>45</v>
       </c>
@@ -9897,7 +9898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>46</v>
       </c>
@@ -9911,7 +9912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>47</v>
       </c>
@@ -9925,7 +9926,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>48</v>
       </c>
@@ -9939,7 +9940,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>49</v>
       </c>
@@ -9950,7 +9951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>50</v>
       </c>
@@ -9961,7 +9962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>51</v>
       </c>
@@ -9972,7 +9973,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>52</v>
       </c>
@@ -9983,7 +9984,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>53</v>
       </c>
@@ -9994,7 +9995,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>54</v>
       </c>
@@ -10008,7 +10009,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>55</v>
       </c>
@@ -10022,7 +10023,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>56</v>
       </c>
@@ -10036,7 +10037,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>57</v>
       </c>
@@ -10050,7 +10051,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>58</v>
       </c>
@@ -10064,7 +10065,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>59</v>
       </c>
@@ -10078,7 +10079,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>60</v>
       </c>
@@ -10092,7 +10093,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>61</v>
       </c>
@@ -10106,7 +10107,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>62</v>
       </c>
@@ -10120,7 +10121,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>63</v>
       </c>
@@ -10134,7 +10135,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>64</v>
       </c>
@@ -10148,7 +10149,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>65</v>
       </c>
@@ -10162,7 +10163,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>66</v>
       </c>
@@ -10176,7 +10177,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>67</v>
       </c>
@@ -10190,7 +10191,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>68</v>
       </c>
@@ -10204,7 +10205,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>69</v>
       </c>
@@ -10218,7 +10219,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>70</v>
       </c>
@@ -10232,7 +10233,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>71</v>
       </c>
@@ -10246,7 +10247,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>72</v>
       </c>
@@ -10260,7 +10261,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>73</v>
       </c>
@@ -10274,7 +10275,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>74</v>
       </c>
@@ -10288,7 +10289,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>75</v>
       </c>
@@ -10302,7 +10303,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>76</v>
       </c>
@@ -10316,7 +10317,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>77</v>
       </c>
@@ -10330,7 +10331,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>78</v>
       </c>
@@ -10344,7 +10345,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>79</v>
       </c>
@@ -10358,7 +10359,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>80</v>
       </c>
@@ -10372,7 +10373,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>81</v>
       </c>
@@ -10386,7 +10387,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>82</v>
       </c>
@@ -10400,7 +10401,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>83</v>
       </c>
@@ -10414,7 +10415,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>84</v>
       </c>
@@ -10428,7 +10429,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>85</v>
       </c>
@@ -10442,7 +10443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>86</v>
       </c>
@@ -10456,7 +10457,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>87</v>
       </c>
@@ -10470,7 +10471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>88</v>
       </c>
@@ -10491,31 +10492,31 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:T481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H98" sqref="H98"/>
+    <sheetView topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" customWidth="1"/>
+    <col min="5" max="5" width="19.7265625" customWidth="1"/>
+    <col min="6" max="6" width="17.1796875" customWidth="1"/>
+    <col min="7" max="7" width="17.54296875" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" style="22" customWidth="1"/>
     <col min="9" max="9" width="11" style="22" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="22" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" style="22" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" style="22" customWidth="1"/>
-    <col min="13" max="20" width="9.140625" style="22"/>
+    <col min="10" max="10" width="11.7265625" style="22" customWidth="1"/>
+    <col min="11" max="11" width="12.26953125" style="22" customWidth="1"/>
+    <col min="12" max="12" width="11.1796875" style="22" customWidth="1"/>
+    <col min="13" max="20" width="9.1796875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>203</v>
       </c>
@@ -10561,7 +10562,7 @@
       <c r="S1" s="26"/>
       <c r="T1" s="26"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -10607,7 +10608,7 @@
       <c r="S2" s="24"/>
       <c r="T2" s="23"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -10653,7 +10654,7 @@
       <c r="S3" s="23"/>
       <c r="T3" s="23"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
@@ -10699,7 +10700,7 @@
       <c r="S4" s="24"/>
       <c r="T4" s="23"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>18</v>
       </c>
@@ -10745,7 +10746,7 @@
       <c r="S5" s="23"/>
       <c r="T5" s="23"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -10791,7 +10792,7 @@
       <c r="S6" s="24"/>
       <c r="T6" s="23"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
@@ -10837,7 +10838,7 @@
       <c r="S7" s="24"/>
       <c r="T7" s="23"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
@@ -10883,7 +10884,7 @@
       <c r="S8" s="24"/>
       <c r="T8" s="23"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>18</v>
       </c>
@@ -10929,7 +10930,7 @@
       <c r="S9" s="23"/>
       <c r="T9" s="23"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -10975,7 +10976,7 @@
       <c r="S10" s="23"/>
       <c r="T10" s="23"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
@@ -11021,7 +11022,7 @@
       <c r="S11" s="24"/>
       <c r="T11" s="23"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>18</v>
       </c>
@@ -11067,7 +11068,7 @@
       <c r="S12" s="24"/>
       <c r="T12" s="23"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>18</v>
       </c>
@@ -11113,7 +11114,7 @@
       <c r="S13" s="23"/>
       <c r="T13" s="23"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
@@ -11159,7 +11160,7 @@
       <c r="S14" s="23"/>
       <c r="T14" s="23"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>18</v>
       </c>
@@ -11205,7 +11206,7 @@
       <c r="S15" s="24"/>
       <c r="T15" s="23"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
@@ -11251,7 +11252,7 @@
       <c r="S16" s="24"/>
       <c r="T16" s="23"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>18</v>
       </c>
@@ -11297,7 +11298,7 @@
       <c r="S17" s="23"/>
       <c r="T17" s="23"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
@@ -11343,7 +11344,7 @@
       <c r="S18" s="24"/>
       <c r="T18" s="24"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
@@ -11389,7 +11390,7 @@
       <c r="S19" s="24"/>
       <c r="T19" s="24"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
@@ -11435,7 +11436,7 @@
       <c r="S20" s="24"/>
       <c r="T20" s="24"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>18</v>
       </c>
@@ -11481,7 +11482,7 @@
       <c r="S21" s="24"/>
       <c r="T21" s="24"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
@@ -11527,7 +11528,7 @@
       <c r="S22" s="24"/>
       <c r="T22" s="24"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>18</v>
       </c>
@@ -11573,7 +11574,7 @@
       <c r="S23" s="24"/>
       <c r="T23" s="24"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>18</v>
       </c>
@@ -11619,7 +11620,7 @@
       <c r="S24" s="24"/>
       <c r="T24" s="24"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>18</v>
       </c>
@@ -11665,7 +11666,7 @@
       <c r="S25" s="24"/>
       <c r="T25" s="24"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>18</v>
       </c>
@@ -11711,7 +11712,7 @@
       <c r="S26" s="24"/>
       <c r="T26" s="23"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>18</v>
       </c>
@@ -11757,7 +11758,7 @@
       <c r="S27" s="24"/>
       <c r="T27" s="23"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>18</v>
       </c>
@@ -11803,7 +11804,7 @@
       <c r="S28" s="24"/>
       <c r="T28" s="23"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>18</v>
       </c>
@@ -11849,7 +11850,7 @@
       <c r="S29" s="23"/>
       <c r="T29" s="23"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>18</v>
       </c>
@@ -11895,7 +11896,7 @@
       <c r="S30" s="24"/>
       <c r="T30" s="23"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>18</v>
       </c>
@@ -11941,7 +11942,7 @@
       <c r="S31" s="24"/>
       <c r="T31" s="23"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>18</v>
       </c>
@@ -11987,7 +11988,7 @@
       <c r="S32" s="24"/>
       <c r="T32" s="23"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>18</v>
       </c>
@@ -12033,7 +12034,7 @@
       <c r="S33" s="23"/>
       <c r="T33" s="23"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34" s="34" t="s">
         <v>19</v>
       </c>
@@ -12071,7 +12072,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35" s="21" t="s">
         <v>19</v>
       </c>
@@ -12109,7 +12110,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36" s="21" t="s">
         <v>19</v>
       </c>
@@ -12147,7 +12148,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37" s="29" t="s">
         <v>19</v>
       </c>
@@ -12185,7 +12186,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38" s="34" t="s">
         <v>19</v>
       </c>
@@ -12223,7 +12224,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39" s="21" t="s">
         <v>19</v>
       </c>
@@ -12261,7 +12262,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40" s="21" t="s">
         <v>19</v>
       </c>
@@ -12299,7 +12300,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41" s="29" t="s">
         <v>19</v>
       </c>
@@ -12337,7 +12338,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42" s="34" t="s">
         <v>19</v>
       </c>
@@ -12375,7 +12376,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43" s="21" t="s">
         <v>19</v>
       </c>
@@ -12413,7 +12414,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44" s="21" t="s">
         <v>19</v>
       </c>
@@ -12451,7 +12452,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A45" s="29" t="s">
         <v>19</v>
       </c>
@@ -12489,7 +12490,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46" s="34" t="s">
         <v>19</v>
       </c>
@@ -12527,7 +12528,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A47" s="21" t="s">
         <v>19</v>
       </c>
@@ -12565,7 +12566,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A48" s="21" t="s">
         <v>19</v>
       </c>
@@ -12603,7 +12604,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="29" t="s">
         <v>19</v>
       </c>
@@ -12641,7 +12642,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="34" t="s">
         <v>19</v>
       </c>
@@ -12679,7 +12680,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="21" t="s">
         <v>19</v>
       </c>
@@ -12717,7 +12718,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="21" t="s">
         <v>19</v>
       </c>
@@ -12755,7 +12756,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="29" t="s">
         <v>19</v>
       </c>
@@ -12793,7 +12794,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="34" t="s">
         <v>19</v>
       </c>
@@ -12831,7 +12832,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="21" t="s">
         <v>19</v>
       </c>
@@ -12869,7 +12870,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="21" t="s">
         <v>19</v>
       </c>
@@ -12907,7 +12908,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="29" t="s">
         <v>19</v>
       </c>
@@ -12945,7 +12946,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="34" t="s">
         <v>19</v>
       </c>
@@ -12983,7 +12984,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="21" t="s">
         <v>19</v>
       </c>
@@ -13021,7 +13022,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="21" t="s">
         <v>19</v>
       </c>
@@ -13059,7 +13060,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="29" t="s">
         <v>19</v>
       </c>
@@ -13097,7 +13098,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="34" t="s">
         <v>19</v>
       </c>
@@ -13135,7 +13136,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="21" t="s">
         <v>19</v>
       </c>
@@ -13173,7 +13174,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="21" t="s">
         <v>19</v>
       </c>
@@ -13211,7 +13212,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="29" t="s">
         <v>19</v>
       </c>
@@ -13249,7 +13250,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" s="34" t="s">
         <v>20</v>
       </c>
@@ -13287,7 +13288,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="21" t="s">
         <v>20</v>
       </c>
@@ -13325,7 +13326,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="21" t="s">
         <v>20</v>
       </c>
@@ -13363,7 +13364,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="29" t="s">
         <v>20</v>
       </c>
@@ -13401,7 +13402,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="34" t="s">
         <v>20</v>
       </c>
@@ -13439,7 +13440,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="21" t="s">
         <v>20</v>
       </c>
@@ -13477,7 +13478,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="21" t="s">
         <v>20</v>
       </c>
@@ -13515,7 +13516,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="29" t="s">
         <v>20</v>
       </c>
@@ -13553,7 +13554,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="34" t="s">
         <v>20</v>
       </c>
@@ -13591,7 +13592,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" s="21" t="s">
         <v>20</v>
       </c>
@@ -13629,7 +13630,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="21" t="s">
         <v>20</v>
       </c>
@@ -13667,7 +13668,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="29" t="s">
         <v>20</v>
       </c>
@@ -13705,7 +13706,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="34" t="s">
         <v>20</v>
       </c>
@@ -13743,7 +13744,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" s="21" t="s">
         <v>20</v>
       </c>
@@ -13781,7 +13782,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="21" t="s">
         <v>20</v>
       </c>
@@ -13819,7 +13820,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="29" t="s">
         <v>20</v>
       </c>
@@ -13857,7 +13858,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="34" t="s">
         <v>20</v>
       </c>
@@ -13895,7 +13896,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" s="21" t="s">
         <v>20</v>
       </c>
@@ -13933,7 +13934,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="21" t="s">
         <v>20</v>
       </c>
@@ -13971,7 +13972,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="29" t="s">
         <v>20</v>
       </c>
@@ -14009,7 +14010,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="34" t="s">
         <v>20</v>
       </c>
@@ -14047,7 +14048,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" s="21" t="s">
         <v>20</v>
       </c>
@@ -14085,7 +14086,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="21" t="s">
         <v>20</v>
       </c>
@@ -14123,7 +14124,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="29" t="s">
         <v>20</v>
       </c>
@@ -14161,7 +14162,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" s="34" t="s">
         <v>20</v>
       </c>
@@ -14199,7 +14200,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" s="21" t="s">
         <v>20</v>
       </c>
@@ -14237,7 +14238,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="21" t="s">
         <v>20</v>
       </c>
@@ -14275,7 +14276,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="29" t="s">
         <v>20</v>
       </c>
@@ -14313,7 +14314,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="34" t="s">
         <v>20</v>
       </c>
@@ -14351,7 +14352,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" s="21" t="s">
         <v>20</v>
       </c>
@@ -14389,7 +14390,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" s="21" t="s">
         <v>20</v>
       </c>
@@ -14427,7 +14428,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="29" t="s">
         <v>20</v>
       </c>
@@ -14465,7 +14466,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" s="34" t="s">
         <v>21</v>
       </c>
@@ -14493,7 +14494,7 @@
       <c r="K98" s="32"/>
       <c r="L98" s="32"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" s="21" t="s">
         <v>21</v>
       </c>
@@ -14521,7 +14522,7 @@
       <c r="K99" s="23"/>
       <c r="L99" s="23"/>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" s="21" t="s">
         <v>21</v>
       </c>
@@ -14549,7 +14550,7 @@
       <c r="K100" s="23"/>
       <c r="L100" s="23"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="29" t="s">
         <v>21</v>
       </c>
@@ -14577,7 +14578,7 @@
       <c r="K101" s="27"/>
       <c r="L101" s="27"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" s="34" t="s">
         <v>21</v>
       </c>
@@ -14605,7 +14606,7 @@
       <c r="K102" s="32"/>
       <c r="L102" s="32"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" s="21" t="s">
         <v>21</v>
       </c>
@@ -14633,7 +14634,7 @@
       <c r="K103" s="23"/>
       <c r="L103" s="23"/>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" s="21" t="s">
         <v>21</v>
       </c>
@@ -14661,7 +14662,7 @@
       <c r="K104" s="23"/>
       <c r="L104" s="23"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" s="29" t="s">
         <v>21</v>
       </c>
@@ -14689,7 +14690,7 @@
       <c r="K105" s="27"/>
       <c r="L105" s="27"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" s="34" t="s">
         <v>21</v>
       </c>
@@ -14717,7 +14718,7 @@
       <c r="K106" s="32"/>
       <c r="L106" s="32"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" s="21" t="s">
         <v>21</v>
       </c>
@@ -14745,7 +14746,7 @@
       <c r="K107" s="23"/>
       <c r="L107" s="23"/>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" s="21" t="s">
         <v>21</v>
       </c>
@@ -14773,7 +14774,7 @@
       <c r="K108" s="23"/>
       <c r="L108" s="23"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" s="29" t="s">
         <v>21</v>
       </c>
@@ -14801,7 +14802,7 @@
       <c r="K109" s="27"/>
       <c r="L109" s="27"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" s="34" t="s">
         <v>21</v>
       </c>
@@ -14829,7 +14830,7 @@
       <c r="K110" s="32"/>
       <c r="L110" s="32"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" s="21" t="s">
         <v>21</v>
       </c>
@@ -14857,7 +14858,7 @@
       <c r="K111" s="23"/>
       <c r="L111" s="23"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" s="21" t="s">
         <v>21</v>
       </c>
@@ -14885,7 +14886,7 @@
       <c r="K112" s="23"/>
       <c r="L112" s="23"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" s="29" t="s">
         <v>21</v>
       </c>
@@ -14913,7 +14914,7 @@
       <c r="K113" s="27"/>
       <c r="L113" s="27"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" s="34" t="s">
         <v>21</v>
       </c>
@@ -14941,7 +14942,7 @@
       <c r="K114" s="32"/>
       <c r="L114" s="32"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" s="21" t="s">
         <v>21</v>
       </c>
@@ -14969,7 +14970,7 @@
       <c r="K115" s="23"/>
       <c r="L115" s="23"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" s="21" t="s">
         <v>21</v>
       </c>
@@ -14997,7 +14998,7 @@
       <c r="K116" s="23"/>
       <c r="L116" s="23"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" s="29" t="s">
         <v>21</v>
       </c>
@@ -15025,7 +15026,7 @@
       <c r="K117" s="27"/>
       <c r="L117" s="27"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" s="34" t="s">
         <v>21</v>
       </c>
@@ -15053,7 +15054,7 @@
       <c r="K118" s="32"/>
       <c r="L118" s="32"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" s="21" t="s">
         <v>21</v>
       </c>
@@ -15081,7 +15082,7 @@
       <c r="K119" s="23"/>
       <c r="L119" s="23"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" s="21" t="s">
         <v>21</v>
       </c>
@@ -15109,7 +15110,7 @@
       <c r="K120" s="23"/>
       <c r="L120" s="23"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" s="29" t="s">
         <v>21</v>
       </c>
@@ -15137,7 +15138,7 @@
       <c r="K121" s="27"/>
       <c r="L121" s="27"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" s="34" t="s">
         <v>21</v>
       </c>
@@ -15165,7 +15166,7 @@
       <c r="K122" s="32"/>
       <c r="L122" s="32"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" s="21" t="s">
         <v>21</v>
       </c>
@@ -15193,7 +15194,7 @@
       <c r="K123" s="23"/>
       <c r="L123" s="23"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" s="21" t="s">
         <v>21</v>
       </c>
@@ -15221,7 +15222,7 @@
       <c r="K124" s="23"/>
       <c r="L124" s="23"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" s="29" t="s">
         <v>21</v>
       </c>
@@ -15249,7 +15250,7 @@
       <c r="K125" s="27"/>
       <c r="L125" s="27"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" s="34" t="s">
         <v>21</v>
       </c>
@@ -15277,7 +15278,7 @@
       <c r="K126" s="32"/>
       <c r="L126" s="32"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" s="21" t="s">
         <v>21</v>
       </c>
@@ -15305,7 +15306,7 @@
       <c r="K127" s="23"/>
       <c r="L127" s="23"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" s="21" t="s">
         <v>21</v>
       </c>
@@ -15333,7 +15334,7 @@
       <c r="K128" s="23"/>
       <c r="L128" s="23"/>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" s="29" t="s">
         <v>21</v>
       </c>
@@ -15361,7 +15362,7 @@
       <c r="K129" s="27"/>
       <c r="L129" s="27"/>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" s="34" t="s">
         <v>22</v>
       </c>
@@ -15389,7 +15390,7 @@
       <c r="K130" s="32"/>
       <c r="L130" s="32"/>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" s="21" t="s">
         <v>22</v>
       </c>
@@ -15417,7 +15418,7 @@
       <c r="K131" s="23"/>
       <c r="L131" s="23"/>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" s="21" t="s">
         <v>22</v>
       </c>
@@ -15445,7 +15446,7 @@
       <c r="K132" s="23"/>
       <c r="L132" s="23"/>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133" s="29" t="s">
         <v>22</v>
       </c>
@@ -15473,7 +15474,7 @@
       <c r="K133" s="27"/>
       <c r="L133" s="27"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" s="34" t="s">
         <v>22</v>
       </c>
@@ -15501,7 +15502,7 @@
       <c r="K134" s="32"/>
       <c r="L134" s="32"/>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" s="21" t="s">
         <v>22</v>
       </c>
@@ -15529,7 +15530,7 @@
       <c r="K135" s="23"/>
       <c r="L135" s="23"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" s="21" t="s">
         <v>22</v>
       </c>
@@ -15557,7 +15558,7 @@
       <c r="K136" s="23"/>
       <c r="L136" s="23"/>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137" s="29" t="s">
         <v>22</v>
       </c>
@@ -15585,7 +15586,7 @@
       <c r="K137" s="27"/>
       <c r="L137" s="27"/>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" s="34" t="s">
         <v>22</v>
       </c>
@@ -15613,7 +15614,7 @@
       <c r="K138" s="32"/>
       <c r="L138" s="32"/>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" s="21" t="s">
         <v>22</v>
       </c>
@@ -15641,7 +15642,7 @@
       <c r="K139" s="23"/>
       <c r="L139" s="23"/>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" s="21" t="s">
         <v>22</v>
       </c>
@@ -15669,7 +15670,7 @@
       <c r="K140" s="23"/>
       <c r="L140" s="23"/>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141" s="29" t="s">
         <v>22</v>
       </c>
@@ -15697,7 +15698,7 @@
       <c r="K141" s="27"/>
       <c r="L141" s="27"/>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142" s="34" t="s">
         <v>22</v>
       </c>
@@ -15725,7 +15726,7 @@
       <c r="K142" s="32"/>
       <c r="L142" s="32"/>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143" s="21" t="s">
         <v>22</v>
       </c>
@@ -15753,7 +15754,7 @@
       <c r="K143" s="23"/>
       <c r="L143" s="23"/>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144" s="21" t="s">
         <v>22</v>
       </c>
@@ -15781,7 +15782,7 @@
       <c r="K144" s="23"/>
       <c r="L144" s="23"/>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" s="29" t="s">
         <v>22</v>
       </c>
@@ -15809,7 +15810,7 @@
       <c r="K145" s="27"/>
       <c r="L145" s="27"/>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" s="34" t="s">
         <v>22</v>
       </c>
@@ -15837,7 +15838,7 @@
       <c r="K146" s="32"/>
       <c r="L146" s="32"/>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" s="21" t="s">
         <v>22</v>
       </c>
@@ -15865,7 +15866,7 @@
       <c r="K147" s="23"/>
       <c r="L147" s="23"/>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" s="21" t="s">
         <v>22</v>
       </c>
@@ -15893,7 +15894,7 @@
       <c r="K148" s="23"/>
       <c r="L148" s="23"/>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" s="29" t="s">
         <v>22</v>
       </c>
@@ -15921,7 +15922,7 @@
       <c r="K149" s="27"/>
       <c r="L149" s="27"/>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" s="34" t="s">
         <v>22</v>
       </c>
@@ -15949,7 +15950,7 @@
       <c r="K150" s="32"/>
       <c r="L150" s="32"/>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" s="21" t="s">
         <v>22</v>
       </c>
@@ -15977,7 +15978,7 @@
       <c r="K151" s="23"/>
       <c r="L151" s="23"/>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" s="21" t="s">
         <v>22</v>
       </c>
@@ -16005,7 +16006,7 @@
       <c r="K152" s="23"/>
       <c r="L152" s="23"/>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153" s="29" t="s">
         <v>22</v>
       </c>
@@ -16033,7 +16034,7 @@
       <c r="K153" s="27"/>
       <c r="L153" s="27"/>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154" s="34" t="s">
         <v>22</v>
       </c>
@@ -16061,7 +16062,7 @@
       <c r="K154" s="32"/>
       <c r="L154" s="32"/>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155" s="21" t="s">
         <v>22</v>
       </c>
@@ -16089,7 +16090,7 @@
       <c r="K155" s="23"/>
       <c r="L155" s="23"/>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" s="21" t="s">
         <v>22</v>
       </c>
@@ -16117,7 +16118,7 @@
       <c r="K156" s="23"/>
       <c r="L156" s="23"/>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157" s="29" t="s">
         <v>22</v>
       </c>
@@ -16145,7 +16146,7 @@
       <c r="K157" s="27"/>
       <c r="L157" s="27"/>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158" s="34" t="s">
         <v>22</v>
       </c>
@@ -16173,7 +16174,7 @@
       <c r="K158" s="32"/>
       <c r="L158" s="32"/>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" s="21" t="s">
         <v>22</v>
       </c>
@@ -16201,7 +16202,7 @@
       <c r="K159" s="23"/>
       <c r="L159" s="23"/>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160" s="21" t="s">
         <v>22</v>
       </c>
@@ -16229,7 +16230,7 @@
       <c r="K160" s="23"/>
       <c r="L160" s="23"/>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" s="29" t="s">
         <v>22</v>
       </c>
@@ -16257,7 +16258,7 @@
       <c r="K161" s="27"/>
       <c r="L161" s="27"/>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162" s="21" t="s">
         <v>23</v>
       </c>
@@ -16280,7 +16281,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163" s="21" t="s">
         <v>23</v>
       </c>
@@ -16303,7 +16304,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164" s="21" t="s">
         <v>23</v>
       </c>
@@ -16326,7 +16327,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165" s="21" t="s">
         <v>23</v>
       </c>
@@ -16349,7 +16350,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166" s="21" t="s">
         <v>23</v>
       </c>
@@ -16372,7 +16373,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167" s="21" t="s">
         <v>23</v>
       </c>
@@ -16395,7 +16396,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168" s="21" t="s">
         <v>23</v>
       </c>
@@ -16418,7 +16419,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A169" s="21" t="s">
         <v>23</v>
       </c>
@@ -16441,7 +16442,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A170" s="21" t="s">
         <v>23</v>
       </c>
@@ -16464,7 +16465,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A171" s="21" t="s">
         <v>23</v>
       </c>
@@ -16487,7 +16488,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A172" s="21" t="s">
         <v>23</v>
       </c>
@@ -16510,7 +16511,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A173" s="21" t="s">
         <v>23</v>
       </c>
@@ -16533,7 +16534,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174" s="21" t="s">
         <v>23</v>
       </c>
@@ -16556,7 +16557,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175" s="21" t="s">
         <v>23</v>
       </c>
@@ -16579,7 +16580,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A176" s="21" t="s">
         <v>23</v>
       </c>
@@ -16602,7 +16603,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" s="21" t="s">
         <v>23</v>
       </c>
@@ -16625,7 +16626,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" s="21" t="s">
         <v>23</v>
       </c>
@@ -16648,7 +16649,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" s="21" t="s">
         <v>23</v>
       </c>
@@ -16671,7 +16672,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" s="21" t="s">
         <v>23</v>
       </c>
@@ -16694,7 +16695,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" s="21" t="s">
         <v>23</v>
       </c>
@@ -16717,7 +16718,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" s="21" t="s">
         <v>23</v>
       </c>
@@ -16740,7 +16741,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" s="21" t="s">
         <v>23</v>
       </c>
@@ -16763,7 +16764,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" s="21" t="s">
         <v>23</v>
       </c>
@@ -16786,7 +16787,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" s="21" t="s">
         <v>23</v>
       </c>
@@ -16809,7 +16810,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" s="21" t="s">
         <v>23</v>
       </c>
@@ -16832,7 +16833,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" s="21" t="s">
         <v>23</v>
       </c>
@@ -16855,7 +16856,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" s="21" t="s">
         <v>23</v>
       </c>
@@ -16878,7 +16879,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" s="21" t="s">
         <v>23</v>
       </c>
@@ -16901,7 +16902,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" s="21" t="s">
         <v>23</v>
       </c>
@@ -16924,7 +16925,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" s="21" t="s">
         <v>23</v>
       </c>
@@ -16947,7 +16948,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" s="21" t="s">
         <v>23</v>
       </c>
@@ -16970,7 +16971,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" s="21" t="s">
         <v>23</v>
       </c>
@@ -16993,7 +16994,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" s="21" t="s">
         <v>24</v>
       </c>
@@ -17016,7 +17017,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" s="21" t="s">
         <v>24</v>
       </c>
@@ -17039,7 +17040,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" s="21" t="s">
         <v>24</v>
       </c>
@@ -17062,7 +17063,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" s="21" t="s">
         <v>24</v>
       </c>
@@ -17085,7 +17086,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" s="21" t="s">
         <v>24</v>
       </c>
@@ -17108,7 +17109,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" s="21" t="s">
         <v>24</v>
       </c>
@@ -17131,7 +17132,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" s="21" t="s">
         <v>24</v>
       </c>
@@ -17154,7 +17155,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" s="21" t="s">
         <v>24</v>
       </c>
@@ -17177,7 +17178,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" s="21" t="s">
         <v>24</v>
       </c>
@@ -17200,7 +17201,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" s="21" t="s">
         <v>24</v>
       </c>
@@ -17223,7 +17224,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" s="21" t="s">
         <v>24</v>
       </c>
@@ -17246,7 +17247,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" s="21" t="s">
         <v>24</v>
       </c>
@@ -17269,7 +17270,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" s="21" t="s">
         <v>24</v>
       </c>
@@ -17292,7 +17293,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" s="21" t="s">
         <v>24</v>
       </c>
@@ -17315,7 +17316,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" s="21" t="s">
         <v>24</v>
       </c>
@@ -17338,7 +17339,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" s="21" t="s">
         <v>24</v>
       </c>
@@ -17361,7 +17362,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" s="21" t="s">
         <v>24</v>
       </c>
@@ -17384,7 +17385,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" s="21" t="s">
         <v>24</v>
       </c>
@@ -17407,7 +17408,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" s="21" t="s">
         <v>24</v>
       </c>
@@ -17430,7 +17431,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" s="21" t="s">
         <v>24</v>
       </c>
@@ -17453,7 +17454,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214" s="21" t="s">
         <v>24</v>
       </c>
@@ -17476,7 +17477,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" s="21" t="s">
         <v>24</v>
       </c>
@@ -17499,7 +17500,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216" s="21" t="s">
         <v>24</v>
       </c>
@@ -17522,7 +17523,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" s="21" t="s">
         <v>24</v>
       </c>
@@ -17545,7 +17546,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218" s="21" t="s">
         <v>24</v>
       </c>
@@ -17568,7 +17569,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219" s="21" t="s">
         <v>24</v>
       </c>
@@ -17591,7 +17592,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" s="21" t="s">
         <v>24</v>
       </c>
@@ -17614,7 +17615,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" s="21" t="s">
         <v>24</v>
       </c>
@@ -17637,7 +17638,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222" s="21" t="s">
         <v>24</v>
       </c>
@@ -17660,7 +17661,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223" s="21" t="s">
         <v>24</v>
       </c>
@@ -17683,7 +17684,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224" s="21" t="s">
         <v>24</v>
       </c>
@@ -17706,7 +17707,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225" s="21" t="s">
         <v>24</v>
       </c>
@@ -17729,7 +17730,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226" s="21" t="s">
         <v>25</v>
       </c>
@@ -17752,7 +17753,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227" s="21" t="s">
         <v>25</v>
       </c>
@@ -17775,7 +17776,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228" s="21" t="s">
         <v>25</v>
       </c>
@@ -17798,7 +17799,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229" s="21" t="s">
         <v>25</v>
       </c>
@@ -17821,7 +17822,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230" s="21" t="s">
         <v>25</v>
       </c>
@@ -17844,7 +17845,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231" s="21" t="s">
         <v>25</v>
       </c>
@@ -17867,7 +17868,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232" s="21" t="s">
         <v>25</v>
       </c>
@@ -17890,7 +17891,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233" s="21" t="s">
         <v>25</v>
       </c>
@@ -17913,7 +17914,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A234" s="21" t="s">
         <v>25</v>
       </c>
@@ -17936,7 +17937,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A235" s="21" t="s">
         <v>25</v>
       </c>
@@ -17959,7 +17960,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236" s="21" t="s">
         <v>25</v>
       </c>
@@ -17982,7 +17983,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237" s="21" t="s">
         <v>25</v>
       </c>
@@ -18005,7 +18006,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A238" s="21" t="s">
         <v>25</v>
       </c>
@@ -18028,7 +18029,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239" s="21" t="s">
         <v>25</v>
       </c>
@@ -18051,7 +18052,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240" s="21" t="s">
         <v>25</v>
       </c>
@@ -18074,7 +18075,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241" s="21" t="s">
         <v>25</v>
       </c>
@@ -18097,7 +18098,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" s="21" t="s">
         <v>25</v>
       </c>
@@ -18120,7 +18121,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" s="21" t="s">
         <v>25</v>
       </c>
@@ -18143,7 +18144,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" s="21" t="s">
         <v>25</v>
       </c>
@@ -18166,7 +18167,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" s="21" t="s">
         <v>25</v>
       </c>
@@ -18189,7 +18190,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" s="21" t="s">
         <v>25</v>
       </c>
@@ -18212,7 +18213,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" s="21" t="s">
         <v>25</v>
       </c>
@@ -18235,7 +18236,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" s="21" t="s">
         <v>25</v>
       </c>
@@ -18258,7 +18259,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" s="21" t="s">
         <v>25</v>
       </c>
@@ -18281,7 +18282,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" s="21" t="s">
         <v>25</v>
       </c>
@@ -18304,7 +18305,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" s="21" t="s">
         <v>25</v>
       </c>
@@ -18327,7 +18328,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252" s="21" t="s">
         <v>25</v>
       </c>
@@ -18350,7 +18351,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" s="21" t="s">
         <v>25</v>
       </c>
@@ -18373,7 +18374,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" s="21" t="s">
         <v>25</v>
       </c>
@@ -18396,7 +18397,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255" s="21" t="s">
         <v>25</v>
       </c>
@@ -18419,7 +18420,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" s="21" t="s">
         <v>25</v>
       </c>
@@ -18442,7 +18443,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257" s="21" t="s">
         <v>25</v>
       </c>
@@ -18465,7 +18466,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258" s="21" t="s">
         <v>26</v>
       </c>
@@ -18488,7 +18489,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259" s="21" t="s">
         <v>26</v>
       </c>
@@ -18511,7 +18512,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260" s="21" t="s">
         <v>26</v>
       </c>
@@ -18534,7 +18535,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261" s="21" t="s">
         <v>26</v>
       </c>
@@ -18557,7 +18558,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262" s="21" t="s">
         <v>26</v>
       </c>
@@ -18580,7 +18581,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263" s="21" t="s">
         <v>26</v>
       </c>
@@ -18603,7 +18604,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264" s="21" t="s">
         <v>26</v>
       </c>
@@ -18626,7 +18627,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265" s="21" t="s">
         <v>26</v>
       </c>
@@ -18649,7 +18650,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266" s="21" t="s">
         <v>26</v>
       </c>
@@ -18672,7 +18673,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A267" s="21" t="s">
         <v>26</v>
       </c>
@@ -18695,7 +18696,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A268" s="21" t="s">
         <v>26</v>
       </c>
@@ -18718,7 +18719,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269" s="21" t="s">
         <v>26</v>
       </c>
@@ -18741,7 +18742,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A270" s="21" t="s">
         <v>26</v>
       </c>
@@ -18764,7 +18765,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A271" s="21" t="s">
         <v>26</v>
       </c>
@@ -18787,7 +18788,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A272" s="21" t="s">
         <v>26</v>
       </c>
@@ -18810,7 +18811,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A273" s="21" t="s">
         <v>26</v>
       </c>
@@ -18833,7 +18834,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A274" s="21" t="s">
         <v>26</v>
       </c>
@@ -18856,7 +18857,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A275" s="21" t="s">
         <v>26</v>
       </c>
@@ -18879,7 +18880,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A276" s="21" t="s">
         <v>26</v>
       </c>
@@ -18902,7 +18903,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A277" s="21" t="s">
         <v>26</v>
       </c>
@@ -18925,7 +18926,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A278" s="21" t="s">
         <v>26</v>
       </c>
@@ -18948,7 +18949,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A279" s="21" t="s">
         <v>26</v>
       </c>
@@ -18971,7 +18972,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A280" s="21" t="s">
         <v>26</v>
       </c>
@@ -18994,7 +18995,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A281" s="21" t="s">
         <v>26</v>
       </c>
@@ -19017,7 +19018,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A282" s="21" t="s">
         <v>26</v>
       </c>
@@ -19040,7 +19041,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A283" s="21" t="s">
         <v>26</v>
       </c>
@@ -19063,7 +19064,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A284" s="21" t="s">
         <v>26</v>
       </c>
@@ -19086,7 +19087,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A285" s="21" t="s">
         <v>26</v>
       </c>
@@ -19109,7 +19110,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A286" s="21" t="s">
         <v>26</v>
       </c>
@@ -19132,7 +19133,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A287" s="21" t="s">
         <v>26</v>
       </c>
@@ -19155,7 +19156,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A288" s="21" t="s">
         <v>26</v>
       </c>
@@ -19178,7 +19179,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A289" s="21" t="s">
         <v>26</v>
       </c>
@@ -19201,7 +19202,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A290" s="21" t="s">
         <v>27</v>
       </c>
@@ -19224,7 +19225,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A291" s="21" t="s">
         <v>27</v>
       </c>
@@ -19247,7 +19248,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A292" s="21" t="s">
         <v>27</v>
       </c>
@@ -19270,7 +19271,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A293" s="21" t="s">
         <v>27</v>
       </c>
@@ -19293,7 +19294,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A294" s="21" t="s">
         <v>27</v>
       </c>
@@ -19316,7 +19317,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A295" s="21" t="s">
         <v>27</v>
       </c>
@@ -19339,7 +19340,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A296" s="21" t="s">
         <v>27</v>
       </c>
@@ -19362,7 +19363,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A297" s="21" t="s">
         <v>27</v>
       </c>
@@ -19385,7 +19386,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A298" s="21" t="s">
         <v>27</v>
       </c>
@@ -19408,7 +19409,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A299" s="21" t="s">
         <v>27</v>
       </c>
@@ -19431,7 +19432,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A300" s="21" t="s">
         <v>27</v>
       </c>
@@ -19454,7 +19455,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A301" s="21" t="s">
         <v>27</v>
       </c>
@@ -19477,7 +19478,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A302" s="21" t="s">
         <v>27</v>
       </c>
@@ -19500,7 +19501,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A303" s="21" t="s">
         <v>27</v>
       </c>
@@ -19523,7 +19524,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A304" s="21" t="s">
         <v>27</v>
       </c>
@@ -19546,7 +19547,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A305" s="21" t="s">
         <v>27</v>
       </c>
@@ -19569,7 +19570,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A306" s="21" t="s">
         <v>27</v>
       </c>
@@ -19592,7 +19593,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A307" s="21" t="s">
         <v>27</v>
       </c>
@@ -19615,7 +19616,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A308" s="21" t="s">
         <v>27</v>
       </c>
@@ -19638,7 +19639,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A309" s="21" t="s">
         <v>27</v>
       </c>
@@ -19661,7 +19662,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A310" s="21" t="s">
         <v>27</v>
       </c>
@@ -19684,7 +19685,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A311" s="21" t="s">
         <v>27</v>
       </c>
@@ -19707,7 +19708,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A312" s="21" t="s">
         <v>27</v>
       </c>
@@ -19730,7 +19731,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A313" s="21" t="s">
         <v>27</v>
       </c>
@@ -19753,7 +19754,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A314" s="21" t="s">
         <v>27</v>
       </c>
@@ -19776,7 +19777,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A315" s="21" t="s">
         <v>27</v>
       </c>
@@ -19799,7 +19800,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A316" s="21" t="s">
         <v>27</v>
       </c>
@@ -19822,7 +19823,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A317" s="21" t="s">
         <v>27</v>
       </c>
@@ -19845,7 +19846,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A318" s="21" t="s">
         <v>27</v>
       </c>
@@ -19868,7 +19869,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A319" s="21" t="s">
         <v>27</v>
       </c>
@@ -19891,7 +19892,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A320" s="21" t="s">
         <v>27</v>
       </c>
@@ -19914,7 +19915,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A321" s="21" t="s">
         <v>27</v>
       </c>
@@ -19937,7 +19938,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A322" s="21" t="s">
         <v>28</v>
       </c>
@@ -19960,7 +19961,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A323" s="21" t="s">
         <v>28</v>
       </c>
@@ -19983,7 +19984,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A324" s="21" t="s">
         <v>28</v>
       </c>
@@ -20006,7 +20007,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A325" s="21" t="s">
         <v>28</v>
       </c>
@@ -20029,7 +20030,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A326" s="21" t="s">
         <v>28</v>
       </c>
@@ -20052,7 +20053,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A327" s="21" t="s">
         <v>28</v>
       </c>
@@ -20075,7 +20076,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A328" s="21" t="s">
         <v>28</v>
       </c>
@@ -20098,7 +20099,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A329" s="21" t="s">
         <v>28</v>
       </c>
@@ -20121,7 +20122,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A330" s="21" t="s">
         <v>28</v>
       </c>
@@ -20144,7 +20145,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A331" s="21" t="s">
         <v>28</v>
       </c>
@@ -20167,7 +20168,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A332" s="21" t="s">
         <v>28</v>
       </c>
@@ -20190,7 +20191,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A333" s="21" t="s">
         <v>28</v>
       </c>
@@ -20213,7 +20214,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A334" s="21" t="s">
         <v>28</v>
       </c>
@@ -20236,7 +20237,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A335" s="21" t="s">
         <v>28</v>
       </c>
@@ -20259,7 +20260,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A336" s="21" t="s">
         <v>28</v>
       </c>
@@ -20282,7 +20283,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A337" s="21" t="s">
         <v>28</v>
       </c>
@@ -20305,7 +20306,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A338" s="21" t="s">
         <v>28</v>
       </c>
@@ -20328,7 +20329,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A339" s="21" t="s">
         <v>28</v>
       </c>
@@ -20351,7 +20352,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A340" s="21" t="s">
         <v>28</v>
       </c>
@@ -20374,7 +20375,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A341" s="21" t="s">
         <v>28</v>
       </c>
@@ -20397,7 +20398,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A342" s="21" t="s">
         <v>28</v>
       </c>
@@ -20420,7 +20421,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A343" s="21" t="s">
         <v>28</v>
       </c>
@@ -20443,7 +20444,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A344" s="21" t="s">
         <v>28</v>
       </c>
@@ -20466,7 +20467,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A345" s="21" t="s">
         <v>28</v>
       </c>
@@ -20489,7 +20490,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A346" s="21" t="s">
         <v>28</v>
       </c>
@@ -20512,7 +20513,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A347" s="21" t="s">
         <v>28</v>
       </c>
@@ -20535,7 +20536,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A348" s="21" t="s">
         <v>28</v>
       </c>
@@ -20558,7 +20559,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A349" s="21" t="s">
         <v>28</v>
       </c>
@@ -20581,7 +20582,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A350" s="21" t="s">
         <v>28</v>
       </c>
@@ -20604,7 +20605,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A351" s="21" t="s">
         <v>28</v>
       </c>
@@ -20627,7 +20628,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A352" s="21" t="s">
         <v>28</v>
       </c>
@@ -20650,7 +20651,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A353" s="21" t="s">
         <v>28</v>
       </c>
@@ -20673,7 +20674,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A354" s="21" t="s">
         <v>29</v>
       </c>
@@ -20696,7 +20697,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A355" s="21" t="s">
         <v>29</v>
       </c>
@@ -20719,7 +20720,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A356" s="21" t="s">
         <v>29</v>
       </c>
@@ -20742,7 +20743,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A357" s="21" t="s">
         <v>29</v>
       </c>
@@ -20765,7 +20766,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A358" s="21" t="s">
         <v>29</v>
       </c>
@@ -20788,7 +20789,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A359" s="21" t="s">
         <v>29</v>
       </c>
@@ -20811,7 +20812,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A360" s="21" t="s">
         <v>29</v>
       </c>
@@ -20834,7 +20835,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A361" s="21" t="s">
         <v>29</v>
       </c>
@@ -20857,7 +20858,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A362" s="21" t="s">
         <v>29</v>
       </c>
@@ -20880,7 +20881,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A363" s="21" t="s">
         <v>29</v>
       </c>
@@ -20903,7 +20904,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A364" s="21" t="s">
         <v>29</v>
       </c>
@@ -20926,7 +20927,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A365" s="21" t="s">
         <v>29</v>
       </c>
@@ -20949,7 +20950,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A366" s="21" t="s">
         <v>29</v>
       </c>
@@ -20972,7 +20973,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A367" s="21" t="s">
         <v>29</v>
       </c>
@@ -20995,7 +20996,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A368" s="21" t="s">
         <v>29</v>
       </c>
@@ -21018,7 +21019,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A369" s="21" t="s">
         <v>29</v>
       </c>
@@ -21041,7 +21042,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A370" s="21" t="s">
         <v>29</v>
       </c>
@@ -21064,7 +21065,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A371" s="21" t="s">
         <v>29</v>
       </c>
@@ -21087,7 +21088,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A372" s="21" t="s">
         <v>29</v>
       </c>
@@ -21110,7 +21111,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A373" s="21" t="s">
         <v>29</v>
       </c>
@@ -21133,7 +21134,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A374" s="21" t="s">
         <v>29</v>
       </c>
@@ -21156,7 +21157,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A375" s="21" t="s">
         <v>29</v>
       </c>
@@ -21179,7 +21180,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A376" s="21" t="s">
         <v>29</v>
       </c>
@@ -21202,7 +21203,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A377" s="21" t="s">
         <v>29</v>
       </c>
@@ -21225,7 +21226,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A378" s="21" t="s">
         <v>29</v>
       </c>
@@ -21248,7 +21249,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A379" s="21" t="s">
         <v>29</v>
       </c>
@@ -21271,7 +21272,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A380" s="21" t="s">
         <v>29</v>
       </c>
@@ -21294,7 +21295,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A381" s="21" t="s">
         <v>29</v>
       </c>
@@ -21317,7 +21318,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A382" s="21" t="s">
         <v>29</v>
       </c>
@@ -21340,7 +21341,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A383" s="21" t="s">
         <v>29</v>
       </c>
@@ -21363,7 +21364,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A384" s="21" t="s">
         <v>29</v>
       </c>
@@ -21386,7 +21387,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A385" s="21" t="s">
         <v>29</v>
       </c>
@@ -21409,7 +21410,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A386" s="21" t="s">
         <v>30</v>
       </c>
@@ -21432,7 +21433,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A387" s="21" t="s">
         <v>30</v>
       </c>
@@ -21455,7 +21456,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A388" s="21" t="s">
         <v>30</v>
       </c>
@@ -21478,7 +21479,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A389" s="21" t="s">
         <v>30</v>
       </c>
@@ -21501,7 +21502,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A390" s="21" t="s">
         <v>30</v>
       </c>
@@ -21524,7 +21525,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A391" s="21" t="s">
         <v>30</v>
       </c>
@@ -21547,7 +21548,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A392" s="21" t="s">
         <v>30</v>
       </c>
@@ -21570,7 +21571,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A393" s="21" t="s">
         <v>30</v>
       </c>
@@ -21593,7 +21594,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A394" s="21" t="s">
         <v>30</v>
       </c>
@@ -21616,7 +21617,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A395" s="21" t="s">
         <v>30</v>
       </c>
@@ -21639,7 +21640,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A396" s="21" t="s">
         <v>30</v>
       </c>
@@ -21662,7 +21663,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A397" s="21" t="s">
         <v>30</v>
       </c>
@@ -21685,7 +21686,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A398" s="21" t="s">
         <v>30</v>
       </c>
@@ -21708,7 +21709,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A399" s="21" t="s">
         <v>30</v>
       </c>
@@ -21731,7 +21732,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A400" s="21" t="s">
         <v>30</v>
       </c>
@@ -21754,7 +21755,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A401" s="21" t="s">
         <v>30</v>
       </c>
@@ -21777,7 +21778,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A402" s="21" t="s">
         <v>30</v>
       </c>
@@ -21800,7 +21801,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A403" s="21" t="s">
         <v>30</v>
       </c>
@@ -21823,7 +21824,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A404" s="21" t="s">
         <v>30</v>
       </c>
@@ -21846,7 +21847,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A405" s="21" t="s">
         <v>30</v>
       </c>
@@ -21869,7 +21870,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A406" s="21" t="s">
         <v>30</v>
       </c>
@@ -21892,7 +21893,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A407" s="21" t="s">
         <v>30</v>
       </c>
@@ -21915,7 +21916,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A408" s="21" t="s">
         <v>30</v>
       </c>
@@ -21938,7 +21939,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A409" s="21" t="s">
         <v>30</v>
       </c>
@@ -21961,7 +21962,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A410" s="21" t="s">
         <v>30</v>
       </c>
@@ -21984,7 +21985,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A411" s="21" t="s">
         <v>30</v>
       </c>
@@ -22007,7 +22008,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A412" s="21" t="s">
         <v>30</v>
       </c>
@@ -22030,7 +22031,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A413" s="21" t="s">
         <v>30</v>
       </c>
@@ -22053,7 +22054,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A414" s="21" t="s">
         <v>30</v>
       </c>
@@ -22076,7 +22077,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A415" s="21" t="s">
         <v>30</v>
       </c>
@@ -22099,7 +22100,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A416" s="21" t="s">
         <v>30</v>
       </c>
@@ -22122,7 +22123,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A417" s="21" t="s">
         <v>30</v>
       </c>
@@ -22145,7 +22146,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A418" s="21" t="s">
         <v>31</v>
       </c>
@@ -22168,7 +22169,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A419" s="21" t="s">
         <v>31</v>
       </c>
@@ -22191,7 +22192,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A420" s="21" t="s">
         <v>31</v>
       </c>
@@ -22214,7 +22215,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A421" s="21" t="s">
         <v>31</v>
       </c>
@@ -22237,7 +22238,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A422" s="21" t="s">
         <v>31</v>
       </c>
@@ -22260,7 +22261,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A423" s="21" t="s">
         <v>31</v>
       </c>
@@ -22283,7 +22284,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A424" s="21" t="s">
         <v>31</v>
       </c>
@@ -22306,7 +22307,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A425" s="21" t="s">
         <v>31</v>
       </c>
@@ -22329,7 +22330,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A426" s="21" t="s">
         <v>31</v>
       </c>
@@ -22352,7 +22353,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A427" s="21" t="s">
         <v>31</v>
       </c>
@@ -22375,7 +22376,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A428" s="21" t="s">
         <v>31</v>
       </c>
@@ -22398,7 +22399,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A429" s="21" t="s">
         <v>31</v>
       </c>
@@ -22421,7 +22422,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A430" s="21" t="s">
         <v>31</v>
       </c>
@@ -22444,7 +22445,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A431" s="21" t="s">
         <v>31</v>
       </c>
@@ -22467,7 +22468,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A432" s="21" t="s">
         <v>31</v>
       </c>
@@ -22490,7 +22491,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A433" s="21" t="s">
         <v>31</v>
       </c>
@@ -22513,7 +22514,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A434" s="21" t="s">
         <v>31</v>
       </c>
@@ -22536,7 +22537,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A435" s="21" t="s">
         <v>31</v>
       </c>
@@ -22559,7 +22560,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A436" s="21" t="s">
         <v>31</v>
       </c>
@@ -22582,7 +22583,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A437" s="21" t="s">
         <v>31</v>
       </c>
@@ -22605,7 +22606,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A438" s="21" t="s">
         <v>31</v>
       </c>
@@ -22628,7 +22629,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A439" s="21" t="s">
         <v>31</v>
       </c>
@@ -22651,7 +22652,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A440" s="21" t="s">
         <v>31</v>
       </c>
@@ -22674,7 +22675,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A441" s="21" t="s">
         <v>31</v>
       </c>
@@ -22697,7 +22698,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A442" s="21" t="s">
         <v>31</v>
       </c>
@@ -22720,7 +22721,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A443" s="21" t="s">
         <v>31</v>
       </c>
@@ -22743,7 +22744,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A444" s="21" t="s">
         <v>31</v>
       </c>
@@ -22766,7 +22767,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A445" s="21" t="s">
         <v>31</v>
       </c>
@@ -22789,7 +22790,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A446" s="21" t="s">
         <v>31</v>
       </c>
@@ -22812,7 +22813,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A447" s="21" t="s">
         <v>31</v>
       </c>
@@ -22835,7 +22836,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A448" s="21" t="s">
         <v>31</v>
       </c>
@@ -22858,7 +22859,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A449" s="21" t="s">
         <v>31</v>
       </c>
@@ -22881,7 +22882,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A450" s="21" t="s">
         <v>32</v>
       </c>
@@ -22904,7 +22905,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A451" s="21" t="s">
         <v>32</v>
       </c>
@@ -22927,7 +22928,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A452" s="21" t="s">
         <v>32</v>
       </c>
@@ -22950,7 +22951,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A453" s="21" t="s">
         <v>32</v>
       </c>
@@ -22973,7 +22974,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A454" s="21" t="s">
         <v>32</v>
       </c>
@@ -22996,7 +22997,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A455" s="21" t="s">
         <v>32</v>
       </c>
@@ -23019,7 +23020,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A456" s="21" t="s">
         <v>32</v>
       </c>
@@ -23042,7 +23043,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A457" s="21" t="s">
         <v>32</v>
       </c>
@@ -23065,7 +23066,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A458" s="21" t="s">
         <v>32</v>
       </c>
@@ -23088,7 +23089,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A459" s="21" t="s">
         <v>32</v>
       </c>
@@ -23111,7 +23112,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A460" s="21" t="s">
         <v>32</v>
       </c>
@@ -23134,7 +23135,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A461" s="21" t="s">
         <v>32</v>
       </c>
@@ -23157,7 +23158,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A462" s="21" t="s">
         <v>32</v>
       </c>
@@ -23180,7 +23181,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A463" s="21" t="s">
         <v>32</v>
       </c>
@@ -23203,7 +23204,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A464" s="21" t="s">
         <v>32</v>
       </c>
@@ -23226,7 +23227,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A465" s="21" t="s">
         <v>32</v>
       </c>
@@ -23249,7 +23250,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A466" s="21" t="s">
         <v>32</v>
       </c>
@@ -23272,7 +23273,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A467" s="21" t="s">
         <v>32</v>
       </c>
@@ -23295,7 +23296,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A468" s="21" t="s">
         <v>32</v>
       </c>
@@ -23318,7 +23319,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A469" s="21" t="s">
         <v>32</v>
       </c>
@@ -23341,7 +23342,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A470" s="21" t="s">
         <v>32</v>
       </c>
@@ -23364,7 +23365,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A471" s="21" t="s">
         <v>32</v>
       </c>
@@ -23387,7 +23388,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A472" s="21" t="s">
         <v>32</v>
       </c>
@@ -23410,7 +23411,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A473" s="21" t="s">
         <v>32</v>
       </c>
@@ -23433,7 +23434,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A474" s="21" t="s">
         <v>32</v>
       </c>
@@ -23456,7 +23457,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A475" s="21" t="s">
         <v>32</v>
       </c>
@@ -23479,7 +23480,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A476" s="21" t="s">
         <v>32</v>
       </c>
@@ -23502,7 +23503,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A477" s="21" t="s">
         <v>32</v>
       </c>
@@ -23525,7 +23526,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A478" s="21" t="s">
         <v>32</v>
       </c>
@@ -23548,7 +23549,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A479" s="21" t="s">
         <v>32</v>
       </c>
@@ -23571,7 +23572,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A480" s="21" t="s">
         <v>32</v>
       </c>
@@ -23594,7 +23595,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A481" s="21" t="s">
         <v>32</v>
       </c>

--- a/vrp_results_tracker.xlsx
+++ b/vrp_results_tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdrex\PycharmProjects\wilib_vrp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A091B007-5D4D-48C9-85A5-7CEE10C4B652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BC81BF-094A-4EE4-8BD2-88E0CBEAD37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="870" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="870" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="full_model_set" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4205" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4272" uniqueCount="690">
   <si>
     <t>shift</t>
   </si>
@@ -2286,10 +2286,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4675,11 +4675,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6328,7 +6328,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6886,50 +6886,50 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="I1" s="35" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="J2" s="35" t="s">
+      <c r="G2" s="36"/>
+      <c r="J2" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35" t="s">
+      <c r="K2" s="36"/>
+      <c r="L2" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35" t="s">
+      <c r="M2" s="36"/>
+      <c r="N2" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="O2" s="35"/>
+      <c r="O2" s="36"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
@@ -7161,50 +7161,50 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="I8" s="35" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="I8" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35" t="s">
+      <c r="C9" s="36"/>
+      <c r="D9" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35" t="s">
+      <c r="E9" s="36"/>
+      <c r="F9" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="J9" s="35" t="s">
+      <c r="G9" s="36"/>
+      <c r="J9" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35" t="s">
+      <c r="K9" s="36"/>
+      <c r="L9" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35" t="s">
+      <c r="M9" s="36"/>
+      <c r="N9" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="O9" s="35"/>
+      <c r="O9" s="36"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
@@ -7436,50 +7436,50 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="I15" s="35" t="s">
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="I15" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35" t="s">
+      <c r="C16" s="36"/>
+      <c r="D16" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35" t="s">
+      <c r="E16" s="36"/>
+      <c r="F16" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="G16" s="35"/>
-      <c r="J16" s="35" t="s">
+      <c r="G16" s="36"/>
+      <c r="J16" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35" t="s">
+      <c r="K16" s="36"/>
+      <c r="L16" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35" t="s">
+      <c r="M16" s="36"/>
+      <c r="N16" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="O16" s="35"/>
+      <c r="O16" s="36"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
@@ -7711,50 +7711,50 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="I22" s="35" t="s">
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="I22" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35" t="s">
+      <c r="C23" s="36"/>
+      <c r="D23" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35" t="s">
+      <c r="E23" s="36"/>
+      <c r="F23" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="G23" s="35"/>
-      <c r="J23" s="35" t="s">
+      <c r="G23" s="36"/>
+      <c r="J23" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35" t="s">
+      <c r="K23" s="36"/>
+      <c r="L23" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35" t="s">
+      <c r="M23" s="36"/>
+      <c r="N23" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="O23" s="35"/>
+      <c r="O23" s="36"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
@@ -7987,50 +7987,50 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="I29" s="35" t="s">
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="I29" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35" t="s">
+      <c r="C30" s="36"/>
+      <c r="D30" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35" t="s">
+      <c r="E30" s="36"/>
+      <c r="F30" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="G30" s="35"/>
-      <c r="J30" s="35" t="s">
+      <c r="G30" s="36"/>
+      <c r="J30" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35" t="s">
+      <c r="K30" s="36"/>
+      <c r="L30" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35" t="s">
+      <c r="M30" s="36"/>
+      <c r="N30" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="O30" s="35"/>
+      <c r="O30" s="36"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
@@ -8263,50 +8263,50 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="I36" s="35" t="s">
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="I36" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="35"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35" t="s">
+      <c r="C37" s="36"/>
+      <c r="D37" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35" t="s">
+      <c r="E37" s="36"/>
+      <c r="F37" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="G37" s="35"/>
-      <c r="J37" s="35" t="s">
+      <c r="G37" s="36"/>
+      <c r="J37" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35" t="s">
+      <c r="K37" s="36"/>
+      <c r="L37" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35" t="s">
+      <c r="M37" s="36"/>
+      <c r="N37" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="O37" s="35"/>
+      <c r="O37" s="36"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
@@ -8539,50 +8539,50 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A43" s="35" t="s">
+      <c r="A43" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="I43" s="35" t="s">
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="I43" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="35"/>
-      <c r="N43" s="35"/>
-      <c r="O43" s="35"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B44" s="35" t="s">
+      <c r="B44" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35" t="s">
+      <c r="C44" s="36"/>
+      <c r="D44" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35" t="s">
+      <c r="E44" s="36"/>
+      <c r="F44" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="G44" s="35"/>
-      <c r="J44" s="35" t="s">
+      <c r="G44" s="36"/>
+      <c r="J44" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="K44" s="35"/>
-      <c r="L44" s="35" t="s">
+      <c r="K44" s="36"/>
+      <c r="L44" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="M44" s="35"/>
-      <c r="N44" s="35" t="s">
+      <c r="M44" s="36"/>
+      <c r="N44" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="O44" s="35"/>
+      <c r="O44" s="36"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
@@ -8816,41 +8816,41 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A50" s="36"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="I50" s="35" t="s">
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="I50" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="J50" s="35"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="35"/>
-      <c r="N50" s="35"/>
-      <c r="O50" s="35"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="36"/>
+      <c r="N50" s="36"/>
+      <c r="O50" s="36"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="J51" s="35" t="s">
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="J51" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35" t="s">
+      <c r="K51" s="36"/>
+      <c r="L51" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="M51" s="35"/>
-      <c r="N51" s="35" t="s">
+      <c r="M51" s="36"/>
+      <c r="N51" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="O51" s="35"/>
+      <c r="O51" s="36"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="J52" t="s">
@@ -8981,6 +8981,62 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="I8:O8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="I15:O15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="I22:O22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="I29:O29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="I36:O36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="I43:O43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
     <mergeCell ref="A50:F50"/>
     <mergeCell ref="I50:O50"/>
     <mergeCell ref="B51:C51"/>
@@ -8989,62 +9045,6 @@
     <mergeCell ref="J51:K51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="I43:O43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="I36:O36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="I29:O29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="I22:O22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="I15:O15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="I8:O8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="L32:L35">
     <cfRule type="colorScale" priority="60">
@@ -10495,8 +10495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:T481"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G95" sqref="G95"/>
+    <sheetView tabSelected="1" topLeftCell="B124" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H130" sqref="H130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14488,11 +14488,21 @@
       <c r="G98" s="32" t="s">
         <v>330</v>
       </c>
-      <c r="H98" s="32"/>
-      <c r="I98" s="32"/>
-      <c r="J98" s="32"/>
-      <c r="K98" s="32"/>
-      <c r="L98" s="32"/>
+      <c r="H98" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I98" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J98" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K98" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L98" s="24" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" s="21" t="s">
@@ -14516,11 +14526,21 @@
       <c r="G99" s="23" t="s">
         <v>299</v>
       </c>
-      <c r="H99" s="23"/>
-      <c r="I99" s="23"/>
-      <c r="J99" s="23"/>
-      <c r="K99" s="23"/>
-      <c r="L99" s="23"/>
+      <c r="H99" s="24">
+        <v>6</v>
+      </c>
+      <c r="I99" s="24">
+        <v>1953</v>
+      </c>
+      <c r="J99" s="24">
+        <v>1011.56</v>
+      </c>
+      <c r="K99" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L99" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" s="21" t="s">
@@ -14544,11 +14564,21 @@
       <c r="G100" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="H100" s="23"/>
-      <c r="I100" s="23"/>
-      <c r="J100" s="23"/>
-      <c r="K100" s="23"/>
-      <c r="L100" s="23"/>
+      <c r="H100" s="24">
+        <v>6</v>
+      </c>
+      <c r="I100" s="24">
+        <v>1980</v>
+      </c>
+      <c r="J100" s="24">
+        <v>1039.4000000000001</v>
+      </c>
+      <c r="K100" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L100" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="29" t="s">
@@ -14572,11 +14602,21 @@
       <c r="G101" s="27" t="s">
         <v>301</v>
       </c>
-      <c r="H101" s="27"/>
-      <c r="I101" s="27"/>
-      <c r="J101" s="27"/>
-      <c r="K101" s="27"/>
-      <c r="L101" s="27"/>
+      <c r="H101" s="27">
+        <v>6</v>
+      </c>
+      <c r="I101" s="27">
+        <v>1946</v>
+      </c>
+      <c r="J101" s="27">
+        <v>997.49</v>
+      </c>
+      <c r="K101" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="L101" s="27" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" s="34" t="s">
@@ -14600,11 +14640,21 @@
       <c r="G102" s="32" t="s">
         <v>302</v>
       </c>
-      <c r="H102" s="32"/>
-      <c r="I102" s="32"/>
-      <c r="J102" s="32"/>
-      <c r="K102" s="32"/>
-      <c r="L102" s="32"/>
+      <c r="H102" s="32">
+        <v>5</v>
+      </c>
+      <c r="I102" s="32">
+        <v>2228</v>
+      </c>
+      <c r="J102" s="32">
+        <v>1104.3900000000001</v>
+      </c>
+      <c r="K102" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L102" s="32" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" s="21" t="s">
@@ -14628,11 +14678,21 @@
       <c r="G103" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="H103" s="23"/>
-      <c r="I103" s="23"/>
-      <c r="J103" s="23"/>
-      <c r="K103" s="23"/>
-      <c r="L103" s="23"/>
+      <c r="H103" s="24">
+        <v>5</v>
+      </c>
+      <c r="I103" s="24">
+        <v>1916</v>
+      </c>
+      <c r="J103" s="24">
+        <v>811.71</v>
+      </c>
+      <c r="K103" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L103" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" s="21" t="s">
@@ -14656,11 +14716,21 @@
       <c r="G104" s="23" t="s">
         <v>304</v>
       </c>
-      <c r="H104" s="23"/>
-      <c r="I104" s="23"/>
-      <c r="J104" s="23"/>
-      <c r="K104" s="23"/>
-      <c r="L104" s="23"/>
+      <c r="H104" s="24">
+        <v>6</v>
+      </c>
+      <c r="I104" s="24">
+        <v>2023</v>
+      </c>
+      <c r="J104" s="24">
+        <v>1048.6199999999999</v>
+      </c>
+      <c r="K104" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L104" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" s="29" t="s">
@@ -14684,11 +14754,21 @@
       <c r="G105" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="H105" s="27"/>
-      <c r="I105" s="27"/>
-      <c r="J105" s="27"/>
-      <c r="K105" s="27"/>
-      <c r="L105" s="27"/>
+      <c r="H105" s="27">
+        <v>5</v>
+      </c>
+      <c r="I105" s="27">
+        <v>2249</v>
+      </c>
+      <c r="J105" s="27">
+        <v>1105.3900000000001</v>
+      </c>
+      <c r="K105" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="L105" s="27" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" s="34" t="s">
@@ -14712,11 +14792,21 @@
       <c r="G106" s="32" t="s">
         <v>306</v>
       </c>
-      <c r="H106" s="32"/>
-      <c r="I106" s="32"/>
-      <c r="J106" s="32"/>
-      <c r="K106" s="32"/>
-      <c r="L106" s="32"/>
+      <c r="H106" s="32">
+        <v>5</v>
+      </c>
+      <c r="I106" s="32">
+        <v>2024</v>
+      </c>
+      <c r="J106" s="32">
+        <v>946.12</v>
+      </c>
+      <c r="K106" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L106" s="32" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" s="21" t="s">
@@ -14740,11 +14830,21 @@
       <c r="G107" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="H107" s="23"/>
-      <c r="I107" s="23"/>
-      <c r="J107" s="23"/>
-      <c r="K107" s="23"/>
-      <c r="L107" s="23"/>
+      <c r="H107" s="24">
+        <v>6</v>
+      </c>
+      <c r="I107" s="24">
+        <v>1942</v>
+      </c>
+      <c r="J107" s="24">
+        <v>999.83</v>
+      </c>
+      <c r="K107" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L107" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" s="21" t="s">
@@ -14768,11 +14868,21 @@
       <c r="G108" s="23" t="s">
         <v>308</v>
       </c>
-      <c r="H108" s="23"/>
-      <c r="I108" s="23"/>
-      <c r="J108" s="23"/>
-      <c r="K108" s="23"/>
-      <c r="L108" s="23"/>
+      <c r="H108" s="24">
+        <v>6</v>
+      </c>
+      <c r="I108" s="24">
+        <v>1973</v>
+      </c>
+      <c r="J108" s="24">
+        <v>1027.52</v>
+      </c>
+      <c r="K108" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L108" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" s="29" t="s">
@@ -14796,11 +14906,21 @@
       <c r="G109" s="27" t="s">
         <v>309</v>
       </c>
-      <c r="H109" s="27"/>
-      <c r="I109" s="27"/>
-      <c r="J109" s="27"/>
-      <c r="K109" s="27"/>
-      <c r="L109" s="27"/>
+      <c r="H109" s="27">
+        <v>6</v>
+      </c>
+      <c r="I109" s="27">
+        <v>1962</v>
+      </c>
+      <c r="J109" s="27">
+        <v>1002.87</v>
+      </c>
+      <c r="K109" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="L109" s="27" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" s="34" t="s">
@@ -14824,11 +14944,21 @@
       <c r="G110" s="32" t="s">
         <v>310</v>
       </c>
-      <c r="H110" s="32"/>
-      <c r="I110" s="32"/>
-      <c r="J110" s="32"/>
-      <c r="K110" s="32"/>
-      <c r="L110" s="32"/>
+      <c r="H110" s="32">
+        <v>4</v>
+      </c>
+      <c r="I110" s="32">
+        <v>1934</v>
+      </c>
+      <c r="J110" s="32">
+        <v>903.18</v>
+      </c>
+      <c r="K110" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L110" s="32" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" s="21" t="s">
@@ -14852,11 +14982,21 @@
       <c r="G111" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="H111" s="23"/>
-      <c r="I111" s="23"/>
-      <c r="J111" s="23"/>
-      <c r="K111" s="23"/>
-      <c r="L111" s="23"/>
+      <c r="H111" s="24">
+        <v>4</v>
+      </c>
+      <c r="I111" s="24">
+        <v>1891</v>
+      </c>
+      <c r="J111" s="24">
+        <v>868.49</v>
+      </c>
+      <c r="K111" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L111" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" s="21" t="s">
@@ -14880,11 +15020,21 @@
       <c r="G112" s="23" t="s">
         <v>312</v>
       </c>
-      <c r="H112" s="23"/>
-      <c r="I112" s="23"/>
-      <c r="J112" s="23"/>
-      <c r="K112" s="23"/>
-      <c r="L112" s="23"/>
+      <c r="H112" s="24">
+        <v>4</v>
+      </c>
+      <c r="I112" s="24">
+        <v>2110</v>
+      </c>
+      <c r="J112" s="24">
+        <v>1023.16</v>
+      </c>
+      <c r="K112" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L112" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" s="29" t="s">
@@ -14908,11 +15058,21 @@
       <c r="G113" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="H113" s="27"/>
-      <c r="I113" s="27"/>
-      <c r="J113" s="27"/>
-      <c r="K113" s="27"/>
-      <c r="L113" s="27"/>
+      <c r="H113" s="27">
+        <v>4</v>
+      </c>
+      <c r="I113" s="27">
+        <v>1935</v>
+      </c>
+      <c r="J113" s="27">
+        <v>900.72</v>
+      </c>
+      <c r="K113" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="L113" s="27" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" s="34" t="s">
@@ -14936,11 +15096,21 @@
       <c r="G114" s="32" t="s">
         <v>314</v>
       </c>
-      <c r="H114" s="32"/>
-      <c r="I114" s="32"/>
-      <c r="J114" s="32"/>
-      <c r="K114" s="32"/>
-      <c r="L114" s="32"/>
+      <c r="H114" s="32">
+        <v>5</v>
+      </c>
+      <c r="I114" s="32">
+        <v>1982</v>
+      </c>
+      <c r="J114" s="32">
+        <v>941.06</v>
+      </c>
+      <c r="K114" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L114" s="32" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" s="21" t="s">
@@ -14964,11 +15134,21 @@
       <c r="G115" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="H115" s="23"/>
-      <c r="I115" s="23"/>
-      <c r="J115" s="23"/>
-      <c r="K115" s="23"/>
-      <c r="L115" s="23"/>
+      <c r="H115" s="24">
+        <v>6</v>
+      </c>
+      <c r="I115" s="24">
+        <v>1942</v>
+      </c>
+      <c r="J115" s="24">
+        <v>999.83</v>
+      </c>
+      <c r="K115" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L115" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" s="21" t="s">
@@ -14992,11 +15172,21 @@
       <c r="G116" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="H116" s="23"/>
-      <c r="I116" s="23"/>
-      <c r="J116" s="23"/>
-      <c r="K116" s="23"/>
-      <c r="L116" s="23"/>
+      <c r="H116" s="24">
+        <v>5</v>
+      </c>
+      <c r="I116" s="24">
+        <v>2000</v>
+      </c>
+      <c r="J116" s="24">
+        <v>929.49</v>
+      </c>
+      <c r="K116" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L116" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" s="29" t="s">
@@ -15020,11 +15210,21 @@
       <c r="G117" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="H117" s="27"/>
-      <c r="I117" s="27"/>
-      <c r="J117" s="27"/>
-      <c r="K117" s="27"/>
-      <c r="L117" s="27"/>
+      <c r="H117" s="27">
+        <v>5</v>
+      </c>
+      <c r="I117" s="27">
+        <v>2012</v>
+      </c>
+      <c r="J117" s="27">
+        <v>959.92</v>
+      </c>
+      <c r="K117" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="L117" s="27" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" s="34" t="s">
@@ -15048,11 +15248,21 @@
       <c r="G118" s="32" t="s">
         <v>318</v>
       </c>
-      <c r="H118" s="32"/>
-      <c r="I118" s="32"/>
-      <c r="J118" s="32"/>
-      <c r="K118" s="32"/>
-      <c r="L118" s="32"/>
+      <c r="H118" s="32">
+        <v>4</v>
+      </c>
+      <c r="I118" s="32">
+        <v>1916</v>
+      </c>
+      <c r="J118" s="32">
+        <v>881.17</v>
+      </c>
+      <c r="K118" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L118" s="32" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" s="21" t="s">
@@ -15076,11 +15286,21 @@
       <c r="G119" s="23" t="s">
         <v>319</v>
       </c>
-      <c r="H119" s="23"/>
-      <c r="I119" s="23"/>
-      <c r="J119" s="23"/>
-      <c r="K119" s="23"/>
-      <c r="L119" s="23"/>
+      <c r="H119" s="24">
+        <v>4</v>
+      </c>
+      <c r="I119" s="24">
+        <v>1935</v>
+      </c>
+      <c r="J119" s="24">
+        <v>882.19</v>
+      </c>
+      <c r="K119" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L119" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" s="21" t="s">
@@ -15104,11 +15324,21 @@
       <c r="G120" s="23" t="s">
         <v>320</v>
       </c>
-      <c r="H120" s="23"/>
-      <c r="I120" s="23"/>
-      <c r="J120" s="23"/>
-      <c r="K120" s="23"/>
-      <c r="L120" s="23"/>
+      <c r="H120" s="24">
+        <v>4</v>
+      </c>
+      <c r="I120" s="24">
+        <v>1995</v>
+      </c>
+      <c r="J120" s="24">
+        <v>972.51</v>
+      </c>
+      <c r="K120" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L120" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" s="29" t="s">
@@ -15132,11 +15362,21 @@
       <c r="G121" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="H121" s="27"/>
-      <c r="I121" s="27"/>
-      <c r="J121" s="27"/>
-      <c r="K121" s="27"/>
-      <c r="L121" s="27"/>
+      <c r="H121" s="27">
+        <v>4</v>
+      </c>
+      <c r="I121" s="27">
+        <v>2040</v>
+      </c>
+      <c r="J121" s="27">
+        <v>951.6</v>
+      </c>
+      <c r="K121" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="L121" s="27" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" s="34" t="s">
@@ -15160,11 +15400,21 @@
       <c r="G122" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="H122" s="32"/>
-      <c r="I122" s="32"/>
-      <c r="J122" s="32"/>
-      <c r="K122" s="32"/>
-      <c r="L122" s="32"/>
+      <c r="H122" s="32">
+        <v>5</v>
+      </c>
+      <c r="I122" s="32">
+        <v>1982</v>
+      </c>
+      <c r="J122" s="32">
+        <v>941.06</v>
+      </c>
+      <c r="K122" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L122" s="32" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" s="21" t="s">
@@ -15188,11 +15438,21 @@
       <c r="G123" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="H123" s="23"/>
-      <c r="I123" s="23"/>
-      <c r="J123" s="23"/>
-      <c r="K123" s="23"/>
-      <c r="L123" s="23"/>
+      <c r="H123" s="24">
+        <v>6</v>
+      </c>
+      <c r="I123" s="24">
+        <v>1942</v>
+      </c>
+      <c r="J123" s="24">
+        <v>999.83</v>
+      </c>
+      <c r="K123" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L123" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" s="21" t="s">
@@ -15216,11 +15476,21 @@
       <c r="G124" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="H124" s="23"/>
-      <c r="I124" s="23"/>
-      <c r="J124" s="23"/>
-      <c r="K124" s="23"/>
-      <c r="L124" s="23"/>
+      <c r="H124" s="24">
+        <v>5</v>
+      </c>
+      <c r="I124" s="24">
+        <v>2000</v>
+      </c>
+      <c r="J124" s="24">
+        <v>929.49</v>
+      </c>
+      <c r="K124" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L124" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" s="29" t="s">
@@ -15244,11 +15514,21 @@
       <c r="G125" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="H125" s="27"/>
-      <c r="I125" s="27"/>
-      <c r="J125" s="27"/>
-      <c r="K125" s="27"/>
-      <c r="L125" s="27"/>
+      <c r="H125" s="27">
+        <v>5</v>
+      </c>
+      <c r="I125" s="27">
+        <v>2012</v>
+      </c>
+      <c r="J125" s="27">
+        <v>959.92</v>
+      </c>
+      <c r="K125" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="L125" s="27" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" s="34" t="s">
@@ -15272,11 +15552,21 @@
       <c r="G126" s="32" t="s">
         <v>326</v>
       </c>
-      <c r="H126" s="32"/>
-      <c r="I126" s="32"/>
-      <c r="J126" s="32"/>
-      <c r="K126" s="32"/>
-      <c r="L126" s="32"/>
+      <c r="H126" s="32">
+        <v>4</v>
+      </c>
+      <c r="I126" s="32">
+        <v>1916</v>
+      </c>
+      <c r="J126" s="32">
+        <v>881.17</v>
+      </c>
+      <c r="K126" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L126" s="32" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" s="21" t="s">
@@ -15300,11 +15590,21 @@
       <c r="G127" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="H127" s="23"/>
-      <c r="I127" s="23"/>
-      <c r="J127" s="23"/>
-      <c r="K127" s="23"/>
-      <c r="L127" s="23"/>
+      <c r="H127" s="24">
+        <v>4</v>
+      </c>
+      <c r="I127" s="24">
+        <v>1935</v>
+      </c>
+      <c r="J127" s="24">
+        <v>882.19</v>
+      </c>
+      <c r="K127" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L127" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" s="21" t="s">
@@ -15328,11 +15628,21 @@
       <c r="G128" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="H128" s="23"/>
-      <c r="I128" s="23"/>
-      <c r="J128" s="23"/>
-      <c r="K128" s="23"/>
-      <c r="L128" s="23"/>
+      <c r="H128" s="24">
+        <v>4</v>
+      </c>
+      <c r="I128" s="24">
+        <v>1995</v>
+      </c>
+      <c r="J128" s="24">
+        <v>972.51</v>
+      </c>
+      <c r="K128" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L128" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" s="29" t="s">
@@ -15356,11 +15666,21 @@
       <c r="G129" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="H129" s="27"/>
-      <c r="I129" s="27"/>
-      <c r="J129" s="27"/>
-      <c r="K129" s="27"/>
-      <c r="L129" s="27"/>
+      <c r="H129" s="27">
+        <v>4</v>
+      </c>
+      <c r="I129" s="27">
+        <v>2040</v>
+      </c>
+      <c r="J129" s="27">
+        <v>951.6</v>
+      </c>
+      <c r="K129" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="L129" s="27" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" s="34" t="s">

--- a/vrp_results_tracker.xlsx
+++ b/vrp_results_tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdrex\PycharmProjects\wilib_vrp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BC81BF-094A-4EE4-8BD2-88E0CBEAD37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586EE4AF-AAB3-4410-A7A8-BC7E66BDCB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="870" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4272" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4384" uniqueCount="690">
   <si>
     <t>shift</t>
   </si>
@@ -4676,10 +4676,10 @@
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6328,7 +6328,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10495,8 +10495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:T481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B124" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H130" sqref="H130"/>
+    <sheetView tabSelected="1" topLeftCell="C145" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H162" sqref="H162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15704,11 +15704,21 @@
       <c r="G130" s="32" t="s">
         <v>361</v>
       </c>
-      <c r="H130" s="32"/>
-      <c r="I130" s="32"/>
-      <c r="J130" s="32"/>
-      <c r="K130" s="32"/>
-      <c r="L130" s="32"/>
+      <c r="H130" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="I130" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="J130" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="K130" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L130" s="32" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" s="21" t="s">
@@ -15732,11 +15742,21 @@
       <c r="G131" s="23" t="s">
         <v>362</v>
       </c>
-      <c r="H131" s="23"/>
-      <c r="I131" s="23"/>
-      <c r="J131" s="23"/>
-      <c r="K131" s="23"/>
-      <c r="L131" s="23"/>
+      <c r="H131" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I131" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J131" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K131" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L131" s="24" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" s="21" t="s">
@@ -15760,11 +15780,21 @@
       <c r="G132" s="23" t="s">
         <v>331</v>
       </c>
-      <c r="H132" s="23"/>
-      <c r="I132" s="23"/>
-      <c r="J132" s="23"/>
-      <c r="K132" s="23"/>
-      <c r="L132" s="23"/>
+      <c r="H132" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I132" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J132" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K132" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L132" s="24" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133" s="29" t="s">
@@ -15788,11 +15818,21 @@
       <c r="G133" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="H133" s="27"/>
-      <c r="I133" s="27"/>
-      <c r="J133" s="27"/>
-      <c r="K133" s="27"/>
-      <c r="L133" s="27"/>
+      <c r="H133" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I133" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J133" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K133" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L133" s="24" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" s="34" t="s">
@@ -15816,11 +15856,21 @@
       <c r="G134" s="32" t="s">
         <v>333</v>
       </c>
-      <c r="H134" s="32"/>
-      <c r="I134" s="32"/>
-      <c r="J134" s="32"/>
-      <c r="K134" s="32"/>
-      <c r="L134" s="32"/>
+      <c r="H134" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="I134" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="J134" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="K134" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L134" s="32" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" s="21" t="s">
@@ -15844,11 +15894,21 @@
       <c r="G135" s="23" t="s">
         <v>334</v>
       </c>
-      <c r="H135" s="23"/>
-      <c r="I135" s="23"/>
-      <c r="J135" s="23"/>
-      <c r="K135" s="23"/>
-      <c r="L135" s="23"/>
+      <c r="H135" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I135" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J135" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K135" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L135" s="24" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" s="21" t="s">
@@ -15872,11 +15932,21 @@
       <c r="G136" s="23" t="s">
         <v>335</v>
       </c>
-      <c r="H136" s="23"/>
-      <c r="I136" s="23"/>
-      <c r="J136" s="23"/>
-      <c r="K136" s="23"/>
-      <c r="L136" s="23"/>
+      <c r="H136" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I136" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J136" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K136" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L136" s="24" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137" s="29" t="s">
@@ -15900,11 +15970,21 @@
       <c r="G137" s="27" t="s">
         <v>336</v>
       </c>
-      <c r="H137" s="27"/>
-      <c r="I137" s="27"/>
-      <c r="J137" s="27"/>
-      <c r="K137" s="27"/>
-      <c r="L137" s="27"/>
+      <c r="H137" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I137" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J137" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K137" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L137" s="24" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" s="34" t="s">
@@ -15928,11 +16008,21 @@
       <c r="G138" s="32" t="s">
         <v>337</v>
       </c>
-      <c r="H138" s="32"/>
-      <c r="I138" s="32"/>
-      <c r="J138" s="32"/>
-      <c r="K138" s="32"/>
-      <c r="L138" s="32"/>
+      <c r="H138" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="I138" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="J138" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="K138" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L138" s="32" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" s="21" t="s">
@@ -15956,11 +16046,21 @@
       <c r="G139" s="23" t="s">
         <v>338</v>
       </c>
-      <c r="H139" s="23"/>
-      <c r="I139" s="23"/>
-      <c r="J139" s="23"/>
-      <c r="K139" s="23"/>
-      <c r="L139" s="23"/>
+      <c r="H139" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I139" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J139" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K139" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L139" s="24" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" s="21" t="s">
@@ -15984,11 +16084,21 @@
       <c r="G140" s="23" t="s">
         <v>339</v>
       </c>
-      <c r="H140" s="23"/>
-      <c r="I140" s="23"/>
-      <c r="J140" s="23"/>
-      <c r="K140" s="23"/>
-      <c r="L140" s="23"/>
+      <c r="H140" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I140" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J140" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K140" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L140" s="24" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141" s="29" t="s">
@@ -16012,11 +16122,21 @@
       <c r="G141" s="27" t="s">
         <v>340</v>
       </c>
-      <c r="H141" s="27"/>
-      <c r="I141" s="27"/>
-      <c r="J141" s="27"/>
-      <c r="K141" s="27"/>
-      <c r="L141" s="27"/>
+      <c r="H141" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I141" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J141" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K141" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L141" s="24" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142" s="34" t="s">
@@ -16040,11 +16160,21 @@
       <c r="G142" s="32" t="s">
         <v>341</v>
       </c>
-      <c r="H142" s="32"/>
-      <c r="I142" s="32"/>
-      <c r="J142" s="32"/>
-      <c r="K142" s="32"/>
-      <c r="L142" s="32"/>
+      <c r="H142" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="I142" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="J142" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="K142" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L142" s="32" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143" s="21" t="s">
@@ -16068,11 +16198,21 @@
       <c r="G143" s="23" t="s">
         <v>342</v>
       </c>
-      <c r="H143" s="23"/>
-      <c r="I143" s="23"/>
-      <c r="J143" s="23"/>
-      <c r="K143" s="23"/>
-      <c r="L143" s="23"/>
+      <c r="H143" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I143" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J143" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K143" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L143" s="24" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144" s="21" t="s">
@@ -16096,11 +16236,21 @@
       <c r="G144" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="H144" s="23"/>
-      <c r="I144" s="23"/>
-      <c r="J144" s="23"/>
-      <c r="K144" s="23"/>
-      <c r="L144" s="23"/>
+      <c r="H144" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I144" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J144" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K144" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L144" s="24" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" s="29" t="s">
@@ -16124,11 +16274,21 @@
       <c r="G145" s="27" t="s">
         <v>344</v>
       </c>
-      <c r="H145" s="27"/>
-      <c r="I145" s="27"/>
-      <c r="J145" s="27"/>
-      <c r="K145" s="27"/>
-      <c r="L145" s="27"/>
+      <c r="H145" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I145" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J145" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K145" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L145" s="24" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" s="34" t="s">
@@ -16152,11 +16312,21 @@
       <c r="G146" s="32" t="s">
         <v>345</v>
       </c>
-      <c r="H146" s="32"/>
-      <c r="I146" s="32"/>
-      <c r="J146" s="32"/>
-      <c r="K146" s="32"/>
-      <c r="L146" s="32"/>
+      <c r="H146" s="32">
+        <v>6</v>
+      </c>
+      <c r="I146" s="32">
+        <v>2471</v>
+      </c>
+      <c r="J146" s="32">
+        <v>1087.55</v>
+      </c>
+      <c r="K146" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L146" s="32" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" s="21" t="s">
@@ -16180,11 +16350,21 @@
       <c r="G147" s="23" t="s">
         <v>346</v>
       </c>
-      <c r="H147" s="23"/>
-      <c r="I147" s="23"/>
-      <c r="J147" s="23"/>
-      <c r="K147" s="23"/>
-      <c r="L147" s="23"/>
+      <c r="H147" s="23">
+        <v>6</v>
+      </c>
+      <c r="I147" s="23">
+        <v>2580</v>
+      </c>
+      <c r="J147" s="24">
+        <v>1120.95</v>
+      </c>
+      <c r="K147" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L147" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" s="21" t="s">
@@ -16208,11 +16388,21 @@
       <c r="G148" s="23" t="s">
         <v>347</v>
       </c>
-      <c r="H148" s="23"/>
-      <c r="I148" s="23"/>
-      <c r="J148" s="23"/>
-      <c r="K148" s="23"/>
-      <c r="L148" s="23"/>
+      <c r="H148" s="23">
+        <v>6</v>
+      </c>
+      <c r="I148" s="23">
+        <v>2506</v>
+      </c>
+      <c r="J148" s="24">
+        <v>1088.67</v>
+      </c>
+      <c r="K148" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L148" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" s="29" t="s">
@@ -16236,11 +16426,21 @@
       <c r="G149" s="27" t="s">
         <v>348</v>
       </c>
-      <c r="H149" s="27"/>
-      <c r="I149" s="27"/>
-      <c r="J149" s="27"/>
-      <c r="K149" s="27"/>
-      <c r="L149" s="27"/>
+      <c r="H149" s="27">
+        <v>6</v>
+      </c>
+      <c r="I149" s="27">
+        <v>2534</v>
+      </c>
+      <c r="J149" s="27">
+        <v>1113.17</v>
+      </c>
+      <c r="K149" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="L149" s="27" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" s="34" t="s">
@@ -16264,11 +16464,21 @@
       <c r="G150" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="H150" s="32"/>
-      <c r="I150" s="32"/>
-      <c r="J150" s="32"/>
-      <c r="K150" s="32"/>
-      <c r="L150" s="32"/>
+      <c r="H150" s="32">
+        <v>4</v>
+      </c>
+      <c r="I150" s="32">
+        <v>2353</v>
+      </c>
+      <c r="J150" s="32">
+        <v>1007.94</v>
+      </c>
+      <c r="K150" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L150" s="32" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" s="21" t="s">
@@ -16292,11 +16502,21 @@
       <c r="G151" s="23" t="s">
         <v>350</v>
       </c>
-      <c r="H151" s="23"/>
-      <c r="I151" s="23"/>
-      <c r="J151" s="23"/>
-      <c r="K151" s="23"/>
-      <c r="L151" s="23"/>
+      <c r="H151" s="24">
+        <v>5</v>
+      </c>
+      <c r="I151" s="24">
+        <v>2434</v>
+      </c>
+      <c r="J151" s="24">
+        <v>1009.44</v>
+      </c>
+      <c r="K151" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L151" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" s="21" t="s">
@@ -16320,11 +16540,21 @@
       <c r="G152" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="H152" s="23"/>
-      <c r="I152" s="23"/>
-      <c r="J152" s="23"/>
-      <c r="K152" s="23"/>
-      <c r="L152" s="23"/>
+      <c r="H152" s="24">
+        <v>5</v>
+      </c>
+      <c r="I152" s="24">
+        <v>2547</v>
+      </c>
+      <c r="J152" s="24">
+        <v>1150.0899999999999</v>
+      </c>
+      <c r="K152" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L152" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153" s="29" t="s">
@@ -16348,11 +16578,21 @@
       <c r="G153" s="27" t="s">
         <v>352</v>
       </c>
-      <c r="H153" s="27"/>
-      <c r="I153" s="27"/>
-      <c r="J153" s="27"/>
-      <c r="K153" s="27"/>
-      <c r="L153" s="27"/>
+      <c r="H153" s="27">
+        <v>5</v>
+      </c>
+      <c r="I153" s="27">
+        <v>2562</v>
+      </c>
+      <c r="J153" s="27">
+        <v>1156.81</v>
+      </c>
+      <c r="K153" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="L153" s="27" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154" s="34" t="s">
@@ -16376,11 +16616,21 @@
       <c r="G154" s="32" t="s">
         <v>353</v>
       </c>
-      <c r="H154" s="32"/>
-      <c r="I154" s="32"/>
-      <c r="J154" s="32"/>
-      <c r="K154" s="32"/>
-      <c r="L154" s="32"/>
+      <c r="H154" s="32">
+        <v>6</v>
+      </c>
+      <c r="I154" s="32">
+        <v>2471</v>
+      </c>
+      <c r="J154" s="32">
+        <v>1087.55</v>
+      </c>
+      <c r="K154" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L154" s="32" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155" s="21" t="s">
@@ -16404,11 +16654,21 @@
       <c r="G155" s="23" t="s">
         <v>354</v>
       </c>
-      <c r="H155" s="23"/>
-      <c r="I155" s="23"/>
-      <c r="J155" s="23"/>
-      <c r="K155" s="23"/>
-      <c r="L155" s="23"/>
+      <c r="H155" s="24">
+        <v>6</v>
+      </c>
+      <c r="I155" s="24">
+        <v>2551</v>
+      </c>
+      <c r="J155" s="24">
+        <v>1121.22</v>
+      </c>
+      <c r="K155" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L155" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" s="21" t="s">
@@ -16432,11 +16692,21 @@
       <c r="G156" s="23" t="s">
         <v>355</v>
       </c>
-      <c r="H156" s="23"/>
-      <c r="I156" s="23"/>
-      <c r="J156" s="23"/>
-      <c r="K156" s="23"/>
-      <c r="L156" s="23"/>
+      <c r="H156" s="24">
+        <v>6</v>
+      </c>
+      <c r="I156" s="24">
+        <v>2506</v>
+      </c>
+      <c r="J156" s="24">
+        <v>1088.67</v>
+      </c>
+      <c r="K156" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L156" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157" s="29" t="s">
@@ -16460,11 +16730,21 @@
       <c r="G157" s="27" t="s">
         <v>356</v>
       </c>
-      <c r="H157" s="27"/>
-      <c r="I157" s="27"/>
-      <c r="J157" s="27"/>
-      <c r="K157" s="27"/>
-      <c r="L157" s="27"/>
+      <c r="H157" s="27">
+        <v>6</v>
+      </c>
+      <c r="I157" s="27">
+        <v>2526</v>
+      </c>
+      <c r="J157" s="27">
+        <v>1108.9100000000001</v>
+      </c>
+      <c r="K157" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="L157" s="27" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158" s="34" t="s">
@@ -16488,11 +16768,21 @@
       <c r="G158" s="32" t="s">
         <v>357</v>
       </c>
-      <c r="H158" s="32"/>
-      <c r="I158" s="32"/>
-      <c r="J158" s="32"/>
-      <c r="K158" s="32"/>
-      <c r="L158" s="32"/>
+      <c r="H158" s="32">
+        <v>4</v>
+      </c>
+      <c r="I158" s="32">
+        <v>2353</v>
+      </c>
+      <c r="J158" s="32">
+        <v>1007.94</v>
+      </c>
+      <c r="K158" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L158" s="32" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" s="21" t="s">
@@ -16516,11 +16806,21 @@
       <c r="G159" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="H159" s="23"/>
-      <c r="I159" s="23"/>
-      <c r="J159" s="23"/>
-      <c r="K159" s="23"/>
-      <c r="L159" s="23"/>
+      <c r="H159" s="24">
+        <v>5</v>
+      </c>
+      <c r="I159" s="24">
+        <v>2434</v>
+      </c>
+      <c r="J159" s="24">
+        <v>1009.34</v>
+      </c>
+      <c r="K159" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L159" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160" s="21" t="s">
@@ -16544,11 +16844,21 @@
       <c r="G160" s="23" t="s">
         <v>359</v>
       </c>
-      <c r="H160" s="23"/>
-      <c r="I160" s="23"/>
-      <c r="J160" s="23"/>
-      <c r="K160" s="23"/>
-      <c r="L160" s="23"/>
+      <c r="H160" s="24">
+        <v>5</v>
+      </c>
+      <c r="I160" s="24">
+        <v>2451</v>
+      </c>
+      <c r="J160" s="24">
+        <v>1068.5999999999999</v>
+      </c>
+      <c r="K160" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L160" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" s="29" t="s">
@@ -16572,11 +16882,21 @@
       <c r="G161" s="27" t="s">
         <v>360</v>
       </c>
-      <c r="H161" s="27"/>
-      <c r="I161" s="27"/>
-      <c r="J161" s="27"/>
-      <c r="K161" s="27"/>
-      <c r="L161" s="27"/>
+      <c r="H161" s="27">
+        <v>5</v>
+      </c>
+      <c r="I161" s="27">
+        <v>2530</v>
+      </c>
+      <c r="J161" s="27">
+        <v>1131.48</v>
+      </c>
+      <c r="K161" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="L161" s="27" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162" s="21" t="s">

--- a/vrp_results_tracker.xlsx
+++ b/vrp_results_tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdrex\PycharmProjects\wilib_vrp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FE7B06-46F6-46F3-9539-0817ADF3D987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B24AC37-5631-47D8-A866-09CCB1E3636A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="870" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4478" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4575" uniqueCount="690">
   <si>
     <t>shift</t>
   </si>
@@ -4682,10 +4682,10 @@
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10501,8 +10501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:T481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C181" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H195" sqref="H195"/>
+    <sheetView tabSelected="1" topLeftCell="C206" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H226" sqref="H226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17844,7 +17844,7 @@
       <c r="I186" s="32">
         <v>2947</v>
       </c>
-      <c r="J186" s="32">
+      <c r="J186" s="40">
         <v>1214.71</v>
       </c>
       <c r="K186" s="32" t="s">
@@ -17958,7 +17958,7 @@
       <c r="I189" s="27">
         <v>3026</v>
       </c>
-      <c r="J189" s="27">
+      <c r="J189" s="42">
         <v>1278.57</v>
       </c>
       <c r="K189" s="27" t="s">
@@ -17996,7 +17996,7 @@
       <c r="I190" s="32">
         <v>2835</v>
       </c>
-      <c r="J190" s="32">
+      <c r="J190" s="40">
         <v>1162.78</v>
       </c>
       <c r="K190" s="32" t="s">
@@ -18034,7 +18034,7 @@
       <c r="I191" s="24">
         <v>2971</v>
       </c>
-      <c r="J191" s="24">
+      <c r="J191" s="38">
         <v>1232.73</v>
       </c>
       <c r="K191" s="24" t="s">
@@ -18072,7 +18072,7 @@
       <c r="I192" s="24">
         <v>3088</v>
       </c>
-      <c r="J192" s="24">
+      <c r="J192" s="38">
         <v>1289.8599999999999</v>
       </c>
       <c r="K192" s="24" t="s">
@@ -18110,7 +18110,7 @@
       <c r="I193" s="27">
         <v>2741</v>
       </c>
-      <c r="J193" s="27">
+      <c r="J193" s="42">
         <v>1069.1300000000001</v>
       </c>
       <c r="K193" s="27" t="s">
@@ -18142,11 +18142,21 @@
       <c r="G194" s="32" t="s">
         <v>679</v>
       </c>
-      <c r="H194" s="32"/>
-      <c r="I194" s="32"/>
-      <c r="J194" s="32"/>
-      <c r="K194" s="32"/>
-      <c r="L194" s="32"/>
+      <c r="H194" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="I194" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="J194" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="K194" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L194" s="32" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A195" s="21" t="s">
@@ -18170,11 +18180,21 @@
       <c r="G195" s="23" t="s">
         <v>680</v>
       </c>
-      <c r="H195" s="23"/>
-      <c r="I195" s="23"/>
-      <c r="J195" s="23"/>
-      <c r="K195" s="23"/>
-      <c r="L195" s="23"/>
+      <c r="H195" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I195" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J195" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="K195" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L195" s="24" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A196" s="21" t="s">
@@ -18198,11 +18218,21 @@
       <c r="G196" s="23" t="s">
         <v>681</v>
       </c>
-      <c r="H196" s="23"/>
-      <c r="I196" s="23"/>
-      <c r="J196" s="23"/>
-      <c r="K196" s="23"/>
-      <c r="L196" s="23"/>
+      <c r="H196" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I196" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J196" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="K196" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L196" s="24" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A197" s="21" t="s">
@@ -18226,11 +18256,21 @@
       <c r="G197" s="27" t="s">
         <v>682</v>
       </c>
-      <c r="H197" s="27"/>
-      <c r="I197" s="27"/>
-      <c r="J197" s="27"/>
-      <c r="K197" s="27"/>
-      <c r="L197" s="27"/>
+      <c r="H197" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I197" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J197" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="K197" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L197" s="24" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A198" s="21" t="s">
@@ -18254,11 +18294,21 @@
       <c r="G198" s="32" t="s">
         <v>395</v>
       </c>
-      <c r="H198" s="32"/>
-      <c r="I198" s="32"/>
-      <c r="J198" s="32"/>
-      <c r="K198" s="32"/>
-      <c r="L198" s="32"/>
+      <c r="H198" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="I198" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="J198" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="K198" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L198" s="32" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A199" s="21" t="s">
@@ -18282,11 +18332,21 @@
       <c r="G199" s="23" t="s">
         <v>396</v>
       </c>
-      <c r="H199" s="23"/>
-      <c r="I199" s="23"/>
-      <c r="J199" s="23"/>
-      <c r="K199" s="23"/>
-      <c r="L199" s="23"/>
+      <c r="H199" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I199" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J199" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="K199" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L199" s="24" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A200" s="21" t="s">
@@ -18310,11 +18370,21 @@
       <c r="G200" s="23" t="s">
         <v>397</v>
       </c>
-      <c r="H200" s="23"/>
-      <c r="I200" s="23"/>
-      <c r="J200" s="23"/>
-      <c r="K200" s="23"/>
-      <c r="L200" s="23"/>
+      <c r="H200" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I200" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J200" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="K200" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L200" s="24" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A201" s="21" t="s">
@@ -18338,11 +18408,21 @@
       <c r="G201" s="27" t="s">
         <v>398</v>
       </c>
-      <c r="H201" s="27"/>
-      <c r="I201" s="27"/>
-      <c r="J201" s="27"/>
-      <c r="K201" s="27"/>
-      <c r="L201" s="27"/>
+      <c r="H201" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I201" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J201" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="K201" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L201" s="24" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A202" s="21" t="s">
@@ -18366,11 +18446,21 @@
       <c r="G202" s="32" t="s">
         <v>399</v>
       </c>
-      <c r="H202" s="32"/>
-      <c r="I202" s="32"/>
-      <c r="J202" s="32"/>
-      <c r="K202" s="32"/>
-      <c r="L202" s="32"/>
+      <c r="H202" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="I202" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="J202" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="K202" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L202" s="32" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A203" s="21" t="s">
@@ -18394,11 +18484,21 @@
       <c r="G203" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="H203" s="23"/>
-      <c r="I203" s="23"/>
-      <c r="J203" s="23"/>
-      <c r="K203" s="23"/>
-      <c r="L203" s="23"/>
+      <c r="H203" s="23">
+        <v>12</v>
+      </c>
+      <c r="I203" s="23">
+        <v>2393</v>
+      </c>
+      <c r="J203" s="38">
+        <v>1102.03</v>
+      </c>
+      <c r="K203" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L203" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A204" s="21" t="s">
@@ -18422,11 +18522,21 @@
       <c r="G204" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="H204" s="23"/>
-      <c r="I204" s="23"/>
-      <c r="J204" s="23"/>
-      <c r="K204" s="23"/>
-      <c r="L204" s="23"/>
+      <c r="H204" s="23">
+        <v>12</v>
+      </c>
+      <c r="I204" s="23">
+        <v>2355</v>
+      </c>
+      <c r="J204" s="38">
+        <v>1088.9100000000001</v>
+      </c>
+      <c r="K204" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L204" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A205" s="21" t="s">
@@ -18450,11 +18560,21 @@
       <c r="G205" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="H205" s="27"/>
-      <c r="I205" s="27"/>
-      <c r="J205" s="27"/>
-      <c r="K205" s="27"/>
-      <c r="L205" s="27"/>
+      <c r="H205" s="27">
+        <v>12</v>
+      </c>
+      <c r="I205" s="27">
+        <v>2352</v>
+      </c>
+      <c r="J205" s="42">
+        <v>1067.8399999999999</v>
+      </c>
+      <c r="K205" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="L205" s="27" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A206" s="21" t="s">
@@ -18478,11 +18598,21 @@
       <c r="G206" s="32" t="s">
         <v>403</v>
       </c>
-      <c r="H206" s="32"/>
-      <c r="I206" s="32"/>
-      <c r="J206" s="32"/>
-      <c r="K206" s="32"/>
-      <c r="L206" s="32"/>
+      <c r="H206" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="I206" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="J206" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="K206" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L206" s="32" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A207" s="21" t="s">
@@ -18506,11 +18636,21 @@
       <c r="G207" s="23" t="s">
         <v>404</v>
       </c>
-      <c r="H207" s="23"/>
-      <c r="I207" s="23"/>
-      <c r="J207" s="23"/>
-      <c r="K207" s="23"/>
-      <c r="L207" s="23"/>
+      <c r="H207" s="23">
+        <v>12</v>
+      </c>
+      <c r="I207" s="23">
+        <v>2393</v>
+      </c>
+      <c r="J207" s="38">
+        <v>1102.03</v>
+      </c>
+      <c r="K207" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L207" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A208" s="21" t="s">
@@ -18534,11 +18674,21 @@
       <c r="G208" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="H208" s="23"/>
-      <c r="I208" s="23"/>
-      <c r="J208" s="23"/>
-      <c r="K208" s="23"/>
-      <c r="L208" s="23"/>
+      <c r="H208" s="23">
+        <v>12</v>
+      </c>
+      <c r="I208" s="23">
+        <v>2355</v>
+      </c>
+      <c r="J208" s="38">
+        <v>1088.9100000000001</v>
+      </c>
+      <c r="K208" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L208" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A209" s="21" t="s">
@@ -18562,11 +18712,21 @@
       <c r="G209" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="H209" s="27"/>
-      <c r="I209" s="27"/>
-      <c r="J209" s="27"/>
-      <c r="K209" s="27"/>
-      <c r="L209" s="27"/>
+      <c r="H209" s="27">
+        <v>12</v>
+      </c>
+      <c r="I209" s="27">
+        <v>2352</v>
+      </c>
+      <c r="J209" s="42">
+        <v>1067.8399999999999</v>
+      </c>
+      <c r="K209" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="L209" s="27" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A210" s="21" t="s">
@@ -18590,11 +18750,21 @@
       <c r="G210" s="32" t="s">
         <v>407</v>
       </c>
-      <c r="H210" s="32"/>
-      <c r="I210" s="32"/>
-      <c r="J210" s="32"/>
-      <c r="K210" s="32"/>
-      <c r="L210" s="32"/>
+      <c r="H210" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="I210" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="J210" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="K210" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L210" s="32" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A211" s="21" t="s">
@@ -18618,11 +18788,21 @@
       <c r="G211" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="H211" s="23"/>
-      <c r="I211" s="23"/>
-      <c r="J211" s="23"/>
-      <c r="K211" s="23"/>
-      <c r="L211" s="23"/>
+      <c r="H211" s="24">
+        <v>5</v>
+      </c>
+      <c r="I211" s="24">
+        <v>1993</v>
+      </c>
+      <c r="J211" s="38">
+        <v>736.03</v>
+      </c>
+      <c r="K211" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L211" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A212" s="21" t="s">
@@ -18646,11 +18826,21 @@
       <c r="G212" s="23" t="s">
         <v>409</v>
       </c>
-      <c r="H212" s="23"/>
-      <c r="I212" s="23"/>
-      <c r="J212" s="23"/>
-      <c r="K212" s="23"/>
-      <c r="L212" s="23"/>
+      <c r="H212" s="24">
+        <v>5</v>
+      </c>
+      <c r="I212" s="24">
+        <v>1917</v>
+      </c>
+      <c r="J212" s="38">
+        <v>659.01</v>
+      </c>
+      <c r="K212" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L212" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A213" s="21" t="s">
@@ -18674,11 +18864,21 @@
       <c r="G213" s="27" t="s">
         <v>410</v>
       </c>
-      <c r="H213" s="27"/>
-      <c r="I213" s="27"/>
-      <c r="J213" s="27"/>
-      <c r="K213" s="27"/>
-      <c r="L213" s="27"/>
+      <c r="H213" s="27">
+        <v>5</v>
+      </c>
+      <c r="I213" s="27">
+        <v>2015</v>
+      </c>
+      <c r="J213" s="42">
+        <v>726.21</v>
+      </c>
+      <c r="K213" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="L213" s="27" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A214" s="21" t="s">
@@ -18702,11 +18902,21 @@
       <c r="G214" s="32" t="s">
         <v>411</v>
       </c>
-      <c r="H214" s="32"/>
-      <c r="I214" s="32"/>
-      <c r="J214" s="32"/>
-      <c r="K214" s="32"/>
-      <c r="L214" s="32"/>
+      <c r="H214" s="32">
+        <v>4</v>
+      </c>
+      <c r="I214" s="32">
+        <v>1894</v>
+      </c>
+      <c r="J214" s="40">
+        <v>655.47</v>
+      </c>
+      <c r="K214" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L214" s="32" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A215" s="21" t="s">
@@ -18730,11 +18940,21 @@
       <c r="G215" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="H215" s="23"/>
-      <c r="I215" s="23"/>
-      <c r="J215" s="23"/>
-      <c r="K215" s="23"/>
-      <c r="L215" s="23"/>
+      <c r="H215" s="24">
+        <v>4</v>
+      </c>
+      <c r="I215" s="24">
+        <v>1916</v>
+      </c>
+      <c r="J215" s="38">
+        <v>646.29999999999995</v>
+      </c>
+      <c r="K215" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L215" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A216" s="21" t="s">
@@ -18758,11 +18978,21 @@
       <c r="G216" s="23" t="s">
         <v>413</v>
       </c>
-      <c r="H216" s="23"/>
-      <c r="I216" s="23"/>
-      <c r="J216" s="23"/>
-      <c r="K216" s="23"/>
-      <c r="L216" s="23"/>
+      <c r="H216" s="24">
+        <v>4</v>
+      </c>
+      <c r="I216" s="24">
+        <v>1916</v>
+      </c>
+      <c r="J216" s="41">
+        <v>685.69</v>
+      </c>
+      <c r="K216" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L216" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A217" s="21" t="s">
@@ -18786,11 +19016,21 @@
       <c r="G217" s="27" t="s">
         <v>414</v>
       </c>
-      <c r="H217" s="27"/>
-      <c r="I217" s="27"/>
-      <c r="J217" s="27"/>
-      <c r="K217" s="27"/>
-      <c r="L217" s="27"/>
+      <c r="H217" s="27">
+        <v>4</v>
+      </c>
+      <c r="I217" s="27">
+        <v>1931</v>
+      </c>
+      <c r="J217" s="42">
+        <v>678.42</v>
+      </c>
+      <c r="K217" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="L217" s="27" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A218" s="21" t="s">
@@ -18814,11 +19054,21 @@
       <c r="G218" s="32" t="s">
         <v>415</v>
       </c>
-      <c r="H218" s="32"/>
-      <c r="I218" s="32"/>
-      <c r="J218" s="32"/>
-      <c r="K218" s="32"/>
-      <c r="L218" s="32"/>
+      <c r="H218" s="32">
+        <v>4</v>
+      </c>
+      <c r="I218" s="32">
+        <v>1884</v>
+      </c>
+      <c r="J218" s="40">
+        <v>626.70000000000005</v>
+      </c>
+      <c r="K218" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L218" s="32" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A219" s="21" t="s">
@@ -18842,11 +19092,21 @@
       <c r="G219" s="23" t="s">
         <v>416</v>
       </c>
-      <c r="H219" s="23"/>
-      <c r="I219" s="23"/>
-      <c r="J219" s="23"/>
-      <c r="K219" s="23"/>
-      <c r="L219" s="23"/>
+      <c r="H219" s="24">
+        <v>5</v>
+      </c>
+      <c r="I219" s="24">
+        <v>1980</v>
+      </c>
+      <c r="J219" s="41">
+        <v>697.12</v>
+      </c>
+      <c r="K219" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L219" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A220" s="21" t="s">
@@ -18870,11 +19130,21 @@
       <c r="G220" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="H220" s="23"/>
-      <c r="I220" s="23"/>
-      <c r="J220" s="23"/>
-      <c r="K220" s="23"/>
-      <c r="L220" s="23"/>
+      <c r="H220" s="24">
+        <v>5</v>
+      </c>
+      <c r="I220" s="24">
+        <v>1975</v>
+      </c>
+      <c r="J220" s="41">
+        <v>708.27</v>
+      </c>
+      <c r="K220" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L220" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A221" s="21" t="s">
@@ -18898,11 +19168,21 @@
       <c r="G221" s="27" t="s">
         <v>418</v>
       </c>
-      <c r="H221" s="27"/>
-      <c r="I221" s="27"/>
-      <c r="J221" s="27"/>
-      <c r="K221" s="27"/>
-      <c r="L221" s="27"/>
+      <c r="H221" s="27">
+        <v>5</v>
+      </c>
+      <c r="I221" s="27">
+        <v>2003</v>
+      </c>
+      <c r="J221" s="42">
+        <v>708.46</v>
+      </c>
+      <c r="K221" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="L221" s="27" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A222" s="21" t="s">
@@ -18926,11 +19206,21 @@
       <c r="G222" s="32" t="s">
         <v>419</v>
       </c>
-      <c r="H222" s="32"/>
-      <c r="I222" s="32"/>
-      <c r="J222" s="32"/>
-      <c r="K222" s="32"/>
-      <c r="L222" s="32"/>
+      <c r="H222" s="32">
+        <v>4</v>
+      </c>
+      <c r="I222" s="32">
+        <v>1861</v>
+      </c>
+      <c r="J222" s="40">
+        <v>626.24</v>
+      </c>
+      <c r="K222" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L222" s="32" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A223" s="21" t="s">
@@ -18954,11 +19244,21 @@
       <c r="G223" s="23" t="s">
         <v>420</v>
       </c>
-      <c r="H223" s="23"/>
-      <c r="I223" s="23"/>
-      <c r="J223" s="23"/>
-      <c r="K223" s="23"/>
-      <c r="L223" s="23"/>
+      <c r="H223" s="24">
+        <v>4</v>
+      </c>
+      <c r="I223" s="24">
+        <v>1898</v>
+      </c>
+      <c r="J223" s="41">
+        <v>660.32</v>
+      </c>
+      <c r="K223" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L223" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A224" s="21" t="s">
@@ -18982,11 +19282,21 @@
       <c r="G224" s="23" t="s">
         <v>421</v>
       </c>
-      <c r="H224" s="23"/>
-      <c r="I224" s="23"/>
-      <c r="J224" s="23"/>
-      <c r="K224" s="23"/>
-      <c r="L224" s="23"/>
+      <c r="H224" s="24">
+        <v>4</v>
+      </c>
+      <c r="I224" s="24">
+        <v>1803</v>
+      </c>
+      <c r="J224" s="41">
+        <v>589.07000000000005</v>
+      </c>
+      <c r="K224" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L224" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A225" s="21" t="s">
@@ -19010,11 +19320,21 @@
       <c r="G225" s="27" t="s">
         <v>422</v>
       </c>
-      <c r="H225" s="27"/>
-      <c r="I225" s="27"/>
-      <c r="J225" s="27"/>
-      <c r="K225" s="27"/>
-      <c r="L225" s="27"/>
+      <c r="H225" s="27">
+        <v>4</v>
+      </c>
+      <c r="I225" s="27">
+        <v>1938</v>
+      </c>
+      <c r="J225" s="42">
+        <v>674.69</v>
+      </c>
+      <c r="K225" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="L225" s="27" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A226" s="21" t="s">
@@ -19040,7 +19360,7 @@
       </c>
       <c r="H226" s="32"/>
       <c r="I226" s="32"/>
-      <c r="J226" s="32"/>
+      <c r="J226" s="40"/>
       <c r="K226" s="32"/>
       <c r="L226" s="32"/>
     </row>
@@ -19068,7 +19388,7 @@
       </c>
       <c r="H227" s="23"/>
       <c r="I227" s="23"/>
-      <c r="J227" s="23"/>
+      <c r="J227" s="41"/>
       <c r="K227" s="23"/>
       <c r="L227" s="23"/>
     </row>
@@ -19096,7 +19416,7 @@
       </c>
       <c r="H228" s="23"/>
       <c r="I228" s="23"/>
-      <c r="J228" s="23"/>
+      <c r="J228" s="41"/>
       <c r="K228" s="23"/>
       <c r="L228" s="23"/>
     </row>
@@ -19124,7 +19444,7 @@
       </c>
       <c r="H229" s="27"/>
       <c r="I229" s="27"/>
-      <c r="J229" s="27"/>
+      <c r="J229" s="42"/>
       <c r="K229" s="27"/>
       <c r="L229" s="27"/>
     </row>
@@ -19152,7 +19472,7 @@
       </c>
       <c r="H230" s="32"/>
       <c r="I230" s="32"/>
-      <c r="J230" s="32"/>
+      <c r="J230" s="40"/>
       <c r="K230" s="32"/>
       <c r="L230" s="32"/>
     </row>
@@ -19180,7 +19500,7 @@
       </c>
       <c r="H231" s="23"/>
       <c r="I231" s="23"/>
-      <c r="J231" s="23"/>
+      <c r="J231" s="41"/>
       <c r="K231" s="23"/>
       <c r="L231" s="23"/>
     </row>
@@ -19208,7 +19528,7 @@
       </c>
       <c r="H232" s="23"/>
       <c r="I232" s="23"/>
-      <c r="J232" s="23"/>
+      <c r="J232" s="41"/>
       <c r="K232" s="23"/>
       <c r="L232" s="23"/>
     </row>
@@ -19236,7 +19556,7 @@
       </c>
       <c r="H233" s="27"/>
       <c r="I233" s="27"/>
-      <c r="J233" s="27"/>
+      <c r="J233" s="42"/>
       <c r="K233" s="27"/>
       <c r="L233" s="27"/>
     </row>
@@ -19264,7 +19584,7 @@
       </c>
       <c r="H234" s="32"/>
       <c r="I234" s="32"/>
-      <c r="J234" s="32"/>
+      <c r="J234" s="40"/>
       <c r="K234" s="32"/>
       <c r="L234" s="32"/>
     </row>
@@ -19292,7 +19612,7 @@
       </c>
       <c r="H235" s="23"/>
       <c r="I235" s="23"/>
-      <c r="J235" s="23"/>
+      <c r="J235" s="41"/>
       <c r="K235" s="23"/>
       <c r="L235" s="23"/>
     </row>
@@ -19320,7 +19640,7 @@
       </c>
       <c r="H236" s="23"/>
       <c r="I236" s="23"/>
-      <c r="J236" s="23"/>
+      <c r="J236" s="41"/>
       <c r="K236" s="23"/>
       <c r="L236" s="23"/>
     </row>
@@ -19348,7 +19668,7 @@
       </c>
       <c r="H237" s="27"/>
       <c r="I237" s="27"/>
-      <c r="J237" s="27"/>
+      <c r="J237" s="42"/>
       <c r="K237" s="27"/>
       <c r="L237" s="27"/>
     </row>
@@ -19376,7 +19696,7 @@
       </c>
       <c r="H238" s="32"/>
       <c r="I238" s="32"/>
-      <c r="J238" s="32"/>
+      <c r="J238" s="40"/>
       <c r="K238" s="32"/>
       <c r="L238" s="32"/>
     </row>
@@ -19404,7 +19724,7 @@
       </c>
       <c r="H239" s="23"/>
       <c r="I239" s="23"/>
-      <c r="J239" s="23"/>
+      <c r="J239" s="41"/>
       <c r="K239" s="23"/>
       <c r="L239" s="23"/>
     </row>
@@ -19432,7 +19752,7 @@
       </c>
       <c r="H240" s="23"/>
       <c r="I240" s="23"/>
-      <c r="J240" s="23"/>
+      <c r="J240" s="41"/>
       <c r="K240" s="23"/>
       <c r="L240" s="23"/>
     </row>
@@ -19460,7 +19780,7 @@
       </c>
       <c r="H241" s="27"/>
       <c r="I241" s="27"/>
-      <c r="J241" s="27"/>
+      <c r="J241" s="42"/>
       <c r="K241" s="27"/>
       <c r="L241" s="27"/>
     </row>
@@ -19488,7 +19808,7 @@
       </c>
       <c r="H242" s="32"/>
       <c r="I242" s="32"/>
-      <c r="J242" s="32"/>
+      <c r="J242" s="40"/>
       <c r="K242" s="32"/>
       <c r="L242" s="32"/>
     </row>
@@ -19516,7 +19836,7 @@
       </c>
       <c r="H243" s="23"/>
       <c r="I243" s="23"/>
-      <c r="J243" s="23"/>
+      <c r="J243" s="41"/>
       <c r="K243" s="23"/>
       <c r="L243" s="23"/>
     </row>
@@ -19544,7 +19864,7 @@
       </c>
       <c r="H244" s="23"/>
       <c r="I244" s="23"/>
-      <c r="J244" s="23"/>
+      <c r="J244" s="41"/>
       <c r="K244" s="23"/>
       <c r="L244" s="23"/>
     </row>
@@ -19572,7 +19892,7 @@
       </c>
       <c r="H245" s="27"/>
       <c r="I245" s="27"/>
-      <c r="J245" s="27"/>
+      <c r="J245" s="42"/>
       <c r="K245" s="27"/>
       <c r="L245" s="27"/>
     </row>
@@ -19600,7 +19920,7 @@
       </c>
       <c r="H246" s="32"/>
       <c r="I246" s="32"/>
-      <c r="J246" s="32"/>
+      <c r="J246" s="40"/>
       <c r="K246" s="32"/>
       <c r="L246" s="32"/>
     </row>
@@ -19628,7 +19948,7 @@
       </c>
       <c r="H247" s="23"/>
       <c r="I247" s="23"/>
-      <c r="J247" s="23"/>
+      <c r="J247" s="41"/>
       <c r="K247" s="23"/>
       <c r="L247" s="23"/>
     </row>
@@ -19656,7 +19976,7 @@
       </c>
       <c r="H248" s="23"/>
       <c r="I248" s="23"/>
-      <c r="J248" s="23"/>
+      <c r="J248" s="41"/>
       <c r="K248" s="23"/>
       <c r="L248" s="23"/>
     </row>
@@ -19684,7 +20004,7 @@
       </c>
       <c r="H249" s="27"/>
       <c r="I249" s="27"/>
-      <c r="J249" s="27"/>
+      <c r="J249" s="42"/>
       <c r="K249" s="27"/>
       <c r="L249" s="27"/>
     </row>
@@ -19712,7 +20032,7 @@
       </c>
       <c r="H250" s="32"/>
       <c r="I250" s="32"/>
-      <c r="J250" s="32"/>
+      <c r="J250" s="40"/>
       <c r="K250" s="32"/>
       <c r="L250" s="32"/>
     </row>
@@ -19740,7 +20060,7 @@
       </c>
       <c r="H251" s="23"/>
       <c r="I251" s="23"/>
-      <c r="J251" s="23"/>
+      <c r="J251" s="41"/>
       <c r="K251" s="23"/>
       <c r="L251" s="23"/>
     </row>
@@ -19768,7 +20088,7 @@
       </c>
       <c r="H252" s="23"/>
       <c r="I252" s="23"/>
-      <c r="J252" s="23"/>
+      <c r="J252" s="41"/>
       <c r="K252" s="23"/>
       <c r="L252" s="23"/>
     </row>
@@ -19796,7 +20116,7 @@
       </c>
       <c r="H253" s="27"/>
       <c r="I253" s="27"/>
-      <c r="J253" s="27"/>
+      <c r="J253" s="42"/>
       <c r="K253" s="27"/>
       <c r="L253" s="27"/>
     </row>
@@ -19824,7 +20144,7 @@
       </c>
       <c r="H254" s="32"/>
       <c r="I254" s="32"/>
-      <c r="J254" s="32"/>
+      <c r="J254" s="40"/>
       <c r="K254" s="32"/>
       <c r="L254" s="32"/>
     </row>
@@ -19852,7 +20172,7 @@
       </c>
       <c r="H255" s="23"/>
       <c r="I255" s="23"/>
-      <c r="J255" s="23"/>
+      <c r="J255" s="41"/>
       <c r="K255" s="23"/>
       <c r="L255" s="23"/>
     </row>
@@ -19880,7 +20200,7 @@
       </c>
       <c r="H256" s="23"/>
       <c r="I256" s="23"/>
-      <c r="J256" s="23"/>
+      <c r="J256" s="41"/>
       <c r="K256" s="23"/>
       <c r="L256" s="23"/>
     </row>
@@ -19908,7 +20228,7 @@
       </c>
       <c r="H257" s="27"/>
       <c r="I257" s="27"/>
-      <c r="J257" s="27"/>
+      <c r="J257" s="42"/>
       <c r="K257" s="27"/>
       <c r="L257" s="27"/>
     </row>
@@ -19936,7 +20256,7 @@
       </c>
       <c r="H258" s="32"/>
       <c r="I258" s="32"/>
-      <c r="J258" s="32"/>
+      <c r="J258" s="40"/>
       <c r="K258" s="32"/>
       <c r="L258" s="32"/>
     </row>
@@ -19964,7 +20284,7 @@
       </c>
       <c r="H259" s="23"/>
       <c r="I259" s="23"/>
-      <c r="J259" s="23"/>
+      <c r="J259" s="41"/>
       <c r="K259" s="23"/>
       <c r="L259" s="23"/>
     </row>
@@ -19992,7 +20312,7 @@
       </c>
       <c r="H260" s="23"/>
       <c r="I260" s="23"/>
-      <c r="J260" s="23"/>
+      <c r="J260" s="41"/>
       <c r="K260" s="23"/>
       <c r="L260" s="23"/>
     </row>
@@ -20020,7 +20340,7 @@
       </c>
       <c r="H261" s="27"/>
       <c r="I261" s="27"/>
-      <c r="J261" s="27"/>
+      <c r="J261" s="42"/>
       <c r="K261" s="27"/>
       <c r="L261" s="27"/>
     </row>
@@ -20048,7 +20368,7 @@
       </c>
       <c r="H262" s="32"/>
       <c r="I262" s="32"/>
-      <c r="J262" s="32"/>
+      <c r="J262" s="40"/>
       <c r="K262" s="32"/>
       <c r="L262" s="32"/>
     </row>
@@ -20076,7 +20396,7 @@
       </c>
       <c r="H263" s="23"/>
       <c r="I263" s="23"/>
-      <c r="J263" s="23"/>
+      <c r="J263" s="41"/>
       <c r="K263" s="23"/>
       <c r="L263" s="23"/>
     </row>
@@ -20104,7 +20424,7 @@
       </c>
       <c r="H264" s="23"/>
       <c r="I264" s="23"/>
-      <c r="J264" s="23"/>
+      <c r="J264" s="41"/>
       <c r="K264" s="23"/>
       <c r="L264" s="23"/>
     </row>
@@ -20132,7 +20452,7 @@
       </c>
       <c r="H265" s="27"/>
       <c r="I265" s="27"/>
-      <c r="J265" s="27"/>
+      <c r="J265" s="42"/>
       <c r="K265" s="27"/>
       <c r="L265" s="27"/>
     </row>
@@ -20160,7 +20480,7 @@
       </c>
       <c r="H266" s="32"/>
       <c r="I266" s="32"/>
-      <c r="J266" s="32"/>
+      <c r="J266" s="40"/>
       <c r="K266" s="32"/>
       <c r="L266" s="32"/>
     </row>
@@ -20188,7 +20508,7 @@
       </c>
       <c r="H267" s="23"/>
       <c r="I267" s="23"/>
-      <c r="J267" s="23"/>
+      <c r="J267" s="41"/>
       <c r="K267" s="23"/>
       <c r="L267" s="23"/>
     </row>
@@ -20216,7 +20536,7 @@
       </c>
       <c r="H268" s="23"/>
       <c r="I268" s="23"/>
-      <c r="J268" s="23"/>
+      <c r="J268" s="41"/>
       <c r="K268" s="23"/>
       <c r="L268" s="23"/>
     </row>
@@ -20244,7 +20564,7 @@
       </c>
       <c r="H269" s="27"/>
       <c r="I269" s="27"/>
-      <c r="J269" s="27"/>
+      <c r="J269" s="42"/>
       <c r="K269" s="27"/>
       <c r="L269" s="27"/>
     </row>
@@ -20272,7 +20592,7 @@
       </c>
       <c r="H270" s="32"/>
       <c r="I270" s="32"/>
-      <c r="J270" s="32"/>
+      <c r="J270" s="40"/>
       <c r="K270" s="32"/>
       <c r="L270" s="32"/>
     </row>
@@ -20300,7 +20620,7 @@
       </c>
       <c r="H271" s="23"/>
       <c r="I271" s="23"/>
-      <c r="J271" s="23"/>
+      <c r="J271" s="41"/>
       <c r="K271" s="23"/>
       <c r="L271" s="23"/>
     </row>
@@ -20328,7 +20648,7 @@
       </c>
       <c r="H272" s="23"/>
       <c r="I272" s="23"/>
-      <c r="J272" s="23"/>
+      <c r="J272" s="41"/>
       <c r="K272" s="23"/>
       <c r="L272" s="23"/>
     </row>
@@ -20356,7 +20676,7 @@
       </c>
       <c r="H273" s="27"/>
       <c r="I273" s="27"/>
-      <c r="J273" s="27"/>
+      <c r="J273" s="42"/>
       <c r="K273" s="27"/>
       <c r="L273" s="27"/>
     </row>
@@ -20384,7 +20704,7 @@
       </c>
       <c r="H274" s="32"/>
       <c r="I274" s="32"/>
-      <c r="J274" s="32"/>
+      <c r="J274" s="40"/>
       <c r="K274" s="32"/>
       <c r="L274" s="32"/>
     </row>
@@ -20412,7 +20732,7 @@
       </c>
       <c r="H275" s="23"/>
       <c r="I275" s="23"/>
-      <c r="J275" s="23"/>
+      <c r="J275" s="41"/>
       <c r="K275" s="23"/>
       <c r="L275" s="23"/>
     </row>
@@ -20440,7 +20760,7 @@
       </c>
       <c r="H276" s="23"/>
       <c r="I276" s="23"/>
-      <c r="J276" s="23"/>
+      <c r="J276" s="41"/>
       <c r="K276" s="23"/>
       <c r="L276" s="23"/>
     </row>
@@ -20468,7 +20788,7 @@
       </c>
       <c r="H277" s="27"/>
       <c r="I277" s="27"/>
-      <c r="J277" s="27"/>
+      <c r="J277" s="42"/>
       <c r="K277" s="27"/>
       <c r="L277" s="27"/>
     </row>
@@ -20496,7 +20816,7 @@
       </c>
       <c r="H278" s="32"/>
       <c r="I278" s="32"/>
-      <c r="J278" s="32"/>
+      <c r="J278" s="40"/>
       <c r="K278" s="32"/>
       <c r="L278" s="32"/>
     </row>
@@ -20524,7 +20844,7 @@
       </c>
       <c r="H279" s="23"/>
       <c r="I279" s="23"/>
-      <c r="J279" s="23"/>
+      <c r="J279" s="41"/>
       <c r="K279" s="23"/>
       <c r="L279" s="23"/>
     </row>
@@ -20552,7 +20872,7 @@
       </c>
       <c r="H280" s="23"/>
       <c r="I280" s="23"/>
-      <c r="J280" s="23"/>
+      <c r="J280" s="41"/>
       <c r="K280" s="23"/>
       <c r="L280" s="23"/>
     </row>
@@ -20580,7 +20900,7 @@
       </c>
       <c r="H281" s="27"/>
       <c r="I281" s="27"/>
-      <c r="J281" s="27"/>
+      <c r="J281" s="42"/>
       <c r="K281" s="27"/>
       <c r="L281" s="27"/>
     </row>
@@ -20608,7 +20928,7 @@
       </c>
       <c r="H282" s="32"/>
       <c r="I282" s="32"/>
-      <c r="J282" s="32"/>
+      <c r="J282" s="40"/>
       <c r="K282" s="32"/>
       <c r="L282" s="32"/>
     </row>
@@ -20636,7 +20956,7 @@
       </c>
       <c r="H283" s="23"/>
       <c r="I283" s="23"/>
-      <c r="J283" s="23"/>
+      <c r="J283" s="41"/>
       <c r="K283" s="23"/>
       <c r="L283" s="23"/>
     </row>
@@ -20664,7 +20984,7 @@
       </c>
       <c r="H284" s="23"/>
       <c r="I284" s="23"/>
-      <c r="J284" s="23"/>
+      <c r="J284" s="41"/>
       <c r="K284" s="23"/>
       <c r="L284" s="23"/>
     </row>
@@ -20692,7 +21012,7 @@
       </c>
       <c r="H285" s="27"/>
       <c r="I285" s="27"/>
-      <c r="J285" s="27"/>
+      <c r="J285" s="42"/>
       <c r="K285" s="27"/>
       <c r="L285" s="27"/>
     </row>
@@ -20720,7 +21040,7 @@
       </c>
       <c r="H286" s="32"/>
       <c r="I286" s="32"/>
-      <c r="J286" s="32"/>
+      <c r="J286" s="40"/>
       <c r="K286" s="32"/>
       <c r="L286" s="32"/>
     </row>
@@ -20748,7 +21068,7 @@
       </c>
       <c r="H287" s="23"/>
       <c r="I287" s="23"/>
-      <c r="J287" s="23"/>
+      <c r="J287" s="41"/>
       <c r="K287" s="23"/>
       <c r="L287" s="23"/>
     </row>
@@ -20776,7 +21096,7 @@
       </c>
       <c r="H288" s="23"/>
       <c r="I288" s="23"/>
-      <c r="J288" s="23"/>
+      <c r="J288" s="41"/>
       <c r="K288" s="23"/>
       <c r="L288" s="23"/>
     </row>
@@ -20804,7 +21124,7 @@
       </c>
       <c r="H289" s="27"/>
       <c r="I289" s="27"/>
-      <c r="J289" s="27"/>
+      <c r="J289" s="42"/>
       <c r="K289" s="27"/>
       <c r="L289" s="27"/>
     </row>
@@ -20832,7 +21152,7 @@
       </c>
       <c r="H290" s="32"/>
       <c r="I290" s="32"/>
-      <c r="J290" s="32"/>
+      <c r="J290" s="40"/>
       <c r="K290" s="32"/>
       <c r="L290" s="32"/>
     </row>
@@ -20860,7 +21180,7 @@
       </c>
       <c r="H291" s="23"/>
       <c r="I291" s="23"/>
-      <c r="J291" s="23"/>
+      <c r="J291" s="41"/>
       <c r="K291" s="23"/>
       <c r="L291" s="23"/>
     </row>
@@ -20888,7 +21208,7 @@
       </c>
       <c r="H292" s="23"/>
       <c r="I292" s="23"/>
-      <c r="J292" s="23"/>
+      <c r="J292" s="41"/>
       <c r="K292" s="23"/>
       <c r="L292" s="23"/>
     </row>
@@ -20916,7 +21236,7 @@
       </c>
       <c r="H293" s="27"/>
       <c r="I293" s="27"/>
-      <c r="J293" s="27"/>
+      <c r="J293" s="42"/>
       <c r="K293" s="27"/>
       <c r="L293" s="27"/>
     </row>
@@ -20944,7 +21264,7 @@
       </c>
       <c r="H294" s="32"/>
       <c r="I294" s="32"/>
-      <c r="J294" s="32"/>
+      <c r="J294" s="40"/>
       <c r="K294" s="32"/>
       <c r="L294" s="32"/>
     </row>
@@ -20972,7 +21292,7 @@
       </c>
       <c r="H295" s="23"/>
       <c r="I295" s="23"/>
-      <c r="J295" s="23"/>
+      <c r="J295" s="41"/>
       <c r="K295" s="23"/>
       <c r="L295" s="23"/>
     </row>
@@ -21000,7 +21320,7 @@
       </c>
       <c r="H296" s="23"/>
       <c r="I296" s="23"/>
-      <c r="J296" s="23"/>
+      <c r="J296" s="41"/>
       <c r="K296" s="23"/>
       <c r="L296" s="23"/>
     </row>
@@ -21028,7 +21348,7 @@
       </c>
       <c r="H297" s="27"/>
       <c r="I297" s="27"/>
-      <c r="J297" s="27"/>
+      <c r="J297" s="42"/>
       <c r="K297" s="27"/>
       <c r="L297" s="27"/>
     </row>
@@ -21056,7 +21376,7 @@
       </c>
       <c r="H298" s="32"/>
       <c r="I298" s="32"/>
-      <c r="J298" s="32"/>
+      <c r="J298" s="40"/>
       <c r="K298" s="32"/>
       <c r="L298" s="32"/>
     </row>
@@ -21084,7 +21404,7 @@
       </c>
       <c r="H299" s="23"/>
       <c r="I299" s="23"/>
-      <c r="J299" s="23"/>
+      <c r="J299" s="41"/>
       <c r="K299" s="23"/>
       <c r="L299" s="23"/>
     </row>
@@ -21112,7 +21432,7 @@
       </c>
       <c r="H300" s="23"/>
       <c r="I300" s="23"/>
-      <c r="J300" s="23"/>
+      <c r="J300" s="41"/>
       <c r="K300" s="23"/>
       <c r="L300" s="23"/>
     </row>
@@ -21140,7 +21460,7 @@
       </c>
       <c r="H301" s="27"/>
       <c r="I301" s="27"/>
-      <c r="J301" s="27"/>
+      <c r="J301" s="42"/>
       <c r="K301" s="27"/>
       <c r="L301" s="27"/>
     </row>
@@ -21168,7 +21488,7 @@
       </c>
       <c r="H302" s="32"/>
       <c r="I302" s="32"/>
-      <c r="J302" s="32"/>
+      <c r="J302" s="40"/>
       <c r="K302" s="32"/>
       <c r="L302" s="32"/>
     </row>
@@ -21196,7 +21516,7 @@
       </c>
       <c r="H303" s="23"/>
       <c r="I303" s="23"/>
-      <c r="J303" s="23"/>
+      <c r="J303" s="41"/>
       <c r="K303" s="23"/>
       <c r="L303" s="23"/>
     </row>
@@ -21224,7 +21544,7 @@
       </c>
       <c r="H304" s="23"/>
       <c r="I304" s="23"/>
-      <c r="J304" s="23"/>
+      <c r="J304" s="41"/>
       <c r="K304" s="23"/>
       <c r="L304" s="23"/>
     </row>
@@ -21252,7 +21572,7 @@
       </c>
       <c r="H305" s="27"/>
       <c r="I305" s="27"/>
-      <c r="J305" s="27"/>
+      <c r="J305" s="42"/>
       <c r="K305" s="27"/>
       <c r="L305" s="27"/>
     </row>
@@ -21280,7 +21600,7 @@
       </c>
       <c r="H306" s="32"/>
       <c r="I306" s="32"/>
-      <c r="J306" s="32"/>
+      <c r="J306" s="40"/>
       <c r="K306" s="32"/>
       <c r="L306" s="32"/>
     </row>
@@ -21308,7 +21628,7 @@
       </c>
       <c r="H307" s="23"/>
       <c r="I307" s="23"/>
-      <c r="J307" s="23"/>
+      <c r="J307" s="41"/>
       <c r="K307" s="23"/>
       <c r="L307" s="23"/>
     </row>
@@ -21336,7 +21656,7 @@
       </c>
       <c r="H308" s="23"/>
       <c r="I308" s="23"/>
-      <c r="J308" s="23"/>
+      <c r="J308" s="41"/>
       <c r="K308" s="23"/>
       <c r="L308" s="23"/>
     </row>
@@ -21364,7 +21684,7 @@
       </c>
       <c r="H309" s="27"/>
       <c r="I309" s="27"/>
-      <c r="J309" s="27"/>
+      <c r="J309" s="42"/>
       <c r="K309" s="27"/>
       <c r="L309" s="27"/>
     </row>
@@ -21392,7 +21712,7 @@
       </c>
       <c r="H310" s="32"/>
       <c r="I310" s="32"/>
-      <c r="J310" s="32"/>
+      <c r="J310" s="40"/>
       <c r="K310" s="32"/>
       <c r="L310" s="32"/>
     </row>
@@ -21420,7 +21740,7 @@
       </c>
       <c r="H311" s="23"/>
       <c r="I311" s="23"/>
-      <c r="J311" s="23"/>
+      <c r="J311" s="41"/>
       <c r="K311" s="23"/>
       <c r="L311" s="23"/>
     </row>
@@ -21448,7 +21768,7 @@
       </c>
       <c r="H312" s="23"/>
       <c r="I312" s="23"/>
-      <c r="J312" s="23"/>
+      <c r="J312" s="41"/>
       <c r="K312" s="23"/>
       <c r="L312" s="23"/>
     </row>
@@ -21476,7 +21796,7 @@
       </c>
       <c r="H313" s="27"/>
       <c r="I313" s="27"/>
-      <c r="J313" s="27"/>
+      <c r="J313" s="42"/>
       <c r="K313" s="27"/>
       <c r="L313" s="27"/>
     </row>
@@ -21504,7 +21824,7 @@
       </c>
       <c r="H314" s="32"/>
       <c r="I314" s="32"/>
-      <c r="J314" s="32"/>
+      <c r="J314" s="40"/>
       <c r="K314" s="32"/>
       <c r="L314" s="32"/>
     </row>
@@ -21532,7 +21852,7 @@
       </c>
       <c r="H315" s="23"/>
       <c r="I315" s="23"/>
-      <c r="J315" s="23"/>
+      <c r="J315" s="41"/>
       <c r="K315" s="23"/>
       <c r="L315" s="23"/>
     </row>
@@ -21560,7 +21880,7 @@
       </c>
       <c r="H316" s="23"/>
       <c r="I316" s="23"/>
-      <c r="J316" s="23"/>
+      <c r="J316" s="41"/>
       <c r="K316" s="23"/>
       <c r="L316" s="23"/>
     </row>
@@ -21588,7 +21908,7 @@
       </c>
       <c r="H317" s="27"/>
       <c r="I317" s="27"/>
-      <c r="J317" s="27"/>
+      <c r="J317" s="42"/>
       <c r="K317" s="27"/>
       <c r="L317" s="27"/>
     </row>
@@ -21616,7 +21936,7 @@
       </c>
       <c r="H318" s="32"/>
       <c r="I318" s="32"/>
-      <c r="J318" s="32"/>
+      <c r="J318" s="40"/>
       <c r="K318" s="32"/>
       <c r="L318" s="32"/>
     </row>
@@ -21644,7 +21964,7 @@
       </c>
       <c r="H319" s="23"/>
       <c r="I319" s="23"/>
-      <c r="J319" s="23"/>
+      <c r="J319" s="41"/>
       <c r="K319" s="23"/>
       <c r="L319" s="23"/>
     </row>
@@ -21672,7 +21992,7 @@
       </c>
       <c r="H320" s="23"/>
       <c r="I320" s="23"/>
-      <c r="J320" s="23"/>
+      <c r="J320" s="41"/>
       <c r="K320" s="23"/>
       <c r="L320" s="23"/>
     </row>
@@ -21700,7 +22020,7 @@
       </c>
       <c r="H321" s="27"/>
       <c r="I321" s="27"/>
-      <c r="J321" s="27"/>
+      <c r="J321" s="42"/>
       <c r="K321" s="27"/>
       <c r="L321" s="27"/>
     </row>
@@ -21728,7 +22048,7 @@
       </c>
       <c r="H322" s="32"/>
       <c r="I322" s="32"/>
-      <c r="J322" s="32"/>
+      <c r="J322" s="40"/>
       <c r="K322" s="32"/>
       <c r="L322" s="32"/>
     </row>
@@ -21756,7 +22076,7 @@
       </c>
       <c r="H323" s="23"/>
       <c r="I323" s="23"/>
-      <c r="J323" s="23"/>
+      <c r="J323" s="41"/>
       <c r="K323" s="23"/>
       <c r="L323" s="23"/>
     </row>
@@ -21784,7 +22104,7 @@
       </c>
       <c r="H324" s="23"/>
       <c r="I324" s="23"/>
-      <c r="J324" s="23"/>
+      <c r="J324" s="41"/>
       <c r="K324" s="23"/>
       <c r="L324" s="23"/>
     </row>
@@ -21812,7 +22132,7 @@
       </c>
       <c r="H325" s="27"/>
       <c r="I325" s="27"/>
-      <c r="J325" s="27"/>
+      <c r="J325" s="42"/>
       <c r="K325" s="27"/>
       <c r="L325" s="27"/>
     </row>
@@ -21840,7 +22160,7 @@
       </c>
       <c r="H326" s="32"/>
       <c r="I326" s="32"/>
-      <c r="J326" s="32"/>
+      <c r="J326" s="40"/>
       <c r="K326" s="32"/>
       <c r="L326" s="32"/>
     </row>
@@ -21868,7 +22188,7 @@
       </c>
       <c r="H327" s="23"/>
       <c r="I327" s="23"/>
-      <c r="J327" s="23"/>
+      <c r="J327" s="41"/>
       <c r="K327" s="23"/>
       <c r="L327" s="23"/>
     </row>
@@ -21896,7 +22216,7 @@
       </c>
       <c r="H328" s="23"/>
       <c r="I328" s="23"/>
-      <c r="J328" s="23"/>
+      <c r="J328" s="41"/>
       <c r="K328" s="23"/>
       <c r="L328" s="23"/>
     </row>
@@ -21924,7 +22244,7 @@
       </c>
       <c r="H329" s="27"/>
       <c r="I329" s="27"/>
-      <c r="J329" s="27"/>
+      <c r="J329" s="42"/>
       <c r="K329" s="27"/>
       <c r="L329" s="27"/>
     </row>
@@ -21952,7 +22272,7 @@
       </c>
       <c r="H330" s="32"/>
       <c r="I330" s="32"/>
-      <c r="J330" s="32"/>
+      <c r="J330" s="40"/>
       <c r="K330" s="32"/>
       <c r="L330" s="32"/>
     </row>
@@ -21980,7 +22300,7 @@
       </c>
       <c r="H331" s="23"/>
       <c r="I331" s="23"/>
-      <c r="J331" s="23"/>
+      <c r="J331" s="41"/>
       <c r="K331" s="23"/>
       <c r="L331" s="23"/>
     </row>
@@ -22008,7 +22328,7 @@
       </c>
       <c r="H332" s="23"/>
       <c r="I332" s="23"/>
-      <c r="J332" s="23"/>
+      <c r="J332" s="41"/>
       <c r="K332" s="23"/>
       <c r="L332" s="23"/>
     </row>
@@ -22036,7 +22356,7 @@
       </c>
       <c r="H333" s="27"/>
       <c r="I333" s="27"/>
-      <c r="J333" s="27"/>
+      <c r="J333" s="42"/>
       <c r="K333" s="27"/>
       <c r="L333" s="27"/>
     </row>
@@ -22064,7 +22384,7 @@
       </c>
       <c r="H334" s="32"/>
       <c r="I334" s="32"/>
-      <c r="J334" s="32"/>
+      <c r="J334" s="40"/>
       <c r="K334" s="32"/>
       <c r="L334" s="32"/>
     </row>
@@ -22092,7 +22412,7 @@
       </c>
       <c r="H335" s="23"/>
       <c r="I335" s="23"/>
-      <c r="J335" s="23"/>
+      <c r="J335" s="41"/>
       <c r="K335" s="23"/>
       <c r="L335" s="23"/>
     </row>
@@ -22120,7 +22440,7 @@
       </c>
       <c r="H336" s="23"/>
       <c r="I336" s="23"/>
-      <c r="J336" s="23"/>
+      <c r="J336" s="41"/>
       <c r="K336" s="23"/>
       <c r="L336" s="23"/>
     </row>
@@ -22148,7 +22468,7 @@
       </c>
       <c r="H337" s="27"/>
       <c r="I337" s="27"/>
-      <c r="J337" s="27"/>
+      <c r="J337" s="42"/>
       <c r="K337" s="27"/>
       <c r="L337" s="27"/>
     </row>
@@ -22176,7 +22496,7 @@
       </c>
       <c r="H338" s="32"/>
       <c r="I338" s="32"/>
-      <c r="J338" s="32"/>
+      <c r="J338" s="40"/>
       <c r="K338" s="32"/>
       <c r="L338" s="32"/>
     </row>
@@ -22204,7 +22524,7 @@
       </c>
       <c r="H339" s="23"/>
       <c r="I339" s="23"/>
-      <c r="J339" s="23"/>
+      <c r="J339" s="41"/>
       <c r="K339" s="23"/>
       <c r="L339" s="23"/>
     </row>
@@ -22232,7 +22552,7 @@
       </c>
       <c r="H340" s="23"/>
       <c r="I340" s="23"/>
-      <c r="J340" s="23"/>
+      <c r="J340" s="41"/>
       <c r="K340" s="23"/>
       <c r="L340" s="23"/>
     </row>
@@ -22260,7 +22580,7 @@
       </c>
       <c r="H341" s="27"/>
       <c r="I341" s="27"/>
-      <c r="J341" s="27"/>
+      <c r="J341" s="42"/>
       <c r="K341" s="27"/>
       <c r="L341" s="27"/>
     </row>
@@ -22288,7 +22608,7 @@
       </c>
       <c r="H342" s="32"/>
       <c r="I342" s="32"/>
-      <c r="J342" s="32"/>
+      <c r="J342" s="40"/>
       <c r="K342" s="32"/>
       <c r="L342" s="32"/>
     </row>
@@ -22316,7 +22636,7 @@
       </c>
       <c r="H343" s="23"/>
       <c r="I343" s="23"/>
-      <c r="J343" s="23"/>
+      <c r="J343" s="41"/>
       <c r="K343" s="23"/>
       <c r="L343" s="23"/>
     </row>
@@ -22344,7 +22664,7 @@
       </c>
       <c r="H344" s="23"/>
       <c r="I344" s="23"/>
-      <c r="J344" s="23"/>
+      <c r="J344" s="41"/>
       <c r="K344" s="23"/>
       <c r="L344" s="23"/>
     </row>
@@ -22372,7 +22692,7 @@
       </c>
       <c r="H345" s="27"/>
       <c r="I345" s="27"/>
-      <c r="J345" s="27"/>
+      <c r="J345" s="42"/>
       <c r="K345" s="27"/>
       <c r="L345" s="27"/>
     </row>
@@ -22400,7 +22720,7 @@
       </c>
       <c r="H346" s="32"/>
       <c r="I346" s="32"/>
-      <c r="J346" s="32"/>
+      <c r="J346" s="40"/>
       <c r="K346" s="32"/>
       <c r="L346" s="32"/>
     </row>
@@ -22428,7 +22748,7 @@
       </c>
       <c r="H347" s="23"/>
       <c r="I347" s="23"/>
-      <c r="J347" s="23"/>
+      <c r="J347" s="41"/>
       <c r="K347" s="23"/>
       <c r="L347" s="23"/>
     </row>
@@ -22456,7 +22776,7 @@
       </c>
       <c r="H348" s="23"/>
       <c r="I348" s="23"/>
-      <c r="J348" s="23"/>
+      <c r="J348" s="41"/>
       <c r="K348" s="23"/>
       <c r="L348" s="23"/>
     </row>
@@ -22484,7 +22804,7 @@
       </c>
       <c r="H349" s="27"/>
       <c r="I349" s="27"/>
-      <c r="J349" s="27"/>
+      <c r="J349" s="42"/>
       <c r="K349" s="27"/>
       <c r="L349" s="27"/>
     </row>
@@ -22512,7 +22832,7 @@
       </c>
       <c r="H350" s="32"/>
       <c r="I350" s="32"/>
-      <c r="J350" s="32"/>
+      <c r="J350" s="40"/>
       <c r="K350" s="32"/>
       <c r="L350" s="32"/>
     </row>
@@ -22540,7 +22860,7 @@
       </c>
       <c r="H351" s="23"/>
       <c r="I351" s="23"/>
-      <c r="J351" s="23"/>
+      <c r="J351" s="41"/>
       <c r="K351" s="23"/>
       <c r="L351" s="23"/>
     </row>
@@ -22568,7 +22888,7 @@
       </c>
       <c r="H352" s="23"/>
       <c r="I352" s="23"/>
-      <c r="J352" s="23"/>
+      <c r="J352" s="41"/>
       <c r="K352" s="23"/>
       <c r="L352" s="23"/>
     </row>
@@ -22596,7 +22916,7 @@
       </c>
       <c r="H353" s="27"/>
       <c r="I353" s="27"/>
-      <c r="J353" s="27"/>
+      <c r="J353" s="42"/>
       <c r="K353" s="27"/>
       <c r="L353" s="27"/>
     </row>
@@ -22624,7 +22944,7 @@
       </c>
       <c r="H354" s="32"/>
       <c r="I354" s="32"/>
-      <c r="J354" s="32"/>
+      <c r="J354" s="40"/>
       <c r="K354" s="32"/>
       <c r="L354" s="32"/>
     </row>
@@ -22652,7 +22972,7 @@
       </c>
       <c r="H355" s="23"/>
       <c r="I355" s="23"/>
-      <c r="J355" s="23"/>
+      <c r="J355" s="41"/>
       <c r="K355" s="23"/>
       <c r="L355" s="23"/>
     </row>
@@ -22680,7 +23000,7 @@
       </c>
       <c r="H356" s="23"/>
       <c r="I356" s="23"/>
-      <c r="J356" s="23"/>
+      <c r="J356" s="41"/>
       <c r="K356" s="23"/>
       <c r="L356" s="23"/>
     </row>
@@ -22708,7 +23028,7 @@
       </c>
       <c r="H357" s="27"/>
       <c r="I357" s="27"/>
-      <c r="J357" s="27"/>
+      <c r="J357" s="42"/>
       <c r="K357" s="27"/>
       <c r="L357" s="27"/>
     </row>
@@ -22736,7 +23056,7 @@
       </c>
       <c r="H358" s="32"/>
       <c r="I358" s="32"/>
-      <c r="J358" s="32"/>
+      <c r="J358" s="40"/>
       <c r="K358" s="32"/>
       <c r="L358" s="32"/>
     </row>
@@ -22764,7 +23084,7 @@
       </c>
       <c r="H359" s="23"/>
       <c r="I359" s="23"/>
-      <c r="J359" s="23"/>
+      <c r="J359" s="41"/>
       <c r="K359" s="23"/>
       <c r="L359" s="23"/>
     </row>
@@ -22792,7 +23112,7 @@
       </c>
       <c r="H360" s="23"/>
       <c r="I360" s="23"/>
-      <c r="J360" s="23"/>
+      <c r="J360" s="41"/>
       <c r="K360" s="23"/>
       <c r="L360" s="23"/>
     </row>
@@ -22820,7 +23140,7 @@
       </c>
       <c r="H361" s="27"/>
       <c r="I361" s="27"/>
-      <c r="J361" s="27"/>
+      <c r="J361" s="42"/>
       <c r="K361" s="27"/>
       <c r="L361" s="27"/>
     </row>
@@ -22848,7 +23168,7 @@
       </c>
       <c r="H362" s="32"/>
       <c r="I362" s="32"/>
-      <c r="J362" s="32"/>
+      <c r="J362" s="40"/>
       <c r="K362" s="32"/>
       <c r="L362" s="32"/>
     </row>
@@ -22876,7 +23196,7 @@
       </c>
       <c r="H363" s="23"/>
       <c r="I363" s="23"/>
-      <c r="J363" s="23"/>
+      <c r="J363" s="41"/>
       <c r="K363" s="23"/>
       <c r="L363" s="23"/>
     </row>
@@ -22904,7 +23224,7 @@
       </c>
       <c r="H364" s="23"/>
       <c r="I364" s="23"/>
-      <c r="J364" s="23"/>
+      <c r="J364" s="41"/>
       <c r="K364" s="23"/>
       <c r="L364" s="23"/>
     </row>
@@ -22932,7 +23252,7 @@
       </c>
       <c r="H365" s="27"/>
       <c r="I365" s="27"/>
-      <c r="J365" s="27"/>
+      <c r="J365" s="42"/>
       <c r="K365" s="27"/>
       <c r="L365" s="27"/>
     </row>
@@ -22960,7 +23280,7 @@
       </c>
       <c r="H366" s="32"/>
       <c r="I366" s="32"/>
-      <c r="J366" s="32"/>
+      <c r="J366" s="40"/>
       <c r="K366" s="32"/>
       <c r="L366" s="32"/>
     </row>
@@ -22988,7 +23308,7 @@
       </c>
       <c r="H367" s="23"/>
       <c r="I367" s="23"/>
-      <c r="J367" s="23"/>
+      <c r="J367" s="41"/>
       <c r="K367" s="23"/>
       <c r="L367" s="23"/>
     </row>
@@ -23016,7 +23336,7 @@
       </c>
       <c r="H368" s="23"/>
       <c r="I368" s="23"/>
-      <c r="J368" s="23"/>
+      <c r="J368" s="41"/>
       <c r="K368" s="23"/>
       <c r="L368" s="23"/>
     </row>
@@ -23044,7 +23364,7 @@
       </c>
       <c r="H369" s="27"/>
       <c r="I369" s="27"/>
-      <c r="J369" s="27"/>
+      <c r="J369" s="42"/>
       <c r="K369" s="27"/>
       <c r="L369" s="27"/>
     </row>
@@ -23072,7 +23392,7 @@
       </c>
       <c r="H370" s="32"/>
       <c r="I370" s="32"/>
-      <c r="J370" s="32"/>
+      <c r="J370" s="40"/>
       <c r="K370" s="32"/>
       <c r="L370" s="32"/>
     </row>
@@ -23100,7 +23420,7 @@
       </c>
       <c r="H371" s="23"/>
       <c r="I371" s="23"/>
-      <c r="J371" s="23"/>
+      <c r="J371" s="41"/>
       <c r="K371" s="23"/>
       <c r="L371" s="23"/>
     </row>
@@ -23128,7 +23448,7 @@
       </c>
       <c r="H372" s="23"/>
       <c r="I372" s="23"/>
-      <c r="J372" s="23"/>
+      <c r="J372" s="41"/>
       <c r="K372" s="23"/>
       <c r="L372" s="23"/>
     </row>
@@ -23156,7 +23476,7 @@
       </c>
       <c r="H373" s="27"/>
       <c r="I373" s="27"/>
-      <c r="J373" s="27"/>
+      <c r="J373" s="42"/>
       <c r="K373" s="27"/>
       <c r="L373" s="27"/>
     </row>
@@ -23184,7 +23504,7 @@
       </c>
       <c r="H374" s="32"/>
       <c r="I374" s="32"/>
-      <c r="J374" s="32"/>
+      <c r="J374" s="40"/>
       <c r="K374" s="32"/>
       <c r="L374" s="32"/>
     </row>
@@ -23212,7 +23532,7 @@
       </c>
       <c r="H375" s="23"/>
       <c r="I375" s="23"/>
-      <c r="J375" s="23"/>
+      <c r="J375" s="41"/>
       <c r="K375" s="23"/>
       <c r="L375" s="23"/>
     </row>
@@ -23240,7 +23560,7 @@
       </c>
       <c r="H376" s="23"/>
       <c r="I376" s="23"/>
-      <c r="J376" s="23"/>
+      <c r="J376" s="41"/>
       <c r="K376" s="23"/>
       <c r="L376" s="23"/>
     </row>
@@ -23268,7 +23588,7 @@
       </c>
       <c r="H377" s="27"/>
       <c r="I377" s="27"/>
-      <c r="J377" s="27"/>
+      <c r="J377" s="42"/>
       <c r="K377" s="27"/>
       <c r="L377" s="27"/>
     </row>
@@ -23296,7 +23616,7 @@
       </c>
       <c r="H378" s="32"/>
       <c r="I378" s="32"/>
-      <c r="J378" s="32"/>
+      <c r="J378" s="40"/>
       <c r="K378" s="32"/>
       <c r="L378" s="32"/>
     </row>
@@ -23324,7 +23644,7 @@
       </c>
       <c r="H379" s="23"/>
       <c r="I379" s="23"/>
-      <c r="J379" s="23"/>
+      <c r="J379" s="41"/>
       <c r="K379" s="23"/>
       <c r="L379" s="23"/>
     </row>
@@ -23352,7 +23672,7 @@
       </c>
       <c r="H380" s="23"/>
       <c r="I380" s="23"/>
-      <c r="J380" s="23"/>
+      <c r="J380" s="41"/>
       <c r="K380" s="23"/>
       <c r="L380" s="23"/>
     </row>
@@ -23380,7 +23700,7 @@
       </c>
       <c r="H381" s="27"/>
       <c r="I381" s="27"/>
-      <c r="J381" s="27"/>
+      <c r="J381" s="42"/>
       <c r="K381" s="27"/>
       <c r="L381" s="27"/>
     </row>
@@ -23408,7 +23728,7 @@
       </c>
       <c r="H382" s="32"/>
       <c r="I382" s="32"/>
-      <c r="J382" s="32"/>
+      <c r="J382" s="40"/>
       <c r="K382" s="32"/>
       <c r="L382" s="32"/>
     </row>
@@ -23436,7 +23756,7 @@
       </c>
       <c r="H383" s="23"/>
       <c r="I383" s="23"/>
-      <c r="J383" s="23"/>
+      <c r="J383" s="41"/>
       <c r="K383" s="23"/>
       <c r="L383" s="23"/>
     </row>
@@ -23464,7 +23784,7 @@
       </c>
       <c r="H384" s="23"/>
       <c r="I384" s="23"/>
-      <c r="J384" s="23"/>
+      <c r="J384" s="41"/>
       <c r="K384" s="23"/>
       <c r="L384" s="23"/>
     </row>
@@ -23492,7 +23812,7 @@
       </c>
       <c r="H385" s="27"/>
       <c r="I385" s="27"/>
-      <c r="J385" s="27"/>
+      <c r="J385" s="42"/>
       <c r="K385" s="27"/>
       <c r="L385" s="27"/>
     </row>
@@ -23520,7 +23840,7 @@
       </c>
       <c r="H386" s="32"/>
       <c r="I386" s="32"/>
-      <c r="J386" s="32"/>
+      <c r="J386" s="40"/>
       <c r="K386" s="32"/>
       <c r="L386" s="32"/>
     </row>
@@ -23548,7 +23868,7 @@
       </c>
       <c r="H387" s="23"/>
       <c r="I387" s="23"/>
-      <c r="J387" s="23"/>
+      <c r="J387" s="41"/>
       <c r="K387" s="23"/>
       <c r="L387" s="23"/>
     </row>
@@ -23576,7 +23896,7 @@
       </c>
       <c r="H388" s="23"/>
       <c r="I388" s="23"/>
-      <c r="J388" s="23"/>
+      <c r="J388" s="41"/>
       <c r="K388" s="23"/>
       <c r="L388" s="23"/>
     </row>
@@ -23604,7 +23924,7 @@
       </c>
       <c r="H389" s="27"/>
       <c r="I389" s="27"/>
-      <c r="J389" s="27"/>
+      <c r="J389" s="42"/>
       <c r="K389" s="27"/>
       <c r="L389" s="27"/>
     </row>
@@ -23632,7 +23952,7 @@
       </c>
       <c r="H390" s="32"/>
       <c r="I390" s="32"/>
-      <c r="J390" s="32"/>
+      <c r="J390" s="40"/>
       <c r="K390" s="32"/>
       <c r="L390" s="32"/>
     </row>
@@ -23660,7 +23980,7 @@
       </c>
       <c r="H391" s="23"/>
       <c r="I391" s="23"/>
-      <c r="J391" s="23"/>
+      <c r="J391" s="41"/>
       <c r="K391" s="23"/>
       <c r="L391" s="23"/>
     </row>
@@ -23688,7 +24008,7 @@
       </c>
       <c r="H392" s="23"/>
       <c r="I392" s="23"/>
-      <c r="J392" s="23"/>
+      <c r="J392" s="41"/>
       <c r="K392" s="23"/>
       <c r="L392" s="23"/>
     </row>
@@ -23716,7 +24036,7 @@
       </c>
       <c r="H393" s="27"/>
       <c r="I393" s="27"/>
-      <c r="J393" s="27"/>
+      <c r="J393" s="42"/>
       <c r="K393" s="27"/>
       <c r="L393" s="27"/>
     </row>
@@ -23744,7 +24064,7 @@
       </c>
       <c r="H394" s="32"/>
       <c r="I394" s="32"/>
-      <c r="J394" s="32"/>
+      <c r="J394" s="40"/>
       <c r="K394" s="32"/>
       <c r="L394" s="32"/>
     </row>
@@ -23772,7 +24092,7 @@
       </c>
       <c r="H395" s="23"/>
       <c r="I395" s="23"/>
-      <c r="J395" s="23"/>
+      <c r="J395" s="41"/>
       <c r="K395" s="23"/>
       <c r="L395" s="23"/>
     </row>
@@ -23800,7 +24120,7 @@
       </c>
       <c r="H396" s="23"/>
       <c r="I396" s="23"/>
-      <c r="J396" s="23"/>
+      <c r="J396" s="41"/>
       <c r="K396" s="23"/>
       <c r="L396" s="23"/>
     </row>
@@ -23828,7 +24148,7 @@
       </c>
       <c r="H397" s="27"/>
       <c r="I397" s="27"/>
-      <c r="J397" s="27"/>
+      <c r="J397" s="42"/>
       <c r="K397" s="27"/>
       <c r="L397" s="27"/>
     </row>
@@ -23856,7 +24176,7 @@
       </c>
       <c r="H398" s="32"/>
       <c r="I398" s="32"/>
-      <c r="J398" s="32"/>
+      <c r="J398" s="40"/>
       <c r="K398" s="32"/>
       <c r="L398" s="32"/>
     </row>
@@ -23884,7 +24204,7 @@
       </c>
       <c r="H399" s="23"/>
       <c r="I399" s="23"/>
-      <c r="J399" s="23"/>
+      <c r="J399" s="41"/>
       <c r="K399" s="23"/>
       <c r="L399" s="23"/>
     </row>
@@ -23912,7 +24232,7 @@
       </c>
       <c r="H400" s="23"/>
       <c r="I400" s="23"/>
-      <c r="J400" s="23"/>
+      <c r="J400" s="41"/>
       <c r="K400" s="23"/>
       <c r="L400" s="23"/>
     </row>
@@ -23940,7 +24260,7 @@
       </c>
       <c r="H401" s="27"/>
       <c r="I401" s="27"/>
-      <c r="J401" s="27"/>
+      <c r="J401" s="42"/>
       <c r="K401" s="27"/>
       <c r="L401" s="27"/>
     </row>
@@ -23968,7 +24288,7 @@
       </c>
       <c r="H402" s="32"/>
       <c r="I402" s="32"/>
-      <c r="J402" s="32"/>
+      <c r="J402" s="40"/>
       <c r="K402" s="32"/>
       <c r="L402" s="32"/>
     </row>
@@ -23996,7 +24316,7 @@
       </c>
       <c r="H403" s="23"/>
       <c r="I403" s="23"/>
-      <c r="J403" s="23"/>
+      <c r="J403" s="41"/>
       <c r="K403" s="23"/>
       <c r="L403" s="23"/>
     </row>
@@ -24024,7 +24344,7 @@
       </c>
       <c r="H404" s="23"/>
       <c r="I404" s="23"/>
-      <c r="J404" s="23"/>
+      <c r="J404" s="41"/>
       <c r="K404" s="23"/>
       <c r="L404" s="23"/>
     </row>
@@ -24052,7 +24372,7 @@
       </c>
       <c r="H405" s="27"/>
       <c r="I405" s="27"/>
-      <c r="J405" s="27"/>
+      <c r="J405" s="42"/>
       <c r="K405" s="27"/>
       <c r="L405" s="27"/>
     </row>
@@ -24080,7 +24400,7 @@
       </c>
       <c r="H406" s="32"/>
       <c r="I406" s="32"/>
-      <c r="J406" s="32"/>
+      <c r="J406" s="40"/>
       <c r="K406" s="32"/>
       <c r="L406" s="32"/>
     </row>
@@ -24108,7 +24428,7 @@
       </c>
       <c r="H407" s="23"/>
       <c r="I407" s="23"/>
-      <c r="J407" s="23"/>
+      <c r="J407" s="41"/>
       <c r="K407" s="23"/>
       <c r="L407" s="23"/>
     </row>
@@ -24136,7 +24456,7 @@
       </c>
       <c r="H408" s="23"/>
       <c r="I408" s="23"/>
-      <c r="J408" s="23"/>
+      <c r="J408" s="41"/>
       <c r="K408" s="23"/>
       <c r="L408" s="23"/>
     </row>
@@ -24164,7 +24484,7 @@
       </c>
       <c r="H409" s="27"/>
       <c r="I409" s="27"/>
-      <c r="J409" s="27"/>
+      <c r="J409" s="42"/>
       <c r="K409" s="27"/>
       <c r="L409" s="27"/>
     </row>
@@ -24192,7 +24512,7 @@
       </c>
       <c r="H410" s="32"/>
       <c r="I410" s="32"/>
-      <c r="J410" s="32"/>
+      <c r="J410" s="40"/>
       <c r="K410" s="32"/>
       <c r="L410" s="32"/>
     </row>
@@ -24220,7 +24540,7 @@
       </c>
       <c r="H411" s="23"/>
       <c r="I411" s="23"/>
-      <c r="J411" s="23"/>
+      <c r="J411" s="41"/>
       <c r="K411" s="23"/>
       <c r="L411" s="23"/>
     </row>
@@ -24248,7 +24568,7 @@
       </c>
       <c r="H412" s="23"/>
       <c r="I412" s="23"/>
-      <c r="J412" s="23"/>
+      <c r="J412" s="41"/>
       <c r="K412" s="23"/>
       <c r="L412" s="23"/>
     </row>
@@ -24276,7 +24596,7 @@
       </c>
       <c r="H413" s="27"/>
       <c r="I413" s="27"/>
-      <c r="J413" s="27"/>
+      <c r="J413" s="42"/>
       <c r="K413" s="27"/>
       <c r="L413" s="27"/>
     </row>
@@ -24304,7 +24624,7 @@
       </c>
       <c r="H414" s="32"/>
       <c r="I414" s="32"/>
-      <c r="J414" s="32"/>
+      <c r="J414" s="40"/>
       <c r="K414" s="32"/>
       <c r="L414" s="32"/>
     </row>
@@ -24332,7 +24652,7 @@
       </c>
       <c r="H415" s="23"/>
       <c r="I415" s="23"/>
-      <c r="J415" s="23"/>
+      <c r="J415" s="41"/>
       <c r="K415" s="23"/>
       <c r="L415" s="23"/>
     </row>
@@ -24360,7 +24680,7 @@
       </c>
       <c r="H416" s="23"/>
       <c r="I416" s="23"/>
-      <c r="J416" s="23"/>
+      <c r="J416" s="41"/>
       <c r="K416" s="23"/>
       <c r="L416" s="23"/>
     </row>
@@ -24388,7 +24708,7 @@
       </c>
       <c r="H417" s="27"/>
       <c r="I417" s="27"/>
-      <c r="J417" s="27"/>
+      <c r="J417" s="42"/>
       <c r="K417" s="27"/>
       <c r="L417" s="27"/>
     </row>
@@ -24416,7 +24736,7 @@
       </c>
       <c r="H418" s="32"/>
       <c r="I418" s="32"/>
-      <c r="J418" s="32"/>
+      <c r="J418" s="40"/>
       <c r="K418" s="32"/>
       <c r="L418" s="32"/>
     </row>
@@ -24444,7 +24764,7 @@
       </c>
       <c r="H419" s="23"/>
       <c r="I419" s="23"/>
-      <c r="J419" s="23"/>
+      <c r="J419" s="41"/>
       <c r="K419" s="23"/>
       <c r="L419" s="23"/>
     </row>
@@ -24472,7 +24792,7 @@
       </c>
       <c r="H420" s="23"/>
       <c r="I420" s="23"/>
-      <c r="J420" s="23"/>
+      <c r="J420" s="41"/>
       <c r="K420" s="23"/>
       <c r="L420" s="23"/>
     </row>
@@ -24500,7 +24820,7 @@
       </c>
       <c r="H421" s="27"/>
       <c r="I421" s="27"/>
-      <c r="J421" s="27"/>
+      <c r="J421" s="42"/>
       <c r="K421" s="27"/>
       <c r="L421" s="27"/>
     </row>
@@ -24528,7 +24848,7 @@
       </c>
       <c r="H422" s="32"/>
       <c r="I422" s="32"/>
-      <c r="J422" s="32"/>
+      <c r="J422" s="40"/>
       <c r="K422" s="32"/>
       <c r="L422" s="32"/>
     </row>
@@ -24556,7 +24876,7 @@
       </c>
       <c r="H423" s="23"/>
       <c r="I423" s="23"/>
-      <c r="J423" s="23"/>
+      <c r="J423" s="41"/>
       <c r="K423" s="23"/>
       <c r="L423" s="23"/>
     </row>
@@ -24584,7 +24904,7 @@
       </c>
       <c r="H424" s="23"/>
       <c r="I424" s="23"/>
-      <c r="J424" s="23"/>
+      <c r="J424" s="41"/>
       <c r="K424" s="23"/>
       <c r="L424" s="23"/>
     </row>
@@ -24612,7 +24932,7 @@
       </c>
       <c r="H425" s="27"/>
       <c r="I425" s="27"/>
-      <c r="J425" s="27"/>
+      <c r="J425" s="42"/>
       <c r="K425" s="27"/>
       <c r="L425" s="27"/>
     </row>
@@ -24640,7 +24960,7 @@
       </c>
       <c r="H426" s="32"/>
       <c r="I426" s="32"/>
-      <c r="J426" s="32"/>
+      <c r="J426" s="40"/>
       <c r="K426" s="32"/>
       <c r="L426" s="32"/>
     </row>
@@ -24668,7 +24988,7 @@
       </c>
       <c r="H427" s="23"/>
       <c r="I427" s="23"/>
-      <c r="J427" s="23"/>
+      <c r="J427" s="41"/>
       <c r="K427" s="23"/>
       <c r="L427" s="23"/>
     </row>
@@ -24696,7 +25016,7 @@
       </c>
       <c r="H428" s="23"/>
       <c r="I428" s="23"/>
-      <c r="J428" s="23"/>
+      <c r="J428" s="41"/>
       <c r="K428" s="23"/>
       <c r="L428" s="23"/>
     </row>
@@ -24724,7 +25044,7 @@
       </c>
       <c r="H429" s="27"/>
       <c r="I429" s="27"/>
-      <c r="J429" s="27"/>
+      <c r="J429" s="42"/>
       <c r="K429" s="27"/>
       <c r="L429" s="27"/>
     </row>
@@ -24752,7 +25072,7 @@
       </c>
       <c r="H430" s="32"/>
       <c r="I430" s="32"/>
-      <c r="J430" s="32"/>
+      <c r="J430" s="40"/>
       <c r="K430" s="32"/>
       <c r="L430" s="32"/>
     </row>
@@ -24780,7 +25100,7 @@
       </c>
       <c r="H431" s="23"/>
       <c r="I431" s="23"/>
-      <c r="J431" s="23"/>
+      <c r="J431" s="41"/>
       <c r="K431" s="23"/>
       <c r="L431" s="23"/>
     </row>
@@ -24808,7 +25128,7 @@
       </c>
       <c r="H432" s="23"/>
       <c r="I432" s="23"/>
-      <c r="J432" s="23"/>
+      <c r="J432" s="41"/>
       <c r="K432" s="23"/>
       <c r="L432" s="23"/>
     </row>
@@ -24836,7 +25156,7 @@
       </c>
       <c r="H433" s="27"/>
       <c r="I433" s="27"/>
-      <c r="J433" s="27"/>
+      <c r="J433" s="42"/>
       <c r="K433" s="27"/>
       <c r="L433" s="27"/>
     </row>
@@ -24864,7 +25184,7 @@
       </c>
       <c r="H434" s="32"/>
       <c r="I434" s="32"/>
-      <c r="J434" s="32"/>
+      <c r="J434" s="40"/>
       <c r="K434" s="32"/>
       <c r="L434" s="32"/>
     </row>
@@ -24892,7 +25212,7 @@
       </c>
       <c r="H435" s="23"/>
       <c r="I435" s="23"/>
-      <c r="J435" s="23"/>
+      <c r="J435" s="41"/>
       <c r="K435" s="23"/>
       <c r="L435" s="23"/>
     </row>
@@ -24920,7 +25240,7 @@
       </c>
       <c r="H436" s="23"/>
       <c r="I436" s="23"/>
-      <c r="J436" s="23"/>
+      <c r="J436" s="41"/>
       <c r="K436" s="23"/>
       <c r="L436" s="23"/>
     </row>
@@ -24948,7 +25268,7 @@
       </c>
       <c r="H437" s="27"/>
       <c r="I437" s="27"/>
-      <c r="J437" s="27"/>
+      <c r="J437" s="42"/>
       <c r="K437" s="27"/>
       <c r="L437" s="27"/>
     </row>
@@ -24976,7 +25296,7 @@
       </c>
       <c r="H438" s="32"/>
       <c r="I438" s="32"/>
-      <c r="J438" s="32"/>
+      <c r="J438" s="40"/>
       <c r="K438" s="32"/>
       <c r="L438" s="32"/>
     </row>
@@ -25004,7 +25324,7 @@
       </c>
       <c r="H439" s="23"/>
       <c r="I439" s="23"/>
-      <c r="J439" s="23"/>
+      <c r="J439" s="41"/>
       <c r="K439" s="23"/>
       <c r="L439" s="23"/>
     </row>
@@ -25032,7 +25352,7 @@
       </c>
       <c r="H440" s="23"/>
       <c r="I440" s="23"/>
-      <c r="J440" s="23"/>
+      <c r="J440" s="41"/>
       <c r="K440" s="23"/>
       <c r="L440" s="23"/>
     </row>
@@ -25060,7 +25380,7 @@
       </c>
       <c r="H441" s="27"/>
       <c r="I441" s="27"/>
-      <c r="J441" s="27"/>
+      <c r="J441" s="42"/>
       <c r="K441" s="27"/>
       <c r="L441" s="27"/>
     </row>
@@ -25088,7 +25408,7 @@
       </c>
       <c r="H442" s="32"/>
       <c r="I442" s="32"/>
-      <c r="J442" s="32"/>
+      <c r="J442" s="40"/>
       <c r="K442" s="32"/>
       <c r="L442" s="32"/>
     </row>
@@ -25116,7 +25436,7 @@
       </c>
       <c r="H443" s="23"/>
       <c r="I443" s="23"/>
-      <c r="J443" s="23"/>
+      <c r="J443" s="41"/>
       <c r="K443" s="23"/>
       <c r="L443" s="23"/>
     </row>
@@ -25144,7 +25464,7 @@
       </c>
       <c r="H444" s="23"/>
       <c r="I444" s="23"/>
-      <c r="J444" s="23"/>
+      <c r="J444" s="41"/>
       <c r="K444" s="23"/>
       <c r="L444" s="23"/>
     </row>
@@ -25172,7 +25492,7 @@
       </c>
       <c r="H445" s="27"/>
       <c r="I445" s="27"/>
-      <c r="J445" s="27"/>
+      <c r="J445" s="42"/>
       <c r="K445" s="27"/>
       <c r="L445" s="27"/>
     </row>
@@ -25200,7 +25520,7 @@
       </c>
       <c r="H446" s="32"/>
       <c r="I446" s="32"/>
-      <c r="J446" s="32"/>
+      <c r="J446" s="40"/>
       <c r="K446" s="32"/>
       <c r="L446" s="32"/>
     </row>
@@ -25228,7 +25548,7 @@
       </c>
       <c r="H447" s="23"/>
       <c r="I447" s="23"/>
-      <c r="J447" s="23"/>
+      <c r="J447" s="41"/>
       <c r="K447" s="23"/>
       <c r="L447" s="23"/>
     </row>
@@ -25256,7 +25576,7 @@
       </c>
       <c r="H448" s="23"/>
       <c r="I448" s="23"/>
-      <c r="J448" s="23"/>
+      <c r="J448" s="41"/>
       <c r="K448" s="23"/>
       <c r="L448" s="23"/>
     </row>
@@ -25284,7 +25604,7 @@
       </c>
       <c r="H449" s="27"/>
       <c r="I449" s="27"/>
-      <c r="J449" s="27"/>
+      <c r="J449" s="42"/>
       <c r="K449" s="27"/>
       <c r="L449" s="27"/>
     </row>
@@ -25312,7 +25632,7 @@
       </c>
       <c r="H450" s="32"/>
       <c r="I450" s="32"/>
-      <c r="J450" s="32"/>
+      <c r="J450" s="40"/>
       <c r="K450" s="32"/>
       <c r="L450" s="32"/>
     </row>
@@ -25340,7 +25660,7 @@
       </c>
       <c r="H451" s="23"/>
       <c r="I451" s="23"/>
-      <c r="J451" s="23"/>
+      <c r="J451" s="41"/>
       <c r="K451" s="23"/>
       <c r="L451" s="23"/>
     </row>
@@ -25368,7 +25688,7 @@
       </c>
       <c r="H452" s="23"/>
       <c r="I452" s="23"/>
-      <c r="J452" s="23"/>
+      <c r="J452" s="41"/>
       <c r="K452" s="23"/>
       <c r="L452" s="23"/>
     </row>
@@ -25396,7 +25716,7 @@
       </c>
       <c r="H453" s="27"/>
       <c r="I453" s="27"/>
-      <c r="J453" s="27"/>
+      <c r="J453" s="42"/>
       <c r="K453" s="27"/>
       <c r="L453" s="27"/>
     </row>
@@ -25424,7 +25744,7 @@
       </c>
       <c r="H454" s="32"/>
       <c r="I454" s="32"/>
-      <c r="J454" s="32"/>
+      <c r="J454" s="40"/>
       <c r="K454" s="32"/>
       <c r="L454" s="32"/>
     </row>
@@ -25452,7 +25772,7 @@
       </c>
       <c r="H455" s="23"/>
       <c r="I455" s="23"/>
-      <c r="J455" s="23"/>
+      <c r="J455" s="41"/>
       <c r="K455" s="23"/>
       <c r="L455" s="23"/>
     </row>
@@ -25480,7 +25800,7 @@
       </c>
       <c r="H456" s="23"/>
       <c r="I456" s="23"/>
-      <c r="J456" s="23"/>
+      <c r="J456" s="41"/>
       <c r="K456" s="23"/>
       <c r="L456" s="23"/>
     </row>
@@ -25508,7 +25828,7 @@
       </c>
       <c r="H457" s="27"/>
       <c r="I457" s="27"/>
-      <c r="J457" s="27"/>
+      <c r="J457" s="42"/>
       <c r="K457" s="27"/>
       <c r="L457" s="27"/>
     </row>
@@ -25536,7 +25856,7 @@
       </c>
       <c r="H458" s="32"/>
       <c r="I458" s="32"/>
-      <c r="J458" s="32"/>
+      <c r="J458" s="40"/>
       <c r="K458" s="32"/>
       <c r="L458" s="32"/>
     </row>
@@ -25564,7 +25884,7 @@
       </c>
       <c r="H459" s="23"/>
       <c r="I459" s="23"/>
-      <c r="J459" s="23"/>
+      <c r="J459" s="41"/>
       <c r="K459" s="23"/>
       <c r="L459" s="23"/>
     </row>
@@ -25592,7 +25912,7 @@
       </c>
       <c r="H460" s="23"/>
       <c r="I460" s="23"/>
-      <c r="J460" s="23"/>
+      <c r="J460" s="41"/>
       <c r="K460" s="23"/>
       <c r="L460" s="23"/>
     </row>
@@ -25620,7 +25940,7 @@
       </c>
       <c r="H461" s="27"/>
       <c r="I461" s="27"/>
-      <c r="J461" s="27"/>
+      <c r="J461" s="42"/>
       <c r="K461" s="27"/>
       <c r="L461" s="27"/>
     </row>
@@ -25648,7 +25968,7 @@
       </c>
       <c r="H462" s="32"/>
       <c r="I462" s="32"/>
-      <c r="J462" s="32"/>
+      <c r="J462" s="40"/>
       <c r="K462" s="32"/>
       <c r="L462" s="32"/>
     </row>
@@ -25676,7 +25996,7 @@
       </c>
       <c r="H463" s="23"/>
       <c r="I463" s="23"/>
-      <c r="J463" s="23"/>
+      <c r="J463" s="41"/>
       <c r="K463" s="23"/>
       <c r="L463" s="23"/>
     </row>
@@ -25704,7 +26024,7 @@
       </c>
       <c r="H464" s="23"/>
       <c r="I464" s="23"/>
-      <c r="J464" s="23"/>
+      <c r="J464" s="41"/>
       <c r="K464" s="23"/>
       <c r="L464" s="23"/>
     </row>
@@ -25732,7 +26052,7 @@
       </c>
       <c r="H465" s="27"/>
       <c r="I465" s="27"/>
-      <c r="J465" s="27"/>
+      <c r="J465" s="42"/>
       <c r="K465" s="27"/>
       <c r="L465" s="27"/>
     </row>
@@ -25760,7 +26080,7 @@
       </c>
       <c r="H466" s="32"/>
       <c r="I466" s="32"/>
-      <c r="J466" s="32"/>
+      <c r="J466" s="40"/>
       <c r="K466" s="32"/>
       <c r="L466" s="32"/>
     </row>
@@ -25788,7 +26108,7 @@
       </c>
       <c r="H467" s="23"/>
       <c r="I467" s="23"/>
-      <c r="J467" s="23"/>
+      <c r="J467" s="41"/>
       <c r="K467" s="23"/>
       <c r="L467" s="23"/>
     </row>
@@ -25816,7 +26136,7 @@
       </c>
       <c r="H468" s="23"/>
       <c r="I468" s="23"/>
-      <c r="J468" s="23"/>
+      <c r="J468" s="41"/>
       <c r="K468" s="23"/>
       <c r="L468" s="23"/>
     </row>
@@ -25844,7 +26164,7 @@
       </c>
       <c r="H469" s="27"/>
       <c r="I469" s="27"/>
-      <c r="J469" s="27"/>
+      <c r="J469" s="42"/>
       <c r="K469" s="27"/>
       <c r="L469" s="27"/>
     </row>
@@ -25872,7 +26192,7 @@
       </c>
       <c r="H470" s="32"/>
       <c r="I470" s="32"/>
-      <c r="J470" s="32"/>
+      <c r="J470" s="40"/>
       <c r="K470" s="32"/>
       <c r="L470" s="32"/>
     </row>
@@ -25900,7 +26220,7 @@
       </c>
       <c r="H471" s="23"/>
       <c r="I471" s="23"/>
-      <c r="J471" s="23"/>
+      <c r="J471" s="41"/>
       <c r="K471" s="23"/>
       <c r="L471" s="23"/>
     </row>
@@ -25928,7 +26248,7 @@
       </c>
       <c r="H472" s="23"/>
       <c r="I472" s="23"/>
-      <c r="J472" s="23"/>
+      <c r="J472" s="41"/>
       <c r="K472" s="23"/>
       <c r="L472" s="23"/>
     </row>
@@ -25956,7 +26276,7 @@
       </c>
       <c r="H473" s="27"/>
       <c r="I473" s="27"/>
-      <c r="J473" s="27"/>
+      <c r="J473" s="42"/>
       <c r="K473" s="27"/>
       <c r="L473" s="27"/>
     </row>
@@ -25984,7 +26304,7 @@
       </c>
       <c r="H474" s="32"/>
       <c r="I474" s="32"/>
-      <c r="J474" s="32"/>
+      <c r="J474" s="40"/>
       <c r="K474" s="32"/>
       <c r="L474" s="32"/>
     </row>
@@ -26012,7 +26332,7 @@
       </c>
       <c r="H475" s="23"/>
       <c r="I475" s="23"/>
-      <c r="J475" s="23"/>
+      <c r="J475" s="41"/>
       <c r="K475" s="23"/>
       <c r="L475" s="23"/>
     </row>
@@ -26040,7 +26360,7 @@
       </c>
       <c r="H476" s="23"/>
       <c r="I476" s="23"/>
-      <c r="J476" s="23"/>
+      <c r="J476" s="41"/>
       <c r="K476" s="23"/>
       <c r="L476" s="23"/>
     </row>
@@ -26068,7 +26388,7 @@
       </c>
       <c r="H477" s="27"/>
       <c r="I477" s="27"/>
-      <c r="J477" s="27"/>
+      <c r="J477" s="42"/>
       <c r="K477" s="27"/>
       <c r="L477" s="27"/>
     </row>
@@ -26096,7 +26416,7 @@
       </c>
       <c r="H478" s="32"/>
       <c r="I478" s="32"/>
-      <c r="J478" s="32"/>
+      <c r="J478" s="40"/>
       <c r="K478" s="32"/>
       <c r="L478" s="32"/>
     </row>
@@ -26124,7 +26444,7 @@
       </c>
       <c r="H479" s="23"/>
       <c r="I479" s="23"/>
-      <c r="J479" s="23"/>
+      <c r="J479" s="41"/>
       <c r="K479" s="23"/>
       <c r="L479" s="23"/>
     </row>
@@ -26152,7 +26472,7 @@
       </c>
       <c r="H480" s="23"/>
       <c r="I480" s="23"/>
-      <c r="J480" s="23"/>
+      <c r="J480" s="41"/>
       <c r="K480" s="23"/>
       <c r="L480" s="23"/>
     </row>
@@ -26180,7 +26500,7 @@
       </c>
       <c r="H481" s="27"/>
       <c r="I481" s="27"/>
-      <c r="J481" s="27"/>
+      <c r="J481" s="42"/>
       <c r="K481" s="27"/>
       <c r="L481" s="27"/>
     </row>

--- a/vrp_results_tracker.xlsx
+++ b/vrp_results_tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdrex\PycharmProjects\wilib_vrp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B24AC37-5631-47D8-A866-09CCB1E3636A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A959418B-FCA5-4266-B0F7-13455D2ABAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="870" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4575" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4639" uniqueCount="690">
   <si>
     <t>shift</t>
   </si>
@@ -4685,7 +4685,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6334,7 +6334,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10501,8 +10501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:T481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C206" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H226" sqref="H226"/>
+    <sheetView tabSelected="1" topLeftCell="C237" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H254" sqref="H254:L257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19358,11 +19358,21 @@
       <c r="G226" s="32" t="s">
         <v>423</v>
       </c>
-      <c r="H226" s="32"/>
-      <c r="I226" s="32"/>
-      <c r="J226" s="40"/>
-      <c r="K226" s="32"/>
-      <c r="L226" s="32"/>
+      <c r="H226" s="32">
+        <v>6</v>
+      </c>
+      <c r="I226" s="32">
+        <v>2586</v>
+      </c>
+      <c r="J226" s="40">
+        <v>1335.41</v>
+      </c>
+      <c r="K226" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L226" s="32" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A227" s="21" t="s">
@@ -19386,11 +19396,21 @@
       <c r="G227" s="23" t="s">
         <v>424</v>
       </c>
-      <c r="H227" s="23"/>
-      <c r="I227" s="23"/>
-      <c r="J227" s="41"/>
-      <c r="K227" s="23"/>
-      <c r="L227" s="23"/>
+      <c r="H227" s="24">
+        <v>6</v>
+      </c>
+      <c r="I227" s="24">
+        <v>2612</v>
+      </c>
+      <c r="J227" s="41">
+        <v>1360.19</v>
+      </c>
+      <c r="K227" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L227" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A228" s="21" t="s">
@@ -19414,11 +19434,21 @@
       <c r="G228" s="23" t="s">
         <v>425</v>
       </c>
-      <c r="H228" s="23"/>
-      <c r="I228" s="23"/>
-      <c r="J228" s="41"/>
-      <c r="K228" s="23"/>
-      <c r="L228" s="23"/>
+      <c r="H228" s="24">
+        <v>6</v>
+      </c>
+      <c r="I228" s="24">
+        <v>2613</v>
+      </c>
+      <c r="J228" s="41">
+        <v>1362.96</v>
+      </c>
+      <c r="K228" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L228" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A229" s="21" t="s">
@@ -19442,11 +19472,21 @@
       <c r="G229" s="27" t="s">
         <v>426</v>
       </c>
-      <c r="H229" s="27"/>
-      <c r="I229" s="27"/>
-      <c r="J229" s="42"/>
-      <c r="K229" s="27"/>
-      <c r="L229" s="27"/>
+      <c r="H229" s="27">
+        <v>6</v>
+      </c>
+      <c r="I229" s="27">
+        <v>2478</v>
+      </c>
+      <c r="J229" s="42">
+        <v>1279.94</v>
+      </c>
+      <c r="K229" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="L229" s="27" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A230" s="21" t="s">
@@ -19470,11 +19510,21 @@
       <c r="G230" s="32" t="s">
         <v>427</v>
       </c>
-      <c r="H230" s="32"/>
-      <c r="I230" s="32"/>
-      <c r="J230" s="40"/>
-      <c r="K230" s="32"/>
-      <c r="L230" s="32"/>
+      <c r="H230" s="32">
+        <v>4</v>
+      </c>
+      <c r="I230" s="32">
+        <v>2128</v>
+      </c>
+      <c r="J230" s="40">
+        <v>1051.06</v>
+      </c>
+      <c r="K230" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L230" s="32" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A231" s="21" t="s">
@@ -19498,11 +19548,21 @@
       <c r="G231" s="23" t="s">
         <v>428</v>
       </c>
-      <c r="H231" s="23"/>
-      <c r="I231" s="23"/>
-      <c r="J231" s="41"/>
-      <c r="K231" s="23"/>
-      <c r="L231" s="23"/>
+      <c r="H231" s="24">
+        <v>5</v>
+      </c>
+      <c r="I231" s="24">
+        <v>2284</v>
+      </c>
+      <c r="J231" s="41">
+        <v>1169.03</v>
+      </c>
+      <c r="K231" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L231" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A232" s="21" t="s">
@@ -19526,11 +19586,21 @@
       <c r="G232" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="H232" s="23"/>
-      <c r="I232" s="23"/>
-      <c r="J232" s="41"/>
-      <c r="K232" s="23"/>
-      <c r="L232" s="23"/>
+      <c r="H232" s="24">
+        <v>5</v>
+      </c>
+      <c r="I232" s="24">
+        <v>2341</v>
+      </c>
+      <c r="J232" s="41">
+        <v>1202.45</v>
+      </c>
+      <c r="K232" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L232" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A233" s="21" t="s">
@@ -19554,11 +19624,21 @@
       <c r="G233" s="27" t="s">
         <v>430</v>
       </c>
-      <c r="H233" s="27"/>
-      <c r="I233" s="27"/>
-      <c r="J233" s="42"/>
-      <c r="K233" s="27"/>
-      <c r="L233" s="27"/>
+      <c r="H233" s="27">
+        <v>5</v>
+      </c>
+      <c r="I233" s="27">
+        <v>2329</v>
+      </c>
+      <c r="J233" s="42">
+        <v>1182.8599999999999</v>
+      </c>
+      <c r="K233" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="L233" s="27" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A234" s="21" t="s">
@@ -19582,11 +19662,21 @@
       <c r="G234" s="32" t="s">
         <v>431</v>
       </c>
-      <c r="H234" s="32"/>
-      <c r="I234" s="32"/>
-      <c r="J234" s="40"/>
-      <c r="K234" s="32"/>
-      <c r="L234" s="32"/>
+      <c r="H234" s="32">
+        <v>6</v>
+      </c>
+      <c r="I234" s="32">
+        <v>2586</v>
+      </c>
+      <c r="J234" s="40">
+        <v>1335.41</v>
+      </c>
+      <c r="K234" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L234" s="32" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A235" s="21" t="s">
@@ -19610,11 +19700,21 @@
       <c r="G235" s="23" t="s">
         <v>432</v>
       </c>
-      <c r="H235" s="23"/>
-      <c r="I235" s="23"/>
-      <c r="J235" s="41"/>
-      <c r="K235" s="23"/>
-      <c r="L235" s="23"/>
+      <c r="H235" s="24">
+        <v>6</v>
+      </c>
+      <c r="I235" s="24">
+        <v>2612</v>
+      </c>
+      <c r="J235" s="41">
+        <v>1360.19</v>
+      </c>
+      <c r="K235" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L235" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A236" s="21" t="s">
@@ -19638,11 +19738,21 @@
       <c r="G236" s="23" t="s">
         <v>433</v>
       </c>
-      <c r="H236" s="23"/>
-      <c r="I236" s="23"/>
-      <c r="J236" s="41"/>
-      <c r="K236" s="23"/>
-      <c r="L236" s="23"/>
+      <c r="H236" s="24">
+        <v>6</v>
+      </c>
+      <c r="I236" s="24">
+        <v>2613</v>
+      </c>
+      <c r="J236" s="41">
+        <v>1362.96</v>
+      </c>
+      <c r="K236" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L236" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A237" s="21" t="s">
@@ -19666,11 +19776,21 @@
       <c r="G237" s="27" t="s">
         <v>434</v>
       </c>
-      <c r="H237" s="27"/>
-      <c r="I237" s="27"/>
-      <c r="J237" s="42"/>
-      <c r="K237" s="27"/>
-      <c r="L237" s="27"/>
+      <c r="H237" s="27">
+        <v>6</v>
+      </c>
+      <c r="I237" s="27">
+        <v>2478</v>
+      </c>
+      <c r="J237" s="42">
+        <v>1279.94</v>
+      </c>
+      <c r="K237" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="L237" s="27" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A238" s="21" t="s">
@@ -19694,11 +19814,21 @@
       <c r="G238" s="32" t="s">
         <v>435</v>
       </c>
-      <c r="H238" s="32"/>
-      <c r="I238" s="32"/>
-      <c r="J238" s="40"/>
-      <c r="K238" s="32"/>
-      <c r="L238" s="32"/>
+      <c r="H238" s="32">
+        <v>4</v>
+      </c>
+      <c r="I238" s="32">
+        <v>2135</v>
+      </c>
+      <c r="J238" s="40">
+        <v>1063.6600000000001</v>
+      </c>
+      <c r="K238" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L238" s="32" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A239" s="21" t="s">
@@ -19722,11 +19852,21 @@
       <c r="G239" s="23" t="s">
         <v>436</v>
       </c>
-      <c r="H239" s="23"/>
-      <c r="I239" s="23"/>
-      <c r="J239" s="41"/>
-      <c r="K239" s="23"/>
-      <c r="L239" s="23"/>
+      <c r="H239" s="24">
+        <v>5</v>
+      </c>
+      <c r="I239" s="24">
+        <v>2284</v>
+      </c>
+      <c r="J239" s="41">
+        <v>1169.03</v>
+      </c>
+      <c r="K239" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L239" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A240" s="21" t="s">
@@ -19750,11 +19890,21 @@
       <c r="G240" s="23" t="s">
         <v>437</v>
       </c>
-      <c r="H240" s="23"/>
-      <c r="I240" s="23"/>
-      <c r="J240" s="41"/>
-      <c r="K240" s="23"/>
-      <c r="L240" s="23"/>
+      <c r="H240" s="24">
+        <v>6</v>
+      </c>
+      <c r="I240" s="24">
+        <v>2558</v>
+      </c>
+      <c r="J240" s="41">
+        <v>1327.72</v>
+      </c>
+      <c r="K240" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L240" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A241" s="21" t="s">
@@ -19778,11 +19928,21 @@
       <c r="G241" s="27" t="s">
         <v>438</v>
       </c>
-      <c r="H241" s="27"/>
-      <c r="I241" s="27"/>
-      <c r="J241" s="42"/>
-      <c r="K241" s="27"/>
-      <c r="L241" s="27"/>
+      <c r="H241" s="27">
+        <v>4</v>
+      </c>
+      <c r="I241" s="27">
+        <v>2218</v>
+      </c>
+      <c r="J241" s="42">
+        <v>1143.44</v>
+      </c>
+      <c r="K241" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="L241" s="27" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A242" s="21" t="s">
@@ -19806,11 +19966,21 @@
       <c r="G242" s="32" t="s">
         <v>439</v>
       </c>
-      <c r="H242" s="32"/>
-      <c r="I242" s="32"/>
-      <c r="J242" s="40"/>
-      <c r="K242" s="32"/>
-      <c r="L242" s="32"/>
+      <c r="H242" s="32">
+        <v>6</v>
+      </c>
+      <c r="I242" s="32">
+        <v>2586</v>
+      </c>
+      <c r="J242" s="40">
+        <v>1335.41</v>
+      </c>
+      <c r="K242" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L242" s="32" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A243" s="21" t="s">
@@ -19834,11 +20004,21 @@
       <c r="G243" s="23" t="s">
         <v>440</v>
       </c>
-      <c r="H243" s="23"/>
-      <c r="I243" s="23"/>
-      <c r="J243" s="41"/>
-      <c r="K243" s="23"/>
-      <c r="L243" s="23"/>
+      <c r="H243" s="24">
+        <v>6</v>
+      </c>
+      <c r="I243" s="24">
+        <v>2612</v>
+      </c>
+      <c r="J243" s="41">
+        <v>1360.19</v>
+      </c>
+      <c r="K243" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L243" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A244" s="21" t="s">
@@ -19862,11 +20042,21 @@
       <c r="G244" s="23" t="s">
         <v>441</v>
       </c>
-      <c r="H244" s="23"/>
-      <c r="I244" s="23"/>
-      <c r="J244" s="41"/>
-      <c r="K244" s="23"/>
-      <c r="L244" s="23"/>
+      <c r="H244" s="24">
+        <v>6</v>
+      </c>
+      <c r="I244" s="24">
+        <v>2613</v>
+      </c>
+      <c r="J244" s="41">
+        <v>1362.96</v>
+      </c>
+      <c r="K244" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L244" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A245" s="21" t="s">
@@ -19890,11 +20080,21 @@
       <c r="G245" s="27" t="s">
         <v>442</v>
       </c>
-      <c r="H245" s="27"/>
-      <c r="I245" s="27"/>
-      <c r="J245" s="42"/>
-      <c r="K245" s="27"/>
-      <c r="L245" s="27"/>
+      <c r="H245" s="27">
+        <v>6</v>
+      </c>
+      <c r="I245" s="27">
+        <v>2478</v>
+      </c>
+      <c r="J245" s="42">
+        <v>1279.94</v>
+      </c>
+      <c r="K245" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="L245" s="27" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A246" s="21" t="s">
@@ -19918,11 +20118,21 @@
       <c r="G246" s="32" t="s">
         <v>443</v>
       </c>
-      <c r="H246" s="32"/>
-      <c r="I246" s="32"/>
-      <c r="J246" s="40"/>
-      <c r="K246" s="32"/>
-      <c r="L246" s="32"/>
+      <c r="H246" s="32">
+        <v>4</v>
+      </c>
+      <c r="I246" s="32">
+        <v>2135</v>
+      </c>
+      <c r="J246" s="40">
+        <v>1063.6600000000001</v>
+      </c>
+      <c r="K246" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L246" s="32" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A247" s="21" t="s">
@@ -19946,11 +20156,21 @@
       <c r="G247" s="23" t="s">
         <v>444</v>
       </c>
-      <c r="H247" s="23"/>
-      <c r="I247" s="23"/>
-      <c r="J247" s="41"/>
-      <c r="K247" s="23"/>
-      <c r="L247" s="23"/>
+      <c r="H247" s="24">
+        <v>5</v>
+      </c>
+      <c r="I247" s="24">
+        <v>2284</v>
+      </c>
+      <c r="J247" s="41">
+        <v>1169.03</v>
+      </c>
+      <c r="K247" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L247" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A248" s="21" t="s">
@@ -19974,11 +20194,21 @@
       <c r="G248" s="23" t="s">
         <v>445</v>
       </c>
-      <c r="H248" s="23"/>
-      <c r="I248" s="23"/>
-      <c r="J248" s="41"/>
-      <c r="K248" s="23"/>
-      <c r="L248" s="23"/>
+      <c r="H248" s="24">
+        <v>6</v>
+      </c>
+      <c r="I248" s="24">
+        <v>2558</v>
+      </c>
+      <c r="J248" s="41">
+        <v>1327.72</v>
+      </c>
+      <c r="K248" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L248" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A249" s="21" t="s">
@@ -20002,11 +20232,21 @@
       <c r="G249" s="27" t="s">
         <v>446</v>
       </c>
-      <c r="H249" s="27"/>
-      <c r="I249" s="27"/>
-      <c r="J249" s="42"/>
-      <c r="K249" s="27"/>
-      <c r="L249" s="27"/>
+      <c r="H249" s="27">
+        <v>4</v>
+      </c>
+      <c r="I249" s="27">
+        <v>2218</v>
+      </c>
+      <c r="J249" s="42">
+        <v>1143.44</v>
+      </c>
+      <c r="K249" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="L249" s="27" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A250" s="21" t="s">
@@ -20030,11 +20270,21 @@
       <c r="G250" s="32" t="s">
         <v>447</v>
       </c>
-      <c r="H250" s="32"/>
-      <c r="I250" s="32"/>
-      <c r="J250" s="40"/>
-      <c r="K250" s="32"/>
-      <c r="L250" s="32"/>
+      <c r="H250" s="32">
+        <v>6</v>
+      </c>
+      <c r="I250" s="32">
+        <v>2586</v>
+      </c>
+      <c r="J250" s="40">
+        <v>1335.41</v>
+      </c>
+      <c r="K250" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L250" s="32" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A251" s="21" t="s">
@@ -20058,11 +20308,21 @@
       <c r="G251" s="23" t="s">
         <v>448</v>
       </c>
-      <c r="H251" s="23"/>
-      <c r="I251" s="23"/>
-      <c r="J251" s="41"/>
-      <c r="K251" s="23"/>
-      <c r="L251" s="23"/>
+      <c r="H251" s="24">
+        <v>6</v>
+      </c>
+      <c r="I251" s="24">
+        <v>2612</v>
+      </c>
+      <c r="J251" s="41">
+        <v>1360.19</v>
+      </c>
+      <c r="K251" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L251" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A252" s="21" t="s">
@@ -20086,11 +20346,21 @@
       <c r="G252" s="23" t="s">
         <v>449</v>
       </c>
-      <c r="H252" s="23"/>
-      <c r="I252" s="23"/>
-      <c r="J252" s="41"/>
-      <c r="K252" s="23"/>
-      <c r="L252" s="23"/>
+      <c r="H252" s="24">
+        <v>6</v>
+      </c>
+      <c r="I252" s="24">
+        <v>2613</v>
+      </c>
+      <c r="J252" s="41">
+        <v>1362.96</v>
+      </c>
+      <c r="K252" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L252" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A253" s="21" t="s">
@@ -20114,11 +20384,21 @@
       <c r="G253" s="27" t="s">
         <v>450</v>
       </c>
-      <c r="H253" s="27"/>
-      <c r="I253" s="27"/>
-      <c r="J253" s="42"/>
-      <c r="K253" s="27"/>
-      <c r="L253" s="27"/>
+      <c r="H253" s="27">
+        <v>6</v>
+      </c>
+      <c r="I253" s="27">
+        <v>2478</v>
+      </c>
+      <c r="J253" s="42">
+        <v>1279.94</v>
+      </c>
+      <c r="K253" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="L253" s="27" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A254" s="21" t="s">
@@ -20142,11 +20422,21 @@
       <c r="G254" s="32" t="s">
         <v>451</v>
       </c>
-      <c r="H254" s="32"/>
-      <c r="I254" s="32"/>
-      <c r="J254" s="40"/>
-      <c r="K254" s="32"/>
-      <c r="L254" s="32"/>
+      <c r="H254" s="32">
+        <v>4</v>
+      </c>
+      <c r="I254" s="32">
+        <v>2135</v>
+      </c>
+      <c r="J254" s="40">
+        <v>1063.6600000000001</v>
+      </c>
+      <c r="K254" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L254" s="32" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A255" s="21" t="s">
@@ -20170,11 +20460,21 @@
       <c r="G255" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="H255" s="23"/>
-      <c r="I255" s="23"/>
-      <c r="J255" s="41"/>
-      <c r="K255" s="23"/>
-      <c r="L255" s="23"/>
+      <c r="H255" s="24">
+        <v>5</v>
+      </c>
+      <c r="I255" s="24">
+        <v>2284</v>
+      </c>
+      <c r="J255" s="41">
+        <v>1169.03</v>
+      </c>
+      <c r="K255" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L255" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A256" s="21" t="s">
@@ -20198,11 +20498,21 @@
       <c r="G256" s="23" t="s">
         <v>453</v>
       </c>
-      <c r="H256" s="23"/>
-      <c r="I256" s="23"/>
-      <c r="J256" s="41"/>
-      <c r="K256" s="23"/>
-      <c r="L256" s="23"/>
+      <c r="H256" s="24">
+        <v>6</v>
+      </c>
+      <c r="I256" s="24">
+        <v>2558</v>
+      </c>
+      <c r="J256" s="41">
+        <v>1327.72</v>
+      </c>
+      <c r="K256" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L256" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A257" s="21" t="s">
@@ -20226,11 +20536,21 @@
       <c r="G257" s="27" t="s">
         <v>454</v>
       </c>
-      <c r="H257" s="27"/>
-      <c r="I257" s="27"/>
-      <c r="J257" s="42"/>
-      <c r="K257" s="27"/>
-      <c r="L257" s="27"/>
+      <c r="H257" s="27">
+        <v>4</v>
+      </c>
+      <c r="I257" s="27">
+        <v>2218</v>
+      </c>
+      <c r="J257" s="42">
+        <v>1143.44</v>
+      </c>
+      <c r="K257" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="L257" s="27" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A258" s="21" t="s">

--- a/vrp_results_tracker.xlsx
+++ b/vrp_results_tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdrex\PycharmProjects\wilib_vrp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A959418B-FCA5-4266-B0F7-13455D2ABAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3297D5E6-C5C3-471A-B338-2A38CCD1F5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="870" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="870" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="full_model_set" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4639" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4715" uniqueCount="690">
   <si>
     <t>shift</t>
   </si>
@@ -2286,18 +2286,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4685,7 +4685,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomRight" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6334,7 +6334,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomRight" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6892,50 +6892,50 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="I1" s="36" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="I1" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36" t="s">
+      <c r="E2" s="41"/>
+      <c r="F2" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="J2" s="36" t="s">
+      <c r="G2" s="41"/>
+      <c r="J2" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36" t="s">
+      <c r="K2" s="41"/>
+      <c r="L2" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36" t="s">
+      <c r="M2" s="41"/>
+      <c r="N2" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="O2" s="36"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
@@ -7167,50 +7167,50 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="I8" s="36" t="s">
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="I8" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36" t="s">
+      <c r="C9" s="41"/>
+      <c r="D9" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36" t="s">
+      <c r="E9" s="41"/>
+      <c r="F9" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="36"/>
-      <c r="J9" s="36" t="s">
+      <c r="G9" s="41"/>
+      <c r="J9" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36" t="s">
+      <c r="K9" s="41"/>
+      <c r="L9" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36" t="s">
+      <c r="M9" s="41"/>
+      <c r="N9" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="O9" s="36"/>
+      <c r="O9" s="41"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
@@ -7442,50 +7442,50 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="I15" s="36" t="s">
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="I15" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36" t="s">
+      <c r="C16" s="41"/>
+      <c r="D16" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36" t="s">
+      <c r="E16" s="41"/>
+      <c r="F16" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="G16" s="36"/>
-      <c r="J16" s="36" t="s">
+      <c r="G16" s="41"/>
+      <c r="J16" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36" t="s">
+      <c r="K16" s="41"/>
+      <c r="L16" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36" t="s">
+      <c r="M16" s="41"/>
+      <c r="N16" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="O16" s="36"/>
+      <c r="O16" s="41"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
@@ -7717,50 +7717,50 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="I22" s="36" t="s">
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="I22" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36" t="s">
+      <c r="C23" s="41"/>
+      <c r="D23" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36" t="s">
+      <c r="E23" s="41"/>
+      <c r="F23" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="G23" s="36"/>
-      <c r="J23" s="36" t="s">
+      <c r="G23" s="41"/>
+      <c r="J23" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36" t="s">
+      <c r="K23" s="41"/>
+      <c r="L23" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36" t="s">
+      <c r="M23" s="41"/>
+      <c r="N23" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="O23" s="36"/>
+      <c r="O23" s="41"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
@@ -7993,50 +7993,50 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="I29" s="36" t="s">
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="I29" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36" t="s">
+      <c r="C30" s="41"/>
+      <c r="D30" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36" t="s">
+      <c r="E30" s="41"/>
+      <c r="F30" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="G30" s="36"/>
-      <c r="J30" s="36" t="s">
+      <c r="G30" s="41"/>
+      <c r="J30" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36" t="s">
+      <c r="K30" s="41"/>
+      <c r="L30" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36" t="s">
+      <c r="M30" s="41"/>
+      <c r="N30" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="O30" s="36"/>
+      <c r="O30" s="41"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
@@ -8269,50 +8269,50 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="I36" s="36" t="s">
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="I36" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="36"/>
-      <c r="O36" s="36"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36" t="s">
+      <c r="C37" s="41"/>
+      <c r="D37" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36" t="s">
+      <c r="E37" s="41"/>
+      <c r="F37" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="G37" s="36"/>
-      <c r="J37" s="36" t="s">
+      <c r="G37" s="41"/>
+      <c r="J37" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36" t="s">
+      <c r="K37" s="41"/>
+      <c r="L37" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36" t="s">
+      <c r="M37" s="41"/>
+      <c r="N37" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="O37" s="36"/>
+      <c r="O37" s="41"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
@@ -8545,50 +8545,50 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A43" s="36" t="s">
+      <c r="A43" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="I43" s="36" t="s">
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="I43" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="J43" s="36"/>
-      <c r="K43" s="36"/>
-      <c r="L43" s="36"/>
-      <c r="M43" s="36"/>
-      <c r="N43" s="36"/>
-      <c r="O43" s="36"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="41"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36" t="s">
+      <c r="C44" s="41"/>
+      <c r="D44" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36" t="s">
+      <c r="E44" s="41"/>
+      <c r="F44" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="G44" s="36"/>
-      <c r="J44" s="36" t="s">
+      <c r="G44" s="41"/>
+      <c r="J44" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="K44" s="36"/>
-      <c r="L44" s="36" t="s">
+      <c r="K44" s="41"/>
+      <c r="L44" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="M44" s="36"/>
-      <c r="N44" s="36" t="s">
+      <c r="M44" s="41"/>
+      <c r="N44" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="O44" s="36"/>
+      <c r="O44" s="41"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
@@ -8822,41 +8822,41 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A50" s="35"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="I50" s="36" t="s">
+      <c r="A50" s="42"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="I50" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="J50" s="36"/>
-      <c r="K50" s="36"/>
-      <c r="L50" s="36"/>
-      <c r="M50" s="36"/>
-      <c r="N50" s="36"/>
-      <c r="O50" s="36"/>
+      <c r="J50" s="41"/>
+      <c r="K50" s="41"/>
+      <c r="L50" s="41"/>
+      <c r="M50" s="41"/>
+      <c r="N50" s="41"/>
+      <c r="O50" s="41"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B51" s="36"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
-      <c r="J51" s="36" t="s">
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="J51" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="K51" s="36"/>
-      <c r="L51" s="36" t="s">
+      <c r="K51" s="41"/>
+      <c r="L51" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="M51" s="36"/>
-      <c r="N51" s="36" t="s">
+      <c r="M51" s="41"/>
+      <c r="N51" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="O51" s="36"/>
+      <c r="O51" s="41"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="J52" t="s">
@@ -8987,6 +8987,62 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="I50:O50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="I43:O43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="I36:O36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="I29:O29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="I22:O22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="I15:O15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="I8:O8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="I1:O1"/>
     <mergeCell ref="B2:C2"/>
@@ -8995,62 +9051,6 @@
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="I8:O8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="I15:O15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="I22:O22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="I29:O29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="I36:O36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="I43:O43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="I50:O50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="N51:O51"/>
   </mergeCells>
   <conditionalFormatting sqref="L32:L35">
     <cfRule type="colorScale" priority="60">
@@ -10501,8 +10501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:T481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C237" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H254" sqref="H254:L257"/>
+    <sheetView tabSelected="1" topLeftCell="C255" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H290" sqref="H290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10596,7 +10596,7 @@
       <c r="I2" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="35" t="s">
         <v>34</v>
       </c>
       <c r="K2" s="31" t="s">
@@ -10642,7 +10642,7 @@
       <c r="I3" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="36" t="s">
         <v>34</v>
       </c>
       <c r="K3" s="24" t="s">
@@ -10688,7 +10688,7 @@
       <c r="I4" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="J4" s="36" t="s">
         <v>34</v>
       </c>
       <c r="K4" s="24" t="s">
@@ -10734,7 +10734,7 @@
       <c r="I5" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="39" t="s">
+      <c r="J5" s="37" t="s">
         <v>34</v>
       </c>
       <c r="K5" s="28" t="s">
@@ -10780,7 +10780,7 @@
       <c r="I6" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="37" t="s">
+      <c r="J6" s="35" t="s">
         <v>34</v>
       </c>
       <c r="K6" s="31" t="s">
@@ -10826,7 +10826,7 @@
       <c r="I7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="38" t="s">
+      <c r="J7" s="36" t="s">
         <v>34</v>
       </c>
       <c r="K7" s="24" t="s">
@@ -10872,7 +10872,7 @@
       <c r="I8" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="38" t="s">
+      <c r="J8" s="36" t="s">
         <v>34</v>
       </c>
       <c r="K8" s="24" t="s">
@@ -10918,7 +10918,7 @@
       <c r="I9" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="39" t="s">
+      <c r="J9" s="37" t="s">
         <v>34</v>
       </c>
       <c r="K9" s="28" t="s">
@@ -10964,7 +10964,7 @@
       <c r="I10" s="31">
         <v>4580</v>
       </c>
-      <c r="J10" s="37">
+      <c r="J10" s="35">
         <v>2506.06</v>
       </c>
       <c r="K10" s="31" t="s">
@@ -11010,7 +11010,7 @@
       <c r="I11" s="24">
         <v>4553</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="36">
         <v>2588.81</v>
       </c>
       <c r="K11" s="24" t="s">
@@ -11056,7 +11056,7 @@
       <c r="I12" s="24">
         <v>4432</v>
       </c>
-      <c r="J12" s="38">
+      <c r="J12" s="36">
         <v>2456.67</v>
       </c>
       <c r="K12" s="24" t="s">
@@ -11102,7 +11102,7 @@
       <c r="I13" s="28">
         <v>4407</v>
       </c>
-      <c r="J13" s="39">
+      <c r="J13" s="37">
         <v>2430.5700000000002</v>
       </c>
       <c r="K13" s="28" t="s">
@@ -11148,7 +11148,7 @@
       <c r="I14" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="37" t="s">
+      <c r="J14" s="35" t="s">
         <v>34</v>
       </c>
       <c r="K14" s="31" t="s">
@@ -11194,7 +11194,7 @@
       <c r="I15" s="24">
         <v>3968</v>
       </c>
-      <c r="J15" s="38">
+      <c r="J15" s="36">
         <v>2120.6799999999998</v>
       </c>
       <c r="K15" s="24" t="s">
@@ -11240,7 +11240,7 @@
       <c r="I16" s="24">
         <v>4320</v>
       </c>
-      <c r="J16" s="38">
+      <c r="J16" s="36">
         <v>2317.77</v>
       </c>
       <c r="K16" s="24" t="s">
@@ -11286,7 +11286,7 @@
       <c r="I17" s="28">
         <v>4254</v>
       </c>
-      <c r="J17" s="39">
+      <c r="J17" s="37">
         <v>2321.21</v>
       </c>
       <c r="K17" s="28" t="s">
@@ -11332,7 +11332,7 @@
       <c r="I18" s="31">
         <v>4102</v>
       </c>
-      <c r="J18" s="37">
+      <c r="J18" s="35">
         <v>2177.8000000000002</v>
       </c>
       <c r="K18" s="31" t="s">
@@ -11378,7 +11378,7 @@
       <c r="I19" s="24">
         <v>4349</v>
       </c>
-      <c r="J19" s="38">
+      <c r="J19" s="36">
         <v>2289.35</v>
       </c>
       <c r="K19" s="24" t="s">
@@ -11424,7 +11424,7 @@
       <c r="I20" s="24">
         <v>4137</v>
       </c>
-      <c r="J20" s="38">
+      <c r="J20" s="36">
         <v>2197.91</v>
       </c>
       <c r="K20" s="24" t="s">
@@ -11470,7 +11470,7 @@
       <c r="I21" s="28">
         <v>4296</v>
       </c>
-      <c r="J21" s="39">
+      <c r="J21" s="37">
         <v>2373.54</v>
       </c>
       <c r="K21" s="28" t="s">
@@ -11516,7 +11516,7 @@
       <c r="I22" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="J22" s="37" t="s">
+      <c r="J22" s="35" t="s">
         <v>34</v>
       </c>
       <c r="K22" s="31" t="s">
@@ -11562,7 +11562,7 @@
       <c r="I23" s="24">
         <v>3619</v>
       </c>
-      <c r="J23" s="38">
+      <c r="J23" s="36">
         <v>1798.09</v>
       </c>
       <c r="K23" s="24" t="s">
@@ -11608,7 +11608,7 @@
       <c r="I24" s="24">
         <v>3660</v>
       </c>
-      <c r="J24" s="38">
+      <c r="J24" s="36">
         <v>1832.91</v>
       </c>
       <c r="K24" s="24" t="s">
@@ -11654,7 +11654,7 @@
       <c r="I25" s="28">
         <v>3948</v>
       </c>
-      <c r="J25" s="39">
+      <c r="J25" s="37">
         <v>2037.85</v>
       </c>
       <c r="K25" s="28" t="s">
@@ -11700,7 +11700,7 @@
       <c r="I26" s="31">
         <v>4102</v>
       </c>
-      <c r="J26" s="37">
+      <c r="J26" s="35">
         <v>2177.8000000000002</v>
       </c>
       <c r="K26" s="31" t="s">
@@ -11746,7 +11746,7 @@
       <c r="I27" s="24">
         <v>4282</v>
       </c>
-      <c r="J27" s="38">
+      <c r="J27" s="36">
         <v>2260.87</v>
       </c>
       <c r="K27" s="24" t="s">
@@ -11792,7 +11792,7 @@
       <c r="I28" s="24">
         <v>4177</v>
       </c>
-      <c r="J28" s="38">
+      <c r="J28" s="36">
         <v>2204.84</v>
       </c>
       <c r="K28" s="24" t="s">
@@ -11838,7 +11838,7 @@
       <c r="I29" s="28">
         <v>4323</v>
       </c>
-      <c r="J29" s="39">
+      <c r="J29" s="37">
         <v>2367.27</v>
       </c>
       <c r="K29" s="28" t="s">
@@ -11884,7 +11884,7 @@
       <c r="I30" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="J30" s="37" t="s">
+      <c r="J30" s="35" t="s">
         <v>34</v>
       </c>
       <c r="K30" s="31" t="s">
@@ -11930,7 +11930,7 @@
       <c r="I31" s="24">
         <v>3609</v>
       </c>
-      <c r="J31" s="38">
+      <c r="J31" s="36">
         <v>1813.64</v>
       </c>
       <c r="K31" s="24" t="s">
@@ -11976,7 +11976,7 @@
       <c r="I32" s="24">
         <v>3688</v>
       </c>
-      <c r="J32" s="38">
+      <c r="J32" s="36">
         <v>1832.05</v>
       </c>
       <c r="K32" s="24" t="s">
@@ -12022,7 +12022,7 @@
       <c r="I33" s="28">
         <v>3930</v>
       </c>
-      <c r="J33" s="39">
+      <c r="J33" s="37">
         <v>2026.88</v>
       </c>
       <c r="K33" s="28" t="s">
@@ -12068,7 +12068,7 @@
       <c r="I34" s="31">
         <v>3604</v>
       </c>
-      <c r="J34" s="37">
+      <c r="J34" s="35">
         <v>2084.15</v>
       </c>
       <c r="K34" s="31" t="s">
@@ -12106,7 +12106,7 @@
       <c r="I35" s="24">
         <v>3493</v>
       </c>
-      <c r="J35" s="38">
+      <c r="J35" s="36">
         <v>1955.08</v>
       </c>
       <c r="K35" s="24" t="s">
@@ -12144,7 +12144,7 @@
       <c r="I36" s="24">
         <v>3581</v>
       </c>
-      <c r="J36" s="38">
+      <c r="J36" s="36">
         <v>2106.13</v>
       </c>
       <c r="K36" s="24" t="s">
@@ -12182,7 +12182,7 @@
       <c r="I37" s="28">
         <v>3429</v>
       </c>
-      <c r="J37" s="39">
+      <c r="J37" s="37">
         <v>2083.9699999999998</v>
       </c>
       <c r="K37" s="28" t="s">
@@ -12220,7 +12220,7 @@
       <c r="I38" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="J38" s="40" t="s">
+      <c r="J38" s="38" t="s">
         <v>34</v>
       </c>
       <c r="K38" s="31" t="s">
@@ -12258,7 +12258,7 @@
       <c r="I39" s="23">
         <v>3564</v>
       </c>
-      <c r="J39" s="41">
+      <c r="J39" s="39">
         <v>2023.52</v>
       </c>
       <c r="K39" s="24" t="s">
@@ -12296,7 +12296,7 @@
       <c r="I40" s="23">
         <v>3247</v>
       </c>
-      <c r="J40" s="41">
+      <c r="J40" s="39">
         <v>1842.37</v>
       </c>
       <c r="K40" s="24" t="s">
@@ -12334,7 +12334,7 @@
       <c r="I41" s="27">
         <v>3549</v>
       </c>
-      <c r="J41" s="42">
+      <c r="J41" s="40">
         <v>2032.15</v>
       </c>
       <c r="K41" s="28" t="s">
@@ -12372,7 +12372,7 @@
       <c r="I42" s="32">
         <v>2904</v>
       </c>
-      <c r="J42" s="40">
+      <c r="J42" s="38">
         <v>1525.86</v>
       </c>
       <c r="K42" s="31" t="s">
@@ -12410,7 +12410,7 @@
       <c r="I43" s="23">
         <v>3210</v>
       </c>
-      <c r="J43" s="41">
+      <c r="J43" s="39">
         <v>1752.01</v>
       </c>
       <c r="K43" s="24" t="s">
@@ -12448,7 +12448,7 @@
       <c r="I44" s="23">
         <v>3173</v>
       </c>
-      <c r="J44" s="41">
+      <c r="J44" s="39">
         <v>1690.28</v>
       </c>
       <c r="K44" s="24" t="s">
@@ -12486,7 +12486,7 @@
       <c r="I45" s="27">
         <v>3154</v>
       </c>
-      <c r="J45" s="42">
+      <c r="J45" s="40">
         <v>1683.56</v>
       </c>
       <c r="K45" s="28" t="s">
@@ -12524,7 +12524,7 @@
       <c r="I46" s="32">
         <v>2977</v>
       </c>
-      <c r="J46" s="40">
+      <c r="J46" s="38">
         <v>1569.43</v>
       </c>
       <c r="K46" s="31" t="s">
@@ -12562,7 +12562,7 @@
       <c r="I47" s="23">
         <v>2890</v>
       </c>
-      <c r="J47" s="41">
+      <c r="J47" s="39">
         <v>1501.44</v>
       </c>
       <c r="K47" s="24" t="s">
@@ -12600,7 +12600,7 @@
       <c r="I48" s="23">
         <v>3017</v>
       </c>
-      <c r="J48" s="41">
+      <c r="J48" s="39">
         <v>1594.69</v>
       </c>
       <c r="K48" s="24" t="s">
@@ -12638,7 +12638,7 @@
       <c r="I49" s="27">
         <v>2846</v>
       </c>
-      <c r="J49" s="42">
+      <c r="J49" s="40">
         <v>1493.35</v>
       </c>
       <c r="K49" s="28" t="s">
@@ -12676,7 +12676,7 @@
       <c r="I50" s="32">
         <v>2809</v>
       </c>
-      <c r="J50" s="40">
+      <c r="J50" s="38">
         <v>1479.11</v>
       </c>
       <c r="K50" s="31" t="s">
@@ -12714,7 +12714,7 @@
       <c r="I51" s="23">
         <v>2987</v>
       </c>
-      <c r="J51" s="41">
+      <c r="J51" s="39">
         <v>1552.52</v>
       </c>
       <c r="K51" s="24" t="s">
@@ -12752,7 +12752,7 @@
       <c r="I52" s="23">
         <v>3365</v>
       </c>
-      <c r="J52" s="41">
+      <c r="J52" s="39">
         <v>1835.07</v>
       </c>
       <c r="K52" s="24" t="s">
@@ -12790,7 +12790,7 @@
       <c r="I53" s="27">
         <v>3195</v>
       </c>
-      <c r="J53" s="42">
+      <c r="J53" s="40">
         <v>1717.42</v>
       </c>
       <c r="K53" s="28" t="s">
@@ -12828,7 +12828,7 @@
       <c r="I54" s="32">
         <v>2749</v>
       </c>
-      <c r="J54" s="40">
+      <c r="J54" s="38">
         <v>1410.65</v>
       </c>
       <c r="K54" s="31" t="s">
@@ -12866,7 +12866,7 @@
       <c r="I55" s="23">
         <v>2865</v>
       </c>
-      <c r="J55" s="41">
+      <c r="J55" s="39">
         <v>1518.77</v>
       </c>
       <c r="K55" s="24" t="s">
@@ -12904,7 +12904,7 @@
       <c r="I56" s="23">
         <v>2952</v>
       </c>
-      <c r="J56" s="41">
+      <c r="J56" s="39">
         <v>1558.32</v>
       </c>
       <c r="K56" s="24" t="s">
@@ -12942,7 +12942,7 @@
       <c r="I57" s="27">
         <v>2871</v>
       </c>
-      <c r="J57" s="42">
+      <c r="J57" s="40">
         <v>1496.98</v>
       </c>
       <c r="K57" s="28" t="s">
@@ -12980,7 +12980,7 @@
       <c r="I58" s="32">
         <v>2809</v>
       </c>
-      <c r="J58" s="40">
+      <c r="J58" s="38">
         <v>1479.11</v>
       </c>
       <c r="K58" s="31" t="s">
@@ -13018,7 +13018,7 @@
       <c r="I59" s="23">
         <v>2987</v>
       </c>
-      <c r="J59" s="41">
+      <c r="J59" s="39">
         <v>1552.52</v>
       </c>
       <c r="K59" s="23" t="s">
@@ -13056,7 +13056,7 @@
       <c r="I60" s="23">
         <v>3365</v>
       </c>
-      <c r="J60" s="41">
+      <c r="J60" s="39">
         <v>1835.07</v>
       </c>
       <c r="K60" s="23" t="s">
@@ -13094,7 +13094,7 @@
       <c r="I61" s="27">
         <v>3195</v>
       </c>
-      <c r="J61" s="42">
+      <c r="J61" s="40">
         <v>1717.42</v>
       </c>
       <c r="K61" s="27" t="s">
@@ -13132,7 +13132,7 @@
       <c r="I62" s="32">
         <v>2749</v>
       </c>
-      <c r="J62" s="40">
+      <c r="J62" s="38">
         <v>1410.65</v>
       </c>
       <c r="K62" s="32" t="s">
@@ -13170,7 +13170,7 @@
       <c r="I63" s="23">
         <v>2865</v>
       </c>
-      <c r="J63" s="41">
+      <c r="J63" s="39">
         <v>1518.77</v>
       </c>
       <c r="K63" s="23" t="s">
@@ -13208,7 +13208,7 @@
       <c r="I64" s="23">
         <v>2952</v>
       </c>
-      <c r="J64" s="41">
+      <c r="J64" s="39">
         <v>1558.32</v>
       </c>
       <c r="K64" s="23" t="s">
@@ -13246,7 +13246,7 @@
       <c r="I65" s="27">
         <v>2871</v>
       </c>
-      <c r="J65" s="42">
+      <c r="J65" s="40">
         <v>1496.98</v>
       </c>
       <c r="K65" s="27" t="s">
@@ -13284,7 +13284,7 @@
       <c r="I66" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="J66" s="40" t="s">
+      <c r="J66" s="38" t="s">
         <v>34</v>
       </c>
       <c r="K66" s="31" t="s">
@@ -13322,7 +13322,7 @@
       <c r="I67" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J67" s="38" t="s">
+      <c r="J67" s="36" t="s">
         <v>34</v>
       </c>
       <c r="K67" s="24" t="s">
@@ -13360,7 +13360,7 @@
       <c r="I68" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J68" s="38" t="s">
+      <c r="J68" s="36" t="s">
         <v>34</v>
       </c>
       <c r="K68" s="24" t="s">
@@ -13398,7 +13398,7 @@
       <c r="I69" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J69" s="38" t="s">
+      <c r="J69" s="36" t="s">
         <v>34</v>
       </c>
       <c r="K69" s="24" t="s">
@@ -13436,7 +13436,7 @@
       <c r="I70" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="J70" s="40" t="s">
+      <c r="J70" s="38" t="s">
         <v>34</v>
       </c>
       <c r="K70" s="31" t="s">
@@ -13474,7 +13474,7 @@
       <c r="I71" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J71" s="38" t="s">
+      <c r="J71" s="36" t="s">
         <v>34</v>
       </c>
       <c r="K71" s="24" t="s">
@@ -13512,7 +13512,7 @@
       <c r="I72" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J72" s="38" t="s">
+      <c r="J72" s="36" t="s">
         <v>34</v>
       </c>
       <c r="K72" s="24" t="s">
@@ -13550,7 +13550,7 @@
       <c r="I73" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J73" s="38" t="s">
+      <c r="J73" s="36" t="s">
         <v>34</v>
       </c>
       <c r="K73" s="24" t="s">
@@ -13588,7 +13588,7 @@
       <c r="I74" s="32">
         <v>2329</v>
       </c>
-      <c r="J74" s="40">
+      <c r="J74" s="38">
         <v>1126.8599999999999</v>
       </c>
       <c r="K74" s="32" t="s">
@@ -13626,7 +13626,7 @@
       <c r="I75" s="23">
         <v>2695</v>
       </c>
-      <c r="J75" s="38">
+      <c r="J75" s="36">
         <v>1519.24</v>
       </c>
       <c r="K75" s="24" t="s">
@@ -13664,7 +13664,7 @@
       <c r="I76" s="23">
         <v>2912</v>
       </c>
-      <c r="J76" s="38">
+      <c r="J76" s="36">
         <v>1558.6</v>
       </c>
       <c r="K76" s="24" t="s">
@@ -13702,7 +13702,7 @@
       <c r="I77" s="27">
         <v>2658</v>
       </c>
-      <c r="J77" s="42">
+      <c r="J77" s="40">
         <v>1465.3</v>
       </c>
       <c r="K77" s="27" t="s">
@@ -13740,7 +13740,7 @@
       <c r="I78" s="32">
         <v>2537</v>
       </c>
-      <c r="J78" s="40">
+      <c r="J78" s="38">
         <v>1305.26</v>
       </c>
       <c r="K78" s="32" t="s">
@@ -13778,7 +13778,7 @@
       <c r="I79" s="24">
         <v>2674</v>
       </c>
-      <c r="J79" s="38">
+      <c r="J79" s="36">
         <v>1343.06</v>
       </c>
       <c r="K79" s="24" t="s">
@@ -13816,7 +13816,7 @@
       <c r="I80" s="24">
         <v>2631</v>
       </c>
-      <c r="J80" s="38">
+      <c r="J80" s="36">
         <v>1367.83</v>
       </c>
       <c r="K80" s="24" t="s">
@@ -13854,7 +13854,7 @@
       <c r="I81" s="27">
         <v>2726</v>
       </c>
-      <c r="J81" s="42">
+      <c r="J81" s="40">
         <v>1396.91</v>
       </c>
       <c r="K81" s="27" t="s">
@@ -13892,7 +13892,7 @@
       <c r="I82" s="32">
         <v>2327</v>
       </c>
-      <c r="J82" s="40">
+      <c r="J82" s="38">
         <v>1104.1500000000001</v>
       </c>
       <c r="K82" s="32" t="s">
@@ -13930,7 +13930,7 @@
       <c r="I83" s="24">
         <v>2605</v>
       </c>
-      <c r="J83" s="38">
+      <c r="J83" s="36">
         <v>1350.11</v>
       </c>
       <c r="K83" s="24" t="s">
@@ -13968,7 +13968,7 @@
       <c r="I84" s="24">
         <v>2534</v>
       </c>
-      <c r="J84" s="38">
+      <c r="J84" s="36">
         <v>1304.95</v>
       </c>
       <c r="K84" s="24" t="s">
@@ -14006,7 +14006,7 @@
       <c r="I85" s="27">
         <v>2736</v>
       </c>
-      <c r="J85" s="42">
+      <c r="J85" s="40">
         <v>1412.54</v>
       </c>
       <c r="K85" s="27" t="s">
@@ -14044,7 +14044,7 @@
       <c r="I86" s="32">
         <v>2135</v>
       </c>
-      <c r="J86" s="40">
+      <c r="J86" s="38">
         <v>985.32</v>
       </c>
       <c r="K86" s="32" t="s">
@@ -14082,7 +14082,7 @@
       <c r="I87" s="24">
         <v>2325</v>
       </c>
-      <c r="J87" s="38">
+      <c r="J87" s="36">
         <v>1127.8699999999999</v>
       </c>
       <c r="K87" s="24" t="s">
@@ -14120,7 +14120,7 @@
       <c r="I88" s="24">
         <v>2561</v>
       </c>
-      <c r="J88" s="38">
+      <c r="J88" s="36">
         <v>1283.95</v>
       </c>
       <c r="K88" s="24" t="s">
@@ -14158,7 +14158,7 @@
       <c r="I89" s="27">
         <v>2360</v>
       </c>
-      <c r="J89" s="42">
+      <c r="J89" s="40">
         <v>1138.05</v>
       </c>
       <c r="K89" s="27" t="s">
@@ -14196,7 +14196,7 @@
       <c r="I90" s="32">
         <v>2327</v>
       </c>
-      <c r="J90" s="40">
+      <c r="J90" s="38">
         <v>1104.1500000000001</v>
       </c>
       <c r="K90" s="32" t="s">
@@ -14234,7 +14234,7 @@
       <c r="I91" s="24">
         <v>2582</v>
       </c>
-      <c r="J91" s="38">
+      <c r="J91" s="36">
         <v>1341.12</v>
       </c>
       <c r="K91" s="24" t="s">
@@ -14272,7 +14272,7 @@
       <c r="I92" s="24">
         <v>2534</v>
       </c>
-      <c r="J92" s="38">
+      <c r="J92" s="36">
         <v>1304.95</v>
       </c>
       <c r="K92" s="24" t="s">
@@ -14310,7 +14310,7 @@
       <c r="I93" s="27">
         <v>2736</v>
       </c>
-      <c r="J93" s="42">
+      <c r="J93" s="40">
         <v>1412.54</v>
       </c>
       <c r="K93" s="27" t="s">
@@ -14348,7 +14348,7 @@
       <c r="I94" s="32">
         <v>2135</v>
       </c>
-      <c r="J94" s="40">
+      <c r="J94" s="38">
         <v>985.32</v>
       </c>
       <c r="K94" s="32" t="s">
@@ -14386,7 +14386,7 @@
       <c r="I95" s="24">
         <v>2325</v>
       </c>
-      <c r="J95" s="38">
+      <c r="J95" s="36">
         <v>1127.8699999999999</v>
       </c>
       <c r="K95" s="24" t="s">
@@ -14424,7 +14424,7 @@
       <c r="I96" s="24">
         <v>2561</v>
       </c>
-      <c r="J96" s="38">
+      <c r="J96" s="36">
         <v>1283.95</v>
       </c>
       <c r="K96" s="24" t="s">
@@ -14462,7 +14462,7 @@
       <c r="I97" s="27">
         <v>2288</v>
       </c>
-      <c r="J97" s="42">
+      <c r="J97" s="40">
         <v>1089.8399999999999</v>
       </c>
       <c r="K97" s="27" t="s">
@@ -14500,7 +14500,7 @@
       <c r="I98" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J98" s="38" t="s">
+      <c r="J98" s="36" t="s">
         <v>34</v>
       </c>
       <c r="K98" s="24" t="s">
@@ -14538,7 +14538,7 @@
       <c r="I99" s="24">
         <v>1953</v>
       </c>
-      <c r="J99" s="38">
+      <c r="J99" s="36">
         <v>1011.56</v>
       </c>
       <c r="K99" s="24" t="s">
@@ -14576,7 +14576,7 @@
       <c r="I100" s="24">
         <v>1980</v>
       </c>
-      <c r="J100" s="38">
+      <c r="J100" s="36">
         <v>1039.4000000000001</v>
       </c>
       <c r="K100" s="24" t="s">
@@ -14614,7 +14614,7 @@
       <c r="I101" s="27">
         <v>1946</v>
       </c>
-      <c r="J101" s="42">
+      <c r="J101" s="40">
         <v>997.49</v>
       </c>
       <c r="K101" s="27" t="s">
@@ -14652,7 +14652,7 @@
       <c r="I102" s="32">
         <v>2228</v>
       </c>
-      <c r="J102" s="40">
+      <c r="J102" s="38">
         <v>1104.3900000000001</v>
       </c>
       <c r="K102" s="32" t="s">
@@ -14690,7 +14690,7 @@
       <c r="I103" s="24">
         <v>1916</v>
       </c>
-      <c r="J103" s="38">
+      <c r="J103" s="36">
         <v>811.71</v>
       </c>
       <c r="K103" s="24" t="s">
@@ -14728,7 +14728,7 @@
       <c r="I104" s="24">
         <v>2023</v>
       </c>
-      <c r="J104" s="38">
+      <c r="J104" s="36">
         <v>1048.6199999999999</v>
       </c>
       <c r="K104" s="24" t="s">
@@ -14766,7 +14766,7 @@
       <c r="I105" s="27">
         <v>2249</v>
       </c>
-      <c r="J105" s="42">
+      <c r="J105" s="40">
         <v>1105.3900000000001</v>
       </c>
       <c r="K105" s="27" t="s">
@@ -14804,7 +14804,7 @@
       <c r="I106" s="32">
         <v>2024</v>
       </c>
-      <c r="J106" s="40">
+      <c r="J106" s="38">
         <v>946.12</v>
       </c>
       <c r="K106" s="32" t="s">
@@ -14842,7 +14842,7 @@
       <c r="I107" s="24">
         <v>1942</v>
       </c>
-      <c r="J107" s="38">
+      <c r="J107" s="36">
         <v>999.83</v>
       </c>
       <c r="K107" s="24" t="s">
@@ -14880,7 +14880,7 @@
       <c r="I108" s="24">
         <v>1973</v>
       </c>
-      <c r="J108" s="38">
+      <c r="J108" s="36">
         <v>1027.52</v>
       </c>
       <c r="K108" s="24" t="s">
@@ -14918,7 +14918,7 @@
       <c r="I109" s="27">
         <v>1962</v>
       </c>
-      <c r="J109" s="42">
+      <c r="J109" s="40">
         <v>1002.87</v>
       </c>
       <c r="K109" s="27" t="s">
@@ -14956,7 +14956,7 @@
       <c r="I110" s="32">
         <v>1934</v>
       </c>
-      <c r="J110" s="40">
+      <c r="J110" s="38">
         <v>903.18</v>
       </c>
       <c r="K110" s="32" t="s">
@@ -14994,7 +14994,7 @@
       <c r="I111" s="24">
         <v>1891</v>
       </c>
-      <c r="J111" s="38">
+      <c r="J111" s="36">
         <v>868.49</v>
       </c>
       <c r="K111" s="24" t="s">
@@ -15032,7 +15032,7 @@
       <c r="I112" s="24">
         <v>2110</v>
       </c>
-      <c r="J112" s="38">
+      <c r="J112" s="36">
         <v>1023.16</v>
       </c>
       <c r="K112" s="24" t="s">
@@ -15070,7 +15070,7 @@
       <c r="I113" s="27">
         <v>1935</v>
       </c>
-      <c r="J113" s="42">
+      <c r="J113" s="40">
         <v>900.72</v>
       </c>
       <c r="K113" s="27" t="s">
@@ -15108,7 +15108,7 @@
       <c r="I114" s="32">
         <v>1982</v>
       </c>
-      <c r="J114" s="40">
+      <c r="J114" s="38">
         <v>941.06</v>
       </c>
       <c r="K114" s="32" t="s">
@@ -15146,7 +15146,7 @@
       <c r="I115" s="24">
         <v>1942</v>
       </c>
-      <c r="J115" s="38">
+      <c r="J115" s="36">
         <v>999.83</v>
       </c>
       <c r="K115" s="24" t="s">
@@ -15184,7 +15184,7 @@
       <c r="I116" s="24">
         <v>2000</v>
       </c>
-      <c r="J116" s="38">
+      <c r="J116" s="36">
         <v>929.49</v>
       </c>
       <c r="K116" s="24" t="s">
@@ -15222,7 +15222,7 @@
       <c r="I117" s="27">
         <v>2012</v>
       </c>
-      <c r="J117" s="42">
+      <c r="J117" s="40">
         <v>959.92</v>
       </c>
       <c r="K117" s="27" t="s">
@@ -15260,7 +15260,7 @@
       <c r="I118" s="32">
         <v>1916</v>
       </c>
-      <c r="J118" s="40">
+      <c r="J118" s="38">
         <v>881.17</v>
       </c>
       <c r="K118" s="32" t="s">
@@ -15298,7 +15298,7 @@
       <c r="I119" s="24">
         <v>1935</v>
       </c>
-      <c r="J119" s="38">
+      <c r="J119" s="36">
         <v>882.19</v>
       </c>
       <c r="K119" s="24" t="s">
@@ -15336,7 +15336,7 @@
       <c r="I120" s="24">
         <v>1995</v>
       </c>
-      <c r="J120" s="38">
+      <c r="J120" s="36">
         <v>972.51</v>
       </c>
       <c r="K120" s="24" t="s">
@@ -15374,7 +15374,7 @@
       <c r="I121" s="27">
         <v>2040</v>
       </c>
-      <c r="J121" s="42">
+      <c r="J121" s="40">
         <v>951.6</v>
       </c>
       <c r="K121" s="27" t="s">
@@ -15412,7 +15412,7 @@
       <c r="I122" s="32">
         <v>1982</v>
       </c>
-      <c r="J122" s="40">
+      <c r="J122" s="38">
         <v>941.06</v>
       </c>
       <c r="K122" s="32" t="s">
@@ -15450,7 +15450,7 @@
       <c r="I123" s="24">
         <v>1942</v>
       </c>
-      <c r="J123" s="38">
+      <c r="J123" s="36">
         <v>999.83</v>
       </c>
       <c r="K123" s="24" t="s">
@@ -15488,7 +15488,7 @@
       <c r="I124" s="24">
         <v>2000</v>
       </c>
-      <c r="J124" s="38">
+      <c r="J124" s="36">
         <v>929.49</v>
       </c>
       <c r="K124" s="24" t="s">
@@ -15526,7 +15526,7 @@
       <c r="I125" s="27">
         <v>2012</v>
       </c>
-      <c r="J125" s="42">
+      <c r="J125" s="40">
         <v>959.92</v>
       </c>
       <c r="K125" s="27" t="s">
@@ -15564,7 +15564,7 @@
       <c r="I126" s="32">
         <v>1916</v>
       </c>
-      <c r="J126" s="40">
+      <c r="J126" s="38">
         <v>881.17</v>
       </c>
       <c r="K126" s="32" t="s">
@@ -15602,7 +15602,7 @@
       <c r="I127" s="24">
         <v>1935</v>
       </c>
-      <c r="J127" s="38">
+      <c r="J127" s="36">
         <v>882.19</v>
       </c>
       <c r="K127" s="24" t="s">
@@ -15640,7 +15640,7 @@
       <c r="I128" s="24">
         <v>1995</v>
       </c>
-      <c r="J128" s="38">
+      <c r="J128" s="36">
         <v>972.51</v>
       </c>
       <c r="K128" s="24" t="s">
@@ -15678,7 +15678,7 @@
       <c r="I129" s="27">
         <v>2040</v>
       </c>
-      <c r="J129" s="42">
+      <c r="J129" s="40">
         <v>951.6</v>
       </c>
       <c r="K129" s="27" t="s">
@@ -15716,7 +15716,7 @@
       <c r="I130" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="J130" s="40" t="s">
+      <c r="J130" s="38" t="s">
         <v>34</v>
       </c>
       <c r="K130" s="32" t="s">
@@ -15754,7 +15754,7 @@
       <c r="I131" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J131" s="38" t="s">
+      <c r="J131" s="36" t="s">
         <v>34</v>
       </c>
       <c r="K131" s="24" t="s">
@@ -15792,7 +15792,7 @@
       <c r="I132" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J132" s="38" t="s">
+      <c r="J132" s="36" t="s">
         <v>34</v>
       </c>
       <c r="K132" s="24" t="s">
@@ -15830,7 +15830,7 @@
       <c r="I133" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J133" s="38" t="s">
+      <c r="J133" s="36" t="s">
         <v>34</v>
       </c>
       <c r="K133" s="24" t="s">
@@ -15868,7 +15868,7 @@
       <c r="I134" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="J134" s="40" t="s">
+      <c r="J134" s="38" t="s">
         <v>34</v>
       </c>
       <c r="K134" s="32" t="s">
@@ -15906,7 +15906,7 @@
       <c r="I135" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J135" s="38" t="s">
+      <c r="J135" s="36" t="s">
         <v>34</v>
       </c>
       <c r="K135" s="24" t="s">
@@ -15944,7 +15944,7 @@
       <c r="I136" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J136" s="38" t="s">
+      <c r="J136" s="36" t="s">
         <v>34</v>
       </c>
       <c r="K136" s="24" t="s">
@@ -15982,7 +15982,7 @@
       <c r="I137" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J137" s="38" t="s">
+      <c r="J137" s="36" t="s">
         <v>34</v>
       </c>
       <c r="K137" s="24" t="s">
@@ -16020,7 +16020,7 @@
       <c r="I138" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="J138" s="40" t="s">
+      <c r="J138" s="38" t="s">
         <v>34</v>
       </c>
       <c r="K138" s="32" t="s">
@@ -16058,7 +16058,7 @@
       <c r="I139" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J139" s="38" t="s">
+      <c r="J139" s="36" t="s">
         <v>34</v>
       </c>
       <c r="K139" s="24" t="s">
@@ -16096,7 +16096,7 @@
       <c r="I140" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J140" s="38" t="s">
+      <c r="J140" s="36" t="s">
         <v>34</v>
       </c>
       <c r="K140" s="24" t="s">
@@ -16134,7 +16134,7 @@
       <c r="I141" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J141" s="38" t="s">
+      <c r="J141" s="36" t="s">
         <v>34</v>
       </c>
       <c r="K141" s="24" t="s">
@@ -16172,7 +16172,7 @@
       <c r="I142" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="J142" s="40" t="s">
+      <c r="J142" s="38" t="s">
         <v>34</v>
       </c>
       <c r="K142" s="32" t="s">
@@ -16210,7 +16210,7 @@
       <c r="I143" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J143" s="38" t="s">
+      <c r="J143" s="36" t="s">
         <v>34</v>
       </c>
       <c r="K143" s="24" t="s">
@@ -16248,7 +16248,7 @@
       <c r="I144" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J144" s="38" t="s">
+      <c r="J144" s="36" t="s">
         <v>34</v>
       </c>
       <c r="K144" s="24" t="s">
@@ -16286,7 +16286,7 @@
       <c r="I145" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J145" s="38" t="s">
+      <c r="J145" s="36" t="s">
         <v>34</v>
       </c>
       <c r="K145" s="24" t="s">
@@ -16324,7 +16324,7 @@
       <c r="I146" s="32">
         <v>2471</v>
       </c>
-      <c r="J146" s="40">
+      <c r="J146" s="38">
         <v>1087.55</v>
       </c>
       <c r="K146" s="32" t="s">
@@ -16362,7 +16362,7 @@
       <c r="I147" s="23">
         <v>2580</v>
       </c>
-      <c r="J147" s="38">
+      <c r="J147" s="36">
         <v>1120.95</v>
       </c>
       <c r="K147" s="24" t="s">
@@ -16400,7 +16400,7 @@
       <c r="I148" s="23">
         <v>2506</v>
       </c>
-      <c r="J148" s="38">
+      <c r="J148" s="36">
         <v>1088.67</v>
       </c>
       <c r="K148" s="24" t="s">
@@ -16438,7 +16438,7 @@
       <c r="I149" s="27">
         <v>2534</v>
       </c>
-      <c r="J149" s="42">
+      <c r="J149" s="40">
         <v>1113.17</v>
       </c>
       <c r="K149" s="27" t="s">
@@ -16476,7 +16476,7 @@
       <c r="I150" s="32">
         <v>2353</v>
       </c>
-      <c r="J150" s="40">
+      <c r="J150" s="38">
         <v>1007.94</v>
       </c>
       <c r="K150" s="32" t="s">
@@ -16514,7 +16514,7 @@
       <c r="I151" s="24">
         <v>2434</v>
       </c>
-      <c r="J151" s="38">
+      <c r="J151" s="36">
         <v>1009.44</v>
       </c>
       <c r="K151" s="24" t="s">
@@ -16552,7 +16552,7 @@
       <c r="I152" s="24">
         <v>2547</v>
       </c>
-      <c r="J152" s="38">
+      <c r="J152" s="36">
         <v>1150.0899999999999</v>
       </c>
       <c r="K152" s="24" t="s">
@@ -16590,7 +16590,7 @@
       <c r="I153" s="27">
         <v>2562</v>
       </c>
-      <c r="J153" s="42">
+      <c r="J153" s="40">
         <v>1156.81</v>
       </c>
       <c r="K153" s="27" t="s">
@@ -16628,7 +16628,7 @@
       <c r="I154" s="32">
         <v>2471</v>
       </c>
-      <c r="J154" s="40">
+      <c r="J154" s="38">
         <v>1087.55</v>
       </c>
       <c r="K154" s="32" t="s">
@@ -16666,7 +16666,7 @@
       <c r="I155" s="24">
         <v>2551</v>
       </c>
-      <c r="J155" s="38">
+      <c r="J155" s="36">
         <v>1121.22</v>
       </c>
       <c r="K155" s="24" t="s">
@@ -16704,7 +16704,7 @@
       <c r="I156" s="24">
         <v>2506</v>
       </c>
-      <c r="J156" s="38">
+      <c r="J156" s="36">
         <v>1088.67</v>
       </c>
       <c r="K156" s="24" t="s">
@@ -16742,7 +16742,7 @@
       <c r="I157" s="27">
         <v>2526</v>
       </c>
-      <c r="J157" s="42">
+      <c r="J157" s="40">
         <v>1108.9100000000001</v>
       </c>
       <c r="K157" s="27" t="s">
@@ -16780,7 +16780,7 @@
       <c r="I158" s="32">
         <v>2353</v>
       </c>
-      <c r="J158" s="40">
+      <c r="J158" s="38">
         <v>1007.94</v>
       </c>
       <c r="K158" s="32" t="s">
@@ -16818,7 +16818,7 @@
       <c r="I159" s="24">
         <v>2434</v>
       </c>
-      <c r="J159" s="38">
+      <c r="J159" s="36">
         <v>1009.34</v>
       </c>
       <c r="K159" s="24" t="s">
@@ -16856,7 +16856,7 @@
       <c r="I160" s="24">
         <v>2451</v>
       </c>
-      <c r="J160" s="38">
+      <c r="J160" s="36">
         <v>1068.5999999999999</v>
       </c>
       <c r="K160" s="24" t="s">
@@ -16894,7 +16894,7 @@
       <c r="I161" s="27">
         <v>2530</v>
       </c>
-      <c r="J161" s="42">
+      <c r="J161" s="40">
         <v>1131.48</v>
       </c>
       <c r="K161" s="27" t="s">
@@ -16932,7 +16932,7 @@
       <c r="I162" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="J162" s="40" t="s">
+      <c r="J162" s="38" t="s">
         <v>34</v>
       </c>
       <c r="K162" s="32" t="s">
@@ -16970,7 +16970,7 @@
       <c r="I163" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J163" s="38" t="s">
+      <c r="J163" s="36" t="s">
         <v>34</v>
       </c>
       <c r="K163" s="24" t="s">
@@ -17008,7 +17008,7 @@
       <c r="I164" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J164" s="38" t="s">
+      <c r="J164" s="36" t="s">
         <v>34</v>
       </c>
       <c r="K164" s="24" t="s">
@@ -17046,7 +17046,7 @@
       <c r="I165" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J165" s="38" t="s">
+      <c r="J165" s="36" t="s">
         <v>34</v>
       </c>
       <c r="K165" s="24" t="s">
@@ -17084,7 +17084,7 @@
       <c r="I166" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="J166" s="40" t="s">
+      <c r="J166" s="38" t="s">
         <v>34</v>
       </c>
       <c r="K166" s="32" t="s">
@@ -17122,7 +17122,7 @@
       <c r="I167" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J167" s="38" t="s">
+      <c r="J167" s="36" t="s">
         <v>34</v>
       </c>
       <c r="K167" s="24" t="s">
@@ -17160,7 +17160,7 @@
       <c r="I168" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J168" s="38" t="s">
+      <c r="J168" s="36" t="s">
         <v>34</v>
       </c>
       <c r="K168" s="24" t="s">
@@ -17198,7 +17198,7 @@
       <c r="I169" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J169" s="38" t="s">
+      <c r="J169" s="36" t="s">
         <v>34</v>
       </c>
       <c r="K169" s="24" t="s">
@@ -17236,7 +17236,7 @@
       <c r="I170" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="J170" s="37" t="s">
+      <c r="J170" s="35" t="s">
         <v>34</v>
       </c>
       <c r="K170" s="31" t="s">
@@ -17274,7 +17274,7 @@
       <c r="I171" s="23">
         <v>3257</v>
       </c>
-      <c r="J171" s="38">
+      <c r="J171" s="36">
         <v>1486.75</v>
       </c>
       <c r="K171" s="24" t="s">
@@ -17312,7 +17312,7 @@
       <c r="I172" s="23">
         <v>3270</v>
       </c>
-      <c r="J172" s="38">
+      <c r="J172" s="36">
         <v>1578.39</v>
       </c>
       <c r="K172" s="24" t="s">
@@ -17350,7 +17350,7 @@
       <c r="I173" s="27">
         <v>3651</v>
       </c>
-      <c r="J173" s="42">
+      <c r="J173" s="40">
         <v>1752.97</v>
       </c>
       <c r="K173" s="27" t="s">
@@ -17388,7 +17388,7 @@
       <c r="I174" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="J174" s="37" t="s">
+      <c r="J174" s="35" t="s">
         <v>34</v>
       </c>
       <c r="K174" s="31" t="s">
@@ -17426,7 +17426,7 @@
       <c r="I175" s="24">
         <v>3589</v>
       </c>
-      <c r="J175" s="38">
+      <c r="J175" s="36">
         <v>1692.77</v>
       </c>
       <c r="K175" s="24" t="s">
@@ -17464,7 +17464,7 @@
       <c r="I176" s="24">
         <v>3328</v>
       </c>
-      <c r="J176" s="38">
+      <c r="J176" s="36">
         <v>1508.48</v>
       </c>
       <c r="K176" s="24" t="s">
@@ -17502,7 +17502,7 @@
       <c r="I177" s="27">
         <v>3451</v>
       </c>
-      <c r="J177" s="42">
+      <c r="J177" s="40">
         <v>1656.37</v>
       </c>
       <c r="K177" s="27" t="s">
@@ -17540,7 +17540,7 @@
       <c r="I178" s="32">
         <v>3082</v>
       </c>
-      <c r="J178" s="40">
+      <c r="J178" s="38">
         <v>1328.8</v>
       </c>
       <c r="K178" s="32" t="s">
@@ -17578,7 +17578,7 @@
       <c r="I179" s="24">
         <v>3202</v>
       </c>
-      <c r="J179" s="38">
+      <c r="J179" s="36">
         <v>1357.92</v>
       </c>
       <c r="K179" s="24" t="s">
@@ -17616,7 +17616,7 @@
       <c r="I180" s="24">
         <v>3338</v>
       </c>
-      <c r="J180" s="38">
+      <c r="J180" s="36">
         <v>1488.34</v>
       </c>
       <c r="K180" s="24" t="s">
@@ -17654,7 +17654,7 @@
       <c r="I181" s="27">
         <v>2984</v>
       </c>
-      <c r="J181" s="42">
+      <c r="J181" s="40">
         <v>1238.21</v>
       </c>
       <c r="K181" s="27" t="s">
@@ -17692,7 +17692,7 @@
       <c r="I182" s="32">
         <v>2928</v>
       </c>
-      <c r="J182" s="40">
+      <c r="J182" s="38">
         <v>1204.25</v>
       </c>
       <c r="K182" s="32" t="s">
@@ -17730,7 +17730,7 @@
       <c r="I183" s="24">
         <v>3096</v>
       </c>
-      <c r="J183" s="38">
+      <c r="J183" s="36">
         <v>1309.96</v>
       </c>
       <c r="K183" s="24" t="s">
@@ -17768,7 +17768,7 @@
       <c r="I184" s="24">
         <v>2910</v>
       </c>
-      <c r="J184" s="38">
+      <c r="J184" s="36">
         <v>1205.0999999999999</v>
       </c>
       <c r="K184" s="24" t="s">
@@ -17806,7 +17806,7 @@
       <c r="I185" s="27">
         <v>2843</v>
       </c>
-      <c r="J185" s="42">
+      <c r="J185" s="40">
         <v>1160.79</v>
       </c>
       <c r="K185" s="27" t="s">
@@ -17844,7 +17844,7 @@
       <c r="I186" s="32">
         <v>2947</v>
       </c>
-      <c r="J186" s="40">
+      <c r="J186" s="38">
         <v>1214.71</v>
       </c>
       <c r="K186" s="32" t="s">
@@ -17882,7 +17882,7 @@
       <c r="I187" s="24">
         <v>3019</v>
       </c>
-      <c r="J187" s="38">
+      <c r="J187" s="36">
         <v>1298.31</v>
       </c>
       <c r="K187" s="24" t="s">
@@ -17920,7 +17920,7 @@
       <c r="I188" s="24">
         <v>3171</v>
       </c>
-      <c r="J188" s="38">
+      <c r="J188" s="36">
         <v>1388.95</v>
       </c>
       <c r="K188" s="24" t="s">
@@ -17958,7 +17958,7 @@
       <c r="I189" s="27">
         <v>3026</v>
       </c>
-      <c r="J189" s="42">
+      <c r="J189" s="40">
         <v>1278.57</v>
       </c>
       <c r="K189" s="27" t="s">
@@ -17996,7 +17996,7 @@
       <c r="I190" s="32">
         <v>2835</v>
       </c>
-      <c r="J190" s="40">
+      <c r="J190" s="38">
         <v>1162.78</v>
       </c>
       <c r="K190" s="32" t="s">
@@ -18034,7 +18034,7 @@
       <c r="I191" s="24">
         <v>2971</v>
       </c>
-      <c r="J191" s="38">
+      <c r="J191" s="36">
         <v>1232.73</v>
       </c>
       <c r="K191" s="24" t="s">
@@ -18072,7 +18072,7 @@
       <c r="I192" s="24">
         <v>3088</v>
       </c>
-      <c r="J192" s="38">
+      <c r="J192" s="36">
         <v>1289.8599999999999</v>
       </c>
       <c r="K192" s="24" t="s">
@@ -18110,7 +18110,7 @@
       <c r="I193" s="27">
         <v>2741</v>
       </c>
-      <c r="J193" s="42">
+      <c r="J193" s="40">
         <v>1069.1300000000001</v>
       </c>
       <c r="K193" s="27" t="s">
@@ -18148,7 +18148,7 @@
       <c r="I194" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="J194" s="40" t="s">
+      <c r="J194" s="38" t="s">
         <v>34</v>
       </c>
       <c r="K194" s="32" t="s">
@@ -18186,7 +18186,7 @@
       <c r="I195" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J195" s="38" t="s">
+      <c r="J195" s="36" t="s">
         <v>34</v>
       </c>
       <c r="K195" s="24" t="s">
@@ -18224,7 +18224,7 @@
       <c r="I196" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J196" s="38" t="s">
+      <c r="J196" s="36" t="s">
         <v>34</v>
       </c>
       <c r="K196" s="24" t="s">
@@ -18262,7 +18262,7 @@
       <c r="I197" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J197" s="38" t="s">
+      <c r="J197" s="36" t="s">
         <v>34</v>
       </c>
       <c r="K197" s="24" t="s">
@@ -18300,7 +18300,7 @@
       <c r="I198" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="J198" s="40" t="s">
+      <c r="J198" s="38" t="s">
         <v>34</v>
       </c>
       <c r="K198" s="32" t="s">
@@ -18338,7 +18338,7 @@
       <c r="I199" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J199" s="38" t="s">
+      <c r="J199" s="36" t="s">
         <v>34</v>
       </c>
       <c r="K199" s="24" t="s">
@@ -18376,7 +18376,7 @@
       <c r="I200" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J200" s="38" t="s">
+      <c r="J200" s="36" t="s">
         <v>34</v>
       </c>
       <c r="K200" s="24" t="s">
@@ -18414,7 +18414,7 @@
       <c r="I201" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J201" s="38" t="s">
+      <c r="J201" s="36" t="s">
         <v>34</v>
       </c>
       <c r="K201" s="24" t="s">
@@ -18452,7 +18452,7 @@
       <c r="I202" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="J202" s="40" t="s">
+      <c r="J202" s="38" t="s">
         <v>34</v>
       </c>
       <c r="K202" s="32" t="s">
@@ -18490,7 +18490,7 @@
       <c r="I203" s="23">
         <v>2393</v>
       </c>
-      <c r="J203" s="38">
+      <c r="J203" s="36">
         <v>1102.03</v>
       </c>
       <c r="K203" s="24" t="s">
@@ -18528,7 +18528,7 @@
       <c r="I204" s="23">
         <v>2355</v>
       </c>
-      <c r="J204" s="38">
+      <c r="J204" s="36">
         <v>1088.9100000000001</v>
       </c>
       <c r="K204" s="24" t="s">
@@ -18566,7 +18566,7 @@
       <c r="I205" s="27">
         <v>2352</v>
       </c>
-      <c r="J205" s="42">
+      <c r="J205" s="40">
         <v>1067.8399999999999</v>
       </c>
       <c r="K205" s="27" t="s">
@@ -18604,7 +18604,7 @@
       <c r="I206" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="J206" s="40" t="s">
+      <c r="J206" s="38" t="s">
         <v>34</v>
       </c>
       <c r="K206" s="32" t="s">
@@ -18642,7 +18642,7 @@
       <c r="I207" s="23">
         <v>2393</v>
       </c>
-      <c r="J207" s="38">
+      <c r="J207" s="36">
         <v>1102.03</v>
       </c>
       <c r="K207" s="24" t="s">
@@ -18680,7 +18680,7 @@
       <c r="I208" s="23">
         <v>2355</v>
       </c>
-      <c r="J208" s="38">
+      <c r="J208" s="36">
         <v>1088.9100000000001</v>
       </c>
       <c r="K208" s="24" t="s">
@@ -18718,7 +18718,7 @@
       <c r="I209" s="27">
         <v>2352</v>
       </c>
-      <c r="J209" s="42">
+      <c r="J209" s="40">
         <v>1067.8399999999999</v>
       </c>
       <c r="K209" s="27" t="s">
@@ -18756,7 +18756,7 @@
       <c r="I210" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="J210" s="40" t="s">
+      <c r="J210" s="38" t="s">
         <v>34</v>
       </c>
       <c r="K210" s="32" t="s">
@@ -18794,7 +18794,7 @@
       <c r="I211" s="24">
         <v>1993</v>
       </c>
-      <c r="J211" s="38">
+      <c r="J211" s="36">
         <v>736.03</v>
       </c>
       <c r="K211" s="24" t="s">
@@ -18832,7 +18832,7 @@
       <c r="I212" s="24">
         <v>1917</v>
       </c>
-      <c r="J212" s="38">
+      <c r="J212" s="36">
         <v>659.01</v>
       </c>
       <c r="K212" s="24" t="s">
@@ -18870,7 +18870,7 @@
       <c r="I213" s="27">
         <v>2015</v>
       </c>
-      <c r="J213" s="42">
+      <c r="J213" s="40">
         <v>726.21</v>
       </c>
       <c r="K213" s="27" t="s">
@@ -18908,7 +18908,7 @@
       <c r="I214" s="32">
         <v>1894</v>
       </c>
-      <c r="J214" s="40">
+      <c r="J214" s="38">
         <v>655.47</v>
       </c>
       <c r="K214" s="32" t="s">
@@ -18946,7 +18946,7 @@
       <c r="I215" s="24">
         <v>1916</v>
       </c>
-      <c r="J215" s="38">
+      <c r="J215" s="36">
         <v>646.29999999999995</v>
       </c>
       <c r="K215" s="24" t="s">
@@ -18984,7 +18984,7 @@
       <c r="I216" s="24">
         <v>1916</v>
       </c>
-      <c r="J216" s="41">
+      <c r="J216" s="39">
         <v>685.69</v>
       </c>
       <c r="K216" s="24" t="s">
@@ -19022,7 +19022,7 @@
       <c r="I217" s="27">
         <v>1931</v>
       </c>
-      <c r="J217" s="42">
+      <c r="J217" s="40">
         <v>678.42</v>
       </c>
       <c r="K217" s="27" t="s">
@@ -19060,7 +19060,7 @@
       <c r="I218" s="32">
         <v>1884</v>
       </c>
-      <c r="J218" s="40">
+      <c r="J218" s="38">
         <v>626.70000000000005</v>
       </c>
       <c r="K218" s="32" t="s">
@@ -19098,7 +19098,7 @@
       <c r="I219" s="24">
         <v>1980</v>
       </c>
-      <c r="J219" s="41">
+      <c r="J219" s="39">
         <v>697.12</v>
       </c>
       <c r="K219" s="24" t="s">
@@ -19136,7 +19136,7 @@
       <c r="I220" s="24">
         <v>1975</v>
       </c>
-      <c r="J220" s="41">
+      <c r="J220" s="39">
         <v>708.27</v>
       </c>
       <c r="K220" s="24" t="s">
@@ -19174,7 +19174,7 @@
       <c r="I221" s="27">
         <v>2003</v>
       </c>
-      <c r="J221" s="42">
+      <c r="J221" s="40">
         <v>708.46</v>
       </c>
       <c r="K221" s="27" t="s">
@@ -19212,7 +19212,7 @@
       <c r="I222" s="32">
         <v>1861</v>
       </c>
-      <c r="J222" s="40">
+      <c r="J222" s="38">
         <v>626.24</v>
       </c>
       <c r="K222" s="32" t="s">
@@ -19250,7 +19250,7 @@
       <c r="I223" s="24">
         <v>1898</v>
       </c>
-      <c r="J223" s="41">
+      <c r="J223" s="39">
         <v>660.32</v>
       </c>
       <c r="K223" s="24" t="s">
@@ -19288,7 +19288,7 @@
       <c r="I224" s="24">
         <v>1803</v>
       </c>
-      <c r="J224" s="41">
+      <c r="J224" s="39">
         <v>589.07000000000005</v>
       </c>
       <c r="K224" s="24" t="s">
@@ -19326,7 +19326,7 @@
       <c r="I225" s="27">
         <v>1938</v>
       </c>
-      <c r="J225" s="42">
+      <c r="J225" s="40">
         <v>674.69</v>
       </c>
       <c r="K225" s="27" t="s">
@@ -19364,7 +19364,7 @@
       <c r="I226" s="32">
         <v>2586</v>
       </c>
-      <c r="J226" s="40">
+      <c r="J226" s="38">
         <v>1335.41</v>
       </c>
       <c r="K226" s="32" t="s">
@@ -19402,7 +19402,7 @@
       <c r="I227" s="24">
         <v>2612</v>
       </c>
-      <c r="J227" s="41">
+      <c r="J227" s="39">
         <v>1360.19</v>
       </c>
       <c r="K227" s="24" t="s">
@@ -19440,7 +19440,7 @@
       <c r="I228" s="24">
         <v>2613</v>
       </c>
-      <c r="J228" s="41">
+      <c r="J228" s="39">
         <v>1362.96</v>
       </c>
       <c r="K228" s="24" t="s">
@@ -19478,7 +19478,7 @@
       <c r="I229" s="27">
         <v>2478</v>
       </c>
-      <c r="J229" s="42">
+      <c r="J229" s="40">
         <v>1279.94</v>
       </c>
       <c r="K229" s="27" t="s">
@@ -19516,7 +19516,7 @@
       <c r="I230" s="32">
         <v>2128</v>
       </c>
-      <c r="J230" s="40">
+      <c r="J230" s="38">
         <v>1051.06</v>
       </c>
       <c r="K230" s="32" t="s">
@@ -19554,7 +19554,7 @@
       <c r="I231" s="24">
         <v>2284</v>
       </c>
-      <c r="J231" s="41">
+      <c r="J231" s="39">
         <v>1169.03</v>
       </c>
       <c r="K231" s="24" t="s">
@@ -19592,7 +19592,7 @@
       <c r="I232" s="24">
         <v>2341</v>
       </c>
-      <c r="J232" s="41">
+      <c r="J232" s="39">
         <v>1202.45</v>
       </c>
       <c r="K232" s="24" t="s">
@@ -19630,7 +19630,7 @@
       <c r="I233" s="27">
         <v>2329</v>
       </c>
-      <c r="J233" s="42">
+      <c r="J233" s="40">
         <v>1182.8599999999999</v>
       </c>
       <c r="K233" s="27" t="s">
@@ -19668,7 +19668,7 @@
       <c r="I234" s="32">
         <v>2586</v>
       </c>
-      <c r="J234" s="40">
+      <c r="J234" s="38">
         <v>1335.41</v>
       </c>
       <c r="K234" s="32" t="s">
@@ -19706,7 +19706,7 @@
       <c r="I235" s="24">
         <v>2612</v>
       </c>
-      <c r="J235" s="41">
+      <c r="J235" s="39">
         <v>1360.19</v>
       </c>
       <c r="K235" s="24" t="s">
@@ -19744,7 +19744,7 @@
       <c r="I236" s="24">
         <v>2613</v>
       </c>
-      <c r="J236" s="41">
+      <c r="J236" s="39">
         <v>1362.96</v>
       </c>
       <c r="K236" s="24" t="s">
@@ -19782,7 +19782,7 @@
       <c r="I237" s="27">
         <v>2478</v>
       </c>
-      <c r="J237" s="42">
+      <c r="J237" s="40">
         <v>1279.94</v>
       </c>
       <c r="K237" s="27" t="s">
@@ -19820,7 +19820,7 @@
       <c r="I238" s="32">
         <v>2135</v>
       </c>
-      <c r="J238" s="40">
+      <c r="J238" s="38">
         <v>1063.6600000000001</v>
       </c>
       <c r="K238" s="32" t="s">
@@ -19858,7 +19858,7 @@
       <c r="I239" s="24">
         <v>2284</v>
       </c>
-      <c r="J239" s="41">
+      <c r="J239" s="39">
         <v>1169.03</v>
       </c>
       <c r="K239" s="24" t="s">
@@ -19896,7 +19896,7 @@
       <c r="I240" s="24">
         <v>2558</v>
       </c>
-      <c r="J240" s="41">
+      <c r="J240" s="39">
         <v>1327.72</v>
       </c>
       <c r="K240" s="24" t="s">
@@ -19934,7 +19934,7 @@
       <c r="I241" s="27">
         <v>2218</v>
       </c>
-      <c r="J241" s="42">
+      <c r="J241" s="40">
         <v>1143.44</v>
       </c>
       <c r="K241" s="27" t="s">
@@ -19972,7 +19972,7 @@
       <c r="I242" s="32">
         <v>2586</v>
       </c>
-      <c r="J242" s="40">
+      <c r="J242" s="38">
         <v>1335.41</v>
       </c>
       <c r="K242" s="32" t="s">
@@ -20010,7 +20010,7 @@
       <c r="I243" s="24">
         <v>2612</v>
       </c>
-      <c r="J243" s="41">
+      <c r="J243" s="39">
         <v>1360.19</v>
       </c>
       <c r="K243" s="24" t="s">
@@ -20048,7 +20048,7 @@
       <c r="I244" s="24">
         <v>2613</v>
       </c>
-      <c r="J244" s="41">
+      <c r="J244" s="39">
         <v>1362.96</v>
       </c>
       <c r="K244" s="24" t="s">
@@ -20086,7 +20086,7 @@
       <c r="I245" s="27">
         <v>2478</v>
       </c>
-      <c r="J245" s="42">
+      <c r="J245" s="40">
         <v>1279.94</v>
       </c>
       <c r="K245" s="27" t="s">
@@ -20124,7 +20124,7 @@
       <c r="I246" s="32">
         <v>2135</v>
       </c>
-      <c r="J246" s="40">
+      <c r="J246" s="38">
         <v>1063.6600000000001</v>
       </c>
       <c r="K246" s="32" t="s">
@@ -20162,7 +20162,7 @@
       <c r="I247" s="24">
         <v>2284</v>
       </c>
-      <c r="J247" s="41">
+      <c r="J247" s="39">
         <v>1169.03</v>
       </c>
       <c r="K247" s="24" t="s">
@@ -20200,7 +20200,7 @@
       <c r="I248" s="24">
         <v>2558</v>
       </c>
-      <c r="J248" s="41">
+      <c r="J248" s="39">
         <v>1327.72</v>
       </c>
       <c r="K248" s="24" t="s">
@@ -20238,7 +20238,7 @@
       <c r="I249" s="27">
         <v>2218</v>
       </c>
-      <c r="J249" s="42">
+      <c r="J249" s="40">
         <v>1143.44</v>
       </c>
       <c r="K249" s="27" t="s">
@@ -20276,7 +20276,7 @@
       <c r="I250" s="32">
         <v>2586</v>
       </c>
-      <c r="J250" s="40">
+      <c r="J250" s="38">
         <v>1335.41</v>
       </c>
       <c r="K250" s="32" t="s">
@@ -20314,7 +20314,7 @@
       <c r="I251" s="24">
         <v>2612</v>
       </c>
-      <c r="J251" s="41">
+      <c r="J251" s="39">
         <v>1360.19</v>
       </c>
       <c r="K251" s="24" t="s">
@@ -20352,7 +20352,7 @@
       <c r="I252" s="24">
         <v>2613</v>
       </c>
-      <c r="J252" s="41">
+      <c r="J252" s="39">
         <v>1362.96</v>
       </c>
       <c r="K252" s="24" t="s">
@@ -20390,7 +20390,7 @@
       <c r="I253" s="27">
         <v>2478</v>
       </c>
-      <c r="J253" s="42">
+      <c r="J253" s="40">
         <v>1279.94</v>
       </c>
       <c r="K253" s="27" t="s">
@@ -20428,7 +20428,7 @@
       <c r="I254" s="32">
         <v>2135</v>
       </c>
-      <c r="J254" s="40">
+      <c r="J254" s="38">
         <v>1063.6600000000001</v>
       </c>
       <c r="K254" s="32" t="s">
@@ -20466,7 +20466,7 @@
       <c r="I255" s="24">
         <v>2284</v>
       </c>
-      <c r="J255" s="41">
+      <c r="J255" s="39">
         <v>1169.03</v>
       </c>
       <c r="K255" s="24" t="s">
@@ -20504,7 +20504,7 @@
       <c r="I256" s="24">
         <v>2558</v>
       </c>
-      <c r="J256" s="41">
+      <c r="J256" s="39">
         <v>1327.72</v>
       </c>
       <c r="K256" s="24" t="s">
@@ -20542,7 +20542,7 @@
       <c r="I257" s="27">
         <v>2218</v>
       </c>
-      <c r="J257" s="42">
+      <c r="J257" s="40">
         <v>1143.44</v>
       </c>
       <c r="K257" s="27" t="s">
@@ -20574,11 +20574,21 @@
       <c r="G258" s="32" t="s">
         <v>455</v>
       </c>
-      <c r="H258" s="32"/>
-      <c r="I258" s="32"/>
-      <c r="J258" s="40"/>
-      <c r="K258" s="32"/>
-      <c r="L258" s="32"/>
+      <c r="H258" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="I258" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="J258" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="K258" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L258" s="32" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A259" s="21" t="s">
@@ -20602,11 +20612,21 @@
       <c r="G259" s="23" t="s">
         <v>456</v>
       </c>
-      <c r="H259" s="23"/>
-      <c r="I259" s="23"/>
-      <c r="J259" s="41"/>
-      <c r="K259" s="23"/>
-      <c r="L259" s="23"/>
+      <c r="H259" s="24">
+        <v>9</v>
+      </c>
+      <c r="I259" s="24">
+        <v>2371</v>
+      </c>
+      <c r="J259" s="39">
+        <v>1360.97</v>
+      </c>
+      <c r="K259" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L259" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A260" s="21" t="s">
@@ -20630,11 +20650,21 @@
       <c r="G260" s="23" t="s">
         <v>457</v>
       </c>
-      <c r="H260" s="23"/>
-      <c r="I260" s="23"/>
-      <c r="J260" s="41"/>
-      <c r="K260" s="23"/>
-      <c r="L260" s="23"/>
+      <c r="H260" s="24">
+        <v>9</v>
+      </c>
+      <c r="I260" s="24">
+        <v>2532</v>
+      </c>
+      <c r="J260" s="39">
+        <v>1502.82</v>
+      </c>
+      <c r="K260" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L260" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A261" s="21" t="s">
@@ -20658,11 +20688,21 @@
       <c r="G261" s="27" t="s">
         <v>458</v>
       </c>
-      <c r="H261" s="27"/>
-      <c r="I261" s="27"/>
-      <c r="J261" s="42"/>
-      <c r="K261" s="27"/>
-      <c r="L261" s="27"/>
+      <c r="H261" s="27">
+        <v>9</v>
+      </c>
+      <c r="I261" s="27">
+        <v>2369</v>
+      </c>
+      <c r="J261" s="40">
+        <v>1395.71</v>
+      </c>
+      <c r="K261" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="L261" s="27" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A262" s="21" t="s">
@@ -20686,11 +20726,21 @@
       <c r="G262" s="32" t="s">
         <v>459</v>
       </c>
-      <c r="H262" s="32"/>
-      <c r="I262" s="32"/>
-      <c r="J262" s="40"/>
-      <c r="K262" s="32"/>
-      <c r="L262" s="32"/>
+      <c r="H262" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="I262" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="J262" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="K262" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L262" s="32" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A263" s="21" t="s">
@@ -20714,11 +20764,21 @@
       <c r="G263" s="23" t="s">
         <v>460</v>
       </c>
-      <c r="H263" s="23"/>
-      <c r="I263" s="23"/>
-      <c r="J263" s="41"/>
-      <c r="K263" s="23"/>
-      <c r="L263" s="23"/>
+      <c r="H263" s="24">
+        <v>9</v>
+      </c>
+      <c r="I263" s="24">
+        <v>2376</v>
+      </c>
+      <c r="J263" s="39">
+        <v>1363.84</v>
+      </c>
+      <c r="K263" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L263" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A264" s="21" t="s">
@@ -20742,11 +20802,21 @@
       <c r="G264" s="23" t="s">
         <v>461</v>
       </c>
-      <c r="H264" s="23"/>
-      <c r="I264" s="23"/>
-      <c r="J264" s="41"/>
-      <c r="K264" s="23"/>
-      <c r="L264" s="23"/>
+      <c r="H264" s="24">
+        <v>9</v>
+      </c>
+      <c r="I264" s="24">
+        <v>2524</v>
+      </c>
+      <c r="J264" s="39">
+        <v>1519.03</v>
+      </c>
+      <c r="K264" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L264" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A265" s="21" t="s">
@@ -20770,11 +20840,21 @@
       <c r="G265" s="27" t="s">
         <v>462</v>
       </c>
-      <c r="H265" s="27"/>
-      <c r="I265" s="27"/>
-      <c r="J265" s="42"/>
-      <c r="K265" s="27"/>
-      <c r="L265" s="27"/>
+      <c r="H265" s="27">
+        <v>9</v>
+      </c>
+      <c r="I265" s="27">
+        <v>2478</v>
+      </c>
+      <c r="J265" s="40">
+        <v>1474.38</v>
+      </c>
+      <c r="K265" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="L265" s="27" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A266" s="21" t="s">
@@ -20798,11 +20878,21 @@
       <c r="G266" s="32" t="s">
         <v>463</v>
       </c>
-      <c r="H266" s="32"/>
-      <c r="I266" s="32"/>
-      <c r="J266" s="40"/>
-      <c r="K266" s="32"/>
-      <c r="L266" s="32"/>
+      <c r="H266" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="I266" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="J266" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="K266" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L266" s="32" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A267" s="21" t="s">
@@ -20826,11 +20916,21 @@
       <c r="G267" s="23" t="s">
         <v>464</v>
       </c>
-      <c r="H267" s="23"/>
-      <c r="I267" s="23"/>
-      <c r="J267" s="41"/>
-      <c r="K267" s="23"/>
-      <c r="L267" s="23"/>
+      <c r="H267" s="24">
+        <v>6</v>
+      </c>
+      <c r="I267" s="24">
+        <v>2201</v>
+      </c>
+      <c r="J267" s="39">
+        <v>1175.31</v>
+      </c>
+      <c r="K267" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L267" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A268" s="21" t="s">
@@ -20854,11 +20954,21 @@
       <c r="G268" s="23" t="s">
         <v>465</v>
       </c>
-      <c r="H268" s="23"/>
-      <c r="I268" s="23"/>
-      <c r="J268" s="41"/>
-      <c r="K268" s="23"/>
-      <c r="L268" s="23"/>
+      <c r="H268" s="24">
+        <v>7</v>
+      </c>
+      <c r="I268" s="24">
+        <v>2143</v>
+      </c>
+      <c r="J268" s="39">
+        <v>1240.18</v>
+      </c>
+      <c r="K268" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L268" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A269" s="21" t="s">
@@ -20882,11 +20992,21 @@
       <c r="G269" s="27" t="s">
         <v>466</v>
       </c>
-      <c r="H269" s="27"/>
-      <c r="I269" s="27"/>
-      <c r="J269" s="42"/>
-      <c r="K269" s="27"/>
-      <c r="L269" s="27"/>
+      <c r="H269" s="27">
+        <v>7</v>
+      </c>
+      <c r="I269" s="27">
+        <v>2273</v>
+      </c>
+      <c r="J269" s="40">
+        <v>1320</v>
+      </c>
+      <c r="K269" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="L269" s="27" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A270" s="21" t="s">
@@ -20910,11 +21030,21 @@
       <c r="G270" s="32" t="s">
         <v>467</v>
       </c>
-      <c r="H270" s="32"/>
-      <c r="I270" s="32"/>
-      <c r="J270" s="40"/>
-      <c r="K270" s="32"/>
-      <c r="L270" s="32"/>
+      <c r="H270" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="I270" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="J270" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="K270" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L270" s="32" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A271" s="21" t="s">
@@ -20938,11 +21068,21 @@
       <c r="G271" s="23" t="s">
         <v>468</v>
       </c>
-      <c r="H271" s="23"/>
-      <c r="I271" s="23"/>
-      <c r="J271" s="41"/>
-      <c r="K271" s="23"/>
-      <c r="L271" s="23"/>
+      <c r="H271" s="24">
+        <v>6</v>
+      </c>
+      <c r="I271" s="24">
+        <v>2396</v>
+      </c>
+      <c r="J271" s="39">
+        <v>1300.3499999999999</v>
+      </c>
+      <c r="K271" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L271" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A272" s="21" t="s">
@@ -20966,11 +21106,21 @@
       <c r="G272" s="23" t="s">
         <v>469</v>
       </c>
-      <c r="H272" s="23"/>
-      <c r="I272" s="23"/>
-      <c r="J272" s="41"/>
-      <c r="K272" s="23"/>
-      <c r="L272" s="23"/>
+      <c r="H272" s="24">
+        <v>6</v>
+      </c>
+      <c r="I272" s="24">
+        <v>2123</v>
+      </c>
+      <c r="J272" s="39">
+        <v>1170.27</v>
+      </c>
+      <c r="K272" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L272" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A273" s="21" t="s">
@@ -20994,11 +21144,21 @@
       <c r="G273" s="27" t="s">
         <v>470</v>
       </c>
-      <c r="H273" s="27"/>
-      <c r="I273" s="27"/>
-      <c r="J273" s="42"/>
-      <c r="K273" s="27"/>
-      <c r="L273" s="27"/>
+      <c r="H273" s="27">
+        <v>6</v>
+      </c>
+      <c r="I273" s="27">
+        <v>2069</v>
+      </c>
+      <c r="J273" s="40">
+        <v>1153.4100000000001</v>
+      </c>
+      <c r="K273" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="L273" s="27" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A274" s="21" t="s">
@@ -21022,11 +21182,21 @@
       <c r="G274" s="32" t="s">
         <v>471</v>
       </c>
-      <c r="H274" s="32"/>
-      <c r="I274" s="32"/>
-      <c r="J274" s="40"/>
-      <c r="K274" s="32"/>
-      <c r="L274" s="32"/>
+      <c r="H274" s="32">
+        <v>5</v>
+      </c>
+      <c r="I274" s="32">
+        <v>2109</v>
+      </c>
+      <c r="J274" s="38">
+        <v>1105.77</v>
+      </c>
+      <c r="K274" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L274" s="32" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A275" s="21" t="s">
@@ -21050,11 +21220,21 @@
       <c r="G275" s="23" t="s">
         <v>472</v>
       </c>
-      <c r="H275" s="23"/>
-      <c r="I275" s="23"/>
-      <c r="J275" s="41"/>
-      <c r="K275" s="23"/>
-      <c r="L275" s="23"/>
+      <c r="H275" s="24">
+        <v>5</v>
+      </c>
+      <c r="I275" s="24">
+        <v>2060</v>
+      </c>
+      <c r="J275" s="39">
+        <v>1024.1400000000001</v>
+      </c>
+      <c r="K275" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L275" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A276" s="21" t="s">
@@ -21078,11 +21258,21 @@
       <c r="G276" s="23" t="s">
         <v>473</v>
       </c>
-      <c r="H276" s="23"/>
-      <c r="I276" s="23"/>
-      <c r="J276" s="41"/>
-      <c r="K276" s="23"/>
-      <c r="L276" s="23"/>
+      <c r="H276" s="24">
+        <v>5</v>
+      </c>
+      <c r="I276" s="24">
+        <v>2047</v>
+      </c>
+      <c r="J276" s="39">
+        <v>1004.07</v>
+      </c>
+      <c r="K276" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L276" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A277" s="21" t="s">
@@ -21106,11 +21296,21 @@
       <c r="G277" s="27" t="s">
         <v>474</v>
       </c>
-      <c r="H277" s="27"/>
-      <c r="I277" s="27"/>
-      <c r="J277" s="42"/>
-      <c r="K277" s="27"/>
-      <c r="L277" s="27"/>
+      <c r="H277" s="27">
+        <v>5</v>
+      </c>
+      <c r="I277" s="27">
+        <v>2074</v>
+      </c>
+      <c r="J277" s="40">
+        <v>1048.51</v>
+      </c>
+      <c r="K277" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="L277" s="27" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A278" s="21" t="s">
@@ -21134,11 +21334,21 @@
       <c r="G278" s="32" t="s">
         <v>475</v>
       </c>
-      <c r="H278" s="32"/>
-      <c r="I278" s="32"/>
-      <c r="J278" s="40"/>
-      <c r="K278" s="32"/>
-      <c r="L278" s="32"/>
+      <c r="H278" s="32">
+        <v>3</v>
+      </c>
+      <c r="I278" s="32">
+        <v>1737</v>
+      </c>
+      <c r="J278" s="38">
+        <v>795.08</v>
+      </c>
+      <c r="K278" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L278" s="32" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A279" s="21" t="s">
@@ -21162,11 +21372,21 @@
       <c r="G279" s="23" t="s">
         <v>476</v>
       </c>
-      <c r="H279" s="23"/>
-      <c r="I279" s="23"/>
-      <c r="J279" s="41"/>
-      <c r="K279" s="23"/>
-      <c r="L279" s="23"/>
+      <c r="H279" s="24">
+        <v>4</v>
+      </c>
+      <c r="I279" s="24">
+        <v>2010</v>
+      </c>
+      <c r="J279" s="39">
+        <v>980.51</v>
+      </c>
+      <c r="K279" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L279" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A280" s="21" t="s">
@@ -21190,11 +21410,21 @@
       <c r="G280" s="23" t="s">
         <v>477</v>
       </c>
-      <c r="H280" s="23"/>
-      <c r="I280" s="23"/>
-      <c r="J280" s="41"/>
-      <c r="K280" s="23"/>
-      <c r="L280" s="23"/>
+      <c r="H280" s="24">
+        <v>4</v>
+      </c>
+      <c r="I280" s="24">
+        <v>1887</v>
+      </c>
+      <c r="J280" s="39">
+        <v>907.92</v>
+      </c>
+      <c r="K280" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L280" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A281" s="21" t="s">
@@ -21218,11 +21448,21 @@
       <c r="G281" s="27" t="s">
         <v>478</v>
       </c>
-      <c r="H281" s="27"/>
-      <c r="I281" s="27"/>
-      <c r="J281" s="42"/>
-      <c r="K281" s="27"/>
-      <c r="L281" s="27"/>
+      <c r="H281" s="27">
+        <v>4</v>
+      </c>
+      <c r="I281" s="27">
+        <v>2065</v>
+      </c>
+      <c r="J281" s="40">
+        <v>1036.79</v>
+      </c>
+      <c r="K281" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="L281" s="27" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A282" s="21" t="s">
@@ -21246,11 +21486,21 @@
       <c r="G282" s="32" t="s">
         <v>479</v>
       </c>
-      <c r="H282" s="32"/>
-      <c r="I282" s="32"/>
-      <c r="J282" s="40"/>
-      <c r="K282" s="32"/>
-      <c r="L282" s="32"/>
+      <c r="H282" s="32">
+        <v>5</v>
+      </c>
+      <c r="I282" s="32">
+        <v>2109</v>
+      </c>
+      <c r="J282" s="38">
+        <v>1105.77</v>
+      </c>
+      <c r="K282" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L282" s="32" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A283" s="21" t="s">
@@ -21274,11 +21524,21 @@
       <c r="G283" s="23" t="s">
         <v>480</v>
       </c>
-      <c r="H283" s="23"/>
-      <c r="I283" s="23"/>
-      <c r="J283" s="41"/>
-      <c r="K283" s="23"/>
-      <c r="L283" s="23"/>
+      <c r="H283" s="24">
+        <v>5</v>
+      </c>
+      <c r="I283" s="24">
+        <v>2060</v>
+      </c>
+      <c r="J283" s="39">
+        <v>1024.1400000000001</v>
+      </c>
+      <c r="K283" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L283" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A284" s="21" t="s">
@@ -21302,11 +21562,21 @@
       <c r="G284" s="23" t="s">
         <v>481</v>
       </c>
-      <c r="H284" s="23"/>
-      <c r="I284" s="23"/>
-      <c r="J284" s="41"/>
-      <c r="K284" s="23"/>
-      <c r="L284" s="23"/>
+      <c r="H284" s="24">
+        <v>5</v>
+      </c>
+      <c r="I284" s="24">
+        <v>2047</v>
+      </c>
+      <c r="J284" s="39">
+        <v>1004.07</v>
+      </c>
+      <c r="K284" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L284" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A285" s="21" t="s">
@@ -21330,11 +21600,21 @@
       <c r="G285" s="27" t="s">
         <v>482</v>
       </c>
-      <c r="H285" s="27"/>
-      <c r="I285" s="27"/>
-      <c r="J285" s="42"/>
-      <c r="K285" s="27"/>
-      <c r="L285" s="27"/>
+      <c r="H285" s="27">
+        <v>5</v>
+      </c>
+      <c r="I285" s="27">
+        <v>2074</v>
+      </c>
+      <c r="J285" s="40">
+        <v>1048.51</v>
+      </c>
+      <c r="K285" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="L285" s="27" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A286" s="21" t="s">
@@ -21358,11 +21638,21 @@
       <c r="G286" s="32" t="s">
         <v>483</v>
       </c>
-      <c r="H286" s="32"/>
-      <c r="I286" s="32"/>
-      <c r="J286" s="40"/>
-      <c r="K286" s="32"/>
-      <c r="L286" s="32"/>
+      <c r="H286" s="32">
+        <v>3</v>
+      </c>
+      <c r="I286" s="32">
+        <v>1737</v>
+      </c>
+      <c r="J286" s="38">
+        <v>795.08</v>
+      </c>
+      <c r="K286" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L286" s="32" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A287" s="21" t="s">
@@ -21386,11 +21676,21 @@
       <c r="G287" s="23" t="s">
         <v>484</v>
       </c>
-      <c r="H287" s="23"/>
-      <c r="I287" s="23"/>
-      <c r="J287" s="41"/>
-      <c r="K287" s="23"/>
-      <c r="L287" s="23"/>
+      <c r="H287" s="24">
+        <v>4</v>
+      </c>
+      <c r="I287" s="24">
+        <v>2010</v>
+      </c>
+      <c r="J287" s="39">
+        <v>980.51</v>
+      </c>
+      <c r="K287" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L287" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A288" s="21" t="s">
@@ -21414,11 +21714,21 @@
       <c r="G288" s="23" t="s">
         <v>485</v>
       </c>
-      <c r="H288" s="23"/>
-      <c r="I288" s="23"/>
-      <c r="J288" s="41"/>
-      <c r="K288" s="23"/>
-      <c r="L288" s="23"/>
+      <c r="H288" s="24">
+        <v>4</v>
+      </c>
+      <c r="I288" s="24">
+        <v>1887</v>
+      </c>
+      <c r="J288" s="39">
+        <v>907.92</v>
+      </c>
+      <c r="K288" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L288" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A289" s="21" t="s">
@@ -21442,11 +21752,21 @@
       <c r="G289" s="27" t="s">
         <v>486</v>
       </c>
-      <c r="H289" s="27"/>
-      <c r="I289" s="27"/>
-      <c r="J289" s="42"/>
-      <c r="K289" s="27"/>
-      <c r="L289" s="27"/>
+      <c r="H289" s="27">
+        <v>4</v>
+      </c>
+      <c r="I289" s="27">
+        <v>2065</v>
+      </c>
+      <c r="J289" s="40">
+        <v>1036.79</v>
+      </c>
+      <c r="K289" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="L289" s="27" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A290" s="21" t="s">
@@ -21472,7 +21792,7 @@
       </c>
       <c r="H290" s="32"/>
       <c r="I290" s="32"/>
-      <c r="J290" s="40"/>
+      <c r="J290" s="38"/>
       <c r="K290" s="32"/>
       <c r="L290" s="32"/>
     </row>
@@ -21500,7 +21820,7 @@
       </c>
       <c r="H291" s="23"/>
       <c r="I291" s="23"/>
-      <c r="J291" s="41"/>
+      <c r="J291" s="39"/>
       <c r="K291" s="23"/>
       <c r="L291" s="23"/>
     </row>
@@ -21528,7 +21848,7 @@
       </c>
       <c r="H292" s="23"/>
       <c r="I292" s="23"/>
-      <c r="J292" s="41"/>
+      <c r="J292" s="39"/>
       <c r="K292" s="23"/>
       <c r="L292" s="23"/>
     </row>
@@ -21556,7 +21876,7 @@
       </c>
       <c r="H293" s="27"/>
       <c r="I293" s="27"/>
-      <c r="J293" s="42"/>
+      <c r="J293" s="40"/>
       <c r="K293" s="27"/>
       <c r="L293" s="27"/>
     </row>
@@ -21584,7 +21904,7 @@
       </c>
       <c r="H294" s="32"/>
       <c r="I294" s="32"/>
-      <c r="J294" s="40"/>
+      <c r="J294" s="38"/>
       <c r="K294" s="32"/>
       <c r="L294" s="32"/>
     </row>
@@ -21612,7 +21932,7 @@
       </c>
       <c r="H295" s="23"/>
       <c r="I295" s="23"/>
-      <c r="J295" s="41"/>
+      <c r="J295" s="39"/>
       <c r="K295" s="23"/>
       <c r="L295" s="23"/>
     </row>
@@ -21640,7 +21960,7 @@
       </c>
       <c r="H296" s="23"/>
       <c r="I296" s="23"/>
-      <c r="J296" s="41"/>
+      <c r="J296" s="39"/>
       <c r="K296" s="23"/>
       <c r="L296" s="23"/>
     </row>
@@ -21668,7 +21988,7 @@
       </c>
       <c r="H297" s="27"/>
       <c r="I297" s="27"/>
-      <c r="J297" s="42"/>
+      <c r="J297" s="40"/>
       <c r="K297" s="27"/>
       <c r="L297" s="27"/>
     </row>
@@ -21696,7 +22016,7 @@
       </c>
       <c r="H298" s="32"/>
       <c r="I298" s="32"/>
-      <c r="J298" s="40"/>
+      <c r="J298" s="38"/>
       <c r="K298" s="32"/>
       <c r="L298" s="32"/>
     </row>
@@ -21724,7 +22044,7 @@
       </c>
       <c r="H299" s="23"/>
       <c r="I299" s="23"/>
-      <c r="J299" s="41"/>
+      <c r="J299" s="39"/>
       <c r="K299" s="23"/>
       <c r="L299" s="23"/>
     </row>
@@ -21752,7 +22072,7 @@
       </c>
       <c r="H300" s="23"/>
       <c r="I300" s="23"/>
-      <c r="J300" s="41"/>
+      <c r="J300" s="39"/>
       <c r="K300" s="23"/>
       <c r="L300" s="23"/>
     </row>
@@ -21780,7 +22100,7 @@
       </c>
       <c r="H301" s="27"/>
       <c r="I301" s="27"/>
-      <c r="J301" s="42"/>
+      <c r="J301" s="40"/>
       <c r="K301" s="27"/>
       <c r="L301" s="27"/>
     </row>
@@ -21808,7 +22128,7 @@
       </c>
       <c r="H302" s="32"/>
       <c r="I302" s="32"/>
-      <c r="J302" s="40"/>
+      <c r="J302" s="38"/>
       <c r="K302" s="32"/>
       <c r="L302" s="32"/>
     </row>
@@ -21836,7 +22156,7 @@
       </c>
       <c r="H303" s="23"/>
       <c r="I303" s="23"/>
-      <c r="J303" s="41"/>
+      <c r="J303" s="39"/>
       <c r="K303" s="23"/>
       <c r="L303" s="23"/>
     </row>
@@ -21864,7 +22184,7 @@
       </c>
       <c r="H304" s="23"/>
       <c r="I304" s="23"/>
-      <c r="J304" s="41"/>
+      <c r="J304" s="39"/>
       <c r="K304" s="23"/>
       <c r="L304" s="23"/>
     </row>
@@ -21892,7 +22212,7 @@
       </c>
       <c r="H305" s="27"/>
       <c r="I305" s="27"/>
-      <c r="J305" s="42"/>
+      <c r="J305" s="40"/>
       <c r="K305" s="27"/>
       <c r="L305" s="27"/>
     </row>
@@ -21920,7 +22240,7 @@
       </c>
       <c r="H306" s="32"/>
       <c r="I306" s="32"/>
-      <c r="J306" s="40"/>
+      <c r="J306" s="38"/>
       <c r="K306" s="32"/>
       <c r="L306" s="32"/>
     </row>
@@ -21948,7 +22268,7 @@
       </c>
       <c r="H307" s="23"/>
       <c r="I307" s="23"/>
-      <c r="J307" s="41"/>
+      <c r="J307" s="39"/>
       <c r="K307" s="23"/>
       <c r="L307" s="23"/>
     </row>
@@ -21976,7 +22296,7 @@
       </c>
       <c r="H308" s="23"/>
       <c r="I308" s="23"/>
-      <c r="J308" s="41"/>
+      <c r="J308" s="39"/>
       <c r="K308" s="23"/>
       <c r="L308" s="23"/>
     </row>
@@ -22004,7 +22324,7 @@
       </c>
       <c r="H309" s="27"/>
       <c r="I309" s="27"/>
-      <c r="J309" s="42"/>
+      <c r="J309" s="40"/>
       <c r="K309" s="27"/>
       <c r="L309" s="27"/>
     </row>
@@ -22032,7 +22352,7 @@
       </c>
       <c r="H310" s="32"/>
       <c r="I310" s="32"/>
-      <c r="J310" s="40"/>
+      <c r="J310" s="38"/>
       <c r="K310" s="32"/>
       <c r="L310" s="32"/>
     </row>
@@ -22060,7 +22380,7 @@
       </c>
       <c r="H311" s="23"/>
       <c r="I311" s="23"/>
-      <c r="J311" s="41"/>
+      <c r="J311" s="39"/>
       <c r="K311" s="23"/>
       <c r="L311" s="23"/>
     </row>
@@ -22088,7 +22408,7 @@
       </c>
       <c r="H312" s="23"/>
       <c r="I312" s="23"/>
-      <c r="J312" s="41"/>
+      <c r="J312" s="39"/>
       <c r="K312" s="23"/>
       <c r="L312" s="23"/>
     </row>
@@ -22116,7 +22436,7 @@
       </c>
       <c r="H313" s="27"/>
       <c r="I313" s="27"/>
-      <c r="J313" s="42"/>
+      <c r="J313" s="40"/>
       <c r="K313" s="27"/>
       <c r="L313" s="27"/>
     </row>
@@ -22144,7 +22464,7 @@
       </c>
       <c r="H314" s="32"/>
       <c r="I314" s="32"/>
-      <c r="J314" s="40"/>
+      <c r="J314" s="38"/>
       <c r="K314" s="32"/>
       <c r="L314" s="32"/>
     </row>
@@ -22172,7 +22492,7 @@
       </c>
       <c r="H315" s="23"/>
       <c r="I315" s="23"/>
-      <c r="J315" s="41"/>
+      <c r="J315" s="39"/>
       <c r="K315" s="23"/>
       <c r="L315" s="23"/>
     </row>
@@ -22200,7 +22520,7 @@
       </c>
       <c r="H316" s="23"/>
       <c r="I316" s="23"/>
-      <c r="J316" s="41"/>
+      <c r="J316" s="39"/>
       <c r="K316" s="23"/>
       <c r="L316" s="23"/>
     </row>
@@ -22228,7 +22548,7 @@
       </c>
       <c r="H317" s="27"/>
       <c r="I317" s="27"/>
-      <c r="J317" s="42"/>
+      <c r="J317" s="40"/>
       <c r="K317" s="27"/>
       <c r="L317" s="27"/>
     </row>
@@ -22256,7 +22576,7 @@
       </c>
       <c r="H318" s="32"/>
       <c r="I318" s="32"/>
-      <c r="J318" s="40"/>
+      <c r="J318" s="38"/>
       <c r="K318" s="32"/>
       <c r="L318" s="32"/>
     </row>
@@ -22284,7 +22604,7 @@
       </c>
       <c r="H319" s="23"/>
       <c r="I319" s="23"/>
-      <c r="J319" s="41"/>
+      <c r="J319" s="39"/>
       <c r="K319" s="23"/>
       <c r="L319" s="23"/>
     </row>
@@ -22312,7 +22632,7 @@
       </c>
       <c r="H320" s="23"/>
       <c r="I320" s="23"/>
-      <c r="J320" s="41"/>
+      <c r="J320" s="39"/>
       <c r="K320" s="23"/>
       <c r="L320" s="23"/>
     </row>
@@ -22340,7 +22660,7 @@
       </c>
       <c r="H321" s="27"/>
       <c r="I321" s="27"/>
-      <c r="J321" s="42"/>
+      <c r="J321" s="40"/>
       <c r="K321" s="27"/>
       <c r="L321" s="27"/>
     </row>
@@ -22368,7 +22688,7 @@
       </c>
       <c r="H322" s="32"/>
       <c r="I322" s="32"/>
-      <c r="J322" s="40"/>
+      <c r="J322" s="38"/>
       <c r="K322" s="32"/>
       <c r="L322" s="32"/>
     </row>
@@ -22396,7 +22716,7 @@
       </c>
       <c r="H323" s="23"/>
       <c r="I323" s="23"/>
-      <c r="J323" s="41"/>
+      <c r="J323" s="39"/>
       <c r="K323" s="23"/>
       <c r="L323" s="23"/>
     </row>
@@ -22424,7 +22744,7 @@
       </c>
       <c r="H324" s="23"/>
       <c r="I324" s="23"/>
-      <c r="J324" s="41"/>
+      <c r="J324" s="39"/>
       <c r="K324" s="23"/>
       <c r="L324" s="23"/>
     </row>
@@ -22452,7 +22772,7 @@
       </c>
       <c r="H325" s="27"/>
       <c r="I325" s="27"/>
-      <c r="J325" s="42"/>
+      <c r="J325" s="40"/>
       <c r="K325" s="27"/>
       <c r="L325" s="27"/>
     </row>
@@ -22480,7 +22800,7 @@
       </c>
       <c r="H326" s="32"/>
       <c r="I326" s="32"/>
-      <c r="J326" s="40"/>
+      <c r="J326" s="38"/>
       <c r="K326" s="32"/>
       <c r="L326" s="32"/>
     </row>
@@ -22508,7 +22828,7 @@
       </c>
       <c r="H327" s="23"/>
       <c r="I327" s="23"/>
-      <c r="J327" s="41"/>
+      <c r="J327" s="39"/>
       <c r="K327" s="23"/>
       <c r="L327" s="23"/>
     </row>
@@ -22536,7 +22856,7 @@
       </c>
       <c r="H328" s="23"/>
       <c r="I328" s="23"/>
-      <c r="J328" s="41"/>
+      <c r="J328" s="39"/>
       <c r="K328" s="23"/>
       <c r="L328" s="23"/>
     </row>
@@ -22564,7 +22884,7 @@
       </c>
       <c r="H329" s="27"/>
       <c r="I329" s="27"/>
-      <c r="J329" s="42"/>
+      <c r="J329" s="40"/>
       <c r="K329" s="27"/>
       <c r="L329" s="27"/>
     </row>
@@ -22592,7 +22912,7 @@
       </c>
       <c r="H330" s="32"/>
       <c r="I330" s="32"/>
-      <c r="J330" s="40"/>
+      <c r="J330" s="38"/>
       <c r="K330" s="32"/>
       <c r="L330" s="32"/>
     </row>
@@ -22620,7 +22940,7 @@
       </c>
       <c r="H331" s="23"/>
       <c r="I331" s="23"/>
-      <c r="J331" s="41"/>
+      <c r="J331" s="39"/>
       <c r="K331" s="23"/>
       <c r="L331" s="23"/>
     </row>
@@ -22648,7 +22968,7 @@
       </c>
       <c r="H332" s="23"/>
       <c r="I332" s="23"/>
-      <c r="J332" s="41"/>
+      <c r="J332" s="39"/>
       <c r="K332" s="23"/>
       <c r="L332" s="23"/>
     </row>
@@ -22676,7 +22996,7 @@
       </c>
       <c r="H333" s="27"/>
       <c r="I333" s="27"/>
-      <c r="J333" s="42"/>
+      <c r="J333" s="40"/>
       <c r="K333" s="27"/>
       <c r="L333" s="27"/>
     </row>
@@ -22704,7 +23024,7 @@
       </c>
       <c r="H334" s="32"/>
       <c r="I334" s="32"/>
-      <c r="J334" s="40"/>
+      <c r="J334" s="38"/>
       <c r="K334" s="32"/>
       <c r="L334" s="32"/>
     </row>
@@ -22732,7 +23052,7 @@
       </c>
       <c r="H335" s="23"/>
       <c r="I335" s="23"/>
-      <c r="J335" s="41"/>
+      <c r="J335" s="39"/>
       <c r="K335" s="23"/>
       <c r="L335" s="23"/>
     </row>
@@ -22760,7 +23080,7 @@
       </c>
       <c r="H336" s="23"/>
       <c r="I336" s="23"/>
-      <c r="J336" s="41"/>
+      <c r="J336" s="39"/>
       <c r="K336" s="23"/>
       <c r="L336" s="23"/>
     </row>
@@ -22788,7 +23108,7 @@
       </c>
       <c r="H337" s="27"/>
       <c r="I337" s="27"/>
-      <c r="J337" s="42"/>
+      <c r="J337" s="40"/>
       <c r="K337" s="27"/>
       <c r="L337" s="27"/>
     </row>
@@ -22816,7 +23136,7 @@
       </c>
       <c r="H338" s="32"/>
       <c r="I338" s="32"/>
-      <c r="J338" s="40"/>
+      <c r="J338" s="38"/>
       <c r="K338" s="32"/>
       <c r="L338" s="32"/>
     </row>
@@ -22844,7 +23164,7 @@
       </c>
       <c r="H339" s="23"/>
       <c r="I339" s="23"/>
-      <c r="J339" s="41"/>
+      <c r="J339" s="39"/>
       <c r="K339" s="23"/>
       <c r="L339" s="23"/>
     </row>
@@ -22872,7 +23192,7 @@
       </c>
       <c r="H340" s="23"/>
       <c r="I340" s="23"/>
-      <c r="J340" s="41"/>
+      <c r="J340" s="39"/>
       <c r="K340" s="23"/>
       <c r="L340" s="23"/>
     </row>
@@ -22900,7 +23220,7 @@
       </c>
       <c r="H341" s="27"/>
       <c r="I341" s="27"/>
-      <c r="J341" s="42"/>
+      <c r="J341" s="40"/>
       <c r="K341" s="27"/>
       <c r="L341" s="27"/>
     </row>
@@ -22928,7 +23248,7 @@
       </c>
       <c r="H342" s="32"/>
       <c r="I342" s="32"/>
-      <c r="J342" s="40"/>
+      <c r="J342" s="38"/>
       <c r="K342" s="32"/>
       <c r="L342" s="32"/>
     </row>
@@ -22956,7 +23276,7 @@
       </c>
       <c r="H343" s="23"/>
       <c r="I343" s="23"/>
-      <c r="J343" s="41"/>
+      <c r="J343" s="39"/>
       <c r="K343" s="23"/>
       <c r="L343" s="23"/>
     </row>
@@ -22984,7 +23304,7 @@
       </c>
       <c r="H344" s="23"/>
       <c r="I344" s="23"/>
-      <c r="J344" s="41"/>
+      <c r="J344" s="39"/>
       <c r="K344" s="23"/>
       <c r="L344" s="23"/>
     </row>
@@ -23012,7 +23332,7 @@
       </c>
       <c r="H345" s="27"/>
       <c r="I345" s="27"/>
-      <c r="J345" s="42"/>
+      <c r="J345" s="40"/>
       <c r="K345" s="27"/>
       <c r="L345" s="27"/>
     </row>
@@ -23040,7 +23360,7 @@
       </c>
       <c r="H346" s="32"/>
       <c r="I346" s="32"/>
-      <c r="J346" s="40"/>
+      <c r="J346" s="38"/>
       <c r="K346" s="32"/>
       <c r="L346" s="32"/>
     </row>
@@ -23068,7 +23388,7 @@
       </c>
       <c r="H347" s="23"/>
       <c r="I347" s="23"/>
-      <c r="J347" s="41"/>
+      <c r="J347" s="39"/>
       <c r="K347" s="23"/>
       <c r="L347" s="23"/>
     </row>
@@ -23096,7 +23416,7 @@
       </c>
       <c r="H348" s="23"/>
       <c r="I348" s="23"/>
-      <c r="J348" s="41"/>
+      <c r="J348" s="39"/>
       <c r="K348" s="23"/>
       <c r="L348" s="23"/>
     </row>
@@ -23124,7 +23444,7 @@
       </c>
       <c r="H349" s="27"/>
       <c r="I349" s="27"/>
-      <c r="J349" s="42"/>
+      <c r="J349" s="40"/>
       <c r="K349" s="27"/>
       <c r="L349" s="27"/>
     </row>
@@ -23152,7 +23472,7 @@
       </c>
       <c r="H350" s="32"/>
       <c r="I350" s="32"/>
-      <c r="J350" s="40"/>
+      <c r="J350" s="38"/>
       <c r="K350" s="32"/>
       <c r="L350" s="32"/>
     </row>
@@ -23180,7 +23500,7 @@
       </c>
       <c r="H351" s="23"/>
       <c r="I351" s="23"/>
-      <c r="J351" s="41"/>
+      <c r="J351" s="39"/>
       <c r="K351" s="23"/>
       <c r="L351" s="23"/>
     </row>
@@ -23208,7 +23528,7 @@
       </c>
       <c r="H352" s="23"/>
       <c r="I352" s="23"/>
-      <c r="J352" s="41"/>
+      <c r="J352" s="39"/>
       <c r="K352" s="23"/>
       <c r="L352" s="23"/>
     </row>
@@ -23236,7 +23556,7 @@
       </c>
       <c r="H353" s="27"/>
       <c r="I353" s="27"/>
-      <c r="J353" s="42"/>
+      <c r="J353" s="40"/>
       <c r="K353" s="27"/>
       <c r="L353" s="27"/>
     </row>
@@ -23264,7 +23584,7 @@
       </c>
       <c r="H354" s="32"/>
       <c r="I354" s="32"/>
-      <c r="J354" s="40"/>
+      <c r="J354" s="38"/>
       <c r="K354" s="32"/>
       <c r="L354" s="32"/>
     </row>
@@ -23292,7 +23612,7 @@
       </c>
       <c r="H355" s="23"/>
       <c r="I355" s="23"/>
-      <c r="J355" s="41"/>
+      <c r="J355" s="39"/>
       <c r="K355" s="23"/>
       <c r="L355" s="23"/>
     </row>
@@ -23320,7 +23640,7 @@
       </c>
       <c r="H356" s="23"/>
       <c r="I356" s="23"/>
-      <c r="J356" s="41"/>
+      <c r="J356" s="39"/>
       <c r="K356" s="23"/>
       <c r="L356" s="23"/>
     </row>
@@ -23348,7 +23668,7 @@
       </c>
       <c r="H357" s="27"/>
       <c r="I357" s="27"/>
-      <c r="J357" s="42"/>
+      <c r="J357" s="40"/>
       <c r="K357" s="27"/>
       <c r="L357" s="27"/>
     </row>
@@ -23376,7 +23696,7 @@
       </c>
       <c r="H358" s="32"/>
       <c r="I358" s="32"/>
-      <c r="J358" s="40"/>
+      <c r="J358" s="38"/>
       <c r="K358" s="32"/>
       <c r="L358" s="32"/>
     </row>
@@ -23404,7 +23724,7 @@
       </c>
       <c r="H359" s="23"/>
       <c r="I359" s="23"/>
-      <c r="J359" s="41"/>
+      <c r="J359" s="39"/>
       <c r="K359" s="23"/>
       <c r="L359" s="23"/>
     </row>
@@ -23432,7 +23752,7 @@
       </c>
       <c r="H360" s="23"/>
       <c r="I360" s="23"/>
-      <c r="J360" s="41"/>
+      <c r="J360" s="39"/>
       <c r="K360" s="23"/>
       <c r="L360" s="23"/>
     </row>
@@ -23460,7 +23780,7 @@
       </c>
       <c r="H361" s="27"/>
       <c r="I361" s="27"/>
-      <c r="J361" s="42"/>
+      <c r="J361" s="40"/>
       <c r="K361" s="27"/>
       <c r="L361" s="27"/>
     </row>
@@ -23488,7 +23808,7 @@
       </c>
       <c r="H362" s="32"/>
       <c r="I362" s="32"/>
-      <c r="J362" s="40"/>
+      <c r="J362" s="38"/>
       <c r="K362" s="32"/>
       <c r="L362" s="32"/>
     </row>
@@ -23516,7 +23836,7 @@
       </c>
       <c r="H363" s="23"/>
       <c r="I363" s="23"/>
-      <c r="J363" s="41"/>
+      <c r="J363" s="39"/>
       <c r="K363" s="23"/>
       <c r="L363" s="23"/>
     </row>
@@ -23544,7 +23864,7 @@
       </c>
       <c r="H364" s="23"/>
       <c r="I364" s="23"/>
-      <c r="J364" s="41"/>
+      <c r="J364" s="39"/>
       <c r="K364" s="23"/>
       <c r="L364" s="23"/>
     </row>
@@ -23572,7 +23892,7 @@
       </c>
       <c r="H365" s="27"/>
       <c r="I365" s="27"/>
-      <c r="J365" s="42"/>
+      <c r="J365" s="40"/>
       <c r="K365" s="27"/>
       <c r="L365" s="27"/>
     </row>
@@ -23600,7 +23920,7 @@
       </c>
       <c r="H366" s="32"/>
       <c r="I366" s="32"/>
-      <c r="J366" s="40"/>
+      <c r="J366" s="38"/>
       <c r="K366" s="32"/>
       <c r="L366" s="32"/>
     </row>
@@ -23628,7 +23948,7 @@
       </c>
       <c r="H367" s="23"/>
       <c r="I367" s="23"/>
-      <c r="J367" s="41"/>
+      <c r="J367" s="39"/>
       <c r="K367" s="23"/>
       <c r="L367" s="23"/>
     </row>
@@ -23656,7 +23976,7 @@
       </c>
       <c r="H368" s="23"/>
       <c r="I368" s="23"/>
-      <c r="J368" s="41"/>
+      <c r="J368" s="39"/>
       <c r="K368" s="23"/>
       <c r="L368" s="23"/>
     </row>
@@ -23684,7 +24004,7 @@
       </c>
       <c r="H369" s="27"/>
       <c r="I369" s="27"/>
-      <c r="J369" s="42"/>
+      <c r="J369" s="40"/>
       <c r="K369" s="27"/>
       <c r="L369" s="27"/>
     </row>
@@ -23712,7 +24032,7 @@
       </c>
       <c r="H370" s="32"/>
       <c r="I370" s="32"/>
-      <c r="J370" s="40"/>
+      <c r="J370" s="38"/>
       <c r="K370" s="32"/>
       <c r="L370" s="32"/>
     </row>
@@ -23740,7 +24060,7 @@
       </c>
       <c r="H371" s="23"/>
       <c r="I371" s="23"/>
-      <c r="J371" s="41"/>
+      <c r="J371" s="39"/>
       <c r="K371" s="23"/>
       <c r="L371" s="23"/>
     </row>
@@ -23768,7 +24088,7 @@
       </c>
       <c r="H372" s="23"/>
       <c r="I372" s="23"/>
-      <c r="J372" s="41"/>
+      <c r="J372" s="39"/>
       <c r="K372" s="23"/>
       <c r="L372" s="23"/>
     </row>
@@ -23796,7 +24116,7 @@
       </c>
       <c r="H373" s="27"/>
       <c r="I373" s="27"/>
-      <c r="J373" s="42"/>
+      <c r="J373" s="40"/>
       <c r="K373" s="27"/>
       <c r="L373" s="27"/>
     </row>
@@ -23824,7 +24144,7 @@
       </c>
       <c r="H374" s="32"/>
       <c r="I374" s="32"/>
-      <c r="J374" s="40"/>
+      <c r="J374" s="38"/>
       <c r="K374" s="32"/>
       <c r="L374" s="32"/>
     </row>
@@ -23852,7 +24172,7 @@
       </c>
       <c r="H375" s="23"/>
       <c r="I375" s="23"/>
-      <c r="J375" s="41"/>
+      <c r="J375" s="39"/>
       <c r="K375" s="23"/>
       <c r="L375" s="23"/>
     </row>
@@ -23880,7 +24200,7 @@
       </c>
       <c r="H376" s="23"/>
       <c r="I376" s="23"/>
-      <c r="J376" s="41"/>
+      <c r="J376" s="39"/>
       <c r="K376" s="23"/>
       <c r="L376" s="23"/>
     </row>
@@ -23908,7 +24228,7 @@
       </c>
       <c r="H377" s="27"/>
       <c r="I377" s="27"/>
-      <c r="J377" s="42"/>
+      <c r="J377" s="40"/>
       <c r="K377" s="27"/>
       <c r="L377" s="27"/>
     </row>
@@ -23936,7 +24256,7 @@
       </c>
       <c r="H378" s="32"/>
       <c r="I378" s="32"/>
-      <c r="J378" s="40"/>
+      <c r="J378" s="38"/>
       <c r="K378" s="32"/>
       <c r="L378" s="32"/>
     </row>
@@ -23964,7 +24284,7 @@
       </c>
       <c r="H379" s="23"/>
       <c r="I379" s="23"/>
-      <c r="J379" s="41"/>
+      <c r="J379" s="39"/>
       <c r="K379" s="23"/>
       <c r="L379" s="23"/>
     </row>
@@ -23992,7 +24312,7 @@
       </c>
       <c r="H380" s="23"/>
       <c r="I380" s="23"/>
-      <c r="J380" s="41"/>
+      <c r="J380" s="39"/>
       <c r="K380" s="23"/>
       <c r="L380" s="23"/>
     </row>
@@ -24020,7 +24340,7 @@
       </c>
       <c r="H381" s="27"/>
       <c r="I381" s="27"/>
-      <c r="J381" s="42"/>
+      <c r="J381" s="40"/>
       <c r="K381" s="27"/>
       <c r="L381" s="27"/>
     </row>
@@ -24048,7 +24368,7 @@
       </c>
       <c r="H382" s="32"/>
       <c r="I382" s="32"/>
-      <c r="J382" s="40"/>
+      <c r="J382" s="38"/>
       <c r="K382" s="32"/>
       <c r="L382" s="32"/>
     </row>
@@ -24076,7 +24396,7 @@
       </c>
       <c r="H383" s="23"/>
       <c r="I383" s="23"/>
-      <c r="J383" s="41"/>
+      <c r="J383" s="39"/>
       <c r="K383" s="23"/>
       <c r="L383" s="23"/>
     </row>
@@ -24104,7 +24424,7 @@
       </c>
       <c r="H384" s="23"/>
       <c r="I384" s="23"/>
-      <c r="J384" s="41"/>
+      <c r="J384" s="39"/>
       <c r="K384" s="23"/>
       <c r="L384" s="23"/>
     </row>
@@ -24132,7 +24452,7 @@
       </c>
       <c r="H385" s="27"/>
       <c r="I385" s="27"/>
-      <c r="J385" s="42"/>
+      <c r="J385" s="40"/>
       <c r="K385" s="27"/>
       <c r="L385" s="27"/>
     </row>
@@ -24160,7 +24480,7 @@
       </c>
       <c r="H386" s="32"/>
       <c r="I386" s="32"/>
-      <c r="J386" s="40"/>
+      <c r="J386" s="38"/>
       <c r="K386" s="32"/>
       <c r="L386" s="32"/>
     </row>
@@ -24188,7 +24508,7 @@
       </c>
       <c r="H387" s="23"/>
       <c r="I387" s="23"/>
-      <c r="J387" s="41"/>
+      <c r="J387" s="39"/>
       <c r="K387" s="23"/>
       <c r="L387" s="23"/>
     </row>
@@ -24216,7 +24536,7 @@
       </c>
       <c r="H388" s="23"/>
       <c r="I388" s="23"/>
-      <c r="J388" s="41"/>
+      <c r="J388" s="39"/>
       <c r="K388" s="23"/>
       <c r="L388" s="23"/>
     </row>
@@ -24244,7 +24564,7 @@
       </c>
       <c r="H389" s="27"/>
       <c r="I389" s="27"/>
-      <c r="J389" s="42"/>
+      <c r="J389" s="40"/>
       <c r="K389" s="27"/>
       <c r="L389" s="27"/>
     </row>
@@ -24272,7 +24592,7 @@
       </c>
       <c r="H390" s="32"/>
       <c r="I390" s="32"/>
-      <c r="J390" s="40"/>
+      <c r="J390" s="38"/>
       <c r="K390" s="32"/>
       <c r="L390" s="32"/>
     </row>
@@ -24300,7 +24620,7 @@
       </c>
       <c r="H391" s="23"/>
       <c r="I391" s="23"/>
-      <c r="J391" s="41"/>
+      <c r="J391" s="39"/>
       <c r="K391" s="23"/>
       <c r="L391" s="23"/>
     </row>
@@ -24328,7 +24648,7 @@
       </c>
       <c r="H392" s="23"/>
       <c r="I392" s="23"/>
-      <c r="J392" s="41"/>
+      <c r="J392" s="39"/>
       <c r="K392" s="23"/>
       <c r="L392" s="23"/>
     </row>
@@ -24356,7 +24676,7 @@
       </c>
       <c r="H393" s="27"/>
       <c r="I393" s="27"/>
-      <c r="J393" s="42"/>
+      <c r="J393" s="40"/>
       <c r="K393" s="27"/>
       <c r="L393" s="27"/>
     </row>
@@ -24384,7 +24704,7 @@
       </c>
       <c r="H394" s="32"/>
       <c r="I394" s="32"/>
-      <c r="J394" s="40"/>
+      <c r="J394" s="38"/>
       <c r="K394" s="32"/>
       <c r="L394" s="32"/>
     </row>
@@ -24412,7 +24732,7 @@
       </c>
       <c r="H395" s="23"/>
       <c r="I395" s="23"/>
-      <c r="J395" s="41"/>
+      <c r="J395" s="39"/>
       <c r="K395" s="23"/>
       <c r="L395" s="23"/>
     </row>
@@ -24440,7 +24760,7 @@
       </c>
       <c r="H396" s="23"/>
       <c r="I396" s="23"/>
-      <c r="J396" s="41"/>
+      <c r="J396" s="39"/>
       <c r="K396" s="23"/>
       <c r="L396" s="23"/>
     </row>
@@ -24468,7 +24788,7 @@
       </c>
       <c r="H397" s="27"/>
       <c r="I397" s="27"/>
-      <c r="J397" s="42"/>
+      <c r="J397" s="40"/>
       <c r="K397" s="27"/>
       <c r="L397" s="27"/>
     </row>
@@ -24496,7 +24816,7 @@
       </c>
       <c r="H398" s="32"/>
       <c r="I398" s="32"/>
-      <c r="J398" s="40"/>
+      <c r="J398" s="38"/>
       <c r="K398" s="32"/>
       <c r="L398" s="32"/>
     </row>
@@ -24524,7 +24844,7 @@
       </c>
       <c r="H399" s="23"/>
       <c r="I399" s="23"/>
-      <c r="J399" s="41"/>
+      <c r="J399" s="39"/>
       <c r="K399" s="23"/>
       <c r="L399" s="23"/>
     </row>
@@ -24552,7 +24872,7 @@
       </c>
       <c r="H400" s="23"/>
       <c r="I400" s="23"/>
-      <c r="J400" s="41"/>
+      <c r="J400" s="39"/>
       <c r="K400" s="23"/>
       <c r="L400" s="23"/>
     </row>
@@ -24580,7 +24900,7 @@
       </c>
       <c r="H401" s="27"/>
       <c r="I401" s="27"/>
-      <c r="J401" s="42"/>
+      <c r="J401" s="40"/>
       <c r="K401" s="27"/>
       <c r="L401" s="27"/>
     </row>
@@ -24608,7 +24928,7 @@
       </c>
       <c r="H402" s="32"/>
       <c r="I402" s="32"/>
-      <c r="J402" s="40"/>
+      <c r="J402" s="38"/>
       <c r="K402" s="32"/>
       <c r="L402" s="32"/>
     </row>
@@ -24636,7 +24956,7 @@
       </c>
       <c r="H403" s="23"/>
       <c r="I403" s="23"/>
-      <c r="J403" s="41"/>
+      <c r="J403" s="39"/>
       <c r="K403" s="23"/>
       <c r="L403" s="23"/>
     </row>
@@ -24664,7 +24984,7 @@
       </c>
       <c r="H404" s="23"/>
       <c r="I404" s="23"/>
-      <c r="J404" s="41"/>
+      <c r="J404" s="39"/>
       <c r="K404" s="23"/>
       <c r="L404" s="23"/>
     </row>
@@ -24692,7 +25012,7 @@
       </c>
       <c r="H405" s="27"/>
       <c r="I405" s="27"/>
-      <c r="J405" s="42"/>
+      <c r="J405" s="40"/>
       <c r="K405" s="27"/>
       <c r="L405" s="27"/>
     </row>
@@ -24720,7 +25040,7 @@
       </c>
       <c r="H406" s="32"/>
       <c r="I406" s="32"/>
-      <c r="J406" s="40"/>
+      <c r="J406" s="38"/>
       <c r="K406" s="32"/>
       <c r="L406" s="32"/>
     </row>
@@ -24748,7 +25068,7 @@
       </c>
       <c r="H407" s="23"/>
       <c r="I407" s="23"/>
-      <c r="J407" s="41"/>
+      <c r="J407" s="39"/>
       <c r="K407" s="23"/>
       <c r="L407" s="23"/>
     </row>
@@ -24776,7 +25096,7 @@
       </c>
       <c r="H408" s="23"/>
       <c r="I408" s="23"/>
-      <c r="J408" s="41"/>
+      <c r="J408" s="39"/>
       <c r="K408" s="23"/>
       <c r="L408" s="23"/>
     </row>
@@ -24804,7 +25124,7 @@
       </c>
       <c r="H409" s="27"/>
       <c r="I409" s="27"/>
-      <c r="J409" s="42"/>
+      <c r="J409" s="40"/>
       <c r="K409" s="27"/>
       <c r="L409" s="27"/>
     </row>
@@ -24832,7 +25152,7 @@
       </c>
       <c r="H410" s="32"/>
       <c r="I410" s="32"/>
-      <c r="J410" s="40"/>
+      <c r="J410" s="38"/>
       <c r="K410" s="32"/>
       <c r="L410" s="32"/>
     </row>
@@ -24860,7 +25180,7 @@
       </c>
       <c r="H411" s="23"/>
       <c r="I411" s="23"/>
-      <c r="J411" s="41"/>
+      <c r="J411" s="39"/>
       <c r="K411" s="23"/>
       <c r="L411" s="23"/>
     </row>
@@ -24888,7 +25208,7 @@
       </c>
       <c r="H412" s="23"/>
       <c r="I412" s="23"/>
-      <c r="J412" s="41"/>
+      <c r="J412" s="39"/>
       <c r="K412" s="23"/>
       <c r="L412" s="23"/>
     </row>
@@ -24916,7 +25236,7 @@
       </c>
       <c r="H413" s="27"/>
       <c r="I413" s="27"/>
-      <c r="J413" s="42"/>
+      <c r="J413" s="40"/>
       <c r="K413" s="27"/>
       <c r="L413" s="27"/>
     </row>
@@ -24944,7 +25264,7 @@
       </c>
       <c r="H414" s="32"/>
       <c r="I414" s="32"/>
-      <c r="J414" s="40"/>
+      <c r="J414" s="38"/>
       <c r="K414" s="32"/>
       <c r="L414" s="32"/>
     </row>
@@ -24972,7 +25292,7 @@
       </c>
       <c r="H415" s="23"/>
       <c r="I415" s="23"/>
-      <c r="J415" s="41"/>
+      <c r="J415" s="39"/>
       <c r="K415" s="23"/>
       <c r="L415" s="23"/>
     </row>
@@ -25000,7 +25320,7 @@
       </c>
       <c r="H416" s="23"/>
       <c r="I416" s="23"/>
-      <c r="J416" s="41"/>
+      <c r="J416" s="39"/>
       <c r="K416" s="23"/>
       <c r="L416" s="23"/>
     </row>
@@ -25028,7 +25348,7 @@
       </c>
       <c r="H417" s="27"/>
       <c r="I417" s="27"/>
-      <c r="J417" s="42"/>
+      <c r="J417" s="40"/>
       <c r="K417" s="27"/>
       <c r="L417" s="27"/>
     </row>
@@ -25056,7 +25376,7 @@
       </c>
       <c r="H418" s="32"/>
       <c r="I418" s="32"/>
-      <c r="J418" s="40"/>
+      <c r="J418" s="38"/>
       <c r="K418" s="32"/>
       <c r="L418" s="32"/>
     </row>
@@ -25084,7 +25404,7 @@
       </c>
       <c r="H419" s="23"/>
       <c r="I419" s="23"/>
-      <c r="J419" s="41"/>
+      <c r="J419" s="39"/>
       <c r="K419" s="23"/>
       <c r="L419" s="23"/>
     </row>
@@ -25112,7 +25432,7 @@
       </c>
       <c r="H420" s="23"/>
       <c r="I420" s="23"/>
-      <c r="J420" s="41"/>
+      <c r="J420" s="39"/>
       <c r="K420" s="23"/>
       <c r="L420" s="23"/>
     </row>
@@ -25140,7 +25460,7 @@
       </c>
       <c r="H421" s="27"/>
       <c r="I421" s="27"/>
-      <c r="J421" s="42"/>
+      <c r="J421" s="40"/>
       <c r="K421" s="27"/>
       <c r="L421" s="27"/>
     </row>
@@ -25168,7 +25488,7 @@
       </c>
       <c r="H422" s="32"/>
       <c r="I422" s="32"/>
-      <c r="J422" s="40"/>
+      <c r="J422" s="38"/>
       <c r="K422" s="32"/>
       <c r="L422" s="32"/>
     </row>
@@ -25196,7 +25516,7 @@
       </c>
       <c r="H423" s="23"/>
       <c r="I423" s="23"/>
-      <c r="J423" s="41"/>
+      <c r="J423" s="39"/>
       <c r="K423" s="23"/>
       <c r="L423" s="23"/>
     </row>
@@ -25224,7 +25544,7 @@
       </c>
       <c r="H424" s="23"/>
       <c r="I424" s="23"/>
-      <c r="J424" s="41"/>
+      <c r="J424" s="39"/>
       <c r="K424" s="23"/>
       <c r="L424" s="23"/>
     </row>
@@ -25252,7 +25572,7 @@
       </c>
       <c r="H425" s="27"/>
       <c r="I425" s="27"/>
-      <c r="J425" s="42"/>
+      <c r="J425" s="40"/>
       <c r="K425" s="27"/>
       <c r="L425" s="27"/>
     </row>
@@ -25280,7 +25600,7 @@
       </c>
       <c r="H426" s="32"/>
       <c r="I426" s="32"/>
-      <c r="J426" s="40"/>
+      <c r="J426" s="38"/>
       <c r="K426" s="32"/>
       <c r="L426" s="32"/>
     </row>
@@ -25308,7 +25628,7 @@
       </c>
       <c r="H427" s="23"/>
       <c r="I427" s="23"/>
-      <c r="J427" s="41"/>
+      <c r="J427" s="39"/>
       <c r="K427" s="23"/>
       <c r="L427" s="23"/>
     </row>
@@ -25336,7 +25656,7 @@
       </c>
       <c r="H428" s="23"/>
       <c r="I428" s="23"/>
-      <c r="J428" s="41"/>
+      <c r="J428" s="39"/>
       <c r="K428" s="23"/>
       <c r="L428" s="23"/>
     </row>
@@ -25364,7 +25684,7 @@
       </c>
       <c r="H429" s="27"/>
       <c r="I429" s="27"/>
-      <c r="J429" s="42"/>
+      <c r="J429" s="40"/>
       <c r="K429" s="27"/>
       <c r="L429" s="27"/>
     </row>
@@ -25392,7 +25712,7 @@
       </c>
       <c r="H430" s="32"/>
       <c r="I430" s="32"/>
-      <c r="J430" s="40"/>
+      <c r="J430" s="38"/>
       <c r="K430" s="32"/>
       <c r="L430" s="32"/>
     </row>
@@ -25420,7 +25740,7 @@
       </c>
       <c r="H431" s="23"/>
       <c r="I431" s="23"/>
-      <c r="J431" s="41"/>
+      <c r="J431" s="39"/>
       <c r="K431" s="23"/>
       <c r="L431" s="23"/>
     </row>
@@ -25448,7 +25768,7 @@
       </c>
       <c r="H432" s="23"/>
       <c r="I432" s="23"/>
-      <c r="J432" s="41"/>
+      <c r="J432" s="39"/>
       <c r="K432" s="23"/>
       <c r="L432" s="23"/>
     </row>
@@ -25476,7 +25796,7 @@
       </c>
       <c r="H433" s="27"/>
       <c r="I433" s="27"/>
-      <c r="J433" s="42"/>
+      <c r="J433" s="40"/>
       <c r="K433" s="27"/>
       <c r="L433" s="27"/>
     </row>
@@ -25504,7 +25824,7 @@
       </c>
       <c r="H434" s="32"/>
       <c r="I434" s="32"/>
-      <c r="J434" s="40"/>
+      <c r="J434" s="38"/>
       <c r="K434" s="32"/>
       <c r="L434" s="32"/>
     </row>
@@ -25532,7 +25852,7 @@
       </c>
       <c r="H435" s="23"/>
       <c r="I435" s="23"/>
-      <c r="J435" s="41"/>
+      <c r="J435" s="39"/>
       <c r="K435" s="23"/>
       <c r="L435" s="23"/>
     </row>
@@ -25560,7 +25880,7 @@
       </c>
       <c r="H436" s="23"/>
       <c r="I436" s="23"/>
-      <c r="J436" s="41"/>
+      <c r="J436" s="39"/>
       <c r="K436" s="23"/>
       <c r="L436" s="23"/>
     </row>
@@ -25588,7 +25908,7 @@
       </c>
       <c r="H437" s="27"/>
       <c r="I437" s="27"/>
-      <c r="J437" s="42"/>
+      <c r="J437" s="40"/>
       <c r="K437" s="27"/>
       <c r="L437" s="27"/>
     </row>
@@ -25616,7 +25936,7 @@
       </c>
       <c r="H438" s="32"/>
       <c r="I438" s="32"/>
-      <c r="J438" s="40"/>
+      <c r="J438" s="38"/>
       <c r="K438" s="32"/>
       <c r="L438" s="32"/>
     </row>
@@ -25644,7 +25964,7 @@
       </c>
       <c r="H439" s="23"/>
       <c r="I439" s="23"/>
-      <c r="J439" s="41"/>
+      <c r="J439" s="39"/>
       <c r="K439" s="23"/>
       <c r="L439" s="23"/>
     </row>
@@ -25672,7 +25992,7 @@
       </c>
       <c r="H440" s="23"/>
       <c r="I440" s="23"/>
-      <c r="J440" s="41"/>
+      <c r="J440" s="39"/>
       <c r="K440" s="23"/>
       <c r="L440" s="23"/>
     </row>
@@ -25700,7 +26020,7 @@
       </c>
       <c r="H441" s="27"/>
       <c r="I441" s="27"/>
-      <c r="J441" s="42"/>
+      <c r="J441" s="40"/>
       <c r="K441" s="27"/>
       <c r="L441" s="27"/>
     </row>
@@ -25728,7 +26048,7 @@
       </c>
       <c r="H442" s="32"/>
       <c r="I442" s="32"/>
-      <c r="J442" s="40"/>
+      <c r="J442" s="38"/>
       <c r="K442" s="32"/>
       <c r="L442" s="32"/>
     </row>
@@ -25756,7 +26076,7 @@
       </c>
       <c r="H443" s="23"/>
       <c r="I443" s="23"/>
-      <c r="J443" s="41"/>
+      <c r="J443" s="39"/>
       <c r="K443" s="23"/>
       <c r="L443" s="23"/>
     </row>
@@ -25784,7 +26104,7 @@
       </c>
       <c r="H444" s="23"/>
       <c r="I444" s="23"/>
-      <c r="J444" s="41"/>
+      <c r="J444" s="39"/>
       <c r="K444" s="23"/>
       <c r="L444" s="23"/>
     </row>
@@ -25812,7 +26132,7 @@
       </c>
       <c r="H445" s="27"/>
       <c r="I445" s="27"/>
-      <c r="J445" s="42"/>
+      <c r="J445" s="40"/>
       <c r="K445" s="27"/>
       <c r="L445" s="27"/>
     </row>
@@ -25840,7 +26160,7 @@
       </c>
       <c r="H446" s="32"/>
       <c r="I446" s="32"/>
-      <c r="J446" s="40"/>
+      <c r="J446" s="38"/>
       <c r="K446" s="32"/>
       <c r="L446" s="32"/>
     </row>
@@ -25868,7 +26188,7 @@
       </c>
       <c r="H447" s="23"/>
       <c r="I447" s="23"/>
-      <c r="J447" s="41"/>
+      <c r="J447" s="39"/>
       <c r="K447" s="23"/>
       <c r="L447" s="23"/>
     </row>
@@ -25896,7 +26216,7 @@
       </c>
       <c r="H448" s="23"/>
       <c r="I448" s="23"/>
-      <c r="J448" s="41"/>
+      <c r="J448" s="39"/>
       <c r="K448" s="23"/>
       <c r="L448" s="23"/>
     </row>
@@ -25924,7 +26244,7 @@
       </c>
       <c r="H449" s="27"/>
       <c r="I449" s="27"/>
-      <c r="J449" s="42"/>
+      <c r="J449" s="40"/>
       <c r="K449" s="27"/>
       <c r="L449" s="27"/>
     </row>
@@ -25952,7 +26272,7 @@
       </c>
       <c r="H450" s="32"/>
       <c r="I450" s="32"/>
-      <c r="J450" s="40"/>
+      <c r="J450" s="38"/>
       <c r="K450" s="32"/>
       <c r="L450" s="32"/>
     </row>
@@ -25980,7 +26300,7 @@
       </c>
       <c r="H451" s="23"/>
       <c r="I451" s="23"/>
-      <c r="J451" s="41"/>
+      <c r="J451" s="39"/>
       <c r="K451" s="23"/>
       <c r="L451" s="23"/>
     </row>
@@ -26008,7 +26328,7 @@
       </c>
       <c r="H452" s="23"/>
       <c r="I452" s="23"/>
-      <c r="J452" s="41"/>
+      <c r="J452" s="39"/>
       <c r="K452" s="23"/>
       <c r="L452" s="23"/>
     </row>
@@ -26036,7 +26356,7 @@
       </c>
       <c r="H453" s="27"/>
       <c r="I453" s="27"/>
-      <c r="J453" s="42"/>
+      <c r="J453" s="40"/>
       <c r="K453" s="27"/>
       <c r="L453" s="27"/>
     </row>
@@ -26064,7 +26384,7 @@
       </c>
       <c r="H454" s="32"/>
       <c r="I454" s="32"/>
-      <c r="J454" s="40"/>
+      <c r="J454" s="38"/>
       <c r="K454" s="32"/>
       <c r="L454" s="32"/>
     </row>
@@ -26092,7 +26412,7 @@
       </c>
       <c r="H455" s="23"/>
       <c r="I455" s="23"/>
-      <c r="J455" s="41"/>
+      <c r="J455" s="39"/>
       <c r="K455" s="23"/>
       <c r="L455" s="23"/>
     </row>
@@ -26120,7 +26440,7 @@
       </c>
       <c r="H456" s="23"/>
       <c r="I456" s="23"/>
-      <c r="J456" s="41"/>
+      <c r="J456" s="39"/>
       <c r="K456" s="23"/>
       <c r="L456" s="23"/>
     </row>
@@ -26148,7 +26468,7 @@
       </c>
       <c r="H457" s="27"/>
       <c r="I457" s="27"/>
-      <c r="J457" s="42"/>
+      <c r="J457" s="40"/>
       <c r="K457" s="27"/>
       <c r="L457" s="27"/>
     </row>
@@ -26176,7 +26496,7 @@
       </c>
       <c r="H458" s="32"/>
       <c r="I458" s="32"/>
-      <c r="J458" s="40"/>
+      <c r="J458" s="38"/>
       <c r="K458" s="32"/>
       <c r="L458" s="32"/>
     </row>
@@ -26204,7 +26524,7 @@
       </c>
       <c r="H459" s="23"/>
       <c r="I459" s="23"/>
-      <c r="J459" s="41"/>
+      <c r="J459" s="39"/>
       <c r="K459" s="23"/>
       <c r="L459" s="23"/>
     </row>
@@ -26232,7 +26552,7 @@
       </c>
       <c r="H460" s="23"/>
       <c r="I460" s="23"/>
-      <c r="J460" s="41"/>
+      <c r="J460" s="39"/>
       <c r="K460" s="23"/>
       <c r="L460" s="23"/>
     </row>
@@ -26260,7 +26580,7 @@
       </c>
       <c r="H461" s="27"/>
       <c r="I461" s="27"/>
-      <c r="J461" s="42"/>
+      <c r="J461" s="40"/>
       <c r="K461" s="27"/>
       <c r="L461" s="27"/>
     </row>
@@ -26288,7 +26608,7 @@
       </c>
       <c r="H462" s="32"/>
       <c r="I462" s="32"/>
-      <c r="J462" s="40"/>
+      <c r="J462" s="38"/>
       <c r="K462" s="32"/>
       <c r="L462" s="32"/>
     </row>
@@ -26316,7 +26636,7 @@
       </c>
       <c r="H463" s="23"/>
       <c r="I463" s="23"/>
-      <c r="J463" s="41"/>
+      <c r="J463" s="39"/>
       <c r="K463" s="23"/>
       <c r="L463" s="23"/>
     </row>
@@ -26344,7 +26664,7 @@
       </c>
       <c r="H464" s="23"/>
       <c r="I464" s="23"/>
-      <c r="J464" s="41"/>
+      <c r="J464" s="39"/>
       <c r="K464" s="23"/>
       <c r="L464" s="23"/>
     </row>
@@ -26372,7 +26692,7 @@
       </c>
       <c r="H465" s="27"/>
       <c r="I465" s="27"/>
-      <c r="J465" s="42"/>
+      <c r="J465" s="40"/>
       <c r="K465" s="27"/>
       <c r="L465" s="27"/>
     </row>
@@ -26400,7 +26720,7 @@
       </c>
       <c r="H466" s="32"/>
       <c r="I466" s="32"/>
-      <c r="J466" s="40"/>
+      <c r="J466" s="38"/>
       <c r="K466" s="32"/>
       <c r="L466" s="32"/>
     </row>
@@ -26428,7 +26748,7 @@
       </c>
       <c r="H467" s="23"/>
       <c r="I467" s="23"/>
-      <c r="J467" s="41"/>
+      <c r="J467" s="39"/>
       <c r="K467" s="23"/>
       <c r="L467" s="23"/>
     </row>
@@ -26456,7 +26776,7 @@
       </c>
       <c r="H468" s="23"/>
       <c r="I468" s="23"/>
-      <c r="J468" s="41"/>
+      <c r="J468" s="39"/>
       <c r="K468" s="23"/>
       <c r="L468" s="23"/>
     </row>
@@ -26484,7 +26804,7 @@
       </c>
       <c r="H469" s="27"/>
       <c r="I469" s="27"/>
-      <c r="J469" s="42"/>
+      <c r="J469" s="40"/>
       <c r="K469" s="27"/>
       <c r="L469" s="27"/>
     </row>
@@ -26512,7 +26832,7 @@
       </c>
       <c r="H470" s="32"/>
       <c r="I470" s="32"/>
-      <c r="J470" s="40"/>
+      <c r="J470" s="38"/>
       <c r="K470" s="32"/>
       <c r="L470" s="32"/>
     </row>
@@ -26540,7 +26860,7 @@
       </c>
       <c r="H471" s="23"/>
       <c r="I471" s="23"/>
-      <c r="J471" s="41"/>
+      <c r="J471" s="39"/>
       <c r="K471" s="23"/>
       <c r="L471" s="23"/>
     </row>
@@ -26568,7 +26888,7 @@
       </c>
       <c r="H472" s="23"/>
       <c r="I472" s="23"/>
-      <c r="J472" s="41"/>
+      <c r="J472" s="39"/>
       <c r="K472" s="23"/>
       <c r="L472" s="23"/>
     </row>
@@ -26596,7 +26916,7 @@
       </c>
       <c r="H473" s="27"/>
       <c r="I473" s="27"/>
-      <c r="J473" s="42"/>
+      <c r="J473" s="40"/>
       <c r="K473" s="27"/>
       <c r="L473" s="27"/>
     </row>
@@ -26624,7 +26944,7 @@
       </c>
       <c r="H474" s="32"/>
       <c r="I474" s="32"/>
-      <c r="J474" s="40"/>
+      <c r="J474" s="38"/>
       <c r="K474" s="32"/>
       <c r="L474" s="32"/>
     </row>
@@ -26652,7 +26972,7 @@
       </c>
       <c r="H475" s="23"/>
       <c r="I475" s="23"/>
-      <c r="J475" s="41"/>
+      <c r="J475" s="39"/>
       <c r="K475" s="23"/>
       <c r="L475" s="23"/>
     </row>
@@ -26680,7 +27000,7 @@
       </c>
       <c r="H476" s="23"/>
       <c r="I476" s="23"/>
-      <c r="J476" s="41"/>
+      <c r="J476" s="39"/>
       <c r="K476" s="23"/>
       <c r="L476" s="23"/>
     </row>
@@ -26708,7 +27028,7 @@
       </c>
       <c r="H477" s="27"/>
       <c r="I477" s="27"/>
-      <c r="J477" s="42"/>
+      <c r="J477" s="40"/>
       <c r="K477" s="27"/>
       <c r="L477" s="27"/>
     </row>
@@ -26736,7 +27056,7 @@
       </c>
       <c r="H478" s="32"/>
       <c r="I478" s="32"/>
-      <c r="J478" s="40"/>
+      <c r="J478" s="38"/>
       <c r="K478" s="32"/>
       <c r="L478" s="32"/>
     </row>
@@ -26764,7 +27084,7 @@
       </c>
       <c r="H479" s="23"/>
       <c r="I479" s="23"/>
-      <c r="J479" s="41"/>
+      <c r="J479" s="39"/>
       <c r="K479" s="23"/>
       <c r="L479" s="23"/>
     </row>
@@ -26792,7 +27112,7 @@
       </c>
       <c r="H480" s="23"/>
       <c r="I480" s="23"/>
-      <c r="J480" s="41"/>
+      <c r="J480" s="39"/>
       <c r="K480" s="23"/>
       <c r="L480" s="23"/>
     </row>
@@ -26820,7 +27140,7 @@
       </c>
       <c r="H481" s="27"/>
       <c r="I481" s="27"/>
-      <c r="J481" s="42"/>
+      <c r="J481" s="40"/>
       <c r="K481" s="27"/>
       <c r="L481" s="27"/>
     </row>

--- a/vrp_results_tracker.xlsx
+++ b/vrp_results_tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdrex\PycharmProjects\wilib_vrp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3297D5E6-C5C3-471A-B338-2A38CCD1F5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E27BAB0-19FC-48D6-B532-0B12D0F6F989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="870" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4715" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4782" uniqueCount="690">
   <si>
     <t>shift</t>
   </si>
@@ -4685,7 +4685,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N2" sqref="N2"/>
+      <selection pane="bottomRight" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10501,8 +10501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:T481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C255" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H290" sqref="H290"/>
+    <sheetView tabSelected="1" topLeftCell="C303" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H322" sqref="H322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21790,11 +21790,21 @@
       <c r="G290" s="32" t="s">
         <v>518</v>
       </c>
-      <c r="H290" s="32"/>
-      <c r="I290" s="32"/>
-      <c r="J290" s="38"/>
-      <c r="K290" s="32"/>
-      <c r="L290" s="32"/>
+      <c r="H290" s="32">
+        <v>6</v>
+      </c>
+      <c r="I290" s="32">
+        <v>1881</v>
+      </c>
+      <c r="J290" s="38">
+        <v>1129.44</v>
+      </c>
+      <c r="K290" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L290" s="32" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A291" s="21" t="s">
@@ -21818,11 +21828,21 @@
       <c r="G291" s="23" t="s">
         <v>487</v>
       </c>
-      <c r="H291" s="23"/>
-      <c r="I291" s="23"/>
-      <c r="J291" s="39"/>
-      <c r="K291" s="23"/>
-      <c r="L291" s="23"/>
+      <c r="H291" s="24">
+        <v>6</v>
+      </c>
+      <c r="I291" s="24">
+        <v>1913</v>
+      </c>
+      <c r="J291" s="39">
+        <v>1123.0899999999999</v>
+      </c>
+      <c r="K291" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L291" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A292" s="21" t="s">
@@ -21846,11 +21866,21 @@
       <c r="G292" s="23" t="s">
         <v>488</v>
       </c>
-      <c r="H292" s="23"/>
-      <c r="I292" s="23"/>
-      <c r="J292" s="39"/>
-      <c r="K292" s="23"/>
-      <c r="L292" s="23"/>
+      <c r="H292" s="24">
+        <v>7</v>
+      </c>
+      <c r="I292" s="24">
+        <v>2066</v>
+      </c>
+      <c r="J292" s="39">
+        <v>1286.08</v>
+      </c>
+      <c r="K292" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L292" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A293" s="21" t="s">
@@ -21874,11 +21904,21 @@
       <c r="G293" s="27" t="s">
         <v>489</v>
       </c>
-      <c r="H293" s="27"/>
-      <c r="I293" s="27"/>
-      <c r="J293" s="40"/>
-      <c r="K293" s="27"/>
-      <c r="L293" s="27"/>
+      <c r="H293" s="27">
+        <v>7</v>
+      </c>
+      <c r="I293" s="27">
+        <v>2050</v>
+      </c>
+      <c r="J293" s="40">
+        <v>1232.3599999999999</v>
+      </c>
+      <c r="K293" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="L293" s="27" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A294" s="21" t="s">
@@ -21902,11 +21942,21 @@
       <c r="G294" s="32" t="s">
         <v>490</v>
       </c>
-      <c r="H294" s="32"/>
-      <c r="I294" s="32"/>
-      <c r="J294" s="38"/>
-      <c r="K294" s="32"/>
-      <c r="L294" s="32"/>
+      <c r="H294" s="32">
+        <v>6</v>
+      </c>
+      <c r="I294" s="32">
+        <v>1833</v>
+      </c>
+      <c r="J294" s="38">
+        <v>1077.54</v>
+      </c>
+      <c r="K294" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L294" s="32" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A295" s="21" t="s">
@@ -21930,11 +21980,21 @@
       <c r="G295" s="23" t="s">
         <v>491</v>
       </c>
-      <c r="H295" s="23"/>
-      <c r="I295" s="23"/>
-      <c r="J295" s="39"/>
-      <c r="K295" s="23"/>
-      <c r="L295" s="23"/>
+      <c r="H295" s="24">
+        <v>6</v>
+      </c>
+      <c r="I295" s="24">
+        <v>1890</v>
+      </c>
+      <c r="J295" s="39">
+        <v>1132.07</v>
+      </c>
+      <c r="K295" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L295" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A296" s="21" t="s">
@@ -21958,11 +22018,21 @@
       <c r="G296" s="23" t="s">
         <v>492</v>
       </c>
-      <c r="H296" s="23"/>
-      <c r="I296" s="23"/>
-      <c r="J296" s="39"/>
-      <c r="K296" s="23"/>
-      <c r="L296" s="23"/>
+      <c r="H296" s="24">
+        <v>6</v>
+      </c>
+      <c r="I296" s="24">
+        <v>1972</v>
+      </c>
+      <c r="J296" s="39">
+        <v>1169.22</v>
+      </c>
+      <c r="K296" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L296" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A297" s="21" t="s">
@@ -21986,11 +22056,21 @@
       <c r="G297" s="27" t="s">
         <v>493</v>
       </c>
-      <c r="H297" s="27"/>
-      <c r="I297" s="27"/>
-      <c r="J297" s="40"/>
-      <c r="K297" s="27"/>
-      <c r="L297" s="27"/>
+      <c r="H297" s="27">
+        <v>6</v>
+      </c>
+      <c r="I297" s="27">
+        <v>2153</v>
+      </c>
+      <c r="J297" s="40">
+        <v>1282.1099999999999</v>
+      </c>
+      <c r="K297" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="L297" s="27" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A298" s="21" t="s">
@@ -22014,11 +22094,21 @@
       <c r="G298" s="32" t="s">
         <v>494</v>
       </c>
-      <c r="H298" s="32"/>
-      <c r="I298" s="32"/>
-      <c r="J298" s="38"/>
-      <c r="K298" s="32"/>
-      <c r="L298" s="32"/>
+      <c r="H298" s="32">
+        <v>4</v>
+      </c>
+      <c r="I298" s="32">
+        <v>1745</v>
+      </c>
+      <c r="J298" s="38">
+        <v>933.51</v>
+      </c>
+      <c r="K298" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L298" s="32" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A299" s="21" t="s">
@@ -22042,11 +22132,21 @@
       <c r="G299" s="23" t="s">
         <v>495</v>
       </c>
-      <c r="H299" s="23"/>
-      <c r="I299" s="23"/>
-      <c r="J299" s="39"/>
-      <c r="K299" s="23"/>
-      <c r="L299" s="23"/>
+      <c r="H299" s="24">
+        <v>5</v>
+      </c>
+      <c r="I299" s="24">
+        <v>1690</v>
+      </c>
+      <c r="J299" s="39">
+        <v>961.8</v>
+      </c>
+      <c r="K299" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L299" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A300" s="21" t="s">
@@ -22070,11 +22170,21 @@
       <c r="G300" s="23" t="s">
         <v>496</v>
       </c>
-      <c r="H300" s="23"/>
-      <c r="I300" s="23"/>
-      <c r="J300" s="39"/>
-      <c r="K300" s="23"/>
-      <c r="L300" s="23"/>
+      <c r="H300" s="24">
+        <v>5</v>
+      </c>
+      <c r="I300" s="24">
+        <v>1719</v>
+      </c>
+      <c r="J300" s="39">
+        <v>990.43</v>
+      </c>
+      <c r="K300" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L300" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A301" s="21" t="s">
@@ -22098,11 +22208,21 @@
       <c r="G301" s="27" t="s">
         <v>497</v>
       </c>
-      <c r="H301" s="27"/>
-      <c r="I301" s="27"/>
-      <c r="J301" s="40"/>
-      <c r="K301" s="27"/>
-      <c r="L301" s="27"/>
+      <c r="H301" s="27">
+        <v>5</v>
+      </c>
+      <c r="I301" s="27">
+        <v>1740</v>
+      </c>
+      <c r="J301" s="40">
+        <v>996.49</v>
+      </c>
+      <c r="K301" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="L301" s="27" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A302" s="21" t="s">
@@ -22126,11 +22246,21 @@
       <c r="G302" s="32" t="s">
         <v>498</v>
       </c>
-      <c r="H302" s="32"/>
-      <c r="I302" s="32"/>
-      <c r="J302" s="38"/>
-      <c r="K302" s="32"/>
-      <c r="L302" s="32"/>
+      <c r="H302" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="I302" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="J302" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="K302" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L302" s="32" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A303" s="21" t="s">
@@ -22154,11 +22284,21 @@
       <c r="G303" s="23" t="s">
         <v>499</v>
       </c>
-      <c r="H303" s="23"/>
-      <c r="I303" s="23"/>
-      <c r="J303" s="39"/>
-      <c r="K303" s="23"/>
-      <c r="L303" s="23"/>
+      <c r="H303" s="24">
+        <v>4</v>
+      </c>
+      <c r="I303" s="24">
+        <v>1710</v>
+      </c>
+      <c r="J303" s="39">
+        <v>882.42</v>
+      </c>
+      <c r="K303" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L303" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A304" s="21" t="s">
@@ -22182,11 +22322,21 @@
       <c r="G304" s="23" t="s">
         <v>500</v>
       </c>
-      <c r="H304" s="23"/>
-      <c r="I304" s="23"/>
-      <c r="J304" s="39"/>
-      <c r="K304" s="23"/>
-      <c r="L304" s="23"/>
+      <c r="H304" s="24">
+        <v>4</v>
+      </c>
+      <c r="I304" s="24">
+        <v>1639</v>
+      </c>
+      <c r="J304" s="39">
+        <v>849.76</v>
+      </c>
+      <c r="K304" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L304" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A305" s="21" t="s">
@@ -22210,11 +22360,21 @@
       <c r="G305" s="27" t="s">
         <v>501</v>
       </c>
-      <c r="H305" s="27"/>
-      <c r="I305" s="27"/>
-      <c r="J305" s="40"/>
-      <c r="K305" s="27"/>
-      <c r="L305" s="27"/>
+      <c r="H305" s="27">
+        <v>4</v>
+      </c>
+      <c r="I305" s="27">
+        <v>1627</v>
+      </c>
+      <c r="J305" s="40">
+        <v>838.37</v>
+      </c>
+      <c r="K305" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="L305" s="27" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A306" s="21" t="s">
@@ -22238,11 +22398,21 @@
       <c r="G306" s="32" t="s">
         <v>502</v>
       </c>
-      <c r="H306" s="32"/>
-      <c r="I306" s="32"/>
-      <c r="J306" s="38"/>
-      <c r="K306" s="32"/>
-      <c r="L306" s="32"/>
+      <c r="H306" s="32">
+        <v>4</v>
+      </c>
+      <c r="I306" s="32">
+        <v>1753</v>
+      </c>
+      <c r="J306" s="38">
+        <v>927.56</v>
+      </c>
+      <c r="K306" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L306" s="32" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A307" s="21" t="s">
@@ -22266,11 +22436,21 @@
       <c r="G307" s="23" t="s">
         <v>503</v>
       </c>
-      <c r="H307" s="23"/>
-      <c r="I307" s="23"/>
-      <c r="J307" s="39"/>
-      <c r="K307" s="23"/>
-      <c r="L307" s="23"/>
+      <c r="H307" s="24">
+        <v>5</v>
+      </c>
+      <c r="I307" s="24">
+        <v>1715</v>
+      </c>
+      <c r="J307" s="39">
+        <v>994.53</v>
+      </c>
+      <c r="K307" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L307" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A308" s="21" t="s">
@@ -22294,11 +22474,21 @@
       <c r="G308" s="23" t="s">
         <v>504</v>
       </c>
-      <c r="H308" s="23"/>
-      <c r="I308" s="23"/>
-      <c r="J308" s="39"/>
-      <c r="K308" s="23"/>
-      <c r="L308" s="23"/>
+      <c r="H308" s="24">
+        <v>5</v>
+      </c>
+      <c r="I308" s="24">
+        <v>1730</v>
+      </c>
+      <c r="J308" s="39">
+        <v>936.48</v>
+      </c>
+      <c r="K308" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L308" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A309" s="21" t="s">
@@ -22322,11 +22512,21 @@
       <c r="G309" s="27" t="s">
         <v>505</v>
       </c>
-      <c r="H309" s="27"/>
-      <c r="I309" s="27"/>
-      <c r="J309" s="40"/>
-      <c r="K309" s="27"/>
-      <c r="L309" s="27"/>
+      <c r="H309" s="27">
+        <v>4</v>
+      </c>
+      <c r="I309" s="27">
+        <v>1723</v>
+      </c>
+      <c r="J309" s="40">
+        <v>890.2</v>
+      </c>
+      <c r="K309" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="L309" s="27" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A310" s="21" t="s">
@@ -22350,11 +22550,21 @@
       <c r="G310" s="32" t="s">
         <v>506</v>
       </c>
-      <c r="H310" s="32"/>
-      <c r="I310" s="32"/>
-      <c r="J310" s="38"/>
-      <c r="K310" s="32"/>
-      <c r="L310" s="32"/>
+      <c r="H310" s="32">
+        <v>3</v>
+      </c>
+      <c r="I310" s="32">
+        <v>1550</v>
+      </c>
+      <c r="J310" s="38">
+        <v>789.86</v>
+      </c>
+      <c r="K310" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L310" s="32" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A311" s="21" t="s">
@@ -22378,11 +22588,21 @@
       <c r="G311" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="H311" s="23"/>
-      <c r="I311" s="23"/>
-      <c r="J311" s="39"/>
-      <c r="K311" s="23"/>
-      <c r="L311" s="23"/>
+      <c r="H311" s="24">
+        <v>3</v>
+      </c>
+      <c r="I311" s="24">
+        <v>1483</v>
+      </c>
+      <c r="J311" s="39">
+        <v>744.89</v>
+      </c>
+      <c r="K311" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L311" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A312" s="21" t="s">
@@ -22406,11 +22626,21 @@
       <c r="G312" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="H312" s="23"/>
-      <c r="I312" s="23"/>
-      <c r="J312" s="39"/>
-      <c r="K312" s="23"/>
-      <c r="L312" s="23"/>
+      <c r="H312" s="24">
+        <v>3</v>
+      </c>
+      <c r="I312" s="24">
+        <v>1627</v>
+      </c>
+      <c r="J312" s="39">
+        <v>840.1</v>
+      </c>
+      <c r="K312" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L312" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A313" s="21" t="s">
@@ -22434,11 +22664,21 @@
       <c r="G313" s="27" t="s">
         <v>509</v>
       </c>
-      <c r="H313" s="27"/>
-      <c r="I313" s="27"/>
-      <c r="J313" s="40"/>
-      <c r="K313" s="27"/>
-      <c r="L313" s="27"/>
+      <c r="H313" s="27">
+        <v>4</v>
+      </c>
+      <c r="I313" s="27">
+        <v>1725</v>
+      </c>
+      <c r="J313" s="40">
+        <v>892.99</v>
+      </c>
+      <c r="K313" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="L313" s="27" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A314" s="21" t="s">
@@ -22462,11 +22702,21 @@
       <c r="G314" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="H314" s="32"/>
-      <c r="I314" s="32"/>
-      <c r="J314" s="38"/>
-      <c r="K314" s="32"/>
-      <c r="L314" s="32"/>
+      <c r="H314" s="32">
+        <v>4</v>
+      </c>
+      <c r="I314" s="32">
+        <v>1753</v>
+      </c>
+      <c r="J314" s="38">
+        <v>927.56</v>
+      </c>
+      <c r="K314" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L314" s="32" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A315" s="21" t="s">
@@ -22490,11 +22740,21 @@
       <c r="G315" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="H315" s="23"/>
-      <c r="I315" s="23"/>
-      <c r="J315" s="39"/>
-      <c r="K315" s="23"/>
-      <c r="L315" s="23"/>
+      <c r="H315" s="24">
+        <v>5</v>
+      </c>
+      <c r="I315" s="24">
+        <v>1715</v>
+      </c>
+      <c r="J315" s="39">
+        <v>994.53</v>
+      </c>
+      <c r="K315" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L315" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A316" s="21" t="s">
@@ -22518,11 +22778,21 @@
       <c r="G316" s="23" t="s">
         <v>512</v>
       </c>
-      <c r="H316" s="23"/>
-      <c r="I316" s="23"/>
-      <c r="J316" s="39"/>
-      <c r="K316" s="23"/>
-      <c r="L316" s="23"/>
+      <c r="H316" s="24">
+        <v>5</v>
+      </c>
+      <c r="I316" s="24">
+        <v>1730</v>
+      </c>
+      <c r="J316" s="39">
+        <v>936.48</v>
+      </c>
+      <c r="K316" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="L316" s="24" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A317" s="21" t="s">
@@ -22546,11 +22816,21 @@
       <c r="G317" s="27" t="s">
         <v>513</v>
       </c>
-      <c r="H317" s="27"/>
-      <c r="I317" s="27"/>
-      <c r="J317" s="40"/>
-      <c r="K317" s="27"/>
-      <c r="L317" s="27"/>
+      <c r="H317" s="27">
+        <v>4</v>
+      </c>
+      <c r="I317" s="27">
+        <v>1723</v>
+      </c>
+      <c r="J317" s="40">
+        <v>890.2</v>
+      </c>
+      <c r="K317" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="L317" s="27" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A318" s="21" t="s">
@@ -22574,11 +22854,21 @@
       <c r="G318" s="32" t="s">
         <v>514</v>
       </c>
-      <c r="H318" s="32"/>
-      <c r="I318" s="32"/>
-      <c r="J318" s="38"/>
-      <c r="K318" s="32"/>
-      <c r="L318" s="32"/>
+      <c r="H318" s="32">
+        <v>3</v>
+      </c>
+      <c r="I318" s="32">
+        <v>1550</v>
+      </c>
+      <c r="J318" s="38">
+        <v>789.86</v>
+      </c>
+      <c r="K318" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L318" s="32" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="3